--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4D540-CE9B-4D80-8535-D4A4B7BA2B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51813CA-65B2-4C35-BBD4-BEB410A0D71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="8690" windowWidth="32050" windowHeight="9730" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="10440" yWindow="6180" windowWidth="36760" windowHeight="13840" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="243">
   <si>
     <t>borough</t>
   </si>
@@ -628,9 +628,6 @@
     <t>NOMBRE TOTAL DE CAS CONFIRMÉS¹</t>
   </si>
   <si>
-    <t>RÉPARTITION PARMI LES CAS DONT LE TERRITOIRE EST CONNU (%)</t>
-  </si>
-  <si>
     <t>TAUX POUR</t>
   </si>
   <si>
@@ -640,42 +637,21 @@
     <t>PERSONNES</t>
   </si>
   <si>
-    <t>Territoire à confirmer²</t>
-  </si>
-  <si>
-    <t>3 713</t>
-  </si>
-  <si>
     <t>179,7</t>
   </si>
   <si>
-    <t>30,2</t>
-  </si>
-  <si>
     <t>228,7</t>
   </si>
   <si>
-    <t>17,2</t>
-  </si>
-  <si>
     <t>150,8</t>
   </si>
   <si>
-    <t>19,0</t>
-  </si>
-  <si>
     <t>98,6</t>
   </si>
   <si>
-    <t>17,7</t>
-  </si>
-  <si>
     <t>110,2</t>
   </si>
   <si>
-    <t>15,9</t>
-  </si>
-  <si>
     <t>119,1</t>
   </si>
   <si>
@@ -740,6 +716,93 @@
   </si>
   <si>
     <t>cases_mtl_80+_per100000_norm</t>
+  </si>
+  <si>
+    <t>3 977</t>
+  </si>
+  <si>
+    <t>192,5</t>
+  </si>
+  <si>
+    <t>5 AVRIL, 16H 15</t>
+  </si>
+  <si>
+    <t>239,7</t>
+  </si>
+  <si>
+    <t>160,4</t>
+  </si>
+  <si>
+    <t>106,9</t>
+  </si>
+  <si>
+    <t>124,8</t>
+  </si>
+  <si>
+    <t>127,3</t>
+  </si>
+  <si>
+    <t>RÉPARTITION PARMI LES CAS DONT L'ÂGE EST CONNU (%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>* 24,4</t>
+  </si>
+  <si>
+    <t>0,7% </t>
+  </si>
+  <si>
+    <t>* 26,9</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>74,4</t>
+  </si>
+  <si>
+    <t>15,7%  </t>
+  </si>
+  <si>
+    <t>193,1</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>203,0</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>248,3</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>236,5</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>199,9</t>
+  </si>
+  <si>
+    <t>7,5% </t>
+  </si>
+  <si>
+    <t>206,6</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>438,4 </t>
   </si>
 </sst>
 </file>
@@ -875,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -922,7 +985,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,19 +1305,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1280,8 +1342,11 @@
       <c r="H1" s="1">
         <v>43925</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1306,8 +1371,11 @@
       <c r="H2">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1332,8 +1400,11 @@
       <c r="H3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1358,8 +1429,11 @@
       <c r="H4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1384,8 +1458,11 @@
       <c r="H5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1410,8 +1487,11 @@
       <c r="H6">
         <v>370</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1436,8 +1516,11 @@
       <c r="H7">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1462,8 +1545,11 @@
       <c r="H8">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1488,8 +1574,11 @@
       <c r="H9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1514,8 +1603,11 @@
       <c r="H10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1540,8 +1632,11 @@
       <c r="H11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1566,8 +1661,11 @@
       <c r="H12">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1592,8 +1690,11 @@
       <c r="H13">
         <v>204</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1618,8 +1719,11 @@
       <c r="H14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1644,8 +1748,11 @@
       <c r="H15">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1670,8 +1777,11 @@
       <c r="H16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1696,8 +1806,11 @@
       <c r="H17">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -1722,8 +1835,11 @@
       <c r="H18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1748,8 +1864,11 @@
       <c r="H19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1774,8 +1893,11 @@
       <c r="H20">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1800,8 +1922,11 @@
       <c r="H21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1826,8 +1951,11 @@
       <c r="H22">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -1852,8 +1980,11 @@
       <c r="H23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +2009,11 @@
       <c r="H24">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1904,8 +2038,11 @@
       <c r="H25">
         <v>181</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1930,8 +2067,11 @@
       <c r="H26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1956,8 +2096,11 @@
       <c r="H27">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1982,8 +2125,11 @@
       <c r="H28">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2008,8 +2154,11 @@
       <c r="H29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2034,8 +2183,11 @@
       <c r="H30">
         <v>124</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2060,8 +2212,11 @@
       <c r="H31">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2086,8 +2241,11 @@
       <c r="H32">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2112,8 +2270,11 @@
       <c r="H33">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2138,8 +2299,11 @@
       <c r="H34">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2163,6 +2327,9 @@
       </c>
       <c r="H35">
         <v>888</v>
+      </c>
+      <c r="I35">
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -2172,19 +2339,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2216,8 +2383,12 @@
         <f>cases!H1</f>
         <v>43925</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1">
+        <f>cases!I1</f>
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2248,8 +2419,12 @@
         <f>cases!H2/(population_2016!$B2/1000)</f>
         <v>1.0652165816231516</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="3">
+        <f>cases!I2/(population_2016!$B2/1000)</f>
+        <v>1.3110357927669558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2280,8 +2455,12 @@
         <f>cases!H3/(population_2016!$B3/1000)</f>
         <v>0.81783344237779232</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="3">
+        <f>cases!I3/(population_2016!$B3/1000)</f>
+        <v>0.86456678194223757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2312,8 +2491,12 @@
         <f>cases!H4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="3">
+        <f>cases!I4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2344,8 +2527,12 @@
         <f>cases!H5/(population_2016!$B5/1000)</f>
         <v>0.51749120264955495</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="3">
+        <f>cases!I5/(population_2016!$B5/1000)</f>
+        <v>0.51749120264955495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2376,8 +2563,12 @@
         <f>cases!H6/(population_2016!$B6/1000)</f>
         <v>2.2219553206822003</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="3">
+        <f>cases!I6/(population_2016!$B6/1000)</f>
+        <v>2.3060293057890942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2408,8 +2599,12 @@
         <f>cases!H7/(population_2016!$B7/1000)</f>
         <v>5.9171597633136095</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="3">
+        <f>cases!I7/(population_2016!$B7/1000)</f>
+        <v>6.3794378698224854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2440,8 +2635,12 @@
         <f>cases!H8/(population_2016!$B8/1000)</f>
         <v>0.92026421808216941</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="3">
+        <f>cases!I8/(population_2016!$B8/1000)</f>
+        <v>1.0225157978690771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2472,8 +2671,12 @@
         <f>cases!H9/(population_2016!$B9/1000)</f>
         <v>1.3698630136986301</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="3">
+        <f>cases!I9/(population_2016!$B9/1000)</f>
+        <v>1.4225500526870389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2504,8 +2707,12 @@
         <f>cases!H10/(population_2016!$B10/1000)</f>
         <v>3.8720780152014918</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="3">
+        <f>cases!I10/(population_2016!$B10/1000)</f>
+        <v>3.8720780152014918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2536,8 +2743,12 @@
         <f>cases!H11/(population_2016!$B11/1000)</f>
         <v>0.59550394521363703</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="3">
+        <f>cases!I11/(population_2016!$B11/1000)</f>
+        <v>0.59550394521363703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2568,8 +2779,12 @@
         <f>cases!H12/(population_2016!$B12/1000)</f>
         <v>1.2812155813796671</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="3">
+        <f>cases!I12/(population_2016!$B12/1000)</f>
+        <v>1.3261705140596554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2600,8 +2815,12 @@
         <f>cases!H13/(population_2016!$B13/1000)</f>
         <v>2.6544181749573865</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="3">
+        <f>cases!I13/(population_2016!$B13/1000)</f>
+        <v>2.8495959819395473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2632,8 +2851,12 @@
         <f>cases!H14/(population_2016!$B14/1000)</f>
         <v>0.76033237386629016</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="3">
+        <f>cases!I14/(population_2016!$B14/1000)</f>
+        <v>0.81464182914245364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2664,8 +2887,12 @@
         <f>cases!H15/(population_2016!$B15/1000)</f>
         <v>1.0659883549961771</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="3">
+        <f>cases!I15/(population_2016!$B15/1000)</f>
+        <v>1.1100982179615362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2696,8 +2923,12 @@
         <f>cases!H16/(population_2016!$B16/1000)</f>
         <v>1.2987012987012987</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="3">
+        <f>cases!I16/(population_2016!$B16/1000)</f>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2728,8 +2959,12 @@
         <f>cases!H17/(population_2016!$B17/1000)</f>
         <v>1.1752973858536933</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="3">
+        <f>cases!I17/(population_2016!$B17/1000)</f>
+        <v>1.3889878196452741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2760,8 +2995,12 @@
         <f>cases!H18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="3">
+        <f>cases!I18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2792,8 +3031,12 @@
         <f>cases!H19/(population_2016!$B19/1000)</f>
         <v>1.7754981258630893</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="3">
+        <f>cases!I19/(population_2016!$B19/1000)</f>
+        <v>1.7754981258630893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2824,8 +3067,12 @@
         <f>cases!H20/(population_2016!$B20/1000)</f>
         <v>4.7173749686899891</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="3">
+        <f>cases!I20/(population_2016!$B20/1000)</f>
+        <v>4.7173749686899891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2856,8 +3103,12 @@
         <f>cases!H21/(population_2016!$B21/1000)</f>
         <v>0.72153195665036007</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="3">
+        <f>cases!I21/(population_2016!$B21/1000)</f>
+        <v>0.77925451318238892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2888,8 +3139,12 @@
         <f>cases!H22/(population_2016!$B22/1000)</f>
         <v>1.6153846153846154</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="3">
+        <f>cases!I22/(population_2016!$B22/1000)</f>
+        <v>1.6730769230769231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2920,8 +3175,12 @@
         <f>cases!H23/(population_2016!$B23/1000)</f>
         <v>0.6692160611854685</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="3">
+        <f>cases!I23/(population_2016!$B23/1000)</f>
+        <v>0.73295092415551311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2952,8 +3211,12 @@
         <f>cases!H24/(population_2016!$B24/1000)</f>
         <v>1.0960906101571064</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="3">
+        <f>cases!I24/(population_2016!$B24/1000)</f>
+        <v>1.245983343170044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2984,8 +3247,12 @@
         <f>cases!H25/(population_2016!$B25/1000)</f>
         <v>1.2966544881438498</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="3">
+        <f>cases!I25/(population_2016!$B25/1000)</f>
+        <v>1.3897843685077726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3016,8 +3283,12 @@
         <f>cases!H26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="3">
+        <f>cases!I26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3048,8 +3319,12 @@
         <f>cases!H27/(population_2016!$B27/1000)</f>
         <v>1.2041121949245153</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="3">
+        <f>cases!I27/(population_2016!$B27/1000)</f>
+        <v>1.2951795037843525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3080,8 +3355,12 @@
         <f>cases!H28/(population_2016!$B28/1000)</f>
         <v>0.85562863163271818</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="3">
+        <f>cases!I28/(population_2016!$B28/1000)</f>
+        <v>0.98333439754804919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3112,8 +3391,12 @@
         <f>cases!H29/(population_2016!$B29/1000)</f>
         <v>1.0857763300760044</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="3">
+        <f>cases!I29/(population_2016!$B29/1000)</f>
+        <v>1.0857763300760044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3144,8 +3427,12 @@
         <f>cases!H30/(population_2016!$B30/1000)</f>
         <v>1.5866719555731854</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="3">
+        <f>cases!I30/(population_2016!$B30/1000)</f>
+        <v>1.7146293713452163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3176,8 +3463,12 @@
         <f>cases!H31/(population_2016!$B31/1000)</f>
         <v>1.5167054269164657</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="3">
+        <f>cases!I31/(population_2016!$B31/1000)</f>
+        <v>1.6900431899926331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3208,8 +3499,12 @@
         <f>cases!H32/(population_2016!$B32/1000)</f>
         <v>1.5139620948749579</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" s="3">
+        <f>cases!I32/(population_2016!$B32/1000)</f>
+        <v>1.570034765055512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3240,8 +3535,12 @@
         <f>cases!H33/(population_2016!$B33/1000)</f>
         <v>1.0357795805440275</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" s="3">
+        <f>cases!I33/(population_2016!$B33/1000)</f>
+        <v>1.1122465294432511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3271,6 +3570,10 @@
       <c r="H34" s="3">
         <f>cases!H34/(population_2016!$B34/1000)</f>
         <v>2.1662071681764474</v>
+      </c>
+      <c r="I34" s="3">
+        <f>cases!I34/(population_2016!$B34/1000)</f>
+        <v>2.2646711303662856</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AO27" sqref="AO27"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3365,64 +3668,64 @@
         <v>161</v>
       </c>
       <c r="X1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL1" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="AO1" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP1" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ1" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -6371,6 +6674,170 @@
       <c r="AQ22" s="3">
         <f>W22*100/SUM($N22:$W22)</f>
         <v>20.492100354218103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A23" s="19">
+        <v>43926</v>
+      </c>
+      <c r="B23" s="17">
+        <f>mtl_newcases!C24</f>
+        <v>3977</v>
+      </c>
+      <c r="C23" s="17">
+        <f>mtl_newcases!B24</f>
+        <v>264</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23:M23">TRANSPOSE(santemontreal!H$57:H$66)</f>
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>148</v>
+      </c>
+      <c r="G23">
+        <v>622</v>
+      </c>
+      <c r="H23">
+        <v>667</v>
+      </c>
+      <c r="I23">
+        <v>691</v>
+      </c>
+      <c r="J23">
+        <v>607</v>
+      </c>
+      <c r="K23">
+        <v>433</v>
+      </c>
+      <c r="L23">
+        <v>299</v>
+      </c>
+      <c r="M23">
+        <v>443</v>
+      </c>
+      <c r="N23" s="18">
+        <f>D23/(age_distribution_2016!$B7/100000)</f>
+        <v>10.610079575596817</v>
+      </c>
+      <c r="O23" s="18">
+        <f>E23/(age_distribution_2016!$B$3/100000)</f>
+        <v>27.781769411313888</v>
+      </c>
+      <c r="P23" s="18">
+        <f>F23/(age_distribution_2016!$B$4/100000)</f>
+        <v>78.646013231660334</v>
+      </c>
+      <c r="Q23" s="18">
+        <f>G23/(age_distribution_2016!$B$5/100000)</f>
+        <v>212.12379572001024</v>
+      </c>
+      <c r="R23" s="18">
+        <f>H23/(age_distribution_2016!$B$6/100000)</f>
+        <v>222.57445566029867</v>
+      </c>
+      <c r="S23" s="18">
+        <f>I23/(age_distribution_2016!$B$7/100000)</f>
+        <v>271.53944395323703</v>
+      </c>
+      <c r="T23" s="18">
+        <f>J23/(age_distribution_2016!$B$8/100000)</f>
+        <v>234.47609850313856</v>
+      </c>
+      <c r="U23" s="18">
+        <f>K23/(age_distribution_2016!$B$9/100000)</f>
+        <v>211.21436062535059</v>
+      </c>
+      <c r="V23" s="18">
+        <f>L23/(age_distribution_2016!$B$10/100000)</f>
+        <v>230.56755089450957</v>
+      </c>
+      <c r="W23" s="18">
+        <f>M23/(age_distribution_2016!$B$11/100000)</f>
+        <v>448.35787662567685</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" ref="X23" si="22">D23*100/SUM($D23:$M23)</f>
+        <v>0.68078668683812404</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" ref="Y23" si="23">E23*100/SUM($D23:$M23)</f>
+        <v>0.73121533030761476</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" ref="Z23" si="24">F23*100/SUM($D23:$M23)</f>
+        <v>3.7317196167423097</v>
+      </c>
+      <c r="AA23" s="3">
+        <f t="shared" ref="AA23" si="25">G23*100/SUM($D23:$M23)</f>
+        <v>15.683308119011599</v>
+      </c>
+      <c r="AB23" s="3">
+        <f t="shared" ref="AB23" si="26">H23*100/SUM($D23:$M23)</f>
+        <v>16.817952597075138</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" ref="AC23" si="27">I23*100/SUM($D23:$M23)</f>
+        <v>17.423096318709028</v>
+      </c>
+      <c r="AD23" s="3">
+        <f t="shared" ref="AD23" si="28">J23*100/SUM($D23:$M23)</f>
+        <v>15.305093292990419</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" ref="AE23" si="29">K23*100/SUM($D23:$M23)</f>
+        <v>10.91780131114473</v>
+      </c>
+      <c r="AF23" s="3">
+        <f t="shared" ref="AF23" si="30">L23*100/SUM($D23:$M23)</f>
+        <v>7.5390821986888552</v>
+      </c>
+      <c r="AG23" s="3">
+        <f t="shared" ref="AG23" si="31">M23*100/SUM($D23:$M23)</f>
+        <v>11.169944528492184</v>
+      </c>
+      <c r="AH23" s="3">
+        <f t="shared" ref="AH23" si="32">N23*100/SUM($N23:$W23)</f>
+        <v>0.54469563009709021</v>
+      </c>
+      <c r="AI23" s="3">
+        <f t="shared" ref="AI23" si="33">O23*100/SUM($N23:$W23)</f>
+        <v>1.4262483412011995</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" ref="AJ23" si="34">P23*100/SUM($N23:$W23)</f>
+        <v>4.0374946697262333</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" ref="AK23" si="35">Q23*100/SUM($N23:$W23)</f>
+        <v>10.889918755562032</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" ref="AL23" si="36">R23*100/SUM($N23:$W23)</f>
+        <v>11.426430170066256</v>
+      </c>
+      <c r="AM23" s="3">
+        <f t="shared" ref="AM23" si="37">S23*100/SUM($N23:$W23)</f>
+        <v>13.940173348040345</v>
+      </c>
+      <c r="AN23" s="3">
+        <f t="shared" ref="AN23" si="38">T23*100/SUM($N23:$W23)</f>
+        <v>12.037431510940417</v>
+      </c>
+      <c r="AO23" s="3">
+        <f t="shared" ref="AO23" si="39">U23*100/SUM($N23:$W23)</f>
+        <v>10.843230573971258</v>
+      </c>
+      <c r="AP23" s="3">
+        <f t="shared" ref="AP23" si="40">V23*100/SUM($N23:$W23)</f>
+        <v>11.836776201309821</v>
+      </c>
+      <c r="AQ23" s="3">
+        <f>W23*100/SUM($N23:$W23)</f>
+        <v>23.017600799085354</v>
       </c>
     </row>
   </sheetData>
@@ -6380,11 +6847,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7179,6 +7646,29 @@
         <v>464</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B35">
+        <v>8580</v>
+      </c>
+      <c r="C35">
+        <v>121</v>
+      </c>
+      <c r="D35">
+        <v>533</v>
+      </c>
+      <c r="E35">
+        <v>164</v>
+      </c>
+      <c r="F35">
+        <v>91533</v>
+      </c>
+      <c r="G35">
+        <v>611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7189,7 +7679,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7552,7 +8042,25 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F24" s="20"/>
+      <c r="A24" s="19">
+        <v>43926</v>
+      </c>
+      <c r="B24">
+        <v>264</v>
+      </c>
+      <c r="C24">
+        <v>3977</v>
+      </c>
+      <c r="E24" s="19">
+        <v>43926</v>
+      </c>
+      <c r="F24">
+        <v>3977</v>
+      </c>
+      <c r="G24">
+        <f>C24-F24</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7564,15 +8072,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.7265625" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7596,9 +8104,11 @@
         <v>171</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -7630,7 +8140,9 @@
       <c r="G2" s="7">
         <v>143</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7">
+        <v>176</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -7662,7 +8174,9 @@
       <c r="G3" s="9">
         <v>35</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9">
+        <v>37</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -7682,19 +8196,21 @@
       <c r="C4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>5</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>5</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>5</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -7726,7 +8242,9 @@
       <c r="G5" s="9">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9">
+        <v>10</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -7758,7 +8276,9 @@
       <c r="G6" s="7">
         <v>370</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>384</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -7790,7 +8310,9 @@
       <c r="G7" s="9">
         <v>192</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9">
+        <v>207</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -7822,7 +8344,9 @@
       <c r="G8" s="7">
         <v>45</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>50</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -7854,7 +8378,9 @@
       <c r="G9" s="9">
         <v>26</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>27</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -7886,7 +8412,9 @@
       <c r="G10" s="7">
         <v>27</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>27</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7918,7 +8446,9 @@
       <c r="G11" s="9">
         <v>12</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9">
+        <v>12</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -7950,7 +8480,9 @@
       <c r="G12" s="7">
         <v>57</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>59</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -7982,7 +8514,9 @@
       <c r="G13" s="9">
         <v>204</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9">
+        <v>219</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -8014,7 +8548,9 @@
       <c r="G14" s="7">
         <v>14</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>15</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -8046,7 +8582,9 @@
       <c r="G15" s="9">
         <v>145</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9">
+        <v>151</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -8066,19 +8604,21 @@
       <c r="C16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>5</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>5</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>5</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="20">
+        <v>5</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -8110,7 +8650,9 @@
       <c r="G17" s="9">
         <v>99</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9">
+        <v>117</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -8130,19 +8672,21 @@
       <c r="C18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>5</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>5</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>5</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>5</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="20">
+        <v>5</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -8174,7 +8718,9 @@
       <c r="G19" s="9">
         <v>36</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9">
+        <v>36</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -8206,7 +8752,9 @@
       <c r="G20" s="7">
         <v>113</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>113</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -8238,7 +8786,9 @@
       <c r="G21" s="9">
         <v>50</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9">
+        <v>54</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -8270,7 +8820,9 @@
       <c r="G22" s="7">
         <v>168</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>174</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -8302,7 +8854,9 @@
       <c r="G23" s="9">
         <v>21</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9">
+        <v>23</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -8334,7 +8888,9 @@
       <c r="G24" s="7">
         <v>117</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>133</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -8366,7 +8922,9 @@
       <c r="G25" s="9">
         <v>181</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9">
+        <v>194</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -8386,19 +8944,21 @@
       <c r="C26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>5</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>5</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>5</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <v>5</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="20">
+        <v>5</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -8430,7 +8990,9 @@
       <c r="G27" s="9">
         <v>119</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9">
+        <v>128</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -8462,7 +9024,9 @@
       <c r="G28" s="7">
         <v>67</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>77</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -8491,10 +9055,12 @@
       <c r="F29" s="9">
         <v>0</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <v>1</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="20">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -8526,7 +9092,9 @@
       <c r="G30" s="7">
         <v>124</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>134</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -8558,7 +9126,9 @@
       <c r="G31" s="9">
         <v>105</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9">
+        <v>117</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -8590,7 +9160,9 @@
       <c r="G32" s="7">
         <v>135</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>140</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -8622,7 +9194,9 @@
       <c r="G33" s="9">
         <v>149</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9">
+        <v>160</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -8654,7 +9228,9 @@
       <c r="G34" s="7">
         <v>44</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>46</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -8686,7 +9262,9 @@
       <c r="G35" s="9">
         <v>888</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9">
+        <v>938</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -8718,7 +9296,9 @@
       <c r="G36" s="11">
         <v>3713</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="11">
+        <v>3977</v>
+      </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -8749,9 +9329,11 @@
         <v>171</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -8783,7 +9365,9 @@
       <c r="G39" s="7">
         <v>850</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="7">
+        <v>891</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -8815,7 +9399,9 @@
       <c r="G40" s="9">
         <v>485</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="9">
+        <v>516</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -8847,7 +9433,9 @@
       <c r="G41" s="7">
         <v>535</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7">
+        <v>580</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -8879,7 +9467,9 @@
       <c r="G42" s="9">
         <v>499</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9">
+        <v>565</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -8911,7 +9501,9 @@
       <c r="G43" s="7">
         <v>449</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7">
+        <v>480</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -8943,7 +9535,9 @@
       <c r="G44" s="9">
         <v>895</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9">
+        <v>945</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -8975,7 +9569,9 @@
       <c r="G45" s="11">
         <v>3713</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -9004,9 +9600,11 @@
         <v>171</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H47" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -9034,9 +9632,11 @@
         <v>172</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H48" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -9064,9 +9664,11 @@
         <v>173</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H49" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -9094,9 +9696,11 @@
         <v>174</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -9124,9 +9728,11 @@
         <v>175</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -9154,9 +9760,11 @@
         <v>176</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H52" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -9204,9 +9812,11 @@
         <v>170</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H54" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -9235,9 +9845,11 @@
         <v>171</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H56" s="13"/>
+        <v>193</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -9267,7 +9879,9 @@
       <c r="G57" s="7">
         <v>25</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7">
+        <v>27</v>
+      </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -9297,7 +9911,9 @@
       <c r="G58" s="9">
         <v>27</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="9">
+        <v>29</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -9327,7 +9943,9 @@
       <c r="G59" s="7">
         <v>144</v>
       </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="7">
+        <v>148</v>
+      </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -9357,7 +9975,9 @@
       <c r="G60" s="9">
         <v>601</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="9">
+        <v>622</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -9387,7 +10007,9 @@
       <c r="G61" s="7">
         <v>638</v>
       </c>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7">
+        <v>667</v>
+      </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -9417,7 +10039,9 @@
       <c r="G62" s="9">
         <v>656</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="9">
+        <v>691</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -9447,7 +10071,9 @@
       <c r="G63" s="7">
         <v>576</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="7">
+        <v>607</v>
+      </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -9477,7 +10103,9 @@
       <c r="G64" s="9">
         <v>400</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="9">
+        <v>433</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -9507,7 +10135,9 @@
       <c r="G65" s="7">
         <v>277</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7">
+        <v>299</v>
+      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -9537,7 +10167,9 @@
       <c r="G66" s="9">
         <v>361</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="9">
+        <v>443</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -9567,7 +10199,9 @@
       <c r="G67" s="7">
         <v>8</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7">
+        <v>11</v>
+      </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -9597,7 +10231,9 @@
       <c r="G68" s="15">
         <v>3713</v>
       </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="15">
+        <v>3977</v>
+      </c>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
@@ -9621,125 +10257,197 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A19:D28"/>
+  <dimension ref="A19:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D28"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" t="s">
         <v>184</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22">
-        <v>850</v>
-      </c>
-      <c r="C22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23">
-        <v>485</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24">
-        <v>535</v>
-      </c>
-      <c r="C24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25">
-        <v>499</v>
-      </c>
-      <c r="C25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26">
-        <v>449</v>
-      </c>
-      <c r="C26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" t="s">
-        <v>190</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <v>622</v>
+      </c>
+      <c r="C52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>667</v>
+      </c>
+      <c r="C53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>691</v>
+      </c>
+      <c r="C54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55">
+        <v>607</v>
+      </c>
+      <c r="C55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>433</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57">
+        <v>299</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58">
+        <v>443</v>
+      </c>
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51813CA-65B2-4C35-BBD4-BEB410A0D71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C1688-A916-4656-97DB-F02BF7110C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="6180" windowWidth="36760" windowHeight="13840" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="10530" yWindow="5670" windowWidth="15360" windowHeight="9740" tabRatio="765" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="251">
   <si>
     <t>borough</t>
   </si>
@@ -718,9 +718,6 @@
     <t>cases_mtl_80+_per100000_norm</t>
   </si>
   <si>
-    <t>3 977</t>
-  </si>
-  <si>
     <t>192,5</t>
   </si>
   <si>
@@ -745,64 +742,91 @@
     <t>RÉPARTITION PARMI LES CAS DONT L'ÂGE EST CONNU (%)</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>* 24,4</t>
-  </si>
-  <si>
-    <t>0,7% </t>
-  </si>
-  <si>
-    <t>* 26,9</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>74,4</t>
-  </si>
-  <si>
-    <t>15,7%  </t>
-  </si>
-  <si>
-    <t>193,1</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>203,0</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>248,3</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>236,5</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>199,9</t>
-  </si>
-  <si>
-    <t>7,5% </t>
-  </si>
-  <si>
-    <t>206,6</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>438,4 </t>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>4 407</t>
+  </si>
+  <si>
+    <t>213,3</t>
+  </si>
+  <si>
+    <t>6 AVRIL, 16H 55</t>
+  </si>
+  <si>
+    <t>deaths_tml</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>265,3</t>
+  </si>
+  <si>
+    <t>180,3</t>
+  </si>
+  <si>
+    <t>124,6</t>
+  </si>
+  <si>
+    <t>143,3</t>
+  </si>
+  <si>
+    <t>139,2</t>
+  </si>
+  <si>
+    <t>0,7 </t>
+  </si>
+  <si>
+    <t>* 27,1</t>
+  </si>
+  <si>
+    <t> * 28,7</t>
+  </si>
+  <si>
+    <t>77,4</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>205,5</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>223,1</t>
+  </si>
+  <si>
+    <t>17,4  </t>
+  </si>
+  <si>
+    <t>274,1</t>
+  </si>
+  <si>
+    <t>259,1</t>
+  </si>
+  <si>
+    <t>10,7 </t>
+  </si>
+  <si>
+    <t>216,6</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>235,0</t>
+  </si>
+  <si>
+    <t>543,3</t>
   </si>
 </sst>
 </file>
@@ -1305,19 +1329,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,8 +1369,11 @@
       <c r="I1" s="1">
         <v>43926</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1374,8 +1401,11 @@
       <c r="I2">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1403,8 +1433,11 @@
       <c r="I3">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1432,8 +1465,11 @@
       <c r="I4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1461,8 +1497,11 @@
       <c r="I5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1490,8 +1529,11 @@
       <c r="I6">
         <v>384</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1519,8 +1561,11 @@
       <c r="I7">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1548,8 +1593,11 @@
       <c r="I8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1577,8 +1625,11 @@
       <c r="I9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1606,8 +1657,11 @@
       <c r="I10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1635,8 +1689,11 @@
       <c r="I11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1664,8 +1721,11 @@
       <c r="I12">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1693,8 +1753,11 @@
       <c r="I13">
         <v>219</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1722,8 +1785,11 @@
       <c r="I14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1751,8 +1817,11 @@
       <c r="I15">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1780,8 +1849,11 @@
       <c r="I16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1809,8 +1881,11 @@
       <c r="I17">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="I18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1867,8 +1945,11 @@
       <c r="I19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1896,8 +1977,11 @@
       <c r="I20">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1925,8 +2009,11 @@
       <c r="I21">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1954,8 +2041,11 @@
       <c r="I22">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -1983,8 +2073,11 @@
       <c r="I23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2012,8 +2105,11 @@
       <c r="I24">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2041,8 +2137,11 @@
       <c r="I25">
         <v>194</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2070,8 +2169,11 @@
       <c r="I26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2099,8 +2201,11 @@
       <c r="I27">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2128,8 +2233,11 @@
       <c r="I28">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2157,8 +2265,11 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2186,8 +2297,11 @@
       <c r="I30">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2215,8 +2329,11 @@
       <c r="I31">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2244,8 +2361,11 @@
       <c r="I32">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2273,8 +2393,11 @@
       <c r="I33">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2302,8 +2425,11 @@
       <c r="I34">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2330,6 +2456,9 @@
       </c>
       <c r="I35">
         <v>938</v>
+      </c>
+      <c r="J35">
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -2339,19 +2468,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I1" sqref="I1:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2387,8 +2516,12 @@
         <f>cases!I1</f>
         <v>43926</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1">
+        <f>cases!J1</f>
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2423,8 +2556,12 @@
         <f>cases!I2/(population_2016!$B2/1000)</f>
         <v>1.3110357927669558</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="3">
+        <f>cases!J2/(population_2016!$B2/1000)</f>
+        <v>1.4898134008715407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2459,8 +2596,12 @@
         <f>cases!I3/(population_2016!$B3/1000)</f>
         <v>0.86456678194223757</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="3">
+        <f>cases!J3/(population_2016!$B3/1000)</f>
+        <v>0.98140013085335076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2495,8 +2636,12 @@
         <f>cases!I4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="3">
+        <f>cases!J4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2531,8 +2676,12 @@
         <f>cases!I5/(population_2016!$B5/1000)</f>
         <v>0.51749120264955495</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="3">
+        <f>cases!J5/(population_2016!$B5/1000)</f>
+        <v>0.56924032291451043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2567,8 +2716,12 @@
         <f>cases!I6/(population_2016!$B6/1000)</f>
         <v>2.3060293057890942</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="3">
+        <f>cases!J6/(population_2016!$B6/1000)</f>
+        <v>2.5702618304107614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2603,8 +2756,12 @@
         <f>cases!I7/(population_2016!$B7/1000)</f>
         <v>6.3794378698224854</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="3">
+        <f>cases!J7/(population_2016!$B7/1000)</f>
+        <v>7.1499013806706113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2639,8 +2796,12 @@
         <f>cases!I8/(population_2016!$B8/1000)</f>
         <v>1.0225157978690771</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="3">
+        <f>cases!J8/(population_2016!$B8/1000)</f>
+        <v>1.1043170616986033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2675,8 +2836,12 @@
         <f>cases!I9/(population_2016!$B9/1000)</f>
         <v>1.4225500526870389</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="3">
+        <f>cases!J9/(population_2016!$B9/1000)</f>
+        <v>1.6332982086406744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2711,8 +2876,12 @@
         <f>cases!I10/(population_2016!$B10/1000)</f>
         <v>3.8720780152014918</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="3">
+        <f>cases!J10/(population_2016!$B10/1000)</f>
+        <v>4.015488312060806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2747,8 +2916,12 @@
         <f>cases!I11/(population_2016!$B11/1000)</f>
         <v>0.59550394521363703</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="3">
+        <f>cases!J11/(population_2016!$B11/1000)</f>
+        <v>0.59550394521363703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2783,8 +2956,12 @@
         <f>cases!I12/(population_2016!$B12/1000)</f>
         <v>1.3261705140596554</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="3">
+        <f>cases!J12/(population_2016!$B12/1000)</f>
+        <v>1.5959001101395851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2819,8 +2996,12 @@
         <f>cases!I13/(population_2016!$B13/1000)</f>
         <v>2.8495959819395473</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="3">
+        <f>cases!J13/(population_2016!$B13/1000)</f>
+        <v>3.0838093503181399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2855,8 +3036,12 @@
         <f>cases!I14/(population_2016!$B14/1000)</f>
         <v>0.81464182914245364</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="3">
+        <f>cases!J14/(population_2016!$B14/1000)</f>
+        <v>0.86895128441861724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2891,8 +3076,12 @@
         <f>cases!I15/(population_2016!$B15/1000)</f>
         <v>1.1100982179615362</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="3">
+        <f>cases!J15/(population_2016!$B15/1000)</f>
+        <v>1.3379991766158914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2927,8 +3116,12 @@
         <f>cases!I16/(population_2016!$B16/1000)</f>
         <v>1.2987012987012987</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="3">
+        <f>cases!J16/(population_2016!$B16/1000)</f>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2963,8 +3156,12 @@
         <f>cases!I17/(population_2016!$B17/1000)</f>
         <v>1.3889878196452741</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="3">
+        <f>cases!J17/(population_2016!$B17/1000)</f>
+        <v>1.7688819241636395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2999,8 +3196,12 @@
         <f>cases!I18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="3">
+        <f>cases!J18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3035,8 +3236,12 @@
         <f>cases!I19/(population_2016!$B19/1000)</f>
         <v>1.7754981258630893</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="3">
+        <f>cases!J19/(population_2016!$B19/1000)</f>
+        <v>1.8248175182481752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3071,8 +3276,12 @@
         <f>cases!I20/(population_2016!$B20/1000)</f>
         <v>4.7173749686899891</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="3">
+        <f>cases!J20/(population_2016!$B20/1000)</f>
+        <v>4.9678550555230858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3107,8 +3316,12 @@
         <f>cases!I21/(population_2016!$B21/1000)</f>
         <v>0.77925451318238892</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="3">
+        <f>cases!J21/(population_2016!$B21/1000)</f>
+        <v>0.80811579144840329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3143,8 +3356,12 @@
         <f>cases!I22/(population_2016!$B22/1000)</f>
         <v>1.6730769230769231</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="3">
+        <f>cases!J22/(population_2016!$B22/1000)</f>
+        <v>1.7884615384615385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3179,8 +3396,12 @@
         <f>cases!I23/(population_2016!$B23/1000)</f>
         <v>0.73295092415551311</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="3">
+        <f>cases!J23/(population_2016!$B23/1000)</f>
+        <v>0.76481835564053535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3215,8 +3436,12 @@
         <f>cases!I24/(population_2016!$B24/1000)</f>
         <v>1.245983343170044</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="3">
+        <f>cases!J24/(population_2016!$B24/1000)</f>
+        <v>1.386507780369673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3251,8 +3476,12 @@
         <f>cases!I25/(population_2016!$B25/1000)</f>
         <v>1.3897843685077726</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="3">
+        <f>cases!J25/(population_2016!$B25/1000)</f>
+        <v>1.5545526183824057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3287,8 +3516,12 @@
         <f>cases!I26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="3">
+        <f>cases!J26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3323,8 +3556,12 @@
         <f>cases!I27/(population_2016!$B27/1000)</f>
         <v>1.2951795037843525</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="3">
+        <f>cases!J27/(population_2016!$B27/1000)</f>
+        <v>1.4267211721374509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3359,8 +3596,12 @@
         <f>cases!I28/(population_2016!$B28/1000)</f>
         <v>0.98333439754804919</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="3">
+        <f>cases!J28/(population_2016!$B28/1000)</f>
+        <v>1.2259753527871782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3395,8 +3636,12 @@
         <f>cases!I29/(population_2016!$B29/1000)</f>
         <v>1.0857763300760044</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="3">
+        <f>cases!J29/(population_2016!$B29/1000)</f>
+        <v>1.0857763300760044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3431,8 +3676,12 @@
         <f>cases!I30/(population_2016!$B30/1000)</f>
         <v>1.7146293713452163</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="3">
+        <f>cases!J30/(population_2016!$B30/1000)</f>
+        <v>2.0729101355069033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3467,8 +3716,12 @@
         <f>cases!I31/(population_2016!$B31/1000)</f>
         <v>1.6900431899926331</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="3">
+        <f>cases!J31/(population_2016!$B31/1000)</f>
+        <v>1.9356050210172038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3503,8 +3756,12 @@
         <f>cases!I32/(population_2016!$B32/1000)</f>
         <v>1.570034765055512</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="3">
+        <f>cases!J32/(population_2016!$B32/1000)</f>
+        <v>1.7046091734888416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3539,8 +3796,12 @@
         <f>cases!I33/(population_2016!$B33/1000)</f>
         <v>1.1122465294432511</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="3">
+        <f>cases!J33/(population_2016!$B33/1000)</f>
+        <v>1.2860350496687589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3574,6 +3835,10 @@
       <c r="I34" s="3">
         <f>cases!I34/(population_2016!$B34/1000)</f>
         <v>2.2646711303662856</v>
+      </c>
+      <c r="J34" s="3">
+        <f>cases!J34/(population_2016!$B34/1000)</f>
+        <v>2.5600630169358012</v>
       </c>
     </row>
   </sheetData>
@@ -3583,21 +3848,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="13" width="8.6328125" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" customWidth="1"/>
+    <col min="2" max="14" width="8.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>144</v>
       </c>
@@ -3608,127 +3873,130 @@
         <v>182</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>43905</v>
       </c>
@@ -3740,7 +4008,7 @@
         <f>mtl_newcases!B3</f>
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E2" t="s">
@@ -3860,8 +4128,11 @@
       <c r="AQ2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>43906</v>
       </c>
@@ -3873,7 +4144,7 @@
         <f>mtl_newcases!B4</f>
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E3" t="s">
@@ -3993,8 +4264,11 @@
       <c r="AQ3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>43907</v>
       </c>
@@ -4006,7 +4280,7 @@
         <f>mtl_newcases!B5</f>
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E4" t="s">
@@ -4126,8 +4400,11 @@
       <c r="AQ4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>43908</v>
       </c>
@@ -4139,7 +4416,7 @@
         <f>mtl_newcases!B6</f>
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E5" t="s">
@@ -4259,8 +4536,11 @@
       <c r="AQ5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>43909</v>
       </c>
@@ -4272,7 +4552,7 @@
         <f>mtl_newcases!B7</f>
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E6" t="s">
@@ -4392,8 +4672,11 @@
       <c r="AQ6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>43910</v>
       </c>
@@ -4405,7 +4688,7 @@
         <f>mtl_newcases!B8</f>
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E7" t="s">
@@ -4525,8 +4808,11 @@
       <c r="AQ7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>43911</v>
       </c>
@@ -4538,7 +4824,7 @@
         <f>mtl_newcases!B9</f>
         <v>103</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E8" t="s">
@@ -4658,8 +4944,11 @@
       <c r="AQ8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>43912</v>
       </c>
@@ -4671,7 +4960,7 @@
         <f>mtl_newcases!B10</f>
         <v>96</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E9" t="s">
@@ -4791,8 +5080,11 @@
       <c r="AQ9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>43913</v>
       </c>
@@ -4804,7 +5096,7 @@
         <f>mtl_newcases!B11</f>
         <v>142</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E10" t="s">
@@ -4924,8 +5216,11 @@
       <c r="AQ10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>43914</v>
       </c>
@@ -4937,7 +5232,7 @@
         <f>mtl_newcases!B12</f>
         <v>179</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E11" t="s">
@@ -5057,8 +5352,11 @@
       <c r="AQ11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>43915</v>
       </c>
@@ -5070,7 +5368,7 @@
         <f>mtl_newcases!B13</f>
         <v>198</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E12" t="s">
@@ -5190,8 +5488,11 @@
       <c r="AQ12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>43916</v>
       </c>
@@ -5203,7 +5504,7 @@
         <f>mtl_newcases!B14</f>
         <v>201</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E13" t="s">
@@ -5323,8 +5624,11 @@
       <c r="AQ13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>43917</v>
       </c>
@@ -5336,7 +5640,7 @@
         <f>mtl_newcases!B15</f>
         <v>269</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E14" t="s">
@@ -5456,20 +5760,23 @@
       <c r="AQ14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>43918</v>
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
-        <v>246</v>
-      </c>
-      <c r="D15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
@@ -5589,20 +5896,23 @@
       <c r="AQ15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AR15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>43919</v>
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
-        <v>300</v>
-      </c>
-      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
@@ -5722,20 +6032,23 @@
       <c r="AQ16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AR16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>43920</v>
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
         <v>284</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E17" t="s">
@@ -5855,989 +6168,1176 @@
       <c r="AQ17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AR17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>43921</v>
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>397</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18:M18">TRANSPOSE(santemontreal!C$57:C$66)</f>
+        <v>396</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18:N18">TRANSPOSE(santemontreal!C$57:C$66)</f>
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>18</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>87</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>380</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>374</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>357</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>342</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>258</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>140</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>119</v>
       </c>
-      <c r="N18" s="18">
-        <f>D18/(age_distribution_2016!$B$2/100000)</f>
+      <c r="O18" s="18">
+        <f>E18/(age_distribution_2016!$B$2/100000)</f>
         <v>14.57991616548205</v>
       </c>
-      <c r="O18" s="18">
-        <f>E18/(age_distribution_2016!$B$3/100000)</f>
+      <c r="P18" s="18">
+        <f>F18/(age_distribution_2016!$B$3/100000)</f>
         <v>17.24385687598793</v>
       </c>
-      <c r="P18" s="18">
-        <f>F18/(age_distribution_2016!$B$4/100000)</f>
+      <c r="Q18" s="18">
+        <f>G18/(age_distribution_2016!$B$4/100000)</f>
         <v>46.231102372665198</v>
       </c>
-      <c r="Q18" s="18">
-        <f>G18/(age_distribution_2016!$B$5/100000)</f>
+      <c r="R18" s="18">
+        <f>H18/(age_distribution_2016!$B$5/100000)</f>
         <v>129.59331571318953</v>
       </c>
-      <c r="R18" s="18">
-        <f>H18/(age_distribution_2016!$B$6/100000)</f>
+      <c r="S18" s="18">
+        <f>I18/(age_distribution_2016!$B$6/100000)</f>
         <v>124.80186869108201</v>
       </c>
-      <c r="S18" s="18">
-        <f>I18/(age_distribution_2016!$B$7/100000)</f>
+      <c r="T18" s="18">
+        <f>J18/(age_distribution_2016!$B$7/100000)</f>
         <v>140.28882994400234</v>
       </c>
-      <c r="T18" s="18">
-        <f>J18/(age_distribution_2016!$B$8/100000)</f>
+      <c r="U18" s="18">
+        <f>K18/(age_distribution_2016!$B$8/100000)</f>
         <v>132.11009174311926</v>
       </c>
-      <c r="U18" s="18">
-        <f>K18/(age_distribution_2016!$B$9/100000)</f>
+      <c r="V18" s="18">
+        <f>L18/(age_distribution_2016!$B$9/100000)</f>
         <v>125.85058901002414</v>
       </c>
-      <c r="V18" s="18">
-        <f>L18/(age_distribution_2016!$B$10/100000)</f>
+      <c r="W18" s="18">
+        <f>M18/(age_distribution_2016!$B$10/100000)</f>
         <v>107.95805058605799</v>
       </c>
-      <c r="W18" s="18">
-        <f>M18/(age_distribution_2016!$B$11/100000)</f>
+      <c r="X18" s="18">
+        <f>N18/(age_distribution_2016!$B$11/100000)</f>
         <v>120.43924902585901</v>
       </c>
-      <c r="X18" s="3">
-        <f>D18*100/SUM($D18:$M18)</f>
+      <c r="Y18" s="3">
+        <f>E18*100/SUM($E18:$N18)</f>
         <v>0.76518412242945955</v>
       </c>
-      <c r="Y18" s="3">
-        <f t="shared" ref="Y18:AG18" si="0">E18*100/SUM($D18:$M18)</f>
+      <c r="Z18" s="3">
+        <f t="shared" ref="Z18:AH18" si="0">F18*100/SUM($E18:$N18)</f>
         <v>0.86083213773314204</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <f t="shared" si="0"/>
         <v>4.1606886657101869</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <f t="shared" si="0"/>
         <v>18.173122907699664</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <f t="shared" si="0"/>
         <v>17.886178861788618</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <f t="shared" si="0"/>
         <v>17.073170731707318</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <f t="shared" si="0"/>
         <v>16.355810616929698</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <f t="shared" si="0"/>
         <v>12.338593974175035</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <f t="shared" si="0"/>
         <v>6.6953610712577714</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AH18" s="3">
         <f t="shared" si="0"/>
         <v>5.691056910569106</v>
       </c>
-      <c r="AH18" s="3">
-        <f>N18*100/SUM($N18:$W18)</f>
+      <c r="AI18" s="3">
+        <f>O18*100/SUM($O18:$X18)</f>
         <v>1.5201713841005755</v>
       </c>
-      <c r="AI18" s="3">
-        <f t="shared" ref="AI18:AQ18" si="1">O18*100/SUM($N18:$W18)</f>
+      <c r="AJ18" s="3">
+        <f t="shared" ref="AJ18:AR18" si="1">P18*100/SUM($O18:$X18)</f>
         <v>1.7979265091018517</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AK18" s="3">
         <f t="shared" si="1"/>
         <v>4.8202745533431699</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AL18" s="3">
         <f t="shared" si="1"/>
         <v>13.512015287461615</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AM18" s="3">
         <f t="shared" si="1"/>
         <v>13.012436238530851</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AN18" s="3">
         <f t="shared" si="1"/>
         <v>14.627180456272072</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AO18" s="3">
         <f t="shared" si="1"/>
         <v>13.774426323126368</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AP18" s="3">
         <f t="shared" si="1"/>
         <v>13.12178080544647</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AQ18" s="3">
         <f t="shared" si="1"/>
         <v>11.256219673796846</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AR18" s="3">
         <f t="shared" si="1"/>
         <v>12.557568768820188</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>43922</v>
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2844</v>
+        <v>2831</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
-        <v>318</v>
-      </c>
-      <c r="D19" cm="1">
-        <f t="array" ref="D19:M19">TRANSPOSE(santemontreal!D$57:D$66)</f>
+        <v>311</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19:N19">TRANSPOSE(santemontreal!D$57:D$66)</f>
         <v>16</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>112</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>462</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>465</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>456</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>418</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>310</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>179</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>197</v>
       </c>
-      <c r="N19" s="18">
-        <f>D19/(age_distribution_2016!$B3/100000)</f>
+      <c r="O19" s="18">
+        <f>E19/(age_distribution_2016!$B3/100000)</f>
         <v>15.327872778655937</v>
       </c>
-      <c r="O19" s="18">
-        <f>E19/(age_distribution_2016!$B$3/100000)</f>
+      <c r="P19" s="18">
+        <f>F19/(age_distribution_2016!$B$3/100000)</f>
         <v>19.159840973319923</v>
       </c>
-      <c r="P19" s="18">
-        <f>F19/(age_distribution_2016!$B$4/100000)</f>
+      <c r="Q19" s="18">
+        <f>G19/(age_distribution_2016!$B$4/100000)</f>
         <v>59.515901905040252</v>
       </c>
-      <c r="Q19" s="18">
-        <f>G19/(age_distribution_2016!$B$5/100000)</f>
+      <c r="R19" s="18">
+        <f>H19/(age_distribution_2016!$B$5/100000)</f>
         <v>157.55818910393043</v>
       </c>
-      <c r="R19" s="18">
-        <f>H19/(age_distribution_2016!$B$6/100000)</f>
+      <c r="S19" s="18">
+        <f>I19/(age_distribution_2016!$B$6/100000)</f>
         <v>155.16809877367149</v>
       </c>
-      <c r="S19" s="18">
-        <f>I19/(age_distribution_2016!$B$7/100000)</f>
+      <c r="T19" s="18">
+        <f>J19/(age_distribution_2016!$B$7/100000)</f>
         <v>179.192455054524</v>
       </c>
-      <c r="T19" s="18">
-        <f>J19/(age_distribution_2016!$B$8/100000)</f>
+      <c r="U19" s="18">
+        <f>K19/(age_distribution_2016!$B$8/100000)</f>
         <v>161.46788990825686</v>
       </c>
-      <c r="U19" s="18">
-        <f>K19/(age_distribution_2016!$B$9/100000)</f>
+      <c r="V19" s="18">
+        <f>L19/(age_distribution_2016!$B$9/100000)</f>
         <v>151.21582400429256</v>
       </c>
-      <c r="V19" s="18">
-        <f>L19/(age_distribution_2016!$B$10/100000)</f>
+      <c r="W19" s="18">
+        <f>M19/(age_distribution_2016!$B$10/100000)</f>
         <v>138.03207896360271</v>
       </c>
-      <c r="W19" s="18">
-        <f>M19/(age_distribution_2016!$B$11/100000)</f>
+      <c r="X19" s="18">
+        <f>N19/(age_distribution_2016!$B$11/100000)</f>
         <v>199.38262233692626</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" ref="X19:X22" si="2">D19*100/SUM($D19:$M19)</f>
+      <c r="Y19" s="3">
+        <f t="shared" ref="Y19:Y22" si="2">E19*100/SUM($E19:$N19)</f>
         <v>0.60721062618595822</v>
       </c>
-      <c r="Y19" s="3">
-        <f t="shared" ref="Y19:Y22" si="3">E19*100/SUM($D19:$M19)</f>
+      <c r="Z19" s="3">
+        <f t="shared" ref="Z19:Z22" si="3">F19*100/SUM($E19:$N19)</f>
         <v>0.75901328273244784</v>
       </c>
-      <c r="Z19" s="3">
-        <f t="shared" ref="Z19:Z22" si="4">F19*100/SUM($D19:$M19)</f>
+      <c r="AA19" s="3">
+        <f t="shared" ref="AA19:AA22" si="4">G19*100/SUM($E19:$N19)</f>
         <v>4.2504743833017073</v>
       </c>
-      <c r="AA19" s="3">
-        <f t="shared" ref="AA19:AA22" si="5">G19*100/SUM($D19:$M19)</f>
+      <c r="AB19" s="3">
+        <f t="shared" ref="AB19:AB22" si="5">H19*100/SUM($E19:$N19)</f>
         <v>17.533206831119546</v>
       </c>
-      <c r="AB19" s="3">
-        <f t="shared" ref="AB19:AB22" si="6">H19*100/SUM($D19:$M19)</f>
+      <c r="AC19" s="3">
+        <f t="shared" ref="AC19:AC22" si="6">I19*100/SUM($E19:$N19)</f>
         <v>17.647058823529413</v>
       </c>
-      <c r="AC19" s="3">
-        <f t="shared" ref="AC19:AC22" si="7">I19*100/SUM($D19:$M19)</f>
+      <c r="AD19" s="3">
+        <f t="shared" ref="AD19:AD22" si="7">J19*100/SUM($E19:$N19)</f>
         <v>17.30550284629981</v>
       </c>
-      <c r="AD19" s="3">
-        <f t="shared" ref="AD19:AD22" si="8">J19*100/SUM($D19:$M19)</f>
+      <c r="AE19" s="3">
+        <f t="shared" ref="AE19:AE22" si="8">K19*100/SUM($E19:$N19)</f>
         <v>15.863377609108159</v>
       </c>
-      <c r="AE19" s="3">
-        <f t="shared" ref="AE19:AE22" si="9">K19*100/SUM($D19:$M19)</f>
+      <c r="AF19" s="3">
+        <f t="shared" ref="AF19:AF22" si="9">L19*100/SUM($E19:$N19)</f>
         <v>11.764705882352942</v>
       </c>
-      <c r="AF19" s="3">
-        <f t="shared" ref="AF19:AF22" si="10">L19*100/SUM($D19:$M19)</f>
+      <c r="AG19" s="3">
+        <f t="shared" ref="AG19:AG22" si="10">M19*100/SUM($E19:$N19)</f>
         <v>6.7931688804554078</v>
       </c>
-      <c r="AG19" s="3">
-        <f t="shared" ref="AG19:AG22" si="11">M19*100/SUM($D19:$M19)</f>
+      <c r="AH19" s="3">
+        <f t="shared" ref="AH19:AH22" si="11">N19*100/SUM($E19:$N19)</f>
         <v>7.4762808349146113</v>
       </c>
-      <c r="AH19" s="3">
-        <f t="shared" ref="AH19:AH22" si="12">N19*100/SUM($N19:$W19)</f>
+      <c r="AI19" s="3">
+        <f t="shared" ref="AI19:AI22" si="12">O19*100/SUM($O19:$X19)</f>
         <v>1.240098314165438</v>
       </c>
-      <c r="AI19" s="3">
-        <f t="shared" ref="AI19:AI22" si="13">O19*100/SUM($N19:$W19)</f>
+      <c r="AJ19" s="3">
+        <f t="shared" ref="AJ19:AJ22" si="13">P19*100/SUM($O19:$X19)</f>
         <v>1.5501228927067976</v>
       </c>
-      <c r="AJ19" s="3">
-        <f t="shared" ref="AJ19:AJ22" si="14">P19*100/SUM($N19:$W19)</f>
+      <c r="AK19" s="3">
+        <f t="shared" ref="AK19:AK22" si="14">Q19*100/SUM($O19:$X19)</f>
         <v>4.8151214903903856</v>
       </c>
-      <c r="AK19" s="3">
-        <f t="shared" ref="AK19:AK22" si="15">Q19*100/SUM($N19:$W19)</f>
+      <c r="AL19" s="3">
+        <f t="shared" ref="AL19:AL22" si="15">R19*100/SUM($O19:$X19)</f>
         <v>12.747212056902033</v>
       </c>
-      <c r="AL19" s="3">
-        <f t="shared" ref="AL19:AL22" si="16">R19*100/SUM($N19:$W19)</f>
+      <c r="AM19" s="3">
+        <f t="shared" ref="AM19:AM22" si="16">S19*100/SUM($O19:$X19)</f>
         <v>12.553842302856021</v>
       </c>
-      <c r="AM19" s="3">
-        <f t="shared" ref="AM19:AM22" si="17">S19*100/SUM($N19:$W19)</f>
+      <c r="AN19" s="3">
+        <f t="shared" ref="AN19:AN22" si="17">T19*100/SUM($O19:$X19)</f>
         <v>14.497527780483498</v>
       </c>
-      <c r="AN19" s="3">
-        <f t="shared" ref="AN19:AN22" si="18">T19*100/SUM($N19:$W19)</f>
+      <c r="AO19" s="3">
+        <f t="shared" ref="AO19:AO22" si="18">U19*100/SUM($O19:$X19)</f>
         <v>13.063525575832582</v>
       </c>
-      <c r="AO19" s="3">
-        <f t="shared" ref="AO19:AO22" si="19">U19*100/SUM($N19:$W19)</f>
+      <c r="AP19" s="3">
+        <f t="shared" ref="AP19:AP22" si="19">V19*100/SUM($O19:$X19)</f>
         <v>12.234084346262701</v>
       </c>
-      <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AP22" si="20">V19*100/SUM($N19:$W19)</f>
+      <c r="AQ19" s="3">
+        <f t="shared" ref="AQ19:AQ22" si="20">W19*100/SUM($O19:$X19)</f>
         <v>11.167456234492839</v>
       </c>
-      <c r="AQ19" s="3">
-        <f t="shared" ref="AQ19:AQ21" si="21">W19*100/SUM($N19:$W19)</f>
+      <c r="AR19" s="3">
+        <f t="shared" ref="AR19:AR21" si="21">X19*100/SUM($O19:$X19)</f>
         <v>16.131009005907703</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>43923</v>
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3255</v>
+        <v>3246</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
-        <v>411</v>
-      </c>
-      <c r="D20" cm="1">
-        <f t="array" ref="D20:M20">TRANSPOSE(santemontreal!E$57:E$66)</f>
+        <v>415</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20:N20">TRANSPOSE(santemontreal!E$57:E$66)</f>
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>20</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>116</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>486</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>495</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>496</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>447</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>321</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>199</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>232</v>
       </c>
-      <c r="N20" s="18">
-        <f>D20/(age_distribution_2016!$B4/100000)</f>
+      <c r="O20" s="18">
+        <f>E20/(age_distribution_2016!$B4/100000)</f>
         <v>9.5650556633100408</v>
       </c>
-      <c r="O20" s="18">
-        <f>E20/(age_distribution_2016!$B$3/100000)</f>
+      <c r="P20" s="18">
+        <f>F20/(age_distribution_2016!$B$3/100000)</f>
         <v>19.159840973319923</v>
       </c>
-      <c r="P20" s="18">
-        <f>F20/(age_distribution_2016!$B$4/100000)</f>
+      <c r="Q20" s="18">
+        <f>G20/(age_distribution_2016!$B$4/100000)</f>
         <v>61.641469830220259</v>
       </c>
-      <c r="Q20" s="18">
-        <f>G20/(age_distribution_2016!$B$5/100000)</f>
+      <c r="R20" s="18">
+        <f>H20/(age_distribution_2016!$B$5/100000)</f>
         <v>165.74303009634241</v>
       </c>
-      <c r="R20" s="18">
-        <f>H20/(age_distribution_2016!$B$6/100000)</f>
+      <c r="S20" s="18">
+        <f>I20/(age_distribution_2016!$B$6/100000)</f>
         <v>165.17894385584384</v>
       </c>
-      <c r="S20" s="18">
-        <f>I20/(age_distribution_2016!$B$7/100000)</f>
+      <c r="T20" s="18">
+        <f>J20/(age_distribution_2016!$B$7/100000)</f>
         <v>194.91109146281559</v>
       </c>
-      <c r="T20" s="18">
-        <f>J20/(age_distribution_2016!$B$8/100000)</f>
+      <c r="U20" s="18">
+        <f>K20/(age_distribution_2016!$B$8/100000)</f>
         <v>172.67020762916465</v>
       </c>
-      <c r="U20" s="18">
-        <f>K20/(age_distribution_2016!$B$9/100000)</f>
+      <c r="V20" s="18">
+        <f>L20/(age_distribution_2016!$B$9/100000)</f>
         <v>156.58154679154165</v>
       </c>
-      <c r="V20" s="18">
-        <f>L20/(age_distribution_2016!$B$10/100000)</f>
+      <c r="W20" s="18">
+        <f>M20/(age_distribution_2016!$B$10/100000)</f>
         <v>153.45465761875386</v>
       </c>
-      <c r="W20" s="18">
-        <f>M20/(age_distribution_2016!$B$11/100000)</f>
+      <c r="X20" s="18">
+        <f>N20/(age_distribution_2016!$B$11/100000)</f>
         <v>234.80593087394362</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <f t="shared" si="2"/>
         <v>0.63604240282685509</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <f t="shared" si="3"/>
         <v>0.70671378091872794</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <f t="shared" si="4"/>
         <v>4.0989399293286217</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <f t="shared" si="5"/>
         <v>17.17314487632509</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <f t="shared" si="6"/>
         <v>17.491166077738516</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <f t="shared" si="7"/>
         <v>17.526501766784452</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <f t="shared" si="8"/>
         <v>15.795053003533569</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <f t="shared" si="9"/>
         <v>11.342756183745584</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <f t="shared" si="10"/>
         <v>7.031802120141343</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AH20" s="3">
         <f t="shared" si="11"/>
         <v>8.1978798586572434</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AI20" s="3">
         <f t="shared" si="12"/>
         <v>0.71717561800625296</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AJ20" s="3">
         <f t="shared" si="13"/>
         <v>1.4365803268297033</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AK20" s="3">
         <f t="shared" si="14"/>
         <v>4.6217984271514077</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AL20" s="3">
         <f t="shared" si="15"/>
         <v>12.427200031415062</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AM20" s="3">
         <f t="shared" si="16"/>
         <v>12.384905567861631</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AN20" s="3">
         <f t="shared" si="17"/>
         <v>14.614183899871266</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AO20" s="3">
         <f t="shared" si="18"/>
         <v>12.946590927089328</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AP20" s="3">
         <f t="shared" si="19"/>
         <v>11.740283751755824</v>
       </c>
-      <c r="AP20" s="3">
+      <c r="AQ20" s="3">
         <f t="shared" si="20"/>
         <v>11.505833608038092</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AR20" s="3">
         <f t="shared" si="21"/>
         <v>17.60544784198143</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>43924</v>
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3598</v>
+        <v>3609</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>343</v>
-      </c>
-      <c r="D21" cm="1">
-        <f t="array" ref="D21:M21">TRANSPOSE(santemontreal!F$57:F$66)</f>
+        <v>363</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21:N21">TRANSPOSE(santemontreal!F$57:F$66)</f>
         <v>24</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>23</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>128</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>539</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>566</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>560</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>512</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>362</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>244</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>295</v>
       </c>
-      <c r="N21" s="18">
-        <f>D21/(age_distribution_2016!$B5/100000)</f>
+      <c r="O21" s="18">
+        <f>E21/(age_distribution_2016!$B5/100000)</f>
         <v>8.1848409924119707</v>
       </c>
-      <c r="O21" s="18">
-        <f>E21/(age_distribution_2016!$B$3/100000)</f>
+      <c r="P21" s="18">
+        <f>F21/(age_distribution_2016!$B$3/100000)</f>
         <v>22.033817119317909</v>
       </c>
-      <c r="P21" s="18">
-        <f>F21/(age_distribution_2016!$B$4/100000)</f>
+      <c r="Q21" s="18">
+        <f>G21/(age_distribution_2016!$B$4/100000)</f>
         <v>68.018173605760282</v>
       </c>
-      <c r="Q21" s="18">
-        <f>G21/(age_distribution_2016!$B$5/100000)</f>
+      <c r="R21" s="18">
+        <f>H21/(age_distribution_2016!$B$5/100000)</f>
         <v>183.81788728791884</v>
       </c>
-      <c r="R21" s="18">
-        <f>H21/(age_distribution_2016!$B$6/100000)</f>
+      <c r="S21" s="18">
+        <f>I21/(age_distribution_2016!$B$6/100000)</f>
         <v>188.87127721698508</v>
       </c>
-      <c r="S21" s="18">
-        <f>I21/(age_distribution_2016!$B$7/100000)</f>
+      <c r="T21" s="18">
+        <f>J21/(age_distribution_2016!$B$7/100000)</f>
         <v>220.06090971608214</v>
       </c>
-      <c r="T21" s="18">
-        <f>J21/(age_distribution_2016!$B$8/100000)</f>
+      <c r="U21" s="18">
+        <f>K21/(age_distribution_2016!$B$8/100000)</f>
         <v>197.77885079671654</v>
       </c>
-      <c r="U21" s="18">
-        <f>K21/(age_distribution_2016!$B$9/100000)</f>
+      <c r="V21" s="18">
+        <f>L21/(age_distribution_2016!$B$9/100000)</f>
         <v>176.58105899856099</v>
       </c>
-      <c r="V21" s="18">
-        <f>L21/(age_distribution_2016!$B$10/100000)</f>
+      <c r="W21" s="18">
+        <f>M21/(age_distribution_2016!$B$10/100000)</f>
         <v>188.15545959284393</v>
       </c>
-      <c r="W21" s="18">
-        <f>M21/(age_distribution_2016!$B$11/100000)</f>
+      <c r="X21" s="18">
+        <f>N21/(age_distribution_2016!$B$11/100000)</f>
         <v>298.56788624057486</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <f t="shared" si="2"/>
         <v>0.73778051029818625</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <f t="shared" si="3"/>
         <v>0.70703965570242855</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <f t="shared" si="4"/>
         <v>3.9348293882569934</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <f t="shared" si="5"/>
         <v>16.569320627113434</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <f t="shared" si="6"/>
         <v>17.399323701198892</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <f t="shared" si="7"/>
         <v>17.214878573624347</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <f t="shared" si="8"/>
         <v>15.739317553027973</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <f t="shared" si="9"/>
         <v>11.12818936366431</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <f t="shared" si="10"/>
         <v>7.5007685213648942</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AH21" s="3">
         <f t="shared" si="11"/>
         <v>9.0685521057485392</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AI21" s="3">
         <f t="shared" si="12"/>
         <v>0.52734993527273843</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AJ21" s="3">
         <f t="shared" si="13"/>
         <v>1.4196405333293498</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AK21" s="3">
         <f t="shared" si="14"/>
         <v>4.3824161619781581</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AL21" s="3">
         <f t="shared" si="15"/>
         <v>11.843400629666915</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AM21" s="3">
         <f t="shared" si="16"/>
         <v>12.168990931845245</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AN21" s="3">
         <f t="shared" si="17"/>
         <v>14.178541354978432</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AO21" s="3">
         <f t="shared" si="18"/>
         <v>12.742906583360458</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AP21" s="3">
         <f t="shared" si="19"/>
         <v>11.377131225837219</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AQ21" s="3">
         <f t="shared" si="20"/>
         <v>12.122870747212716</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AR21" s="3">
         <f t="shared" si="21"/>
         <v>19.236751896518761</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>43925</v>
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3713</v>
+        <v>3932</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>115</v>
-      </c>
-      <c r="D22" cm="1">
-        <f t="array" ref="D22:M22">TRANSPOSE(santemontreal!G$57:G$66)</f>
+        <v>323</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" cm="1">
+        <f t="array" ref="E22:N22">TRANSPOSE(santemontreal!G$57:G$66)</f>
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>27</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>144</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>601</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>638</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>656</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>576</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>400</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>277</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>361</v>
       </c>
-      <c r="N22" s="18">
-        <f>D22/(age_distribution_2016!$B6/100000)</f>
+      <c r="O22" s="18">
+        <f>E22/(age_distribution_2016!$B6/100000)</f>
         <v>8.3423709018102947</v>
       </c>
-      <c r="O22" s="18">
-        <f>E22/(age_distribution_2016!$B$3/100000)</f>
+      <c r="P22" s="18">
+        <f>F22/(age_distribution_2016!$B$3/100000)</f>
         <v>25.865785313981895</v>
       </c>
-      <c r="P22" s="18">
-        <f>F22/(age_distribution_2016!$B$4/100000)</f>
+      <c r="Q22" s="18">
+        <f>G22/(age_distribution_2016!$B$4/100000)</f>
         <v>76.520445306480326</v>
       </c>
-      <c r="Q22" s="18">
-        <f>G22/(age_distribution_2016!$B$5/100000)</f>
+      <c r="R22" s="18">
+        <f>H22/(age_distribution_2016!$B$5/100000)</f>
         <v>204.96205985164977</v>
       </c>
-      <c r="R22" s="18">
-        <f>H22/(age_distribution_2016!$B$6/100000)</f>
+      <c r="S22" s="18">
+        <f>I22/(age_distribution_2016!$B$6/100000)</f>
         <v>212.89730541419871</v>
       </c>
-      <c r="S22" s="18">
-        <f>I22/(age_distribution_2016!$B$7/100000)</f>
+      <c r="T22" s="18">
+        <f>J22/(age_distribution_2016!$B$7/100000)</f>
         <v>257.78563709598194</v>
       </c>
-      <c r="T22" s="18">
-        <f>J22/(age_distribution_2016!$B$8/100000)</f>
+      <c r="U22" s="18">
+        <f>K22/(age_distribution_2016!$B$8/100000)</f>
         <v>222.50120714630611</v>
       </c>
-      <c r="U22" s="18">
-        <f>K22/(age_distribution_2016!$B$9/100000)</f>
+      <c r="V22" s="18">
+        <f>L22/(age_distribution_2016!$B$9/100000)</f>
         <v>195.1171922636033</v>
       </c>
-      <c r="V22" s="18">
-        <f>L22/(age_distribution_2016!$B$10/100000)</f>
+      <c r="W22" s="18">
+        <f>M22/(age_distribution_2016!$B$10/100000)</f>
         <v>213.60271437384333</v>
       </c>
-      <c r="W22" s="18">
-        <f>M22/(age_distribution_2016!$B$11/100000)</f>
+      <c r="X22" s="18">
+        <f>N22/(age_distribution_2016!$B$11/100000)</f>
         <v>365.36612519609332</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <f t="shared" si="2"/>
         <v>0.67476383265856954</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <f t="shared" si="3"/>
         <v>0.72874493927125505</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <f t="shared" si="4"/>
         <v>3.8866396761133601</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <f t="shared" si="5"/>
         <v>16.221322537112012</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <f t="shared" si="6"/>
         <v>17.219973009446694</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <f t="shared" si="7"/>
         <v>17.705802968960864</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <f t="shared" si="8"/>
         <v>15.546558704453441</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <f t="shared" si="9"/>
         <v>10.796221322537113</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG22" s="3">
         <f t="shared" si="10"/>
         <v>7.47638326585695</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AH22" s="3">
         <f t="shared" si="11"/>
         <v>9.7435897435897427</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AI22" s="3">
         <f t="shared" si="12"/>
         <v>0.4678942297134267</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AJ22" s="3">
         <f t="shared" si="13"/>
         <v>1.4507208847298065</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AK22" s="3">
         <f t="shared" si="14"/>
         <v>4.2917625259546606</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AL22" s="3">
         <f t="shared" si="15"/>
         <v>11.495600740306871</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AM22" s="3">
         <f t="shared" si="16"/>
         <v>11.940660742286649</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AN22" s="3">
         <f t="shared" si="17"/>
         <v>14.458289318452104</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AO22" s="3">
         <f t="shared" si="18"/>
         <v>12.479309797342776</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AP22" s="3">
         <f t="shared" si="19"/>
         <v>10.943436758273885</v>
       </c>
-      <c r="AP22" s="3">
+      <c r="AQ22" s="3">
         <f t="shared" si="20"/>
         <v>11.98022464872172</v>
       </c>
-      <c r="AQ22" s="3">
-        <f>W22*100/SUM($N22:$W22)</f>
+      <c r="AR22" s="3">
+        <f>X22*100/SUM($O22:$X22)</f>
         <v>20.492100354218103</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>43926</v>
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3977</v>
+        <v>4193</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
-        <v>264</v>
-      </c>
-      <c r="D23" cm="1">
-        <f t="array" ref="D23:M23">TRANSPOSE(santemontreal!H$57:H$66)</f>
+        <v>261</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" ref="E23:N23">TRANSPOSE(santemontreal!H$57:H$66)</f>
         <v>27</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>29</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>148</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>622</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>667</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>691</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>607</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>433</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>299</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>443</v>
       </c>
-      <c r="N23" s="18">
-        <f>D23/(age_distribution_2016!$B7/100000)</f>
+      <c r="O23" s="18">
+        <f>E23/(age_distribution_2016!$B7/100000)</f>
         <v>10.610079575596817</v>
       </c>
-      <c r="O23" s="18">
-        <f>E23/(age_distribution_2016!$B$3/100000)</f>
+      <c r="P23" s="18">
+        <f>F23/(age_distribution_2016!$B$3/100000)</f>
         <v>27.781769411313888</v>
       </c>
-      <c r="P23" s="18">
-        <f>F23/(age_distribution_2016!$B$4/100000)</f>
+      <c r="Q23" s="18">
+        <f>G23/(age_distribution_2016!$B$4/100000)</f>
         <v>78.646013231660334</v>
       </c>
-      <c r="Q23" s="18">
-        <f>G23/(age_distribution_2016!$B$5/100000)</f>
+      <c r="R23" s="18">
+        <f>H23/(age_distribution_2016!$B$5/100000)</f>
         <v>212.12379572001024</v>
       </c>
-      <c r="R23" s="18">
-        <f>H23/(age_distribution_2016!$B$6/100000)</f>
+      <c r="S23" s="18">
+        <f>I23/(age_distribution_2016!$B$6/100000)</f>
         <v>222.57445566029867</v>
       </c>
-      <c r="S23" s="18">
-        <f>I23/(age_distribution_2016!$B$7/100000)</f>
+      <c r="T23" s="18">
+        <f>J23/(age_distribution_2016!$B$7/100000)</f>
         <v>271.53944395323703</v>
       </c>
-      <c r="T23" s="18">
-        <f>J23/(age_distribution_2016!$B$8/100000)</f>
+      <c r="U23" s="18">
+        <f>K23/(age_distribution_2016!$B$8/100000)</f>
         <v>234.47609850313856</v>
       </c>
-      <c r="U23" s="18">
-        <f>K23/(age_distribution_2016!$B$9/100000)</f>
+      <c r="V23" s="18">
+        <f>L23/(age_distribution_2016!$B$9/100000)</f>
         <v>211.21436062535059</v>
       </c>
-      <c r="V23" s="18">
-        <f>L23/(age_distribution_2016!$B$10/100000)</f>
+      <c r="W23" s="18">
+        <f>M23/(age_distribution_2016!$B$10/100000)</f>
         <v>230.56755089450957</v>
       </c>
-      <c r="W23" s="18">
-        <f>M23/(age_distribution_2016!$B$11/100000)</f>
+      <c r="X23" s="18">
+        <f>N23/(age_distribution_2016!$B$11/100000)</f>
         <v>448.35787662567685</v>
       </c>
-      <c r="X23" s="3">
-        <f t="shared" ref="X23" si="22">D23*100/SUM($D23:$M23)</f>
+      <c r="Y23" s="3">
+        <f t="shared" ref="Y23" si="22">E23*100/SUM($E23:$N23)</f>
         <v>0.68078668683812404</v>
       </c>
-      <c r="Y23" s="3">
-        <f t="shared" ref="Y23" si="23">E23*100/SUM($D23:$M23)</f>
+      <c r="Z23" s="3">
+        <f t="shared" ref="Z23" si="23">F23*100/SUM($E23:$N23)</f>
         <v>0.73121533030761476</v>
       </c>
-      <c r="Z23" s="3">
-        <f t="shared" ref="Z23" si="24">F23*100/SUM($D23:$M23)</f>
+      <c r="AA23" s="3">
+        <f t="shared" ref="AA23" si="24">G23*100/SUM($E23:$N23)</f>
         <v>3.7317196167423097</v>
       </c>
-      <c r="AA23" s="3">
-        <f t="shared" ref="AA23" si="25">G23*100/SUM($D23:$M23)</f>
+      <c r="AB23" s="3">
+        <f t="shared" ref="AB23" si="25">H23*100/SUM($E23:$N23)</f>
         <v>15.683308119011599</v>
       </c>
-      <c r="AB23" s="3">
-        <f t="shared" ref="AB23" si="26">H23*100/SUM($D23:$M23)</f>
+      <c r="AC23" s="3">
+        <f t="shared" ref="AC23" si="26">I23*100/SUM($E23:$N23)</f>
         <v>16.817952597075138</v>
       </c>
-      <c r="AC23" s="3">
-        <f t="shared" ref="AC23" si="27">I23*100/SUM($D23:$M23)</f>
+      <c r="AD23" s="3">
+        <f t="shared" ref="AD23" si="27">J23*100/SUM($E23:$N23)</f>
         <v>17.423096318709028</v>
       </c>
-      <c r="AD23" s="3">
-        <f t="shared" ref="AD23" si="28">J23*100/SUM($D23:$M23)</f>
+      <c r="AE23" s="3">
+        <f t="shared" ref="AE23" si="28">K23*100/SUM($E23:$N23)</f>
         <v>15.305093292990419</v>
       </c>
-      <c r="AE23" s="3">
-        <f t="shared" ref="AE23" si="29">K23*100/SUM($D23:$M23)</f>
+      <c r="AF23" s="3">
+        <f t="shared" ref="AF23" si="29">L23*100/SUM($E23:$N23)</f>
         <v>10.91780131114473</v>
       </c>
-      <c r="AF23" s="3">
-        <f t="shared" ref="AF23" si="30">L23*100/SUM($D23:$M23)</f>
+      <c r="AG23" s="3">
+        <f t="shared" ref="AG23" si="30">M23*100/SUM($E23:$N23)</f>
         <v>7.5390821986888552</v>
       </c>
-      <c r="AG23" s="3">
-        <f t="shared" ref="AG23" si="31">M23*100/SUM($D23:$M23)</f>
+      <c r="AH23" s="3">
+        <f t="shared" ref="AH23" si="31">N23*100/SUM($E23:$N23)</f>
         <v>11.169944528492184</v>
       </c>
-      <c r="AH23" s="3">
-        <f t="shared" ref="AH23" si="32">N23*100/SUM($N23:$W23)</f>
+      <c r="AI23" s="3">
+        <f t="shared" ref="AI23" si="32">O23*100/SUM($O23:$X23)</f>
         <v>0.54469563009709021</v>
       </c>
-      <c r="AI23" s="3">
-        <f t="shared" ref="AI23" si="33">O23*100/SUM($N23:$W23)</f>
+      <c r="AJ23" s="3">
+        <f t="shared" ref="AJ23" si="33">P23*100/SUM($O23:$X23)</f>
         <v>1.4262483412011995</v>
       </c>
-      <c r="AJ23" s="3">
-        <f t="shared" ref="AJ23" si="34">P23*100/SUM($N23:$W23)</f>
+      <c r="AK23" s="3">
+        <f t="shared" ref="AK23" si="34">Q23*100/SUM($O23:$X23)</f>
         <v>4.0374946697262333</v>
       </c>
-      <c r="AK23" s="3">
-        <f t="shared" ref="AK23" si="35">Q23*100/SUM($N23:$W23)</f>
+      <c r="AL23" s="3">
+        <f t="shared" ref="AL23" si="35">R23*100/SUM($O23:$X23)</f>
         <v>10.889918755562032</v>
       </c>
-      <c r="AL23" s="3">
-        <f t="shared" ref="AL23" si="36">R23*100/SUM($N23:$W23)</f>
+      <c r="AM23" s="3">
+        <f t="shared" ref="AM23" si="36">S23*100/SUM($O23:$X23)</f>
         <v>11.426430170066256</v>
       </c>
-      <c r="AM23" s="3">
-        <f t="shared" ref="AM23" si="37">S23*100/SUM($N23:$W23)</f>
+      <c r="AN23" s="3">
+        <f t="shared" ref="AN23" si="37">T23*100/SUM($O23:$X23)</f>
         <v>13.940173348040345</v>
       </c>
-      <c r="AN23" s="3">
-        <f t="shared" ref="AN23" si="38">T23*100/SUM($N23:$W23)</f>
+      <c r="AO23" s="3">
+        <f t="shared" ref="AO23" si="38">U23*100/SUM($O23:$X23)</f>
         <v>12.037431510940417</v>
       </c>
-      <c r="AO23" s="3">
-        <f t="shared" ref="AO23" si="39">U23*100/SUM($N23:$W23)</f>
+      <c r="AP23" s="3">
+        <f t="shared" ref="AP23" si="39">V23*100/SUM($O23:$X23)</f>
         <v>10.843230573971258</v>
       </c>
-      <c r="AP23" s="3">
-        <f t="shared" ref="AP23" si="40">V23*100/SUM($N23:$W23)</f>
+      <c r="AQ23" s="3">
+        <f t="shared" ref="AQ23" si="40">W23*100/SUM($O23:$X23)</f>
         <v>11.836776201309821</v>
       </c>
-      <c r="AQ23" s="3">
-        <f>W23*100/SUM($N23:$W23)</f>
+      <c r="AR23" s="3">
+        <f>X23*100/SUM($O23:$X23)</f>
         <v>23.017600799085354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A24" s="19">
+        <v>43927</v>
+      </c>
+      <c r="B24">
+        <v>4407</v>
+      </c>
+      <c r="C24" s="17">
+        <f>mtl_newcases!B25</f>
+        <v>214</v>
+      </c>
+      <c r="D24">
+        <v>63</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" ref="E24:N24">TRANSPOSE(santemontreal!I$57:I$66)</f>
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>154</v>
+      </c>
+      <c r="H24">
+        <v>662</v>
+      </c>
+      <c r="I24">
+        <v>733</v>
+      </c>
+      <c r="J24">
+        <v>763</v>
+      </c>
+      <c r="K24">
+        <v>665</v>
+      </c>
+      <c r="L24">
+        <v>469</v>
+      </c>
+      <c r="M24">
+        <v>340</v>
+      </c>
+      <c r="N24">
+        <v>549</v>
+      </c>
+      <c r="O24" s="18">
+        <f>E24/(age_distribution_2016!$B8/100000)</f>
+        <v>11.588604538870111</v>
+      </c>
+      <c r="P24" s="18">
+        <f>F24/(age_distribution_2016!$B$3/100000)</f>
+        <v>29.697753508645881</v>
+      </c>
+      <c r="Q24" s="18">
+        <f>G24/(age_distribution_2016!$B$4/100000)</f>
+        <v>81.834365119430345</v>
+      </c>
+      <c r="R24" s="18">
+        <f>H24/(age_distribution_2016!$B$5/100000)</f>
+        <v>225.76519737403021</v>
+      </c>
+      <c r="S24" s="18">
+        <f>I24/(age_distribution_2016!$B$6/100000)</f>
+        <v>244.59831484107784</v>
+      </c>
+      <c r="T24" s="18">
+        <f>J24/(age_distribution_2016!$B$7/100000)</f>
+        <v>299.8329894881619</v>
+      </c>
+      <c r="U24" s="18">
+        <f>K24/(age_distribution_2016!$B$8/100000)</f>
+        <v>256.8807339449541</v>
+      </c>
+      <c r="V24" s="18">
+        <f>L24/(age_distribution_2016!$B$9/100000)</f>
+        <v>228.77490792907489</v>
+      </c>
+      <c r="W24" s="18">
+        <f>M24/(age_distribution_2016!$B$10/100000)</f>
+        <v>262.18383713756941</v>
+      </c>
+      <c r="X24" s="18">
+        <f>N24/(age_distribution_2016!$B$11/100000)</f>
+        <v>555.63989676635799</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" ref="Y24" si="41">E24*100/SUM($E24:$N24)</f>
+        <v>0.68243858052775253</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" ref="Z24" si="42">F24*100/SUM($E24:$N24)</f>
+        <v>0.70518653321201097</v>
+      </c>
+      <c r="AA24" s="3">
+        <f t="shared" ref="AA24" si="43">G24*100/SUM($E24:$N24)</f>
+        <v>3.5031847133757963</v>
+      </c>
+      <c r="AB24" s="3">
+        <f t="shared" ref="AB24" si="44">H24*100/SUM($E24:$N24)</f>
+        <v>15.059144676979072</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" ref="AC24" si="45">I24*100/SUM($E24:$N24)</f>
+        <v>16.674249317561419</v>
+      </c>
+      <c r="AD24" s="3">
+        <f t="shared" ref="AD24" si="46">J24*100/SUM($E24:$N24)</f>
+        <v>17.356687898089174</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" ref="AE24" si="47">K24*100/SUM($E24:$N24)</f>
+        <v>15.127388535031848</v>
+      </c>
+      <c r="AF24" s="3">
+        <f t="shared" ref="AF24" si="48">L24*100/SUM($E24:$N24)</f>
+        <v>10.668789808917197</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" ref="AG24" si="49">M24*100/SUM($E24:$N24)</f>
+        <v>7.7343039126478619</v>
+      </c>
+      <c r="AH24" s="3">
+        <f t="shared" ref="AH24" si="50">N24*100/SUM($E24:$N24)</f>
+        <v>12.48862602365787</v>
+      </c>
+      <c r="AI24" s="3">
+        <f t="shared" ref="AI24" si="51">O24*100/SUM($O24:$X24)</f>
+        <v>0.52752287287092714</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" ref="AJ24" si="52">P24*100/SUM($O24:$X24)</f>
+        <v>1.3518663266268462</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" ref="AK24" si="53">Q24*100/SUM($O24:$X24)</f>
+        <v>3.7251680513018282</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" ref="AL24" si="54">R24*100/SUM($O24:$X24)</f>
+        <v>10.277018696561045</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" ref="AM24" si="55">S24*100/SUM($O24:$X24)</f>
+        <v>11.134317795689789</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" ref="AN24" si="56">T24*100/SUM($O24:$X24)</f>
+        <v>13.64864591467845</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" ref="AO24" si="57">U24*100/SUM($O24:$X24)</f>
+        <v>11.693423681972218</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" ref="AP24" si="58">V24*100/SUM($O24:$X24)</f>
+        <v>10.414023212780554</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" ref="AQ24" si="59">W24*100/SUM($O24:$X24)</f>
+        <v>11.934825329764765</v>
+      </c>
+      <c r="AR24" s="3">
+        <f>X24*100/SUM($O24:$X24)</f>
+        <v>25.293188117753569</v>
       </c>
     </row>
   </sheetData>
@@ -6847,11 +7347,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7669,6 +8169,29 @@
         <v>611</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B36">
+        <v>9340</v>
+      </c>
+      <c r="C36">
+        <v>150</v>
+      </c>
+      <c r="D36">
+        <v>583</v>
+      </c>
+      <c r="E36">
+        <v>164</v>
+      </c>
+      <c r="F36">
+        <v>95186</v>
+      </c>
+      <c r="G36">
+        <v>720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7676,10 +8199,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7727,7 +8250,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C23" si="0">C2+B3</f>
+        <f t="shared" ref="C3:C25" si="0">C2+B3</f>
         <v>18</v>
       </c>
     </row>
@@ -7880,11 +8403,11 @@
         <v>43918</v>
       </c>
       <c r="B16">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -7892,11 +8415,11 @@
         <v>43919</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -7906,7 +8429,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -7918,7 +8441,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -7928,7 +8451,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -7936,11 +8459,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -7950,7 +8473,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -7958,11 +8481,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2844</v>
+        <v>2831</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -7972,7 +8495,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -7980,11 +8503,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3255</v>
+        <v>3246</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -7994,7 +8517,7 @@
       </c>
       <c r="G21">
         <f>C21-F21</f>
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -8002,11 +8525,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3598</v>
+        <v>3609</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -8016,7 +8539,7 @@
       </c>
       <c r="G22">
         <f>C22-F22</f>
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -8024,11 +8547,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>323</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3713</v>
+        <v>3932</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -8038,7 +8561,7 @@
       </c>
       <c r="G23">
         <f>C23-F23</f>
-        <v>0</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -8046,10 +8569,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C24">
-        <v>3977</v>
+        <f t="shared" si="0"/>
+        <v>4193</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -8059,6 +8583,28 @@
       </c>
       <c r="G24">
         <f>C24-F24</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="19">
+        <v>43927</v>
+      </c>
+      <c r="B25">
+        <v>214</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4407</v>
+      </c>
+      <c r="E25" s="19">
+        <v>43927</v>
+      </c>
+      <c r="F25">
+        <v>4407</v>
+      </c>
+      <c r="G25">
+        <f>C25-F25</f>
         <v>0</v>
       </c>
     </row>
@@ -8072,8 +8618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I2:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8107,9 +8653,11 @@
         <v>193</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -8143,7 +8691,9 @@
       <c r="H2" s="7">
         <v>176</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7">
+        <v>200</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -8177,7 +8727,9 @@
       <c r="H3" s="9">
         <v>37</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>42</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -8211,7 +8763,9 @@
       <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="20">
+        <v>5</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -8245,7 +8799,9 @@
       <c r="H5" s="9">
         <v>10</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9">
+        <v>11</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -8279,7 +8835,9 @@
       <c r="H6" s="7">
         <v>384</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>428</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -8313,7 +8871,9 @@
       <c r="H7" s="9">
         <v>207</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>232</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -8347,7 +8907,9 @@
       <c r="H8" s="7">
         <v>50</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>54</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -8381,7 +8943,9 @@
       <c r="H9" s="9">
         <v>27</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9">
+        <v>31</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -8415,7 +8979,9 @@
       <c r="H10" s="7">
         <v>27</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>28</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -8449,7 +9015,9 @@
       <c r="H11" s="9">
         <v>12</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <v>12</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -8483,7 +9051,9 @@
       <c r="H12" s="7">
         <v>59</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>71</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -8517,7 +9087,9 @@
       <c r="H13" s="9">
         <v>219</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9">
+        <v>237</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -8551,7 +9123,9 @@
       <c r="H14" s="7">
         <v>15</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>16</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -8585,7 +9159,9 @@
       <c r="H15" s="9">
         <v>151</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9">
+        <v>182</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -8619,7 +9195,9 @@
       <c r="H16" s="20">
         <v>5</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -8653,7 +9231,9 @@
       <c r="H17" s="9">
         <v>117</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9">
+        <v>149</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -8687,7 +9267,9 @@
       <c r="H18" s="20">
         <v>5</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="20">
+        <v>5</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -8721,7 +9303,9 @@
       <c r="H19" s="9">
         <v>36</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9">
+        <v>37</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -8755,7 +9339,9 @@
       <c r="H20" s="7">
         <v>113</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>119</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -8789,7 +9375,9 @@
       <c r="H21" s="9">
         <v>54</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <v>56</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -8823,7 +9411,9 @@
       <c r="H22" s="7">
         <v>174</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>186</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -8857,7 +9447,9 @@
       <c r="H23" s="9">
         <v>23</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9">
+        <v>24</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -8891,7 +9483,9 @@
       <c r="H24" s="7">
         <v>133</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>148</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -8925,7 +9519,9 @@
       <c r="H25" s="9">
         <v>194</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <v>217</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -8959,7 +9555,9 @@
       <c r="H26" s="20">
         <v>5</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -8993,7 +9591,9 @@
       <c r="H27" s="9">
         <v>128</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9">
+        <v>141</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -9027,7 +9627,9 @@
       <c r="H28" s="7">
         <v>77</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7">
+        <v>96</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -9061,7 +9663,9 @@
       <c r="H29" s="20">
         <v>1</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -9095,7 +9699,9 @@
       <c r="H30" s="7">
         <v>134</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="7">
+        <v>162</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -9129,7 +9735,9 @@
       <c r="H31" s="9">
         <v>117</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9">
+        <v>134</v>
+      </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -9163,7 +9771,9 @@
       <c r="H32" s="7">
         <v>140</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="7">
+        <v>152</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -9197,7 +9807,9 @@
       <c r="H33" s="9">
         <v>160</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9">
+        <v>185</v>
+      </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -9231,7 +9843,9 @@
       <c r="H34" s="7">
         <v>46</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="7">
+        <v>52</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -9265,7 +9879,9 @@
       <c r="H35" s="9">
         <v>938</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9">
+        <v>985</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -9299,7 +9915,9 @@
       <c r="H36" s="11">
         <v>3977</v>
       </c>
-      <c r="I36" s="11"/>
+      <c r="I36" s="11">
+        <v>4407</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -9332,9 +9950,11 @@
         <v>193</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I38" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -9368,7 +9988,9 @@
       <c r="H39" s="7">
         <v>891</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="7">
+        <v>986</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -9402,7 +10024,9 @@
       <c r="H40" s="9">
         <v>516</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="9">
+        <v>580</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -9436,7 +10060,9 @@
       <c r="H41" s="7">
         <v>580</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="7">
+        <v>676</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -9470,7 +10096,9 @@
       <c r="H42" s="9">
         <v>565</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9">
+        <v>649</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -9504,7 +10132,9 @@
       <c r="H43" s="7">
         <v>480</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="7">
+        <v>525</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -9538,7 +10168,9 @@
       <c r="H44" s="9">
         <v>945</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9">
+        <v>991</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -9569,10 +10201,12 @@
       <c r="G45" s="11">
         <v>3713</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="11"/>
+      <c r="H45" s="11">
+        <v>3977</v>
+      </c>
+      <c r="I45" s="11">
+        <v>4407</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -9603,9 +10237,11 @@
         <v>193</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I47" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -9635,9 +10271,11 @@
         <v>188</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="I48" s="7"/>
+        <v>216</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -9667,9 +10305,11 @@
         <v>189</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="9"/>
+        <v>217</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -9699,9 +10339,11 @@
         <v>190</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I50" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -9731,9 +10373,11 @@
         <v>191</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I51" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -9763,9 +10407,11 @@
         <v>192</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I52" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -9815,9 +10461,11 @@
         <v>187</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I54" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -9848,9 +10496,11 @@
         <v>193</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="13"/>
+        <v>215</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
@@ -9882,7 +10532,9 @@
       <c r="H57" s="7">
         <v>27</v>
       </c>
-      <c r="I57" s="7"/>
+      <c r="I57" s="7">
+        <v>30</v>
+      </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -9914,7 +10566,9 @@
       <c r="H58" s="9">
         <v>29</v>
       </c>
-      <c r="I58" s="9"/>
+      <c r="I58" s="9">
+        <v>31</v>
+      </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -9946,7 +10600,9 @@
       <c r="H59" s="7">
         <v>148</v>
       </c>
-      <c r="I59" s="7"/>
+      <c r="I59" s="7">
+        <v>154</v>
+      </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -9978,7 +10634,9 @@
       <c r="H60" s="9">
         <v>622</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="I60" s="9">
+        <v>662</v>
+      </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -10010,7 +10668,9 @@
       <c r="H61" s="7">
         <v>667</v>
       </c>
-      <c r="I61" s="7"/>
+      <c r="I61" s="7">
+        <v>733</v>
+      </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -10042,7 +10702,9 @@
       <c r="H62" s="9">
         <v>691</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9">
+        <v>763</v>
+      </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -10074,7 +10736,9 @@
       <c r="H63" s="7">
         <v>607</v>
       </c>
-      <c r="I63" s="7"/>
+      <c r="I63" s="7">
+        <v>665</v>
+      </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -10106,7 +10770,9 @@
       <c r="H64" s="9">
         <v>433</v>
       </c>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9">
+        <v>469</v>
+      </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -10138,7 +10804,9 @@
       <c r="H65" s="7">
         <v>299</v>
       </c>
-      <c r="I65" s="7"/>
+      <c r="I65" s="7">
+        <v>340</v>
+      </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -10170,7 +10838,9 @@
       <c r="H66" s="9">
         <v>443</v>
       </c>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9">
+        <v>549</v>
+      </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -10202,7 +10872,9 @@
       <c r="H67" s="7">
         <v>11</v>
       </c>
-      <c r="I67" s="7"/>
+      <c r="I67" s="7">
+        <v>11</v>
+      </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -10234,7 +10906,9 @@
       <c r="H68" s="15">
         <v>3977</v>
       </c>
-      <c r="I68" s="15"/>
+      <c r="I68" s="15">
+        <v>4407</v>
+      </c>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
@@ -10242,6 +10916,35 @@
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70">
+        <v>63</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -10257,199 +10960,199 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A19:D60"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>662</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>733</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>763</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>665</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>469</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>340</v>
+      </c>
+      <c r="C12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>549</v>
+      </c>
+      <c r="C13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>226</v>
+      </c>
+    </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D47" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49">
-        <v>27</v>
-      </c>
-      <c r="C49" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51">
-        <v>148</v>
-      </c>
-      <c r="C51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52">
-        <v>622</v>
-      </c>
-      <c r="C52" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53">
-        <v>667</v>
-      </c>
-      <c r="C53" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54">
-        <v>691</v>
-      </c>
-      <c r="C54" t="s">
-        <v>233</v>
-      </c>
-      <c r="D54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55">
-        <v>607</v>
-      </c>
-      <c r="C55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56">
-        <v>433</v>
-      </c>
-      <c r="C56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57">
-        <v>299</v>
-      </c>
-      <c r="C57" t="s">
-        <v>239</v>
-      </c>
-      <c r="D57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58">
-        <v>443</v>
-      </c>
-      <c r="C58" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" t="s">
-        <v>215</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C1688-A916-4656-97DB-F02BF7110C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D433E668-0F1E-4FFC-A173-1C5A231624CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="5670" windowWidth="15360" windowHeight="9740" tabRatio="765" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="25000" yWindow="8040" windowWidth="12710" windowHeight="9740" tabRatio="765" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="260">
   <si>
     <t>borough</t>
   </si>
@@ -625,9 +625,6 @@
     <t>new_cases_mtl</t>
   </si>
   <si>
-    <t>NOMBRE TOTAL DE CAS CONFIRMÉS¹</t>
-  </si>
-  <si>
     <t>TAUX POUR</t>
   </si>
   <si>
@@ -739,21 +736,12 @@
     <t>127,3</t>
   </si>
   <si>
-    <t>RÉPARTITION PARMI LES CAS DONT L'ÂGE EST CONNU (%)</t>
-  </si>
-  <si>
-    <t>12,5</t>
-  </si>
-  <si>
     <t>3,5</t>
   </si>
   <si>
     <t>0,7</t>
   </si>
   <si>
-    <t>4 407</t>
-  </si>
-  <si>
     <t>213,3</t>
   </si>
   <si>
@@ -781,52 +769,91 @@
     <t>139,2</t>
   </si>
   <si>
-    <t>0,7 </t>
-  </si>
-  <si>
-    <t>* 27,1</t>
-  </si>
-  <si>
-    <t> * 28,7</t>
-  </si>
-  <si>
-    <t>77,4</t>
-  </si>
-  <si>
-    <t>15,1</t>
-  </si>
-  <si>
-    <t>205,5</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>223,1</t>
-  </si>
-  <si>
-    <t>17,4  </t>
-  </si>
-  <si>
-    <t>274,1</t>
-  </si>
-  <si>
-    <t>259,1</t>
-  </si>
-  <si>
-    <t>10,7 </t>
-  </si>
-  <si>
-    <t>216,6</t>
-  </si>
-  <si>
-    <t>7,7</t>
-  </si>
-  <si>
     <t>235,0</t>
   </si>
   <si>
-    <t>543,3</t>
+    <t>TOTAL DE CAS CONFIRMÉS¹</t>
+  </si>
+  <si>
+    <t>RÉPARTITION DES CAS (%)</t>
+  </si>
+  <si>
+    <t>280,4</t>
+  </si>
+  <si>
+    <t>193,4</t>
+  </si>
+  <si>
+    <t>134,8</t>
+  </si>
+  <si>
+    <t>155,5</t>
+  </si>
+  <si>
+    <t>159,6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4 775</t>
+  </si>
+  <si>
+    <t>231,2</t>
+  </si>
+  <si>
+    <t>7 AVRIL, 17H</t>
+  </si>
+  <si>
+    <t> 0,7</t>
+  </si>
+  <si>
+    <t>* 30,7</t>
+  </si>
+  <si>
+    <t>* 30,6</t>
+  </si>
+  <si>
+    <t>83,0</t>
+  </si>
+  <si>
+    <t>14,6</t>
+  </si>
+  <si>
+    <t>216,1</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>300,7</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>275,8</t>
+  </si>
+  <si>
+    <t>10,6</t>
+  </si>
+  <si>
+    <t>233,2</t>
+  </si>
+  <si>
+    <t>7,7 </t>
+  </si>
+  <si>
+    <t>254,3</t>
+  </si>
+  <si>
+    <t>13,6</t>
+  </si>
+  <si>
+    <t>639,3</t>
   </si>
 </sst>
 </file>
@@ -1329,19 +1356,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1372,8 +1399,11 @@
       <c r="J1" s="1">
         <v>43927</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1404,8 +1434,11 @@
       <c r="J2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1436,8 +1469,11 @@
       <c r="J3">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1468,8 +1504,11 @@
       <c r="J4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1500,8 +1539,11 @@
       <c r="J5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1532,8 +1574,11 @@
       <c r="J6">
         <v>428</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1564,8 +1609,11 @@
       <c r="J7">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1596,8 +1644,11 @@
       <c r="J8">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1628,8 +1679,11 @@
       <c r="J9">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1660,8 +1714,11 @@
       <c r="J10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1692,8 +1749,11 @@
       <c r="J11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1724,8 +1784,11 @@
       <c r="J12">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1756,8 +1819,11 @@
       <c r="J13">
         <v>237</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1788,8 +1854,11 @@
       <c r="J14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1820,8 +1889,11 @@
       <c r="J15">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1852,8 +1924,11 @@
       <c r="J16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1884,8 +1959,11 @@
       <c r="J17">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -1916,8 +1994,11 @@
       <c r="J18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1948,8 +2029,11 @@
       <c r="J19">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1980,8 +2064,11 @@
       <c r="J20">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2012,8 +2099,11 @@
       <c r="J21">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2044,8 +2134,11 @@
       <c r="J22">
         <v>186</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2076,8 +2169,11 @@
       <c r="J23">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2108,8 +2204,11 @@
       <c r="J24">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2140,8 +2239,11 @@
       <c r="J25">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2172,8 +2274,11 @@
       <c r="J26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2204,8 +2309,11 @@
       <c r="J27">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2236,8 +2344,11 @@
       <c r="J28">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2268,8 +2379,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2300,8 +2414,11 @@
       <c r="J30">
         <v>162</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="J31">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2364,8 +2484,11 @@
       <c r="J32">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2396,8 +2519,11 @@
       <c r="J33">
         <v>185</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2428,8 +2554,11 @@
       <c r="J34">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2459,6 +2588,9 @@
       </c>
       <c r="J35">
         <v>985</v>
+      </c>
+      <c r="K35">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -2468,19 +2600,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J34"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2520,8 +2652,12 @@
         <f>cases!J1</f>
         <v>43927</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1">
+        <f>cases!K1</f>
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2560,8 +2696,12 @@
         <f>cases!J2/(population_2016!$B2/1000)</f>
         <v>1.4898134008715407</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="3">
+        <f>cases!K2/(population_2016!$B2/1000)</f>
+        <v>1.6611419419717679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2600,8 +2740,12 @@
         <f>cases!J3/(population_2016!$B3/1000)</f>
         <v>0.98140013085335076</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="3">
+        <f>cases!K3/(population_2016!$B3/1000)</f>
+        <v>1.0982334797644639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2640,8 +2784,12 @@
         <f>cases!J4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="3">
+        <f>cases!K4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2680,8 +2828,12 @@
         <f>cases!J5/(population_2016!$B5/1000)</f>
         <v>0.56924032291451043</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="3">
+        <f>cases!K5/(population_2016!$B5/1000)</f>
+        <v>0.6727385634444214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2720,8 +2872,12 @@
         <f>cases!J6/(population_2016!$B6/1000)</f>
         <v>2.5702618304107614</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="3">
+        <f>cases!K6/(population_2016!$B6/1000)</f>
+        <v>2.720393946673072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2760,8 +2916,12 @@
         <f>cases!J7/(population_2016!$B7/1000)</f>
         <v>7.1499013806706113</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="3">
+        <f>cases!K7/(population_2016!$B7/1000)</f>
+        <v>7.427268244575937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2800,8 +2960,12 @@
         <f>cases!J8/(population_2016!$B8/1000)</f>
         <v>1.1043170616986033</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="3">
+        <f>cases!K8/(population_2016!$B8/1000)</f>
+        <v>1.3088202212724187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2840,8 +3004,12 @@
         <f>cases!J9/(population_2016!$B9/1000)</f>
         <v>1.6332982086406744</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="3">
+        <f>cases!K9/(population_2016!$B9/1000)</f>
+        <v>1.9494204425711275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2880,8 +3048,12 @@
         <f>cases!J10/(population_2016!$B10/1000)</f>
         <v>4.015488312060806</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="3">
+        <f>cases!K10/(population_2016!$B10/1000)</f>
+        <v>4.015488312060806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2920,8 +3092,12 @@
         <f>cases!J11/(population_2016!$B11/1000)</f>
         <v>0.59550394521363703</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="3">
+        <f>cases!K11/(population_2016!$B11/1000)</f>
+        <v>0.59550394521363703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2960,8 +3136,12 @@
         <f>cases!J12/(population_2016!$B12/1000)</f>
         <v>1.5959001101395851</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="3">
+        <f>cases!K12/(population_2016!$B12/1000)</f>
+        <v>1.7532423745195442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3000,8 +3180,12 @@
         <f>cases!J13/(population_2016!$B13/1000)</f>
         <v>3.0838093503181399</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="3">
+        <f>cases!K13/(population_2016!$B13/1000)</f>
+        <v>3.4741649642824615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3040,8 +3224,12 @@
         <f>cases!J14/(population_2016!$B14/1000)</f>
         <v>0.86895128441861724</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="3">
+        <f>cases!K14/(population_2016!$B14/1000)</f>
+        <v>1.0861891055232715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3080,8 +3268,12 @@
         <f>cases!J15/(population_2016!$B15/1000)</f>
         <v>1.3379991766158914</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>cases!K15/(population_2016!$B15/1000)</f>
+        <v>1.4335705463741693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3120,8 +3312,12 @@
         <f>cases!J16/(population_2016!$B16/1000)</f>
         <v>1.2987012987012987</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f>cases!K16/(population_2016!$B16/1000)</f>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3160,8 +3356,12 @@
         <f>cases!J17/(population_2016!$B17/1000)</f>
         <v>1.7688819241636395</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>cases!K17/(population_2016!$B17/1000)</f>
+        <v>1.9588289764228222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3200,8 +3400,12 @@
         <f>cases!J18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="3">
+        <f>cases!K18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3240,8 +3444,12 @@
         <f>cases!J19/(population_2016!$B19/1000)</f>
         <v>1.8248175182481752</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="3">
+        <f>cases!K19/(population_2016!$B19/1000)</f>
+        <v>1.874136910633261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3488,12 @@
         <f>cases!J20/(population_2016!$B20/1000)</f>
         <v>4.9678550555230858</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="3">
+        <f>cases!K20/(population_2016!$B20/1000)</f>
+        <v>5.4688152291892793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3320,8 +3532,12 @@
         <f>cases!J21/(population_2016!$B21/1000)</f>
         <v>0.80811579144840329</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="3">
+        <f>cases!K21/(population_2016!$B21/1000)</f>
+        <v>0.99571410017749695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3360,8 +3576,12 @@
         <f>cases!J22/(population_2016!$B22/1000)</f>
         <v>1.7884615384615385</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="3">
+        <f>cases!K22/(population_2016!$B22/1000)</f>
+        <v>1.9519230769230769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3400,8 +3620,12 @@
         <f>cases!J23/(population_2016!$B23/1000)</f>
         <v>0.76481835564053535</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="3">
+        <f>cases!K23/(population_2016!$B23/1000)</f>
+        <v>0.95602294455066927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3440,8 +3664,12 @@
         <f>cases!J24/(population_2016!$B24/1000)</f>
         <v>1.386507780369673</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="3">
+        <f>cases!K24/(population_2016!$B24/1000)</f>
+        <v>1.5082956259426847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3480,8 +3708,12 @@
         <f>cases!J25/(population_2016!$B25/1000)</f>
         <v>1.5545526183824057</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="3">
+        <f>cases!K25/(population_2016!$B25/1000)</f>
+        <v>1.6261909878931156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3520,8 +3752,12 @@
         <f>cases!J26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="3">
+        <f>cases!K26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3560,8 +3796,12 @@
         <f>cases!J27/(population_2016!$B27/1000)</f>
         <v>1.4267211721374509</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="3">
+        <f>cases!K27/(population_2016!$B27/1000)</f>
+        <v>1.5380256607439187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3600,8 +3840,12 @@
         <f>cases!J28/(population_2016!$B28/1000)</f>
         <v>1.2259753527871782</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="3">
+        <f>cases!K28/(population_2016!$B28/1000)</f>
+        <v>1.3153693889279099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3640,8 +3884,12 @@
         <f>cases!J29/(population_2016!$B29/1000)</f>
         <v>1.0857763300760044</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="3">
+        <f>cases!K29/(population_2016!$B29/1000)</f>
+        <v>1.0857763300760044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3680,8 +3928,12 @@
         <f>cases!J30/(population_2016!$B30/1000)</f>
         <v>2.0729101355069033</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="3">
+        <f>cases!K30/(population_2016!$B30/1000)</f>
+        <v>2.1880718097017313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3720,8 +3972,12 @@
         <f>cases!J31/(population_2016!$B31/1000)</f>
         <v>1.9356050210172038</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="3">
+        <f>cases!K31/(population_2016!$B31/1000)</f>
+        <v>2.0367187161449682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3760,8 +4016,12 @@
         <f>cases!J32/(population_2016!$B32/1000)</f>
         <v>1.7046091734888416</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="3">
+        <f>cases!K32/(population_2016!$B32/1000)</f>
+        <v>1.8391835819221711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3800,8 +4060,12 @@
         <f>cases!J33/(population_2016!$B33/1000)</f>
         <v>1.2860350496687589</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="3">
+        <f>cases!K33/(population_2016!$B33/1000)</f>
+        <v>1.3833566209950434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3839,6 +4103,10 @@
       <c r="J34" s="3">
         <f>cases!J34/(population_2016!$B34/1000)</f>
         <v>2.5600630169358012</v>
+      </c>
+      <c r="K34" s="3">
+        <f>cases!K34/(population_2016!$B34/1000)</f>
+        <v>2.7077589602205592</v>
       </c>
     </row>
   </sheetData>
@@ -3848,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR24"/>
+  <dimension ref="A1:AR25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AR24" sqref="AR24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3873,7 +4141,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>145</v>
@@ -3936,64 +4204,64 @@
         <v>161</v>
       </c>
       <c r="Y1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="AR1" s="17" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -6345,11 +6613,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>102</v>
@@ -6512,7 +6780,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
@@ -6683,7 +6951,7 @@
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -6846,11 +7114,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -7013,11 +7281,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4193</v>
+        <v>4197</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>102</v>
@@ -7178,12 +7446,13 @@
       <c r="A24" s="19">
         <v>43927</v>
       </c>
-      <c r="B24">
-        <v>4407</v>
+      <c r="B24" s="17">
+        <f>mtl_newcases!C25</f>
+        <v>4625</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -7338,6 +7607,173 @@
       <c r="AR24" s="3">
         <f>X24*100/SUM($O24:$X24)</f>
         <v>25.293188117753569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A25" s="19">
+        <v>43928</v>
+      </c>
+      <c r="B25" s="17">
+        <f>mtl_newcases!C26</f>
+        <v>4775</v>
+      </c>
+      <c r="C25" s="17">
+        <f>mtl_newcases!B26</f>
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>74</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" ref="E25:N25">TRANSPOSE(santemontreal!J$57:J$66)</f>
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>165</v>
+      </c>
+      <c r="H25">
+        <v>696</v>
+      </c>
+      <c r="I25">
+        <v>772</v>
+      </c>
+      <c r="J25">
+        <v>837</v>
+      </c>
+      <c r="K25">
+        <v>708</v>
+      </c>
+      <c r="L25">
+        <v>505</v>
+      </c>
+      <c r="M25">
+        <v>368</v>
+      </c>
+      <c r="N25">
+        <v>646</v>
+      </c>
+      <c r="O25" s="18">
+        <f>E25/(age_distribution_2016!$B9/100000)</f>
+        <v>16.584961342406281</v>
+      </c>
+      <c r="P25" s="18">
+        <f>F25/(age_distribution_2016!$B$3/100000)</f>
+        <v>31.613737605977871</v>
+      </c>
+      <c r="Q25" s="18">
+        <f>G25/(age_distribution_2016!$B$4/100000)</f>
+        <v>87.679676913675365</v>
+      </c>
+      <c r="R25" s="18">
+        <f>H25/(age_distribution_2016!$B$5/100000)</f>
+        <v>237.36038877994716</v>
+      </c>
+      <c r="S25" s="18">
+        <f>I25/(age_distribution_2016!$B$6/100000)</f>
+        <v>257.61241344790187</v>
+      </c>
+      <c r="T25" s="18">
+        <f>J25/(age_distribution_2016!$B$7/100000)</f>
+        <v>328.91246684350131</v>
+      </c>
+      <c r="U25" s="18">
+        <f>K25/(age_distribution_2016!$B$8/100000)</f>
+        <v>273.49106711733464</v>
+      </c>
+      <c r="V25" s="18">
+        <f>L25/(age_distribution_2016!$B$9/100000)</f>
+        <v>246.33545523279918</v>
+      </c>
+      <c r="W25" s="18">
+        <f>M25/(age_distribution_2016!$B$10/100000)</f>
+        <v>283.775447254781</v>
+      </c>
+      <c r="X25" s="18">
+        <f>N25/(age_distribution_2016!$B$11/100000)</f>
+        <v>653.81306614037749</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" ref="Y25" si="60">E25*100/SUM($E25:$N25)</f>
+        <v>0.71368597816960533</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" ref="Z25" si="61">F25*100/SUM($E25:$N25)</f>
+        <v>0.69269521410579349</v>
+      </c>
+      <c r="AA25" s="3">
+        <f t="shared" ref="AA25" si="62">G25*100/SUM($E25:$N25)</f>
+        <v>3.4634760705289671</v>
+      </c>
+      <c r="AB25" s="3">
+        <f t="shared" ref="AB25" si="63">H25*100/SUM($E25:$N25)</f>
+        <v>14.609571788413099</v>
+      </c>
+      <c r="AC25" s="3">
+        <f t="shared" ref="AC25" si="64">I25*100/SUM($E25:$N25)</f>
+        <v>16.204869857262803</v>
+      </c>
+      <c r="AD25" s="3">
+        <f t="shared" ref="AD25" si="65">J25*100/SUM($E25:$N25)</f>
+        <v>17.569269521410579</v>
+      </c>
+      <c r="AE25" s="3">
+        <f t="shared" ref="AE25" si="66">K25*100/SUM($E25:$N25)</f>
+        <v>14.861460957178842</v>
+      </c>
+      <c r="AF25" s="3">
+        <f t="shared" ref="AF25" si="67">L25*100/SUM($E25:$N25)</f>
+        <v>10.600335852225021</v>
+      </c>
+      <c r="AG25" s="3">
+        <f t="shared" ref="AG25" si="68">M25*100/SUM($E25:$N25)</f>
+        <v>7.7246011754827872</v>
+      </c>
+      <c r="AH25" s="3">
+        <f t="shared" ref="AH25" si="69">N25*100/SUM($E25:$N25)</f>
+        <v>13.560033585222502</v>
+      </c>
+      <c r="AI25" s="3">
+        <f t="shared" ref="AI25" si="70">O25*100/SUM($O25:$X25)</f>
+        <v>0.68612889377915209</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" ref="AJ25" si="71">P25*100/SUM($O25:$X25)</f>
+        <v>1.3078775623282131</v>
+      </c>
+      <c r="AK25" s="3">
+        <f t="shared" ref="AK25" si="72">Q25*100/SUM($O25:$X25)</f>
+        <v>3.6273560417575919</v>
+      </c>
+      <c r="AL25" s="3">
+        <f t="shared" ref="AL25" si="73">R25*100/SUM($O25:$X25)</f>
+        <v>9.8197287059184415</v>
+      </c>
+      <c r="AM25" s="3">
+        <f t="shared" ref="AM25" si="74">S25*100/SUM($O25:$X25)</f>
+        <v>10.657566008962512</v>
+      </c>
+      <c r="AN25" s="3">
+        <f t="shared" ref="AN25" si="75">T25*100/SUM($O25:$X25)</f>
+        <v>13.607288094695107</v>
+      </c>
+      <c r="AO25" s="3">
+        <f t="shared" ref="AO25" si="76">U25*100/SUM($O25:$X25)</f>
+        <v>11.314474569192503</v>
+      </c>
+      <c r="AP25" s="3">
+        <f t="shared" ref="AP25" si="77">V25*100/SUM($O25:$X25)</f>
+        <v>10.191032098778582</v>
+      </c>
+      <c r="AQ25" s="3">
+        <f t="shared" ref="AQ25" si="78">W25*100/SUM($O25:$X25)</f>
+        <v>11.739944983094992</v>
+      </c>
+      <c r="AR25" s="3">
+        <f>X25*100/SUM($O25:$X25)</f>
+        <v>27.048603041492903</v>
       </c>
     </row>
   </sheetData>
@@ -7347,11 +7783,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8192,6 +8628,29 @@
         <v>720</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B37">
+        <v>10031</v>
+      </c>
+      <c r="C37">
+        <v>175</v>
+      </c>
+      <c r="D37">
+        <v>632</v>
+      </c>
+      <c r="E37">
+        <v>181</v>
+      </c>
+      <c r="F37">
+        <v>99239</v>
+      </c>
+      <c r="G37">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8199,10 +8658,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8250,7 +8709,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">C2+B3</f>
+        <f t="shared" ref="C3:C26" si="0">C2+B3</f>
         <v>18</v>
       </c>
     </row>
@@ -8481,11 +8940,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -8495,7 +8954,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -8507,7 +8966,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -8517,7 +8976,7 @@
       </c>
       <c r="G21">
         <f>C21-F21</f>
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -8525,7 +8984,7 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -8547,11 +9006,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -8561,7 +9020,7 @@
       </c>
       <c r="G23">
         <f>C23-F23</f>
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -8569,11 +9028,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4193</v>
+        <v>4197</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -8583,7 +9042,7 @@
       </c>
       <c r="G24">
         <f>C24-F24</f>
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -8591,11 +9050,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4407</v>
+        <v>4625</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -8605,7 +9064,29 @@
       </c>
       <c r="G25">
         <f>C25-F25</f>
-        <v>0</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="19">
+        <v>43928</v>
+      </c>
+      <c r="B26">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4775</v>
+      </c>
+      <c r="E26" s="19">
+        <v>43928</v>
+      </c>
+      <c r="F26">
+        <v>4408</v>
+      </c>
+      <c r="G26">
+        <f>C26-F26</f>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8618,8 +9099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I2:I35"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J35" sqref="J2:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8650,15 +9131,17 @@
         <v>171</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -8694,7 +9177,9 @@
       <c r="I2" s="7">
         <v>200</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7">
+        <v>223</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -8730,7 +9215,9 @@
       <c r="I3" s="9">
         <v>42</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="9">
+        <v>47</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -8766,7 +9253,9 @@
       <c r="I4" s="20">
         <v>5</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="20">
+        <v>5</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -8802,7 +9291,9 @@
       <c r="I5" s="9">
         <v>11</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9">
+        <v>13</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -8838,7 +9329,9 @@
       <c r="I6" s="7">
         <v>428</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>453</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -8874,7 +9367,9 @@
       <c r="I7" s="9">
         <v>232</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <v>241</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -8910,7 +9405,9 @@
       <c r="I8" s="7">
         <v>54</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>64</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -8946,7 +9443,9 @@
       <c r="I9" s="9">
         <v>31</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9">
+        <v>37</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -8982,7 +9481,9 @@
       <c r="I10" s="7">
         <v>28</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>28</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -9018,7 +9519,9 @@
       <c r="I11" s="9">
         <v>12</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9">
+        <v>12</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -9054,7 +9557,9 @@
       <c r="I12" s="7">
         <v>71</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <v>78</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -9090,7 +9595,9 @@
       <c r="I13" s="9">
         <v>237</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9">
+        <v>267</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -9126,7 +9633,9 @@
       <c r="I14" s="7">
         <v>16</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>20</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -9162,7 +9671,9 @@
       <c r="I15" s="9">
         <v>182</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9">
+        <v>195</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -9198,7 +9709,9 @@
       <c r="I16" s="7">
         <v>5</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>5</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -9234,7 +9747,9 @@
       <c r="I17" s="9">
         <v>149</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="9">
+        <v>165</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -9270,7 +9785,9 @@
       <c r="I18" s="20">
         <v>5</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>5</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -9306,7 +9823,9 @@
       <c r="I19" s="9">
         <v>37</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="9">
+        <v>38</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -9342,7 +9861,9 @@
       <c r="I20" s="7">
         <v>119</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7">
+        <v>131</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -9378,7 +9899,9 @@
       <c r="I21" s="9">
         <v>56</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9">
+        <v>69</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -9414,7 +9937,9 @@
       <c r="I22" s="7">
         <v>186</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>203</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -9450,7 +9975,9 @@
       <c r="I23" s="9">
         <v>24</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9">
+        <v>30</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -9486,7 +10013,9 @@
       <c r="I24" s="7">
         <v>148</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7">
+        <v>161</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -9522,7 +10051,9 @@
       <c r="I25" s="9">
         <v>217</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="9">
+        <v>227</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -9558,7 +10089,9 @@
       <c r="I26" s="7">
         <v>5</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="7">
+        <v>5</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -9594,7 +10127,9 @@
       <c r="I27" s="9">
         <v>141</v>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9">
+        <v>152</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -9630,7 +10165,9 @@
       <c r="I28" s="7">
         <v>96</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>103</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -9666,7 +10203,9 @@
       <c r="I29" s="20">
         <v>1</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="20">
+        <v>1</v>
+      </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -9702,7 +10241,9 @@
       <c r="I30" s="7">
         <v>162</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7">
+        <v>171</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -9738,7 +10279,9 @@
       <c r="I31" s="9">
         <v>134</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="9">
+        <v>141</v>
+      </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -9774,7 +10317,9 @@
       <c r="I32" s="7">
         <v>152</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7">
+        <v>164</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -9810,7 +10355,9 @@
       <c r="I33" s="9">
         <v>185</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="9">
+        <v>199</v>
+      </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -9846,7 +10393,9 @@
       <c r="I34" s="7">
         <v>52</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="7">
+        <v>55</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -9882,7 +10431,9 @@
       <c r="I35" s="9">
         <v>985</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="9">
+        <v>1067</v>
+      </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -9918,7 +10469,9 @@
       <c r="I36" s="11">
         <v>4407</v>
       </c>
-      <c r="J36" s="11"/>
+      <c r="J36" s="11">
+        <v>4775</v>
+      </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
@@ -9947,15 +10500,17 @@
         <v>171</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -9991,7 +10546,9 @@
       <c r="I39" s="7">
         <v>986</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="7">
+        <v>1042</v>
+      </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -10027,7 +10584,9 @@
       <c r="I40" s="9">
         <v>580</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="9">
+        <v>622</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -10063,7 +10622,9 @@
       <c r="I41" s="7">
         <v>676</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="7">
+        <v>731</v>
+      </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -10099,7 +10660,9 @@
       <c r="I42" s="9">
         <v>649</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="9">
+        <v>704</v>
+      </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -10135,7 +10698,9 @@
       <c r="I43" s="7">
         <v>525</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="7">
+        <v>602</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -10171,7 +10736,9 @@
       <c r="I44" s="9">
         <v>991</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="9">
+        <v>1074</v>
+      </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -10207,7 +10774,9 @@
       <c r="I45" s="11">
         <v>4407</v>
       </c>
-      <c r="J45" s="11"/>
+      <c r="J45" s="11">
+        <v>4775</v>
+      </c>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -10234,15 +10803,17 @@
         <v>171</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -10268,15 +10839,17 @@
         <v>172</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J48" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -10302,15 +10875,17 @@
         <v>173</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J49" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -10336,15 +10911,17 @@
         <v>174</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="J50" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -10370,15 +10947,17 @@
         <v>175</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J51" s="9"/>
+        <v>229</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -10404,15 +10983,17 @@
         <v>176</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J52" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -10458,13 +11039,13 @@
         <v>170</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -10493,15 +11074,17 @@
         <v>171</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J56" s="13"/>
+        <v>223</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
@@ -10535,7 +11118,9 @@
       <c r="I57" s="7">
         <v>30</v>
       </c>
-      <c r="J57" s="7"/>
+      <c r="J57" s="7">
+        <v>34</v>
+      </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -10569,7 +11154,9 @@
       <c r="I58" s="9">
         <v>31</v>
       </c>
-      <c r="J58" s="9"/>
+      <c r="J58" s="9">
+        <v>33</v>
+      </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -10603,7 +11190,9 @@
       <c r="I59" s="7">
         <v>154</v>
       </c>
-      <c r="J59" s="7"/>
+      <c r="J59" s="7">
+        <v>165</v>
+      </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -10637,7 +11226,9 @@
       <c r="I60" s="9">
         <v>662</v>
       </c>
-      <c r="J60" s="9"/>
+      <c r="J60" s="9">
+        <v>696</v>
+      </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -10671,7 +11262,9 @@
       <c r="I61" s="7">
         <v>733</v>
       </c>
-      <c r="J61" s="7"/>
+      <c r="J61" s="7">
+        <v>772</v>
+      </c>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -10705,7 +11298,9 @@
       <c r="I62" s="9">
         <v>763</v>
       </c>
-      <c r="J62" s="9"/>
+      <c r="J62" s="9">
+        <v>837</v>
+      </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -10739,7 +11334,9 @@
       <c r="I63" s="7">
         <v>665</v>
       </c>
-      <c r="J63" s="7"/>
+      <c r="J63" s="7">
+        <v>708</v>
+      </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -10773,7 +11370,9 @@
       <c r="I64" s="9">
         <v>469</v>
       </c>
-      <c r="J64" s="9"/>
+      <c r="J64" s="9">
+        <v>505</v>
+      </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -10807,7 +11406,9 @@
       <c r="I65" s="7">
         <v>340</v>
       </c>
-      <c r="J65" s="7"/>
+      <c r="J65" s="7">
+        <v>368</v>
+      </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -10841,7 +11442,9 @@
       <c r="I66" s="9">
         <v>549</v>
       </c>
-      <c r="J66" s="9"/>
+      <c r="J66" s="9">
+        <v>646</v>
+      </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -10875,7 +11478,9 @@
       <c r="I67" s="7">
         <v>11</v>
       </c>
-      <c r="J67" s="7"/>
+      <c r="J67" s="7">
+        <v>11</v>
+      </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -10909,7 +11514,9 @@
       <c r="I68" s="15">
         <v>4407</v>
       </c>
-      <c r="J68" s="15"/>
+      <c r="J68" s="15">
+        <v>4775</v>
+      </c>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
@@ -10919,7 +11526,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
         <v>102</v>
@@ -10944,6 +11551,9 @@
       </c>
       <c r="I70">
         <v>63</v>
+      </c>
+      <c r="J70">
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -10968,28 +11578,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>86</v>
       </c>
       <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
         <v>183</v>
-      </c>
-      <c r="C1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -10997,13 +11607,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -11011,13 +11621,13 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -11025,13 +11635,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -11039,13 +11649,13 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -11053,13 +11663,13 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>733</v>
+        <v>772</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -11067,13 +11677,13 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -11081,13 +11691,13 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -11095,13 +11705,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -11109,13 +11719,13 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -11123,13 +11733,13 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>549</v>
+        <v>646</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -11139,16 +11749,25 @@
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D433E668-0F1E-4FFC-A173-1C5A231624CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C607EE-C432-484A-A609-C35B68C4585D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25000" yWindow="8040" windowWidth="12710" windowHeight="9740" tabRatio="765" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -748,9 +748,6 @@
     <t>6 AVRIL, 16H 55</t>
   </si>
   <si>
-    <t>deaths_tml</t>
-  </si>
-  <si>
     <t>Deaths</t>
   </si>
   <si>
@@ -854,6 +851,9 @@
   </si>
   <si>
     <t>639,3</t>
+  </si>
+  <si>
+    <t>deaths_mtl</t>
   </si>
 </sst>
 </file>
@@ -4118,14 +4118,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
   <dimension ref="A1:AR25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AR25" sqref="AR25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="14" width="8.6328125" customWidth="1"/>
+    <col min="2" max="3" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="14" width="8.6328125" customWidth="1"/>
     <col min="15" max="15" width="12.81640625" customWidth="1"/>
     <col min="16" max="16" width="8.6328125" customWidth="1"/>
   </cols>
@@ -4141,7 +4143,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>145</v>
@@ -8975,7 +8977,7 @@
         <v>2837</v>
       </c>
       <c r="G21">
-        <f>C21-F21</f>
+        <f t="shared" ref="G21:G26" si="2">C21-F21</f>
         <v>408</v>
       </c>
     </row>
@@ -8997,7 +8999,7 @@
         <v>3261</v>
       </c>
       <c r="G22">
-        <f>C22-F22</f>
+        <f t="shared" si="2"/>
         <v>348</v>
       </c>
     </row>
@@ -9019,7 +9021,7 @@
         <v>3713</v>
       </c>
       <c r="G23">
-        <f>C23-F23</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
     </row>
@@ -9041,7 +9043,7 @@
         <v>3977</v>
       </c>
       <c r="G24">
-        <f>C24-F24</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
     </row>
@@ -9063,7 +9065,7 @@
         <v>4407</v>
       </c>
       <c r="G25">
-        <f>C25-F25</f>
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
     </row>
@@ -9085,7 +9087,7 @@
         <v>4408</v>
       </c>
       <c r="G26">
-        <f>C26-F26</f>
+        <f t="shared" si="2"/>
         <v>367</v>
       </c>
     </row>
@@ -9140,7 +9142,7 @@
         <v>223</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -10509,7 +10511,7 @@
         <v>223</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -10812,7 +10814,7 @@
         <v>223</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -10845,10 +10847,10 @@
         <v>215</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -10881,10 +10883,10 @@
         <v>216</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -10917,10 +10919,10 @@
         <v>217</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -10953,10 +10955,10 @@
         <v>218</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -10989,10 +10991,10 @@
         <v>219</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -11083,7 +11085,7 @@
         <v>223</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
@@ -11526,7 +11528,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B70" t="s">
         <v>102</v>
@@ -11583,10 +11585,10 @@
         <v>86</v>
       </c>
       <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
         <v>232</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
       </c>
       <c r="D1" t="s">
         <v>183</v>
@@ -11610,10 +11612,10 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -11627,7 +11629,7 @@
         <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -11641,7 +11643,7 @@
         <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -11652,10 +11654,10 @@
         <v>696</v>
       </c>
       <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
         <v>247</v>
-      </c>
-      <c r="D7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -11666,10 +11668,10 @@
         <v>772</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -11680,10 +11682,10 @@
         <v>837</v>
       </c>
       <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
         <v>250</v>
-      </c>
-      <c r="D9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -11694,10 +11696,10 @@
         <v>708</v>
       </c>
       <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
         <v>252</v>
-      </c>
-      <c r="D10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -11708,10 +11710,10 @@
         <v>505</v>
       </c>
       <c r="C11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" t="s">
         <v>254</v>
-      </c>
-      <c r="D11" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -11722,10 +11724,10 @@
         <v>368</v>
       </c>
       <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
         <v>256</v>
-      </c>
-      <c r="D12" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -11736,10 +11738,10 @@
         <v>646</v>
       </c>
       <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" t="s">
         <v>258</v>
-      </c>
-      <c r="D13" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -11750,10 +11752,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -11761,13 +11763,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
         <v>240</v>
-      </c>
-      <c r="C15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C607EE-C432-484A-A609-C35B68C4585D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DD03A-E8EE-49C0-A7D6-E18DD819B257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25000" yWindow="8040" windowWidth="12710" windowHeight="9740" tabRatio="765" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="8920" yWindow="8080" windowWidth="28170" windowHeight="9740" tabRatio="765" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="266">
   <si>
     <t>borough</t>
   </si>
@@ -736,9 +736,6 @@
     <t>127,3</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>0,7</t>
   </si>
   <si>
@@ -766,9 +763,6 @@
     <t>139,2</t>
   </si>
   <si>
-    <t>235,0</t>
-  </si>
-  <si>
     <t>TOTAL DE CAS CONFIRMÉS¹</t>
   </si>
   <si>
@@ -793,67 +787,91 @@
     <t>-</t>
   </si>
   <si>
-    <t>4 775</t>
-  </si>
-  <si>
-    <t>231,2</t>
-  </si>
-  <si>
     <t>7 AVRIL, 17H</t>
   </si>
   <si>
-    <t> 0,7</t>
-  </si>
-  <si>
-    <t>* 30,7</t>
-  </si>
-  <si>
     <t>* 30,6</t>
   </si>
   <si>
-    <t>83,0</t>
-  </si>
-  <si>
-    <t>14,6</t>
-  </si>
-  <si>
-    <t>216,1</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>17,6</t>
-  </si>
-  <si>
-    <t>300,7</t>
-  </si>
-  <si>
-    <t>14,9</t>
-  </si>
-  <si>
-    <t>275,8</t>
-  </si>
-  <si>
-    <t>10,6</t>
-  </si>
-  <si>
     <t>233,2</t>
   </si>
   <si>
-    <t>7,7 </t>
-  </si>
-  <si>
-    <t>254,3</t>
-  </si>
-  <si>
-    <t>13,6</t>
-  </si>
-  <si>
-    <t>639,3</t>
-  </si>
-  <si>
     <t>deaths_mtl</t>
+  </si>
+  <si>
+    <t>5 262</t>
+  </si>
+  <si>
+    <t>254,7</t>
+  </si>
+  <si>
+    <t>8 AVRIL, 17H</t>
+  </si>
+  <si>
+    <t>308,1</t>
+  </si>
+  <si>
+    <t>209,2</t>
+  </si>
+  <si>
+    <t>152,4</t>
+  </si>
+  <si>
+    <t>174,0 </t>
+  </si>
+  <si>
+    <t>169,4  </t>
+  </si>
+  <si>
+    <t>254,7 </t>
+  </si>
+  <si>
+    <t>* 32,5</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>16,1</t>
+  </si>
+  <si>
+    <t>257,5</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>326,2</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>300,4</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>254,4</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>292,3</t>
+  </si>
+  <si>
+    <t>14,4</t>
+  </si>
+  <si>
+    <t>750,2</t>
   </si>
 </sst>
 </file>
@@ -1356,19 +1374,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +1420,11 @@
       <c r="K1" s="1">
         <v>43928</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1437,8 +1458,11 @@
       <c r="K2">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1472,8 +1496,11 @@
       <c r="K3">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1507,8 +1534,11 @@
       <c r="K4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1542,8 +1572,11 @@
       <c r="K5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1577,8 +1610,11 @@
       <c r="K6">
         <v>453</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1612,8 +1648,11 @@
       <c r="K7">
         <v>241</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1647,8 +1686,11 @@
       <c r="K8">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1682,8 +1724,11 @@
       <c r="K9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1717,8 +1762,11 @@
       <c r="K10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1752,8 +1800,11 @@
       <c r="K11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1787,8 +1838,11 @@
       <c r="K12">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1822,8 +1876,11 @@
       <c r="K13">
         <v>267</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1857,8 +1914,11 @@
       <c r="K14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1892,8 +1952,11 @@
       <c r="K15">
         <v>195</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1927,8 +1990,11 @@
       <c r="K16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1962,8 +2028,11 @@
       <c r="K17">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -1997,8 +2066,11 @@
       <c r="K18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2032,8 +2104,11 @@
       <c r="K19">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2067,8 +2142,11 @@
       <c r="K20">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2102,8 +2180,11 @@
       <c r="K21">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2137,8 +2218,11 @@
       <c r="K22">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2172,8 +2256,11 @@
       <c r="K23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2207,8 +2294,11 @@
       <c r="K24">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2242,8 +2332,11 @@
       <c r="K25">
         <v>227</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2277,8 +2370,11 @@
       <c r="K26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2312,8 +2408,11 @@
       <c r="K27">
         <v>152</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2347,8 +2446,11 @@
       <c r="K28">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2382,8 +2484,11 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2417,8 +2522,11 @@
       <c r="K30">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2452,8 +2560,11 @@
       <c r="K31">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2487,8 +2598,11 @@
       <c r="K32">
         <v>164</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="K33">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2557,8 +2674,11 @@
       <c r="K34">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2591,6 +2711,9 @@
       </c>
       <c r="K35">
         <v>1067</v>
+      </c>
+      <c r="L35">
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -2600,19 +2723,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2656,8 +2779,12 @@
         <f>cases!K1</f>
         <v>43928</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1">
+        <f>cases!L1</f>
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2700,8 +2827,12 @@
         <f>cases!K2/(population_2016!$B2/1000)</f>
         <v>1.6611419419717679</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="3">
+        <f>cases!L2/(population_2016!$B2/1000)</f>
+        <v>1.8399195500763528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2744,8 +2875,12 @@
         <f>cases!K3/(population_2016!$B3/1000)</f>
         <v>1.0982334797644639</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="3">
+        <f>cases!L3/(population_2016!$B3/1000)</f>
+        <v>1.3786335171511357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2788,8 +2923,12 @@
         <f>cases!K4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="3">
+        <f>cases!L4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2832,8 +2971,12 @@
         <f>cases!K5/(population_2016!$B5/1000)</f>
         <v>0.6727385634444214</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="3">
+        <f>cases!L5/(population_2016!$B5/1000)</f>
+        <v>0.72448768370937688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2876,8 +3019,12 @@
         <f>cases!K6/(population_2016!$B6/1000)</f>
         <v>2.720393946673072</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="3">
+        <f>cases!L6/(population_2016!$B6/1000)</f>
+        <v>3.008647609896709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2920,8 +3067,12 @@
         <f>cases!K7/(population_2016!$B7/1000)</f>
         <v>7.427268244575937</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="3">
+        <f>cases!L7/(population_2016!$B7/1000)</f>
+        <v>8.0744575936883631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2964,8 +3115,12 @@
         <f>cases!K8/(population_2016!$B8/1000)</f>
         <v>1.3088202212724187</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="3">
+        <f>cases!L8/(population_2016!$B8/1000)</f>
+        <v>1.3497208531871818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3008,8 +3163,12 @@
         <f>cases!K9/(population_2016!$B9/1000)</f>
         <v>1.9494204425711275</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="3">
+        <f>cases!L9/(population_2016!$B9/1000)</f>
+        <v>1.9494204425711275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3052,8 +3211,12 @@
         <f>cases!K10/(population_2016!$B10/1000)</f>
         <v>4.015488312060806</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="3">
+        <f>cases!L10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3096,8 +3259,12 @@
         <f>cases!K11/(population_2016!$B11/1000)</f>
         <v>0.59550394521363703</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="3">
+        <f>cases!L11/(population_2016!$B11/1000)</f>
+        <v>0.69475460274924317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3140,8 +3307,12 @@
         <f>cases!K12/(population_2016!$B12/1000)</f>
         <v>1.7532423745195442</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="3">
+        <f>cases!L12/(population_2016!$B12/1000)</f>
+        <v>1.8656297062195151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3184,8 +3355,12 @@
         <f>cases!K13/(population_2016!$B13/1000)</f>
         <v>3.4741649642824615</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="3">
+        <f>cases!L13/(population_2016!$B13/1000)</f>
+        <v>3.7213901864598653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3228,8 +3403,12 @@
         <f>cases!K14/(population_2016!$B14/1000)</f>
         <v>1.0861891055232715</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="3">
+        <f>cases!L14/(population_2016!$B14/1000)</f>
+        <v>1.0318796502471079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3272,8 +3451,12 @@
         <f>cases!K15/(population_2016!$B15/1000)</f>
         <v>1.4335705463741693</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="3">
+        <f>cases!L15/(population_2016!$B15/1000)</f>
+        <v>1.5659001352702464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3316,8 +3499,12 @@
         <f>cases!K16/(population_2016!$B16/1000)</f>
         <v>1.2987012987012987</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="3">
+        <f>cases!L16/(population_2016!$B16/1000)</f>
+        <v>1.5584415584415585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3360,8 +3547,12 @@
         <f>cases!K17/(population_2016!$B17/1000)</f>
         <v>1.9588289764228222</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="3">
+        <f>cases!L17/(population_2016!$B17/1000)</f>
+        <v>2.2912363178763919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3404,8 +3595,12 @@
         <f>cases!K18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="3">
+        <f>cases!L18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3448,8 +3643,12 @@
         <f>cases!K19/(population_2016!$B19/1000)</f>
         <v>1.874136910633261</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="3">
+        <f>cases!L19/(population_2016!$B19/1000)</f>
+        <v>2.170053264943776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3492,8 +3691,12 @@
         <f>cases!K20/(population_2016!$B20/1000)</f>
         <v>5.4688152291892793</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="3">
+        <f>cases!L20/(population_2016!$B20/1000)</f>
+        <v>5.8027886783000753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3536,8 +3739,12 @@
         <f>cases!K21/(population_2016!$B21/1000)</f>
         <v>0.99571410017749695</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="3">
+        <f>cases!L21/(population_2016!$B21/1000)</f>
+        <v>1.0822979349755402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3580,8 +3787,12 @@
         <f>cases!K22/(population_2016!$B22/1000)</f>
         <v>1.9519230769230769</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="3">
+        <f>cases!L22/(population_2016!$B22/1000)</f>
+        <v>2.1153846153846154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3624,8 +3835,12 @@
         <f>cases!K23/(population_2016!$B23/1000)</f>
         <v>0.95602294455066927</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="3">
+        <f>cases!L23/(population_2016!$B23/1000)</f>
+        <v>1.0197578075207139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3668,8 +3883,12 @@
         <f>cases!K24/(population_2016!$B24/1000)</f>
         <v>1.5082956259426847</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="3">
+        <f>cases!L24/(population_2016!$B24/1000)</f>
+        <v>1.6862932463955482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3712,8 +3931,12 @@
         <f>cases!K25/(population_2016!$B25/1000)</f>
         <v>1.6261909878931156</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="3">
+        <f>cases!L25/(population_2016!$B25/1000)</f>
+        <v>1.7694677269145354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3756,8 +3979,12 @@
         <f>cases!K26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="3">
+        <f>cases!L26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3800,8 +4027,12 @@
         <f>cases!K27/(population_2016!$B27/1000)</f>
         <v>1.5380256607439187</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="3">
+        <f>cases!L27/(population_2016!$B27/1000)</f>
+        <v>1.6493301493503865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3844,8 +4075,12 @@
         <f>cases!K28/(population_2016!$B28/1000)</f>
         <v>1.3153693889279099</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="3">
+        <f>cases!L28/(population_2016!$B28/1000)</f>
+        <v>1.5835514973501053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3888,8 +4123,12 @@
         <f>cases!K29/(population_2016!$B29/1000)</f>
         <v>1.0857763300760044</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="3">
+        <f>cases!L29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3932,8 +4171,12 @@
         <f>cases!K30/(population_2016!$B30/1000)</f>
         <v>2.1880718097017313</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="3">
+        <f>cases!L30/(population_2016!$B30/1000)</f>
+        <v>2.3544164502053717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3976,8 +4219,12 @@
         <f>cases!K31/(population_2016!$B31/1000)</f>
         <v>2.0367187161449682</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" s="3">
+        <f>cases!L31/(population_2016!$B31/1000)</f>
+        <v>2.2245012928108161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4020,8 +4267,12 @@
         <f>cases!K32/(population_2016!$B32/1000)</f>
         <v>1.8391835819221711</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" s="3">
+        <f>cases!L32/(population_2016!$B32/1000)</f>
+        <v>1.951328922283279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4064,8 +4315,12 @@
         <f>cases!K33/(population_2016!$B33/1000)</f>
         <v>1.3833566209950434</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" s="3">
+        <f>cases!L33/(population_2016!$B33/1000)</f>
+        <v>1.6822728757829173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4107,6 +4362,10 @@
       <c r="K34" s="3">
         <f>cases!K34/(population_2016!$B34/1000)</f>
         <v>2.7077589602205592</v>
+      </c>
+      <c r="L34" s="3">
+        <f>cases!L34/(population_2016!$B34/1000)</f>
+        <v>2.8062229224103978</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4143,7 +4402,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>145</v>
@@ -6782,11 +7041,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>102</v>
@@ -6953,7 +7212,7 @@
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -7116,11 +7375,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -7283,7 +7542,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -7450,11 +7709,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4625</v>
+        <v>4630</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -7617,11 +7876,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4775</v>
+        <v>5052</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
-        <v>150</v>
+        <v>422</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -7776,6 +8035,173 @@
       <c r="AR25" s="3">
         <f>X25*100/SUM($O25:$X25)</f>
         <v>27.048603041492903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A26" s="19">
+        <v>43929</v>
+      </c>
+      <c r="B26" s="17">
+        <f>mtl_newcases!C27</f>
+        <v>5262</v>
+      </c>
+      <c r="C26" s="17">
+        <f>mtl_newcases!B27</f>
+        <v>210</v>
+      </c>
+      <c r="D26">
+        <v>91</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" ref="E26:N26">TRANSPOSE(santemontreal!K$57:K$66)</f>
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>171</v>
+      </c>
+      <c r="H26">
+        <v>751</v>
+      </c>
+      <c r="I26">
+        <v>846</v>
+      </c>
+      <c r="J26">
+        <v>908</v>
+      </c>
+      <c r="K26">
+        <v>771</v>
+      </c>
+      <c r="L26">
+        <v>551</v>
+      </c>
+      <c r="M26">
+        <v>423</v>
+      </c>
+      <c r="N26">
+        <v>758</v>
+      </c>
+      <c r="O26" s="18">
+        <f>E26/(age_distribution_2016!$B10/100000)</f>
+        <v>27.760641579272054</v>
+      </c>
+      <c r="P26" s="18">
+        <f>F26/(age_distribution_2016!$B$3/100000)</f>
+        <v>31.613737605977871</v>
+      </c>
+      <c r="Q26" s="18">
+        <f>G26/(age_distribution_2016!$B$4/100000)</f>
+        <v>90.868028801445391</v>
+      </c>
+      <c r="R26" s="18">
+        <f>H26/(age_distribution_2016!$B$5/100000)</f>
+        <v>256.1173160542246</v>
+      </c>
+      <c r="S26" s="18">
+        <f>I26/(age_distribution_2016!$B$6/100000)</f>
+        <v>282.30583131726036</v>
+      </c>
+      <c r="T26" s="18">
+        <f>J26/(age_distribution_2016!$B$7/100000)</f>
+        <v>356.81304646821889</v>
+      </c>
+      <c r="U26" s="18">
+        <f>K26/(age_distribution_2016!$B$8/100000)</f>
+        <v>297.82713664896187</v>
+      </c>
+      <c r="V26" s="18">
+        <f>L26/(age_distribution_2016!$B$9/100000)</f>
+        <v>268.77393234311359</v>
+      </c>
+      <c r="W26" s="18">
+        <f>M26/(age_distribution_2016!$B$10/100000)</f>
+        <v>326.18753855644667</v>
+      </c>
+      <c r="X26" s="18">
+        <f>N26/(age_distribution_2016!$B$11/100000)</f>
+        <v>767.16765345883312</v>
+      </c>
+      <c r="Y26" s="3">
+        <f t="shared" ref="Y26" si="79">E26*100/SUM($E26:$N26)</f>
+        <v>0.68597560975609762</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" ref="Z26" si="80">F26*100/SUM($E26:$N26)</f>
+        <v>0.62881097560975607</v>
+      </c>
+      <c r="AA26" s="3">
+        <f t="shared" ref="AA26" si="81">G26*100/SUM($E26:$N26)</f>
+        <v>3.2583841463414633</v>
+      </c>
+      <c r="AB26" s="3">
+        <f t="shared" ref="AB26" si="82">H26*100/SUM($E26:$N26)</f>
+        <v>14.310213414634147</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" ref="AC26" si="83">I26*100/SUM($E26:$N26)</f>
+        <v>16.120426829268293</v>
+      </c>
+      <c r="AD26" s="3">
+        <f t="shared" ref="AD26" si="84">J26*100/SUM($E26:$N26)</f>
+        <v>17.301829268292682</v>
+      </c>
+      <c r="AE26" s="3">
+        <f t="shared" ref="AE26" si="85">K26*100/SUM($E26:$N26)</f>
+        <v>14.691310975609756</v>
+      </c>
+      <c r="AF26" s="3">
+        <f t="shared" ref="AF26" si="86">L26*100/SUM($E26:$N26)</f>
+        <v>10.499237804878049</v>
+      </c>
+      <c r="AG26" s="3">
+        <f t="shared" ref="AG26" si="87">M26*100/SUM($E26:$N26)</f>
+        <v>8.0602134146341466</v>
+      </c>
+      <c r="AH26" s="3">
+        <f t="shared" ref="AH26" si="88">N26*100/SUM($E26:$N26)</f>
+        <v>14.44359756097561</v>
+      </c>
+      <c r="AI26" s="3">
+        <f t="shared" ref="AI26" si="89">O26*100/SUM($O26:$X26)</f>
+        <v>1.0261064481957152</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f t="shared" ref="AJ26" si="90">P26*100/SUM($O26:$X26)</f>
+        <v>1.1685270283264069</v>
+      </c>
+      <c r="AK26" s="3">
+        <f t="shared" ref="AK26" si="91">Q26*100/SUM($O26:$X26)</f>
+        <v>3.3587217363742949</v>
+      </c>
+      <c r="AL26" s="3">
+        <f t="shared" ref="AL26" si="92">R26*100/SUM($O26:$X26)</f>
+        <v>9.4667707425770207</v>
+      </c>
+      <c r="AM26" s="3">
+        <f t="shared" ref="AM26" si="93">S26*100/SUM($O26:$X26)</f>
+        <v>10.434767260356979</v>
+      </c>
+      <c r="AN26" s="3">
+        <f t="shared" ref="AN26" si="94">T26*100/SUM($O26:$X26)</f>
+        <v>13.188750221636536</v>
+      </c>
+      <c r="AO26" s="3">
+        <f t="shared" ref="AO26" si="95">U26*100/SUM($O26:$X26)</f>
+        <v>11.008475596304274</v>
+      </c>
+      <c r="AP26" s="3">
+        <f t="shared" ref="AP26" si="96">V26*100/SUM($O26:$X26)</f>
+        <v>9.934592624477073</v>
+      </c>
+      <c r="AQ26" s="3">
+        <f t="shared" ref="AQ26" si="97">W26*100/SUM($O26:$X26)</f>
+        <v>12.056750766299654</v>
+      </c>
+      <c r="AR26" s="3">
+        <f>X26*100/SUM($O26:$X26)</f>
+        <v>28.356537575452048</v>
       </c>
     </row>
   </sheetData>
@@ -7785,11 +8211,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8653,6 +9079,29 @@
         <v>827</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B38">
+        <v>10912</v>
+      </c>
+      <c r="C38">
+        <v>216</v>
+      </c>
+      <c r="D38">
+        <v>679</v>
+      </c>
+      <c r="E38">
+        <v>196</v>
+      </c>
+      <c r="F38">
+        <v>102463</v>
+      </c>
+      <c r="G38">
+        <v>1112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8660,10 +9109,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8711,7 +9160,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C26" si="0">C2+B3</f>
+        <f t="shared" ref="C3:C27" si="0">C2+B3</f>
         <v>18</v>
       </c>
     </row>
@@ -8964,11 +9413,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -8978,7 +9427,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -8986,7 +9435,7 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -9008,11 +9457,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -9022,7 +9471,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -9034,7 +9483,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -9044,7 +9493,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -9052,11 +9501,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4625</v>
+        <v>4630</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -9066,7 +9515,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -9074,21 +9523,43 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>150</v>
+        <v>422</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4775</v>
+        <v>5052</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
       </c>
       <c r="F26">
-        <v>4408</v>
+        <v>4775</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="19">
+        <v>43929</v>
+      </c>
+      <c r="B27">
+        <v>210</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>5262</v>
+      </c>
+      <c r="E27" s="19">
+        <v>43929</v>
+      </c>
+      <c r="F27">
+        <v>5262</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="3">C27-F27</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9101,8 +9572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J35" sqref="J2:J35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9139,12 +9610,14 @@
         <v>214</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="5"/>
+        <v>237</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -9182,7 +9655,9 @@
       <c r="J2" s="7">
         <v>223</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7">
+        <v>247</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -9220,7 +9695,9 @@
       <c r="J3" s="9">
         <v>47</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="9">
+        <v>59</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -9258,7 +9735,9 @@
       <c r="J4" s="20">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -9296,7 +9775,9 @@
       <c r="J5" s="9">
         <v>13</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9">
+        <v>14</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -9334,7 +9815,9 @@
       <c r="J6" s="7">
         <v>453</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <v>501</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -9372,7 +9855,9 @@
       <c r="J7" s="9">
         <v>241</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>262</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -9410,7 +9895,9 @@
       <c r="J8" s="7">
         <v>64</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <v>66</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -9448,7 +9935,9 @@
       <c r="J9" s="9">
         <v>37</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>37</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -9486,7 +9975,9 @@
       <c r="J10" s="7">
         <v>28</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7">
+        <v>29</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -9524,7 +10015,9 @@
       <c r="J11" s="9">
         <v>12</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9">
+        <v>14</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -9562,7 +10055,9 @@
       <c r="J12" s="7">
         <v>78</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7">
+        <v>83</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -9600,7 +10095,9 @@
       <c r="J13" s="9">
         <v>267</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9">
+        <v>286</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -9638,7 +10135,9 @@
       <c r="J14" s="7">
         <v>20</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7">
+        <v>19</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -9676,7 +10175,9 @@
       <c r="J15" s="9">
         <v>195</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9">
+        <v>213</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -9714,7 +10215,9 @@
       <c r="J16" s="7">
         <v>5</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7">
+        <v>6</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -9752,7 +10255,9 @@
       <c r="J17" s="9">
         <v>165</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="9">
+        <v>193</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -9790,7 +10295,9 @@
       <c r="J18" s="7">
         <v>5</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="7">
+        <v>5</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -9828,7 +10335,9 @@
       <c r="J19" s="9">
         <v>38</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9">
+        <v>44</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -9866,7 +10375,9 @@
       <c r="J20" s="7">
         <v>131</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7">
+        <v>139</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -9904,7 +10415,9 @@
       <c r="J21" s="9">
         <v>69</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9">
+        <v>75</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -9942,7 +10455,9 @@
       <c r="J22" s="7">
         <v>203</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7">
+        <v>220</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -9980,7 +10495,9 @@
       <c r="J23" s="9">
         <v>30</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9">
+        <v>32</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -10018,7 +10535,9 @@
       <c r="J24" s="7">
         <v>161</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7">
+        <v>180</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -10056,7 +10575,9 @@
       <c r="J25" s="9">
         <v>227</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9">
+        <v>247</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -10094,7 +10615,9 @@
       <c r="J26" s="7">
         <v>5</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7">
+        <v>5</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -10132,7 +10655,9 @@
       <c r="J27" s="9">
         <v>152</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9">
+        <v>163</v>
+      </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -10170,7 +10695,9 @@
       <c r="J28" s="7">
         <v>103</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7">
+        <v>124</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -10208,7 +10735,9 @@
       <c r="J29" s="20">
         <v>1</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="9">
+        <v>2</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -10246,7 +10775,9 @@
       <c r="J30" s="7">
         <v>171</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7">
+        <v>184</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -10284,7 +10815,9 @@
       <c r="J31" s="9">
         <v>141</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9">
+        <v>154</v>
+      </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -10322,7 +10855,9 @@
       <c r="J32" s="7">
         <v>164</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="K32" s="7">
+        <v>174</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -10360,7 +10895,9 @@
       <c r="J33" s="9">
         <v>199</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="9">
+        <v>242</v>
+      </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -10398,7 +10935,9 @@
       <c r="J34" s="7">
         <v>55</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7">
+        <v>57</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -10436,7 +10975,9 @@
       <c r="J35" s="9">
         <v>1067</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="9">
+        <v>1181</v>
+      </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -10474,7 +11015,9 @@
       <c r="J36" s="11">
         <v>4775</v>
       </c>
-      <c r="K36" s="11"/>
+      <c r="K36" s="11">
+        <v>5262</v>
+      </c>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -10508,12 +11051,14 @@
         <v>214</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K38" s="5"/>
+        <v>237</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -10551,7 +11096,9 @@
       <c r="J39" s="7">
         <v>1042</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="7">
+        <v>1145</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -10589,7 +11136,9 @@
       <c r="J40" s="9">
         <v>622</v>
       </c>
-      <c r="K40" s="9"/>
+      <c r="K40" s="9">
+        <v>673</v>
+      </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -10627,7 +11176,9 @@
       <c r="J41" s="7">
         <v>731</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7">
+        <v>827</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -10665,7 +11216,9 @@
       <c r="J42" s="9">
         <v>704</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="9">
+        <v>788</v>
+      </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -10703,7 +11256,9 @@
       <c r="J43" s="7">
         <v>602</v>
       </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="7">
+        <v>639</v>
+      </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -10741,7 +11296,9 @@
       <c r="J44" s="9">
         <v>1074</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="9">
+        <v>1190</v>
+      </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -10779,7 +11336,9 @@
       <c r="J45" s="11">
         <v>4775</v>
       </c>
-      <c r="K45" s="11"/>
+      <c r="K45" s="11">
+        <v>5262</v>
+      </c>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -10811,12 +11370,14 @@
         <v>214</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K47" s="5"/>
+        <v>237</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -10847,12 +11408,14 @@
         <v>215</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K48" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -10883,12 +11446,14 @@
         <v>216</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="K49" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>245</v>
+      </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -10919,12 +11484,14 @@
         <v>217</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K50" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -10955,12 +11522,14 @@
         <v>218</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K51" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -10991,12 +11560,14 @@
         <v>219</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K52" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -11016,7 +11587,9 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="K53" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -11047,10 +11620,12 @@
         <v>213</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -11082,12 +11657,14 @@
         <v>214</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K56" s="13"/>
+        <v>237</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
@@ -11123,7 +11700,9 @@
       <c r="J57" s="7">
         <v>34</v>
       </c>
-      <c r="K57" s="7"/>
+      <c r="K57" s="7">
+        <v>36</v>
+      </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -11159,7 +11738,9 @@
       <c r="J58" s="9">
         <v>33</v>
       </c>
-      <c r="K58" s="9"/>
+      <c r="K58" s="9">
+        <v>33</v>
+      </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -11195,7 +11776,9 @@
       <c r="J59" s="7">
         <v>165</v>
       </c>
-      <c r="K59" s="7"/>
+      <c r="K59" s="7">
+        <v>171</v>
+      </c>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -11231,7 +11814,9 @@
       <c r="J60" s="9">
         <v>696</v>
       </c>
-      <c r="K60" s="9"/>
+      <c r="K60" s="9">
+        <v>751</v>
+      </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -11267,7 +11852,9 @@
       <c r="J61" s="7">
         <v>772</v>
       </c>
-      <c r="K61" s="7"/>
+      <c r="K61" s="7">
+        <v>846</v>
+      </c>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -11303,7 +11890,9 @@
       <c r="J62" s="9">
         <v>837</v>
       </c>
-      <c r="K62" s="9"/>
+      <c r="K62" s="9">
+        <v>908</v>
+      </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -11339,7 +11928,9 @@
       <c r="J63" s="7">
         <v>708</v>
       </c>
-      <c r="K63" s="7"/>
+      <c r="K63" s="7">
+        <v>771</v>
+      </c>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -11375,7 +11966,9 @@
       <c r="J64" s="9">
         <v>505</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="9">
+        <v>551</v>
+      </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -11411,7 +12004,9 @@
       <c r="J65" s="7">
         <v>368</v>
       </c>
-      <c r="K65" s="7"/>
+      <c r="K65" s="7">
+        <v>423</v>
+      </c>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -11447,7 +12042,9 @@
       <c r="J66" s="9">
         <v>646</v>
       </c>
-      <c r="K66" s="9"/>
+      <c r="K66" s="9">
+        <v>758</v>
+      </c>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -11483,7 +12080,9 @@
       <c r="J67" s="7">
         <v>11</v>
       </c>
-      <c r="K67" s="7"/>
+      <c r="K67" s="7">
+        <v>14</v>
+      </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -11519,7 +12118,9 @@
       <c r="J68" s="15">
         <v>4775</v>
       </c>
-      <c r="K68" s="15"/>
+      <c r="K68" s="15">
+        <v>5262</v>
+      </c>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
@@ -11528,7 +12129,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B70" t="s">
         <v>102</v>
@@ -11556,6 +12157,9 @@
       </c>
       <c r="J70">
         <v>74</v>
+      </c>
+      <c r="K70">
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -11585,10 +12189,10 @@
         <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" t="s">
         <v>183</v>
@@ -11609,13 +12213,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -11626,10 +12230,10 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -11637,13 +12241,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="D6">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -11651,13 +12255,13 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>696</v>
+        <v>751</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -11665,13 +12269,13 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>772</v>
+        <v>846</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -11679,13 +12283,13 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>837</v>
+        <v>908</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -11693,13 +12297,13 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>708</v>
+        <v>771</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -11707,13 +12311,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -11721,13 +12325,13 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -11735,13 +12339,13 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>646</v>
+        <v>758</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -11749,13 +12353,13 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -11763,13 +12367,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DD03A-E8EE-49C0-A7D6-E18DD819B257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3198A-B705-48CB-B514-83D5950A40A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="8080" windowWidth="28170" windowHeight="9740" tabRatio="765" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="10130" yWindow="3190" windowWidth="28170" windowHeight="17470" tabRatio="765" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="257">
   <si>
     <t>borough</t>
   </si>
@@ -736,9 +736,6 @@
     <t>127,3</t>
   </si>
   <si>
-    <t>0,7</t>
-  </si>
-  <si>
     <t>213,3</t>
   </si>
   <si>
@@ -790,21 +787,12 @@
     <t>7 AVRIL, 17H</t>
   </si>
   <si>
-    <t>* 30,6</t>
-  </si>
-  <si>
-    <t>233,2</t>
-  </si>
-  <si>
     <t>deaths_mtl</t>
   </si>
   <si>
     <t>5 262</t>
   </si>
   <si>
-    <t>254,7</t>
-  </si>
-  <si>
     <t>8 AVRIL, 17H</t>
   </si>
   <si>
@@ -826,52 +814,37 @@
     <t>254,7 </t>
   </si>
   <si>
-    <t>* 32,5</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>16,1</t>
-  </si>
-  <si>
-    <t>257,5</t>
-  </si>
-  <si>
-    <t>17,3</t>
-  </si>
-  <si>
-    <t>326,2</t>
-  </si>
-  <si>
-    <t>14,7</t>
-  </si>
-  <si>
-    <t>300,4</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>254,4</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>292,3</t>
-  </si>
-  <si>
-    <t>14,4</t>
-  </si>
-  <si>
-    <t>750,2</t>
+    <t>TOTAL DE DÉCÈS</t>
+  </si>
+  <si>
+    <t>1 178</t>
+  </si>
+  <si>
+    <t>27,0</t>
+  </si>
+  <si>
+    <t>317,0</t>
+  </si>
+  <si>
+    <t>16,9</t>
+  </si>
+  <si>
+    <t>229,8</t>
+  </si>
+  <si>
+    <t>19,4 </t>
+  </si>
+  <si>
+    <t>15,7 </t>
+  </si>
+  <si>
+    <t>Territoire à confirmer²</t>
+  </si>
+  <si>
+    <t>1 190</t>
+  </si>
+  <si>
+    <t>9 AVRIL, 17H</t>
   </si>
 </sst>
 </file>
@@ -1374,19 +1347,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1423,8 +1396,11 @@
       <c r="L1" s="1">
         <v>43929</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="1">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1461,8 +1437,11 @@
       <c r="L2">
         <v>247</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1499,8 +1478,11 @@
       <c r="L3">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1537,8 +1519,11 @@
       <c r="L4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1575,8 +1560,11 @@
       <c r="L5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1613,8 +1601,11 @@
       <c r="L6">
         <v>501</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1651,8 +1642,11 @@
       <c r="L7">
         <v>262</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1689,8 +1683,11 @@
       <c r="L8">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1727,8 +1724,11 @@
       <c r="L9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1765,8 +1765,11 @@
       <c r="L10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1803,8 +1806,11 @@
       <c r="L11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1841,8 +1847,11 @@
       <c r="L12">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1879,8 +1888,11 @@
       <c r="L13">
         <v>286</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1917,8 +1929,11 @@
       <c r="L14">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1955,8 +1970,11 @@
       <c r="L15">
         <v>213</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -1993,8 +2011,11 @@
       <c r="L16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2031,8 +2052,11 @@
       <c r="L17">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2069,8 +2093,11 @@
       <c r="L18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2107,8 +2134,11 @@
       <c r="L19">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2145,8 +2175,11 @@
       <c r="L20">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2183,8 +2216,11 @@
       <c r="L21">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2221,8 +2257,11 @@
       <c r="L22">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2259,8 +2298,11 @@
       <c r="L23">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2297,8 +2339,11 @@
       <c r="L24">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2335,8 +2380,11 @@
       <c r="L25">
         <v>247</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2373,8 +2421,11 @@
       <c r="L26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2411,8 +2462,11 @@
       <c r="L27">
         <v>163</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2449,8 +2503,11 @@
       <c r="L28">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2487,8 +2544,11 @@
       <c r="L29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2525,8 +2585,11 @@
       <c r="L30">
         <v>184</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2563,8 +2626,11 @@
       <c r="L31">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2601,8 +2667,11 @@
       <c r="L32">
         <v>174</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2639,8 +2708,11 @@
       <c r="L33">
         <v>242</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2677,8 +2749,11 @@
       <c r="L34">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2714,6 +2789,9 @@
       </c>
       <c r="L35">
         <v>1181</v>
+      </c>
+      <c r="M35" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2723,19 +2801,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2783,8 +2861,12 @@
         <f>cases!L1</f>
         <v>43929</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="1">
+        <f>cases!M1</f>
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2831,8 +2913,11 @@
         <f>cases!L2/(population_2016!$B2/1000)</f>
         <v>1.8399195500763528</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2879,8 +2964,11 @@
         <f>cases!L3/(population_2016!$B3/1000)</f>
         <v>1.3786335171511357</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2927,8 +3015,11 @@
         <f>cases!L4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2975,8 +3066,11 @@
         <f>cases!L5/(population_2016!$B5/1000)</f>
         <v>0.72448768370937688</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3023,8 +3117,11 @@
         <f>cases!L6/(population_2016!$B6/1000)</f>
         <v>3.008647609896709</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -3071,8 +3168,11 @@
         <f>cases!L7/(population_2016!$B7/1000)</f>
         <v>8.0744575936883631</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3119,8 +3219,11 @@
         <f>cases!L8/(population_2016!$B8/1000)</f>
         <v>1.3497208531871818</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3167,8 +3270,11 @@
         <f>cases!L9/(population_2016!$B9/1000)</f>
         <v>1.9494204425711275</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3215,8 +3321,11 @@
         <f>cases!L10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3263,8 +3372,11 @@
         <f>cases!L11/(population_2016!$B11/1000)</f>
         <v>0.69475460274924317</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3311,8 +3423,11 @@
         <f>cases!L12/(population_2016!$B12/1000)</f>
         <v>1.8656297062195151</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3359,8 +3474,11 @@
         <f>cases!L13/(population_2016!$B13/1000)</f>
         <v>3.7213901864598653</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3407,8 +3525,11 @@
         <f>cases!L14/(population_2016!$B14/1000)</f>
         <v>1.0318796502471079</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3455,8 +3576,11 @@
         <f>cases!L15/(population_2016!$B15/1000)</f>
         <v>1.5659001352702464</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3503,8 +3627,11 @@
         <f>cases!L16/(population_2016!$B16/1000)</f>
         <v>1.5584415584415585</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3551,8 +3678,11 @@
         <f>cases!L17/(population_2016!$B17/1000)</f>
         <v>2.2912363178763919</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3599,8 +3729,11 @@
         <f>cases!L18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3647,8 +3780,11 @@
         <f>cases!L19/(population_2016!$B19/1000)</f>
         <v>2.170053264943776</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3695,8 +3831,11 @@
         <f>cases!L20/(population_2016!$B20/1000)</f>
         <v>5.8027886783000753</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3882,11 @@
         <f>cases!L21/(population_2016!$B21/1000)</f>
         <v>1.0822979349755402</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3791,8 +3933,11 @@
         <f>cases!L22/(population_2016!$B22/1000)</f>
         <v>2.1153846153846154</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3839,8 +3984,11 @@
         <f>cases!L23/(population_2016!$B23/1000)</f>
         <v>1.0197578075207139</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3887,8 +4035,11 @@
         <f>cases!L24/(population_2016!$B24/1000)</f>
         <v>1.6862932463955482</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3935,8 +4086,11 @@
         <f>cases!L25/(population_2016!$B25/1000)</f>
         <v>1.7694677269145354</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3983,8 +4137,11 @@
         <f>cases!L26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4031,8 +4188,11 @@
         <f>cases!L27/(population_2016!$B27/1000)</f>
         <v>1.6493301493503865</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4079,8 +4239,11 @@
         <f>cases!L28/(population_2016!$B28/1000)</f>
         <v>1.5835514973501053</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4127,8 +4290,11 @@
         <f>cases!L29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4175,8 +4341,11 @@
         <f>cases!L30/(population_2016!$B30/1000)</f>
         <v>2.3544164502053717</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4223,8 +4392,11 @@
         <f>cases!L31/(population_2016!$B31/1000)</f>
         <v>2.2245012928108161</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4271,8 +4443,11 @@
         <f>cases!L32/(population_2016!$B32/1000)</f>
         <v>1.951328922283279</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4319,8 +4494,11 @@
         <f>cases!L33/(population_2016!$B33/1000)</f>
         <v>1.6822728757829173</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4366,6 +4544,9 @@
       <c r="L34" s="3">
         <f>cases!L34/(population_2016!$B34/1000)</f>
         <v>2.8062229224103978</v>
+      </c>
+      <c r="M34" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4375,10 +4556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR26"/>
+  <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4402,7 +4583,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>145</v>
@@ -8202,6 +8383,143 @@
       <c r="AR26" s="3">
         <f>X26*100/SUM($O26:$X26)</f>
         <v>28.356537575452048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A27" s="19">
+        <v>43930</v>
+      </c>
+      <c r="B27" s="17">
+        <f>mtl_newcases!C28</f>
+        <v>5617</v>
+      </c>
+      <c r="C27" s="17">
+        <f>mtl_newcases!B28</f>
+        <v>355</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27" t="str" cm="1">
+        <f t="array" ref="E27:N27">TRANSPOSE(santemontreal!L$57:L$66)</f>
+        <v>na</v>
+      </c>
+      <c r="F27" t="str">
+        <v>na</v>
+      </c>
+      <c r="G27" t="str">
+        <v>na</v>
+      </c>
+      <c r="H27" t="str">
+        <v>na</v>
+      </c>
+      <c r="I27" t="str">
+        <v>na</v>
+      </c>
+      <c r="J27" t="str">
+        <v>na</v>
+      </c>
+      <c r="K27" t="str">
+        <v>na</v>
+      </c>
+      <c r="L27" t="str">
+        <v>na</v>
+      </c>
+      <c r="M27" t="str">
+        <v>na</v>
+      </c>
+      <c r="N27" t="str">
+        <v>na</v>
+      </c>
+      <c r="O27" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" t="s">
+        <v>102</v>
+      </c>
+      <c r="S27" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27" t="s">
+        <v>102</v>
+      </c>
+      <c r="U27" t="s">
+        <v>102</v>
+      </c>
+      <c r="V27" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27" t="s">
+        <v>102</v>
+      </c>
+      <c r="X27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -8211,11 +8529,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9102,6 +9420,29 @@
         <v>1112</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B39">
+        <v>11677</v>
+      </c>
+      <c r="C39">
+        <v>241</v>
+      </c>
+      <c r="D39">
+        <v>733</v>
+      </c>
+      <c r="E39">
+        <v>186</v>
+      </c>
+      <c r="F39">
+        <v>106540</v>
+      </c>
+      <c r="G39">
+        <v>1341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9109,10 +9450,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9160,7 +9501,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C27" si="0">C2+B3</f>
+        <f t="shared" ref="C3:C28" si="0">C2+B3</f>
         <v>18</v>
       </c>
     </row>
@@ -9558,7 +9899,29 @@
         <v>5262</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="3">C27-F27</f>
+        <f t="shared" ref="G27:G28" si="3">C27-F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="19">
+        <v>43930</v>
+      </c>
+      <c r="B28">
+        <v>355</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>5617</v>
+      </c>
+      <c r="E28" s="19">
+        <v>43930</v>
+      </c>
+      <c r="F28">
+        <v>5617</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9572,8 +9935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9610,15 +9973,17 @@
         <v>214</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L1" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -9658,7 +10023,9 @@
       <c r="K2" s="7">
         <v>247</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -9698,7 +10065,9 @@
       <c r="K3" s="9">
         <v>59</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -9738,7 +10107,9 @@
       <c r="K4" s="7">
         <v>5</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -9778,7 +10149,9 @@
       <c r="K5" s="9">
         <v>14</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -9818,7 +10191,9 @@
       <c r="K6" s="7">
         <v>501</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -9858,7 +10233,9 @@
       <c r="K7" s="9">
         <v>262</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -9898,7 +10275,9 @@
       <c r="K8" s="7">
         <v>66</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -9938,7 +10317,9 @@
       <c r="K9" s="9">
         <v>37</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -9978,7 +10359,9 @@
       <c r="K10" s="7">
         <v>29</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -10018,7 +10401,9 @@
       <c r="K11" s="9">
         <v>14</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -10058,7 +10443,9 @@
       <c r="K12" s="7">
         <v>83</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -10098,7 +10485,9 @@
       <c r="K13" s="9">
         <v>286</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -10138,7 +10527,9 @@
       <c r="K14" s="7">
         <v>19</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -10178,7 +10569,9 @@
       <c r="K15" s="9">
         <v>213</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -10218,7 +10611,9 @@
       <c r="K16" s="7">
         <v>6</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -10258,7 +10653,9 @@
       <c r="K17" s="9">
         <v>193</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -10298,7 +10695,9 @@
       <c r="K18" s="7">
         <v>5</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -10338,7 +10737,9 @@
       <c r="K19" s="9">
         <v>44</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -10378,7 +10779,9 @@
       <c r="K20" s="7">
         <v>139</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -10418,7 +10821,9 @@
       <c r="K21" s="9">
         <v>75</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -10458,7 +10863,9 @@
       <c r="K22" s="7">
         <v>220</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -10498,7 +10905,9 @@
       <c r="K23" s="9">
         <v>32</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -10538,7 +10947,9 @@
       <c r="K24" s="7">
         <v>180</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -10578,7 +10989,9 @@
       <c r="K25" s="9">
         <v>247</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -10618,7 +11031,9 @@
       <c r="K26" s="7">
         <v>5</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -10658,7 +11073,9 @@
       <c r="K27" s="9">
         <v>163</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -10698,7 +11115,9 @@
       <c r="K28" s="7">
         <v>124</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -10738,7 +11157,9 @@
       <c r="K29" s="9">
         <v>2</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -10778,7 +11199,9 @@
       <c r="K30" s="7">
         <v>184</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -10818,7 +11241,9 @@
       <c r="K31" s="9">
         <v>154</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="L31" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -10858,7 +11283,9 @@
       <c r="K32" s="7">
         <v>174</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -10898,7 +11325,9 @@
       <c r="K33" s="9">
         <v>242</v>
       </c>
-      <c r="L33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -10938,7 +11367,9 @@
       <c r="K34" s="7">
         <v>57</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -10978,7 +11409,9 @@
       <c r="K35" s="9">
         <v>1181</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="L35" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -11018,7 +11451,9 @@
       <c r="K36" s="11">
         <v>5262</v>
       </c>
-      <c r="L36" s="11"/>
+      <c r="L36" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
@@ -11051,15 +11486,17 @@
         <v>214</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L38" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -11099,7 +11536,9 @@
       <c r="K39" s="7">
         <v>1145</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -11139,7 +11578,9 @@
       <c r="K40" s="9">
         <v>673</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -11179,7 +11620,9 @@
       <c r="K41" s="7">
         <v>827</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -11219,7 +11662,9 @@
       <c r="K42" s="9">
         <v>788</v>
       </c>
-      <c r="L42" s="9"/>
+      <c r="L42" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
@@ -11259,7 +11704,9 @@
       <c r="K43" s="7">
         <v>639</v>
       </c>
-      <c r="L43" s="7"/>
+      <c r="L43" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -11299,7 +11746,9 @@
       <c r="K44" s="9">
         <v>1190</v>
       </c>
-      <c r="L44" s="9"/>
+      <c r="L44" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
@@ -11339,7 +11788,9 @@
       <c r="K45" s="11">
         <v>5262</v>
       </c>
-      <c r="L45" s="11"/>
+      <c r="L45" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
@@ -11370,15 +11821,17 @@
         <v>214</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L47" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -11408,15 +11861,17 @@
         <v>215</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L48" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -11446,15 +11901,17 @@
         <v>216</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="L49" s="9"/>
+        <v>241</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
@@ -11484,15 +11941,17 @@
         <v>217</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L50" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -11522,15 +11981,17 @@
         <v>218</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="L51" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -11560,15 +12021,17 @@
         <v>219</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L52" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -11588,9 +12051,11 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="L53" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
@@ -11620,13 +12085,15 @@
         <v>213</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L54" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
@@ -11657,15 +12124,17 @@
         <v>214</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L56" s="13"/>
+        <v>239</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
@@ -11703,7 +12172,9 @@
       <c r="K57" s="7">
         <v>36</v>
       </c>
-      <c r="L57" s="7"/>
+      <c r="L57" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -11741,7 +12212,9 @@
       <c r="K58" s="9">
         <v>33</v>
       </c>
-      <c r="L58" s="9"/>
+      <c r="L58" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -11779,7 +12252,9 @@
       <c r="K59" s="7">
         <v>171</v>
       </c>
-      <c r="L59" s="7"/>
+      <c r="L59" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -11817,7 +12292,9 @@
       <c r="K60" s="9">
         <v>751</v>
       </c>
-      <c r="L60" s="9"/>
+      <c r="L60" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -11855,7 +12332,9 @@
       <c r="K61" s="7">
         <v>846</v>
       </c>
-      <c r="L61" s="7"/>
+      <c r="L61" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
@@ -11893,7 +12372,9 @@
       <c r="K62" s="9">
         <v>908</v>
       </c>
-      <c r="L62" s="9"/>
+      <c r="L62" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
@@ -11931,7 +12412,9 @@
       <c r="K63" s="7">
         <v>771</v>
       </c>
-      <c r="L63" s="7"/>
+      <c r="L63" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -11969,7 +12452,9 @@
       <c r="K64" s="9">
         <v>551</v>
       </c>
-      <c r="L64" s="9"/>
+      <c r="L64" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
@@ -12007,7 +12492,9 @@
       <c r="K65" s="7">
         <v>423</v>
       </c>
-      <c r="L65" s="7"/>
+      <c r="L65" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
@@ -12045,7 +12532,9 @@
       <c r="K66" s="9">
         <v>758</v>
       </c>
-      <c r="L66" s="9"/>
+      <c r="L66" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -12083,7 +12572,9 @@
       <c r="K67" s="7">
         <v>14</v>
       </c>
-      <c r="L67" s="7"/>
+      <c r="L67" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
@@ -12121,7 +12612,9 @@
       <c r="K68" s="15">
         <v>5262</v>
       </c>
-      <c r="L68" s="15"/>
+      <c r="L68" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
@@ -12129,7 +12622,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
         <v>102</v>
@@ -12160,6 +12653,9 @@
       </c>
       <c r="K70">
         <v>91</v>
+      </c>
+      <c r="L70">
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -12176,204 +12672,158 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+      <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
-      </c>
-      <c r="C1" t="s">
-        <v>230</v>
       </c>
       <c r="D1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4">
-        <v>36</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>639</v>
+      </c>
+      <c r="C5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>251</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>908</v>
+      </c>
+      <c r="C6">
+        <v>20.8</v>
+      </c>
+      <c r="D6">
+        <v>167.4</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <v>788</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>639</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6">
-        <v>171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7">
-        <v>751</v>
-      </c>
-      <c r="C7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10">
         <v>91</v>
-      </c>
-      <c r="B8">
-        <v>846</v>
-      </c>
-      <c r="C8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9">
-        <v>908</v>
-      </c>
-      <c r="C9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10">
-        <v>771</v>
-      </c>
-      <c r="C10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11">
-        <v>551</v>
-      </c>
-      <c r="C11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12">
-        <v>423</v>
-      </c>
-      <c r="C12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13">
-        <v>758</v>
-      </c>
-      <c r="C13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B3198A-B705-48CB-B514-83D5950A40A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2127EC4-C5C9-42B8-8334-9DD16B58B36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10130" yWindow="3190" windowWidth="28170" windowHeight="17470" tabRatio="765" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="9200" yWindow="3520" windowWidth="28170" windowHeight="17470" tabRatio="765" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="327">
   <si>
     <t>borough</t>
   </si>
@@ -790,9 +790,6 @@
     <t>deaths_mtl</t>
   </si>
   <si>
-    <t>5 262</t>
-  </si>
-  <si>
     <t>8 AVRIL, 17H</t>
   </si>
   <si>
@@ -814,37 +811,250 @@
     <t>254,7 </t>
   </si>
   <si>
-    <t>TOTAL DE DÉCÈS</t>
-  </si>
-  <si>
-    <t>1 178</t>
-  </si>
-  <si>
-    <t>27,0</t>
-  </si>
-  <si>
     <t>317,0</t>
   </si>
   <si>
-    <t>16,9</t>
-  </si>
-  <si>
     <t>229,8</t>
   </si>
   <si>
-    <t>19,4 </t>
-  </si>
-  <si>
-    <t>15,7 </t>
-  </si>
-  <si>
     <t>Territoire à confirmer²</t>
   </si>
   <si>
-    <t>1 190</t>
-  </si>
-  <si>
     <t>9 AVRIL, 17H</t>
+  </si>
+  <si>
+    <t>193,7</t>
+  </si>
+  <si>
+    <t>175,3</t>
+  </si>
+  <si>
+    <t>5 617</t>
+  </si>
+  <si>
+    <t>271,9 </t>
+  </si>
+  <si>
+    <t>271,9</t>
+  </si>
+  <si>
+    <t>ARRONDISSEMENT OU VILLE LIÉE</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>206,3</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>156,6</t>
+  </si>
+  <si>
+    <t>Baie-D'Urfé    </t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t> n.p.</t>
+  </si>
+  <si>
+    <t>Beaconsfield    </t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>* 72,4</t>
+  </si>
+  <si>
+    <t>11,9</t>
+  </si>
+  <si>
+    <t>313,5</t>
+  </si>
+  <si>
+    <t>Côte-Saint-Luc    </t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>813,6</t>
+  </si>
+  <si>
+    <t>Dollard-des-Ormeaux    </t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>139,1</t>
+  </si>
+  <si>
+    <t>Dorval  </t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>194,9</t>
+  </si>
+  <si>
+    <t>Hampstead    </t>
+  </si>
+  <si>
+    <t> 0,7</t>
+  </si>
+  <si>
+    <t>* 415,9</t>
+  </si>
+  <si>
+    <t>Kirkland    </t>
+  </si>
+  <si>
+    <t>* 74,4</t>
+  </si>
+  <si>
+    <t>2,0 </t>
+  </si>
+  <si>
+    <t>186,6</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>387,8</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>* 119,5</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>170,6</t>
+  </si>
+  <si>
+    <t>Montréal-Est    </t>
+  </si>
+  <si>
+    <t>0,2 </t>
+  </si>
+  <si>
+    <t>n.p.</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>282,5</t>
+  </si>
+  <si>
+    <t>Montréal-Ouest    </t>
+  </si>
+  <si>
+    <t>Mont-Royal    </t>
+  </si>
+  <si>
+    <t>1,1  </t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>112,6</t>
+  </si>
+  <si>
+    <t>223,1</t>
+  </si>
+  <si>
+    <t>Pointe-Claire    </t>
+  </si>
+  <si>
+    <t>0,8 </t>
+  </si>
+  <si>
+    <t>* 105,2</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>181,7</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>186,3</t>
+  </si>
+  <si>
+    <t>Sainte-Anne-de-Bellevue    </t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>169,0</t>
+  </si>
+  <si>
+    <t>3,2 </t>
+  </si>
+  <si>
+    <t>177,5</t>
+  </si>
+  <si>
+    <t>Senneville    </t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>268,7</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>251,3</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>207,5</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>184,9</t>
+  </si>
+  <si>
+    <t>Westmount    </t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>280,6</t>
+  </si>
+  <si>
+    <t>1 245</t>
+  </si>
+  <si>
+    <t>Total à Montréal    </t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1647,8 @@
       <c r="L2">
         <v>247</v>
       </c>
-      <c r="M2" t="s">
-        <v>102</v>
+      <c r="M2">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1478,8 +1688,8 @@
       <c r="L3">
         <v>59</v>
       </c>
-      <c r="M3" t="s">
-        <v>102</v>
+      <c r="M3">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1519,8 +1729,8 @@
       <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
-        <v>102</v>
+      <c r="M4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1560,8 +1770,8 @@
       <c r="L5">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
-        <v>102</v>
+      <c r="M5">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1601,8 +1811,8 @@
       <c r="L6">
         <v>501</v>
       </c>
-      <c r="M6" t="s">
-        <v>102</v>
+      <c r="M6">
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1642,8 +1852,8 @@
       <c r="L7">
         <v>262</v>
       </c>
-      <c r="M7" t="s">
-        <v>102</v>
+      <c r="M7">
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1683,8 +1893,8 @@
       <c r="L8">
         <v>66</v>
       </c>
-      <c r="M8" t="s">
-        <v>102</v>
+      <c r="M8">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1724,8 +1934,8 @@
       <c r="L9">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
-        <v>102</v>
+      <c r="M9">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1765,8 +1975,8 @@
       <c r="L10">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
-        <v>102</v>
+      <c r="M10">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1806,8 +2016,8 @@
       <c r="L11">
         <v>14</v>
       </c>
-      <c r="M11" t="s">
-        <v>102</v>
+      <c r="M11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1847,8 +2057,8 @@
       <c r="L12">
         <v>83</v>
       </c>
-      <c r="M12" t="s">
-        <v>102</v>
+      <c r="M12">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1888,8 +2098,8 @@
       <c r="L13">
         <v>286</v>
       </c>
-      <c r="M13" t="s">
-        <v>102</v>
+      <c r="M13">
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1929,8 +2139,8 @@
       <c r="L14">
         <v>19</v>
       </c>
-      <c r="M14" t="s">
-        <v>102</v>
+      <c r="M14">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1970,8 +2180,8 @@
       <c r="L15">
         <v>213</v>
       </c>
-      <c r="M15" t="s">
-        <v>102</v>
+      <c r="M15">
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2011,8 +2221,8 @@
       <c r="L16">
         <v>6</v>
       </c>
-      <c r="M16" t="s">
-        <v>102</v>
+      <c r="M16">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -2052,8 +2262,8 @@
       <c r="L17">
         <v>193</v>
       </c>
-      <c r="M17" t="s">
-        <v>102</v>
+      <c r="M17">
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -2093,8 +2303,8 @@
       <c r="L18">
         <v>5</v>
       </c>
-      <c r="M18" t="s">
-        <v>102</v>
+      <c r="M18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -2134,8 +2344,8 @@
       <c r="L19">
         <v>44</v>
       </c>
-      <c r="M19" t="s">
-        <v>102</v>
+      <c r="M19">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -2175,8 +2385,8 @@
       <c r="L20">
         <v>139</v>
       </c>
-      <c r="M20" t="s">
-        <v>102</v>
+      <c r="M20">
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -2216,8 +2426,8 @@
       <c r="L21">
         <v>75</v>
       </c>
-      <c r="M21" t="s">
-        <v>102</v>
+      <c r="M21">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -2257,8 +2467,8 @@
       <c r="L22">
         <v>220</v>
       </c>
-      <c r="M22" t="s">
-        <v>102</v>
+      <c r="M22">
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -2298,8 +2508,8 @@
       <c r="L23">
         <v>32</v>
       </c>
-      <c r="M23" t="s">
-        <v>102</v>
+      <c r="M23">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -2339,8 +2549,8 @@
       <c r="L24">
         <v>180</v>
       </c>
-      <c r="M24" t="s">
-        <v>102</v>
+      <c r="M24">
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -2380,8 +2590,8 @@
       <c r="L25">
         <v>247</v>
       </c>
-      <c r="M25" t="s">
-        <v>102</v>
+      <c r="M25">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -2421,8 +2631,8 @@
       <c r="L26">
         <v>5</v>
       </c>
-      <c r="M26" t="s">
-        <v>102</v>
+      <c r="M26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2462,8 +2672,8 @@
       <c r="L27">
         <v>163</v>
       </c>
-      <c r="M27" t="s">
-        <v>102</v>
+      <c r="M27">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -2503,8 +2713,8 @@
       <c r="L28">
         <v>124</v>
       </c>
-      <c r="M28" t="s">
-        <v>102</v>
+      <c r="M28">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -2544,8 +2754,8 @@
       <c r="L29">
         <v>2</v>
       </c>
-      <c r="M29" t="s">
-        <v>102</v>
+      <c r="M29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -2585,8 +2795,8 @@
       <c r="L30">
         <v>184</v>
       </c>
-      <c r="M30" t="s">
-        <v>102</v>
+      <c r="M30">
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -2626,8 +2836,8 @@
       <c r="L31">
         <v>154</v>
       </c>
-      <c r="M31" t="s">
-        <v>102</v>
+      <c r="M31">
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -2667,8 +2877,8 @@
       <c r="L32">
         <v>174</v>
       </c>
-      <c r="M32" t="s">
-        <v>102</v>
+      <c r="M32">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2708,8 +2918,8 @@
       <c r="L33">
         <v>242</v>
       </c>
-      <c r="M33" t="s">
-        <v>102</v>
+      <c r="M33">
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -2749,8 +2959,8 @@
       <c r="L34">
         <v>57</v>
       </c>
-      <c r="M34" t="s">
-        <v>102</v>
+      <c r="M34">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2790,8 +3000,8 @@
       <c r="L35">
         <v>1181</v>
       </c>
-      <c r="M35" t="s">
-        <v>102</v>
+      <c r="M35">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -2804,7 +3014,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2913,8 +3123,9 @@
         <f>cases!L2/(population_2016!$B2/1000)</f>
         <v>1.8399195500763528</v>
       </c>
-      <c r="M2" t="s">
-        <v>102</v>
+      <c r="M2" s="3">
+        <f>cases!M2/(population_2016!$B2/1000)</f>
+        <v>2.063391560207084</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2964,8 +3175,9 @@
         <f>cases!L3/(population_2016!$B3/1000)</f>
         <v>1.3786335171511357</v>
       </c>
-      <c r="M3" t="s">
-        <v>102</v>
+      <c r="M3" s="3">
+        <f>cases!M3/(population_2016!$B3/1000)</f>
+        <v>1.5655668754089167</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -3015,8 +3227,9 @@
         <f>cases!L4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-      <c r="M4" t="s">
-        <v>102</v>
+      <c r="M4" s="3">
+        <f>cases!M4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -3066,8 +3279,9 @@
         <f>cases!L5/(population_2016!$B5/1000)</f>
         <v>0.72448768370937688</v>
       </c>
-      <c r="M5" t="s">
-        <v>102</v>
+      <c r="M5" s="3">
+        <f>cases!M5/(population_2016!$B5/1000)</f>
+        <v>0.72448768370937688</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -3117,8 +3331,9 @@
         <f>cases!L6/(population_2016!$B6/1000)</f>
         <v>3.008647609896709</v>
       </c>
-      <c r="M6" t="s">
-        <v>102</v>
+      <c r="M6" s="3">
+        <f>cases!M6/(population_2016!$B6/1000)</f>
+        <v>3.1347585875570498</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -3168,8 +3383,9 @@
         <f>cases!L7/(population_2016!$B7/1000)</f>
         <v>8.0744575936883631</v>
       </c>
-      <c r="M7" t="s">
-        <v>102</v>
+      <c r="M7" s="3">
+        <f>cases!M7/(population_2016!$B7/1000)</f>
+        <v>8.1360946745562135</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -3219,8 +3435,9 @@
         <f>cases!L8/(population_2016!$B8/1000)</f>
         <v>1.3497208531871818</v>
       </c>
-      <c r="M8" t="s">
-        <v>102</v>
+      <c r="M8" s="3">
+        <f>cases!M8/(population_2016!$B8/1000)</f>
+        <v>1.3906214851019447</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -3270,8 +3487,9 @@
         <f>cases!L9/(population_2016!$B9/1000)</f>
         <v>1.9494204425711275</v>
       </c>
-      <c r="M9" t="s">
-        <v>102</v>
+      <c r="M9" s="3">
+        <f>cases!M9/(population_2016!$B9/1000)</f>
+        <v>1.9494204425711275</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -3321,8 +3539,9 @@
         <f>cases!L10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-      <c r="M10" t="s">
-        <v>102</v>
+      <c r="M10" s="3">
+        <f>cases!M10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -3372,8 +3591,9 @@
         <f>cases!L11/(population_2016!$B11/1000)</f>
         <v>0.69475460274924317</v>
       </c>
-      <c r="M11" t="s">
-        <v>102</v>
+      <c r="M11" s="3">
+        <f>cases!M11/(population_2016!$B11/1000)</f>
+        <v>0.74437993151704629</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -3423,8 +3643,9 @@
         <f>cases!L12/(population_2016!$B12/1000)</f>
         <v>1.8656297062195151</v>
       </c>
-      <c r="M12" t="s">
-        <v>102</v>
+      <c r="M12" s="3">
+        <f>cases!M12/(population_2016!$B12/1000)</f>
+        <v>1.8656297062195151</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -3474,8 +3695,9 @@
         <f>cases!L13/(population_2016!$B13/1000)</f>
         <v>3.7213901864598653</v>
       </c>
-      <c r="M13" t="s">
-        <v>102</v>
+      <c r="M13" s="3">
+        <f>cases!M13/(population_2016!$B13/1000)</f>
+        <v>3.8775324320455939</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -3525,8 +3747,9 @@
         <f>cases!L14/(population_2016!$B14/1000)</f>
         <v>1.0318796502471079</v>
       </c>
-      <c r="M14" t="s">
-        <v>102</v>
+      <c r="M14" s="3">
+        <f>cases!M14/(population_2016!$B14/1000)</f>
+        <v>1.1948080160755987</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -3576,8 +3799,9 @@
         <f>cases!L15/(population_2016!$B15/1000)</f>
         <v>1.5659001352702464</v>
       </c>
-      <c r="M15" t="s">
-        <v>102</v>
+      <c r="M15" s="3">
+        <f>cases!M15/(population_2016!$B15/1000)</f>
+        <v>1.7055813679938834</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -3627,8 +3851,9 @@
         <f>cases!L16/(population_2016!$B16/1000)</f>
         <v>1.5584415584415585</v>
       </c>
-      <c r="M16" t="s">
-        <v>102</v>
+      <c r="M16" s="3">
+        <f>cases!M16/(population_2016!$B16/1000)</f>
+        <v>1.8181818181818181</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -3678,8 +3903,9 @@
         <f>cases!L17/(population_2016!$B17/1000)</f>
         <v>2.2912363178763919</v>
       </c>
-      <c r="M17" t="s">
-        <v>102</v>
+      <c r="M17" s="3">
+        <f>cases!M17/(population_2016!$B17/1000)</f>
+        <v>2.8254624023553436</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -3729,8 +3955,9 @@
         <f>cases!L18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="M18" t="s">
-        <v>102</v>
+      <c r="M18" s="3">
+        <f>cases!M18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -3780,8 +4007,9 @@
         <f>cases!L19/(population_2016!$B19/1000)</f>
         <v>2.170053264943776</v>
       </c>
-      <c r="M19" t="s">
-        <v>102</v>
+      <c r="M19" s="3">
+        <f>cases!M19/(population_2016!$B19/1000)</f>
+        <v>2.170053264943776</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -3831,8 +4059,9 @@
         <f>cases!L20/(population_2016!$B20/1000)</f>
         <v>5.8027886783000753</v>
       </c>
-      <c r="M20" t="s">
-        <v>102</v>
+      <c r="M20" s="3">
+        <f>cases!M20/(population_2016!$B20/1000)</f>
+        <v>5.9697754028554728</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -3882,8 +4111,9 @@
         <f>cases!L21/(population_2016!$B21/1000)</f>
         <v>1.0822979349755402</v>
       </c>
-      <c r="M21" t="s">
-        <v>102</v>
+      <c r="M21" s="3">
+        <f>cases!M21/(population_2016!$B21/1000)</f>
+        <v>1.1255898523745618</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -3933,8 +4163,9 @@
         <f>cases!L22/(population_2016!$B22/1000)</f>
         <v>2.1153846153846154</v>
       </c>
-      <c r="M22" t="s">
-        <v>102</v>
+      <c r="M22" s="3">
+        <f>cases!M22/(population_2016!$B22/1000)</f>
+        <v>2.2307692307692308</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -3984,8 +4215,9 @@
         <f>cases!L23/(population_2016!$B23/1000)</f>
         <v>1.0197578075207139</v>
       </c>
-      <c r="M23" t="s">
-        <v>102</v>
+      <c r="M23" s="3">
+        <f>cases!M23/(population_2016!$B23/1000)</f>
+        <v>1.0516252390057361</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -4035,8 +4267,9 @@
         <f>cases!L24/(population_2016!$B24/1000)</f>
         <v>1.6862932463955482</v>
       </c>
-      <c r="M24" t="s">
-        <v>102</v>
+      <c r="M24" s="3">
+        <f>cases!M24/(population_2016!$B24/1000)</f>
+        <v>1.8174493877818687</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -4086,8 +4319,9 @@
         <f>cases!L25/(population_2016!$B25/1000)</f>
         <v>1.7694677269145354</v>
       </c>
-      <c r="M25" t="s">
-        <v>102</v>
+      <c r="M25" s="3">
+        <f>cases!M25/(population_2016!$B25/1000)</f>
+        <v>1.8625976072784582</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -4137,8 +4371,9 @@
         <f>cases!L26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-      <c r="M26" t="s">
-        <v>102</v>
+      <c r="M26" s="3">
+        <f>cases!M26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -4188,8 +4423,9 @@
         <f>cases!L27/(population_2016!$B27/1000)</f>
         <v>1.6493301493503865</v>
       </c>
-      <c r="M27" t="s">
-        <v>102</v>
+      <c r="M27" s="3">
+        <f>cases!M27/(population_2016!$B27/1000)</f>
+        <v>1.6898045088436475</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -4239,8 +4475,9 @@
         <f>cases!L28/(population_2016!$B28/1000)</f>
         <v>1.5835514973501053</v>
       </c>
-      <c r="M28" t="s">
-        <v>102</v>
+      <c r="M28" s="3">
+        <f>cases!M28/(population_2016!$B28/1000)</f>
+        <v>1.7751101462231018</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -4290,8 +4527,9 @@
         <f>cases!L29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-      <c r="M29" t="s">
-        <v>102</v>
+      <c r="M29" s="3">
+        <f>cases!M29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -4341,8 +4579,9 @@
         <f>cases!L30/(population_2016!$B30/1000)</f>
         <v>2.3544164502053717</v>
       </c>
-      <c r="M30" t="s">
-        <v>102</v>
+      <c r="M30" s="3">
+        <f>cases!M30/(population_2016!$B30/1000)</f>
+        <v>2.6871057312126525</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -4392,8 +4631,9 @@
         <f>cases!L31/(population_2016!$B31/1000)</f>
         <v>2.2245012928108161</v>
       </c>
-      <c r="M31" t="s">
-        <v>102</v>
+      <c r="M31" s="3">
+        <f>cases!M31/(population_2016!$B31/1000)</f>
+        <v>2.5133975646044289</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -4443,8 +4683,9 @@
         <f>cases!L32/(population_2016!$B32/1000)</f>
         <v>1.951328922283279</v>
       </c>
-      <c r="M32" t="s">
-        <v>102</v>
+      <c r="M32" s="3">
+        <f>cases!M32/(population_2016!$B32/1000)</f>
+        <v>2.0746887966804981</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -4494,8 +4735,9 @@
         <f>cases!L33/(population_2016!$B33/1000)</f>
         <v>1.6822728757829173</v>
       </c>
-      <c r="M33" t="s">
-        <v>102</v>
+      <c r="M33" s="3">
+        <f>cases!M33/(population_2016!$B33/1000)</f>
+        <v>1.8491098551994047</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -4545,8 +4787,9 @@
         <f>cases!L34/(population_2016!$B34/1000)</f>
         <v>2.8062229224103978</v>
       </c>
-      <c r="M34" t="s">
-        <v>102</v>
+      <c r="M34" s="3">
+        <f>cases!M34/(population_2016!$B34/1000)</f>
+        <v>2.8062229224103978</v>
       </c>
     </row>
   </sheetData>
@@ -4559,7 +4802,7 @@
   <dimension ref="A1:AR27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6888,11 +7131,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -7055,7 +7298,7 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
@@ -7222,7 +7465,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
@@ -7389,7 +7632,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
@@ -7556,7 +7799,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -7713,7 +7956,7 @@
         <v>11.98022464872172</v>
       </c>
       <c r="AR22" s="3">
-        <f>X22*100/SUM($O22:$X22)</f>
+        <f t="shared" ref="AR22:AR27" si="22">X22*100/SUM($O22:$X22)</f>
         <v>20.492100354218103</v>
       </c>
     </row>
@@ -7723,7 +7966,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -7804,83 +8047,83 @@
         <v>448.35787662567685</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" ref="Y23" si="22">E23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="Y23" si="23">E23*100/SUM($E23:$N23)</f>
         <v>0.68078668683812404</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" ref="Z23" si="23">F23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="Z23" si="24">F23*100/SUM($E23:$N23)</f>
         <v>0.73121533030761476</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" ref="AA23" si="24">G23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AA23" si="25">G23*100/SUM($E23:$N23)</f>
         <v>3.7317196167423097</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" ref="AB23" si="25">H23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AB23" si="26">H23*100/SUM($E23:$N23)</f>
         <v>15.683308119011599</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" ref="AC23" si="26">I23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AC23" si="27">I23*100/SUM($E23:$N23)</f>
         <v>16.817952597075138</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" ref="AD23" si="27">J23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AD23" si="28">J23*100/SUM($E23:$N23)</f>
         <v>17.423096318709028</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" ref="AE23" si="28">K23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AE23" si="29">K23*100/SUM($E23:$N23)</f>
         <v>15.305093292990419</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" ref="AF23" si="29">L23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AF23" si="30">L23*100/SUM($E23:$N23)</f>
         <v>10.91780131114473</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23" si="30">M23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AG23" si="31">M23*100/SUM($E23:$N23)</f>
         <v>7.5390821986888552</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" ref="AH23" si="31">N23*100/SUM($E23:$N23)</f>
+        <f t="shared" ref="AH23" si="32">N23*100/SUM($E23:$N23)</f>
         <v>11.169944528492184</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" ref="AI23" si="32">O23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AI23" si="33">O23*100/SUM($O23:$X23)</f>
         <v>0.54469563009709021</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" ref="AJ23" si="33">P23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AJ23" si="34">P23*100/SUM($O23:$X23)</f>
         <v>1.4262483412011995</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" ref="AK23" si="34">Q23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AK23" si="35">Q23*100/SUM($O23:$X23)</f>
         <v>4.0374946697262333</v>
       </c>
       <c r="AL23" s="3">
-        <f t="shared" ref="AL23" si="35">R23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AL23" si="36">R23*100/SUM($O23:$X23)</f>
         <v>10.889918755562032</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" ref="AM23" si="36">S23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AM23" si="37">S23*100/SUM($O23:$X23)</f>
         <v>11.426430170066256</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" ref="AN23" si="37">T23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AN23" si="38">T23*100/SUM($O23:$X23)</f>
         <v>13.940173348040345</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" ref="AO23" si="38">U23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AO23" si="39">U23*100/SUM($O23:$X23)</f>
         <v>12.037431510940417</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" ref="AP23" si="39">V23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AP23" si="40">V23*100/SUM($O23:$X23)</f>
         <v>10.843230573971258</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" ref="AQ23" si="40">W23*100/SUM($O23:$X23)</f>
+        <f t="shared" ref="AQ23" si="41">W23*100/SUM($O23:$X23)</f>
         <v>11.836776201309821</v>
       </c>
       <c r="AR23" s="3">
-        <f>X23*100/SUM($O23:$X23)</f>
+        <f t="shared" si="22"/>
         <v>23.017600799085354</v>
       </c>
     </row>
@@ -7890,11 +8133,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4630</v>
+        <v>4628</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -7971,83 +8214,83 @@
         <v>555.63989676635799</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" ref="Y24" si="41">E24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="Y24" si="42">E24*100/SUM($E24:$N24)</f>
         <v>0.68243858052775253</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" ref="Z24" si="42">F24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="Z24" si="43">F24*100/SUM($E24:$N24)</f>
         <v>0.70518653321201097</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" ref="AA24" si="43">G24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AA24" si="44">G24*100/SUM($E24:$N24)</f>
         <v>3.5031847133757963</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" ref="AB24" si="44">H24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AB24" si="45">H24*100/SUM($E24:$N24)</f>
         <v>15.059144676979072</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" ref="AC24" si="45">I24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AC24" si="46">I24*100/SUM($E24:$N24)</f>
         <v>16.674249317561419</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" ref="AD24" si="46">J24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AD24" si="47">J24*100/SUM($E24:$N24)</f>
         <v>17.356687898089174</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" ref="AE24" si="47">K24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AE24" si="48">K24*100/SUM($E24:$N24)</f>
         <v>15.127388535031848</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" ref="AF24" si="48">L24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AF24" si="49">L24*100/SUM($E24:$N24)</f>
         <v>10.668789808917197</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24" si="49">M24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AG24" si="50">M24*100/SUM($E24:$N24)</f>
         <v>7.7343039126478619</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24" si="50">N24*100/SUM($E24:$N24)</f>
+        <f t="shared" ref="AH24" si="51">N24*100/SUM($E24:$N24)</f>
         <v>12.48862602365787</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" ref="AI24" si="51">O24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AI24" si="52">O24*100/SUM($O24:$X24)</f>
         <v>0.52752287287092714</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" ref="AJ24" si="52">P24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AJ24" si="53">P24*100/SUM($O24:$X24)</f>
         <v>1.3518663266268462</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" ref="AK24" si="53">Q24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AK24" si="54">Q24*100/SUM($O24:$X24)</f>
         <v>3.7251680513018282</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" ref="AL24" si="54">R24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AL24" si="55">R24*100/SUM($O24:$X24)</f>
         <v>10.277018696561045</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" ref="AM24" si="55">S24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AM24" si="56">S24*100/SUM($O24:$X24)</f>
         <v>11.134317795689789</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" ref="AN24" si="56">T24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AN24" si="57">T24*100/SUM($O24:$X24)</f>
         <v>13.64864591467845</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" ref="AO24" si="57">U24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AO24" si="58">U24*100/SUM($O24:$X24)</f>
         <v>11.693423681972218</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" ref="AP24" si="58">V24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AP24" si="59">V24*100/SUM($O24:$X24)</f>
         <v>10.414023212780554</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" ref="AQ24" si="59">W24*100/SUM($O24:$X24)</f>
+        <f t="shared" ref="AQ24" si="60">W24*100/SUM($O24:$X24)</f>
         <v>11.934825329764765</v>
       </c>
       <c r="AR24" s="3">
-        <f>X24*100/SUM($O24:$X24)</f>
+        <f t="shared" si="22"/>
         <v>25.293188117753569</v>
       </c>
     </row>
@@ -8057,7 +8300,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
@@ -8138,83 +8381,83 @@
         <v>653.81306614037749</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" ref="Y25" si="60">E25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="Y25" si="61">E25*100/SUM($E25:$N25)</f>
         <v>0.71368597816960533</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" ref="Z25" si="61">F25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="Z25" si="62">F25*100/SUM($E25:$N25)</f>
         <v>0.69269521410579349</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" ref="AA25" si="62">G25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AA25" si="63">G25*100/SUM($E25:$N25)</f>
         <v>3.4634760705289671</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" ref="AB25" si="63">H25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AB25" si="64">H25*100/SUM($E25:$N25)</f>
         <v>14.609571788413099</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" ref="AC25" si="64">I25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AC25" si="65">I25*100/SUM($E25:$N25)</f>
         <v>16.204869857262803</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" ref="AD25" si="65">J25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AD25" si="66">J25*100/SUM($E25:$N25)</f>
         <v>17.569269521410579</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" ref="AE25" si="66">K25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AE25" si="67">K25*100/SUM($E25:$N25)</f>
         <v>14.861460957178842</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" ref="AF25" si="67">L25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AF25" si="68">L25*100/SUM($E25:$N25)</f>
         <v>10.600335852225021</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" ref="AG25" si="68">M25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AG25" si="69">M25*100/SUM($E25:$N25)</f>
         <v>7.7246011754827872</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" ref="AH25" si="69">N25*100/SUM($E25:$N25)</f>
+        <f t="shared" ref="AH25" si="70">N25*100/SUM($E25:$N25)</f>
         <v>13.560033585222502</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" ref="AI25" si="70">O25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AI25" si="71">O25*100/SUM($O25:$X25)</f>
         <v>0.68612889377915209</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" ref="AJ25" si="71">P25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AJ25" si="72">P25*100/SUM($O25:$X25)</f>
         <v>1.3078775623282131</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" ref="AK25" si="72">Q25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AK25" si="73">Q25*100/SUM($O25:$X25)</f>
         <v>3.6273560417575919</v>
       </c>
       <c r="AL25" s="3">
-        <f t="shared" ref="AL25" si="73">R25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AL25" si="74">R25*100/SUM($O25:$X25)</f>
         <v>9.8197287059184415</v>
       </c>
       <c r="AM25" s="3">
-        <f t="shared" ref="AM25" si="74">S25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AM25" si="75">S25*100/SUM($O25:$X25)</f>
         <v>10.657566008962512</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ref="AN25" si="75">T25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AN25" si="76">T25*100/SUM($O25:$X25)</f>
         <v>13.607288094695107</v>
       </c>
       <c r="AO25" s="3">
-        <f t="shared" ref="AO25" si="76">U25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AO25" si="77">U25*100/SUM($O25:$X25)</f>
         <v>11.314474569192503</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" ref="AP25" si="77">V25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AP25" si="78">V25*100/SUM($O25:$X25)</f>
         <v>10.191032098778582</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" ref="AQ25" si="78">W25*100/SUM($O25:$X25)</f>
+        <f t="shared" ref="AQ25" si="79">W25*100/SUM($O25:$X25)</f>
         <v>11.739944983094992</v>
       </c>
       <c r="AR25" s="3">
-        <f>X25*100/SUM($O25:$X25)</f>
+        <f t="shared" si="22"/>
         <v>27.048603041492903</v>
       </c>
     </row>
@@ -8224,11 +8467,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5262</v>
+        <v>5403</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -8305,83 +8548,83 @@
         <v>767.16765345883312</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" ref="Y26" si="79">E26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="Y26" si="80">E26*100/SUM($E26:$N26)</f>
         <v>0.68597560975609762</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" ref="Z26" si="80">F26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="Z26" si="81">F26*100/SUM($E26:$N26)</f>
         <v>0.62881097560975607</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" ref="AA26" si="81">G26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AA26" si="82">G26*100/SUM($E26:$N26)</f>
         <v>3.2583841463414633</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" ref="AB26" si="82">H26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AB26" si="83">H26*100/SUM($E26:$N26)</f>
         <v>14.310213414634147</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" ref="AC26" si="83">I26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AC26" si="84">I26*100/SUM($E26:$N26)</f>
         <v>16.120426829268293</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" ref="AD26" si="84">J26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AD26" si="85">J26*100/SUM($E26:$N26)</f>
         <v>17.301829268292682</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" ref="AE26" si="85">K26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AE26" si="86">K26*100/SUM($E26:$N26)</f>
         <v>14.691310975609756</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" ref="AF26" si="86">L26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AF26" si="87">L26*100/SUM($E26:$N26)</f>
         <v>10.499237804878049</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" ref="AG26" si="87">M26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AG26" si="88">M26*100/SUM($E26:$N26)</f>
         <v>8.0602134146341466</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" ref="AH26" si="88">N26*100/SUM($E26:$N26)</f>
+        <f t="shared" ref="AH26" si="89">N26*100/SUM($E26:$N26)</f>
         <v>14.44359756097561</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" ref="AI26" si="89">O26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AI26" si="90">O26*100/SUM($O26:$X26)</f>
         <v>1.0261064481957152</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" ref="AJ26" si="90">P26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AJ26" si="91">P26*100/SUM($O26:$X26)</f>
         <v>1.1685270283264069</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" ref="AK26" si="91">Q26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AK26" si="92">Q26*100/SUM($O26:$X26)</f>
         <v>3.3587217363742949</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" ref="AL26" si="92">R26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AL26" si="93">R26*100/SUM($O26:$X26)</f>
         <v>9.4667707425770207</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" ref="AM26" si="93">S26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AM26" si="94">S26*100/SUM($O26:$X26)</f>
         <v>10.434767260356979</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" ref="AN26" si="94">T26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AN26" si="95">T26*100/SUM($O26:$X26)</f>
         <v>13.188750221636536</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" ref="AO26" si="95">U26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AO26" si="96">U26*100/SUM($O26:$X26)</f>
         <v>11.008475596304274</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" ref="AP26" si="96">V26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AP26" si="97">V26*100/SUM($O26:$X26)</f>
         <v>9.934592624477073</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" ref="AQ26" si="97">W26*100/SUM($O26:$X26)</f>
+        <f t="shared" ref="AQ26" si="98">W26*100/SUM($O26:$X26)</f>
         <v>12.056750766299654</v>
       </c>
       <c r="AR26" s="3">
-        <f>X26*100/SUM($O26:$X26)</f>
+        <f t="shared" si="22"/>
         <v>28.356537575452048</v>
       </c>
     </row>
@@ -8395,131 +8638,161 @@
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>355</v>
+        <v>214</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
-      <c r="E27" t="str" cm="1">
+      <c r="E27" cm="1">
         <f t="array" ref="E27:N27">TRANSPOSE(santemontreal!L$57:L$66)</f>
-        <v>na</v>
-      </c>
-      <c r="F27" t="str">
-        <v>na</v>
-      </c>
-      <c r="G27" t="str">
-        <v>na</v>
-      </c>
-      <c r="H27" t="str">
-        <v>na</v>
-      </c>
-      <c r="I27" t="str">
-        <v>na</v>
-      </c>
-      <c r="J27" t="str">
-        <v>na</v>
-      </c>
-      <c r="K27" t="str">
-        <v>na</v>
-      </c>
-      <c r="L27" t="str">
-        <v>na</v>
-      </c>
-      <c r="M27" t="str">
-        <v>na</v>
-      </c>
-      <c r="N27" t="str">
-        <v>na</v>
-      </c>
-      <c r="O27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>102</v>
-      </c>
-      <c r="R27" t="s">
-        <v>102</v>
-      </c>
-      <c r="S27" t="s">
-        <v>102</v>
-      </c>
-      <c r="T27" t="s">
-        <v>102</v>
-      </c>
-      <c r="U27" t="s">
-        <v>102</v>
-      </c>
-      <c r="V27" t="s">
-        <v>102</v>
-      </c>
-      <c r="W27" t="s">
-        <v>102</v>
-      </c>
-      <c r="X27" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>102</v>
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>177</v>
+      </c>
+      <c r="H27">
+        <v>783</v>
+      </c>
+      <c r="I27">
+        <v>887</v>
+      </c>
+      <c r="J27">
+        <v>966</v>
+      </c>
+      <c r="K27">
+        <v>828</v>
+      </c>
+      <c r="L27">
+        <v>581</v>
+      </c>
+      <c r="M27">
+        <v>446</v>
+      </c>
+      <c r="N27">
+        <v>862</v>
+      </c>
+      <c r="O27" s="18">
+        <f>E27/(age_distribution_2016!$B11/100000)</f>
+        <v>37.44749759627549</v>
+      </c>
+      <c r="P27" s="18">
+        <f>F27/(age_distribution_2016!$B$3/100000)</f>
+        <v>32.571729654643867</v>
+      </c>
+      <c r="Q27" s="18">
+        <f>G27/(age_distribution_2016!$B$4/100000)</f>
+        <v>94.056380689215402</v>
+      </c>
+      <c r="R27" s="18">
+        <f>H27/(age_distribution_2016!$B$5/100000)</f>
+        <v>267.03043737744053</v>
+      </c>
+      <c r="S27" s="18">
+        <f>I27/(age_distribution_2016!$B$6/100000)</f>
+        <v>295.98731959622927</v>
+      </c>
+      <c r="T27" s="18">
+        <f>J27/(age_distribution_2016!$B$7/100000)</f>
+        <v>379.60506926024169</v>
+      </c>
+      <c r="U27" s="18">
+        <f>K27/(age_distribution_2016!$B$8/100000)</f>
+        <v>319.84548527281504</v>
+      </c>
+      <c r="V27" s="18">
+        <f>L27/(age_distribution_2016!$B$9/100000)</f>
+        <v>283.4077217628838</v>
+      </c>
+      <c r="W27" s="18">
+        <f>M27/(age_distribution_2016!$B$10/100000)</f>
+        <v>343.92350400987044</v>
+      </c>
+      <c r="X27" s="18">
+        <f>N27/(age_distribution_2016!$B$11/100000)</f>
+        <v>872.42548454025609</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" ref="Y27" si="99">E27*100/SUM($E27:$N27)</f>
+        <v>0.66059632208534191</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" ref="Z27" si="100">F27*100/SUM($E27:$N27)</f>
+        <v>0.60703445813247636</v>
+      </c>
+      <c r="AA27" s="3">
+        <f t="shared" ref="AA27" si="101">G27*100/SUM($E27:$N27)</f>
+        <v>3.1601499732190681</v>
+      </c>
+      <c r="AB27" s="3">
+        <f t="shared" ref="AB27" si="102">H27*100/SUM($E27:$N27)</f>
+        <v>13.979646491697912</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" ref="AC27" si="103">I27*100/SUM($E27:$N27)</f>
+        <v>15.83645777539725</v>
+      </c>
+      <c r="AD27" s="3">
+        <f t="shared" ref="AD27" si="104">J27*100/SUM($E27:$N27)</f>
+        <v>17.24692019282271</v>
+      </c>
+      <c r="AE27" s="3">
+        <f t="shared" ref="AE27" si="105">K27*100/SUM($E27:$N27)</f>
+        <v>14.783074450990895</v>
+      </c>
+      <c r="AF27" s="3">
+        <f t="shared" ref="AF27" si="106">L27*100/SUM($E27:$N27)</f>
+        <v>10.373147652204963</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" ref="AG27" si="107">M27*100/SUM($E27:$N27)</f>
+        <v>7.9628637743260136</v>
+      </c>
+      <c r="AH27" s="3">
+        <f t="shared" ref="AH27" si="108">N27*100/SUM($E27:$N27)</f>
+        <v>15.39010890912337</v>
+      </c>
+      <c r="AI27" s="3">
+        <f t="shared" ref="AI27" si="109">O27*100/SUM($O27:$X27)</f>
+        <v>1.2796873026456062</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" ref="AJ27" si="110">P27*100/SUM($O27:$X27)</f>
+        <v>1.1130684702520348</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" ref="AK27" si="111">Q27*100/SUM($O27:$X27)</f>
+        <v>3.2141735450104298</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" ref="AL27" si="112">R27*100/SUM($O27:$X27)</f>
+        <v>9.1251881184658963</v>
+      </c>
+      <c r="AM27" s="3">
+        <f t="shared" ref="AM27" si="113">S27*100/SUM($O27:$X27)</f>
+        <v>10.11472698963666</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" ref="AN27" si="114">T27*100/SUM($O27:$X27)</f>
+        <v>12.972182878264002</v>
+      </c>
+      <c r="AO27" s="3">
+        <f t="shared" ref="AO27" si="115">U27*100/SUM($O27:$X27)</f>
+        <v>10.93002824180307</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" ref="AP27" si="116">V27*100/SUM($O27:$X27)</f>
+        <v>9.6848464194240993</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" ref="AQ27" si="117">W27*100/SUM($O27:$X27)</f>
+        <v>11.752842497187048</v>
+      </c>
+      <c r="AR27" s="3">
+        <f t="shared" si="22"/>
+        <v>29.813255537311154</v>
       </c>
     </row>
   </sheetData>
@@ -9453,7 +9726,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9710,11 +9983,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -9724,7 +9997,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -9736,7 +10009,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -9746,7 +10019,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -9758,7 +10031,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -9768,7 +10041,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -9780,7 +10053,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -9790,7 +10063,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -9802,7 +10075,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -9812,7 +10085,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -9824,7 +10097,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -9834,7 +10107,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -9842,11 +10115,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4630</v>
+        <v>4628</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -9856,7 +10129,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -9868,7 +10141,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -9878,7 +10151,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -9886,11 +10159,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5262</v>
+        <v>5403</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -9900,7 +10173,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27:G28" si="3">C27-F27</f>
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -9908,7 +10181,7 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>355</v>
+        <v>214</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -9935,8 +10208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L2:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9979,10 +10252,10 @@
         <v>236</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -10023,8 +10296,8 @@
       <c r="K2" s="7">
         <v>247</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>102</v>
+      <c r="L2" s="7">
+        <v>277</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -10065,8 +10338,8 @@
       <c r="K3" s="9">
         <v>59</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>102</v>
+      <c r="L3" s="9">
+        <v>67</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -10107,8 +10380,8 @@
       <c r="K4" s="7">
         <v>5</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>102</v>
+      <c r="L4" s="7">
+        <v>5</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -10149,8 +10422,8 @@
       <c r="K5" s="9">
         <v>14</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>102</v>
+      <c r="L5" s="9">
+        <v>14</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -10191,8 +10464,8 @@
       <c r="K6" s="7">
         <v>501</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>102</v>
+      <c r="L6" s="7">
+        <v>522</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -10233,8 +10506,8 @@
       <c r="K7" s="9">
         <v>262</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>102</v>
+      <c r="L7" s="9">
+        <v>264</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -10275,8 +10548,8 @@
       <c r="K8" s="7">
         <v>66</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>102</v>
+      <c r="L8" s="7">
+        <v>68</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -10317,8 +10590,8 @@
       <c r="K9" s="9">
         <v>37</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>102</v>
+      <c r="L9" s="9">
+        <v>37</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -10359,8 +10632,8 @@
       <c r="K10" s="7">
         <v>29</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>102</v>
+      <c r="L10" s="7">
+        <v>29</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -10401,8 +10674,8 @@
       <c r="K11" s="9">
         <v>14</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>102</v>
+      <c r="L11" s="9">
+        <v>15</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -10443,8 +10716,8 @@
       <c r="K12" s="7">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>102</v>
+      <c r="L12" s="7">
+        <v>83</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -10485,8 +10758,8 @@
       <c r="K13" s="9">
         <v>286</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>102</v>
+      <c r="L13" s="9">
+        <v>298</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -10527,8 +10800,8 @@
       <c r="K14" s="7">
         <v>19</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
+      <c r="L14" s="7">
+        <v>22</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -10569,8 +10842,8 @@
       <c r="K15" s="9">
         <v>213</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>102</v>
+      <c r="L15" s="9">
+        <v>232</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -10611,8 +10884,8 @@
       <c r="K16" s="7">
         <v>6</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
+      <c r="L16" s="7">
+        <v>7</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -10653,8 +10926,8 @@
       <c r="K17" s="9">
         <v>193</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>102</v>
+      <c r="L17" s="9">
+        <v>238</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -10695,8 +10968,8 @@
       <c r="K18" s="7">
         <v>5</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>102</v>
+      <c r="L18" s="7">
+        <v>5</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -10737,8 +11010,8 @@
       <c r="K19" s="9">
         <v>44</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>102</v>
+      <c r="L19" s="9">
+        <v>44</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -10779,8 +11052,8 @@
       <c r="K20" s="7">
         <v>139</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
+      <c r="L20" s="7">
+        <v>143</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -10821,8 +11094,8 @@
       <c r="K21" s="9">
         <v>75</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>102</v>
+      <c r="L21" s="9">
+        <v>78</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -10863,8 +11136,8 @@
       <c r="K22" s="7">
         <v>220</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
+      <c r="L22" s="7">
+        <v>232</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -10905,8 +11178,8 @@
       <c r="K23" s="9">
         <v>32</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>102</v>
+      <c r="L23" s="9">
+        <v>33</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -10947,8 +11220,8 @@
       <c r="K24" s="7">
         <v>180</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>102</v>
+      <c r="L24" s="7">
+        <v>194</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -10989,8 +11262,8 @@
       <c r="K25" s="9">
         <v>247</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>102</v>
+      <c r="L25" s="9">
+        <v>260</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -11031,8 +11304,8 @@
       <c r="K26" s="7">
         <v>5</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>102</v>
+      <c r="L26" s="7">
+        <v>5</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -11073,8 +11346,8 @@
       <c r="K27" s="9">
         <v>163</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>102</v>
+      <c r="L27" s="9">
+        <v>167</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -11115,8 +11388,8 @@
       <c r="K28" s="7">
         <v>124</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>102</v>
+      <c r="L28" s="7">
+        <v>139</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -11154,11 +11427,11 @@
       <c r="J29" s="20">
         <v>1</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="20">
         <v>2</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>102</v>
+      <c r="L29" s="20">
+        <v>2</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -11199,8 +11472,8 @@
       <c r="K30" s="7">
         <v>184</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>102</v>
+      <c r="L30" s="7">
+        <v>210</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -11241,8 +11514,8 @@
       <c r="K31" s="9">
         <v>154</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>102</v>
+      <c r="L31" s="9">
+        <v>174</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -11283,8 +11556,8 @@
       <c r="K32" s="7">
         <v>174</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>102</v>
+      <c r="L32" s="7">
+        <v>185</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -11325,8 +11598,8 @@
       <c r="K33" s="9">
         <v>242</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>102</v>
+      <c r="L33" s="9">
+        <v>266</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -11367,8 +11640,8 @@
       <c r="K34" s="7">
         <v>57</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>102</v>
+      <c r="L34" s="7">
+        <v>57</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -11409,8 +11682,8 @@
       <c r="K35" s="9">
         <v>1181</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>102</v>
+      <c r="L35" s="9">
+        <v>1245</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -11451,8 +11724,8 @@
       <c r="K36" s="11">
         <v>5262</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>102</v>
+      <c r="L36" s="11">
+        <v>5617</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -11492,10 +11765,10 @@
         <v>236</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -11536,8 +11809,8 @@
       <c r="K39" s="7">
         <v>1145</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>102</v>
+      <c r="L39" s="7">
+        <v>1178</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -11578,8 +11851,8 @@
       <c r="K40" s="9">
         <v>673</v>
       </c>
-      <c r="L40" s="9" t="s">
-        <v>102</v>
+      <c r="L40" s="9">
+        <v>639</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -11620,8 +11893,8 @@
       <c r="K41" s="7">
         <v>827</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>102</v>
+      <c r="L41" s="7">
+        <v>908</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -11662,8 +11935,8 @@
       <c r="K42" s="9">
         <v>788</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>102</v>
+      <c r="L42" s="9">
+        <v>877</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -11704,8 +11977,8 @@
       <c r="K43" s="7">
         <v>639</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>102</v>
+      <c r="L43" s="7">
+        <v>661</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -11746,8 +12019,8 @@
       <c r="K44" s="9">
         <v>1190</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>102</v>
+      <c r="L44" s="9">
+        <v>1254</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -11788,8 +12061,8 @@
       <c r="K45" s="11">
         <v>5262</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>102</v>
+      <c r="L45" s="11">
+        <v>5617</v>
       </c>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -11827,10 +12100,10 @@
         <v>236</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -11867,10 +12140,10 @@
         <v>230</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -11907,10 +12180,10 @@
         <v>231</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -11947,10 +12220,10 @@
         <v>232</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>102</v>
+        <v>241</v>
+      </c>
+      <c r="L50" s="7">
+        <v>167.4</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -11987,10 +12260,10 @@
         <v>233</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -12027,10 +12300,10 @@
         <v>234</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -12054,7 +12327,7 @@
         <v>235</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -12089,10 +12362,10 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -12130,10 +12403,10 @@
         <v>236</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
@@ -12172,8 +12445,8 @@
       <c r="K57" s="7">
         <v>36</v>
       </c>
-      <c r="L57" s="7" t="s">
-        <v>102</v>
+      <c r="L57" s="7">
+        <v>37</v>
       </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -12212,8 +12485,8 @@
       <c r="K58" s="9">
         <v>33</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>102</v>
+      <c r="L58" s="9">
+        <v>34</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -12252,8 +12525,8 @@
       <c r="K59" s="7">
         <v>171</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>102</v>
+      <c r="L59" s="7">
+        <v>177</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -12292,8 +12565,8 @@
       <c r="K60" s="9">
         <v>751</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>102</v>
+      <c r="L60" s="9">
+        <v>783</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -12332,8 +12605,8 @@
       <c r="K61" s="7">
         <v>846</v>
       </c>
-      <c r="L61" s="7" t="s">
-        <v>102</v>
+      <c r="L61" s="7">
+        <v>887</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -12372,8 +12645,8 @@
       <c r="K62" s="9">
         <v>908</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>102</v>
+      <c r="L62" s="9">
+        <v>966</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -12412,8 +12685,8 @@
       <c r="K63" s="7">
         <v>771</v>
       </c>
-      <c r="L63" s="7" t="s">
-        <v>102</v>
+      <c r="L63" s="7">
+        <v>828</v>
       </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -12452,8 +12725,8 @@
       <c r="K64" s="9">
         <v>551</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>102</v>
+      <c r="L64" s="9">
+        <v>581</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -12492,8 +12765,8 @@
       <c r="K65" s="7">
         <v>423</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>102</v>
+      <c r="L65" s="7">
+        <v>446</v>
       </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -12532,8 +12805,8 @@
       <c r="K66" s="9">
         <v>758</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>102</v>
+      <c r="L66" s="9">
+        <v>862</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -12572,8 +12845,8 @@
       <c r="K67" s="7">
         <v>14</v>
       </c>
-      <c r="L67" s="7" t="s">
-        <v>102</v>
+      <c r="L67" s="7">
+        <v>16</v>
       </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -12613,7 +12886,7 @@
         <v>5262</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
@@ -12672,17 +12945,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="B4" sqref="B4:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
         <v>228</v>
@@ -12693,141 +12966,507 @@
       <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>522</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9">
+        <v>264</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>298</v>
+      </c>
+      <c r="C15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>167</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B36">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>247</v>
       </c>
-      <c r="C4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5">
-        <v>639</v>
-      </c>
-      <c r="C5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B37" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" t="s">
         <v>251</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
-        <v>908</v>
-      </c>
-      <c r="C6">
-        <v>20.8</v>
-      </c>
-      <c r="D6">
-        <v>167.4</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7">
-        <v>788</v>
-      </c>
-      <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8">
-        <v>639</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" t="s">
         <v>253</v>
       </c>
-      <c r="D8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2127EC4-C5C9-42B8-8334-9DD16B58B36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371213B-4CC7-46CF-9C2C-D04CC54950DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="3520" windowWidth="28170" windowHeight="17470" tabRatio="765" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="12490" yWindow="3540" windowWidth="28170" windowHeight="17470" tabRatio="765" activeTab="5" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="280">
   <si>
     <t>borough</t>
   </si>
@@ -817,9 +817,6 @@
     <t>229,8</t>
   </si>
   <si>
-    <t>Territoire à confirmer²</t>
-  </si>
-  <si>
     <t>9 AVRIL, 17H</t>
   </si>
   <si>
@@ -835,226 +832,88 @@
     <t>271,9 </t>
   </si>
   <si>
-    <t>271,9</t>
-  </si>
-  <si>
-    <t>ARRONDISSEMENT OU VILLE LIÉE</t>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>206,3</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>156,6</t>
-  </si>
-  <si>
-    <t>Baie-D'Urfé    </t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t> n.p.</t>
-  </si>
-  <si>
-    <t>Beaconsfield    </t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>* 72,4</t>
-  </si>
-  <si>
-    <t>11,9</t>
-  </si>
-  <si>
-    <t>313,5</t>
-  </si>
-  <si>
-    <t>Côte-Saint-Luc    </t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>813,6</t>
-  </si>
-  <si>
-    <t>Dollard-des-Ormeaux    </t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>139,1</t>
-  </si>
-  <si>
-    <t>Dorval  </t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>194,9</t>
-  </si>
-  <si>
-    <t>Hampstead    </t>
-  </si>
-  <si>
-    <t> 0,7</t>
-  </si>
-  <si>
-    <t>* 415,9</t>
-  </si>
-  <si>
-    <t>Kirkland    </t>
-  </si>
-  <si>
-    <t>* 74,4</t>
-  </si>
-  <si>
-    <t>2,0 </t>
-  </si>
-  <si>
-    <t>186,6</t>
-  </si>
-  <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>387,8</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>* 119,5</t>
-  </si>
-  <si>
-    <t>5,3</t>
-  </si>
-  <si>
-    <t>170,6</t>
-  </si>
-  <si>
-    <t>Montréal-Est    </t>
-  </si>
-  <si>
-    <t>0,2 </t>
-  </si>
-  <si>
-    <t>n.p.</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>282,5</t>
-  </si>
-  <si>
-    <t>Montréal-Ouest    </t>
-  </si>
-  <si>
-    <t>Mont-Royal    </t>
-  </si>
-  <si>
-    <t>1,1  </t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>112,6</t>
-  </si>
-  <si>
-    <t>223,1</t>
-  </si>
-  <si>
-    <t>Pointe-Claire    </t>
-  </si>
-  <si>
-    <t>0,8 </t>
-  </si>
-  <si>
-    <t>* 105,2</t>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>181,7</t>
-  </si>
-  <si>
-    <t>5,9</t>
-  </si>
-  <si>
-    <t>186,3</t>
-  </si>
-  <si>
-    <t>Sainte-Anne-de-Bellevue    </t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>169,0</t>
-  </si>
-  <si>
-    <t>3,2 </t>
-  </si>
-  <si>
-    <t>177,5</t>
-  </si>
-  <si>
-    <t>Senneville    </t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>268,7</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>251,3</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>207,5</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>184,9</t>
-  </si>
-  <si>
-    <t>Westmount    </t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>280,6</t>
-  </si>
-  <si>
-    <t>1 245</t>
-  </si>
-  <si>
-    <t>Total à Montréal    </t>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>5 861</t>
+  </si>
+  <si>
+    <t>283,7</t>
+  </si>
+  <si>
+    <t>10 AVRIL, 17H</t>
+  </si>
+  <si>
+    <t>26,1</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>21,8</t>
+  </si>
+  <si>
+    <t>20,6</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>35,2</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>* 31,5</t>
+  </si>
+  <si>
+    <t>90,5</t>
+  </si>
+  <si>
+    <t>13,8</t>
+  </si>
+  <si>
+    <t>249,6</t>
+  </si>
+  <si>
+    <t>15,8</t>
+  </si>
+  <si>
+    <t>281,2</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>361,8</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>340,5</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>277,5</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>322,7</t>
+  </si>
+  <si>
+    <t>15,6</t>
+  </si>
+  <si>
+    <t>902,6</t>
   </si>
 </sst>
 </file>
@@ -1557,19 +1416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1609,8 +1468,11 @@
       <c r="M1" s="1">
         <v>43930</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1650,8 +1512,11 @@
       <c r="M2">
         <v>277</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1691,8 +1556,11 @@
       <c r="M3">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1732,8 +1600,11 @@
       <c r="M4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1773,8 +1644,11 @@
       <c r="M5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1814,8 +1688,11 @@
       <c r="M6">
         <v>522</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1855,8 +1732,11 @@
       <c r="M7">
         <v>264</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1896,8 +1776,11 @@
       <c r="M8">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1937,8 +1820,11 @@
       <c r="M9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1978,8 +1864,11 @@
       <c r="M10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2019,8 +1908,11 @@
       <c r="M11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2060,8 +1952,11 @@
       <c r="M12">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2101,8 +1996,11 @@
       <c r="M13">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2142,8 +2040,11 @@
       <c r="M14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2183,8 +2084,11 @@
       <c r="M15">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2224,8 +2128,11 @@
       <c r="M16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2265,8 +2172,11 @@
       <c r="M17">
         <v>238</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2306,8 +2216,11 @@
       <c r="M18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2347,8 +2260,11 @@
       <c r="M19">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2388,8 +2304,11 @@
       <c r="M20">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2429,8 +2348,11 @@
       <c r="M21">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2470,8 +2392,11 @@
       <c r="M22">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2511,8 +2436,11 @@
       <c r="M23">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2552,8 +2480,11 @@
       <c r="M24">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2593,8 +2524,11 @@
       <c r="M25">
         <v>260</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2634,8 +2568,11 @@
       <c r="M26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2675,8 +2612,11 @@
       <c r="M27">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2716,8 +2656,11 @@
       <c r="M28">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2757,8 +2700,11 @@
       <c r="M29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2798,8 +2744,11 @@
       <c r="M30">
         <v>210</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2839,8 +2788,11 @@
       <c r="M31">
         <v>174</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2880,8 +2832,11 @@
       <c r="M32">
         <v>185</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2921,8 +2876,11 @@
       <c r="M33">
         <v>266</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N33">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2962,8 +2920,11 @@
       <c r="M34">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3002,6 +2963,9 @@
       </c>
       <c r="M35">
         <v>1245</v>
+      </c>
+      <c r="N35">
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -3011,19 +2975,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3075,8 +3039,12 @@
         <f>cases!M1</f>
         <v>43930</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1">
+        <f>cases!N1</f>
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3127,8 +3095,12 @@
         <f>cases!M2/(population_2016!$B2/1000)</f>
         <v>2.063391560207084</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="3">
+        <f>cases!N2/(population_2016!$B2/1000)</f>
+        <v>2.2719654363290998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3179,8 +3151,12 @@
         <f>cases!M3/(population_2016!$B3/1000)</f>
         <v>1.5655668754089167</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="3">
+        <f>cases!N3/(population_2016!$B3/1000)</f>
+        <v>1.68240022432003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3231,8 +3207,12 @@
         <f>cases!M4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="3">
+        <f>cases!N4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -3283,8 +3263,12 @@
         <f>cases!M5/(population_2016!$B5/1000)</f>
         <v>0.72448768370937688</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="3">
+        <f>cases!N5/(population_2016!$B5/1000)</f>
+        <v>0.72448768370937688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3335,8 +3319,12 @@
         <f>cases!M6/(population_2016!$B6/1000)</f>
         <v>3.1347585875570498</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="3">
+        <f>cases!N6/(population_2016!$B6/1000)</f>
+        <v>3.2308431419649288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -3387,8 +3375,12 @@
         <f>cases!M7/(population_2016!$B7/1000)</f>
         <v>8.1360946745562135</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="3">
+        <f>cases!N7/(population_2016!$B7/1000)</f>
+        <v>8.1977317554240638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3439,8 +3431,12 @@
         <f>cases!M8/(population_2016!$B8/1000)</f>
         <v>1.3906214851019447</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="3">
+        <f>cases!N8/(population_2016!$B8/1000)</f>
+        <v>1.4519724329740895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3491,8 +3487,12 @@
         <f>cases!M9/(population_2016!$B9/1000)</f>
         <v>1.9494204425711275</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="3">
+        <f>cases!N9/(population_2016!$B9/1000)</f>
+        <v>1.9494204425711275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3543,8 +3543,12 @@
         <f>cases!M10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="3">
+        <f>cases!N10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3595,8 +3599,12 @@
         <f>cases!M11/(population_2016!$B11/1000)</f>
         <v>0.74437993151704629</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="3">
+        <f>cases!N11/(population_2016!$B11/1000)</f>
+        <v>0.74437993151704629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3647,8 +3655,12 @@
         <f>cases!M12/(population_2016!$B12/1000)</f>
         <v>1.8656297062195151</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" s="3">
+        <f>cases!N12/(population_2016!$B12/1000)</f>
+        <v>1.8881071725595091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3699,8 +3711,12 @@
         <f>cases!M13/(population_2016!$B13/1000)</f>
         <v>3.8775324320455939</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" s="3">
+        <f>cases!N13/(population_2016!$B13/1000)</f>
+        <v>4.0596983852289439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3751,8 +3767,12 @@
         <f>cases!M14/(population_2016!$B14/1000)</f>
         <v>1.1948080160755987</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14" s="3">
+        <f>cases!N14/(population_2016!$B14/1000)</f>
+        <v>1.1948080160755987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3803,8 +3823,12 @@
         <f>cases!M15/(population_2016!$B15/1000)</f>
         <v>1.7055813679938834</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" s="3">
+        <f>cases!N15/(population_2016!$B15/1000)</f>
+        <v>1.8746691760277598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3855,8 +3879,12 @@
         <f>cases!M16/(population_2016!$B16/1000)</f>
         <v>1.8181818181818181</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" s="3">
+        <f>cases!N16/(population_2016!$B16/1000)</f>
+        <v>2.0779220779220777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3907,8 +3935,12 @@
         <f>cases!M17/(population_2016!$B17/1000)</f>
         <v>2.8254624023553436</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" s="3">
+        <f>cases!N17/(population_2016!$B17/1000)</f>
+        <v>3.1222546715103165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3959,8 +3991,12 @@
         <f>cases!M18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" s="3">
+        <f>cases!N18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -4011,8 +4047,12 @@
         <f>cases!M19/(population_2016!$B19/1000)</f>
         <v>2.170053264943776</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" s="3">
+        <f>cases!N19/(population_2016!$B19/1000)</f>
+        <v>2.2193726573288619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4063,8 +4103,12 @@
         <f>cases!M20/(population_2016!$B20/1000)</f>
         <v>5.9697754028554728</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20" s="3">
+        <f>cases!N20/(population_2016!$B20/1000)</f>
+        <v>6.053268765133172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4115,8 +4159,12 @@
         <f>cases!M21/(population_2016!$B21/1000)</f>
         <v>1.1255898523745618</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" s="3">
+        <f>cases!N21/(population_2016!$B21/1000)</f>
+        <v>1.1977430480395976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4167,8 +4215,12 @@
         <f>cases!M22/(population_2016!$B22/1000)</f>
         <v>2.2307692307692308</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" s="3">
+        <f>cases!N22/(population_2016!$B22/1000)</f>
+        <v>2.2403846153846154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -4219,8 +4271,12 @@
         <f>cases!M23/(population_2016!$B23/1000)</f>
         <v>1.0516252390057361</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" s="3">
+        <f>cases!N23/(population_2016!$B23/1000)</f>
+        <v>1.0516252390057361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4271,8 +4327,12 @@
         <f>cases!M24/(population_2016!$B24/1000)</f>
         <v>1.8174493877818687</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24" s="3">
+        <f>cases!N24/(population_2016!$B24/1000)</f>
+        <v>2.0235518956746579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4323,8 +4383,12 @@
         <f>cases!M25/(population_2016!$B25/1000)</f>
         <v>1.8625976072784582</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25" s="3">
+        <f>cases!N25/(population_2016!$B25/1000)</f>
+        <v>1.9915466723977362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4375,8 +4439,12 @@
         <f>cases!M26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26" s="3">
+        <f>cases!N26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4427,8 +4495,12 @@
         <f>cases!M27/(population_2016!$B27/1000)</f>
         <v>1.6898045088436475</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27" s="3">
+        <f>cases!N27/(population_2016!$B27/1000)</f>
+        <v>1.7403974582102237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4479,8 +4551,12 @@
         <f>cases!M28/(population_2016!$B28/1000)</f>
         <v>1.7751101462231018</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N28" s="3">
+        <f>cases!N28/(population_2016!$B28/1000)</f>
+        <v>1.9538982185045652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4531,8 +4607,12 @@
         <f>cases!M29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29" s="3">
+        <f>cases!N29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4583,8 +4663,12 @@
         <f>cases!M30/(population_2016!$B30/1000)</f>
         <v>2.6871057312126525</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30" s="3">
+        <f>cases!N30/(population_2016!$B30/1000)</f>
+        <v>2.8662461132934962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4635,8 +4719,12 @@
         <f>cases!M31/(population_2016!$B31/1000)</f>
         <v>2.5133975646044289</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31" s="3">
+        <f>cases!N31/(population_2016!$B31/1000)</f>
+        <v>2.6434008869115546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4687,8 +4775,12 @@
         <f>cases!M32/(population_2016!$B32/1000)</f>
         <v>2.0746887966804981</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N32" s="3">
+        <f>cases!N32/(population_2016!$B32/1000)</f>
+        <v>2.1307614668610517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4739,8 +4831,12 @@
         <f>cases!M33/(population_2016!$B33/1000)</f>
         <v>1.8491098551994047</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N33" s="3">
+        <f>cases!N33/(population_2016!$B33/1000)</f>
+        <v>2.0298499162339332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4790,6 +4886,10 @@
       <c r="M34" s="3">
         <f>cases!M34/(population_2016!$B34/1000)</f>
         <v>2.8062229224103978</v>
+      </c>
+      <c r="N34" s="3">
+        <f>cases!N34/(population_2016!$B34/1000)</f>
+        <v>2.8554549035053167</v>
       </c>
     </row>
   </sheetData>
@@ -4799,10 +4899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AR28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4811,7 +4911,7 @@
     <col min="2" max="3" width="8.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.08984375" customWidth="1"/>
     <col min="5" max="14" width="8.6328125" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7339,8 +7439,8 @@
         <v>197</v>
       </c>
       <c r="O19" s="18">
-        <f>E19/(age_distribution_2016!$B3/100000)</f>
-        <v>15.327872778655937</v>
+        <f>E19/(age_distribution_2016!$B$2/100000)</f>
+        <v>14.57991616548205</v>
       </c>
       <c r="P19" s="18">
         <f>F19/(age_distribution_2016!$B$3/100000)</f>
@@ -7420,43 +7520,43 @@
       </c>
       <c r="AI19" s="3">
         <f t="shared" ref="AI19:AI22" si="12">O19*100/SUM($O19:$X19)</f>
-        <v>1.240098314165438</v>
+        <v>1.1802992798513701</v>
       </c>
       <c r="AJ19" s="3">
         <f t="shared" ref="AJ19:AJ22" si="13">P19*100/SUM($O19:$X19)</f>
-        <v>1.5501228927067976</v>
+        <v>1.5510614907660267</v>
       </c>
       <c r="AK19" s="3">
         <f t="shared" ref="AK19:AK22" si="14">Q19*100/SUM($O19:$X19)</f>
-        <v>4.8151214903903856</v>
+        <v>4.8180370422521746</v>
       </c>
       <c r="AL19" s="3">
         <f t="shared" ref="AL19:AL22" si="15">R19*100/SUM($O19:$X19)</f>
-        <v>12.747212056902033</v>
+        <v>12.754930482682003</v>
       </c>
       <c r="AM19" s="3">
         <f t="shared" ref="AM19:AM22" si="16">S19*100/SUM($O19:$X19)</f>
-        <v>12.553842302856021</v>
+        <v>12.56144364341861</v>
       </c>
       <c r="AN19" s="3">
         <f t="shared" ref="AN19:AN22" si="17">T19*100/SUM($O19:$X19)</f>
-        <v>14.497527780483498</v>
+        <v>14.506306020907145</v>
       </c>
       <c r="AO19" s="3">
         <f t="shared" ref="AO19:AO22" si="18">U19*100/SUM($O19:$X19)</f>
-        <v>13.063525575832582</v>
+        <v>13.071435529172318</v>
       </c>
       <c r="AP19" s="3">
         <f t="shared" ref="AP19:AP22" si="19">V19*100/SUM($O19:$X19)</f>
-        <v>12.234084346262701</v>
+        <v>12.241492073661524</v>
       </c>
       <c r="AQ19" s="3">
         <f t="shared" ref="AQ19:AQ22" si="20">W19*100/SUM($O19:$X19)</f>
-        <v>11.167456234492839</v>
+        <v>11.174218119500496</v>
       </c>
       <c r="AR19" s="3">
         <f t="shared" ref="AR19:AR21" si="21">X19*100/SUM($O19:$X19)</f>
-        <v>16.131009005907703</v>
+        <v>16.140776317788319</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
@@ -7506,8 +7606,8 @@
         <v>232</v>
       </c>
       <c r="O20" s="18">
-        <f>E20/(age_distribution_2016!$B4/100000)</f>
-        <v>9.5650556633100408</v>
+        <f>E20/(age_distribution_2016!$B$2/100000)</f>
+        <v>16.402405686167306</v>
       </c>
       <c r="P20" s="18">
         <f>F20/(age_distribution_2016!$B$3/100000)</f>
@@ -7587,43 +7687,43 @@
       </c>
       <c r="AI20" s="3">
         <f t="shared" si="12"/>
-        <v>0.71717561800625296</v>
+        <v>1.223558718028539</v>
       </c>
       <c r="AJ20" s="3">
         <f t="shared" si="13"/>
-        <v>1.4365803268297033</v>
+        <v>1.429253178313741</v>
       </c>
       <c r="AK20" s="3">
         <f t="shared" si="14"/>
-        <v>4.6217984271514077</v>
+        <v>4.5982253607143129</v>
       </c>
       <c r="AL20" s="3">
         <f t="shared" si="15"/>
-        <v>12.427200031415062</v>
+        <v>12.36381621739006</v>
       </c>
       <c r="AM20" s="3">
         <f t="shared" si="16"/>
-        <v>12.384905567861631</v>
+        <v>12.321737472937102</v>
       </c>
       <c r="AN20" s="3">
         <f t="shared" si="17"/>
-        <v>14.614183899871266</v>
+        <v>14.539645571680282</v>
       </c>
       <c r="AO20" s="3">
         <f t="shared" si="18"/>
-        <v>12.946590927089328</v>
+        <v>12.880558006599919</v>
       </c>
       <c r="AP20" s="3">
         <f t="shared" si="19"/>
-        <v>11.740283751755824</v>
+        <v>11.680403492321608</v>
       </c>
       <c r="AQ20" s="3">
         <f t="shared" si="20"/>
-        <v>11.505833608038092</v>
+        <v>11.44714914043711</v>
       </c>
       <c r="AR20" s="3">
         <f t="shared" si="21"/>
-        <v>17.60544784198143</v>
+        <v>17.51565284157731</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
@@ -7632,11 +7732,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -7673,8 +7773,8 @@
         <v>295</v>
       </c>
       <c r="O21" s="18">
-        <f>E21/(age_distribution_2016!$B5/100000)</f>
-        <v>8.1848409924119707</v>
+        <f>E21/(age_distribution_2016!$B$2/100000)</f>
+        <v>21.869874248223073</v>
       </c>
       <c r="P21" s="18">
         <f>F21/(age_distribution_2016!$B$3/100000)</f>
@@ -7754,43 +7854,43 @@
       </c>
       <c r="AI21" s="3">
         <f t="shared" si="12"/>
-        <v>0.52734993527273843</v>
+        <v>1.3967620430405514</v>
       </c>
       <c r="AJ21" s="3">
         <f t="shared" si="13"/>
-        <v>1.4196405333293498</v>
+        <v>1.4072325732764974</v>
       </c>
       <c r="AK21" s="3">
         <f t="shared" si="14"/>
-        <v>4.3824161619781581</v>
+        <v>4.3441129130949543</v>
       </c>
       <c r="AL21" s="3">
         <f t="shared" si="15"/>
-        <v>11.843400629666915</v>
+        <v>11.739886790457071</v>
       </c>
       <c r="AM21" s="3">
         <f t="shared" si="16"/>
-        <v>12.168990931845245</v>
+        <v>12.062631364179373</v>
       </c>
       <c r="AN21" s="3">
         <f t="shared" si="17"/>
-        <v>14.178541354978432</v>
+        <v>14.054617889417962</v>
       </c>
       <c r="AO21" s="3">
         <f t="shared" si="18"/>
-        <v>12.742906583360458</v>
+        <v>12.631530870895588</v>
       </c>
       <c r="AP21" s="3">
         <f t="shared" si="19"/>
-        <v>11.377131225837219</v>
+        <v>11.277692680337832</v>
       </c>
       <c r="AQ21" s="3">
         <f t="shared" si="20"/>
-        <v>12.122870747212716</v>
+        <v>12.016914279764904</v>
       </c>
       <c r="AR21" s="3">
         <f t="shared" si="21"/>
-        <v>19.236751896518761</v>
+        <v>19.068618595535266</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.35">
@@ -7799,7 +7899,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -7840,8 +7940,8 @@
         <v>361</v>
       </c>
       <c r="O22" s="18">
-        <f>E22/(age_distribution_2016!$B6/100000)</f>
-        <v>8.3423709018102947</v>
+        <f>E22/(age_distribution_2016!$B$2/100000)</f>
+        <v>22.781119008565703</v>
       </c>
       <c r="P22" s="18">
         <f>F22/(age_distribution_2016!$B$3/100000)</f>
@@ -7921,43 +8021,43 @@
       </c>
       <c r="AI22" s="3">
         <f t="shared" si="12"/>
-        <v>0.4678942297134267</v>
+        <v>1.2674487700457593</v>
       </c>
       <c r="AJ22" s="3">
         <f t="shared" si="13"/>
-        <v>1.4507208847298065</v>
+        <v>1.4390670524194793</v>
       </c>
       <c r="AK22" s="3">
         <f t="shared" si="14"/>
-        <v>4.2917625259546606</v>
+        <v>4.2572862312244464</v>
       </c>
       <c r="AL22" s="3">
         <f t="shared" si="15"/>
-        <v>11.495600740306871</v>
+        <v>11.403255062551663</v>
       </c>
       <c r="AM22" s="3">
         <f t="shared" si="16"/>
-        <v>11.940660742286649</v>
+        <v>11.844739838803529</v>
       </c>
       <c r="AN22" s="3">
         <f t="shared" si="17"/>
-        <v>14.458289318452104</v>
+        <v>14.342143972379681</v>
       </c>
       <c r="AO22" s="3">
         <f t="shared" si="18"/>
-        <v>12.479309797342776</v>
+        <v>12.379061854917969</v>
       </c>
       <c r="AP22" s="3">
         <f t="shared" si="19"/>
-        <v>10.943436758273885</v>
+        <v>10.855526686652253</v>
       </c>
       <c r="AQ22" s="3">
         <f t="shared" si="20"/>
-        <v>11.98022464872172</v>
+        <v>11.883985923157184</v>
       </c>
       <c r="AR22" s="3">
         <f t="shared" ref="AR22:AR27" si="22">X22*100/SUM($O22:$X22)</f>
-        <v>20.492100354218103</v>
+        <v>20.327484607848024</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.35">
@@ -7970,7 +8070,7 @@
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>102</v>
@@ -8007,8 +8107,8 @@
         <v>443</v>
       </c>
       <c r="O23" s="18">
-        <f>E23/(age_distribution_2016!$B7/100000)</f>
-        <v>10.610079575596817</v>
+        <f>E23/(age_distribution_2016!$B$2/100000)</f>
+        <v>24.603608529250959</v>
       </c>
       <c r="P23" s="18">
         <f>F23/(age_distribution_2016!$B$3/100000)</f>
@@ -8088,43 +8188,43 @@
       </c>
       <c r="AI23" s="3">
         <f t="shared" ref="AI23" si="33">O23*100/SUM($O23:$X23)</f>
-        <v>0.54469563009709021</v>
+        <v>1.2540800743119853</v>
       </c>
       <c r="AJ23" s="3">
         <f t="shared" ref="AJ23" si="34">P23*100/SUM($O23:$X23)</f>
-        <v>1.4262483412011995</v>
+        <v>1.4160753454696453</v>
       </c>
       <c r="AK23" s="3">
         <f t="shared" ref="AK23" si="35">Q23*100/SUM($O23:$X23)</f>
-        <v>4.0374946697262333</v>
+        <v>4.0086964479476155</v>
       </c>
       <c r="AL23" s="3">
         <f t="shared" ref="AL23" si="36">R23*100/SUM($O23:$X23)</f>
-        <v>10.889918755562032</v>
+        <v>10.812244276428896</v>
       </c>
       <c r="AM23" s="3">
         <f t="shared" ref="AM23" si="37">S23*100/SUM($O23:$X23)</f>
-        <v>11.426430170066256</v>
+        <v>11.344928918153082</v>
       </c>
       <c r="AN23" s="3">
         <f t="shared" ref="AN23" si="38">T23*100/SUM($O23:$X23)</f>
-        <v>13.940173348040345</v>
+        <v>13.840742330404732</v>
       </c>
       <c r="AO23" s="3">
         <f t="shared" ref="AO23" si="39">U23*100/SUM($O23:$X23)</f>
-        <v>12.037431510940417</v>
+        <v>11.951572172252922</v>
       </c>
       <c r="AP23" s="3">
         <f t="shared" ref="AP23" si="40">V23*100/SUM($O23:$X23)</f>
-        <v>10.843230573971258</v>
+        <v>10.765889107440707</v>
       </c>
       <c r="AQ23" s="3">
         <f t="shared" ref="AQ23" si="41">W23*100/SUM($O23:$X23)</f>
-        <v>11.836776201309821</v>
+        <v>11.752348075931689</v>
       </c>
       <c r="AR23" s="3">
         <f t="shared" si="22"/>
-        <v>23.017600799085354</v>
+        <v>22.853423251658725</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
@@ -8174,8 +8274,8 @@
         <v>549</v>
       </c>
       <c r="O24" s="18">
-        <f>E24/(age_distribution_2016!$B8/100000)</f>
-        <v>11.588604538870111</v>
+        <f>E24/(age_distribution_2016!$B$2/100000)</f>
+        <v>27.337342810278841</v>
       </c>
       <c r="P24" s="18">
         <f>F24/(age_distribution_2016!$B$3/100000)</f>
@@ -8255,43 +8355,43 @@
       </c>
       <c r="AI24" s="3">
         <f t="shared" ref="AI24" si="52">O24*100/SUM($O24:$X24)</f>
-        <v>0.52752287287092714</v>
+        <v>1.2355607964005868</v>
       </c>
       <c r="AJ24" s="3">
         <f t="shared" ref="AJ24" si="53">P24*100/SUM($O24:$X24)</f>
-        <v>1.3518663266268462</v>
+        <v>1.3422438395385712</v>
       </c>
       <c r="AK24" s="3">
         <f t="shared" ref="AK24" si="54">Q24*100/SUM($O24:$X24)</f>
-        <v>3.7251680513018282</v>
+        <v>3.6986525735735332</v>
       </c>
       <c r="AL24" s="3">
         <f t="shared" ref="AL24" si="55">R24*100/SUM($O24:$X24)</f>
-        <v>10.277018696561045</v>
+        <v>10.203867618110584</v>
       </c>
       <c r="AM24" s="3">
         <f t="shared" ref="AM24" si="56">S24*100/SUM($O24:$X24)</f>
-        <v>11.134317795689789</v>
+        <v>11.055064524034513</v>
       </c>
       <c r="AN24" s="3">
         <f t="shared" ref="AN24" si="57">T24*100/SUM($O24:$X24)</f>
-        <v>13.64864591467845</v>
+        <v>13.55149583667175</v>
       </c>
       <c r="AO24" s="3">
         <f t="shared" ref="AO24" si="58">U24*100/SUM($O24:$X24)</f>
-        <v>11.693423681972218</v>
+        <v>11.610190734911347</v>
       </c>
       <c r="AP24" s="3">
         <f t="shared" ref="AP24" si="59">V24*100/SUM($O24:$X24)</f>
-        <v>10.414023212780554</v>
+        <v>10.339896946057117</v>
       </c>
       <c r="AQ24" s="3">
         <f t="shared" ref="AQ24" si="60">W24*100/SUM($O24:$X24)</f>
-        <v>11.934825329764765</v>
+        <v>11.849874103171945</v>
       </c>
       <c r="AR24" s="3">
         <f t="shared" si="22"/>
-        <v>25.293188117753569</v>
+        <v>25.113153027530057</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
@@ -8341,8 +8441,8 @@
         <v>646</v>
       </c>
       <c r="O25" s="18">
-        <f>E25/(age_distribution_2016!$B9/100000)</f>
-        <v>16.584961342406281</v>
+        <f>E25/(age_distribution_2016!$B$2/100000)</f>
+        <v>30.982321851649356</v>
       </c>
       <c r="P25" s="18">
         <f>F25/(age_distribution_2016!$B$3/100000)</f>
@@ -8422,43 +8522,43 @@
       </c>
       <c r="AI25" s="3">
         <f t="shared" ref="AI25" si="71">O25*100/SUM($O25:$X25)</f>
-        <v>0.68612889377915209</v>
+        <v>1.2741662743359223</v>
       </c>
       <c r="AJ25" s="3">
         <f t="shared" ref="AJ25" si="72">P25*100/SUM($O25:$X25)</f>
-        <v>1.3078775623282131</v>
+        <v>1.3001336199435898</v>
       </c>
       <c r="AK25" s="3">
         <f t="shared" ref="AK25" si="73">Q25*100/SUM($O25:$X25)</f>
-        <v>3.6273560417575919</v>
+        <v>3.605878468470165</v>
       </c>
       <c r="AL25" s="3">
         <f t="shared" ref="AL25" si="74">R25*100/SUM($O25:$X25)</f>
-        <v>9.8197287059184415</v>
+        <v>9.7615860972205031</v>
       </c>
       <c r="AM25" s="3">
         <f t="shared" ref="AM25" si="75">S25*100/SUM($O25:$X25)</f>
-        <v>10.657566008962512</v>
+        <v>10.594462566017281</v>
       </c>
       <c r="AN25" s="3">
         <f t="shared" ref="AN25" si="76">T25*100/SUM($O25:$X25)</f>
-        <v>13.607288094695107</v>
+        <v>13.526719348773122</v>
       </c>
       <c r="AO25" s="3">
         <f t="shared" ref="AO25" si="77">U25*100/SUM($O25:$X25)</f>
-        <v>11.314474569192503</v>
+        <v>11.247481570994617</v>
       </c>
       <c r="AP25" s="3">
         <f t="shared" ref="AP25" si="78">V25*100/SUM($O25:$X25)</f>
-        <v>10.191032098778582</v>
+        <v>10.130691002879436</v>
       </c>
       <c r="AQ25" s="3">
         <f t="shared" ref="AQ25" si="79">W25*100/SUM($O25:$X25)</f>
-        <v>11.739944983094992</v>
+        <v>11.670432774791719</v>
       </c>
       <c r="AR25" s="3">
         <f t="shared" si="22"/>
-        <v>27.048603041492903</v>
+        <v>26.888448276573634</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
@@ -8467,11 +8567,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -8508,8 +8608,8 @@
         <v>758</v>
       </c>
       <c r="O26" s="18">
-        <f>E26/(age_distribution_2016!$B10/100000)</f>
-        <v>27.760641579272054</v>
+        <f>E26/(age_distribution_2016!$B$2/100000)</f>
+        <v>32.804811372334612</v>
       </c>
       <c r="P26" s="18">
         <f>F26/(age_distribution_2016!$B$3/100000)</f>
@@ -8589,43 +8689,43 @@
       </c>
       <c r="AI26" s="3">
         <f t="shared" ref="AI26" si="90">O26*100/SUM($O26:$X26)</f>
-        <v>1.0261064481957152</v>
+        <v>1.2102957070485933</v>
       </c>
       <c r="AJ26" s="3">
         <f t="shared" ref="AJ26" si="91">P26*100/SUM($O26:$X26)</f>
-        <v>1.1685270283264069</v>
+        <v>1.1663524131872707</v>
       </c>
       <c r="AK26" s="3">
         <f t="shared" ref="AK26" si="92">Q26*100/SUM($O26:$X26)</f>
-        <v>3.3587217363742949</v>
+        <v>3.3524711944877916</v>
       </c>
       <c r="AL26" s="3">
         <f t="shared" ref="AL26" si="93">R26*100/SUM($O26:$X26)</f>
-        <v>9.4667707425770207</v>
+        <v>9.4491531928956718</v>
       </c>
       <c r="AM26" s="3">
         <f t="shared" ref="AM26" si="94">S26*100/SUM($O26:$X26)</f>
-        <v>10.434767260356979</v>
+        <v>10.415348280472333</v>
       </c>
       <c r="AN26" s="3">
         <f t="shared" ref="AN26" si="95">T26*100/SUM($O26:$X26)</f>
-        <v>13.188750221636536</v>
+        <v>13.164206111656185</v>
       </c>
       <c r="AO26" s="3">
         <f t="shared" ref="AO26" si="96">U26*100/SUM($O26:$X26)</f>
-        <v>11.008475596304274</v>
+        <v>10.987988951913326</v>
       </c>
       <c r="AP26" s="3">
         <f t="shared" ref="AP26" si="97">V26*100/SUM($O26:$X26)</f>
-        <v>9.934592624477073</v>
+        <v>9.9161044637425455</v>
       </c>
       <c r="AQ26" s="3">
         <f t="shared" ref="AQ26" si="98">W26*100/SUM($O26:$X26)</f>
-        <v>12.056750766299654</v>
+        <v>12.034313294072128</v>
       </c>
       <c r="AR26" s="3">
         <f t="shared" si="22"/>
-        <v>28.356537575452048</v>
+        <v>28.303766390524146</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
@@ -8634,11 +8734,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5617</v>
+        <v>5712</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -8675,8 +8775,8 @@
         <v>862</v>
       </c>
       <c r="O27" s="18">
-        <f>E27/(age_distribution_2016!$B11/100000)</f>
-        <v>37.44749759627549</v>
+        <f>E27/(age_distribution_2016!$B$2/100000)</f>
+        <v>33.716056132677238</v>
       </c>
       <c r="P27" s="18">
         <f>F27/(age_distribution_2016!$B$3/100000)</f>
@@ -8715,84 +8815,251 @@
         <v>872.42548454025609</v>
       </c>
       <c r="Y27" s="3">
-        <f t="shared" ref="Y27" si="99">E27*100/SUM($E27:$N27)</f>
+        <f>E27*100/SUM($E27:$N27)</f>
         <v>0.66059632208534191</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" ref="Z27" si="100">F27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="Z27" si="99">F27*100/SUM($E27:$N27)</f>
         <v>0.60703445813247636</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" ref="AA27" si="101">G27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AA27" si="100">G27*100/SUM($E27:$N27)</f>
         <v>3.1601499732190681</v>
       </c>
       <c r="AB27" s="3">
-        <f t="shared" ref="AB27" si="102">H27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AB27" si="101">H27*100/SUM($E27:$N27)</f>
         <v>13.979646491697912</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27" si="103">I27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AC27" si="102">I27*100/SUM($E27:$N27)</f>
         <v>15.83645777539725</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" ref="AD27" si="104">J27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AD27" si="103">J27*100/SUM($E27:$N27)</f>
         <v>17.24692019282271</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" ref="AE27" si="105">K27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AE27" si="104">K27*100/SUM($E27:$N27)</f>
         <v>14.783074450990895</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" ref="AF27" si="106">L27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AF27" si="105">L27*100/SUM($E27:$N27)</f>
         <v>10.373147652204963</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" ref="AG27" si="107">M27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AG27" si="106">M27*100/SUM($E27:$N27)</f>
         <v>7.9628637743260136</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" ref="AH27" si="108">N27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AH27" si="107">N27*100/SUM($E27:$N27)</f>
         <v>15.39010890912337</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" ref="AI27" si="109">O27*100/SUM($O27:$X27)</f>
-        <v>1.2796873026456062</v>
+        <f t="shared" ref="AI27" si="108">O27*100/SUM($O27:$X27)</f>
+        <v>1.1536444121732559</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="110">P27*100/SUM($O27:$X27)</f>
-        <v>1.1130684702520348</v>
+        <f t="shared" ref="AJ27" si="109">P27*100/SUM($O27:$X27)</f>
+        <v>1.1144895999410616</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" ref="AK27" si="111">Q27*100/SUM($O27:$X27)</f>
-        <v>3.2141735450104298</v>
+        <f t="shared" ref="AK27" si="110">Q27*100/SUM($O27:$X27)</f>
+        <v>3.2182772974502631</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" ref="AL27" si="112">R27*100/SUM($O27:$X27)</f>
-        <v>9.1251881184658963</v>
+        <f t="shared" ref="AL27" si="111">R27*100/SUM($O27:$X27)</f>
+        <v>9.136838862422529</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" ref="AM27" si="113">S27*100/SUM($O27:$X27)</f>
-        <v>10.11472698963666</v>
+        <f t="shared" ref="AM27" si="112">S27*100/SUM($O27:$X27)</f>
+        <v>10.12764114470038</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" ref="AN27" si="114">T27*100/SUM($O27:$X27)</f>
-        <v>12.972182878264002</v>
+        <f t="shared" ref="AN27" si="113">T27*100/SUM($O27:$X27)</f>
+        <v>12.98874534024409</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" ref="AO27" si="115">U27*100/SUM($O27:$X27)</f>
-        <v>10.93002824180307</v>
+        <f t="shared" ref="AO27" si="114">U27*100/SUM($O27:$X27)</f>
+        <v>10.943983347038248</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" ref="AP27" si="116">V27*100/SUM($O27:$X27)</f>
-        <v>9.6848464194240993</v>
+        <f t="shared" ref="AP27" si="115">V27*100/SUM($O27:$X27)</f>
+        <v>9.697211716931081</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27" si="117">W27*100/SUM($O27:$X27)</f>
-        <v>11.752842497187048</v>
+        <f t="shared" ref="AQ27" si="116">W27*100/SUM($O27:$X27)</f>
+        <v>11.767848144952298</v>
       </c>
       <c r="AR27" s="3">
         <f t="shared" si="22"/>
-        <v>29.813255537311154</v>
+        <v>29.8513201341468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A28" s="19">
+        <v>43931</v>
+      </c>
+      <c r="B28" s="17">
+        <f>mtl_newcases!C29</f>
+        <v>5861</v>
+      </c>
+      <c r="C28" s="17">
+        <f>mtl_newcases!B29</f>
+        <v>149</v>
+      </c>
+      <c r="D28">
+        <v>135</v>
+      </c>
+      <c r="E28" cm="1">
+        <f t="array" ref="E28:N28">TRANSPOSE(santemontreal!M$57:M$66)</f>
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <v>804</v>
+      </c>
+      <c r="I28">
+        <v>924</v>
+      </c>
+      <c r="J28">
+        <v>1007</v>
+      </c>
+      <c r="K28">
+        <v>874</v>
+      </c>
+      <c r="L28">
+        <v>601</v>
+      </c>
+      <c r="M28">
+        <v>467</v>
+      </c>
+      <c r="N28">
+        <v>912</v>
+      </c>
+      <c r="O28" s="18">
+        <f>E28/(age_distribution_2016!$B$2/100000)</f>
+        <v>35.538545653362497</v>
+      </c>
+      <c r="P28" s="18">
+        <f>F28/(age_distribution_2016!$B$3/100000)</f>
+        <v>32.571729654643867</v>
+      </c>
+      <c r="Q28" s="18">
+        <f>G28/(age_distribution_2016!$B$4/100000)</f>
+        <v>95.650556633100408</v>
+      </c>
+      <c r="R28" s="18">
+        <f>H28/(age_distribution_2016!$B$5/100000)</f>
+        <v>274.19217324580103</v>
+      </c>
+      <c r="S28" s="18">
+        <f>I28/(age_distribution_2016!$B$6/100000)</f>
+        <v>308.33402853090848</v>
+      </c>
+      <c r="T28" s="18">
+        <f>J28/(age_distribution_2016!$B$7/100000)</f>
+        <v>395.71667157874055</v>
+      </c>
+      <c r="U28" s="18">
+        <f>K28/(age_distribution_2016!$B$8/100000)</f>
+        <v>337.61467889908255</v>
+      </c>
+      <c r="V28" s="18">
+        <f>L28/(age_distribution_2016!$B$9/100000)</f>
+        <v>293.16358137606397</v>
+      </c>
+      <c r="W28" s="18">
+        <f>M28/(age_distribution_2016!$B$10/100000)</f>
+        <v>360.11721159777915</v>
+      </c>
+      <c r="X28" s="18">
+        <f>N28/(age_distribution_2016!$B$11/100000)</f>
+        <v>923.03021102170942</v>
+      </c>
+      <c r="Y28" s="3">
+        <f>E28*100/SUM($E28:$N28)</f>
+        <v>0.66757959602875727</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" ref="Z28" si="117">F28*100/SUM($E28:$N28)</f>
+        <v>0.58199246833276275</v>
+      </c>
+      <c r="AA28" s="3">
+        <f t="shared" ref="AA28" si="118">G28*100/SUM($E28:$N28)</f>
+        <v>3.0811365970558029</v>
+      </c>
+      <c r="AB28" s="3">
+        <f t="shared" ref="AB28" si="119">H28*100/SUM($E28:$N28)</f>
+        <v>13.762410133515919</v>
+      </c>
+      <c r="AC28" s="3">
+        <f t="shared" ref="AC28" si="120">I28*100/SUM($E28:$N28)</f>
+        <v>15.816501198219788</v>
+      </c>
+      <c r="AD28" s="3">
+        <f t="shared" ref="AD28" si="121">J28*100/SUM($E28:$N28)</f>
+        <v>17.237247517973298</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" ref="AE28" si="122">K28*100/SUM($E28:$N28)</f>
+        <v>14.960629921259843</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" ref="AF28" si="123">L28*100/SUM($E28:$N28)</f>
+        <v>10.287572749058542</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" ref="AG28" si="124">M28*100/SUM($E28:$N28)</f>
+        <v>7.9938377268058884</v>
+      </c>
+      <c r="AH28" s="3">
+        <f t="shared" ref="AH28" si="125">N28*100/SUM($E28:$N28)</f>
+        <v>15.6110920917494</v>
+      </c>
+      <c r="AI28" s="3">
+        <f t="shared" ref="AI28" si="126">O28*100/SUM($O28:$X28)</f>
+        <v>1.1629373960894367</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" ref="AJ28" si="127">P28*100/SUM($O28:$X28)</f>
+        <v>1.0658534775217143</v>
+      </c>
+      <c r="AK28" s="3">
+        <f t="shared" ref="AK28" si="128">Q28*100/SUM($O28:$X28)</f>
+        <v>3.1299989130218773</v>
+      </c>
+      <c r="AL28" s="3">
+        <f t="shared" ref="AL28" si="129">R28*100/SUM($O28:$X28)</f>
+        <v>8.9724642953250857</v>
+      </c>
+      <c r="AM28" s="3">
+        <f t="shared" ref="AM28" si="130">S28*100/SUM($O28:$X28)</f>
+        <v>10.089697416516936</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" ref="AN28" si="131">T28*100/SUM($O28:$X28)</f>
+        <v>12.949143167636008</v>
+      </c>
+      <c r="AO28" s="3">
+        <f t="shared" ref="AO28" si="132">U28*100/SUM($O28:$X28)</f>
+        <v>11.047856020616926</v>
+      </c>
+      <c r="AP28" s="3">
+        <f t="shared" ref="AP28" si="133">V28*100/SUM($O28:$X28)</f>
+        <v>9.5932707905135146</v>
+      </c>
+      <c r="AQ28" s="3">
+        <f t="shared" ref="AQ28" si="134">W28*100/SUM($O28:$X28)</f>
+        <v>11.784212455606934</v>
+      </c>
+      <c r="AR28" s="3">
+        <f t="shared" ref="AR28" si="135">X28*100/SUM($O28:$X28)</f>
+        <v>30.204566067151575</v>
       </c>
     </row>
   </sheetData>
@@ -8802,11 +9069,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9716,6 +9983,29 @@
         <v>1341</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B40">
+        <v>12292</v>
+      </c>
+      <c r="C40">
+        <v>289</v>
+      </c>
+      <c r="D40">
+        <v>778</v>
+      </c>
+      <c r="E40">
+        <v>211</v>
+      </c>
+      <c r="F40">
+        <v>110823</v>
+      </c>
+      <c r="G40">
+        <v>1563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9723,10 +10013,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10049,11 +10339,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -10063,7 +10353,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -10075,7 +10365,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -10085,7 +10375,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -10093,7 +10383,7 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -10159,11 +10449,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -10173,7 +10463,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27:G28" si="3">C27-F27</f>
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -10181,11 +10471,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>5617</v>
+        <f>C27+B28</f>
+        <v>5712</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -10194,8 +10484,30 @@
         <v>5617</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>C28-F28</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="19">
+        <v>43931</v>
+      </c>
+      <c r="B29">
+        <v>149</v>
+      </c>
+      <c r="C29">
+        <f>C28+B29</f>
+        <v>5861</v>
+      </c>
+      <c r="E29" s="19">
+        <v>43931</v>
+      </c>
+      <c r="F29">
+        <v>5618</v>
+      </c>
+      <c r="G29">
+        <f>C29-F29</f>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -10208,8 +10520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L2:L35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10255,9 +10567,11 @@
         <v>238</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -10299,7 +10613,9 @@
       <c r="L2" s="7">
         <v>277</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7">
+        <v>305</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -10341,7 +10657,9 @@
       <c r="L3" s="9">
         <v>67</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="9">
+        <v>72</v>
+      </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -10383,7 +10701,9 @@
       <c r="L4" s="7">
         <v>5</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -10425,7 +10745,9 @@
       <c r="L5" s="9">
         <v>14</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9">
+        <v>14</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -10467,7 +10789,9 @@
       <c r="L6" s="7">
         <v>522</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7">
+        <v>538</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -10509,7 +10833,9 @@
       <c r="L7" s="9">
         <v>264</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <v>266</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -10551,7 +10877,9 @@
       <c r="L8" s="7">
         <v>68</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7">
+        <v>71</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -10593,7 +10921,9 @@
       <c r="L9" s="9">
         <v>37</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9">
+        <v>37</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -10635,7 +10965,9 @@
       <c r="L10" s="7">
         <v>29</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7">
+        <v>29</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -10677,7 +11009,9 @@
       <c r="L11" s="9">
         <v>15</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9">
+        <v>15</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -10719,7 +11053,9 @@
       <c r="L12" s="7">
         <v>83</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7">
+        <v>84</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -10761,7 +11097,9 @@
       <c r="L13" s="9">
         <v>298</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9">
+        <v>312</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -10803,7 +11141,9 @@
       <c r="L14" s="7">
         <v>22</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>22</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -10845,7 +11185,9 @@
       <c r="L15" s="9">
         <v>232</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9">
+        <v>255</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -10887,7 +11229,9 @@
       <c r="L16" s="7">
         <v>7</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -10929,7 +11273,9 @@
       <c r="L17" s="9">
         <v>238</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="9">
+        <v>263</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -10971,7 +11317,9 @@
       <c r="L18" s="7">
         <v>5</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>5</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -11013,7 +11361,9 @@
       <c r="L19" s="9">
         <v>44</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="9">
+        <v>45</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -11055,7 +11405,9 @@
       <c r="L20" s="7">
         <v>143</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="7">
+        <v>145</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -11097,7 +11449,9 @@
       <c r="L21" s="9">
         <v>78</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="9">
+        <v>83</v>
+      </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -11139,7 +11493,9 @@
       <c r="L22" s="7">
         <v>232</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="7">
+        <v>233</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -11181,7 +11537,9 @@
       <c r="L23" s="9">
         <v>33</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="9">
+        <v>33</v>
+      </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -11223,7 +11581,9 @@
       <c r="L24" s="7">
         <v>194</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7">
+        <v>216</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -11265,7 +11625,9 @@
       <c r="L25" s="9">
         <v>260</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="M25" s="9">
+        <v>278</v>
+      </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -11307,7 +11669,9 @@
       <c r="L26" s="7">
         <v>5</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7">
+        <v>5</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -11349,7 +11713,9 @@
       <c r="L27" s="9">
         <v>167</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="9">
+        <v>172</v>
+      </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -11391,7 +11757,9 @@
       <c r="L28" s="7">
         <v>139</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7">
+        <v>153</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -11433,7 +11801,9 @@
       <c r="L29" s="20">
         <v>2</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="20">
+        <v>2</v>
+      </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -11475,7 +11845,9 @@
       <c r="L30" s="7">
         <v>210</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="7">
+        <v>224</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -11517,7 +11889,9 @@
       <c r="L31" s="9">
         <v>174</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="9">
+        <v>183</v>
+      </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -11559,7 +11933,9 @@
       <c r="L32" s="7">
         <v>185</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="7">
+        <v>190</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -11601,7 +11977,9 @@
       <c r="L33" s="9">
         <v>266</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="9">
+        <v>292</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -11643,7 +12021,9 @@
       <c r="L34" s="7">
         <v>57</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="7">
+        <v>58</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -11685,7 +12065,9 @@
       <c r="L35" s="9">
         <v>1245</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="9">
+        <v>1248</v>
+      </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -11727,7 +12109,9 @@
       <c r="L36" s="11">
         <v>5617</v>
       </c>
-      <c r="M36" s="11"/>
+      <c r="M36" s="11">
+        <v>5861</v>
+      </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
@@ -11768,9 +12152,11 @@
         <v>238</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="M38" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -11812,7 +12198,9 @@
       <c r="L39" s="7">
         <v>1178</v>
       </c>
-      <c r="M39" s="7"/>
+      <c r="M39" s="7">
+        <v>1201</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -11854,7 +12242,9 @@
       <c r="L40" s="9">
         <v>639</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="9">
+        <v>768</v>
+      </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -11896,7 +12286,9 @@
       <c r="L41" s="7">
         <v>908</v>
       </c>
-      <c r="M41" s="7"/>
+      <c r="M41" s="7">
+        <v>1004</v>
+      </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -11938,7 +12330,9 @@
       <c r="L42" s="9">
         <v>877</v>
       </c>
-      <c r="M42" s="9"/>
+      <c r="M42" s="9">
+        <v>947</v>
+      </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -11980,7 +12374,9 @@
       <c r="L43" s="7">
         <v>661</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="7">
+        <v>684</v>
+      </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -12022,7 +12418,9 @@
       <c r="L44" s="9">
         <v>1254</v>
       </c>
-      <c r="M44" s="9"/>
+      <c r="M44" s="9">
+        <v>1257</v>
+      </c>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -12064,7 +12462,9 @@
       <c r="L45" s="11">
         <v>5617</v>
       </c>
-      <c r="M45" s="11"/>
+      <c r="M45" s="11">
+        <v>5861</v>
+      </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -12103,9 +12503,11 @@
         <v>238</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="M47" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -12145,7 +12547,9 @@
       <c r="L48" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M48" s="7"/>
+      <c r="M48" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -12185,7 +12589,9 @@
       <c r="L49" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="M49" s="9"/>
+      <c r="M49" s="9" t="s">
+        <v>258</v>
+      </c>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -12225,7 +12631,9 @@
       <c r="L50" s="7">
         <v>167.4</v>
       </c>
-      <c r="M50" s="7"/>
+      <c r="M50" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -12263,9 +12671,11 @@
         <v>242</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="M51" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -12303,9 +12713,11 @@
         <v>243</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M52" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
@@ -12329,7 +12741,9 @@
       <c r="L53" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="M53" s="9"/>
+      <c r="M53" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -12365,9 +12779,11 @@
         <v>244</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M54" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -12406,9 +12822,11 @@
         <v>238</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="M56" s="13"/>
+        <v>247</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
@@ -12448,7 +12866,9 @@
       <c r="L57" s="7">
         <v>37</v>
       </c>
-      <c r="M57" s="7"/>
+      <c r="M57" s="7">
+        <v>39</v>
+      </c>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
@@ -12488,7 +12908,9 @@
       <c r="L58" s="9">
         <v>34</v>
       </c>
-      <c r="M58" s="9"/>
+      <c r="M58" s="9">
+        <v>34</v>
+      </c>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
@@ -12528,7 +12950,9 @@
       <c r="L59" s="7">
         <v>177</v>
       </c>
-      <c r="M59" s="7"/>
+      <c r="M59" s="7">
+        <v>180</v>
+      </c>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
@@ -12568,7 +12992,9 @@
       <c r="L60" s="9">
         <v>783</v>
       </c>
-      <c r="M60" s="9"/>
+      <c r="M60" s="9">
+        <v>804</v>
+      </c>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
@@ -12608,7 +13034,9 @@
       <c r="L61" s="7">
         <v>887</v>
       </c>
-      <c r="M61" s="7"/>
+      <c r="M61" s="7">
+        <v>924</v>
+      </c>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
@@ -12648,7 +13076,9 @@
       <c r="L62" s="9">
         <v>966</v>
       </c>
-      <c r="M62" s="9"/>
+      <c r="M62" s="9">
+        <v>1007</v>
+      </c>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
@@ -12688,7 +13118,9 @@
       <c r="L63" s="7">
         <v>828</v>
       </c>
-      <c r="M63" s="7"/>
+      <c r="M63" s="7">
+        <v>874</v>
+      </c>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
@@ -12728,7 +13160,9 @@
       <c r="L64" s="9">
         <v>581</v>
       </c>
-      <c r="M64" s="9"/>
+      <c r="M64" s="9">
+        <v>601</v>
+      </c>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
@@ -12768,7 +13202,9 @@
       <c r="L65" s="7">
         <v>446</v>
       </c>
-      <c r="M65" s="7"/>
+      <c r="M65" s="7">
+        <v>467</v>
+      </c>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
@@ -12808,7 +13244,9 @@
       <c r="L66" s="9">
         <v>862</v>
       </c>
-      <c r="M66" s="9"/>
+      <c r="M66" s="9">
+        <v>912</v>
+      </c>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
@@ -12848,7 +13286,9 @@
       <c r="L67" s="7">
         <v>16</v>
       </c>
-      <c r="M67" s="7"/>
+      <c r="M67" s="7">
+        <v>19</v>
+      </c>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
@@ -12885,10 +13325,12 @@
       <c r="K68" s="15">
         <v>5262</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="M68" s="15"/>
+      <c r="L68" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="M68" s="15">
+        <v>5861</v>
+      </c>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
@@ -12929,6 +13371,9 @@
       </c>
       <c r="L70">
         <v>100</v>
+      </c>
+      <c r="M70">
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -12945,17 +13390,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B38"/>
+      <selection activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>228</v>
@@ -12979,108 +13424,108 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>804</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>522</v>
+        <v>924</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9">
-        <v>264</v>
+        <v>92</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1007</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>874</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>601</v>
       </c>
       <c r="C11" t="s">
         <v>274</v>
@@ -13091,382 +13536,62 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
         <v>276</v>
       </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>277</v>
-      </c>
-      <c r="D12" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>912</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
         <v>279</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
-        <v>298</v>
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>232</v>
-      </c>
-      <c r="C17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19">
-        <v>238</v>
-      </c>
-      <c r="C19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24">
-        <v>232</v>
-      </c>
-      <c r="C24" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>302</v>
-      </c>
-      <c r="D25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26">
-        <v>194</v>
-      </c>
-      <c r="C26" t="s">
-        <v>304</v>
-      </c>
-      <c r="D26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27">
-        <v>260</v>
-      </c>
-      <c r="C27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29">
-        <v>167</v>
-      </c>
-      <c r="C29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>311</v>
-      </c>
-      <c r="D30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>313</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32">
-        <v>210</v>
-      </c>
-      <c r="C32" t="s">
-        <v>314</v>
-      </c>
-      <c r="D32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33">
-        <v>174</v>
-      </c>
-      <c r="C33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34">
-        <v>185</v>
-      </c>
-      <c r="C34" t="s">
-        <v>318</v>
-      </c>
-      <c r="D34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35">
-        <v>266</v>
-      </c>
-      <c r="C35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B36">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>323</v>
-      </c>
-      <c r="D36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" t="s">
-        <v>325</v>
-      </c>
-      <c r="C37" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>326</v>
-      </c>
-      <c r="B38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" t="s">
-        <v>253</v>
-      </c>
-    </row>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13770,7 +13895,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371213B-4CC7-46CF-9C2C-D04CC54950DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870074B-ABD2-4BC2-A1A8-D7EADA41A84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12490" yWindow="3540" windowWidth="28170" windowHeight="17470" tabRatio="765" activeTab="5" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18190" yWindow="3120" windowWidth="20810" windowHeight="17470" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="288">
   <si>
     <t>borough</t>
   </si>
@@ -832,18 +832,9 @@
     <t>271,9 </t>
   </si>
   <si>
-    <t>3,1</t>
-  </si>
-  <si>
     <t>0,7</t>
   </si>
   <si>
-    <t>5 861</t>
-  </si>
-  <si>
-    <t>283,7</t>
-  </si>
-  <si>
     <t>10 AVRIL, 17H</t>
   </si>
   <si>
@@ -862,58 +853,91 @@
     <t>14,9</t>
   </si>
   <si>
-    <t>35,2</t>
-  </si>
-  <si>
     <t>0,6</t>
   </si>
   <si>
     <t>* 31,5</t>
   </si>
   <si>
-    <t>90,5</t>
-  </si>
-  <si>
-    <t>13,8</t>
-  </si>
-  <si>
-    <t>249,6</t>
-  </si>
-  <si>
-    <t>15,8</t>
-  </si>
-  <si>
-    <t>281,2</t>
-  </si>
-  <si>
-    <t>17,2</t>
-  </si>
-  <si>
-    <t>361,8</t>
-  </si>
-  <si>
-    <t>15,0</t>
-  </si>
-  <si>
-    <t>340,5</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>277,5</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>322,7</t>
-  </si>
-  <si>
-    <t>15,6</t>
-  </si>
-  <si>
-    <t>902,6</t>
+    <t>11 ARIL, 17H</t>
+  </si>
+  <si>
+    <t>325,3</t>
+  </si>
+  <si>
+    <t>242,2</t>
+  </si>
+  <si>
+    <t>201,9</t>
+  </si>
+  <si>
+    <t>224,6</t>
+  </si>
+  <si>
+    <t>184,3</t>
+  </si>
+  <si>
+    <t>6 088</t>
+  </si>
+  <si>
+    <t>294,7</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>37,9</t>
+  </si>
+  <si>
+    <t>91,0</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>255,2</t>
+  </si>
+  <si>
+    <t>15,4</t>
+  </si>
+  <si>
+    <t>285,2</t>
+  </si>
+  <si>
+    <t>1 055</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <t>379,0</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>347,5</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>283,1</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>340,7</t>
+  </si>
+  <si>
+    <t>1 000</t>
+  </si>
+  <si>
+    <t>16,5</t>
+  </si>
+  <si>
+    <t>989,7</t>
   </si>
 </sst>
 </file>
@@ -1416,19 +1440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N35"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1495,11 @@
       <c r="N1" s="1">
         <v>43931</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1515,8 +1542,11 @@
       <c r="N2">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1559,8 +1589,11 @@
       <c r="N3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1603,8 +1636,11 @@
       <c r="N4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1647,8 +1683,11 @@
       <c r="N5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1691,8 +1730,11 @@
       <c r="N6">
         <v>538</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1735,8 +1777,11 @@
       <c r="N7">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1779,8 +1824,11 @@
       <c r="N8">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1823,8 +1871,11 @@
       <c r="N9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1867,8 +1918,11 @@
       <c r="N10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1911,8 +1965,11 @@
       <c r="N11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1955,8 +2012,11 @@
       <c r="N12">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1999,8 +2059,11 @@
       <c r="N13">
         <v>312</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2043,8 +2106,11 @@
       <c r="N14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2087,8 +2153,11 @@
       <c r="N15">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2131,8 +2200,11 @@
       <c r="N16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2175,8 +2247,11 @@
       <c r="N17">
         <v>263</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2219,8 +2294,11 @@
       <c r="N18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2263,8 +2341,11 @@
       <c r="N19">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2307,8 +2388,11 @@
       <c r="N20">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2435,11 @@
       <c r="N21">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2395,8 +2482,11 @@
       <c r="N22">
         <v>233</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2439,8 +2529,11 @@
       <c r="N23">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2576,11 @@
       <c r="N24">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2527,8 +2623,11 @@
       <c r="N25">
         <v>278</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2571,8 +2670,11 @@
       <c r="N26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2615,8 +2717,11 @@
       <c r="N27">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2659,8 +2764,11 @@
       <c r="N28">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2703,8 +2811,11 @@
       <c r="N29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2747,8 +2858,11 @@
       <c r="N30">
         <v>224</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O30">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2791,8 +2905,11 @@
       <c r="N31">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O31">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2835,8 +2952,11 @@
       <c r="N32">
         <v>190</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2879,8 +2999,11 @@
       <c r="N33">
         <v>292</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2923,8 +3046,11 @@
       <c r="N34">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2966,6 +3092,9 @@
       </c>
       <c r="N35">
         <v>1248</v>
+      </c>
+      <c r="O35">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
@@ -2975,19 +3104,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3043,8 +3172,12 @@
         <f>cases!N1</f>
         <v>43931</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1">
+        <f>cases!O1</f>
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3099,8 +3232,12 @@
         <f>cases!N2/(population_2016!$B2/1000)</f>
         <v>2.2719654363290998</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="3">
+        <f>cases!O2/(population_2016!$B2/1000)</f>
+        <v>2.4805393124511155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3155,8 +3292,12 @@
         <f>cases!N3/(population_2016!$B3/1000)</f>
         <v>1.68240022432003</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="3">
+        <f>cases!O3/(population_2016!$B3/1000)</f>
+        <v>1.8927002523600336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3211,8 +3352,12 @@
         <f>cases!N4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="3">
+        <f>cases!O4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -3267,8 +3412,12 @@
         <f>cases!N5/(population_2016!$B5/1000)</f>
         <v>0.72448768370937688</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="3">
+        <f>cases!O5/(population_2016!$B5/1000)</f>
+        <v>0.72448768370937688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3323,8 +3472,12 @@
         <f>cases!N6/(population_2016!$B6/1000)</f>
         <v>3.2308431419649288</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="3">
+        <f>cases!O6/(population_2016!$B6/1000)</f>
+        <v>3.2608695652173911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -3379,8 +3532,12 @@
         <f>cases!N7/(population_2016!$B7/1000)</f>
         <v>8.1977317554240638</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="3">
+        <f>cases!O7/(population_2016!$B7/1000)</f>
+        <v>8.2285502958579873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3435,8 +3592,12 @@
         <f>cases!N8/(population_2016!$B8/1000)</f>
         <v>1.4519724329740895</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" s="3">
+        <f>cases!O8/(population_2016!$B8/1000)</f>
+        <v>1.472422748931471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3491,8 +3652,12 @@
         <f>cases!N9/(population_2016!$B9/1000)</f>
         <v>1.9494204425711275</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="3">
+        <f>cases!O9/(population_2016!$B9/1000)</f>
+        <v>1.9494204425711275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3547,8 +3712,12 @@
         <f>cases!N10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" s="3">
+        <f>cases!O10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3603,8 +3772,12 @@
         <f>cases!N11/(population_2016!$B11/1000)</f>
         <v>0.74437993151704629</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="3">
+        <f>cases!O11/(population_2016!$B11/1000)</f>
+        <v>0.84363058905265254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3659,8 +3832,12 @@
         <f>cases!N12/(population_2016!$B12/1000)</f>
         <v>1.8881071725595091</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="3">
+        <f>cases!O12/(population_2016!$B12/1000)</f>
+        <v>1.9105846388995034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3715,8 +3892,12 @@
         <f>cases!N13/(population_2016!$B13/1000)</f>
         <v>4.0596983852289439</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="3">
+        <f>cases!O13/(population_2016!$B13/1000)</f>
+        <v>4.0727102390277548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3771,8 +3952,12 @@
         <f>cases!N14/(population_2016!$B14/1000)</f>
         <v>1.1948080160755987</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="3">
+        <f>cases!O14/(population_2016!$B14/1000)</f>
+        <v>1.3577363819040895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3827,8 +4012,12 @@
         <f>cases!N15/(population_2016!$B15/1000)</f>
         <v>1.8746691760277598</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" s="3">
+        <f>cases!O15/(population_2016!$B15/1000)</f>
+        <v>2.0290536964065167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3883,8 +4072,12 @@
         <f>cases!N16/(population_2016!$B16/1000)</f>
         <v>2.0779220779220777</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" s="3">
+        <f>cases!O16/(population_2016!$B16/1000)</f>
+        <v>2.0779220779220777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3939,8 +4132,12 @@
         <f>cases!N17/(population_2016!$B17/1000)</f>
         <v>3.1222546715103165</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" s="3">
+        <f>cases!O17/(population_2016!$B17/1000)</f>
+        <v>3.4546620129638868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3995,8 +4192,12 @@
         <f>cases!N18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" s="3">
+        <f>cases!O18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -4051,8 +4252,12 @@
         <f>cases!N19/(population_2016!$B19/1000)</f>
         <v>2.2193726573288619</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" s="3">
+        <f>cases!O19/(population_2016!$B19/1000)</f>
+        <v>2.2686920497139473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4107,8 +4312,12 @@
         <f>cases!N20/(population_2016!$B20/1000)</f>
         <v>6.053268765133172</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20" s="3">
+        <f>cases!O20/(population_2016!$B20/1000)</f>
+        <v>6.011522083994322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4163,8 +4372,12 @@
         <f>cases!N21/(population_2016!$B21/1000)</f>
         <v>1.1977430480395976</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21" s="3">
+        <f>cases!O21/(population_2016!$B21/1000)</f>
+        <v>1.2410349654386192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4219,8 +4432,12 @@
         <f>cases!N22/(population_2016!$B22/1000)</f>
         <v>2.2403846153846154</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="3">
+        <f>cases!O22/(population_2016!$B22/1000)</f>
+        <v>2.2596153846153846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -4275,8 +4492,12 @@
         <f>cases!N23/(population_2016!$B23/1000)</f>
         <v>1.0516252390057361</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23" s="3">
+        <f>cases!O23/(population_2016!$B23/1000)</f>
+        <v>1.0516252390057361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4331,8 +4552,12 @@
         <f>cases!N24/(population_2016!$B24/1000)</f>
         <v>2.0235518956746579</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24" s="3">
+        <f>cases!O24/(population_2016!$B24/1000)</f>
+        <v>2.2015495161275211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4387,8 +4612,12 @@
         <f>cases!N25/(population_2016!$B25/1000)</f>
         <v>1.9915466723977362</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25" s="3">
+        <f>cases!O25/(population_2016!$B25/1000)</f>
+        <v>2.1563149222723692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4443,8 +4672,12 @@
         <f>cases!N26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26" s="3">
+        <f>cases!O26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4499,8 +4732,12 @@
         <f>cases!N27/(population_2016!$B27/1000)</f>
         <v>1.7403974582102237</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27" s="3">
+        <f>cases!O27/(population_2016!$B27/1000)</f>
+        <v>1.831464767070061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4555,8 +4792,12 @@
         <f>cases!N28/(population_2016!$B28/1000)</f>
         <v>1.9538982185045652</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" s="3">
+        <f>cases!O28/(population_2016!$B28/1000)</f>
+        <v>2.145456867377562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4611,8 +4852,12 @@
         <f>cases!N29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O29" s="3">
+        <f>cases!O29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4667,8 +4912,12 @@
         <f>cases!N30/(population_2016!$B30/1000)</f>
         <v>2.8662461132934962</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O30" s="3">
+        <f>cases!O30/(population_2016!$B30/1000)</f>
+        <v>2.9046333380251053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4723,8 +4972,12 @@
         <f>cases!N31/(population_2016!$B31/1000)</f>
         <v>2.6434008869115546</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O31" s="3">
+        <f>cases!O31/(population_2016!$B31/1000)</f>
+        <v>2.6867353276805965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4779,8 +5032,12 @@
         <f>cases!N32/(population_2016!$B32/1000)</f>
         <v>2.1307614668610517</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32" s="3">
+        <f>cases!O32/(population_2016!$B32/1000)</f>
+        <v>2.1644050689693843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4835,8 +5092,12 @@
         <f>cases!N33/(population_2016!$B33/1000)</f>
         <v>2.0298499162339332</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" s="3">
+        <f>cases!O33/(population_2016!$B33/1000)</f>
+        <v>2.0993653243241361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4890,6 +5151,10 @@
       <c r="N34" s="3">
         <f>cases!N34/(population_2016!$B34/1000)</f>
         <v>2.8554549035053167</v>
+      </c>
+      <c r="O34" s="3">
+        <f>cases!O34/(population_2016!$B34/1000)</f>
+        <v>2.9046868846002361</v>
       </c>
     </row>
   </sheetData>
@@ -4899,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR28"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AR18" sqref="AR18"/>
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6823,11 +7088,11 @@
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>102</v>
@@ -6959,7 +7224,7 @@
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
@@ -7095,11 +7360,11 @@
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>102</v>
@@ -7231,7 +7496,7 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
@@ -7398,11 +7663,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>102</v>
@@ -7565,11 +7830,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3243</v>
+        <v>3237</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>102</v>
@@ -7732,11 +7997,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3607</v>
+        <v>3598</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -7899,7 +8164,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3930</v>
+        <v>3921</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -8066,11 +8331,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4195</v>
+        <v>4183</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>102</v>
@@ -8233,11 +8498,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4628</v>
+        <v>4615</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -8400,7 +8665,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5050</v>
+        <v>5037</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
@@ -8567,11 +8832,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5402</v>
+        <v>5386</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -8734,7 +8999,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5712</v>
+        <v>5696</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
@@ -8901,11 +9166,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5861</v>
+        <v>5952</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -9060,6 +9325,173 @@
       <c r="AR28" s="3">
         <f t="shared" ref="AR28" si="135">X28*100/SUM($O28:$X28)</f>
         <v>30.204566067151575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A29" s="19">
+        <v>43932</v>
+      </c>
+      <c r="B29" s="17">
+        <f>mtl_newcases!C30</f>
+        <v>6088</v>
+      </c>
+      <c r="C29" s="17">
+        <f>mtl_newcases!B30</f>
+        <v>136</v>
+      </c>
+      <c r="D29">
+        <v>147</v>
+      </c>
+      <c r="E29" cm="1">
+        <f t="array" ref="E29:N29">TRANSPOSE(santemontreal!N$57:N$66)</f>
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>181</v>
+      </c>
+      <c r="H29">
+        <v>822</v>
+      </c>
+      <c r="I29">
+        <v>937</v>
+      </c>
+      <c r="J29">
+        <v>1055</v>
+      </c>
+      <c r="K29">
+        <v>892</v>
+      </c>
+      <c r="L29">
+        <v>613</v>
+      </c>
+      <c r="M29">
+        <v>493</v>
+      </c>
+      <c r="N29">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="18">
+        <f>E29/(age_distribution_2016!$B$2/100000)</f>
+        <v>38.272279934390383</v>
+      </c>
+      <c r="P29" s="18">
+        <f>F29/(age_distribution_2016!$B$3/100000)</f>
+        <v>32.571729654643867</v>
+      </c>
+      <c r="Q29" s="18">
+        <f>G29/(age_distribution_2016!$B$4/100000)</f>
+        <v>96.181948614395409</v>
+      </c>
+      <c r="R29" s="18">
+        <f>H29/(age_distribution_2016!$B$5/100000)</f>
+        <v>280.33080399010998</v>
+      </c>
+      <c r="S29" s="18">
+        <f>I29/(age_distribution_2016!$B$6/100000)</f>
+        <v>312.67206139984984</v>
+      </c>
+      <c r="T29" s="18">
+        <f>J29/(age_distribution_2016!$B$7/100000)</f>
+        <v>414.5790352686904</v>
+      </c>
+      <c r="U29" s="18">
+        <f>K29/(age_distribution_2016!$B$8/100000)</f>
+        <v>344.56784162240461</v>
+      </c>
+      <c r="V29" s="18">
+        <f>L29/(age_distribution_2016!$B$9/100000)</f>
+        <v>299.01709714397208</v>
+      </c>
+      <c r="W29" s="18">
+        <f>M29/(age_distribution_2016!$B$10/100000)</f>
+        <v>380.16656384947566</v>
+      </c>
+      <c r="X29" s="18">
+        <f>N29/(age_distribution_2016!$B$11/100000)</f>
+        <v>1012.0945296290673</v>
+      </c>
+      <c r="Y29" s="3">
+        <f>E29*100/SUM($E29:$N29)</f>
+        <v>0.69204152249134943</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" ref="Z29" si="136">F29*100/SUM($E29:$N29)</f>
+        <v>0.56022408963585435</v>
+      </c>
+      <c r="AA29" s="3">
+        <f t="shared" ref="AA29" si="137">G29*100/SUM($E29:$N29)</f>
+        <v>2.9823694183555776</v>
+      </c>
+      <c r="AB29" s="3">
+        <f t="shared" ref="AB29" si="138">H29*100/SUM($E29:$N29)</f>
+        <v>13.544241225902125</v>
+      </c>
+      <c r="AC29" s="3">
+        <f t="shared" ref="AC29" si="139">I29*100/SUM($E29:$N29)</f>
+        <v>15.439116823199868</v>
+      </c>
+      <c r="AD29" s="3">
+        <f t="shared" ref="AD29" si="140">J29*100/SUM($E29:$N29)</f>
+        <v>17.383423957818422</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" ref="AE29" si="141">K29*100/SUM($E29:$N29)</f>
+        <v>14.697643763387708</v>
+      </c>
+      <c r="AF29" s="3">
+        <f t="shared" ref="AF29" si="142">L29*100/SUM($E29:$N29)</f>
+        <v>10.100510792552315</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" ref="AG29" si="143">M29*100/SUM($E29:$N29)</f>
+        <v>8.1232492997198875</v>
+      </c>
+      <c r="AH29" s="3">
+        <f t="shared" ref="AH29" si="144">N29*100/SUM($E29:$N29)</f>
+        <v>16.477179106936891</v>
+      </c>
+      <c r="AI29" s="3">
+        <f t="shared" ref="AI29" si="145">O29*100/SUM($O29:$X29)</f>
+        <v>1.1921143001120531</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" ref="AJ29" si="146">P29*100/SUM($O29:$X29)</f>
+        <v>1.0145521711078922</v>
+      </c>
+      <c r="AK29" s="3">
+        <f t="shared" ref="AK29" si="147">Q29*100/SUM($O29:$X29)</f>
+        <v>2.9958987693553456</v>
+      </c>
+      <c r="AL29" s="3">
+        <f t="shared" ref="AL29" si="148">R29*100/SUM($O29:$X29)</f>
+        <v>8.7318121829013062</v>
+      </c>
+      <c r="AM29" s="3">
+        <f t="shared" ref="AM29" si="149">S29*100/SUM($O29:$X29)</f>
+        <v>9.7391855483723244</v>
+      </c>
+      <c r="AN29" s="3">
+        <f t="shared" ref="AN29" si="150">T29*100/SUM($O29:$X29)</f>
+        <v>12.913408799206865</v>
+      </c>
+      <c r="AO29" s="3">
+        <f t="shared" ref="AO29" si="151">U29*100/SUM($O29:$X29)</f>
+        <v>10.732683081880172</v>
+      </c>
+      <c r="AP29" s="3">
+        <f t="shared" ref="AP29" si="152">V29*100/SUM($O29:$X29)</f>
+        <v>9.3138573948142813</v>
+      </c>
+      <c r="AQ29" s="3">
+        <f t="shared" ref="AQ29" si="153">W29*100/SUM($O29:$X29)</f>
+        <v>11.841520755135035</v>
+      </c>
+      <c r="AR29" s="3">
+        <f t="shared" ref="AR29" si="154">X29*100/SUM($O29:$X29)</f>
+        <v>31.524966997114731</v>
       </c>
     </row>
   </sheetData>
@@ -9069,11 +9501,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10006,6 +10438,29 @@
         <v>1563</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B41">
+        <v>12846</v>
+      </c>
+      <c r="C41">
+        <v>328</v>
+      </c>
+      <c r="D41">
+        <v>824</v>
+      </c>
+      <c r="E41">
+        <v>217</v>
+      </c>
+      <c r="F41">
+        <v>113925</v>
+      </c>
+      <c r="G41">
+        <v>1745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10013,10 +10468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10064,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C28" si="0">C2+B3</f>
+        <f t="shared" ref="C3:C27" si="0">C2+B3</f>
         <v>18</v>
       </c>
     </row>
@@ -10217,11 +10672,11 @@
         <v>43918</v>
       </c>
       <c r="B16">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -10233,7 +10688,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -10243,7 +10698,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -10251,11 +10706,11 @@
         <v>43920</v>
       </c>
       <c r="B18">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -10265,7 +10720,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -10277,7 +10732,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -10287,7 +10742,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -10295,11 +10750,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -10309,7 +10764,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -10317,11 +10772,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3243</v>
+        <v>3237</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -10331,7 +10786,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -10339,11 +10794,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3607</v>
+        <v>3598</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -10353,7 +10808,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -10365,7 +10820,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3930</v>
+        <v>3921</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -10375,7 +10830,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -10383,11 +10838,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4195</v>
+        <v>4183</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -10397,7 +10852,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -10405,11 +10860,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4628</v>
+        <v>4615</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -10419,7 +10874,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -10431,7 +10886,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5050</v>
+        <v>5037</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -10441,7 +10896,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -10449,11 +10904,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5402</v>
+        <v>5386</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -10462,8 +10917,8 @@
         <v>5262</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G28" si="3">C27-F27</f>
-        <v>140</v>
+        <f t="shared" ref="G27" si="3">C27-F27</f>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -10475,7 +10930,7 @@
       </c>
       <c r="C28">
         <f>C27+B28</f>
-        <v>5712</v>
+        <v>5696</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -10485,7 +10940,7 @@
       </c>
       <c r="G28">
         <f>C28-F28</f>
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -10493,21 +10948,43 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="C29">
         <f>C28+B29</f>
-        <v>5861</v>
+        <v>5952</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
       </c>
       <c r="F29">
-        <v>5618</v>
+        <v>5861</v>
       </c>
       <c r="G29">
         <f>C29-F29</f>
-        <v>243</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="19">
+        <v>43932</v>
+      </c>
+      <c r="B30">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <f>C29+B30</f>
+        <v>6088</v>
+      </c>
+      <c r="E30" s="19">
+        <v>43932</v>
+      </c>
+      <c r="F30">
+        <v>6088</v>
+      </c>
+      <c r="G30">
+        <f>C30-F30</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10520,8 +10997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10570,9 +11047,11 @@
         <v>247</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="N1" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
@@ -10616,7 +11095,9 @@
       <c r="M2" s="7">
         <v>305</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="7">
+        <v>333</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
@@ -10660,7 +11141,9 @@
       <c r="M3" s="9">
         <v>72</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="9">
+        <v>81</v>
+      </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
@@ -10704,7 +11187,9 @@
       <c r="M4" s="7">
         <v>5</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>5</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
@@ -10748,7 +11233,9 @@
       <c r="M5" s="9">
         <v>14</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="9">
+        <v>14</v>
+      </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
@@ -10792,7 +11279,9 @@
       <c r="M6" s="7">
         <v>538</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>543</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
@@ -10836,7 +11325,9 @@
       <c r="M7" s="9">
         <v>266</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9">
+        <v>267</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
@@ -10880,7 +11371,9 @@
       <c r="M8" s="7">
         <v>71</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>72</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
@@ -10924,7 +11417,9 @@
       <c r="M9" s="9">
         <v>37</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="9">
+        <v>37</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
@@ -10968,7 +11463,9 @@
       <c r="M10" s="7">
         <v>29</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>29</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
@@ -11012,7 +11509,9 @@
       <c r="M11" s="9">
         <v>15</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="9">
+        <v>17</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
@@ -11056,7 +11555,9 @@
       <c r="M12" s="7">
         <v>84</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>85</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
@@ -11100,7 +11601,9 @@
       <c r="M13" s="9">
         <v>312</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="9">
+        <v>313</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
@@ -11144,7 +11647,9 @@
       <c r="M14" s="7">
         <v>22</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="7">
+        <v>25</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
@@ -11188,7 +11693,9 @@
       <c r="M15" s="9">
         <v>255</v>
       </c>
-      <c r="N15" s="9"/>
+      <c r="N15" s="9">
+        <v>276</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
@@ -11232,7 +11739,9 @@
       <c r="M16" s="7">
         <v>8</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>8</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
@@ -11276,7 +11785,9 @@
       <c r="M17" s="9">
         <v>263</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="9">
+        <v>291</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
@@ -11320,7 +11831,9 @@
       <c r="M18" s="7">
         <v>5</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>5</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
@@ -11364,7 +11877,9 @@
       <c r="M19" s="9">
         <v>45</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="9">
+        <v>46</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
@@ -11408,7 +11923,9 @@
       <c r="M20" s="7">
         <v>145</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7">
+        <v>144</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
@@ -11452,7 +11969,9 @@
       <c r="M21" s="9">
         <v>83</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="9">
+        <v>86</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
@@ -11496,7 +12015,9 @@
       <c r="M22" s="7">
         <v>233</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7">
+        <v>235</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
@@ -11540,7 +12061,9 @@
       <c r="M23" s="9">
         <v>33</v>
       </c>
-      <c r="N23" s="9"/>
+      <c r="N23" s="9">
+        <v>33</v>
+      </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
@@ -11584,7 +12107,9 @@
       <c r="M24" s="7">
         <v>216</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="7">
+        <v>235</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
@@ -11628,7 +12153,9 @@
       <c r="M25" s="9">
         <v>278</v>
       </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="9">
+        <v>301</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
@@ -11672,7 +12199,9 @@
       <c r="M26" s="7">
         <v>5</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="7">
+        <v>5</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
@@ -11716,7 +12245,9 @@
       <c r="M27" s="9">
         <v>172</v>
       </c>
-      <c r="N27" s="9"/>
+      <c r="N27" s="9">
+        <v>181</v>
+      </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
@@ -11760,7 +12291,9 @@
       <c r="M28" s="7">
         <v>153</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7">
+        <v>168</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
@@ -11804,7 +12337,9 @@
       <c r="M29" s="20">
         <v>2</v>
       </c>
-      <c r="N29" s="9"/>
+      <c r="N29" s="20">
+        <v>2</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
@@ -11848,7 +12383,9 @@
       <c r="M30" s="7">
         <v>224</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="7">
+        <v>227</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
@@ -11892,7 +12429,9 @@
       <c r="M31" s="9">
         <v>183</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="9">
+        <v>186</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
@@ -11936,7 +12475,9 @@
       <c r="M32" s="7">
         <v>190</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="7">
+        <v>193</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
@@ -11980,7 +12521,9 @@
       <c r="M33" s="9">
         <v>292</v>
       </c>
-      <c r="N33" s="9"/>
+      <c r="N33" s="9">
+        <v>302</v>
+      </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
@@ -12024,7 +12567,9 @@
       <c r="M34" s="7">
         <v>58</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="7">
+        <v>59</v>
+      </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
@@ -12068,7 +12613,9 @@
       <c r="M35" s="9">
         <v>1248</v>
       </c>
-      <c r="N35" s="9"/>
+      <c r="N35" s="9">
+        <v>1284</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
@@ -12112,7 +12659,9 @@
       <c r="M36" s="11">
         <v>5861</v>
       </c>
-      <c r="N36" s="11"/>
+      <c r="N36" s="11">
+        <v>6088</v>
+      </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
@@ -12155,9 +12704,11 @@
         <v>247</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="N38" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
@@ -12201,7 +12752,9 @@
       <c r="M39" s="7">
         <v>1201</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7">
+        <v>1209</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
     </row>
@@ -12245,7 +12798,9 @@
       <c r="M40" s="9">
         <v>768</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="9">
+        <v>779</v>
+      </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
@@ -12289,7 +12844,9 @@
       <c r="M41" s="7">
         <v>1004</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7">
+        <v>1095</v>
+      </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
@@ -12333,7 +12890,9 @@
       <c r="M42" s="9">
         <v>947</v>
       </c>
-      <c r="N42" s="9"/>
+      <c r="N42" s="9">
+        <v>1017</v>
+      </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
@@ -12377,7 +12936,9 @@
       <c r="M43" s="7">
         <v>684</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="7">
+        <v>695</v>
+      </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
@@ -12421,7 +12982,9 @@
       <c r="M44" s="9">
         <v>1257</v>
       </c>
-      <c r="N44" s="9"/>
+      <c r="N44" s="9">
+        <v>1293</v>
+      </c>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
@@ -12465,7 +13028,9 @@
       <c r="M45" s="11">
         <v>5861</v>
       </c>
-      <c r="N45" s="11"/>
+      <c r="N45" s="11">
+        <v>6088</v>
+      </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
     </row>
@@ -12506,9 +13071,11 @@
         <v>247</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="N47" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
@@ -12548,9 +13115,11 @@
         <v>245</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="N48" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
     </row>
@@ -12590,9 +13159,11 @@
         <v>246</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N49" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>263</v>
+      </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
@@ -12632,9 +13203,11 @@
         <v>167.4</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="N50" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
     </row>
@@ -12674,9 +13247,11 @@
         <v>248</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="N51" s="9"/>
+        <v>257</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
@@ -12716,9 +13291,11 @@
         <v>249</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="N52" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
     </row>
@@ -12744,7 +13321,9 @@
       <c r="M53" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="N53" s="9"/>
+      <c r="N53" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
@@ -12784,7 +13363,9 @@
       <c r="M54" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
     </row>
@@ -12825,9 +13406,11 @@
         <v>247</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="N56" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
     </row>
@@ -12869,7 +13452,9 @@
       <c r="M57" s="7">
         <v>39</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="7">
+        <v>42</v>
+      </c>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
     </row>
@@ -12911,7 +13496,9 @@
       <c r="M58" s="9">
         <v>34</v>
       </c>
-      <c r="N58" s="9"/>
+      <c r="N58" s="9">
+        <v>34</v>
+      </c>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
@@ -12953,7 +13540,9 @@
       <c r="M59" s="7">
         <v>180</v>
       </c>
-      <c r="N59" s="7"/>
+      <c r="N59" s="7">
+        <v>181</v>
+      </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
     </row>
@@ -12995,7 +13584,9 @@
       <c r="M60" s="9">
         <v>804</v>
       </c>
-      <c r="N60" s="9"/>
+      <c r="N60" s="9">
+        <v>822</v>
+      </c>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
     </row>
@@ -13037,7 +13628,9 @@
       <c r="M61" s="7">
         <v>924</v>
       </c>
-      <c r="N61" s="7"/>
+      <c r="N61" s="7">
+        <v>937</v>
+      </c>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
     </row>
@@ -13079,7 +13672,9 @@
       <c r="M62" s="9">
         <v>1007</v>
       </c>
-      <c r="N62" s="9"/>
+      <c r="N62" s="9">
+        <v>1055</v>
+      </c>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
@@ -13121,7 +13716,9 @@
       <c r="M63" s="7">
         <v>874</v>
       </c>
-      <c r="N63" s="7"/>
+      <c r="N63" s="7">
+        <v>892</v>
+      </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
     </row>
@@ -13163,7 +13760,9 @@
       <c r="M64" s="9">
         <v>601</v>
       </c>
-      <c r="N64" s="9"/>
+      <c r="N64" s="9">
+        <v>613</v>
+      </c>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
@@ -13205,7 +13804,9 @@
       <c r="M65" s="7">
         <v>467</v>
       </c>
-      <c r="N65" s="7"/>
+      <c r="N65" s="7">
+        <v>493</v>
+      </c>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
     </row>
@@ -13247,7 +13848,9 @@
       <c r="M66" s="9">
         <v>912</v>
       </c>
-      <c r="N66" s="9"/>
+      <c r="N66" s="9">
+        <v>1000</v>
+      </c>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
     </row>
@@ -13289,7 +13892,9 @@
       <c r="M67" s="7">
         <v>19</v>
       </c>
-      <c r="N67" s="7"/>
+      <c r="N67" s="7">
+        <v>19</v>
+      </c>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
     </row>
@@ -13331,7 +13936,9 @@
       <c r="M68" s="15">
         <v>5861</v>
       </c>
-      <c r="N68" s="15"/>
+      <c r="N68" s="15">
+        <v>6088</v>
+      </c>
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
     </row>
@@ -13374,6 +13981,9 @@
       </c>
       <c r="M70">
         <v>135</v>
+      </c>
+      <c r="N70">
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -13427,13 +14037,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -13444,10 +14054,10 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -13455,13 +14065,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -13469,13 +14079,13 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -13483,27 +14093,27 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>924</v>
+        <v>937</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2">
-        <v>1007</v>
+      <c r="B9" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -13511,13 +14121,13 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -13525,13 +14135,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -13539,27 +14149,27 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="B13">
-        <v>912</v>
+      <c r="B13" t="s">
+        <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -13581,13 +14191,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870074B-ABD2-4BC2-A1A8-D7EADA41A84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C953189-E0CB-4929-9326-6B8262019883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18190" yWindow="3120" windowWidth="20810" windowHeight="17470" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="14070" yWindow="3260" windowWidth="23590" windowHeight="16500" tabRatio="765" activeTab="1" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="294">
   <si>
     <t>borough</t>
   </si>
@@ -853,9 +853,6 @@
     <t>14,9</t>
   </si>
   <si>
-    <t>0,6</t>
-  </si>
-  <si>
     <t>* 31,5</t>
   </si>
   <si>
@@ -877,67 +874,88 @@
     <t>184,3</t>
   </si>
   <si>
-    <t>6 088</t>
-  </si>
-  <si>
     <t>294,7</t>
   </si>
   <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>37,9</t>
-  </si>
-  <si>
-    <t>91,0</t>
-  </si>
-  <si>
-    <t>13,5</t>
-  </si>
-  <si>
-    <t>255,2</t>
-  </si>
-  <si>
-    <t>15,4</t>
-  </si>
-  <si>
-    <t>285,2</t>
-  </si>
-  <si>
-    <t>1 055</t>
-  </si>
-  <si>
-    <t>17,4</t>
-  </si>
-  <si>
-    <t>379,0</t>
-  </si>
-  <si>
-    <t>14,7</t>
-  </si>
-  <si>
-    <t>347,5</t>
-  </si>
-  <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>283,1</t>
-  </si>
-  <si>
     <t>8,1</t>
   </si>
   <si>
-    <t>340,7</t>
-  </si>
-  <si>
-    <t>1 000</t>
-  </si>
-  <si>
-    <t>16,5</t>
-  </si>
-  <si>
-    <t>989,7</t>
+    <t>24,5</t>
+  </si>
+  <si>
+    <t>16,4</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>21,6</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>6 393</t>
+  </si>
+  <si>
+    <t>309,5</t>
+  </si>
+  <si>
+    <t>12 ARIL, 17H30</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>39,7</t>
+  </si>
+  <si>
+    <t>91,5</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>262,0</t>
+  </si>
+  <si>
+    <t>15,6</t>
+  </si>
+  <si>
+    <t>301,0</t>
+  </si>
+  <si>
+    <t>1 112</t>
+  </si>
+  <si>
+    <t>17,5</t>
+  </si>
+  <si>
+    <t>399,5</t>
+  </si>
+  <si>
+    <t>14,8</t>
+  </si>
+  <si>
+    <t>365,4</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>291,4</t>
+  </si>
+  <si>
+    <t>358,0</t>
+  </si>
+  <si>
+    <t>1 064</t>
+  </si>
+  <si>
+    <t>1 053,0</t>
   </si>
 </sst>
 </file>
@@ -1440,19 +1458,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P2" sqref="P2:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="O1" s="1">
         <v>43932</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="1">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1545,8 +1566,11 @@
       <c r="O2">
         <v>333</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1592,8 +1616,11 @@
       <c r="O3">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1639,8 +1666,11 @@
       <c r="O4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1686,8 +1716,11 @@
       <c r="O5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1733,8 +1766,11 @@
       <c r="O6">
         <v>543</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1780,8 +1816,11 @@
       <c r="O7">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1827,8 +1866,11 @@
       <c r="O8">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1874,8 +1916,11 @@
       <c r="O9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1921,8 +1966,11 @@
       <c r="O10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1968,8 +2016,11 @@
       <c r="O11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2015,8 +2066,11 @@
       <c r="O12">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2062,8 +2116,11 @@
       <c r="O13">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2109,8 +2166,11 @@
       <c r="O14">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2156,8 +2216,11 @@
       <c r="O15">
         <v>276</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2203,8 +2266,11 @@
       <c r="O16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2250,8 +2316,11 @@
       <c r="O17">
         <v>291</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2297,8 +2366,11 @@
       <c r="O18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2344,8 +2416,11 @@
       <c r="O19">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2391,8 +2466,11 @@
       <c r="O20">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2438,8 +2516,11 @@
       <c r="O21">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2485,8 +2566,11 @@
       <c r="O22">
         <v>235</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2532,8 +2616,11 @@
       <c r="O23">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2579,8 +2666,11 @@
       <c r="O24">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2626,8 +2716,11 @@
       <c r="O25">
         <v>301</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="O26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2720,8 +2816,11 @@
       <c r="O27">
         <v>181</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2767,8 +2866,11 @@
       <c r="O28">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2814,8 +2916,11 @@
       <c r="O29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +2966,11 @@
       <c r="O30">
         <v>227</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2908,8 +3016,11 @@
       <c r="O31">
         <v>186</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2955,8 +3066,11 @@
       <c r="O32">
         <v>193</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3002,8 +3116,11 @@
       <c r="O33">
         <v>302</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="O34">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3095,6 +3215,9 @@
       </c>
       <c r="O35">
         <v>1284</v>
+      </c>
+      <c r="P35">
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
@@ -3104,19 +3227,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3176,8 +3299,12 @@
         <f>cases!O1</f>
         <v>43932</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="1">
+        <f>cases!P1</f>
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3236,8 +3363,12 @@
         <f>cases!O2/(population_2016!$B2/1000)</f>
         <v>2.4805393124511155</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="3">
+        <f>cases!P2/(population_2016!$B2/1000)</f>
+        <v>2.6295206525382695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3296,8 +3427,12 @@
         <f>cases!O3/(population_2016!$B3/1000)</f>
         <v>1.8927002523600336</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="3">
+        <f>cases!P3/(population_2016!$B3/1000)</f>
+        <v>2.0329002710533697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3356,8 +3491,12 @@
         <f>cases!O4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="3">
+        <f>cases!P4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -3416,8 +3555,12 @@
         <f>cases!O5/(population_2016!$B5/1000)</f>
         <v>0.72448768370937688</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="3">
+        <f>cases!P5/(population_2016!$B5/1000)</f>
+        <v>0.6727385634444214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3476,8 +3619,12 @@
         <f>cases!O6/(population_2016!$B6/1000)</f>
         <v>3.2608695652173911</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="3">
+        <f>cases!P6/(population_2016!$B6/1000)</f>
+        <v>3.3569541196252701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -3536,8 +3683,12 @@
         <f>cases!O7/(population_2016!$B7/1000)</f>
         <v>8.2285502958579873</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="3">
+        <f>cases!P7/(population_2016!$B7/1000)</f>
+        <v>8.2285502958579873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3596,8 +3747,12 @@
         <f>cases!O8/(population_2016!$B8/1000)</f>
         <v>1.472422748931471</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="3">
+        <f>cases!P8/(population_2016!$B8/1000)</f>
+        <v>1.4928730648888524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3656,8 +3811,12 @@
         <f>cases!O9/(population_2016!$B9/1000)</f>
         <v>1.9494204425711275</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="3">
+        <f>cases!P9/(population_2016!$B9/1000)</f>
+        <v>2.0021074815595363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3716,8 +3875,12 @@
         <f>cases!O10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="3">
+        <f>cases!P10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3776,8 +3939,12 @@
         <f>cases!O11/(population_2016!$B11/1000)</f>
         <v>0.84363058905265254</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="3">
+        <f>cases!P11/(population_2016!$B11/1000)</f>
+        <v>0.84363058905265254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3836,8 +4003,12 @@
         <f>cases!O12/(population_2016!$B12/1000)</f>
         <v>1.9105846388995034</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="3">
+        <f>cases!P12/(population_2016!$B12/1000)</f>
+        <v>1.9555395715794917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3896,8 +4067,12 @@
         <f>cases!O13/(population_2016!$B13/1000)</f>
         <v>4.0727102390277548</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="3">
+        <f>cases!P13/(population_2016!$B13/1000)</f>
+        <v>4.2158406308146725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3956,8 +4131,12 @@
         <f>cases!O14/(population_2016!$B14/1000)</f>
         <v>1.3577363819040895</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="3">
+        <f>cases!P14/(population_2016!$B14/1000)</f>
+        <v>1.3577363819040895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4016,8 +4195,12 @@
         <f>cases!O15/(population_2016!$B15/1000)</f>
         <v>2.0290536964065167</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="3">
+        <f>cases!P15/(population_2016!$B15/1000)</f>
+        <v>2.1907898606128331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -4076,8 +4259,12 @@
         <f>cases!O16/(population_2016!$B16/1000)</f>
         <v>2.0779220779220777</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="3">
+        <f>cases!P16/(population_2016!$B16/1000)</f>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4136,8 +4323,12 @@
         <f>cases!O17/(population_2016!$B17/1000)</f>
         <v>3.4546620129638868</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="3">
+        <f>cases!P17/(population_2016!$B17/1000)</f>
+        <v>3.8701711897808488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -4196,8 +4387,12 @@
         <f>cases!O18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="3">
+        <f>cases!P18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -4256,8 +4451,12 @@
         <f>cases!O19/(population_2016!$B19/1000)</f>
         <v>2.2686920497139473</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" s="3">
+        <f>cases!P19/(population_2016!$B19/1000)</f>
+        <v>2.3180114420990332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4316,8 +4515,12 @@
         <f>cases!O20/(population_2016!$B20/1000)</f>
         <v>6.011522083994322</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="3">
+        <f>cases!P20/(population_2016!$B20/1000)</f>
+        <v>6.1367621274108703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4376,8 +4579,12 @@
         <f>cases!O21/(population_2016!$B21/1000)</f>
         <v>1.2410349654386192</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" s="3">
+        <f>cases!P21/(population_2016!$B21/1000)</f>
+        <v>1.2698962437046337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4436,8 +4643,12 @@
         <f>cases!O22/(population_2016!$B22/1000)</f>
         <v>2.2596153846153846</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" s="3">
+        <f>cases!P22/(population_2016!$B22/1000)</f>
+        <v>2.3846153846153846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -4496,8 +4707,12 @@
         <f>cases!O23/(population_2016!$B23/1000)</f>
         <v>1.0516252390057361</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" s="3">
+        <f>cases!P23/(population_2016!$B23/1000)</f>
+        <v>1.0834926704907584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4556,8 +4771,12 @@
         <f>cases!O24/(population_2016!$B24/1000)</f>
         <v>2.2015495161275211</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="3">
+        <f>cases!P24/(population_2016!$B24/1000)</f>
+        <v>2.3701788407670761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4616,8 +4835,12 @@
         <f>cases!O25/(population_2016!$B25/1000)</f>
         <v>2.1563149222723692</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" s="3">
+        <f>cases!P25/(population_2016!$B25/1000)</f>
+        <v>2.2709363134895049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4676,8 +4899,12 @@
         <f>cases!O26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" s="3">
+        <f>cases!P26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4736,8 +4963,12 @@
         <f>cases!O27/(population_2016!$B27/1000)</f>
         <v>1.831464767070061</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" s="3">
+        <f>cases!P27/(population_2016!$B27/1000)</f>
+        <v>1.9326506658032137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4796,8 +5027,12 @@
         <f>cases!O28/(population_2016!$B28/1000)</f>
         <v>2.145456867377562</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" s="3">
+        <f>cases!P28/(population_2016!$B28/1000)</f>
+        <v>2.3497860928420917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4856,8 +5091,12 @@
         <f>cases!O29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" s="3">
+        <f>cases!P29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4916,8 +5155,12 @@
         <f>cases!O30/(population_2016!$B30/1000)</f>
         <v>2.9046333380251053</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" s="3">
+        <f>cases!P30/(population_2016!$B30/1000)</f>
+        <v>3.0197950122199333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4976,8 +5219,12 @@
         <f>cases!O31/(population_2016!$B31/1000)</f>
         <v>2.6867353276805965</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" s="3">
+        <f>cases!P31/(population_2016!$B31/1000)</f>
+        <v>2.8600730907567637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5036,8 +5283,12 @@
         <f>cases!O32/(population_2016!$B32/1000)</f>
         <v>2.1644050689693843</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" s="3">
+        <f>cases!P32/(population_2016!$B32/1000)</f>
+        <v>2.2989794774027139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5096,8 +5347,12 @@
         <f>cases!O33/(population_2016!$B33/1000)</f>
         <v>2.0993653243241361</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" s="3">
+        <f>cases!P33/(population_2016!$B33/1000)</f>
+        <v>2.266202303740624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -5155,6 +5410,10 @@
       <c r="O34" s="3">
         <f>cases!O34/(population_2016!$B34/1000)</f>
         <v>2.9046868846002361</v>
+      </c>
+      <c r="P34" s="3">
+        <f>cases!P34/(population_2016!$B34/1000)</f>
+        <v>2.9539188656951554</v>
       </c>
     </row>
   </sheetData>
@@ -5164,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR29"/>
+  <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6680,11 +6939,11 @@
       </c>
       <c r="B12" s="17">
         <f>mtl_newcases!C13</f>
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C12" s="17">
         <f>mtl_newcases!B13</f>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>102</v>
@@ -6816,7 +7075,7 @@
       </c>
       <c r="B13" s="17">
         <f>mtl_newcases!C14</f>
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C13" s="17">
         <f>mtl_newcases!B14</f>
@@ -6952,7 +7211,7 @@
       </c>
       <c r="B14" s="17">
         <f>mtl_newcases!C15</f>
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C14" s="17">
         <f>mtl_newcases!B15</f>
@@ -7088,7 +7347,7 @@
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
@@ -7224,7 +7483,7 @@
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
@@ -7360,7 +7619,7 @@
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
@@ -7496,11 +7755,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -7663,7 +7922,7 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
@@ -7830,7 +8089,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
@@ -7997,11 +8256,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -8164,11 +8423,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -8331,7 +8590,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4183</v>
+        <v>4185</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -8498,7 +8757,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4615</v>
+        <v>4617</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
@@ -8665,11 +8924,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5037</v>
+        <v>5043</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -8832,7 +9091,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5386</v>
+        <v>5392</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
@@ -8999,11 +9258,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5696</v>
+        <v>5704</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -9166,11 +9425,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5952</v>
+        <v>5962</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -9333,11 +9592,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6088</v>
+        <v>6164</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -9492,6 +9751,173 @@
       <c r="AR29" s="3">
         <f t="shared" ref="AR29" si="154">X29*100/SUM($O29:$X29)</f>
         <v>31.524966997114731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A30" s="19">
+        <v>43933</v>
+      </c>
+      <c r="B30" s="17">
+        <f>mtl_newcases!C31</f>
+        <v>6393</v>
+      </c>
+      <c r="C30" s="17">
+        <f>mtl_newcases!B31</f>
+        <v>229</v>
+      </c>
+      <c r="D30">
+        <v>162</v>
+      </c>
+      <c r="E30" cm="1">
+        <f t="array" ref="E30:N30">TRANSPOSE(santemontreal!O$57:O$66)</f>
+        <v>44</v>
+      </c>
+      <c r="F30">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>182</v>
+      </c>
+      <c r="H30">
+        <v>844</v>
+      </c>
+      <c r="I30">
+        <v>989</v>
+      </c>
+      <c r="J30">
+        <v>1112</v>
+      </c>
+      <c r="K30">
+        <v>938</v>
+      </c>
+      <c r="L30">
+        <v>631</v>
+      </c>
+      <c r="M30">
+        <v>518</v>
+      </c>
+      <c r="N30">
+        <v>1064</v>
+      </c>
+      <c r="O30" s="18">
+        <f>E30/(age_distribution_2016!$B$2/100000)</f>
+        <v>40.094769455075635</v>
+      </c>
+      <c r="P30" s="18">
+        <f>F30/(age_distribution_2016!$B$3/100000)</f>
+        <v>32.571729654643867</v>
+      </c>
+      <c r="Q30" s="18">
+        <f>G30/(age_distribution_2016!$B$4/100000)</f>
+        <v>96.713340595690411</v>
+      </c>
+      <c r="R30" s="18">
+        <f>H30/(age_distribution_2016!$B$5/100000)</f>
+        <v>287.83357489982097</v>
+      </c>
+      <c r="S30" s="18">
+        <f>I30/(age_distribution_2016!$B$6/100000)</f>
+        <v>330.02419287561526</v>
+      </c>
+      <c r="T30" s="18">
+        <f>J30/(age_distribution_2016!$B$7/100000)</f>
+        <v>436.97809215050592</v>
+      </c>
+      <c r="U30" s="18">
+        <f>K30/(age_distribution_2016!$B$8/100000)</f>
+        <v>362.33703524867212</v>
+      </c>
+      <c r="V30" s="18">
+        <f>L30/(age_distribution_2016!$B$9/100000)</f>
+        <v>307.79737079583424</v>
+      </c>
+      <c r="W30" s="18">
+        <f>M30/(age_distribution_2016!$B$10/100000)</f>
+        <v>399.44478716841456</v>
+      </c>
+      <c r="X30" s="18">
+        <f>N30/(age_distribution_2016!$B$11/100000)</f>
+        <v>1076.8685795253277</v>
+      </c>
+      <c r="Y30" s="3">
+        <f>E30*100/SUM($E30:$N30)</f>
+        <v>0.69225928256765257</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" ref="Z30" si="155">F30*100/SUM($E30:$N30)</f>
+        <v>0.53492762743864064</v>
+      </c>
+      <c r="AA30" s="3">
+        <f t="shared" ref="AA30" si="156">G30*100/SUM($E30:$N30)</f>
+        <v>2.8634361233480177</v>
+      </c>
+      <c r="AB30" s="3">
+        <f t="shared" ref="AB30" si="157">H30*100/SUM($E30:$N30)</f>
+        <v>13.278791692888609</v>
+      </c>
+      <c r="AC30" s="3">
+        <f t="shared" ref="AC30" si="158">I30*100/SUM($E30:$N30)</f>
+        <v>15.560100692259283</v>
+      </c>
+      <c r="AD30" s="3">
+        <f t="shared" ref="AD30" si="159">J30*100/SUM($E30:$N30)</f>
+        <v>17.495280050346128</v>
+      </c>
+      <c r="AE30" s="3">
+        <f t="shared" ref="AE30" si="160">K30*100/SUM($E30:$N30)</f>
+        <v>14.757709251101321</v>
+      </c>
+      <c r="AF30" s="3">
+        <f t="shared" ref="AF30" si="161">L30*100/SUM($E30:$N30)</f>
+        <v>9.9276274386406538</v>
+      </c>
+      <c r="AG30" s="3">
+        <f t="shared" ref="AG30" si="162">M30*100/SUM($E30:$N30)</f>
+        <v>8.1497797356828201</v>
+      </c>
+      <c r="AH30" s="3">
+        <f t="shared" ref="AH30" si="163">N30*100/SUM($E30:$N30)</f>
+        <v>16.740088105726873</v>
+      </c>
+      <c r="AI30" s="3">
+        <f t="shared" ref="AI30" si="164">O30*100/SUM($O30:$X30)</f>
+        <v>1.1895215818412368</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f t="shared" ref="AJ30" si="165">P30*100/SUM($O30:$X30)</f>
+        <v>0.96632992055257616</v>
+      </c>
+      <c r="AK30" s="3">
+        <f t="shared" ref="AK30" si="166">Q30*100/SUM($O30:$X30)</f>
+        <v>2.8692671750971401</v>
+      </c>
+      <c r="AL30" s="3">
+        <f t="shared" ref="AL30" si="167">R30*100/SUM($O30:$X30)</f>
+        <v>8.5393744364954909</v>
+      </c>
+      <c r="AM30" s="3">
+        <f t="shared" ref="AM30" si="168">S30*100/SUM($O30:$X30)</f>
+        <v>9.7910751275209886</v>
+      </c>
+      <c r="AN30" s="3">
+        <f t="shared" ref="AN30" si="169">T30*100/SUM($O30:$X30)</f>
+        <v>12.964156633628784</v>
+      </c>
+      <c r="AO30" s="3">
+        <f t="shared" ref="AO30" si="170">U30*100/SUM($O30:$X30)</f>
+        <v>10.749724445019917</v>
+      </c>
+      <c r="AP30" s="3">
+        <f t="shared" ref="AP30" si="171">V30*100/SUM($O30:$X30)</f>
+        <v>9.1316553348902101</v>
+      </c>
+      <c r="AQ30" s="3">
+        <f t="shared" ref="AQ30" si="172">W30*100/SUM($O30:$X30)</f>
+        <v>11.850627938469396</v>
+      </c>
+      <c r="AR30" s="3">
+        <f t="shared" ref="AR30" si="173">X30*100/SUM($O30:$X30)</f>
+        <v>31.948267406484259</v>
       </c>
     </row>
   </sheetData>
@@ -9501,11 +9927,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10461,6 +10887,29 @@
         <v>1745</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B42">
+        <v>13557</v>
+      </c>
+      <c r="C42">
+        <v>360</v>
+      </c>
+      <c r="D42">
+        <v>879</v>
+      </c>
+      <c r="E42">
+        <v>226</v>
+      </c>
+      <c r="F42">
+        <v>118013</v>
+      </c>
+      <c r="G42">
+        <v>1982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10468,10 +10917,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10636,11 +11085,11 @@
         <v>43915</v>
       </c>
       <c r="B13">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -10652,7 +11101,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -10664,7 +11113,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -10676,7 +11125,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -10688,7 +11137,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -10698,7 +11147,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -10710,7 +11159,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -10720,7 +11169,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -10728,11 +11177,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -10742,7 +11191,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -10754,7 +11203,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -10764,7 +11213,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -10776,7 +11225,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -10786,7 +11235,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -10794,11 +11243,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -10808,7 +11257,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -10816,11 +11265,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -10830,7 +11279,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -10842,7 +11291,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4183</v>
+        <v>4185</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -10852,7 +11301,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -10864,7 +11313,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4615</v>
+        <v>4617</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -10874,7 +11323,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -10882,11 +11331,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5037</v>
+        <v>5043</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -10896,7 +11345,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -10908,7 +11357,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5386</v>
+        <v>5392</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -10918,7 +11367,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -10926,11 +11375,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C28">
         <f>C27+B28</f>
-        <v>5696</v>
+        <v>5704</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -10940,7 +11389,7 @@
       </c>
       <c r="G28">
         <f>C28-F28</f>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -10948,11 +11397,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C29">
         <f>C28+B29</f>
-        <v>5952</v>
+        <v>5962</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -10962,7 +11411,7 @@
       </c>
       <c r="G29">
         <f>C29-F29</f>
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -10970,11 +11419,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="C30">
         <f>C29+B30</f>
-        <v>6088</v>
+        <v>6164</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -10984,6 +11433,28 @@
       </c>
       <c r="G30">
         <f>C30-F30</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="19">
+        <v>43933</v>
+      </c>
+      <c r="B31">
+        <v>229</v>
+      </c>
+      <c r="C31">
+        <f>C30+B31</f>
+        <v>6393</v>
+      </c>
+      <c r="E31" s="19">
+        <v>43933</v>
+      </c>
+      <c r="F31">
+        <v>6393</v>
+      </c>
+      <c r="G31">
+        <f>C31-F31</f>
         <v>0</v>
       </c>
     </row>
@@ -10998,7 +11469,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N35"/>
+      <selection activeCell="O2" sqref="O2:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11050,9 +11521,11 @@
         <v>253</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="O1" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11098,7 +11571,9 @@
       <c r="N2" s="7">
         <v>333</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="7">
+        <v>353</v>
+      </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -11144,7 +11619,9 @@
       <c r="N3" s="9">
         <v>81</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="9">
+        <v>87</v>
+      </c>
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11190,7 +11667,9 @@
       <c r="N4" s="7">
         <v>5</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11236,7 +11715,9 @@
       <c r="N5" s="9">
         <v>14</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9">
+        <v>13</v>
+      </c>
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11282,7 +11763,9 @@
       <c r="N6" s="7">
         <v>543</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7">
+        <v>559</v>
+      </c>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11328,7 +11811,9 @@
       <c r="N7" s="9">
         <v>267</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9">
+        <v>267</v>
+      </c>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11374,7 +11859,9 @@
       <c r="N8" s="7">
         <v>72</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7">
+        <v>73</v>
+      </c>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11420,7 +11907,9 @@
       <c r="N9" s="9">
         <v>37</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9">
+        <v>38</v>
+      </c>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11466,7 +11955,9 @@
       <c r="N10" s="7">
         <v>29</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7">
+        <v>29</v>
+      </c>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11512,7 +12003,9 @@
       <c r="N11" s="9">
         <v>17</v>
       </c>
-      <c r="O11" s="9"/>
+      <c r="O11" s="9">
+        <v>17</v>
+      </c>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11558,7 +12051,9 @@
       <c r="N12" s="7">
         <v>85</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="7">
+        <v>87</v>
+      </c>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11604,7 +12099,9 @@
       <c r="N13" s="9">
         <v>313</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="9">
+        <v>324</v>
+      </c>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11650,7 +12147,9 @@
       <c r="N14" s="7">
         <v>25</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7">
+        <v>25</v>
+      </c>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11696,7 +12195,9 @@
       <c r="N15" s="9">
         <v>276</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="9">
+        <v>298</v>
+      </c>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11742,7 +12243,9 @@
       <c r="N16" s="7">
         <v>8</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="7">
+        <v>7</v>
+      </c>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11788,7 +12291,9 @@
       <c r="N17" s="9">
         <v>291</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="9">
+        <v>326</v>
+      </c>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11834,7 +12339,9 @@
       <c r="N18" s="7">
         <v>5</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="7">
+        <v>5</v>
+      </c>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11880,7 +12387,9 @@
       <c r="N19" s="9">
         <v>46</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="9">
+        <v>47</v>
+      </c>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11926,7 +12435,9 @@
       <c r="N20" s="7">
         <v>144</v>
       </c>
-      <c r="O20" s="7"/>
+      <c r="O20" s="7">
+        <v>147</v>
+      </c>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11972,7 +12483,9 @@
       <c r="N21" s="9">
         <v>86</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="9">
+        <v>88</v>
+      </c>
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12018,7 +12531,9 @@
       <c r="N22" s="7">
         <v>235</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7">
+        <v>248</v>
+      </c>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12064,7 +12579,9 @@
       <c r="N23" s="9">
         <v>33</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="9">
+        <v>34</v>
+      </c>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12110,7 +12627,9 @@
       <c r="N24" s="7">
         <v>235</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="7">
+        <v>253</v>
+      </c>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12156,7 +12675,9 @@
       <c r="N25" s="9">
         <v>301</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="9">
+        <v>317</v>
+      </c>
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12202,7 +12723,9 @@
       <c r="N26" s="7">
         <v>5</v>
       </c>
-      <c r="O26" s="7"/>
+      <c r="O26" s="7">
+        <v>5</v>
+      </c>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12248,7 +12771,9 @@
       <c r="N27" s="9">
         <v>181</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="9">
+        <v>191</v>
+      </c>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12294,7 +12819,9 @@
       <c r="N28" s="7">
         <v>168</v>
       </c>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7">
+        <v>184</v>
+      </c>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12340,7 +12867,9 @@
       <c r="N29" s="20">
         <v>2</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="20">
+        <v>2</v>
+      </c>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12386,7 +12915,9 @@
       <c r="N30" s="7">
         <v>227</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7">
+        <v>236</v>
+      </c>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12432,7 +12963,9 @@
       <c r="N31" s="9">
         <v>186</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="9">
+        <v>198</v>
+      </c>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12478,7 +13011,9 @@
       <c r="N32" s="7">
         <v>193</v>
       </c>
-      <c r="O32" s="7"/>
+      <c r="O32" s="7">
+        <v>205</v>
+      </c>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12524,7 +13059,9 @@
       <c r="N33" s="9">
         <v>302</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="9">
+        <v>326</v>
+      </c>
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12570,7 +13107,9 @@
       <c r="N34" s="7">
         <v>59</v>
       </c>
-      <c r="O34" s="7"/>
+      <c r="O34" s="7">
+        <v>60</v>
+      </c>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12616,7 +13155,9 @@
       <c r="N35" s="9">
         <v>1284</v>
       </c>
-      <c r="O35" s="9"/>
+      <c r="O35" s="9">
+        <v>1339</v>
+      </c>
       <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12662,11 +13203,13 @@
       <c r="N36" s="11">
         <v>6088</v>
       </c>
-      <c r="O36" s="11"/>
+      <c r="O36" s="11">
+        <v>6393</v>
+      </c>
       <c r="P36" s="11"/>
     </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:16" ht="21.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -12707,12 +13250,14 @@
         <v>253</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="O38" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>73</v>
       </c>
@@ -12755,10 +13300,12 @@
       <c r="N39" s="7">
         <v>1209</v>
       </c>
-      <c r="O39" s="7"/>
+      <c r="O39" s="7">
+        <v>1235</v>
+      </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
@@ -12801,10 +13348,12 @@
       <c r="N40" s="9">
         <v>779</v>
       </c>
-      <c r="O40" s="9"/>
+      <c r="O40" s="9">
+        <v>825</v>
+      </c>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>75</v>
       </c>
@@ -12847,10 +13396,12 @@
       <c r="N41" s="7">
         <v>1095</v>
       </c>
-      <c r="O41" s="7"/>
+      <c r="O41" s="7">
+        <v>1185</v>
+      </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
         <v>76</v>
       </c>
@@ -12893,10 +13444,12 @@
       <c r="N42" s="9">
         <v>1017</v>
       </c>
-      <c r="O42" s="9"/>
+      <c r="O42" s="9">
+        <v>1088</v>
+      </c>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>77</v>
       </c>
@@ -12939,10 +13492,12 @@
       <c r="N43" s="7">
         <v>695</v>
       </c>
-      <c r="O43" s="7"/>
+      <c r="O43" s="7">
+        <v>712</v>
+      </c>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
         <v>70</v>
       </c>
@@ -12985,10 +13540,12 @@
       <c r="N44" s="9">
         <v>1293</v>
       </c>
-      <c r="O44" s="9"/>
+      <c r="O44" s="9">
+        <v>1348</v>
+      </c>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>78</v>
       </c>
@@ -13031,11 +13588,13 @@
       <c r="N45" s="11">
         <v>6088</v>
       </c>
-      <c r="O45" s="11"/>
+      <c r="O45" s="11">
+        <v>6393</v>
+      </c>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:16" ht="21.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>121</v>
       </c>
@@ -13074,12 +13633,14 @@
         <v>253</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="O47" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>73</v>
       </c>
@@ -13118,12 +13679,14 @@
         <v>254</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="O48" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>74</v>
       </c>
@@ -13162,12 +13725,14 @@
         <v>255</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="O49" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
@@ -13206,12 +13771,14 @@
         <v>256</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="O50" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>76</v>
       </c>
@@ -13250,12 +13817,14 @@
         <v>257</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="O51" s="9"/>
+        <v>264</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>77</v>
       </c>
@@ -13294,12 +13863,14 @@
         <v>258</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="O52" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>70</v>
       </c>
@@ -13324,10 +13895,12 @@
       <c r="N53" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="O53" s="9"/>
+      <c r="O53" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>78</v>
       </c>
@@ -13364,12 +13937,14 @@
         <v>235</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="O54" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12" t="s">
         <v>86</v>
@@ -13409,9 +13984,11 @@
         <v>253</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="O56" s="13"/>
+        <v>260</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13455,7 +14032,9 @@
       <c r="N57" s="7">
         <v>42</v>
       </c>
-      <c r="O57" s="7"/>
+      <c r="O57" s="7">
+        <v>44</v>
+      </c>
       <c r="P57" s="7"/>
     </row>
     <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13499,7 +14078,9 @@
       <c r="N58" s="9">
         <v>34</v>
       </c>
-      <c r="O58" s="9"/>
+      <c r="O58" s="9">
+        <v>34</v>
+      </c>
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13543,7 +14124,9 @@
       <c r="N59" s="7">
         <v>181</v>
       </c>
-      <c r="O59" s="7"/>
+      <c r="O59" s="7">
+        <v>182</v>
+      </c>
       <c r="P59" s="7"/>
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13587,7 +14170,9 @@
       <c r="N60" s="9">
         <v>822</v>
       </c>
-      <c r="O60" s="9"/>
+      <c r="O60" s="9">
+        <v>844</v>
+      </c>
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13631,7 +14216,9 @@
       <c r="N61" s="7">
         <v>937</v>
       </c>
-      <c r="O61" s="7"/>
+      <c r="O61" s="7">
+        <v>989</v>
+      </c>
       <c r="P61" s="7"/>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13675,7 +14262,9 @@
       <c r="N62" s="9">
         <v>1055</v>
       </c>
-      <c r="O62" s="9"/>
+      <c r="O62" s="9">
+        <v>1112</v>
+      </c>
       <c r="P62" s="9"/>
     </row>
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13719,7 +14308,9 @@
       <c r="N63" s="7">
         <v>892</v>
       </c>
-      <c r="O63" s="7"/>
+      <c r="O63" s="7">
+        <v>938</v>
+      </c>
       <c r="P63" s="7"/>
     </row>
     <row r="64" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13763,7 +14354,9 @@
       <c r="N64" s="9">
         <v>613</v>
       </c>
-      <c r="O64" s="9"/>
+      <c r="O64" s="9">
+        <v>631</v>
+      </c>
       <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13807,7 +14400,9 @@
       <c r="N65" s="7">
         <v>493</v>
       </c>
-      <c r="O65" s="7"/>
+      <c r="O65" s="7">
+        <v>518</v>
+      </c>
       <c r="P65" s="7"/>
     </row>
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13851,7 +14446,9 @@
       <c r="N66" s="9">
         <v>1000</v>
       </c>
-      <c r="O66" s="9"/>
+      <c r="O66" s="9">
+        <v>1064</v>
+      </c>
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13895,7 +14492,9 @@
       <c r="N67" s="7">
         <v>19</v>
       </c>
-      <c r="O67" s="7"/>
+      <c r="O67" s="7">
+        <v>37</v>
+      </c>
       <c r="P67" s="7"/>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13939,7 +14538,9 @@
       <c r="N68" s="15">
         <v>6088</v>
       </c>
-      <c r="O68" s="15"/>
+      <c r="O68" s="15">
+        <v>6393</v>
+      </c>
       <c r="P68" s="15"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -13984,6 +14585,9 @@
       </c>
       <c r="N70">
         <v>147</v>
+      </c>
+      <c r="O70">
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -14037,13 +14641,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -14054,10 +14658,10 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
         <v>259</v>
-      </c>
-      <c r="D5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -14065,13 +14669,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -14079,13 +14683,13 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -14093,13 +14697,13 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>937</v>
+        <v>989</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -14107,13 +14711,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -14121,13 +14725,13 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>892</v>
+        <v>938</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -14135,13 +14739,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -14149,13 +14753,13 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -14163,13 +14767,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -14177,7 +14781,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>235</v>
@@ -14191,13 +14795,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C953189-E0CB-4929-9326-6B8262019883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD7B11-24F6-4E52-B43F-50FC48B4FF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="3260" windowWidth="23590" windowHeight="16500" tabRatio="765" activeTab="1" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="17100" yWindow="3820" windowWidth="23590" windowHeight="16500" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="297">
   <si>
     <t>borough</t>
   </si>
@@ -853,9 +853,6 @@
     <t>14,9</t>
   </si>
   <si>
-    <t>* 31,5</t>
-  </si>
-  <si>
     <t>11 ARIL, 17H</t>
   </si>
   <si>
@@ -895,67 +892,79 @@
     <t>14,1</t>
   </si>
   <si>
-    <t>6 393</t>
-  </si>
-  <si>
-    <t>309,5</t>
-  </si>
-  <si>
     <t>12 ARIL, 17H30</t>
   </si>
   <si>
     <t>0,5</t>
   </si>
   <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>39,7</t>
-  </si>
-  <si>
-    <t>91,5</t>
-  </si>
-  <si>
-    <t>13,3</t>
-  </si>
-  <si>
-    <t>262,0</t>
-  </si>
-  <si>
-    <t>15,6</t>
-  </si>
-  <si>
-    <t>301,0</t>
-  </si>
-  <si>
-    <t>1 112</t>
-  </si>
-  <si>
     <t>17,5</t>
   </si>
   <si>
-    <t>399,5</t>
-  </si>
-  <si>
-    <t>14,8</t>
-  </si>
-  <si>
-    <t>365,4</t>
-  </si>
-  <si>
     <t>9,9</t>
   </si>
   <si>
-    <t>291,4</t>
-  </si>
-  <si>
-    <t>358,0</t>
-  </si>
-  <si>
-    <t>1 064</t>
-  </si>
-  <si>
-    <t>1 053,0</t>
+    <t>13 ARIL, 17H30</t>
+  </si>
+  <si>
+    <t>6 628</t>
+  </si>
+  <si>
+    <t>320,9</t>
+  </si>
+  <si>
+    <t>38,8</t>
+  </si>
+  <si>
+    <t>* 32,4</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>92,0</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>270,1</t>
+  </si>
+  <si>
+    <t>1 017</t>
+  </si>
+  <si>
+    <t>15,4</t>
+  </si>
+  <si>
+    <t>309,6</t>
+  </si>
+  <si>
+    <t>1 153</t>
+  </si>
+  <si>
+    <t>414,2</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>376,7</t>
+  </si>
+  <si>
+    <t>301,1</t>
+  </si>
+  <si>
+    <t>368,3</t>
+  </si>
+  <si>
+    <t>1 137</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>1 125,3</t>
   </si>
 </sst>
 </file>
@@ -1458,19 +1467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P35"/>
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1519,8 +1528,11 @@
       <c r="P1" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1569,8 +1581,11 @@
       <c r="P2">
         <v>353</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1619,8 +1634,11 @@
       <c r="P3">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1669,8 +1687,11 @@
       <c r="P4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1719,8 +1740,11 @@
       <c r="P5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1769,8 +1793,11 @@
       <c r="P6">
         <v>559</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1819,8 +1846,11 @@
       <c r="P7">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1869,8 +1899,11 @@
       <c r="P8">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1919,8 +1952,11 @@
       <c r="P9">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -1969,8 +2005,11 @@
       <c r="P10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2019,8 +2058,11 @@
       <c r="P11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2069,8 +2111,11 @@
       <c r="P12">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2119,8 +2164,11 @@
       <c r="P13">
         <v>324</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2169,8 +2217,11 @@
       <c r="P14">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2219,8 +2270,11 @@
       <c r="P15">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2269,8 +2323,11 @@
       <c r="P16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2319,8 +2376,11 @@
       <c r="P17">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2369,8 +2429,11 @@
       <c r="P18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2419,8 +2482,11 @@
       <c r="P19">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2469,8 +2535,11 @@
       <c r="P20">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2519,8 +2588,11 @@
       <c r="P21">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2569,8 +2641,11 @@
       <c r="P22">
         <v>248</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2619,8 +2694,11 @@
       <c r="P23">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2669,8 +2747,11 @@
       <c r="P24">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2719,8 +2800,11 @@
       <c r="P25">
         <v>317</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2769,8 +2853,11 @@
       <c r="P26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2819,8 +2906,11 @@
       <c r="P27">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2869,8 +2959,11 @@
       <c r="P28">
         <v>184</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2919,8 +3012,11 @@
       <c r="P29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2969,8 +3065,11 @@
       <c r="P30">
         <v>236</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3019,8 +3118,11 @@
       <c r="P31">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q31">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="P32">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3119,8 +3224,11 @@
       <c r="P33">
         <v>326</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q33">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3169,8 +3277,11 @@
       <c r="P34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3218,6 +3329,9 @@
       </c>
       <c r="P35">
         <v>1339</v>
+      </c>
+      <c r="Q35">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -3227,19 +3341,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
-    <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3303,8 +3417,12 @@
         <f>cases!P1</f>
         <v>43933</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="1">
+        <f>cases!Q1</f>
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3367,8 +3485,12 @@
         <f>cases!P2/(population_2016!$B2/1000)</f>
         <v>2.6295206525382695</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" s="3">
+        <f>cases!Q2/(population_2016!$B2/1000)</f>
+        <v>2.9200342657082201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3431,8 +3553,12 @@
         <f>cases!P3/(population_2016!$B3/1000)</f>
         <v>2.0329002710533697</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" s="3">
+        <f>cases!Q3/(population_2016!$B3/1000)</f>
+        <v>2.1497336199644828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3495,8 +3621,12 @@
         <f>cases!P4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="3">
+        <f>cases!Q4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -3559,8 +3689,12 @@
         <f>cases!P5/(population_2016!$B5/1000)</f>
         <v>0.6727385634444214</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" s="3">
+        <f>cases!Q5/(population_2016!$B5/1000)</f>
+        <v>0.6727385634444214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3623,8 +3757,12 @@
         <f>cases!P6/(population_2016!$B6/1000)</f>
         <v>3.3569541196252701</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" s="3">
+        <f>cases!Q6/(population_2016!$B6/1000)</f>
+        <v>3.8433821763151572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -3687,8 +3825,12 @@
         <f>cases!P7/(population_2016!$B7/1000)</f>
         <v>8.2285502958579873</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" s="3">
+        <f>cases!Q7/(population_2016!$B7/1000)</f>
+        <v>8.3210059171597628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3751,8 +3893,12 @@
         <f>cases!P8/(population_2016!$B8/1000)</f>
         <v>1.4928730648888524</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" s="3">
+        <f>cases!Q8/(population_2016!$B8/1000)</f>
+        <v>1.5337736968036155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3815,8 +3961,12 @@
         <f>cases!P9/(population_2016!$B9/1000)</f>
         <v>2.0021074815595363</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" s="3">
+        <f>cases!Q9/(population_2016!$B9/1000)</f>
+        <v>2.1601685985247627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -3879,8 +4029,12 @@
         <f>cases!P10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" s="3">
+        <f>cases!Q10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3943,8 +4097,12 @@
         <f>cases!P11/(population_2016!$B11/1000)</f>
         <v>0.84363058905265254</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" s="3">
+        <f>cases!Q11/(population_2016!$B11/1000)</f>
+        <v>0.89325591782045555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4007,8 +4165,12 @@
         <f>cases!P12/(population_2016!$B12/1000)</f>
         <v>1.9555395715794917</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" s="3">
+        <f>cases!Q12/(population_2016!$B12/1000)</f>
+        <v>2.0004945042594802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4071,8 +4233,12 @@
         <f>cases!P13/(population_2016!$B13/1000)</f>
         <v>4.2158406308146725</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" s="3">
+        <f>cases!Q13/(population_2016!$B13/1000)</f>
+        <v>4.4110184377968329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4135,8 +4301,12 @@
         <f>cases!P14/(population_2016!$B14/1000)</f>
         <v>1.3577363819040895</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" s="3">
+        <f>cases!Q14/(population_2016!$B14/1000)</f>
+        <v>1.4663552924564167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4199,8 +4369,12 @@
         <f>cases!P15/(population_2016!$B15/1000)</f>
         <v>2.1907898606128331</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" s="3">
+        <f>cases!Q15/(population_2016!$B15/1000)</f>
+        <v>2.4260424630947481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -4263,8 +4437,12 @@
         <f>cases!P16/(population_2016!$B16/1000)</f>
         <v>1.8181818181818181</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" s="3">
+        <f>cases!Q16/(population_2016!$B16/1000)</f>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4327,8 +4505,12 @@
         <f>cases!P17/(population_2016!$B17/1000)</f>
         <v>3.8701711897808488</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" s="3">
+        <f>cases!Q17/(population_2016!$B17/1000)</f>
+        <v>4.2381936035330154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -4391,8 +4573,12 @@
         <f>cases!P18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" s="3">
+        <f>cases!Q18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -4455,8 +4641,12 @@
         <f>cases!P19/(population_2016!$B19/1000)</f>
         <v>2.3180114420990332</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19" s="3">
+        <f>cases!Q19/(population_2016!$B19/1000)</f>
+        <v>2.4166502268692049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4519,8 +4709,12 @@
         <f>cases!P20/(population_2016!$B20/1000)</f>
         <v>6.1367621274108703</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20" s="3">
+        <f>cases!Q20/(population_2016!$B20/1000)</f>
+        <v>6.1785088085497204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4583,8 +4777,12 @@
         <f>cases!P21/(population_2016!$B21/1000)</f>
         <v>1.2698962437046337</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21" s="3">
+        <f>cases!Q21/(population_2016!$B21/1000)</f>
+        <v>1.2987575219706482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4647,8 +4845,12 @@
         <f>cases!P22/(population_2016!$B22/1000)</f>
         <v>2.3846153846153846</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22" s="3">
+        <f>cases!Q22/(population_2016!$B22/1000)</f>
+        <v>2.4903846153846154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -4711,8 +4913,12 @@
         <f>cases!P23/(population_2016!$B23/1000)</f>
         <v>1.0834926704907584</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23" s="3">
+        <f>cases!Q23/(population_2016!$B23/1000)</f>
+        <v>1.1790949649458253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4775,8 +4981,12 @@
         <f>cases!P24/(population_2016!$B24/1000)</f>
         <v>2.3701788407670761</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24" s="3">
+        <f>cases!Q24/(population_2016!$B24/1000)</f>
+        <v>2.6699643067929513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4839,8 +5049,12 @@
         <f>cases!P25/(population_2016!$B25/1000)</f>
         <v>2.2709363134895049</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25" s="3">
+        <f>cases!Q25/(population_2016!$B25/1000)</f>
+        <v>2.4070492155598537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4903,8 +5117,12 @@
         <f>cases!P26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26" s="3">
+        <f>cases!Q26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4967,8 +5185,12 @@
         <f>cases!P27/(population_2016!$B27/1000)</f>
         <v>1.9326506658032137</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27" s="3">
+        <f>cases!Q27/(population_2016!$B27/1000)</f>
+        <v>2.0237179746630507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5031,8 +5253,12 @@
         <f>cases!P28/(population_2016!$B28/1000)</f>
         <v>2.3497860928420917</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28" s="3">
+        <f>cases!Q28/(population_2016!$B28/1000)</f>
+        <v>2.6818210842219523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -5095,8 +5321,12 @@
         <f>cases!P29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29" s="3">
+        <f>cases!Q29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5159,8 +5389,12 @@
         <f>cases!P30/(population_2016!$B30/1000)</f>
         <v>3.0197950122199333</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30" s="3">
+        <f>cases!Q30/(population_2016!$B30/1000)</f>
+        <v>3.4292587426904326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5223,8 +5457,12 @@
         <f>cases!P31/(population_2016!$B31/1000)</f>
         <v>2.8600730907567637</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q31" s="3">
+        <f>cases!Q31/(population_2016!$B31/1000)</f>
+        <v>3.4667552615233501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5287,8 +5525,12 @@
         <f>cases!P32/(population_2016!$B32/1000)</f>
         <v>2.2989794774027139</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32" s="3">
+        <f>cases!Q32/(population_2016!$B32/1000)</f>
+        <v>2.411124817763822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5351,8 +5593,12 @@
         <f>cases!P33/(population_2016!$B33/1000)</f>
         <v>2.266202303740624</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q33" s="3">
+        <f>cases!Q33/(population_2016!$B33/1000)</f>
+        <v>2.5512154769104569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -5414,6 +5660,10 @@
       <c r="P34" s="3">
         <f>cases!P34/(population_2016!$B34/1000)</f>
         <v>2.9539188656951554</v>
+      </c>
+      <c r="Q34" s="3">
+        <f>cases!Q34/(population_2016!$B34/1000)</f>
+        <v>3.052382827884994</v>
       </c>
     </row>
   </sheetData>
@@ -5423,10 +5673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR30"/>
+  <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8256,11 +8506,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -8423,7 +8673,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -8590,7 +8840,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -8757,7 +9007,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
@@ -8924,11 +9174,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5043</v>
+        <v>5045</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -9091,7 +9341,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5392</v>
+        <v>5394</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
@@ -9258,7 +9508,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
@@ -9425,11 +9675,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -9592,11 +9842,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6164</v>
+        <v>6166</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -9759,11 +10009,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6393</v>
+        <v>6483</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -9918,6 +10168,173 @@
       <c r="AR30" s="3">
         <f t="shared" ref="AR30" si="173">X30*100/SUM($O30:$X30)</f>
         <v>31.948267406484259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A31" s="19">
+        <v>43934</v>
+      </c>
+      <c r="B31" s="17">
+        <f>mtl_newcases!C32</f>
+        <v>6627</v>
+      </c>
+      <c r="C31" s="17">
+        <f>mtl_newcases!B32</f>
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>218</v>
+      </c>
+      <c r="E31" cm="1">
+        <f t="array" ref="E31:N31">TRANSPOSE(santemontreal!P$57:P$66)</f>
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>183</v>
+      </c>
+      <c r="H31">
+        <v>870</v>
+      </c>
+      <c r="I31">
+        <v>1017</v>
+      </c>
+      <c r="J31">
+        <v>1153</v>
+      </c>
+      <c r="K31">
+        <v>967</v>
+      </c>
+      <c r="L31">
+        <v>652</v>
+      </c>
+      <c r="M31">
+        <v>533</v>
+      </c>
+      <c r="N31">
+        <v>1137</v>
+      </c>
+      <c r="O31" s="18">
+        <f>E31/(age_distribution_2016!$B$2/100000)</f>
+        <v>39.183524694733009</v>
+      </c>
+      <c r="P31" s="18">
+        <f>F31/(age_distribution_2016!$B$3/100000)</f>
+        <v>33.529721703309868</v>
+      </c>
+      <c r="Q31" s="18">
+        <f>G31/(age_distribution_2016!$B$4/100000)</f>
+        <v>97.244732576985413</v>
+      </c>
+      <c r="R31" s="18">
+        <f>H31/(age_distribution_2016!$B$5/100000)</f>
+        <v>296.70048597493394</v>
+      </c>
+      <c r="S31" s="18">
+        <f>I31/(age_distribution_2016!$B$6/100000)</f>
+        <v>339.36764828564276</v>
+      </c>
+      <c r="T31" s="18">
+        <f>J31/(age_distribution_2016!$B$7/100000)</f>
+        <v>453.08969446900483</v>
+      </c>
+      <c r="U31" s="18">
+        <f>K31/(age_distribution_2016!$B$8/100000)</f>
+        <v>373.53935296957991</v>
+      </c>
+      <c r="V31" s="18">
+        <f>L31/(age_distribution_2016!$B$9/100000)</f>
+        <v>318.0410233896734</v>
+      </c>
+      <c r="W31" s="18">
+        <f>M31/(age_distribution_2016!$B$10/100000)</f>
+        <v>411.01172115977795</v>
+      </c>
+      <c r="X31" s="18">
+        <f>N31/(age_distribution_2016!$B$11/100000)</f>
+        <v>1150.7514801882496</v>
+      </c>
+      <c r="Y31" s="3">
+        <f>E31*100/SUM($E31:$N31)</f>
+        <v>0.65250379362670718</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" ref="Z31" si="174">F31*100/SUM($E31:$N31)</f>
+        <v>0.53110773899848251</v>
+      </c>
+      <c r="AA31" s="3">
+        <f t="shared" ref="AA31" si="175">G31*100/SUM($E31:$N31)</f>
+        <v>2.7769347496206374</v>
+      </c>
+      <c r="AB31" s="3">
+        <f t="shared" ref="AB31" si="176">H31*100/SUM($E31:$N31)</f>
+        <v>13.201820940819424</v>
+      </c>
+      <c r="AC31" s="3">
+        <f t="shared" ref="AC31" si="177">I31*100/SUM($E31:$N31)</f>
+        <v>15.43247344461305</v>
+      </c>
+      <c r="AD31" s="3">
+        <f t="shared" ref="AD31" si="178">J31*100/SUM($E31:$N31)</f>
+        <v>17.496206373292868</v>
+      </c>
+      <c r="AE31" s="3">
+        <f t="shared" ref="AE31" si="179">K31*100/SUM($E31:$N31)</f>
+        <v>14.673748103186647</v>
+      </c>
+      <c r="AF31" s="3">
+        <f t="shared" ref="AF31" si="180">L31*100/SUM($E31:$N31)</f>
+        <v>9.8937784522003032</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" ref="AG31" si="181">M31*100/SUM($E31:$N31)</f>
+        <v>8.0880121396054623</v>
+      </c>
+      <c r="AH31" s="3">
+        <f t="shared" ref="AH31" si="182">N31*100/SUM($E31:$N31)</f>
+        <v>17.253414264036419</v>
+      </c>
+      <c r="AI31" s="3">
+        <f t="shared" ref="AI31" si="183">O31*100/SUM($O31:$X31)</f>
+        <v>1.1155580860940868</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f t="shared" ref="AJ31" si="184">P31*100/SUM($O31:$X31)</f>
+        <v>0.95459386214021635</v>
+      </c>
+      <c r="AK31" s="3">
+        <f t="shared" ref="AK31" si="185">Q31*100/SUM($O31:$X31)</f>
+        <v>2.7685653243669308</v>
+      </c>
+      <c r="AL31" s="3">
+        <f t="shared" ref="AL31" si="186">R31*100/SUM($O31:$X31)</f>
+        <v>8.447086597134879</v>
+      </c>
+      <c r="AM31" s="3">
+        <f t="shared" ref="AM31" si="187">S31*100/SUM($O31:$X31)</f>
+        <v>9.6618241251449142</v>
+      </c>
+      <c r="AN31" s="3">
+        <f t="shared" ref="AN31" si="188">T31*100/SUM($O31:$X31)</f>
+        <v>12.899499887480493</v>
+      </c>
+      <c r="AO31" s="3">
+        <f t="shared" ref="AO31" si="189">U31*100/SUM($O31:$X31)</f>
+        <v>10.634695294157163</v>
+      </c>
+      <c r="AP31" s="3">
+        <f t="shared" ref="AP31" si="190">V31*100/SUM($O31:$X31)</f>
+        <v>9.0546534064016839</v>
+      </c>
+      <c r="AQ31" s="3">
+        <f t="shared" ref="AQ31" si="191">W31*100/SUM($O31:$X31)</f>
+        <v>11.701536617528189</v>
+      </c>
+      <c r="AR31" s="3">
+        <f t="shared" ref="AR31" si="192">X31*100/SUM($O31:$X31)</f>
+        <v>32.761986799551451</v>
       </c>
     </row>
   </sheetData>
@@ -9927,11 +10344,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10910,6 +11327,29 @@
         <v>1982</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B43">
+        <v>14248</v>
+      </c>
+      <c r="C43">
+        <v>435</v>
+      </c>
+      <c r="D43">
+        <v>936</v>
+      </c>
+      <c r="E43">
+        <v>230</v>
+      </c>
+      <c r="F43">
+        <v>123303</v>
+      </c>
+      <c r="G43">
+        <v>2146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10917,10 +11357,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11243,11 +11683,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -11257,7 +11697,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -11269,7 +11709,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -11279,7 +11719,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -11291,7 +11731,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -11301,7 +11741,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -11313,7 +11753,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -11323,7 +11763,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -11331,11 +11771,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5043</v>
+        <v>5045</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -11345,7 +11785,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -11357,7 +11797,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5392</v>
+        <v>5394</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -11367,7 +11807,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -11379,7 +11819,7 @@
       </c>
       <c r="C28">
         <f>C27+B28</f>
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -11389,7 +11829,7 @@
       </c>
       <c r="G28">
         <f>C28-F28</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -11397,11 +11837,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29">
         <f>C28+B29</f>
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -11411,7 +11851,7 @@
       </c>
       <c r="G29">
         <f>C29-F29</f>
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -11419,11 +11859,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C30">
         <f>C29+B30</f>
-        <v>6164</v>
+        <v>6166</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -11433,7 +11873,7 @@
       </c>
       <c r="G30">
         <f>C30-F30</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -11441,11 +11881,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="C31">
         <f>C30+B31</f>
-        <v>6393</v>
+        <v>6483</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -11455,7 +11895,29 @@
       </c>
       <c r="G31">
         <f>C31-F31</f>
-        <v>0</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="19">
+        <v>43934</v>
+      </c>
+      <c r="B32">
+        <v>144</v>
+      </c>
+      <c r="C32">
+        <f>C31+B32</f>
+        <v>6627</v>
+      </c>
+      <c r="E32" s="19">
+        <v>43934</v>
+      </c>
+      <c r="F32">
+        <v>6628</v>
+      </c>
+      <c r="G32">
+        <f>C32-F32</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -11469,7 +11931,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O35"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11521,12 +11983,14 @@
         <v>253</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P1" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -11574,7 +12038,9 @@
       <c r="O2" s="7">
         <v>353</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7">
+        <v>392</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
@@ -11622,7 +12088,9 @@
       <c r="O3" s="9">
         <v>87</v>
       </c>
-      <c r="P3" s="9"/>
+      <c r="P3" s="9">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
@@ -11670,7 +12138,9 @@
       <c r="O4" s="7">
         <v>5</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
@@ -11718,7 +12188,9 @@
       <c r="O5" s="9">
         <v>13</v>
       </c>
-      <c r="P5" s="9"/>
+      <c r="P5" s="9">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
@@ -11766,7 +12238,9 @@
       <c r="O6" s="7">
         <v>559</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7">
+        <v>640</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
@@ -11814,7 +12288,9 @@
       <c r="O7" s="9">
         <v>267</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="9">
+        <v>270</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
@@ -11862,7 +12338,9 @@
       <c r="O8" s="7">
         <v>73</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
@@ -11910,7 +12388,9 @@
       <c r="O9" s="9">
         <v>38</v>
       </c>
-      <c r="P9" s="9"/>
+      <c r="P9" s="9">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
@@ -11958,7 +12438,9 @@
       <c r="O10" s="7">
         <v>29</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
@@ -12006,7 +12488,9 @@
       <c r="O11" s="9">
         <v>17</v>
       </c>
-      <c r="P11" s="9"/>
+      <c r="P11" s="9">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
@@ -12054,7 +12538,9 @@
       <c r="O12" s="7">
         <v>87</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="7">
+        <v>89</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
@@ -12102,7 +12588,9 @@
       <c r="O13" s="9">
         <v>324</v>
       </c>
-      <c r="P13" s="9"/>
+      <c r="P13" s="9">
+        <v>339</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
@@ -12150,7 +12638,9 @@
       <c r="O14" s="7">
         <v>25</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
@@ -12198,7 +12688,9 @@
       <c r="O15" s="9">
         <v>298</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="9">
+        <v>330</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
@@ -12246,7 +12738,9 @@
       <c r="O16" s="7">
         <v>7</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
@@ -12294,7 +12788,9 @@
       <c r="O17" s="9">
         <v>326</v>
       </c>
-      <c r="P17" s="9"/>
+      <c r="P17" s="9">
+        <v>357</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
@@ -12342,7 +12838,9 @@
       <c r="O18" s="7">
         <v>5</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
@@ -12390,7 +12888,9 @@
       <c r="O19" s="9">
         <v>47</v>
       </c>
-      <c r="P19" s="9"/>
+      <c r="P19" s="9">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
@@ -12438,7 +12938,9 @@
       <c r="O20" s="7">
         <v>147</v>
       </c>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7">
+        <v>148</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
@@ -12486,7 +12988,9 @@
       <c r="O21" s="9">
         <v>88</v>
       </c>
-      <c r="P21" s="9"/>
+      <c r="P21" s="9">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
@@ -12534,7 +13038,9 @@
       <c r="O22" s="7">
         <v>248</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7">
+        <v>259</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
@@ -12582,7 +13088,9 @@
       <c r="O23" s="9">
         <v>34</v>
       </c>
-      <c r="P23" s="9"/>
+      <c r="P23" s="9">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
@@ -12630,7 +13138,9 @@
       <c r="O24" s="7">
         <v>253</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="7">
+        <v>285</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
@@ -12678,7 +13188,9 @@
       <c r="O25" s="9">
         <v>317</v>
       </c>
-      <c r="P25" s="9"/>
+      <c r="P25" s="9">
+        <v>336</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
@@ -12726,7 +13238,9 @@
       <c r="O26" s="7">
         <v>5</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
@@ -12774,7 +13288,9 @@
       <c r="O27" s="9">
         <v>191</v>
       </c>
-      <c r="P27" s="9"/>
+      <c r="P27" s="9">
+        <v>200</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
@@ -12822,7 +13338,9 @@
       <c r="O28" s="7">
         <v>184</v>
       </c>
-      <c r="P28" s="7"/>
+      <c r="P28" s="7">
+        <v>210</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
@@ -12870,7 +13388,9 @@
       <c r="O29" s="20">
         <v>2</v>
       </c>
-      <c r="P29" s="9"/>
+      <c r="P29" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
@@ -12918,7 +13438,9 @@
       <c r="O30" s="7">
         <v>236</v>
       </c>
-      <c r="P30" s="7"/>
+      <c r="P30" s="7">
+        <v>268</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
@@ -12966,7 +13488,9 @@
       <c r="O31" s="9">
         <v>198</v>
       </c>
-      <c r="P31" s="9"/>
+      <c r="P31" s="9">
+        <v>240</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
@@ -13014,7 +13538,9 @@
       <c r="O32" s="7">
         <v>205</v>
       </c>
-      <c r="P32" s="7"/>
+      <c r="P32" s="7">
+        <v>215</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
@@ -13062,7 +13588,9 @@
       <c r="O33" s="9">
         <v>326</v>
       </c>
-      <c r="P33" s="9"/>
+      <c r="P33" s="9">
+        <v>367</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
@@ -13110,7 +13638,9 @@
       <c r="O34" s="7">
         <v>60</v>
       </c>
-      <c r="P34" s="7"/>
+      <c r="P34" s="7">
+        <v>62</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
@@ -13158,7 +13688,9 @@
       <c r="O35" s="9">
         <v>1339</v>
       </c>
-      <c r="P35" s="9"/>
+      <c r="P35" s="9">
+        <v>1126</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
@@ -13206,7 +13738,9 @@
       <c r="O36" s="11">
         <v>6393</v>
       </c>
-      <c r="P36" s="11"/>
+      <c r="P36" s="11">
+        <v>6628</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="1:16" ht="21.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -13250,10 +13784,10 @@
         <v>253</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P38" s="5"/>
     </row>
@@ -13633,10 +14167,10 @@
         <v>253</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P47" s="5"/>
     </row>
@@ -13679,10 +14213,10 @@
         <v>254</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P48" s="7"/>
     </row>
@@ -13725,10 +14259,10 @@
         <v>255</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P49" s="9"/>
     </row>
@@ -13771,10 +14305,10 @@
         <v>256</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P50" s="7"/>
     </row>
@@ -13817,10 +14351,10 @@
         <v>257</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P51" s="9"/>
     </row>
@@ -13863,10 +14397,10 @@
         <v>258</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P52" s="7"/>
     </row>
@@ -13937,7 +14471,7 @@
         <v>235</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>235</v>
@@ -13984,12 +14518,14 @@
         <v>253</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P56" s="13"/>
+        <v>272</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
@@ -14035,7 +14571,9 @@
       <c r="O57" s="7">
         <v>44</v>
       </c>
-      <c r="P57" s="7"/>
+      <c r="P57" s="7">
+        <v>43</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
@@ -14081,7 +14619,9 @@
       <c r="O58" s="9">
         <v>34</v>
       </c>
-      <c r="P58" s="9"/>
+      <c r="P58" s="9">
+        <v>35</v>
+      </c>
     </row>
     <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
@@ -14127,7 +14667,9 @@
       <c r="O59" s="7">
         <v>182</v>
       </c>
-      <c r="P59" s="7"/>
+      <c r="P59" s="7">
+        <v>183</v>
+      </c>
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
@@ -14173,7 +14715,9 @@
       <c r="O60" s="9">
         <v>844</v>
       </c>
-      <c r="P60" s="9"/>
+      <c r="P60" s="9">
+        <v>870</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
@@ -14219,7 +14763,9 @@
       <c r="O61" s="7">
         <v>989</v>
       </c>
-      <c r="P61" s="7"/>
+      <c r="P61" s="7">
+        <v>1017</v>
+      </c>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
@@ -14265,7 +14811,9 @@
       <c r="O62" s="9">
         <v>1112</v>
       </c>
-      <c r="P62" s="9"/>
+      <c r="P62" s="9">
+        <v>1153</v>
+      </c>
     </row>
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
@@ -14311,7 +14859,9 @@
       <c r="O63" s="7">
         <v>938</v>
       </c>
-      <c r="P63" s="7"/>
+      <c r="P63" s="7">
+        <v>967</v>
+      </c>
     </row>
     <row r="64" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
@@ -14357,7 +14907,9 @@
       <c r="O64" s="9">
         <v>631</v>
       </c>
-      <c r="P64" s="9"/>
+      <c r="P64" s="9">
+        <v>652</v>
+      </c>
     </row>
     <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
@@ -14403,7 +14955,9 @@
       <c r="O65" s="7">
         <v>518</v>
       </c>
-      <c r="P65" s="7"/>
+      <c r="P65" s="7">
+        <v>533</v>
+      </c>
     </row>
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
@@ -14449,7 +15003,9 @@
       <c r="O66" s="9">
         <v>1064</v>
       </c>
-      <c r="P66" s="9"/>
+      <c r="P66" s="9">
+        <v>1137</v>
+      </c>
     </row>
     <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
@@ -14495,7 +15051,9 @@
       <c r="O67" s="7">
         <v>37</v>
       </c>
-      <c r="P67" s="7"/>
+      <c r="P67" s="7">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
@@ -14541,7 +15099,9 @@
       <c r="O68" s="15">
         <v>6393</v>
       </c>
-      <c r="P68" s="15"/>
+      <c r="P68" s="15">
+        <v>6628</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -14588,6 +15148,9 @@
       </c>
       <c r="O70">
         <v>162</v>
+      </c>
+      <c r="P70">
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -14641,13 +15204,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -14655,13 +15218,13 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -14669,13 +15232,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -14683,27 +15246,27 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B8">
-        <v>989</v>
+      <c r="B8" t="s">
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -14711,13 +15274,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -14725,13 +15288,13 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -14739,13 +15302,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -14753,13 +15316,13 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -14767,13 +15330,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -14781,7 +15344,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>235</v>
@@ -14795,13 +15358,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB76F88D-BA5A-468D-A6F7-5AAB71558375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4D97D-C5CC-4947-A037-EF295EBBA4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17540" yWindow="4120" windowWidth="23590" windowHeight="16500" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="17510" yWindow="4040" windowWidth="27950" windowHeight="17280" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="295">
   <si>
     <t>borough</t>
   </si>
@@ -895,76 +895,70 @@
     <t>38,8</t>
   </si>
   <si>
-    <t>15,4</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>6 830</t>
-  </si>
-  <si>
-    <t>330,6</t>
-  </si>
-  <si>
     <t>14 ARIL, 17H30</t>
-  </si>
-  <si>
-    <t>0,5  </t>
   </si>
   <si>
     <t>* 33,3</t>
   </si>
   <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>93,0</t>
-  </si>
-  <si>
-    <t>13,0 </t>
-  </si>
-  <si>
-    <t>274,1</t>
-  </si>
-  <si>
-    <t>1 052</t>
-  </si>
-  <si>
-    <t>320,2</t>
-  </si>
-  <si>
-    <t>1 198</t>
-  </si>
-  <si>
-    <t>17,6</t>
-  </si>
-  <si>
-    <t>430,4</t>
-  </si>
-  <si>
-    <t>1 009</t>
-  </si>
-  <si>
-    <t>14,8</t>
-  </si>
-  <si>
-    <t>393,1</t>
-  </si>
-  <si>
-    <t>9,8</t>
-  </si>
-  <si>
-    <t>307,5</t>
-  </si>
-  <si>
     <t>8,0</t>
   </si>
   <si>
-    <t>374,6</t>
+    <t>15 ARIL, 17H15</t>
   </si>
   <si>
-    <t>1 185,7</t>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>352,5</t>
+  </si>
+  <si>
+    <t>0,6 </t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>95,5</t>
+  </si>
+  <si>
+    <t>12,6</t>
+  </si>
+  <si>
+    <t>283,4</t>
+  </si>
+  <si>
+    <t>15,5</t>
+  </si>
+  <si>
+    <t>342,7</t>
+  </si>
+  <si>
+    <t>17,7 </t>
+  </si>
+  <si>
+    <t>460,6</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>423,9</t>
+  </si>
+  <si>
+    <t>9,7 </t>
+  </si>
+  <si>
+    <t>324,2</t>
+  </si>
+  <si>
+    <t>400,1</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>1 288,6</t>
   </si>
 </sst>
 </file>
@@ -1476,20 +1470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R35"/>
+      <selection activeCell="R1" sqref="R1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1544,8 +1538,11 @@
       <c r="R1" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1600,8 +1597,11 @@
       <c r="R2">
         <v>417</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1656,8 +1656,11 @@
       <c r="R3">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1712,8 +1715,11 @@
       <c r="R4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1768,8 +1774,11 @@
       <c r="R5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1824,8 +1833,11 @@
       <c r="R6">
         <v>671</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1880,8 +1892,11 @@
       <c r="R7">
         <v>279</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1936,8 +1951,11 @@
       <c r="R8">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1992,8 +2010,11 @@
       <c r="R9">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2048,8 +2069,11 @@
       <c r="R10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2104,8 +2128,11 @@
       <c r="R11">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2160,8 +2187,11 @@
       <c r="R12">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2216,8 +2246,11 @@
       <c r="R13">
         <v>349</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2272,8 +2305,11 @@
       <c r="R14">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2328,8 +2364,11 @@
       <c r="R15">
         <v>359</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2384,8 +2423,11 @@
       <c r="R16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2440,8 +2482,11 @@
       <c r="R17">
         <v>404</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2496,8 +2541,11 @@
       <c r="R18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2552,8 +2600,11 @@
       <c r="R19">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2608,8 +2659,11 @@
       <c r="R20">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2718,11 @@
       <c r="R21">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2720,8 +2777,11 @@
       <c r="R22">
         <v>275</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S22">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2776,8 +2836,11 @@
       <c r="R23">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2832,8 +2895,11 @@
       <c r="R24">
         <v>313</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2888,8 +2954,11 @@
       <c r="R25">
         <v>340</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2944,8 +3013,11 @@
       <c r="R26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3000,8 +3072,11 @@
       <c r="R27">
         <v>213</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3056,8 +3131,11 @@
       <c r="R28">
         <v>224</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3112,8 +3190,11 @@
       <c r="R29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3168,8 +3249,11 @@
       <c r="R30">
         <v>286</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3224,8 +3308,11 @@
       <c r="R31">
         <v>276</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3280,8 +3367,11 @@
       <c r="R32">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3336,8 +3426,11 @@
       <c r="R33">
         <v>390</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3392,8 +3485,11 @@
       <c r="R34">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3447,6 +3543,9 @@
       </c>
       <c r="R35">
         <v>993</v>
+      </c>
+      <c r="S35">
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -3457,20 +3556,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3542,8 +3641,12 @@
         <f>cases!R1</f>
         <v>43935</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1">
+        <f>cases!S1</f>
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3614,8 +3717,12 @@
         <f>cases!R2/(population_2016!$B2/1000)</f>
         <v>3.1062609408171626</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="3">
+        <f>cases!S2/(population_2016!$B2/1000)</f>
+        <v>3.5830012290960558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3686,8 +3793,12 @@
         <f>cases!R3/(population_2016!$B3/1000)</f>
         <v>2.2665669688755958</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="3">
+        <f>cases!S3/(population_2016!$B3/1000)</f>
+        <v>2.6404336853911583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3758,8 +3869,12 @@
         <f>cases!R4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="3">
+        <f>cases!S4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -3830,8 +3945,12 @@
         <f>cases!R5/(population_2016!$B5/1000)</f>
         <v>0.6727385634444214</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="3">
+        <f>cases!S5/(population_2016!$B5/1000)</f>
+        <v>0.6727385634444214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3902,8 +4021,12 @@
         <f>cases!R6/(population_2016!$B6/1000)</f>
         <v>4.0295460004804227</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="3">
+        <f>cases!S6/(population_2016!$B6/1000)</f>
+        <v>4.3057890944030746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -3974,8 +4097,12 @@
         <f>cases!R7/(population_2016!$B7/1000)</f>
         <v>8.5983727810650894</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="3">
+        <f>cases!S7/(population_2016!$B7/1000)</f>
+        <v>8.8141025641025639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4046,8 +4173,12 @@
         <f>cases!R8/(population_2016!$B8/1000)</f>
         <v>1.5542240127609972</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="3">
+        <f>cases!S8/(population_2016!$B8/1000)</f>
+        <v>1.6769259085052863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4118,8 +4249,12 @@
         <f>cases!R9/(population_2016!$B9/1000)</f>
         <v>2.1601685985247627</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="3">
+        <f>cases!S9/(population_2016!$B9/1000)</f>
+        <v>2.3182297154899896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4190,8 +4325,12 @@
         <f>cases!R10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="3">
+        <f>cases!S10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4262,8 +4401,12 @@
         <f>cases!R11/(population_2016!$B11/1000)</f>
         <v>0.89325591782045555</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" s="3">
+        <f>cases!S11/(population_2016!$B11/1000)</f>
+        <v>0.99250657535606179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4334,8 +4477,12 @@
         <f>cases!R12/(population_2016!$B12/1000)</f>
         <v>2.0904043696194567</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" s="3">
+        <f>cases!S12/(population_2016!$B12/1000)</f>
+        <v>2.2252691676594214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4406,8 +4553,12 @@
         <f>cases!R13/(population_2016!$B13/1000)</f>
         <v>4.5411369757849407</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" s="3">
+        <f>cases!S13/(population_2016!$B13/1000)</f>
+        <v>4.6842673675718585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4478,8 +4629,12 @@
         <f>cases!R14/(population_2016!$B14/1000)</f>
         <v>1.5206647477325803</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="3">
+        <f>cases!S14/(population_2016!$B14/1000)</f>
+        <v>1.5749742030087437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4550,8 +4705,12 @@
         <f>cases!R15/(population_2016!$B15/1000)</f>
         <v>2.6392401340939835</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" s="3">
+        <f>cases!S15/(population_2016!$B15/1000)</f>
+        <v>2.9112509557136974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -4622,8 +4781,12 @@
         <f>cases!R16/(population_2016!$B16/1000)</f>
         <v>1.8181818181818181</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="3">
+        <f>cases!S16/(population_2016!$B16/1000)</f>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4694,8 +4857,12 @@
         <f>cases!R17/(population_2016!$B17/1000)</f>
         <v>4.7961630695443649</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="3">
+        <f>cases!S17/(population_2016!$B17/1000)</f>
+        <v>5.2591590094261225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -4766,8 +4933,12 @@
         <f>cases!R18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="3">
+        <f>cases!S18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -4838,8 +5009,12 @@
         <f>cases!R19/(population_2016!$B19/1000)</f>
         <v>2.5152890116393767</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="3">
+        <f>cases!S19/(population_2016!$B19/1000)</f>
+        <v>2.6139277964095484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4910,8 +5085,12 @@
         <f>cases!R20/(population_2016!$B20/1000)</f>
         <v>6.3872422142439671</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" s="3">
+        <f>cases!S20/(population_2016!$B20/1000)</f>
+        <v>6.5124822576605155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5161,12 @@
         <f>cases!R21/(population_2016!$B21/1000)</f>
         <v>1.3420494393696698</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S21" s="3">
+        <f>cases!S21/(population_2016!$B21/1000)</f>
+        <v>1.4430639133007201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5054,8 +5237,12 @@
         <f>cases!R22/(population_2016!$B22/1000)</f>
         <v>2.6442307692307692</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S22" s="3">
+        <f>cases!S22/(population_2016!$B22/1000)</f>
+        <v>2.8365384615384617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5126,8 +5313,12 @@
         <f>cases!R23/(population_2016!$B23/1000)</f>
         <v>1.1790949649458253</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23" s="3">
+        <f>cases!S23/(population_2016!$B23/1000)</f>
+        <v>1.2109623964308478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5198,8 +5389,12 @@
         <f>cases!R24/(population_2016!$B24/1000)</f>
         <v>2.9322765895655922</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24" s="3">
+        <f>cases!S24/(population_2016!$B24/1000)</f>
+        <v>3.3538499011644793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5270,8 +5465,12 @@
         <f>cases!R25/(population_2016!$B25/1000)</f>
         <v>2.4357045633641379</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="3">
+        <f>cases!S25/(population_2016!$B25/1000)</f>
+        <v>2.5574897915323445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5342,8 +5541,12 @@
         <f>cases!R26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="3">
+        <f>cases!S26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5414,8 +5617,12 @@
         <f>cases!R27/(population_2016!$B27/1000)</f>
         <v>2.1552596430161493</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="3">
+        <f>cases!S27/(population_2016!$B27/1000)</f>
+        <v>2.2564455417493017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5486,8 +5693,12 @@
         <f>cases!R28/(population_2016!$B28/1000)</f>
         <v>2.8606091565034157</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="3">
+        <f>cases!S28/(population_2016!$B28/1000)</f>
+        <v>3.0649383819679454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -5558,8 +5769,12 @@
         <f>cases!R29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="3">
+        <f>cases!S29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5630,8 +5845,12 @@
         <f>cases!R30/(population_2016!$B30/1000)</f>
         <v>3.6595820910800887</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="3">
+        <f>cases!S30/(population_2016!$B30/1000)</f>
+        <v>3.9666798889329633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5702,8 +5921,12 @@
         <f>cases!R31/(population_2016!$B31/1000)</f>
         <v>3.9867685507518527</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31" s="3">
+        <f>cases!S31/(population_2016!$B31/1000)</f>
+        <v>4.3478888904938682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5774,8 +5997,12 @@
         <f>cases!R32/(population_2016!$B32/1000)</f>
         <v>2.5232701581249297</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32" s="3">
+        <f>cases!S32/(population_2016!$B32/1000)</f>
+        <v>2.6690591005943705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5846,8 +6073,12 @@
         <f>cases!R33/(population_2016!$B33/1000)</f>
         <v>2.7111009155179242</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33" s="3">
+        <f>cases!S33/(population_2016!$B33/1000)</f>
+        <v>2.9822110070697168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -5917,6 +6148,10 @@
       <c r="R34" s="3">
         <f>cases!R34/(population_2016!$B34/1000)</f>
         <v>3.1016148089799134</v>
+      </c>
+      <c r="S34" s="3">
+        <f>cases!S34/(population_2016!$B34/1000)</f>
+        <v>3.1508467900748323</v>
       </c>
     </row>
   </sheetData>
@@ -5926,10 +6161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR32"/>
+  <dimension ref="A1:AR33"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31:AR32"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6082,7 +6317,7 @@
       </c>
       <c r="B2" s="17">
         <f>mtl_newcases!C3</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="17">
         <f>mtl_newcases!B3</f>
@@ -6218,7 +6453,7 @@
       </c>
       <c r="B3" s="17">
         <f>mtl_newcases!C4</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="17">
         <f>mtl_newcases!B4</f>
@@ -6354,7 +6589,7 @@
       </c>
       <c r="B4" s="17">
         <f>mtl_newcases!C5</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="17">
         <f>mtl_newcases!B5</f>
@@ -6490,7 +6725,7 @@
       </c>
       <c r="B5" s="17">
         <f>mtl_newcases!C6</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="17">
         <f>mtl_newcases!B6</f>
@@ -6626,7 +6861,7 @@
       </c>
       <c r="B6" s="17">
         <f>mtl_newcases!C7</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="17">
         <f>mtl_newcases!B7</f>
@@ -6762,7 +6997,7 @@
       </c>
       <c r="B7" s="17">
         <f>mtl_newcases!C8</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="17">
         <f>mtl_newcases!B8</f>
@@ -6898,7 +7133,7 @@
       </c>
       <c r="B8" s="17">
         <f>mtl_newcases!C9</f>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="17">
         <f>mtl_newcases!B9</f>
@@ -7034,7 +7269,7 @@
       </c>
       <c r="B9" s="17">
         <f>mtl_newcases!C10</f>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C9" s="17">
         <f>mtl_newcases!B10</f>
@@ -7170,7 +7405,7 @@
       </c>
       <c r="B10" s="17">
         <f>mtl_newcases!C11</f>
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C10" s="17">
         <f>mtl_newcases!B11</f>
@@ -7306,7 +7541,7 @@
       </c>
       <c r="B11" s="17">
         <f>mtl_newcases!C12</f>
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C11" s="17">
         <f>mtl_newcases!B12</f>
@@ -7442,7 +7677,7 @@
       </c>
       <c r="B12" s="17">
         <f>mtl_newcases!C13</f>
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C12" s="17">
         <f>mtl_newcases!B13</f>
@@ -7578,7 +7813,7 @@
       </c>
       <c r="B13" s="17">
         <f>mtl_newcases!C14</f>
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C13" s="17">
         <f>mtl_newcases!B14</f>
@@ -7714,7 +7949,7 @@
       </c>
       <c r="B14" s="17">
         <f>mtl_newcases!C15</f>
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C14" s="17">
         <f>mtl_newcases!B15</f>
@@ -7850,7 +8085,7 @@
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
@@ -7986,7 +8221,7 @@
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
@@ -8122,7 +8357,7 @@
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
@@ -8258,7 +8493,7 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
@@ -8425,7 +8660,7 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
@@ -8592,7 +8827,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
@@ -8759,7 +8994,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
@@ -8926,7 +9161,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -9093,7 +9328,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -9264,7 +9499,7 @@
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -9761,11 +9996,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5699</v>
+        <v>5705</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -9842,79 +10077,79 @@
         <v>872.42548454025609</v>
       </c>
       <c r="Y27" s="3">
-        <f>E27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="Y27:Y32" si="99">E27*100/SUM($E27:$N27)</f>
         <v>0.66059632208534191</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" ref="Z27" si="99">F27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="Z27" si="100">F27*100/SUM($E27:$N27)</f>
         <v>0.60703445813247636</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" ref="AA27" si="100">G27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AA27" si="101">G27*100/SUM($E27:$N27)</f>
         <v>3.1601499732190681</v>
       </c>
       <c r="AB27" s="3">
-        <f t="shared" ref="AB27" si="101">H27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AB27" si="102">H27*100/SUM($E27:$N27)</f>
         <v>13.979646491697912</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27" si="102">I27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AC27" si="103">I27*100/SUM($E27:$N27)</f>
         <v>15.83645777539725</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" ref="AD27" si="103">J27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AD27" si="104">J27*100/SUM($E27:$N27)</f>
         <v>17.24692019282271</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" ref="AE27" si="104">K27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AE27" si="105">K27*100/SUM($E27:$N27)</f>
         <v>14.783074450990895</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" ref="AF27" si="105">L27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AF27" si="106">L27*100/SUM($E27:$N27)</f>
         <v>10.373147652204963</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" ref="AG27" si="106">M27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AG27" si="107">M27*100/SUM($E27:$N27)</f>
         <v>7.9628637743260136</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" ref="AH27" si="107">N27*100/SUM($E27:$N27)</f>
+        <f t="shared" ref="AH27" si="108">N27*100/SUM($E27:$N27)</f>
         <v>15.39010890912337</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" ref="AI27" si="108">O27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AI27" si="109">O27*100/SUM($O27:$X27)</f>
         <v>1.1536444121732559</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="109">P27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AJ27" si="110">P27*100/SUM($O27:$X27)</f>
         <v>1.1144895999410616</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" ref="AK27" si="110">Q27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AK27" si="111">Q27*100/SUM($O27:$X27)</f>
         <v>3.2182772974502631</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" ref="AL27" si="111">R27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AL27" si="112">R27*100/SUM($O27:$X27)</f>
         <v>9.136838862422529</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" ref="AM27" si="112">S27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AM27" si="113">S27*100/SUM($O27:$X27)</f>
         <v>10.12764114470038</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" ref="AN27" si="113">T27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AN27" si="114">T27*100/SUM($O27:$X27)</f>
         <v>12.98874534024409</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" ref="AO27" si="114">U27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AO27" si="115">U27*100/SUM($O27:$X27)</f>
         <v>10.943983347038248</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" ref="AP27" si="115">V27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AP27" si="116">V27*100/SUM($O27:$X27)</f>
         <v>9.697211716931081</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27" si="116">W27*100/SUM($O27:$X27)</f>
+        <f t="shared" ref="AQ27" si="117">W27*100/SUM($O27:$X27)</f>
         <v>11.767848144952298</v>
       </c>
       <c r="AR27" s="3">
@@ -9928,7 +10163,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5954</v>
+        <v>5960</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
@@ -10009,83 +10244,83 @@
         <v>923.03021102170942</v>
       </c>
       <c r="Y28" s="3">
-        <f>E28*100/SUM($E28:$N28)</f>
+        <f t="shared" si="99"/>
         <v>0.66757959602875727</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" ref="Z28" si="117">F28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="Z28" si="118">F28*100/SUM($E28:$N28)</f>
         <v>0.58199246833276275</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" ref="AA28" si="118">G28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AA28" si="119">G28*100/SUM($E28:$N28)</f>
         <v>3.0811365970558029</v>
       </c>
       <c r="AB28" s="3">
-        <f t="shared" ref="AB28" si="119">H28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AB28" si="120">H28*100/SUM($E28:$N28)</f>
         <v>13.762410133515919</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" ref="AC28" si="120">I28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AC28" si="121">I28*100/SUM($E28:$N28)</f>
         <v>15.816501198219788</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" ref="AD28" si="121">J28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AD28" si="122">J28*100/SUM($E28:$N28)</f>
         <v>17.237247517973298</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" ref="AE28" si="122">K28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AE28" si="123">K28*100/SUM($E28:$N28)</f>
         <v>14.960629921259843</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28" si="123">L28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AF28" si="124">L28*100/SUM($E28:$N28)</f>
         <v>10.287572749058542</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" ref="AG28" si="124">M28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AG28" si="125">M28*100/SUM($E28:$N28)</f>
         <v>7.9938377268058884</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" ref="AH28" si="125">N28*100/SUM($E28:$N28)</f>
+        <f t="shared" ref="AH28" si="126">N28*100/SUM($E28:$N28)</f>
         <v>15.6110920917494</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" ref="AI28" si="126">O28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AI28" si="127">O28*100/SUM($O28:$X28)</f>
         <v>1.1629373960894367</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" ref="AJ28" si="127">P28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AJ28" si="128">P28*100/SUM($O28:$X28)</f>
         <v>1.0658534775217143</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" ref="AK28" si="128">Q28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AK28" si="129">Q28*100/SUM($O28:$X28)</f>
         <v>3.1299989130218773</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" ref="AL28" si="129">R28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AL28" si="130">R28*100/SUM($O28:$X28)</f>
         <v>8.9724642953250857</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" ref="AM28" si="130">S28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AM28" si="131">S28*100/SUM($O28:$X28)</f>
         <v>10.089697416516936</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" ref="AN28" si="131">T28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AN28" si="132">T28*100/SUM($O28:$X28)</f>
         <v>12.949143167636008</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" ref="AO28" si="132">U28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AO28" si="133">U28*100/SUM($O28:$X28)</f>
         <v>11.047856020616926</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" ref="AP28" si="133">V28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AP28" si="134">V28*100/SUM($O28:$X28)</f>
         <v>9.5932707905135146</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" ref="AQ28" si="134">W28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AQ28" si="135">W28*100/SUM($O28:$X28)</f>
         <v>11.784212455606934</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" ref="AR28" si="135">X28*100/SUM($O28:$X28)</f>
+        <f t="shared" ref="AR28" si="136">X28*100/SUM($O28:$X28)</f>
         <v>30.204566067151575</v>
       </c>
     </row>
@@ -10095,7 +10330,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6157</v>
+        <v>6163</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
@@ -10176,83 +10411,83 @@
         <v>1012.0945296290673</v>
       </c>
       <c r="Y29" s="3">
-        <f>E29*100/SUM($E29:$N29)</f>
+        <f t="shared" si="99"/>
         <v>0.69204152249134943</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" ref="Z29" si="136">F29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="Z29" si="137">F29*100/SUM($E29:$N29)</f>
         <v>0.56022408963585435</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" ref="AA29" si="137">G29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AA29" si="138">G29*100/SUM($E29:$N29)</f>
         <v>2.9823694183555776</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" ref="AB29" si="138">H29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AB29" si="139">H29*100/SUM($E29:$N29)</f>
         <v>13.544241225902125</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" ref="AC29" si="139">I29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AC29" si="140">I29*100/SUM($E29:$N29)</f>
         <v>15.439116823199868</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" ref="AD29" si="140">J29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AD29" si="141">J29*100/SUM($E29:$N29)</f>
         <v>17.383423957818422</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" ref="AE29" si="141">K29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AE29" si="142">K29*100/SUM($E29:$N29)</f>
         <v>14.697643763387708</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" ref="AF29" si="142">L29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AF29" si="143">L29*100/SUM($E29:$N29)</f>
         <v>10.100510792552315</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" ref="AG29" si="143">M29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AG29" si="144">M29*100/SUM($E29:$N29)</f>
         <v>8.1232492997198875</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" ref="AH29" si="144">N29*100/SUM($E29:$N29)</f>
+        <f t="shared" ref="AH29" si="145">N29*100/SUM($E29:$N29)</f>
         <v>16.477179106936891</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" ref="AI29" si="145">O29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AI29" si="146">O29*100/SUM($O29:$X29)</f>
         <v>1.1921143001120531</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" ref="AJ29" si="146">P29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AJ29" si="147">P29*100/SUM($O29:$X29)</f>
         <v>1.0145521711078922</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" ref="AK29" si="147">Q29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AK29" si="148">Q29*100/SUM($O29:$X29)</f>
         <v>2.9958987693553456</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" ref="AL29" si="148">R29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AL29" si="149">R29*100/SUM($O29:$X29)</f>
         <v>8.7318121829013062</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" ref="AM29" si="149">S29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AM29" si="150">S29*100/SUM($O29:$X29)</f>
         <v>9.7391855483723244</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" ref="AN29" si="150">T29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AN29" si="151">T29*100/SUM($O29:$X29)</f>
         <v>12.913408799206865</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" ref="AO29" si="151">U29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AO29" si="152">U29*100/SUM($O29:$X29)</f>
         <v>10.732683081880172</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" ref="AP29" si="152">V29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AP29" si="153">V29*100/SUM($O29:$X29)</f>
         <v>9.3138573948142813</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" ref="AQ29" si="153">W29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AQ29" si="154">W29*100/SUM($O29:$X29)</f>
         <v>11.841520755135035</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" ref="AR29" si="154">X29*100/SUM($O29:$X29)</f>
+        <f t="shared" ref="AR29" si="155">X29*100/SUM($O29:$X29)</f>
         <v>31.524966997114731</v>
       </c>
     </row>
@@ -10262,7 +10497,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6469</v>
+        <v>6475</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -10343,83 +10578,83 @@
         <v>1076.8685795253277</v>
       </c>
       <c r="Y30" s="3">
-        <f>E30*100/SUM($E30:$N30)</f>
+        <f t="shared" si="99"/>
         <v>0.69225928256765257</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" ref="Z30" si="155">F30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="Z30" si="156">F30*100/SUM($E30:$N30)</f>
         <v>0.53492762743864064</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" ref="AA30" si="156">G30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AA30" si="157">G30*100/SUM($E30:$N30)</f>
         <v>2.8634361233480177</v>
       </c>
       <c r="AB30" s="3">
-        <f t="shared" ref="AB30" si="157">H30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AB30" si="158">H30*100/SUM($E30:$N30)</f>
         <v>13.278791692888609</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" ref="AC30" si="158">I30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AC30" si="159">I30*100/SUM($E30:$N30)</f>
         <v>15.560100692259283</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" ref="AD30" si="159">J30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AD30" si="160">J30*100/SUM($E30:$N30)</f>
         <v>17.495280050346128</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" ref="AE30" si="160">K30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AE30" si="161">K30*100/SUM($E30:$N30)</f>
         <v>14.757709251101321</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" ref="AF30" si="161">L30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AF30" si="162">L30*100/SUM($E30:$N30)</f>
         <v>9.9276274386406538</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" ref="AG30" si="162">M30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AG30" si="163">M30*100/SUM($E30:$N30)</f>
         <v>8.1497797356828201</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" ref="AH30" si="163">N30*100/SUM($E30:$N30)</f>
+        <f t="shared" ref="AH30" si="164">N30*100/SUM($E30:$N30)</f>
         <v>16.740088105726873</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" ref="AI30" si="164">O30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AI30" si="165">O30*100/SUM($O30:$X30)</f>
         <v>1.1895215818412368</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" ref="AJ30" si="165">P30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AJ30" si="166">P30*100/SUM($O30:$X30)</f>
         <v>0.96632992055257616</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" ref="AK30" si="166">Q30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AK30" si="167">Q30*100/SUM($O30:$X30)</f>
         <v>2.8692671750971401</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" ref="AL30" si="167">R30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AL30" si="168">R30*100/SUM($O30:$X30)</f>
         <v>8.5393744364954909</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" ref="AM30" si="168">S30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AM30" si="169">S30*100/SUM($O30:$X30)</f>
         <v>9.7910751275209886</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" ref="AN30" si="169">T30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AN30" si="170">T30*100/SUM($O30:$X30)</f>
         <v>12.964156633628784</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" ref="AO30" si="170">U30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AO30" si="171">U30*100/SUM($O30:$X30)</f>
         <v>10.749724445019917</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" ref="AP30" si="171">V30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AP30" si="172">V30*100/SUM($O30:$X30)</f>
         <v>9.1316553348902101</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" ref="AQ30" si="172">W30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AQ30" si="173">W30*100/SUM($O30:$X30)</f>
         <v>11.850627938469396</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" ref="AR30" si="173">X30*100/SUM($O30:$X30)</f>
+        <f t="shared" ref="AR30" si="174">X30*100/SUM($O30:$X30)</f>
         <v>31.948267406484259</v>
       </c>
     </row>
@@ -10429,11 +10664,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6813</v>
+        <v>6998</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -10510,83 +10745,83 @@
         <v>1150.7514801882496</v>
       </c>
       <c r="Y31" s="3">
-        <f>E31*100/SUM($E31:$N31)</f>
+        <f t="shared" si="99"/>
         <v>0.65250379362670718</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" ref="Z31" si="174">F31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="Z31" si="175">F31*100/SUM($E31:$N31)</f>
         <v>0.53110773899848251</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" ref="AA31" si="175">G31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AA31" si="176">G31*100/SUM($E31:$N31)</f>
         <v>2.7769347496206374</v>
       </c>
       <c r="AB31" s="3">
-        <f t="shared" ref="AB31" si="176">H31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AB31" si="177">H31*100/SUM($E31:$N31)</f>
         <v>13.201820940819424</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" ref="AC31" si="177">I31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AC31" si="178">I31*100/SUM($E31:$N31)</f>
         <v>15.43247344461305</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" ref="AD31" si="178">J31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AD31" si="179">J31*100/SUM($E31:$N31)</f>
         <v>17.496206373292868</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" ref="AE31" si="179">K31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AE31" si="180">K31*100/SUM($E31:$N31)</f>
         <v>14.673748103186647</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" ref="AF31" si="180">L31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AF31" si="181">L31*100/SUM($E31:$N31)</f>
         <v>9.8937784522003032</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" ref="AG31" si="181">M31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AG31" si="182">M31*100/SUM($E31:$N31)</f>
         <v>8.0880121396054623</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" ref="AH31" si="182">N31*100/SUM($E31:$N31)</f>
+        <f t="shared" ref="AH31" si="183">N31*100/SUM($E31:$N31)</f>
         <v>17.253414264036419</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" ref="AI31" si="183">O31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AI31" si="184">O31*100/SUM($O31:$X31)</f>
         <v>1.1155580860940868</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="184">P31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AJ31" si="185">P31*100/SUM($O31:$X31)</f>
         <v>0.95459386214021635</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="185">Q31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AK31" si="186">Q31*100/SUM($O31:$X31)</f>
         <v>2.7685653243669308</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="186">R31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AL31" si="187">R31*100/SUM($O31:$X31)</f>
         <v>8.447086597134879</v>
       </c>
       <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="187">S31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AM31" si="188">S31*100/SUM($O31:$X31)</f>
         <v>9.6618241251449142</v>
       </c>
       <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="188">T31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AN31" si="189">T31*100/SUM($O31:$X31)</f>
         <v>12.899499887480493</v>
       </c>
       <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="189">U31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AO31" si="190">U31*100/SUM($O31:$X31)</f>
         <v>10.634695294157163</v>
       </c>
       <c r="AP31" s="3">
-        <f t="shared" ref="AP31" si="190">V31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AP31" si="191">V31*100/SUM($O31:$X31)</f>
         <v>9.0546534064016839</v>
       </c>
       <c r="AQ31" s="3">
-        <f t="shared" ref="AQ31" si="191">W31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AQ31" si="192">W31*100/SUM($O31:$X31)</f>
         <v>11.701536617528189</v>
       </c>
       <c r="AR31" s="3">
-        <f t="shared" ref="AR31" si="192">X31*100/SUM($O31:$X31)</f>
+        <f t="shared" ref="AR31" si="193">X31*100/SUM($O31:$X31)</f>
         <v>32.761986799551451</v>
       </c>
     </row>
@@ -10596,11 +10831,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>6830</v>
+        <v>7234</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -10677,84 +10912,251 @@
         <v>1212.4892464956226</v>
       </c>
       <c r="Y32" s="3">
-        <f>E32*100/SUM($E32:$N32)</f>
+        <f t="shared" si="99"/>
         <v>0.63123899001761596</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" ref="Z32" si="193">F32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="Z32" si="194">F32*100/SUM($E32:$N32)</f>
         <v>0.52847915443335292</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" ref="AA32" si="194">G32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AA32" si="195">G32*100/SUM($E32:$N32)</f>
         <v>2.7157956547269526</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" ref="AB32" si="195">H32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AB32" si="196">H32*100/SUM($E32:$N32)</f>
         <v>12.962419260129185</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" ref="AC32" si="196">I32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AC32" si="197">I32*100/SUM($E32:$N32)</f>
         <v>15.443335290663535</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" ref="AD32" si="197">J32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AD32" si="198">J32*100/SUM($E32:$N32)</f>
         <v>17.586611861421023</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" ref="AE32" si="198">K32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AE32" si="199">K32*100/SUM($E32:$N32)</f>
         <v>14.812096300645919</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" ref="AF32" si="199">L32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AF32" si="200">L32*100/SUM($E32:$N32)</f>
         <v>9.7768643570170291</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" ref="AG32" si="200">M32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AG32" si="201">M32*100/SUM($E32:$N32)</f>
         <v>7.9565472695243686</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" ref="AH32" si="201">N32*100/SUM($E32:$N32)</f>
+        <f t="shared" ref="AH32" si="202">N32*100/SUM($E32:$N32)</f>
         <v>17.586611861421023</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" ref="AI32" si="202">O32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AI32" si="203">O32*100/SUM($O32:$X32)</f>
         <v>1.0764682474599534</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="203">P32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AJ32" si="204">P32*100/SUM($O32:$X32)</f>
         <v>0.94746271732109555</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="204">Q32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AK32" si="205">Q32*100/SUM($O32:$X32)</f>
         <v>2.7007504012450916</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="205">R32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AL32" si="206">R32*100/SUM($O32:$X32)</f>
         <v>8.2728934876609479</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="206">S32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AM32" si="207">S32*100/SUM($O32:$X32)</f>
         <v>9.6441276499945143</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="207">T32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AN32" si="208">T32*100/SUM($O32:$X32)</f>
         <v>12.933302016742525</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="208">U32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AO32" si="209">U32*100/SUM($O32:$X32)</f>
         <v>10.707763700766201</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" ref="AP32" si="209">V32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AP32" si="210">V32*100/SUM($O32:$X32)</f>
         <v>8.9249851044116344</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" ref="AQ32" si="210">W32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AQ32" si="211">W32*100/SUM($O32:$X32)</f>
         <v>11.482170962535752</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" ref="AR32" si="211">X32*100/SUM($O32:$X32)</f>
+        <f t="shared" ref="AR32" si="212">X32*100/SUM($O32:$X32)</f>
         <v>33.310075711862289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A33" s="19">
+        <v>43936</v>
+      </c>
+      <c r="B33" s="17">
+        <f>mtl_newcases!C34</f>
+        <v>7281</v>
+      </c>
+      <c r="C33" s="17">
+        <f>mtl_newcases!B34</f>
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>332</v>
+      </c>
+      <c r="E33" cm="1">
+        <f t="array" ref="E33:N33">TRANSPOSE(santemontreal!R$57:R$66)</f>
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>190</v>
+      </c>
+      <c r="H33">
+        <v>913</v>
+      </c>
+      <c r="I33">
+        <v>1126</v>
+      </c>
+      <c r="J33">
+        <v>1282</v>
+      </c>
+      <c r="K33">
+        <v>1088</v>
+      </c>
+      <c r="L33">
+        <v>702</v>
+      </c>
+      <c r="M33">
+        <v>579</v>
+      </c>
+      <c r="N33">
+        <v>1302</v>
+      </c>
+      <c r="O33" s="18">
+        <f>E33/(age_distribution_2016!$B$2/100000)</f>
+        <v>39.183524694733009</v>
+      </c>
+      <c r="P33" s="18">
+        <f>F33/(age_distribution_2016!$B$3/100000)</f>
+        <v>34.487713751975861</v>
+      </c>
+      <c r="Q33" s="18">
+        <f>G33/(age_distribution_2016!$B$4/100000)</f>
+        <v>100.96447644605043</v>
+      </c>
+      <c r="R33" s="18">
+        <f>H33/(age_distribution_2016!$B$5/100000)</f>
+        <v>311.36499275300537</v>
+      </c>
+      <c r="S33" s="18">
+        <f>I33/(age_distribution_2016!$B$6/100000)</f>
+        <v>375.74038541753566</v>
+      </c>
+      <c r="T33" s="18">
+        <f>J33/(age_distribution_2016!$B$7/100000)</f>
+        <v>503.78229688574515</v>
+      </c>
+      <c r="U33" s="18">
+        <f>K33/(age_distribution_2016!$B$8/100000)</f>
+        <v>420.28005794302265</v>
+      </c>
+      <c r="V33" s="18">
+        <f>L33/(age_distribution_2016!$B$9/100000)</f>
+        <v>342.43067242262379</v>
+      </c>
+      <c r="W33" s="18">
+        <f>M33/(age_distribution_2016!$B$10/100000)</f>
+        <v>446.48365206662555</v>
+      </c>
+      <c r="X33" s="18">
+        <f>N33/(age_distribution_2016!$B$11/100000)</f>
+        <v>1317.7470775770457</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" ref="Y33" si="213">E33*100/SUM($E33:$N33)</f>
+        <v>0.59220493045035116</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" ref="Z33" si="214">F33*100/SUM($E33:$N33)</f>
+        <v>0.49579947665610796</v>
+      </c>
+      <c r="AA33" s="3">
+        <f t="shared" ref="AA33" si="215">G33*100/SUM($E33:$N33)</f>
+        <v>2.6167194601294588</v>
+      </c>
+      <c r="AB33" s="3">
+        <f t="shared" ref="AB33" si="216">H33*100/SUM($E33:$N33)</f>
+        <v>12.574025616306294</v>
+      </c>
+      <c r="AC33" s="3">
+        <f t="shared" ref="AC33" si="217">I33*100/SUM($E33:$N33)</f>
+        <v>15.507505853188267</v>
+      </c>
+      <c r="AD33" s="3">
+        <f t="shared" ref="AD33" si="218">J33*100/SUM($E33:$N33)</f>
+        <v>17.655970252031402</v>
+      </c>
+      <c r="AE33" s="3">
+        <f t="shared" ref="AE33" si="219">K33*100/SUM($E33:$N33)</f>
+        <v>14.984161961162375</v>
+      </c>
+      <c r="AF33" s="3">
+        <f t="shared" ref="AF33" si="220">L33*100/SUM($E33:$N33)</f>
+        <v>9.6680897947941062</v>
+      </c>
+      <c r="AG33" s="3">
+        <f t="shared" ref="AG33" si="221">M33*100/SUM($E33:$N33)</f>
+        <v>7.9741082495524029</v>
+      </c>
+      <c r="AH33" s="3">
+        <f t="shared" ref="AH33" si="222">N33*100/SUM($E33:$N33)</f>
+        <v>17.931414405729239</v>
+      </c>
+      <c r="AI33" s="3">
+        <f t="shared" ref="AI33" si="223">O33*100/SUM($O33:$X33)</f>
+        <v>1.0066507009087609</v>
+      </c>
+      <c r="AJ33" s="3">
+        <f t="shared" ref="AJ33" si="224">P33*100/SUM($O33:$X33)</f>
+        <v>0.88601220772346267</v>
+      </c>
+      <c r="AK33" s="3">
+        <f t="shared" ref="AK33" si="225">Q33*100/SUM($O33:$X33)</f>
+        <v>2.5938442693228283</v>
+      </c>
+      <c r="AL33" s="3">
+        <f t="shared" ref="AL33" si="226">R33*100/SUM($O33:$X33)</f>
+        <v>7.9991728828671622</v>
+      </c>
+      <c r="AM33" s="3">
+        <f t="shared" ref="AM33" si="227">S33*100/SUM($O33:$X33)</f>
+        <v>9.653019356656614</v>
+      </c>
+      <c r="AN33" s="3">
+        <f t="shared" ref="AN33" si="228">T33*100/SUM($O33:$X33)</f>
+        <v>12.942500865258527</v>
+      </c>
+      <c r="AO33" s="3">
+        <f t="shared" ref="AO33" si="229">U33*100/SUM($O33:$X33)</f>
+        <v>10.79727304274869</v>
+      </c>
+      <c r="AP33" s="3">
+        <f t="shared" ref="AP33" si="230">V33*100/SUM($O33:$X33)</f>
+        <v>8.7972707685796223</v>
+      </c>
+      <c r="AQ33" s="3">
+        <f t="shared" ref="AQ33" si="231">W33*100/SUM($O33:$X33)</f>
+        <v>11.470460730593405</v>
+      </c>
+      <c r="AR33" s="3">
+        <f t="shared" ref="AR33" si="232">X33*100/SUM($O33:$X33)</f>
+        <v>33.853795175340927</v>
       </c>
     </row>
   </sheetData>
@@ -10764,11 +11166,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11793,6 +12195,29 @@
         <v>2491</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B45">
+        <v>15857</v>
+      </c>
+      <c r="C45">
+        <v>630</v>
+      </c>
+      <c r="D45">
+        <v>1018</v>
+      </c>
+      <c r="E45">
+        <v>209</v>
+      </c>
+      <c r="F45">
+        <v>132714</v>
+      </c>
+      <c r="G45">
+        <v>2841</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11800,10 +12225,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11840,7 +12265,7 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -11852,7 +12277,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C27" si="0">C2+B3</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -11864,7 +12289,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -11876,7 +12301,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -11888,7 +12313,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -11900,7 +12325,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -11912,7 +12337,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -11924,7 +12349,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -11936,7 +12361,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -11948,7 +12373,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -11960,7 +12385,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -11972,7 +12397,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -11984,7 +12409,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -11996,7 +12421,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -12008,7 +12433,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -12020,7 +12445,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -12030,7 +12455,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -12042,7 +12467,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -12052,7 +12477,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -12064,7 +12489,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -12074,7 +12499,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -12086,7 +12511,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -12096,7 +12521,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -12108,7 +12533,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -12118,7 +12543,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -12130,7 +12555,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -12140,7 +12565,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -12152,7 +12577,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -12162,7 +12587,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -12174,7 +12599,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -12184,7 +12609,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -12192,7 +12617,7 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -12258,11 +12683,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C28">
-        <f>C27+B28</f>
-        <v>5699</v>
+        <f t="shared" ref="C28:C34" si="4">C27+B28</f>
+        <v>5705</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -12271,8 +12696,8 @@
         <v>5617</v>
       </c>
       <c r="G28">
-        <f>C28-F28</f>
-        <v>82</v>
+        <f t="shared" ref="G28:G33" si="5">C28-F28</f>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -12283,8 +12708,8 @@
         <v>255</v>
       </c>
       <c r="C29">
-        <f>C28+B29</f>
-        <v>5954</v>
+        <f t="shared" si="4"/>
+        <v>5960</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -12293,8 +12718,8 @@
         <v>5861</v>
       </c>
       <c r="G29">
-        <f>C29-F29</f>
-        <v>93</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -12305,8 +12730,8 @@
         <v>203</v>
       </c>
       <c r="C30">
-        <f>C29+B30</f>
-        <v>6157</v>
+        <f t="shared" si="4"/>
+        <v>6163</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -12315,8 +12740,8 @@
         <v>6088</v>
       </c>
       <c r="G30">
-        <f>C30-F30</f>
-        <v>69</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -12327,8 +12752,8 @@
         <v>312</v>
       </c>
       <c r="C31">
-        <f>C30+B31</f>
-        <v>6469</v>
+        <f t="shared" si="4"/>
+        <v>6475</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -12337,8 +12762,8 @@
         <v>6393</v>
       </c>
       <c r="G31">
-        <f>C31-F31</f>
-        <v>76</v>
+        <f t="shared" si="5"/>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -12346,11 +12771,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="C32">
-        <f>C31+B32</f>
-        <v>6813</v>
+        <f t="shared" si="4"/>
+        <v>6998</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -12359,8 +12784,8 @@
         <v>6628</v>
       </c>
       <c r="G32">
-        <f>C32-F32</f>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -12368,11 +12793,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="C33">
-        <f>C32+B33</f>
-        <v>6830</v>
+        <f t="shared" si="4"/>
+        <v>7234</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -12381,7 +12806,29 @@
         <v>6830</v>
       </c>
       <c r="G33">
-        <f>C33-F33</f>
+        <f t="shared" si="5"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
+        <v>43936</v>
+      </c>
+      <c r="B34">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>7281</v>
+      </c>
+      <c r="E34" s="19">
+        <v>43936</v>
+      </c>
+      <c r="F34">
+        <v>7281</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34" si="6">C34-F34</f>
         <v>0</v>
       </c>
     </row>
@@ -12397,7 +12844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q35" sqref="Q2:Q35"/>
+      <selection pane="topRight" activeCell="R2" sqref="R2:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12458,9 +12905,11 @@
         <v>271</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="R1" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -12712,7 +13161,9 @@
       <c r="Q2" s="7">
         <v>417</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="7">
+        <v>481</v>
+      </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -12964,7 +13415,9 @@
       <c r="Q3" s="9">
         <v>97</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9">
+        <v>113</v>
+      </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -13216,7 +13669,9 @@
       <c r="Q4" s="7">
         <v>5</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7">
+        <v>5</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -13468,7 +13923,9 @@
       <c r="Q5" s="9">
         <v>13</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="9">
+        <v>13</v>
+      </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -13720,7 +14177,9 @@
       <c r="Q6" s="7">
         <v>671</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7">
+        <v>717</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -13972,7 +14431,9 @@
       <c r="Q7" s="9">
         <v>279</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="9">
+        <v>286</v>
+      </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
@@ -14224,7 +14685,9 @@
       <c r="Q8" s="7">
         <v>76</v>
       </c>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7">
+        <v>82</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -14476,7 +14939,9 @@
       <c r="Q9" s="9">
         <v>41</v>
       </c>
-      <c r="R9" s="9"/>
+      <c r="R9" s="9">
+        <v>44</v>
+      </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -14728,7 +15193,9 @@
       <c r="Q10" s="7">
         <v>29</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7">
+        <v>29</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -14980,7 +15447,9 @@
       <c r="Q11" s="9">
         <v>18</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="9">
+        <v>20</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
@@ -15232,7 +15701,9 @@
       <c r="Q12" s="7">
         <v>93</v>
       </c>
-      <c r="R12" s="7"/>
+      <c r="R12" s="7">
+        <v>99</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -15484,7 +15955,9 @@
       <c r="Q13" s="9">
         <v>349</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="9">
+        <v>360</v>
+      </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -15736,7 +16209,9 @@
       <c r="Q14" s="7">
         <v>28</v>
       </c>
-      <c r="R14" s="7"/>
+      <c r="R14" s="7">
+        <v>29</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -15988,7 +16463,9 @@
       <c r="Q15" s="9">
         <v>359</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="9">
+        <v>396</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -16240,7 +16717,9 @@
       <c r="Q16" s="7">
         <v>7</v>
       </c>
-      <c r="R16" s="7"/>
+      <c r="R16" s="7">
+        <v>7</v>
+      </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -16492,7 +16971,9 @@
       <c r="Q17" s="9">
         <v>404</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="R17" s="9">
+        <v>443</v>
+      </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -16744,7 +17225,9 @@
       <c r="Q18" s="7">
         <v>5</v>
       </c>
-      <c r="R18" s="7"/>
+      <c r="R18" s="7">
+        <v>5</v>
+      </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -16996,7 +17479,9 @@
       <c r="Q19" s="9">
         <v>51</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="9">
+        <v>53</v>
+      </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -17248,7 +17733,9 @@
       <c r="Q20" s="7">
         <v>153</v>
       </c>
-      <c r="R20" s="7"/>
+      <c r="R20" s="7">
+        <v>156</v>
+      </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -17500,7 +17987,9 @@
       <c r="Q21" s="9">
         <v>93</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="9">
+        <v>100</v>
+      </c>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -17752,7 +18241,9 @@
       <c r="Q22" s="7">
         <v>275</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="7">
+        <v>295</v>
+      </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -18004,7 +18495,9 @@
       <c r="Q23" s="9">
         <v>37</v>
       </c>
-      <c r="R23" s="9"/>
+      <c r="R23" s="9">
+        <v>38</v>
+      </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -18256,7 +18749,9 @@
       <c r="Q24" s="7">
         <v>313</v>
       </c>
-      <c r="R24" s="7"/>
+      <c r="R24" s="7">
+        <v>358</v>
+      </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -18508,7 +19003,9 @@
       <c r="Q25" s="9">
         <v>340</v>
       </c>
-      <c r="R25" s="9"/>
+      <c r="R25" s="9">
+        <v>357</v>
+      </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -18760,7 +19257,9 @@
       <c r="Q26" s="7">
         <v>5</v>
       </c>
-      <c r="R26" s="7"/>
+      <c r="R26" s="7">
+        <v>5</v>
+      </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -19012,7 +19511,9 @@
       <c r="Q27" s="9">
         <v>213</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="9">
+        <v>223</v>
+      </c>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
@@ -19264,7 +19765,9 @@
       <c r="Q28" s="7">
         <v>224</v>
       </c>
-      <c r="R28" s="7"/>
+      <c r="R28" s="7">
+        <v>240</v>
+      </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -19516,7 +20019,9 @@
       <c r="Q29" s="20">
         <v>2</v>
       </c>
-      <c r="R29" s="22"/>
+      <c r="R29" s="20">
+        <v>2</v>
+      </c>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
@@ -19768,7 +20273,9 @@
       <c r="Q30" s="7">
         <v>286</v>
       </c>
-      <c r="R30" s="7"/>
+      <c r="R30" s="7">
+        <v>310</v>
+      </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -20020,7 +20527,9 @@
       <c r="Q31" s="9">
         <v>276</v>
       </c>
-      <c r="R31" s="9"/>
+      <c r="R31" s="9">
+        <v>301</v>
+      </c>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
@@ -20272,7 +20781,9 @@
       <c r="Q32" s="7">
         <v>225</v>
       </c>
-      <c r="R32" s="7"/>
+      <c r="R32" s="7">
+        <v>238</v>
+      </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -20524,7 +21035,9 @@
       <c r="Q33" s="9">
         <v>390</v>
       </c>
-      <c r="R33" s="9"/>
+      <c r="R33" s="9">
+        <v>429</v>
+      </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -20776,7 +21289,9 @@
       <c r="Q34" s="7">
         <v>63</v>
       </c>
-      <c r="R34" s="7"/>
+      <c r="R34" s="7">
+        <v>64</v>
+      </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -21028,7 +21543,9 @@
       <c r="Q35" s="9">
         <v>993</v>
       </c>
-      <c r="R35" s="9"/>
+      <c r="R35" s="9">
+        <v>983</v>
+      </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -21280,7 +21797,9 @@
       <c r="Q36" s="11">
         <v>6830</v>
       </c>
-      <c r="R36" s="11"/>
+      <c r="R36" s="11">
+        <v>7281</v>
+      </c>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
@@ -25465,9 +25984,11 @@
         <v>271</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="R56" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -25717,7 +26238,9 @@
       <c r="Q57" s="7">
         <v>43</v>
       </c>
-      <c r="R57" s="7"/>
+      <c r="R57" s="7">
+        <v>43</v>
+      </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
@@ -25967,7 +26490,9 @@
       <c r="Q58" s="9">
         <v>36</v>
       </c>
-      <c r="R58" s="9"/>
+      <c r="R58" s="9">
+        <v>36</v>
+      </c>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
@@ -26217,7 +26742,9 @@
       <c r="Q59" s="7">
         <v>185</v>
       </c>
-      <c r="R59" s="7"/>
+      <c r="R59" s="7">
+        <v>190</v>
+      </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
@@ -26467,7 +26994,9 @@
       <c r="Q60" s="9">
         <v>883</v>
       </c>
-      <c r="R60" s="9"/>
+      <c r="R60" s="9">
+        <v>913</v>
+      </c>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
@@ -26717,7 +27246,9 @@
       <c r="Q61" s="7">
         <v>1052</v>
       </c>
-      <c r="R61" s="7"/>
+      <c r="R61" s="7">
+        <v>1126</v>
+      </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -26967,7 +27498,9 @@
       <c r="Q62" s="9">
         <v>1198</v>
       </c>
-      <c r="R62" s="9"/>
+      <c r="R62" s="9">
+        <v>1282</v>
+      </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
@@ -27217,7 +27750,9 @@
       <c r="Q63" s="7">
         <v>1009</v>
       </c>
-      <c r="R63" s="7"/>
+      <c r="R63" s="7">
+        <v>1088</v>
+      </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
@@ -27467,7 +28002,9 @@
       <c r="Q64" s="9">
         <v>666</v>
       </c>
-      <c r="R64" s="9"/>
+      <c r="R64" s="9">
+        <v>702</v>
+      </c>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
@@ -27717,7 +28254,9 @@
       <c r="Q65" s="7">
         <v>542</v>
       </c>
-      <c r="R65" s="7"/>
+      <c r="R65" s="7">
+        <v>579</v>
+      </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
@@ -27967,7 +28506,9 @@
       <c r="Q66" s="9">
         <v>1198</v>
       </c>
-      <c r="R66" s="9"/>
+      <c r="R66" s="9">
+        <v>1302</v>
+      </c>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
@@ -28217,7 +28758,9 @@
       <c r="Q67" s="7">
         <v>18</v>
       </c>
-      <c r="R67" s="7"/>
+      <c r="R67" s="7">
+        <v>20</v>
+      </c>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -28467,7 +29010,9 @@
       <c r="Q68" s="15">
         <v>6830</v>
       </c>
-      <c r="R68" s="15"/>
+      <c r="R68" s="15">
+        <v>7281</v>
+      </c>
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
       <c r="U68" s="15"/>
@@ -28719,6 +29264,9 @@
       <c r="Q70">
         <v>242</v>
       </c>
+      <c r="R70">
+        <v>332</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -28774,7 +29322,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
         <v>272</v>
@@ -28788,10 +29336,10 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -28799,7 +29347,7 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>280</v>
@@ -28813,7 +29361,7 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>883</v>
+        <v>913</v>
       </c>
       <c r="C7" t="s">
         <v>282</v>
@@ -28826,11 +29374,11 @@
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1126</v>
+      </c>
+      <c r="C8" t="s">
         <v>284</v>
-      </c>
-      <c r="C8" t="s">
-        <v>273</v>
       </c>
       <c r="D8" t="s">
         <v>285</v>
@@ -28840,28 +29388,28 @@
       <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>1282</v>
+      </c>
+      <c r="C9" t="s">
         <v>286</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>287</v>
-      </c>
-      <c r="D9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1088</v>
+      </c>
+      <c r="C10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
         <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -28869,13 +29417,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -28883,27 +29431,27 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
-        <v>286</v>
+      <c r="B13">
+        <v>1302</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -28911,7 +29459,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>235</v>
@@ -28924,14 +29472,14 @@
       <c r="A15" t="s">
         <v>98</v>
       </c>
-      <c r="B15" t="s">
-        <v>275</v>
+      <c r="B15">
+        <v>7281</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4D97D-C5CC-4947-A037-EF295EBBA4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA96FA98-0733-4757-BC74-E9D264DCE143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17510" yWindow="4040" windowWidth="27950" windowHeight="17280" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18500" yWindow="3080" windowWidth="27950" windowHeight="17280" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="303">
   <si>
     <t>borough</t>
   </si>
@@ -889,76 +889,100 @@
     <t>12 ARIL, 17H30</t>
   </si>
   <si>
-    <t>13 ARIL, 17H30</t>
-  </si>
-  <si>
-    <t>38,8</t>
-  </si>
-  <si>
-    <t>14 ARIL, 17H30</t>
-  </si>
-  <si>
-    <t>* 33,3</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>15 ARIL, 17H15</t>
-  </si>
-  <si>
     <t>0,5</t>
   </si>
   <si>
-    <t>352,5</t>
+    <t>0,6</t>
   </si>
   <si>
-    <t>0,6 </t>
+    <t>7 760</t>
   </si>
   <si>
-    <t>2,6</t>
+    <t>375,7</t>
   </si>
   <si>
-    <t>95,5</t>
+    <t>11 AVRIL, 17H</t>
   </si>
   <si>
-    <t>12,6</t>
+    <t>12 AVRIL, 17H30</t>
   </si>
   <si>
-    <t>283,4</t>
+    <t>13 AVRIL, 17H30</t>
   </si>
   <si>
-    <t>15,5</t>
+    <t>14 AVRIL, 17H30</t>
   </si>
   <si>
-    <t>342,7</t>
+    <t>15 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>17,7 </t>
+    <t>16 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>460,6</t>
+    <t>39,7</t>
   </si>
   <si>
-    <t>15,0</t>
+    <t>* 32,4</t>
   </si>
   <si>
-    <t>423,9</t>
+    <t>2,5</t>
   </si>
   <si>
-    <t>9,7 </t>
+    <t>97,0</t>
   </si>
   <si>
-    <t>324,2</t>
+    <t>12,4</t>
   </si>
   <si>
-    <t>400,1</t>
+    <t>297,7</t>
   </si>
   <si>
-    <t>17,9</t>
+    <t>1 176</t>
   </si>
   <si>
-    <t>1 288,6</t>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>357,9</t>
+  </si>
+  <si>
+    <t>1 354</t>
+  </si>
+  <si>
+    <t>17,5</t>
+  </si>
+  <si>
+    <t>486,5</t>
+  </si>
+  <si>
+    <t>1 145</t>
+  </si>
+  <si>
+    <t>14,8</t>
+  </si>
+  <si>
+    <t>446,1</t>
+  </si>
+  <si>
+    <t>9,6</t>
+  </si>
+  <si>
+    <t>343,1</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>434,0</t>
+  </si>
+  <si>
+    <t>1 463</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>1 447,9</t>
   </si>
 </sst>
 </file>
@@ -1470,20 +1494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="T2" sqref="T2:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1541,8 +1565,11 @@
       <c r="S1" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="1">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1600,8 +1627,11 @@
       <c r="S2">
         <v>481</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1659,8 +1689,11 @@
       <c r="S3">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1718,8 +1751,11 @@
       <c r="S4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1777,8 +1813,11 @@
       <c r="S5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1836,8 +1875,11 @@
       <c r="S6">
         <v>717</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1895,8 +1937,11 @@
       <c r="S7">
         <v>286</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1954,8 +1999,11 @@
       <c r="S8">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2013,8 +2061,11 @@
       <c r="S9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2072,8 +2123,11 @@
       <c r="S10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2131,8 +2185,11 @@
       <c r="S11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2190,8 +2247,11 @@
       <c r="S12">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2249,8 +2309,11 @@
       <c r="S13">
         <v>360</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2308,8 +2371,11 @@
       <c r="S14">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2367,8 +2433,11 @@
       <c r="S15">
         <v>396</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2426,8 +2495,11 @@
       <c r="S16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2485,8 +2557,11 @@
       <c r="S17">
         <v>443</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2544,8 +2619,11 @@
       <c r="S18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2603,8 +2681,11 @@
       <c r="S19">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2662,8 +2743,11 @@
       <c r="S20">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2721,8 +2805,11 @@
       <c r="S21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2780,8 +2867,11 @@
       <c r="S22">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2839,8 +2929,11 @@
       <c r="S23">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2898,8 +2991,11 @@
       <c r="S24">
         <v>358</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2957,8 +3053,11 @@
       <c r="S25">
         <v>357</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3016,8 +3115,11 @@
       <c r="S26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3075,8 +3177,11 @@
       <c r="S27">
         <v>223</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3134,8 +3239,11 @@
       <c r="S28">
         <v>240</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3193,8 +3301,11 @@
       <c r="S29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3252,8 +3363,11 @@
       <c r="S30">
         <v>310</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3311,8 +3425,11 @@
       <c r="S31">
         <v>301</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3370,8 +3487,11 @@
       <c r="S32">
         <v>238</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3429,8 +3549,11 @@
       <c r="S33">
         <v>429</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3488,8 +3611,11 @@
       <c r="S34">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3545,6 +3671,9 @@
         <v>993</v>
       </c>
       <c r="S35">
+        <v>983</v>
+      </c>
+      <c r="T35">
         <v>983</v>
       </c>
     </row>
@@ -3556,20 +3685,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3645,8 +3774,12 @@
         <f>cases!S1</f>
         <v>43936</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="1">
+        <f>cases!T1</f>
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3721,8 +3854,12 @@
         <f>cases!S2/(population_2016!$B2/1000)</f>
         <v>3.5830012290960558</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="3">
+        <f>cases!T2/(population_2016!$B2/1000)</f>
+        <v>3.9852508473313715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3797,8 +3934,12 @@
         <f>cases!S3/(population_2016!$B3/1000)</f>
         <v>2.6404336853911583</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="3">
+        <f>cases!T3/(population_2016!$B3/1000)</f>
+        <v>2.8040003738667165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -3873,8 +4014,12 @@
         <f>cases!S4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="3">
+        <f>cases!T4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -3949,8 +4094,12 @@
         <f>cases!S5/(population_2016!$B5/1000)</f>
         <v>0.6727385634444214</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="3">
+        <f>cases!T5/(population_2016!$B5/1000)</f>
+        <v>0.77623680397433237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4025,8 +4174,12 @@
         <f>cases!S6/(population_2016!$B6/1000)</f>
         <v>4.3057890944030746</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="3">
+        <f>cases!T6/(population_2016!$B6/1000)</f>
+        <v>4.6540956041316353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4101,8 +4254,12 @@
         <f>cases!S7/(population_2016!$B7/1000)</f>
         <v>8.8141025641025639</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="3">
+        <f>cases!T7/(population_2016!$B7/1000)</f>
+        <v>8.9990138067061149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4177,8 +4334,12 @@
         <f>cases!S8/(population_2016!$B8/1000)</f>
         <v>1.6769259085052863</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="3">
+        <f>cases!T8/(population_2016!$B8/1000)</f>
+        <v>1.8200781202069571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4253,8 +4414,12 @@
         <f>cases!S9/(population_2016!$B9/1000)</f>
         <v>2.3182297154899896</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="3">
+        <f>cases!T9/(population_2016!$B9/1000)</f>
+        <v>2.476290832455216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4329,8 +4494,12 @@
         <f>cases!S10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="3">
+        <f>cases!T10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4405,8 +4574,12 @@
         <f>cases!S11/(population_2016!$B11/1000)</f>
         <v>0.99250657535606179</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" s="3">
+        <f>cases!T11/(population_2016!$B11/1000)</f>
+        <v>1.0421319041238648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4481,8 +4654,12 @@
         <f>cases!S12/(population_2016!$B12/1000)</f>
         <v>2.2252691676594214</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="3">
+        <f>cases!T12/(population_2016!$B12/1000)</f>
+        <v>2.2927015666794039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4557,8 +4734,12 @@
         <f>cases!S13/(population_2016!$B13/1000)</f>
         <v>4.6842673675718585</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="3">
+        <f>cases!T13/(population_2016!$B13/1000)</f>
+        <v>4.8404096131575871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4633,8 +4814,12 @@
         <f>cases!S14/(population_2016!$B14/1000)</f>
         <v>1.5749742030087437</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="3">
+        <f>cases!T14/(population_2016!$B14/1000)</f>
+        <v>1.7922120241133981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4709,8 +4894,12 @@
         <f>cases!S15/(population_2016!$B15/1000)</f>
         <v>2.9112509557136974</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15" s="3">
+        <f>cases!T15/(population_2016!$B15/1000)</f>
+        <v>3.1612068458507321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -4785,8 +4974,12 @@
         <f>cases!S16/(population_2016!$B16/1000)</f>
         <v>1.8181818181818181</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" s="3">
+        <f>cases!T16/(population_2016!$B16/1000)</f>
+        <v>2.0779220779220777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4861,8 +5054,12 @@
         <f>cases!S17/(population_2016!$B17/1000)</f>
         <v>5.2591590094261225</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17" s="3">
+        <f>cases!T17/(population_2016!$B17/1000)</f>
+        <v>5.8171284754374719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -4937,8 +5134,12 @@
         <f>cases!S18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18" s="3">
+        <f>cases!T18/(population_2016!$B18/1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5013,8 +5214,12 @@
         <f>cases!S19/(population_2016!$B19/1000)</f>
         <v>2.6139277964095484</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19" s="3">
+        <f>cases!T19/(population_2016!$B19/1000)</f>
+        <v>2.8112053659498915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5089,8 +5294,12 @@
         <f>cases!S20/(population_2016!$B20/1000)</f>
         <v>6.5124822576605155</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20" s="3">
+        <f>cases!T20/(population_2016!$B20/1000)</f>
+        <v>6.5542289387993655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5165,8 +5374,12 @@
         <f>cases!S21/(population_2016!$B21/1000)</f>
         <v>1.4430639133007201</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21" s="3">
+        <f>cases!T21/(population_2016!$B21/1000)</f>
+        <v>1.5007864698327489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5241,8 +5454,12 @@
         <f>cases!S22/(population_2016!$B22/1000)</f>
         <v>2.8365384615384617</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22" s="3">
+        <f>cases!T22/(population_2016!$B22/1000)</f>
+        <v>3.3173076923076925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5317,8 +5534,12 @@
         <f>cases!S23/(population_2016!$B23/1000)</f>
         <v>1.2109623964308478</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23" s="3">
+        <f>cases!T23/(population_2016!$B23/1000)</f>
+        <v>1.24282982791587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5393,8 +5614,12 @@
         <f>cases!S24/(population_2016!$B24/1000)</f>
         <v>3.3538499011644793</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24" s="3">
+        <f>cases!T24/(population_2016!$B24/1000)</f>
+        <v>3.7004768462568975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5469,8 +5694,12 @@
         <f>cases!S25/(population_2016!$B25/1000)</f>
         <v>2.5574897915323445</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25" s="3">
+        <f>cases!T25/(population_2016!$B25/1000)</f>
+        <v>2.7150942044559065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5545,8 +5774,12 @@
         <f>cases!S26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26" s="3">
+        <f>cases!T26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5621,8 +5854,12 @@
         <f>cases!S27/(population_2016!$B27/1000)</f>
         <v>2.2564455417493017</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27" s="3">
+        <f>cases!T27/(population_2016!$B27/1000)</f>
+        <v>2.3981057999757152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5697,8 +5934,12 @@
         <f>cases!S28/(population_2016!$B28/1000)</f>
         <v>3.0649383819679454</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28" s="3">
+        <f>cases!T28/(population_2016!$B28/1000)</f>
+        <v>3.2948087606155414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -5773,8 +6014,12 @@
         <f>cases!S29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29" s="3">
+        <f>cases!T29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5849,8 +6094,12 @@
         <f>cases!S30/(population_2016!$B30/1000)</f>
         <v>3.9666798889329633</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30" s="3">
+        <f>cases!T30/(population_2016!$B30/1000)</f>
+        <v>4.1202287878594008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5925,8 +6174,12 @@
         <f>cases!S31/(population_2016!$B31/1000)</f>
         <v>4.3478888904938682</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31" s="3">
+        <f>cases!T31/(population_2016!$B31/1000)</f>
+        <v>4.7090092302358837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6001,8 +6254,12 @@
         <f>cases!S32/(population_2016!$B32/1000)</f>
         <v>2.6690591005943705</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32" s="3">
+        <f>cases!T32/(population_2016!$B32/1000)</f>
+        <v>2.7924189749915889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6077,8 +6334,12 @@
         <f>cases!S33/(population_2016!$B33/1000)</f>
         <v>2.9822110070697168</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33" s="3">
+        <f>cases!T33/(population_2016!$B33/1000)</f>
+        <v>3.2463695578124891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -6152,6 +6413,10 @@
       <c r="S34" s="3">
         <f>cases!S34/(population_2016!$B34/1000)</f>
         <v>3.1508467900748323</v>
+      </c>
+      <c r="T34" s="3">
+        <f>cases!T34/(population_2016!$B34/1000)</f>
+        <v>3.2985427333595903</v>
       </c>
     </row>
   </sheetData>
@@ -6161,10 +6426,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR33"/>
+  <dimension ref="A1:AR34"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8994,11 +9259,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -9161,7 +9426,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -9328,7 +9593,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -9495,7 +9760,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
@@ -9662,7 +9927,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
@@ -9829,11 +10094,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5387</v>
+        <v>5385</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -9996,7 +10261,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5705</v>
+        <v>5703</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
@@ -10163,7 +10428,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5960</v>
+        <v>5958</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
@@ -10330,11 +10595,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6163</v>
+        <v>6164</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -10497,7 +10762,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6475</v>
+        <v>6476</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -10664,11 +10929,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6998</v>
+        <v>7026</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -10831,11 +11096,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7234</v>
+        <v>7424</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -10998,11 +11263,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7281</v>
+        <v>7724</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -11157,6 +11422,173 @@
       <c r="AR33" s="3">
         <f t="shared" ref="AR33" si="232">X33*100/SUM($O33:$X33)</f>
         <v>33.853795175340927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
+        <v>43937</v>
+      </c>
+      <c r="B34" s="17">
+        <f>mtl_newcases!C35</f>
+        <v>7760</v>
+      </c>
+      <c r="C34" s="17">
+        <f>mtl_newcases!B35</f>
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>391</v>
+      </c>
+      <c r="E34" cm="1">
+        <f t="array" ref="E34:N34">TRANSPOSE(santemontreal!S$57:S$66)</f>
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>193</v>
+      </c>
+      <c r="H34">
+        <v>959</v>
+      </c>
+      <c r="I34">
+        <v>1176</v>
+      </c>
+      <c r="J34">
+        <v>1354</v>
+      </c>
+      <c r="K34">
+        <v>1145</v>
+      </c>
+      <c r="L34">
+        <v>743</v>
+      </c>
+      <c r="M34">
+        <v>628</v>
+      </c>
+      <c r="N34">
+        <v>1463</v>
+      </c>
+      <c r="O34" s="18">
+        <f>E34/(age_distribution_2016!$B$2/100000)</f>
+        <v>40.094769455075635</v>
+      </c>
+      <c r="P34" s="18">
+        <f>F34/(age_distribution_2016!$B$3/100000)</f>
+        <v>33.529721703309868</v>
+      </c>
+      <c r="Q34" s="18">
+        <f>G34/(age_distribution_2016!$B$4/100000)</f>
+        <v>102.55865238993543</v>
+      </c>
+      <c r="R34" s="18">
+        <f>H34/(age_distribution_2016!$B$5/100000)</f>
+        <v>327.05260465512833</v>
+      </c>
+      <c r="S34" s="18">
+        <f>I34/(age_distribution_2016!$B$6/100000)</f>
+        <v>392.42512722115623</v>
+      </c>
+      <c r="T34" s="18">
+        <f>J34/(age_distribution_2016!$B$7/100000)</f>
+        <v>532.07584242067003</v>
+      </c>
+      <c r="U34" s="18">
+        <f>K34/(age_distribution_2016!$B$8/100000)</f>
+        <v>442.29840656687588</v>
+      </c>
+      <c r="V34" s="18">
+        <f>L34/(age_distribution_2016!$B$9/100000)</f>
+        <v>362.43018462964318</v>
+      </c>
+      <c r="W34" s="18">
+        <f>M34/(age_distribution_2016!$B$10/100000)</f>
+        <v>484.26896977174584</v>
+      </c>
+      <c r="X34" s="18">
+        <f>N34/(age_distribution_2016!$B$11/100000)</f>
+        <v>1480.6942968473256</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" ref="Y34" si="233">E34*100/SUM($E34:$N34)</f>
+        <v>0.5684754521963824</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" ref="Z34" si="234">F34*100/SUM($E34:$N34)</f>
+        <v>0.45219638242894056</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" ref="AA34" si="235">G34*100/SUM($E34:$N34)</f>
+        <v>2.4935400516795867</v>
+      </c>
+      <c r="AB34" s="3">
+        <f t="shared" ref="AB34" si="236">H34*100/SUM($E34:$N34)</f>
+        <v>12.390180878552972</v>
+      </c>
+      <c r="AC34" s="3">
+        <f t="shared" ref="AC34" si="237">I34*100/SUM($E34:$N34)</f>
+        <v>15.193798449612403</v>
+      </c>
+      <c r="AD34" s="3">
+        <f t="shared" ref="AD34" si="238">J34*100/SUM($E34:$N34)</f>
+        <v>17.493540051679588</v>
+      </c>
+      <c r="AE34" s="3">
+        <f t="shared" ref="AE34" si="239">K34*100/SUM($E34:$N34)</f>
+        <v>14.793281653746771</v>
+      </c>
+      <c r="AF34" s="3">
+        <f t="shared" ref="AF34" si="240">L34*100/SUM($E34:$N34)</f>
+        <v>9.5994832041343674</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" ref="AG34" si="241">M34*100/SUM($E34:$N34)</f>
+        <v>8.1136950904392773</v>
+      </c>
+      <c r="AH34" s="3">
+        <f t="shared" ref="AH34" si="242">N34*100/SUM($E34:$N34)</f>
+        <v>18.901808785529717</v>
+      </c>
+      <c r="AI34" s="3">
+        <f t="shared" ref="AI34" si="243">O34*100/SUM($O34:$X34)</f>
+        <v>0.95522219693191313</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f t="shared" ref="AJ34" si="244">P34*100/SUM($O34:$X34)</f>
+        <v>0.79881577730076725</v>
+      </c>
+      <c r="AK34" s="3">
+        <f t="shared" ref="AK34" si="245">Q34*100/SUM($O34:$X34)</f>
+        <v>2.4433686134561095</v>
+      </c>
+      <c r="AL34" s="3">
+        <f t="shared" ref="AL34" si="246">R34*100/SUM($O34:$X34)</f>
+        <v>7.7917372210112088</v>
+      </c>
+      <c r="AM34" s="3">
+        <f t="shared" ref="AM34" si="247">S34*100/SUM($O34:$X34)</f>
+        <v>9.3491793879868617</v>
+      </c>
+      <c r="AN34" s="3">
+        <f t="shared" ref="AN34" si="248">T34*100/SUM($O34:$X34)</f>
+        <v>12.676233385029002</v>
+      </c>
+      <c r="AO34" s="3">
+        <f t="shared" ref="AO34" si="249">U34*100/SUM($O34:$X34)</f>
+        <v>10.537365879948011</v>
+      </c>
+      <c r="AP34" s="3">
+        <f t="shared" ref="AP34" si="250">V34*100/SUM($O34:$X34)</f>
+        <v>8.6345765769839264</v>
+      </c>
+      <c r="AQ34" s="3">
+        <f t="shared" ref="AQ34" si="251">W34*100/SUM($O34:$X34)</f>
+        <v>11.537277193466</v>
+      </c>
+      <c r="AR34" s="3">
+        <f t="shared" ref="AR34" si="252">X34*100/SUM($O34:$X34)</f>
+        <v>35.276223767886201</v>
       </c>
     </row>
   </sheetData>
@@ -11166,11 +11598,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12218,6 +12650,29 @@
         <v>2841</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B46">
+        <v>16798</v>
+      </c>
+      <c r="C46">
+        <v>688</v>
+      </c>
+      <c r="D46">
+        <v>1076</v>
+      </c>
+      <c r="E46">
+        <v>207</v>
+      </c>
+      <c r="F46">
+        <v>136924</v>
+      </c>
+      <c r="G46">
+        <v>3068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12225,10 +12680,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12551,11 +13006,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -12565,7 +13020,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -12577,7 +13032,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -12587,7 +13042,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -12599,7 +13054,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -12609,7 +13064,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -12621,7 +13076,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -12631,7 +13086,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -12643,7 +13098,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -12653,7 +13108,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -12661,11 +13116,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5387</v>
+        <v>5385</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -12675,7 +13130,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -12686,8 +13141,8 @@
         <v>318</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C34" si="4">C27+B28</f>
-        <v>5705</v>
+        <f t="shared" ref="C28:C35" si="4">C27+B28</f>
+        <v>5703</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -12697,7 +13152,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -12709,7 +13164,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5960</v>
+        <v>5958</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -12719,7 +13174,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -12727,11 +13182,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6163</v>
+        <v>6164</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -12741,7 +13196,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -12753,7 +13208,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6475</v>
+        <v>6476</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -12763,7 +13218,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -12771,11 +13226,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6998</v>
+        <v>7026</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -12785,7 +13240,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -12793,11 +13248,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7234</v>
+        <v>7424</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -12807,7 +13262,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>404</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -12815,11 +13270,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7281</v>
+        <v>7724</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -12828,7 +13283,29 @@
         <v>7281</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="6">C34-F34</f>
+        <f t="shared" ref="G34:G35" si="6">C34-F34</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="19">
+        <v>43937</v>
+      </c>
+      <c r="B35">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>7760</v>
+      </c>
+      <c r="E35" s="19">
+        <v>43937</v>
+      </c>
+      <c r="F35">
+        <v>7760</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12844,7 +13321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R35"/>
+      <selection pane="topRight" activeCell="S2" sqref="S2:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12896,21 +13373,23 @@
         <v>252</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="S1" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -13164,7 +13643,9 @@
       <c r="R2" s="7">
         <v>481</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="7">
+        <v>535</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -13418,7 +13899,9 @@
       <c r="R3" s="9">
         <v>113</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="S3" s="9">
+        <v>120</v>
+      </c>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -13672,7 +14155,9 @@
       <c r="R4" s="7">
         <v>5</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="7">
+        <v>5</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -13926,7 +14411,9 @@
       <c r="R5" s="9">
         <v>13</v>
       </c>
-      <c r="S5" s="9"/>
+      <c r="S5" s="9">
+        <v>15</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -14180,7 +14667,9 @@
       <c r="R6" s="7">
         <v>717</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7">
+        <v>775</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -14434,7 +14923,9 @@
       <c r="R7" s="9">
         <v>286</v>
       </c>
-      <c r="S7" s="9"/>
+      <c r="S7" s="9">
+        <v>292</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -14688,7 +15179,9 @@
       <c r="R8" s="7">
         <v>82</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7">
+        <v>89</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -14942,7 +15435,9 @@
       <c r="R9" s="9">
         <v>44</v>
       </c>
-      <c r="S9" s="9"/>
+      <c r="S9" s="9">
+        <v>47</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -15196,7 +15691,9 @@
       <c r="R10" s="7">
         <v>29</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7">
+        <v>29</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -15450,7 +15947,9 @@
       <c r="R11" s="9">
         <v>20</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="9">
+        <v>21</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -15704,7 +16203,9 @@
       <c r="R12" s="7">
         <v>99</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>102</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -15958,7 +16459,9 @@
       <c r="R13" s="9">
         <v>360</v>
       </c>
-      <c r="S13" s="9"/>
+      <c r="S13" s="9">
+        <v>372</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -16212,7 +16715,9 @@
       <c r="R14" s="7">
         <v>29</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7">
+        <v>33</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -16466,7 +16971,9 @@
       <c r="R15" s="9">
         <v>396</v>
       </c>
-      <c r="S15" s="9"/>
+      <c r="S15" s="9">
+        <v>430</v>
+      </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -16720,7 +17227,9 @@
       <c r="R16" s="7">
         <v>7</v>
       </c>
-      <c r="S16" s="7"/>
+      <c r="S16" s="7">
+        <v>8</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -16974,7 +17483,9 @@
       <c r="R17" s="9">
         <v>443</v>
       </c>
-      <c r="S17" s="9"/>
+      <c r="S17" s="9">
+        <v>490</v>
+      </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -17228,7 +17739,9 @@
       <c r="R18" s="7">
         <v>5</v>
       </c>
-      <c r="S18" s="7"/>
+      <c r="S18" s="7">
+        <v>5</v>
+      </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -17482,7 +17995,9 @@
       <c r="R19" s="9">
         <v>53</v>
       </c>
-      <c r="S19" s="9"/>
+      <c r="S19" s="9">
+        <v>57</v>
+      </c>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -17736,7 +18251,9 @@
       <c r="R20" s="7">
         <v>156</v>
       </c>
-      <c r="S20" s="7"/>
+      <c r="S20" s="7">
+        <v>157</v>
+      </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -17990,7 +18507,9 @@
       <c r="R21" s="9">
         <v>100</v>
       </c>
-      <c r="S21" s="9"/>
+      <c r="S21" s="9">
+        <v>104</v>
+      </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -18244,7 +18763,9 @@
       <c r="R22" s="7">
         <v>295</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="7">
+        <v>345</v>
+      </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -18498,7 +19019,9 @@
       <c r="R23" s="9">
         <v>38</v>
       </c>
-      <c r="S23" s="9"/>
+      <c r="S23" s="9">
+        <v>39</v>
+      </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -18752,7 +19275,9 @@
       <c r="R24" s="7">
         <v>358</v>
       </c>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7">
+        <v>395</v>
+      </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -19006,7 +19531,9 @@
       <c r="R25" s="9">
         <v>357</v>
       </c>
-      <c r="S25" s="9"/>
+      <c r="S25" s="9">
+        <v>379</v>
+      </c>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -19260,7 +19787,9 @@
       <c r="R26" s="7">
         <v>5</v>
       </c>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7">
+        <v>5</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -19514,7 +20043,9 @@
       <c r="R27" s="9">
         <v>223</v>
       </c>
-      <c r="S27" s="9"/>
+      <c r="S27" s="9">
+        <v>237</v>
+      </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -19768,7 +20299,9 @@
       <c r="R28" s="7">
         <v>240</v>
       </c>
-      <c r="S28" s="7"/>
+      <c r="S28" s="7">
+        <v>258</v>
+      </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -20022,7 +20555,9 @@
       <c r="R29" s="20">
         <v>2</v>
       </c>
-      <c r="S29" s="22"/>
+      <c r="S29" s="20">
+        <v>2</v>
+      </c>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
@@ -20276,7 +20811,9 @@
       <c r="R30" s="7">
         <v>310</v>
       </c>
-      <c r="S30" s="7"/>
+      <c r="S30" s="7">
+        <v>322</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -20530,7 +21067,9 @@
       <c r="R31" s="9">
         <v>301</v>
       </c>
-      <c r="S31" s="9"/>
+      <c r="S31" s="9">
+        <v>326</v>
+      </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -20784,7 +21323,9 @@
       <c r="R32" s="7">
         <v>238</v>
       </c>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7">
+        <v>249</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
@@ -21038,7 +21579,9 @@
       <c r="R33" s="9">
         <v>429</v>
       </c>
-      <c r="S33" s="9"/>
+      <c r="S33" s="9">
+        <v>467</v>
+      </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -21292,7 +21835,9 @@
       <c r="R34" s="7">
         <v>64</v>
       </c>
-      <c r="S34" s="7"/>
+      <c r="S34" s="7">
+        <v>67</v>
+      </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
@@ -21546,7 +22091,9 @@
       <c r="R35" s="9">
         <v>983</v>
       </c>
-      <c r="S35" s="9"/>
+      <c r="S35" s="9">
+        <v>983</v>
+      </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -21800,7 +22347,9 @@
       <c r="R36" s="11">
         <v>7281</v>
       </c>
-      <c r="S36" s="11"/>
+      <c r="S36" s="11">
+        <v>7760</v>
+      </c>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
@@ -25975,21 +26524,23 @@
         <v>252</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="S56" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
@@ -26241,7 +26792,9 @@
       <c r="R57" s="7">
         <v>43</v>
       </c>
-      <c r="S57" s="7"/>
+      <c r="S57" s="7">
+        <v>44</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -26493,7 +27046,9 @@
       <c r="R58" s="9">
         <v>36</v>
       </c>
-      <c r="S58" s="9"/>
+      <c r="S58" s="9">
+        <v>35</v>
+      </c>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
@@ -26745,7 +27300,9 @@
       <c r="R59" s="7">
         <v>190</v>
       </c>
-      <c r="S59" s="7"/>
+      <c r="S59" s="7">
+        <v>193</v>
+      </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -26997,7 +27554,9 @@
       <c r="R60" s="9">
         <v>913</v>
       </c>
-      <c r="S60" s="9"/>
+      <c r="S60" s="9">
+        <v>959</v>
+      </c>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
@@ -27249,7 +27808,9 @@
       <c r="R61" s="7">
         <v>1126</v>
       </c>
-      <c r="S61" s="7"/>
+      <c r="S61" s="7">
+        <v>1176</v>
+      </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
@@ -27501,7 +28062,9 @@
       <c r="R62" s="9">
         <v>1282</v>
       </c>
-      <c r="S62" s="9"/>
+      <c r="S62" s="9">
+        <v>1354</v>
+      </c>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
@@ -27753,7 +28316,9 @@
       <c r="R63" s="7">
         <v>1088</v>
       </c>
-      <c r="S63" s="7"/>
+      <c r="S63" s="7">
+        <v>1145</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -28005,7 +28570,9 @@
       <c r="R64" s="9">
         <v>702</v>
       </c>
-      <c r="S64" s="9"/>
+      <c r="S64" s="9">
+        <v>743</v>
+      </c>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
@@ -28257,7 +28824,9 @@
       <c r="R65" s="7">
         <v>579</v>
       </c>
-      <c r="S65" s="7"/>
+      <c r="S65" s="7">
+        <v>628</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -28509,7 +29078,9 @@
       <c r="R66" s="9">
         <v>1302</v>
       </c>
-      <c r="S66" s="9"/>
+      <c r="S66" s="9">
+        <v>1463</v>
+      </c>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
@@ -28761,7 +29332,9 @@
       <c r="R67" s="7">
         <v>20</v>
       </c>
-      <c r="S67" s="7"/>
+      <c r="S67" s="7">
+        <v>20</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -29013,7 +29586,9 @@
       <c r="R68" s="15">
         <v>7281</v>
       </c>
-      <c r="S68" s="15"/>
+      <c r="S68" s="15">
+        <v>7760</v>
+      </c>
       <c r="T68" s="15"/>
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
@@ -29267,6 +29842,9 @@
       <c r="R70">
         <v>332</v>
       </c>
+      <c r="S70">
+        <v>391</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -29319,13 +29897,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -29333,13 +29911,13 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -29347,13 +29925,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -29361,55 +29939,55 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>913</v>
+        <v>959</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B8">
-        <v>1126</v>
+      <c r="B8" t="s">
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2">
-        <v>1282</v>
+      <c r="B9" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B10">
-        <v>1088</v>
+      <c r="B10" t="s">
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -29417,13 +29995,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>702</v>
+        <v>743</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -29431,27 +30009,27 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="B13">
-        <v>1302</v>
+      <c r="B13" t="s">
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -29472,14 +30050,14 @@
       <c r="A15" t="s">
         <v>98</v>
       </c>
-      <c r="B15">
-        <v>7281</v>
+      <c r="B15" t="s">
+        <v>273</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA96FA98-0733-4757-BC74-E9D264DCE143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA09E766-14D6-423F-92AA-9E3F9A2C342E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="3080" windowWidth="27950" windowHeight="17280" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="14330" yWindow="3110" windowWidth="24350" windowHeight="16890" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="304">
   <si>
     <t>borough</t>
   </si>
@@ -889,18 +889,6 @@
     <t>12 ARIL, 17H30</t>
   </si>
   <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>7 760</t>
-  </si>
-  <si>
-    <t>375,7</t>
-  </si>
-  <si>
     <t>11 AVRIL, 17H</t>
   </si>
   <si>
@@ -919,70 +907,85 @@
     <t>16 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>39,7</t>
-  </si>
-  <si>
     <t>* 32,4</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>97,0</t>
-  </si>
-  <si>
-    <t>12,4</t>
-  </si>
-  <si>
-    <t>297,7</t>
-  </si>
-  <si>
-    <t>1 176</t>
   </si>
   <si>
     <t>15,2</t>
   </si>
   <si>
-    <t>357,9</t>
-  </si>
-  <si>
-    <t>1 354</t>
-  </si>
-  <si>
-    <t>17,5</t>
-  </si>
-  <si>
-    <t>486,5</t>
-  </si>
-  <si>
-    <t>1 145</t>
-  </si>
-  <si>
     <t>14,8</t>
   </si>
   <si>
-    <t>446,1</t>
+    <t>8 052</t>
   </si>
   <si>
-    <t>9,6</t>
+    <t>389,8</t>
   </si>
   <si>
-    <t>343,1</t>
+    <t>17 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>8,1</t>
+    <t>0,6 </t>
   </si>
   <si>
-    <t>434,0</t>
+    <t>41,5</t>
   </si>
   <si>
-    <t>1 463</t>
+    <t>0,4</t>
   </si>
   <si>
-    <t>18,9</t>
+    <t>2,4</t>
   </si>
   <si>
-    <t>1 447,9</t>
+    <t>97,5</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>305,8</t>
+  </si>
+  <si>
+    <t>1 218</t>
+  </si>
+  <si>
+    <t>370,7</t>
+  </si>
+  <si>
+    <t>1 401</t>
+  </si>
+  <si>
+    <t>17,4 </t>
+  </si>
+  <si>
+    <t>503,3</t>
+  </si>
+  <si>
+    <t>1 188</t>
+  </si>
+  <si>
+    <t>462,9</t>
+  </si>
+  <si>
+    <t>9,5 </t>
+  </si>
+  <si>
+    <t>354,2</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>446,4</t>
+  </si>
+  <si>
+    <t>1 552</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
+    <t>1 536,0</t>
   </si>
 </sst>
 </file>
@@ -1494,20 +1497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T35"/>
+    <sheetView topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1568,8 +1571,11 @@
       <c r="T1" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1630,8 +1636,11 @@
       <c r="T2">
         <v>535</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1692,8 +1701,11 @@
       <c r="T3">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1754,8 +1766,11 @@
       <c r="T4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1816,8 +1831,11 @@
       <c r="T5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1878,8 +1896,11 @@
       <c r="T6">
         <v>775</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1940,8 +1961,11 @@
       <c r="T7">
         <v>292</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2002,8 +2026,11 @@
       <c r="T8">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2064,8 +2091,11 @@
       <c r="T9">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2126,8 +2156,11 @@
       <c r="T10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2188,8 +2221,11 @@
       <c r="T11">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2250,8 +2286,11 @@
       <c r="T12">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2312,8 +2351,11 @@
       <c r="T13">
         <v>372</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2374,8 +2416,11 @@
       <c r="T14">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2436,8 +2481,11 @@
       <c r="T15">
         <v>430</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2498,8 +2546,11 @@
       <c r="T16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2560,8 +2611,11 @@
       <c r="T17">
         <v>490</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2622,8 +2676,11 @@
       <c r="T18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2684,8 +2741,11 @@
       <c r="T19">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2746,8 +2806,11 @@
       <c r="T20">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2871,11 @@
       <c r="T21">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U21">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2870,8 +2936,11 @@
       <c r="T22">
         <v>345</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2932,8 +3001,11 @@
       <c r="T23">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2994,8 +3066,11 @@
       <c r="T24">
         <v>395</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3056,8 +3131,11 @@
       <c r="T25">
         <v>379</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3118,8 +3196,11 @@
       <c r="T26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3180,8 +3261,11 @@
       <c r="T27">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U27">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3242,8 +3326,11 @@
       <c r="T28">
         <v>258</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U28">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3304,8 +3391,11 @@
       <c r="T29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3366,8 +3456,11 @@
       <c r="T30">
         <v>322</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U30">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3428,8 +3521,11 @@
       <c r="T31">
         <v>326</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U31">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3490,8 +3586,11 @@
       <c r="T32">
         <v>249</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U32">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3552,8 +3651,11 @@
       <c r="T33">
         <v>467</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U33">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3614,8 +3716,11 @@
       <c r="T34">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3675,6 +3780,9 @@
       </c>
       <c r="T35">
         <v>983</v>
+      </c>
+      <c r="U35">
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -3685,20 +3793,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3778,8 +3886,12 @@
         <f>cases!T1</f>
         <v>43937</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="1">
+        <f>cases!U1</f>
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3858,8 +3970,12 @@
         <f>cases!T2/(population_2016!$B2/1000)</f>
         <v>3.9852508473313715</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" s="3">
+        <f>cases!U2/(population_2016!$B2/1000)</f>
+        <v>4.4247458005884761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3938,8 +4054,12 @@
         <f>cases!T3/(population_2016!$B3/1000)</f>
         <v>2.8040003738667165</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" s="3">
+        <f>cases!U3/(population_2016!$B3/1000)</f>
+        <v>2.9675670623422752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4018,8 +4138,12 @@
         <f>cases!T4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" s="3">
+        <f>cases!U4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4098,8 +4222,12 @@
         <f>cases!T5/(population_2016!$B5/1000)</f>
         <v>0.77623680397433237</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" s="3">
+        <f>cases!U5/(population_2016!$B5/1000)</f>
+        <v>0.77623680397433237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4178,8 +4306,12 @@
         <f>cases!T6/(population_2016!$B6/1000)</f>
         <v>4.6540956041316353</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" s="3">
+        <f>cases!U6/(population_2016!$B6/1000)</f>
+        <v>4.7982224357434538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4258,8 +4390,12 @@
         <f>cases!T7/(population_2016!$B7/1000)</f>
         <v>8.9990138067061149</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="3">
+        <f>cases!U7/(population_2016!$B7/1000)</f>
+        <v>8.9990138067061149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4338,8 +4474,12 @@
         <f>cases!T8/(population_2016!$B8/1000)</f>
         <v>1.8200781202069571</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" s="3">
+        <f>cases!U8/(population_2016!$B8/1000)</f>
+        <v>1.8814290680791017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4418,8 +4558,12 @@
         <f>cases!T9/(population_2016!$B9/1000)</f>
         <v>2.476290832455216</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" s="3">
+        <f>cases!U9/(population_2016!$B9/1000)</f>
+        <v>2.476290832455216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4498,8 +4642,12 @@
         <f>cases!T10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="3">
+        <f>cases!U10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4578,8 +4726,12 @@
         <f>cases!T11/(population_2016!$B11/1000)</f>
         <v>1.0421319041238648</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" s="3">
+        <f>cases!U11/(population_2016!$B11/1000)</f>
+        <v>1.1413825616594711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4658,8 +4810,12 @@
         <f>cases!T12/(population_2016!$B12/1000)</f>
         <v>2.2927015666794039</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" s="3">
+        <f>cases!U12/(population_2016!$B12/1000)</f>
+        <v>2.3376564993593925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4738,8 +4894,12 @@
         <f>cases!T13/(population_2016!$B13/1000)</f>
         <v>4.8404096131575871</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" s="3">
+        <f>cases!U13/(population_2016!$B13/1000)</f>
+        <v>4.9314925897492623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4818,8 +4978,12 @@
         <f>cases!T14/(population_2016!$B14/1000)</f>
         <v>1.7922120241133981</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" s="3">
+        <f>cases!U14/(population_2016!$B14/1000)</f>
+        <v>1.7379025688372345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4898,8 +5062,12 @@
         <f>cases!T15/(population_2016!$B15/1000)</f>
         <v>3.1612068458507321</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15" s="3">
+        <f>cases!U15/(population_2016!$B15/1000)</f>
+        <v>3.3744045168499675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -4978,8 +5146,12 @@
         <f>cases!T16/(population_2016!$B16/1000)</f>
         <v>2.0779220779220777</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16" s="3">
+        <f>cases!U16/(population_2016!$B16/1000)</f>
+        <v>2.0779220779220777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5058,8 +5230,12 @@
         <f>cases!T17/(population_2016!$B17/1000)</f>
         <v>5.8171284754374719</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17" s="3">
+        <f>cases!U17/(population_2016!$B17/1000)</f>
+        <v>6.2563810337868322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -5138,8 +5314,12 @@
         <f>cases!T18/(population_2016!$B18/1000)</f>
         <v>0.99009900990099009</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18" s="3">
+        <f>cases!U18/(population_2016!$B18/1000)</f>
+        <v>1.1881188118811881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5218,8 +5398,12 @@
         <f>cases!T19/(population_2016!$B19/1000)</f>
         <v>2.8112053659498915</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19" s="3">
+        <f>cases!U19/(population_2016!$B19/1000)</f>
+        <v>2.9591635431051491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5298,8 +5482,12 @@
         <f>cases!T20/(population_2016!$B20/1000)</f>
         <v>6.5542289387993655</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20" s="3">
+        <f>cases!U20/(population_2016!$B20/1000)</f>
+        <v>6.6377223010770638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5378,8 +5566,12 @@
         <f>cases!T21/(population_2016!$B21/1000)</f>
         <v>1.5007864698327489</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U21" s="3">
+        <f>cases!U21/(population_2016!$B21/1000)</f>
+        <v>1.5585090263647778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5458,8 +5650,12 @@
         <f>cases!T22/(population_2016!$B22/1000)</f>
         <v>3.3173076923076925</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22" s="3">
+        <f>cases!U22/(population_2016!$B22/1000)</f>
+        <v>3.3461538461538463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5538,8 +5734,12 @@
         <f>cases!T23/(population_2016!$B23/1000)</f>
         <v>1.24282982791587</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U23" s="3">
+        <f>cases!U23/(population_2016!$B23/1000)</f>
+        <v>1.2746972594008923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5618,8 +5818,12 @@
         <f>cases!T24/(population_2016!$B24/1000)</f>
         <v>3.7004768462568975</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24" s="3">
+        <f>cases!U24/(population_2016!$B24/1000)</f>
+        <v>3.8691061708964525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5698,8 +5902,12 @@
         <f>cases!T25/(population_2016!$B25/1000)</f>
         <v>2.7150942044559065</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U25" s="3">
+        <f>cases!U25/(population_2016!$B25/1000)</f>
+        <v>2.8726986173794682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5778,8 +5986,12 @@
         <f>cases!T26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U26" s="3">
+        <f>cases!U26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5858,8 +6070,12 @@
         <f>cases!T27/(population_2016!$B27/1000)</f>
         <v>2.3981057999757152</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U27" s="3">
+        <f>cases!U27/(population_2016!$B27/1000)</f>
+        <v>2.5600032379487594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5938,8 +6154,12 @@
         <f>cases!T28/(population_2016!$B28/1000)</f>
         <v>3.2948087606155414</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U28" s="3">
+        <f>cases!U28/(population_2016!$B28/1000)</f>
+        <v>3.4863674094885382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -6018,8 +6238,12 @@
         <f>cases!T29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U29" s="3">
+        <f>cases!U29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6098,8 +6322,12 @@
         <f>cases!T30/(population_2016!$B30/1000)</f>
         <v>4.1202287878594008</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U30" s="3">
+        <f>cases!U30/(population_2016!$B30/1000)</f>
+        <v>4.1970032373226189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6178,8 +6406,12 @@
         <f>cases!T31/(population_2016!$B31/1000)</f>
         <v>4.7090092302358837</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U31" s="3">
+        <f>cases!U31/(population_2016!$B31/1000)</f>
+        <v>4.7956781117739675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6258,8 +6490,12 @@
         <f>cases!T32/(population_2016!$B32/1000)</f>
         <v>2.7924189749915889</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U32" s="3">
+        <f>cases!U32/(population_2016!$B32/1000)</f>
+        <v>2.8260625770999215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6338,8 +6574,12 @@
         <f>cases!T33/(population_2016!$B33/1000)</f>
         <v>3.2463695578124891</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U33" s="3">
+        <f>cases!U33/(population_2016!$B33/1000)</f>
+        <v>3.3854003739928955</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -6416,6 +6656,10 @@
       </c>
       <c r="T34" s="3">
         <f>cases!T34/(population_2016!$B34/1000)</f>
+        <v>3.2985427333595903</v>
+      </c>
+      <c r="U34" s="3">
+        <f>cases!U34/(population_2016!$B34/1000)</f>
         <v>3.2985427333595903</v>
       </c>
     </row>
@@ -6426,10 +6670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR34"/>
+  <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="M1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AK43" sqref="AK43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8758,11 +9002,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -8925,7 +9169,7 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
@@ -9092,7 +9336,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
@@ -9259,7 +9503,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
@@ -9426,7 +9670,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -9593,7 +9837,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -9760,7 +10004,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
@@ -9927,7 +10171,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
@@ -10094,7 +10338,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5385</v>
+        <v>5386</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
@@ -10261,7 +10505,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5703</v>
+        <v>5704</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
@@ -10428,7 +10672,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
@@ -10595,7 +10839,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6164</v>
+        <v>6165</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
@@ -10762,7 +11006,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6476</v>
+        <v>6477</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -10929,7 +11173,7 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>7026</v>
+        <v>7027</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
@@ -11096,11 +11340,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7424</v>
+        <v>7444</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -11263,11 +11507,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7724</v>
+        <v>7848</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -11430,11 +11674,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>7760</v>
+        <v>8036</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -11589,6 +11833,173 @@
       <c r="AR34" s="3">
         <f t="shared" ref="AR34" si="252">X34*100/SUM($O34:$X34)</f>
         <v>35.276223767886201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A35" s="19">
+        <v>43938</v>
+      </c>
+      <c r="B35" s="17">
+        <f>mtl_newcases!C36</f>
+        <v>8052</v>
+      </c>
+      <c r="C35" s="17">
+        <f>mtl_newcases!B36</f>
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>454</v>
+      </c>
+      <c r="E35" cm="1">
+        <f t="array" ref="E35:N35">TRANSPOSE(santemontreal!T$57:T$66)</f>
+        <v>46</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>194</v>
+      </c>
+      <c r="H35">
+        <v>985</v>
+      </c>
+      <c r="I35">
+        <v>1218</v>
+      </c>
+      <c r="J35">
+        <v>1401</v>
+      </c>
+      <c r="K35">
+        <v>1188</v>
+      </c>
+      <c r="L35">
+        <v>767</v>
+      </c>
+      <c r="M35">
+        <v>646</v>
+      </c>
+      <c r="N35">
+        <v>1552</v>
+      </c>
+      <c r="O35" s="18">
+        <f>E35/(age_distribution_2016!$B$2/100000)</f>
+        <v>41.917258975760895</v>
+      </c>
+      <c r="P35" s="18">
+        <f>F35/(age_distribution_2016!$B$3/100000)</f>
+        <v>33.529721703309868</v>
+      </c>
+      <c r="Q35" s="18">
+        <f>G35/(age_distribution_2016!$B$4/100000)</f>
+        <v>103.09004437123043</v>
+      </c>
+      <c r="R35" s="18">
+        <f>H35/(age_distribution_2016!$B$5/100000)</f>
+        <v>335.9195157302413</v>
+      </c>
+      <c r="S35" s="18">
+        <f>I35/(age_distribution_2016!$B$6/100000)</f>
+        <v>406.44031033619757</v>
+      </c>
+      <c r="T35" s="18">
+        <f>J35/(age_distribution_2016!$B$7/100000)</f>
+        <v>550.54524020041265</v>
+      </c>
+      <c r="U35" s="18">
+        <f>K35/(age_distribution_2016!$B$8/100000)</f>
+        <v>458.90873973925636</v>
+      </c>
+      <c r="V35" s="18">
+        <f>L35/(age_distribution_2016!$B$9/100000)</f>
+        <v>374.13721616545934</v>
+      </c>
+      <c r="W35" s="18">
+        <f>M35/(age_distribution_2016!$B$10/100000)</f>
+        <v>498.14929056138186</v>
+      </c>
+      <c r="X35" s="18">
+        <f>N35/(age_distribution_2016!$B$11/100000)</f>
+        <v>1570.7707099843126</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" ref="Y35" si="253">E35*100/SUM($E35:$N35)</f>
+        <v>0.57270916334661359</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" ref="Z35" si="254">F35*100/SUM($E35:$N35)</f>
+        <v>0.43575697211155379</v>
+      </c>
+      <c r="AA35" s="3">
+        <f t="shared" ref="AA35" si="255">G35*100/SUM($E35:$N35)</f>
+        <v>2.4153386454183265</v>
+      </c>
+      <c r="AB35" s="3">
+        <f t="shared" ref="AB35" si="256">H35*100/SUM($E35:$N35)</f>
+        <v>12.263446215139442</v>
+      </c>
+      <c r="AC35" s="3">
+        <f t="shared" ref="AC35" si="257">I35*100/SUM($E35:$N35)</f>
+        <v>15.164342629482071</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" ref="AD35" si="258">J35*100/SUM($E35:$N35)</f>
+        <v>17.442729083665338</v>
+      </c>
+      <c r="AE35" s="3">
+        <f t="shared" ref="AE35" si="259">K35*100/SUM($E35:$N35)</f>
+        <v>14.790836653386455</v>
+      </c>
+      <c r="AF35" s="3">
+        <f t="shared" ref="AF35" si="260">L35*100/SUM($E35:$N35)</f>
+        <v>9.5493027888446207</v>
+      </c>
+      <c r="AG35" s="3">
+        <f t="shared" ref="AG35" si="261">M35*100/SUM($E35:$N35)</f>
+        <v>8.0428286852589643</v>
+      </c>
+      <c r="AH35" s="3">
+        <f t="shared" ref="AH35" si="262">N35*100/SUM($E35:$N35)</f>
+        <v>19.322709163346612</v>
+      </c>
+      <c r="AI35" s="3">
+        <f t="shared" ref="AI35" si="263">O35*100/SUM($O35:$X35)</f>
+        <v>0.95845753512887644</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f t="shared" ref="AJ35" si="264">P35*100/SUM($O35:$X35)</f>
+        <v>0.76667261177299373</v>
+      </c>
+      <c r="AK35" s="3">
+        <f t="shared" ref="AK35" si="265">Q35*100/SUM($O35:$X35)</f>
+        <v>2.3572015975928311</v>
+      </c>
+      <c r="AL35" s="3">
+        <f t="shared" ref="AL35" si="266">R35*100/SUM($O35:$X35)</f>
+        <v>7.6809552655786106</v>
+      </c>
+      <c r="AM35" s="3">
+        <f t="shared" ref="AM35" si="267">S35*100/SUM($O35:$X35)</f>
+        <v>9.2934458869820737</v>
+      </c>
+      <c r="AN35" s="3">
+        <f t="shared" ref="AN35" si="268">T35*100/SUM($O35:$X35)</f>
+        <v>12.588471832200575</v>
+      </c>
+      <c r="AO35" s="3">
+        <f t="shared" ref="AO35" si="269">U35*100/SUM($O35:$X35)</f>
+        <v>10.493160819363965</v>
+      </c>
+      <c r="AP35" s="3">
+        <f t="shared" ref="AP35" si="270">V35*100/SUM($O35:$X35)</f>
+        <v>8.5548206816978887</v>
+      </c>
+      <c r="AQ35" s="3">
+        <f t="shared" ref="AQ35" si="271">W35*100/SUM($O35:$X35)</f>
+        <v>11.390414183182969</v>
+      </c>
+      <c r="AR35" s="3">
+        <f t="shared" ref="AR35" si="272">X35*100/SUM($O35:$X35)</f>
+        <v>35.916399586499224</v>
       </c>
     </row>
   </sheetData>
@@ -11598,11 +12009,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12673,6 +13084,29 @@
         <v>3068</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B47">
+        <v>17521</v>
+      </c>
+      <c r="C47">
+        <v>805</v>
+      </c>
+      <c r="D47">
+        <v>1130</v>
+      </c>
+      <c r="E47">
+        <v>258</v>
+      </c>
+      <c r="F47">
+        <v>141249</v>
+      </c>
+      <c r="G47">
+        <v>3315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12680,10 +13114,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12940,11 +13374,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -12954,7 +13388,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -12966,7 +13400,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -12976,7 +13410,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -12988,7 +13422,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -12998,7 +13432,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -13010,7 +13444,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -13020,7 +13454,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -13032,7 +13466,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -13042,7 +13476,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -13054,7 +13488,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -13064,7 +13498,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -13076,7 +13510,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -13086,7 +13520,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -13098,7 +13532,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -13108,7 +13542,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -13120,7 +13554,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5385</v>
+        <v>5386</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -13130,7 +13564,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -13141,8 +13575,8 @@
         <v>318</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C35" si="4">C27+B28</f>
-        <v>5703</v>
+        <f t="shared" ref="C28:C36" si="4">C27+B28</f>
+        <v>5704</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -13152,7 +13586,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -13164,7 +13598,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -13174,7 +13608,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -13186,7 +13620,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6164</v>
+        <v>6165</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -13196,7 +13630,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -13208,7 +13642,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6476</v>
+        <v>6477</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -13218,7 +13652,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -13230,7 +13664,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>7026</v>
+        <v>7027</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -13240,7 +13674,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -13248,11 +13682,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7424</v>
+        <v>7444</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -13262,7 +13696,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>594</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -13270,11 +13704,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7724</v>
+        <v>7848</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -13283,8 +13717,8 @@
         <v>7281</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G35" si="6">C34-F34</f>
-        <v>443</v>
+        <f t="shared" ref="G34:G36" si="6">C34-F34</f>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -13292,11 +13726,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>7760</v>
+        <v>8036</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -13305,6 +13739,28 @@
         <v>7760</v>
       </c>
       <c r="G35">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="19">
+        <v>43938</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>8052</v>
+      </c>
+      <c r="E36" s="19">
+        <v>43938</v>
+      </c>
+      <c r="F36">
+        <v>8052</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13320,8 +13776,8 @@
   <dimension ref="A1:HH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S2" sqref="S2:S35"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T35" sqref="T2:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13373,24 +13829,26 @@
         <v>252</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
@@ -13646,7 +14104,9 @@
       <c r="S2" s="7">
         <v>535</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7">
+        <v>594</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -13902,7 +14362,9 @@
       <c r="S3" s="9">
         <v>120</v>
       </c>
-      <c r="T3" s="9"/>
+      <c r="T3" s="9">
+        <v>127</v>
+      </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
@@ -14158,7 +14620,9 @@
       <c r="S4" s="7">
         <v>5</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7">
+        <v>5</v>
+      </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -14414,7 +14878,9 @@
       <c r="S5" s="9">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
+      <c r="T5" s="9">
+        <v>15</v>
+      </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
@@ -14670,7 +15136,9 @@
       <c r="S6" s="7">
         <v>775</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7">
+        <v>799</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -14926,7 +15394,9 @@
       <c r="S7" s="9">
         <v>292</v>
       </c>
-      <c r="T7" s="9"/>
+      <c r="T7" s="9">
+        <v>292</v>
+      </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
@@ -15182,7 +15652,9 @@
       <c r="S8" s="7">
         <v>89</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>92</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -15438,7 +15910,9 @@
       <c r="S9" s="9">
         <v>47</v>
       </c>
-      <c r="T9" s="9"/>
+      <c r="T9" s="9">
+        <v>47</v>
+      </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -15694,7 +16168,9 @@
       <c r="S10" s="7">
         <v>29</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="7">
+        <v>29</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -15950,7 +16426,9 @@
       <c r="S11" s="9">
         <v>21</v>
       </c>
-      <c r="T11" s="9"/>
+      <c r="T11" s="9">
+        <v>23</v>
+      </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -16206,7 +16684,9 @@
       <c r="S12" s="7">
         <v>102</v>
       </c>
-      <c r="T12" s="7"/>
+      <c r="T12" s="7">
+        <v>104</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -16462,7 +16942,9 @@
       <c r="S13" s="9">
         <v>372</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="9">
+        <v>379</v>
+      </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -16718,7 +17200,9 @@
       <c r="S14" s="7">
         <v>33</v>
       </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7">
+        <v>32</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -16974,7 +17458,9 @@
       <c r="S15" s="9">
         <v>430</v>
       </c>
-      <c r="T15" s="9"/>
+      <c r="T15" s="9">
+        <v>459</v>
+      </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -17230,7 +17716,9 @@
       <c r="S16" s="7">
         <v>8</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="7">
+        <v>8</v>
+      </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
@@ -17486,7 +17974,9 @@
       <c r="S17" s="9">
         <v>490</v>
       </c>
-      <c r="T17" s="9"/>
+      <c r="T17" s="9">
+        <v>527</v>
+      </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
@@ -17742,7 +18232,9 @@
       <c r="S18" s="7">
         <v>5</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="7">
+        <v>6</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -17998,7 +18490,9 @@
       <c r="S19" s="9">
         <v>57</v>
       </c>
-      <c r="T19" s="9"/>
+      <c r="T19" s="9">
+        <v>60</v>
+      </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
@@ -18254,7 +18748,9 @@
       <c r="S20" s="7">
         <v>157</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7">
+        <v>159</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -18510,7 +19006,9 @@
       <c r="S21" s="9">
         <v>104</v>
       </c>
-      <c r="T21" s="9"/>
+      <c r="T21" s="9">
+        <v>108</v>
+      </c>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -18766,7 +19264,9 @@
       <c r="S22" s="7">
         <v>345</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7">
+        <v>348</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -19022,7 +19522,9 @@
       <c r="S23" s="9">
         <v>39</v>
       </c>
-      <c r="T23" s="9"/>
+      <c r="T23" s="9">
+        <v>40</v>
+      </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
@@ -19278,7 +19780,9 @@
       <c r="S24" s="7">
         <v>395</v>
       </c>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>413</v>
+      </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -19534,7 +20038,9 @@
       <c r="S25" s="9">
         <v>379</v>
       </c>
-      <c r="T25" s="9"/>
+      <c r="T25" s="9">
+        <v>401</v>
+      </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
@@ -19790,7 +20296,9 @@
       <c r="S26" s="7">
         <v>5</v>
       </c>
-      <c r="T26" s="7"/>
+      <c r="T26" s="7">
+        <v>5</v>
+      </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -20046,7 +20554,9 @@
       <c r="S27" s="9">
         <v>237</v>
       </c>
-      <c r="T27" s="9"/>
+      <c r="T27" s="9">
+        <v>253</v>
+      </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -20302,7 +20812,9 @@
       <c r="S28" s="7">
         <v>258</v>
       </c>
-      <c r="T28" s="7"/>
+      <c r="T28" s="7">
+        <v>273</v>
+      </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -20558,7 +21070,9 @@
       <c r="S29" s="20">
         <v>2</v>
       </c>
-      <c r="T29" s="22"/>
+      <c r="T29" s="20">
+        <v>2</v>
+      </c>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
@@ -20814,7 +21328,9 @@
       <c r="S30" s="7">
         <v>322</v>
       </c>
-      <c r="T30" s="7"/>
+      <c r="T30" s="7">
+        <v>328</v>
+      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -21070,7 +21586,9 @@
       <c r="S31" s="9">
         <v>326</v>
       </c>
-      <c r="T31" s="9"/>
+      <c r="T31" s="9">
+        <v>332</v>
+      </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -21326,7 +21844,9 @@
       <c r="S32" s="7">
         <v>249</v>
       </c>
-      <c r="T32" s="7"/>
+      <c r="T32" s="7">
+        <v>252</v>
+      </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -21582,7 +22102,9 @@
       <c r="S33" s="9">
         <v>467</v>
       </c>
-      <c r="T33" s="9"/>
+      <c r="T33" s="9">
+        <v>487</v>
+      </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
@@ -21838,7 +22360,9 @@
       <c r="S34" s="7">
         <v>67</v>
       </c>
-      <c r="T34" s="7"/>
+      <c r="T34" s="7">
+        <v>67</v>
+      </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -22094,7 +22618,9 @@
       <c r="S35" s="9">
         <v>983</v>
       </c>
-      <c r="T35" s="9"/>
+      <c r="T35" s="9">
+        <v>986</v>
+      </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -22350,7 +22876,9 @@
       <c r="S36" s="11">
         <v>7760</v>
       </c>
-      <c r="T36" s="11"/>
+      <c r="T36" s="11">
+        <v>8052</v>
+      </c>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -26524,24 +27052,26 @@
         <v>252</v>
       </c>
       <c r="N56" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="R56" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="S56" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="P56" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q56" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="T56" s="5"/>
+      <c r="T56" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
@@ -26795,7 +27325,9 @@
       <c r="S57" s="7">
         <v>44</v>
       </c>
-      <c r="T57" s="7"/>
+      <c r="T57" s="7">
+        <v>46</v>
+      </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
@@ -27049,7 +27581,9 @@
       <c r="S58" s="9">
         <v>35</v>
       </c>
-      <c r="T58" s="9"/>
+      <c r="T58" s="9">
+        <v>35</v>
+      </c>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
@@ -27303,7 +27837,9 @@
       <c r="S59" s="7">
         <v>193</v>
       </c>
-      <c r="T59" s="7"/>
+      <c r="T59" s="7">
+        <v>194</v>
+      </c>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
@@ -27557,7 +28093,9 @@
       <c r="S60" s="9">
         <v>959</v>
       </c>
-      <c r="T60" s="9"/>
+      <c r="T60" s="9">
+        <v>985</v>
+      </c>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
@@ -27811,7 +28349,9 @@
       <c r="S61" s="7">
         <v>1176</v>
       </c>
-      <c r="T61" s="7"/>
+      <c r="T61" s="7">
+        <v>1218</v>
+      </c>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
@@ -28065,7 +28605,9 @@
       <c r="S62" s="9">
         <v>1354</v>
       </c>
-      <c r="T62" s="9"/>
+      <c r="T62" s="9">
+        <v>1401</v>
+      </c>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
@@ -28319,7 +28861,9 @@
       <c r="S63" s="7">
         <v>1145</v>
       </c>
-      <c r="T63" s="7"/>
+      <c r="T63" s="7">
+        <v>1188</v>
+      </c>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
@@ -28573,7 +29117,9 @@
       <c r="S64" s="9">
         <v>743</v>
       </c>
-      <c r="T64" s="9"/>
+      <c r="T64" s="9">
+        <v>767</v>
+      </c>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
@@ -28827,7 +29373,9 @@
       <c r="S65" s="7">
         <v>628</v>
       </c>
-      <c r="T65" s="7"/>
+      <c r="T65" s="7">
+        <v>646</v>
+      </c>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
@@ -29081,7 +29629,9 @@
       <c r="S66" s="9">
         <v>1463</v>
       </c>
-      <c r="T66" s="9"/>
+      <c r="T66" s="9">
+        <v>1552</v>
+      </c>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
@@ -29335,7 +29885,9 @@
       <c r="S67" s="7">
         <v>20</v>
       </c>
-      <c r="T67" s="7"/>
+      <c r="T67" s="7">
+        <v>20</v>
+      </c>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
@@ -29589,7 +30141,9 @@
       <c r="S68" s="15">
         <v>7760</v>
       </c>
-      <c r="T68" s="15"/>
+      <c r="T68" s="15">
+        <v>8052</v>
+      </c>
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
@@ -29845,6 +30399,9 @@
       <c r="S70">
         <v>391</v>
       </c>
+      <c r="T70">
+        <v>454</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -29897,13 +30454,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -29914,10 +30471,10 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -29925,13 +30482,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -29939,13 +30496,13 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>959</v>
+        <v>985</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -29953,13 +30510,13 @@
         <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -29967,13 +30524,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -29981,13 +30538,13 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -29995,13 +30552,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -30009,13 +30566,13 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -30023,13 +30580,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -30051,13 +30608,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA09E766-14D6-423F-92AA-9E3F9A2C342E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468453D-6FB0-4A2E-BC24-61B2FFAEA536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14330" yWindow="3110" windowWidth="24350" windowHeight="16890" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18040" yWindow="3870" windowWidth="36930" windowHeight="16890" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="305">
   <si>
     <t>borough</t>
   </si>
@@ -910,22 +910,10 @@
     <t>* 32,4</t>
   </si>
   <si>
-    <t>15,2</t>
-  </si>
-  <si>
     <t>14,8</t>
   </si>
   <si>
-    <t>8 052</t>
-  </si>
-  <si>
-    <t>389,8</t>
-  </si>
-  <si>
     <t>17 AVRIL, 17H15</t>
-  </si>
-  <si>
-    <t>0,6 </t>
   </si>
   <si>
     <t>41,5</t>
@@ -934,58 +922,73 @@
     <t>0,4</t>
   </si>
   <si>
-    <t>2,4</t>
+    <t>18 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>97,5</t>
+    <t>0,5</t>
   </si>
   <si>
-    <t>12,3</t>
+    <t>8 457</t>
   </si>
   <si>
-    <t>305,8</t>
+    <t>409,4</t>
   </si>
   <si>
-    <t>1 218</t>
+    <t>2,3</t>
   </si>
   <si>
-    <t>370,7</t>
+    <t>99,0</t>
   </si>
   <si>
-    <t>1 401</t>
+    <t>1 022</t>
   </si>
   <si>
-    <t>17,4 </t>
+    <t>12,1</t>
   </si>
   <si>
-    <t>503,3</t>
+    <t>317,3</t>
   </si>
   <si>
-    <t>1 188</t>
+    <t>1 250</t>
   </si>
   <si>
-    <t>462,9</t>
+    <t>380,5</t>
   </si>
   <si>
-    <t>9,5 </t>
+    <t>1 451</t>
   </si>
   <si>
-    <t>354,2</t>
+    <t>17,2</t>
   </si>
   <si>
-    <t>8,0</t>
+    <t>521,3</t>
   </si>
   <si>
-    <t>446,4</t>
+    <t>1 247</t>
   </si>
   <si>
-    <t>1 552</t>
+    <t>485,8</t>
   </si>
   <si>
-    <t>19,3</t>
+    <t>9,5</t>
   </si>
   <si>
-    <t>1 536,0</t>
+    <t>370,3</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>480,3</t>
+  </si>
+  <si>
+    <t>1 689</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>1 671,6</t>
   </si>
 </sst>
 </file>
@@ -1497,20 +1500,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,8 +1577,11 @@
       <c r="U1" s="1">
         <v>43938</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1639,8 +1645,11 @@
       <c r="U2">
         <v>594</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1704,8 +1713,11 @@
       <c r="U3">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1769,8 +1781,11 @@
       <c r="U4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1834,8 +1849,11 @@
       <c r="U5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1899,8 +1917,11 @@
       <c r="U6">
         <v>799</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V6">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1964,8 +1985,11 @@
       <c r="U7">
         <v>292</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2029,8 +2053,11 @@
       <c r="U8">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2094,8 +2121,11 @@
       <c r="U9">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2159,8 +2189,11 @@
       <c r="U10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2224,8 +2257,11 @@
       <c r="U11">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2289,8 +2325,11 @@
       <c r="U12">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2354,8 +2393,11 @@
       <c r="U13">
         <v>379</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V13">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2419,8 +2461,11 @@
       <c r="U14">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2484,8 +2529,11 @@
       <c r="U15">
         <v>459</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V15">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2549,8 +2597,11 @@
       <c r="U16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2614,8 +2665,11 @@
       <c r="U17">
         <v>527</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2679,8 +2733,11 @@
       <c r="U18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2744,8 +2801,11 @@
       <c r="U19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2809,8 +2869,11 @@
       <c r="U20">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2874,8 +2937,11 @@
       <c r="U21">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2939,8 +3005,11 @@
       <c r="U22">
         <v>348</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3004,8 +3073,11 @@
       <c r="U23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3069,8 +3141,11 @@
       <c r="U24">
         <v>413</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3134,8 +3209,11 @@
       <c r="U25">
         <v>401</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3199,8 +3277,11 @@
       <c r="U26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3264,8 +3345,11 @@
       <c r="U27">
         <v>253</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3329,8 +3413,11 @@
       <c r="U28">
         <v>273</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3394,8 +3481,11 @@
       <c r="U29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3459,8 +3549,11 @@
       <c r="U30">
         <v>328</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3524,8 +3617,11 @@
       <c r="U31">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3589,8 +3685,11 @@
       <c r="U32">
         <v>252</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3654,8 +3753,11 @@
       <c r="U33">
         <v>487</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3719,8 +3821,11 @@
       <c r="U34">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3783,6 +3888,9 @@
       </c>
       <c r="U35">
         <v>986</v>
+      </c>
+      <c r="V35">
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -3793,20 +3901,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U34"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3890,8 +3998,12 @@
         <f>cases!U1</f>
         <v>43938</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="1">
+        <f>cases!V1</f>
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3974,8 +4086,12 @@
         <f>cases!U2/(population_2016!$B2/1000)</f>
         <v>4.4247458005884761</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" s="3">
+        <f>cases!V2/(population_2016!$B2/1000)</f>
+        <v>4.9387314238891573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4058,8 +4174,12 @@
         <f>cases!U3/(population_2016!$B3/1000)</f>
         <v>2.9675670623422752</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3" s="3">
+        <f>cases!V3/(population_2016!$B3/1000)</f>
+        <v>3.2246004299467241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4142,8 +4262,12 @@
         <f>cases!U4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" s="3">
+        <f>cases!V4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4226,8 +4350,12 @@
         <f>cases!U5/(population_2016!$B5/1000)</f>
         <v>0.77623680397433237</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" s="3">
+        <f>cases!V5/(population_2016!$B5/1000)</f>
+        <v>0.77623680397433237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4310,8 +4438,12 @@
         <f>cases!U6/(population_2016!$B6/1000)</f>
         <v>4.7982224357434538</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V6" s="3">
+        <f>cases!V6/(population_2016!$B6/1000)</f>
+        <v>5.0384338217631512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4394,8 +4526,12 @@
         <f>cases!U7/(population_2016!$B7/1000)</f>
         <v>8.9990138067061149</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V7" s="3">
+        <f>cases!V7/(population_2016!$B7/1000)</f>
+        <v>9.2455621301775146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4478,8 +4614,12 @@
         <f>cases!U8/(population_2016!$B8/1000)</f>
         <v>1.8814290680791017</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8" s="3">
+        <f>cases!V8/(population_2016!$B8/1000)</f>
+        <v>1.9632303319086279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4562,8 +4702,12 @@
         <f>cases!U9/(population_2016!$B9/1000)</f>
         <v>2.476290832455216</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9" s="3">
+        <f>cases!V9/(population_2016!$B9/1000)</f>
+        <v>2.5816649104320337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4646,8 +4790,12 @@
         <f>cases!U10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" s="3">
+        <f>cases!V10/(population_2016!$B10/1000)</f>
+        <v>4.1588986089201203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4730,8 +4878,12 @@
         <f>cases!U11/(population_2016!$B11/1000)</f>
         <v>1.1413825616594711</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V11" s="3">
+        <f>cases!V11/(population_2016!$B11/1000)</f>
+        <v>1.2406332191950771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4814,8 +4966,12 @@
         <f>cases!U12/(population_2016!$B12/1000)</f>
         <v>2.3376564993593925</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V12" s="3">
+        <f>cases!V12/(population_2016!$B12/1000)</f>
+        <v>2.427566364719369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4898,8 +5054,12 @@
         <f>cases!U13/(population_2016!$B13/1000)</f>
         <v>4.9314925897492623</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V13" s="3">
+        <f>cases!V13/(population_2016!$B13/1000)</f>
+        <v>4.9965518587433158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4982,8 +5142,12 @@
         <f>cases!U14/(population_2016!$B14/1000)</f>
         <v>1.7379025688372345</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V14" s="3">
+        <f>cases!V14/(population_2016!$B14/1000)</f>
+        <v>1.6835931135610709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5066,8 +5230,12 @@
         <f>cases!U15/(population_2016!$B15/1000)</f>
         <v>3.3744045168499675</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V15" s="3">
+        <f>cases!V15/(population_2016!$B15/1000)</f>
+        <v>3.5876021878492033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5150,8 +5318,12 @@
         <f>cases!U16/(population_2016!$B16/1000)</f>
         <v>2.0779220779220777</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16" s="3">
+        <f>cases!V16/(population_2016!$B16/1000)</f>
+        <v>2.0779220779220777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5234,8 +5406,12 @@
         <f>cases!U17/(population_2016!$B17/1000)</f>
         <v>6.2563810337868322</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17" s="3">
+        <f>cases!V17/(population_2016!$B17/1000)</f>
+        <v>6.849965572096778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -5318,8 +5494,12 @@
         <f>cases!U18/(population_2016!$B18/1000)</f>
         <v>1.1881188118811881</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18" s="3">
+        <f>cases!V18/(population_2016!$B18/1000)</f>
+        <v>1.1881188118811881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5402,8 +5582,12 @@
         <f>cases!U19/(population_2016!$B19/1000)</f>
         <v>2.9591635431051491</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19" s="3">
+        <f>cases!V19/(population_2016!$B19/1000)</f>
+        <v>3.1071217202604062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5486,8 +5670,12 @@
         <f>cases!U20/(population_2016!$B20/1000)</f>
         <v>6.6377223010770638</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" s="3">
+        <f>cases!V20/(population_2016!$B20/1000)</f>
+        <v>6.7629623444936122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5570,8 +5758,12 @@
         <f>cases!U21/(population_2016!$B21/1000)</f>
         <v>1.5585090263647778</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V21" s="3">
+        <f>cases!V21/(population_2016!$B21/1000)</f>
+        <v>1.5873703046307921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5654,8 +5846,12 @@
         <f>cases!U22/(population_2016!$B22/1000)</f>
         <v>3.3461538461538463</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22" s="3">
+        <f>cases!V22/(population_2016!$B22/1000)</f>
+        <v>3.4903846153846154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5738,8 +5934,12 @@
         <f>cases!U23/(population_2016!$B23/1000)</f>
         <v>1.2746972594008923</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23" s="3">
+        <f>cases!V23/(population_2016!$B23/1000)</f>
+        <v>1.2746972594008923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5822,8 +6022,12 @@
         <f>cases!U24/(population_2016!$B24/1000)</f>
         <v>3.8691061708964525</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24" s="3">
+        <f>cases!V24/(population_2016!$B24/1000)</f>
+        <v>4.1595233411090193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5906,8 +6110,12 @@
         <f>cases!U25/(population_2016!$B25/1000)</f>
         <v>2.8726986173794682</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25" s="3">
+        <f>cases!V25/(population_2016!$B25/1000)</f>
+        <v>2.9944838455476752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5990,8 +6198,12 @@
         <f>cases!U26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26" s="3">
+        <f>cases!V26/(population_2016!$B26/1000)</f>
+        <v>1.008471157724889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6074,8 +6286,12 @@
         <f>cases!U27/(population_2016!$B27/1000)</f>
         <v>2.5600032379487594</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" s="3">
+        <f>cases!V27/(population_2016!$B27/1000)</f>
+        <v>2.7421378556684339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6158,8 +6374,12 @@
         <f>cases!U28/(population_2016!$B28/1000)</f>
         <v>3.4863674094885382</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28" s="3">
+        <f>cases!V28/(population_2016!$B28/1000)</f>
+        <v>3.7545495179107333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -6242,8 +6462,12 @@
         <f>cases!U29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" s="3">
+        <f>cases!V29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6326,8 +6550,12 @@
         <f>cases!U30/(population_2016!$B30/1000)</f>
         <v>4.1970032373226189</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" s="3">
+        <f>cases!V30/(population_2016!$B30/1000)</f>
+        <v>4.4785095520210874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6410,8 +6638,12 @@
         <f>cases!U31/(population_2016!$B31/1000)</f>
         <v>4.7956781117739675</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" s="3">
+        <f>cases!V31/(population_2016!$B31/1000)</f>
+        <v>5.055684756388219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6494,8 +6726,12 @@
         <f>cases!U32/(population_2016!$B32/1000)</f>
         <v>2.8260625770999215</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" s="3">
+        <f>cases!V32/(population_2016!$B32/1000)</f>
+        <v>2.9269933834249184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6578,8 +6814,12 @@
         <f>cases!U33/(population_2016!$B33/1000)</f>
         <v>3.3854003739928955</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33" s="3">
+        <f>cases!V33/(population_2016!$B33/1000)</f>
+        <v>3.6773650879717485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -6661,6 +6901,10 @@
       <c r="U34" s="3">
         <f>cases!U34/(population_2016!$B34/1000)</f>
         <v>3.2985427333595903</v>
+      </c>
+      <c r="V34" s="3">
+        <f>cases!V34/(population_2016!$B34/1000)</f>
+        <v>3.4462386766443478</v>
       </c>
     </row>
   </sheetData>
@@ -6670,10 +6914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR35"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AK43" sqref="AK43"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AQ40" sqref="AQ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9002,11 +9246,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -9169,7 +9413,7 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
@@ -9336,7 +9580,7 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
@@ -9503,7 +9747,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
@@ -9670,11 +9914,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -9837,7 +10081,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4182</v>
+        <v>4179</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -10004,11 +10248,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -10171,7 +10415,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
@@ -10338,7 +10582,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
@@ -10505,7 +10749,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5704</v>
+        <v>5703</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
@@ -10672,11 +10916,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -10839,7 +11083,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6165</v>
+        <v>6166</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
@@ -11006,11 +11250,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6477</v>
+        <v>6479</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -11173,7 +11417,7 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>7027</v>
+        <v>7029</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
@@ -11340,11 +11584,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7444</v>
+        <v>7448</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -11507,11 +11751,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7848</v>
+        <v>7890</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -11674,11 +11918,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8036</v>
+        <v>8225</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -11841,11 +12085,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8052</v>
+        <v>8444</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -12000,6 +12244,173 @@
       <c r="AR35" s="3">
         <f t="shared" ref="AR35" si="272">X35*100/SUM($O35:$X35)</f>
         <v>35.916399586499224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A36" s="19">
+        <v>43939</v>
+      </c>
+      <c r="B36" s="17">
+        <f>mtl_newcases!C37</f>
+        <v>8457</v>
+      </c>
+      <c r="C36" s="17">
+        <f>mtl_newcases!B37</f>
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>513</v>
+      </c>
+      <c r="E36" cm="1">
+        <f t="array" ref="E36:N36">TRANSPOSE(santemontreal!U$57:U$66)</f>
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>197</v>
+      </c>
+      <c r="H36">
+        <v>1022</v>
+      </c>
+      <c r="I36">
+        <v>1250</v>
+      </c>
+      <c r="J36">
+        <v>1451</v>
+      </c>
+      <c r="K36">
+        <v>1247</v>
+      </c>
+      <c r="L36">
+        <v>802</v>
+      </c>
+      <c r="M36">
+        <v>695</v>
+      </c>
+      <c r="N36">
+        <v>1689</v>
+      </c>
+      <c r="O36" s="18">
+        <f>E36/(age_distribution_2016!$B$2/100000)</f>
+        <v>41.917258975760895</v>
+      </c>
+      <c r="P36" s="18">
+        <f>F36/(age_distribution_2016!$B$3/100000)</f>
+        <v>33.529721703309868</v>
+      </c>
+      <c r="Q36" s="18">
+        <f>G36/(age_distribution_2016!$B$4/100000)</f>
+        <v>104.68422031511544</v>
+      </c>
+      <c r="R36" s="18">
+        <f>H36/(age_distribution_2016!$B$5/100000)</f>
+        <v>348.53781226020976</v>
+      </c>
+      <c r="S36" s="18">
+        <f>I36/(age_distribution_2016!$B$6/100000)</f>
+        <v>417.11854509051471</v>
+      </c>
+      <c r="T36" s="18">
+        <f>J36/(age_distribution_2016!$B$7/100000)</f>
+        <v>570.19353571077704</v>
+      </c>
+      <c r="U36" s="18">
+        <f>K36/(age_distribution_2016!$B$8/100000)</f>
+        <v>481.69966199903428</v>
+      </c>
+      <c r="V36" s="18">
+        <f>L36/(age_distribution_2016!$B$9/100000)</f>
+        <v>391.20997048852462</v>
+      </c>
+      <c r="W36" s="18">
+        <f>M36/(age_distribution_2016!$B$10/100000)</f>
+        <v>535.93460826650221</v>
+      </c>
+      <c r="X36" s="18">
+        <f>N36/(age_distribution_2016!$B$11/100000)</f>
+        <v>1709.4276605434948</v>
+      </c>
+      <c r="Y36" s="3">
+        <f t="shared" ref="Y36" si="273">E36*100/SUM($E36:$N36)</f>
+        <v>0.54541142992648806</v>
+      </c>
+      <c r="Z36" s="3">
+        <f t="shared" ref="Z36" si="274">F36*100/SUM($E36:$N36)</f>
+        <v>0.4149869575527626</v>
+      </c>
+      <c r="AA36" s="3">
+        <f t="shared" ref="AA36" si="275">G36*100/SUM($E36:$N36)</f>
+        <v>2.3357837325112638</v>
+      </c>
+      <c r="AB36" s="3">
+        <f t="shared" ref="AB36" si="276">H36*100/SUM($E36:$N36)</f>
+        <v>12.117619160540668</v>
+      </c>
+      <c r="AC36" s="3">
+        <f t="shared" ref="AC36" si="277">I36*100/SUM($E36:$N36)</f>
+        <v>14.820962769741522</v>
+      </c>
+      <c r="AD36" s="3">
+        <f t="shared" ref="AD36" si="278">J36*100/SUM($E36:$N36)</f>
+        <v>17.20417358311596</v>
+      </c>
+      <c r="AE36" s="3">
+        <f t="shared" ref="AE36" si="279">K36*100/SUM($E36:$N36)</f>
+        <v>14.785392459094142</v>
+      </c>
+      <c r="AF36" s="3">
+        <f t="shared" ref="AF36" si="280">L36*100/SUM($E36:$N36)</f>
+        <v>9.5091297130661605</v>
+      </c>
+      <c r="AG36" s="3">
+        <f t="shared" ref="AG36" si="281">M36*100/SUM($E36:$N36)</f>
+        <v>8.2404552999762863</v>
+      </c>
+      <c r="AH36" s="3">
+        <f t="shared" ref="AH36" si="282">N36*100/SUM($E36:$N36)</f>
+        <v>20.026084894474746</v>
+      </c>
+      <c r="AI36" s="3">
+        <f t="shared" ref="AI36" si="283">O36*100/SUM($O36:$X36)</f>
+        <v>0.90450950817297315</v>
+      </c>
+      <c r="AJ36" s="3">
+        <f t="shared" ref="AJ36" si="284">P36*100/SUM($O36:$X36)</f>
+        <v>0.72351944826771564</v>
+      </c>
+      <c r="AK36" s="3">
+        <f t="shared" ref="AK36" si="285">Q36*100/SUM($O36:$X36)</f>
+        <v>2.2589232918462181</v>
+      </c>
+      <c r="AL36" s="3">
+        <f t="shared" ref="AL36" si="286">R36*100/SUM($O36:$X36)</f>
+        <v>7.5209060146195723</v>
+      </c>
+      <c r="AM36" s="3">
+        <f t="shared" ref="AM36" si="287">S36*100/SUM($O36:$X36)</f>
+        <v>9.0007719800528534</v>
+      </c>
+      <c r="AN36" s="3">
+        <f t="shared" ref="AN36" si="288">T36*100/SUM($O36:$X36)</f>
+        <v>12.303893125440261</v>
+      </c>
+      <c r="AO36" s="3">
+        <f t="shared" ref="AO36" si="289">U36*100/SUM($O36:$X36)</f>
+        <v>10.394332430319054</v>
+      </c>
+      <c r="AP36" s="3">
+        <f t="shared" ref="AP36" si="290">V36*100/SUM($O36:$X36)</f>
+        <v>8.4417050791312036</v>
+      </c>
+      <c r="AQ36" s="3">
+        <f t="shared" ref="AQ36" si="291">W36*100/SUM($O36:$X36)</f>
+        <v>11.564638547008176</v>
+      </c>
+      <c r="AR36" s="3">
+        <f t="shared" ref="AR36" si="292">X36*100/SUM($O36:$X36)</f>
+        <v>36.88680057514199</v>
       </c>
     </row>
   </sheetData>
@@ -12009,11 +12420,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13107,6 +13518,29 @@
         <v>3315</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B48">
+        <v>18357</v>
+      </c>
+      <c r="C48">
+        <v>877</v>
+      </c>
+      <c r="D48">
+        <v>1102</v>
+      </c>
+      <c r="E48">
+        <v>183</v>
+      </c>
+      <c r="F48">
+        <v>145191</v>
+      </c>
+      <c r="G48">
+        <v>3555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13114,10 +13548,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13374,11 +13808,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -13388,7 +13822,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -13400,7 +13834,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -13410,7 +13844,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -13422,7 +13856,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -13432,7 +13866,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -13444,7 +13878,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -13454,7 +13888,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -13462,11 +13896,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -13476,7 +13910,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -13488,7 +13922,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4182</v>
+        <v>4179</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -13498,7 +13932,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -13506,11 +13940,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4613</v>
+        <v>4612</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -13520,7 +13954,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -13532,7 +13966,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -13542,7 +13976,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -13554,7 +13988,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -13564,7 +13998,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -13575,8 +14009,8 @@
         <v>318</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C36" si="4">C27+B28</f>
-        <v>5704</v>
+        <f t="shared" ref="C28:C37" si="4">C27+B28</f>
+        <v>5703</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -13586,7 +14020,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -13594,11 +14028,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -13608,7 +14042,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -13620,7 +14054,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6165</v>
+        <v>6166</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -13630,7 +14064,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -13638,11 +14072,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6477</v>
+        <v>6479</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -13652,7 +14086,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -13664,7 +14098,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>7027</v>
+        <v>7029</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -13674,7 +14108,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -13682,11 +14116,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7444</v>
+        <v>7448</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -13696,7 +14130,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -13704,11 +14138,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7848</v>
+        <v>7890</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -13718,7 +14152,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>567</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -13726,11 +14160,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8036</v>
+        <v>8225</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -13740,7 +14174,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>276</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -13748,11 +14182,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8052</v>
+        <v>8444</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -13762,6 +14196,28 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="19">
+        <v>43939</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>8457</v>
+      </c>
+      <c r="E37" s="19">
+        <v>43939</v>
+      </c>
+      <c r="F37">
+        <v>8457</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="7">C37-F37</f>
         <v>0</v>
       </c>
     </row>
@@ -13777,7 +14233,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T35" sqref="T2:T35"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2:U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13847,9 +14303,11 @@
         <v>276</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -14107,7 +14565,9 @@
       <c r="T2" s="7">
         <v>594</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="7">
+        <v>663</v>
+      </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -14365,7 +14825,9 @@
       <c r="T3" s="9">
         <v>127</v>
       </c>
-      <c r="U3" s="9"/>
+      <c r="U3" s="9">
+        <v>138</v>
+      </c>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -14623,7 +15085,9 @@
       <c r="T4" s="7">
         <v>5</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7">
+        <v>5</v>
+      </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -14881,7 +15345,9 @@
       <c r="T5" s="9">
         <v>15</v>
       </c>
-      <c r="U5" s="9"/>
+      <c r="U5" s="9">
+        <v>15</v>
+      </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -15139,7 +15605,9 @@
       <c r="T6" s="7">
         <v>799</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="7">
+        <v>839</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -15397,7 +15865,9 @@
       <c r="T7" s="9">
         <v>292</v>
       </c>
-      <c r="U7" s="9"/>
+      <c r="U7" s="9">
+        <v>300</v>
+      </c>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -15655,7 +16125,9 @@
       <c r="T8" s="7">
         <v>92</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="7">
+        <v>96</v>
+      </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -15913,7 +16385,9 @@
       <c r="T9" s="9">
         <v>47</v>
       </c>
-      <c r="U9" s="9"/>
+      <c r="U9" s="9">
+        <v>49</v>
+      </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -16171,7 +16645,9 @@
       <c r="T10" s="7">
         <v>29</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="7">
+        <v>29</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
@@ -16429,7 +16905,9 @@
       <c r="T11" s="9">
         <v>23</v>
       </c>
-      <c r="U11" s="9"/>
+      <c r="U11" s="9">
+        <v>25</v>
+      </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -16687,7 +17165,9 @@
       <c r="T12" s="7">
         <v>104</v>
       </c>
-      <c r="U12" s="7"/>
+      <c r="U12" s="7">
+        <v>108</v>
+      </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
@@ -16945,7 +17425,9 @@
       <c r="T13" s="9">
         <v>379</v>
       </c>
-      <c r="U13" s="9"/>
+      <c r="U13" s="9">
+        <v>384</v>
+      </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -17203,7 +17685,9 @@
       <c r="T14" s="7">
         <v>32</v>
       </c>
-      <c r="U14" s="7"/>
+      <c r="U14" s="7">
+        <v>31</v>
+      </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -17461,7 +17945,9 @@
       <c r="T15" s="9">
         <v>459</v>
       </c>
-      <c r="U15" s="9"/>
+      <c r="U15" s="9">
+        <v>488</v>
+      </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -17719,7 +18205,9 @@
       <c r="T16" s="7">
         <v>8</v>
       </c>
-      <c r="U16" s="7"/>
+      <c r="U16" s="7">
+        <v>8</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -17977,7 +18465,9 @@
       <c r="T17" s="9">
         <v>527</v>
       </c>
-      <c r="U17" s="9"/>
+      <c r="U17" s="9">
+        <v>577</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -18235,7 +18725,9 @@
       <c r="T18" s="7">
         <v>6</v>
       </c>
-      <c r="U18" s="7"/>
+      <c r="U18" s="7">
+        <v>6</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -18493,7 +18985,9 @@
       <c r="T19" s="9">
         <v>60</v>
       </c>
-      <c r="U19" s="9"/>
+      <c r="U19" s="9">
+        <v>63</v>
+      </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -18751,7 +19245,9 @@
       <c r="T20" s="7">
         <v>159</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7">
+        <v>162</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -19009,7 +19505,9 @@
       <c r="T21" s="9">
         <v>108</v>
       </c>
-      <c r="U21" s="9"/>
+      <c r="U21" s="9">
+        <v>110</v>
+      </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -19267,7 +19765,9 @@
       <c r="T22" s="7">
         <v>348</v>
       </c>
-      <c r="U22" s="7"/>
+      <c r="U22" s="7">
+        <v>363</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
@@ -19525,7 +20025,9 @@
       <c r="T23" s="9">
         <v>40</v>
       </c>
-      <c r="U23" s="9"/>
+      <c r="U23" s="9">
+        <v>40</v>
+      </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
@@ -19783,7 +20285,9 @@
       <c r="T24" s="7">
         <v>413</v>
       </c>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7">
+        <v>444</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -20041,7 +20545,9 @@
       <c r="T25" s="9">
         <v>401</v>
       </c>
-      <c r="U25" s="9"/>
+      <c r="U25" s="9">
+        <v>418</v>
+      </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
@@ -20299,7 +20805,9 @@
       <c r="T26" s="7">
         <v>5</v>
       </c>
-      <c r="U26" s="7"/>
+      <c r="U26" s="7">
+        <v>5</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -20557,7 +21065,9 @@
       <c r="T27" s="9">
         <v>253</v>
       </c>
-      <c r="U27" s="9"/>
+      <c r="U27" s="9">
+        <v>271</v>
+      </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -20815,7 +21325,9 @@
       <c r="T28" s="7">
         <v>273</v>
       </c>
-      <c r="U28" s="7"/>
+      <c r="U28" s="7">
+        <v>294</v>
+      </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
@@ -21073,7 +21585,9 @@
       <c r="T29" s="20">
         <v>2</v>
       </c>
-      <c r="U29" s="22"/>
+      <c r="U29" s="20">
+        <v>2</v>
+      </c>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
       <c r="X29" s="22"/>
@@ -21331,7 +21845,9 @@
       <c r="T30" s="7">
         <v>328</v>
       </c>
-      <c r="U30" s="7"/>
+      <c r="U30" s="7">
+        <v>350</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
@@ -21589,7 +22105,9 @@
       <c r="T31" s="9">
         <v>332</v>
       </c>
-      <c r="U31" s="9"/>
+      <c r="U31" s="9">
+        <v>350</v>
+      </c>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
@@ -21847,7 +22365,9 @@
       <c r="T32" s="7">
         <v>252</v>
       </c>
-      <c r="U32" s="7"/>
+      <c r="U32" s="7">
+        <v>261</v>
+      </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -22105,7 +22625,9 @@
       <c r="T33" s="9">
         <v>487</v>
       </c>
-      <c r="U33" s="9"/>
+      <c r="U33" s="9">
+        <v>529</v>
+      </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -22363,7 +22885,9 @@
       <c r="T34" s="7">
         <v>67</v>
       </c>
-      <c r="U34" s="7"/>
+      <c r="U34" s="7">
+        <v>70</v>
+      </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -22621,7 +23145,9 @@
       <c r="T35" s="9">
         <v>986</v>
       </c>
-      <c r="U35" s="9"/>
+      <c r="U35" s="9">
+        <v>964</v>
+      </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
@@ -22879,7 +23405,9 @@
       <c r="T36" s="11">
         <v>8052</v>
       </c>
-      <c r="U36" s="11"/>
+      <c r="U36" s="11">
+        <v>8457</v>
+      </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -27070,9 +27598,11 @@
         <v>276</v>
       </c>
       <c r="T56" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U56" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -27328,7 +27858,9 @@
       <c r="T57" s="7">
         <v>46</v>
       </c>
-      <c r="U57" s="7"/>
+      <c r="U57" s="7">
+        <v>46</v>
+      </c>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
@@ -27584,7 +28116,9 @@
       <c r="T58" s="9">
         <v>35</v>
       </c>
-      <c r="U58" s="9"/>
+      <c r="U58" s="9">
+        <v>35</v>
+      </c>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
@@ -27840,7 +28374,9 @@
       <c r="T59" s="7">
         <v>194</v>
       </c>
-      <c r="U59" s="7"/>
+      <c r="U59" s="7">
+        <v>197</v>
+      </c>
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
@@ -28096,7 +28632,9 @@
       <c r="T60" s="9">
         <v>985</v>
       </c>
-      <c r="U60" s="9"/>
+      <c r="U60" s="9">
+        <v>1022</v>
+      </c>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
@@ -28352,7 +28890,9 @@
       <c r="T61" s="7">
         <v>1218</v>
       </c>
-      <c r="U61" s="7"/>
+      <c r="U61" s="7">
+        <v>1250</v>
+      </c>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
@@ -28608,7 +29148,9 @@
       <c r="T62" s="9">
         <v>1401</v>
       </c>
-      <c r="U62" s="9"/>
+      <c r="U62" s="9">
+        <v>1451</v>
+      </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
@@ -28864,7 +29406,9 @@
       <c r="T63" s="7">
         <v>1188</v>
       </c>
-      <c r="U63" s="7"/>
+      <c r="U63" s="7">
+        <v>1247</v>
+      </c>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
@@ -29120,7 +29664,9 @@
       <c r="T64" s="9">
         <v>767</v>
       </c>
-      <c r="U64" s="9"/>
+      <c r="U64" s="9">
+        <v>802</v>
+      </c>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
@@ -29376,7 +29922,9 @@
       <c r="T65" s="7">
         <v>646</v>
       </c>
-      <c r="U65" s="7"/>
+      <c r="U65" s="7">
+        <v>695</v>
+      </c>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
@@ -29632,7 +30180,9 @@
       <c r="T66" s="9">
         <v>1552</v>
       </c>
-      <c r="U66" s="9"/>
+      <c r="U66" s="9">
+        <v>1689</v>
+      </c>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
@@ -29888,7 +30438,9 @@
       <c r="T67" s="7">
         <v>20</v>
       </c>
-      <c r="U67" s="7"/>
+      <c r="U67" s="7">
+        <v>23</v>
+      </c>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
@@ -30144,7 +30696,9 @@
       <c r="T68" s="15">
         <v>8052</v>
       </c>
-      <c r="U68" s="15"/>
+      <c r="U68" s="15">
+        <v>8457</v>
+      </c>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
@@ -30402,6 +30956,9 @@
       <c r="T70">
         <v>454</v>
       </c>
+      <c r="U70">
+        <v>513</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -30460,7 +31017,7 @@
         <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -30471,7 +31028,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
         <v>277</v>
@@ -30482,7 +31039,7 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>286</v>
@@ -30495,14 +31052,14 @@
       <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B7">
-        <v>985</v>
+      <c r="B7" t="s">
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -30510,13 +31067,13 @@
         <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
         <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -30524,13 +31081,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -30538,13 +31095,13 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -30552,13 +31109,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -30566,13 +31123,13 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>646</v>
+        <v>695</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -30580,13 +31137,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -30594,7 +31151,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>235</v>
@@ -30608,13 +31165,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468453D-6FB0-4A2E-BC24-61B2FFAEA536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B909654-AB5A-4F75-82CF-A42EAD9C32D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="3870" windowWidth="36930" windowHeight="16890" tabRatio="765" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="11370" yWindow="6290" windowWidth="29840" windowHeight="14430" tabRatio="512" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="306">
   <si>
     <t>borough</t>
   </si>
@@ -990,6 +990,9 @@
   <si>
     <t>1 671,6</t>
   </si>
+  <si>
+    <t>19 AVRIL, 17H15</t>
+  </si>
 </sst>
 </file>
 
@@ -1130,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1186,6 +1189,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1500,20 +1504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1580,8 +1584,11 @@
       <c r="V1" s="1">
         <v>43939</v>
       </c>
+      <c r="W1" s="1">
+        <v>43940</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1648,8 +1655,11 @@
       <c r="V2">
         <v>663</v>
       </c>
+      <c r="W2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1716,8 +1726,11 @@
       <c r="V3">
         <v>138</v>
       </c>
+      <c r="W3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1784,8 +1797,11 @@
       <c r="V4">
         <v>5</v>
       </c>
+      <c r="W4" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1852,8 +1868,11 @@
       <c r="V5">
         <v>15</v>
       </c>
+      <c r="W5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1920,8 +1939,11 @@
       <c r="V6">
         <v>839</v>
       </c>
+      <c r="W6" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1988,8 +2010,11 @@
       <c r="V7">
         <v>300</v>
       </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2056,8 +2081,11 @@
       <c r="V8">
         <v>96</v>
       </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2124,8 +2152,11 @@
       <c r="V9">
         <v>49</v>
       </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2192,8 +2223,11 @@
       <c r="V10">
         <v>29</v>
       </c>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2260,8 +2294,11 @@
       <c r="V11">
         <v>25</v>
       </c>
+      <c r="W11" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2328,8 +2365,11 @@
       <c r="V12">
         <v>108</v>
       </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2396,8 +2436,11 @@
       <c r="V13">
         <v>384</v>
       </c>
+      <c r="W13" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2464,8 +2507,11 @@
       <c r="V14">
         <v>31</v>
       </c>
+      <c r="W14" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2532,8 +2578,11 @@
       <c r="V15">
         <v>488</v>
       </c>
+      <c r="W15" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2600,8 +2649,11 @@
       <c r="V16">
         <v>8</v>
       </c>
+      <c r="W16" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2668,8 +2720,11 @@
       <c r="V17">
         <v>577</v>
       </c>
+      <c r="W17" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2736,8 +2791,11 @@
       <c r="V18">
         <v>6</v>
       </c>
+      <c r="W18" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2804,8 +2862,11 @@
       <c r="V19">
         <v>63</v>
       </c>
+      <c r="W19" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2872,8 +2933,11 @@
       <c r="V20">
         <v>162</v>
       </c>
+      <c r="W20" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2940,8 +3004,11 @@
       <c r="V21">
         <v>110</v>
       </c>
+      <c r="W21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3008,8 +3075,11 @@
       <c r="V22">
         <v>363</v>
       </c>
+      <c r="W22" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3076,8 +3146,11 @@
       <c r="V23">
         <v>40</v>
       </c>
+      <c r="W23" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3144,8 +3217,11 @@
       <c r="V24">
         <v>444</v>
       </c>
+      <c r="W24" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3212,8 +3288,11 @@
       <c r="V25">
         <v>418</v>
       </c>
+      <c r="W25" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3280,8 +3359,11 @@
       <c r="V26">
         <v>5</v>
       </c>
+      <c r="W26" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3348,8 +3430,11 @@
       <c r="V27">
         <v>271</v>
       </c>
+      <c r="W27" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3416,8 +3501,11 @@
       <c r="V28">
         <v>294</v>
       </c>
+      <c r="W28" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3484,8 +3572,11 @@
       <c r="V29">
         <v>2</v>
       </c>
+      <c r="W29" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3552,8 +3643,11 @@
       <c r="V30">
         <v>350</v>
       </c>
+      <c r="W30" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3620,8 +3714,11 @@
       <c r="V31">
         <v>350</v>
       </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3688,8 +3785,11 @@
       <c r="V32">
         <v>261</v>
       </c>
+      <c r="W32" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3756,8 +3856,11 @@
       <c r="V33">
         <v>529</v>
       </c>
+      <c r="W33" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3824,8 +3927,11 @@
       <c r="V34">
         <v>70</v>
       </c>
+      <c r="W34" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3891,6 +3997,9 @@
       </c>
       <c r="V35">
         <v>964</v>
+      </c>
+      <c r="W35" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3901,20 +4010,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4002,8 +4111,11 @@
         <f>cases!V1</f>
         <v>43939</v>
       </c>
+      <c r="W1" s="1">
+        <v>43940</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4090,8 +4202,11 @@
         <f>cases!V2/(population_2016!$B2/1000)</f>
         <v>4.9387314238891573</v>
       </c>
+      <c r="W2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4178,8 +4293,11 @@
         <f>cases!V3/(population_2016!$B3/1000)</f>
         <v>3.2246004299467241</v>
       </c>
+      <c r="W3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4266,8 +4384,11 @@
         <f>cases!V4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
+      <c r="W4" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4354,8 +4475,11 @@
         <f>cases!V5/(population_2016!$B5/1000)</f>
         <v>0.77623680397433237</v>
       </c>
+      <c r="W5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4442,8 +4566,11 @@
         <f>cases!V6/(population_2016!$B6/1000)</f>
         <v>5.0384338217631512</v>
       </c>
+      <c r="W6" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4530,8 +4657,11 @@
         <f>cases!V7/(population_2016!$B7/1000)</f>
         <v>9.2455621301775146</v>
       </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4618,8 +4748,11 @@
         <f>cases!V8/(population_2016!$B8/1000)</f>
         <v>1.9632303319086279</v>
       </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4706,8 +4839,11 @@
         <f>cases!V9/(population_2016!$B9/1000)</f>
         <v>2.5816649104320337</v>
       </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4794,8 +4930,11 @@
         <f>cases!V10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4882,8 +5021,11 @@
         <f>cases!V11/(population_2016!$B11/1000)</f>
         <v>1.2406332191950771</v>
       </c>
+      <c r="W11" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4970,8 +5112,11 @@
         <f>cases!V12/(population_2016!$B12/1000)</f>
         <v>2.427566364719369</v>
       </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5058,8 +5203,11 @@
         <f>cases!V13/(population_2016!$B13/1000)</f>
         <v>4.9965518587433158</v>
       </c>
+      <c r="W13" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5146,8 +5294,11 @@
         <f>cases!V14/(population_2016!$B14/1000)</f>
         <v>1.6835931135610709</v>
       </c>
+      <c r="W14" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5234,8 +5385,11 @@
         <f>cases!V15/(population_2016!$B15/1000)</f>
         <v>3.5876021878492033</v>
       </c>
+      <c r="W15" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5322,8 +5476,11 @@
         <f>cases!V16/(population_2016!$B16/1000)</f>
         <v>2.0779220779220777</v>
       </c>
+      <c r="W16" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5410,8 +5567,11 @@
         <f>cases!V17/(population_2016!$B17/1000)</f>
         <v>6.849965572096778</v>
       </c>
+      <c r="W17" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -5498,8 +5658,11 @@
         <f>cases!V18/(population_2016!$B18/1000)</f>
         <v>1.1881188118811881</v>
       </c>
+      <c r="W18" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5586,8 +5749,11 @@
         <f>cases!V19/(population_2016!$B19/1000)</f>
         <v>3.1071217202604062</v>
       </c>
+      <c r="W19" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5674,8 +5840,11 @@
         <f>cases!V20/(population_2016!$B20/1000)</f>
         <v>6.7629623444936122</v>
       </c>
+      <c r="W20" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5762,8 +5931,11 @@
         <f>cases!V21/(population_2016!$B21/1000)</f>
         <v>1.5873703046307921</v>
       </c>
+      <c r="W21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5850,8 +6022,11 @@
         <f>cases!V22/(population_2016!$B22/1000)</f>
         <v>3.4903846153846154</v>
       </c>
+      <c r="W22" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5938,8 +6113,11 @@
         <f>cases!V23/(population_2016!$B23/1000)</f>
         <v>1.2746972594008923</v>
       </c>
+      <c r="W23" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6026,8 +6204,11 @@
         <f>cases!V24/(population_2016!$B24/1000)</f>
         <v>4.1595233411090193</v>
       </c>
+      <c r="W24" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6114,8 +6295,11 @@
         <f>cases!V25/(population_2016!$B25/1000)</f>
         <v>2.9944838455476752</v>
       </c>
+      <c r="W25" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -6202,8 +6386,11 @@
         <f>cases!V26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
+      <c r="W26" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6290,8 +6477,11 @@
         <f>cases!V27/(population_2016!$B27/1000)</f>
         <v>2.7421378556684339</v>
       </c>
+      <c r="W27" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6378,8 +6568,11 @@
         <f>cases!V28/(population_2016!$B28/1000)</f>
         <v>3.7545495179107333</v>
       </c>
+      <c r="W28" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -6466,8 +6659,11 @@
         <f>cases!V29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="W29" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6554,8 +6750,11 @@
         <f>cases!V30/(population_2016!$B30/1000)</f>
         <v>4.4785095520210874</v>
       </c>
+      <c r="W30" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6642,8 +6841,11 @@
         <f>cases!V31/(population_2016!$B31/1000)</f>
         <v>5.055684756388219</v>
       </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6730,8 +6932,11 @@
         <f>cases!V32/(population_2016!$B32/1000)</f>
         <v>2.9269933834249184</v>
       </c>
+      <c r="W32" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6818,8 +7023,11 @@
         <f>cases!V33/(population_2016!$B33/1000)</f>
         <v>3.6773650879717485</v>
       </c>
+      <c r="W33" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -6905,6 +7113,9 @@
       <c r="V34" s="3">
         <f>cases!V34/(population_2016!$B34/1000)</f>
         <v>3.4462386766443478</v>
+      </c>
+      <c r="W34" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6914,10 +7125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR36"/>
+  <dimension ref="A1:AR37"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AQ40" sqref="AQ40"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12413,6 +12624,142 @@
         <v>36.88680057514199</v>
       </c>
     </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A37" s="19">
+        <v>43940</v>
+      </c>
+      <c r="B37" s="17">
+        <f>mtl_newcases!C38</f>
+        <v>8964</v>
+      </c>
+      <c r="C37" s="17">
+        <f>mtl_newcases!B38</f>
+        <v>507</v>
+      </c>
+      <c r="D37">
+        <v>525</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O37" t="s">
+        <v>102</v>
+      </c>
+      <c r="P37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>102</v>
+      </c>
+      <c r="R37" t="s">
+        <v>102</v>
+      </c>
+      <c r="S37" t="s">
+        <v>102</v>
+      </c>
+      <c r="T37" t="s">
+        <v>102</v>
+      </c>
+      <c r="U37" t="s">
+        <v>102</v>
+      </c>
+      <c r="V37" t="s">
+        <v>102</v>
+      </c>
+      <c r="W37" t="s">
+        <v>102</v>
+      </c>
+      <c r="X37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12420,11 +12767,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13541,6 +13888,29 @@
         <v>3555</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B49">
+        <v>19319</v>
+      </c>
+      <c r="C49">
+        <v>939</v>
+      </c>
+      <c r="D49">
+        <v>1169</v>
+      </c>
+      <c r="E49">
+        <v>198</v>
+      </c>
+      <c r="F49">
+        <v>148482</v>
+      </c>
+      <c r="G49">
+        <v>3847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13548,10 +13918,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14203,7 +14573,7 @@
       <c r="A37" s="19">
         <v>43939</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="23">
         <v>13</v>
       </c>
       <c r="C37">
@@ -14218,6 +14588,28 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="19">
+        <v>43940</v>
+      </c>
+      <c r="B38" s="23">
+        <v>507</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="8">C37+B38</f>
+        <v>8964</v>
+      </c>
+      <c r="E38" s="19">
+        <v>43940</v>
+      </c>
+      <c r="F38">
+        <v>8964</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="9">C38-F38</f>
         <v>0</v>
       </c>
     </row>
@@ -14231,9 +14623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2:U35"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14308,7 +14700,9 @@
       <c r="U1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="5"/>
+      <c r="V1" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -14568,7 +14962,9 @@
       <c r="U2" s="7">
         <v>663</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -14828,7 +15224,9 @@
       <c r="U3" s="9">
         <v>138</v>
       </c>
-      <c r="V3" s="9"/>
+      <c r="V3" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
@@ -15088,7 +15486,9 @@
       <c r="U4" s="7">
         <v>5</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -15348,7 +15748,9 @@
       <c r="U5" s="9">
         <v>15</v>
       </c>
-      <c r="V5" s="9"/>
+      <c r="V5" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
@@ -15608,7 +16010,9 @@
       <c r="U6" s="7">
         <v>839</v>
       </c>
-      <c r="V6" s="7"/>
+      <c r="V6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -15868,7 +16272,9 @@
       <c r="U7" s="9">
         <v>300</v>
       </c>
-      <c r="V7" s="9"/>
+      <c r="V7" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
@@ -16128,7 +16534,9 @@
       <c r="U8" s="7">
         <v>96</v>
       </c>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -16388,7 +16796,9 @@
       <c r="U9" s="9">
         <v>49</v>
       </c>
-      <c r="V9" s="9"/>
+      <c r="V9" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
@@ -16648,7 +17058,9 @@
       <c r="U10" s="7">
         <v>29</v>
       </c>
-      <c r="V10" s="7"/>
+      <c r="V10" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -16908,7 +17320,9 @@
       <c r="U11" s="9">
         <v>25</v>
       </c>
-      <c r="V11" s="9"/>
+      <c r="V11" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
@@ -17168,7 +17582,9 @@
       <c r="U12" s="7">
         <v>108</v>
       </c>
-      <c r="V12" s="7"/>
+      <c r="V12" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -17428,7 +17844,9 @@
       <c r="U13" s="9">
         <v>384</v>
       </c>
-      <c r="V13" s="9"/>
+      <c r="V13" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -17688,7 +18106,9 @@
       <c r="U14" s="7">
         <v>31</v>
       </c>
-      <c r="V14" s="7"/>
+      <c r="V14" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -17948,7 +18368,9 @@
       <c r="U15" s="9">
         <v>488</v>
       </c>
-      <c r="V15" s="9"/>
+      <c r="V15" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -18208,7 +18630,9 @@
       <c r="U16" s="7">
         <v>8</v>
       </c>
-      <c r="V16" s="7"/>
+      <c r="V16" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -18468,7 +18892,9 @@
       <c r="U17" s="9">
         <v>577</v>
       </c>
-      <c r="V17" s="9"/>
+      <c r="V17" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -18728,7 +19154,9 @@
       <c r="U18" s="7">
         <v>6</v>
       </c>
-      <c r="V18" s="7"/>
+      <c r="V18" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -18988,7 +19416,9 @@
       <c r="U19" s="9">
         <v>63</v>
       </c>
-      <c r="V19" s="9"/>
+      <c r="V19" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -19248,7 +19678,9 @@
       <c r="U20" s="7">
         <v>162</v>
       </c>
-      <c r="V20" s="7"/>
+      <c r="V20" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
@@ -19508,7 +19940,9 @@
       <c r="U21" s="9">
         <v>110</v>
       </c>
-      <c r="V21" s="9"/>
+      <c r="V21" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -19768,7 +20202,9 @@
       <c r="U22" s="7">
         <v>363</v>
       </c>
-      <c r="V22" s="7"/>
+      <c r="V22" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -20028,7 +20464,9 @@
       <c r="U23" s="9">
         <v>40</v>
       </c>
-      <c r="V23" s="9"/>
+      <c r="V23" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -20288,7 +20726,9 @@
       <c r="U24" s="7">
         <v>444</v>
       </c>
-      <c r="V24" s="7"/>
+      <c r="V24" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -20548,7 +20988,9 @@
       <c r="U25" s="9">
         <v>418</v>
       </c>
-      <c r="V25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -20808,7 +21250,9 @@
       <c r="U26" s="7">
         <v>5</v>
       </c>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -21068,7 +21512,9 @@
       <c r="U27" s="9">
         <v>271</v>
       </c>
-      <c r="V27" s="9"/>
+      <c r="V27" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
@@ -21328,7 +21774,9 @@
       <c r="U28" s="7">
         <v>294</v>
       </c>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -21588,7 +22036,9 @@
       <c r="U29" s="20">
         <v>2</v>
       </c>
-      <c r="V29" s="22"/>
+      <c r="V29" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W29" s="22"/>
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
@@ -21848,7 +22298,9 @@
       <c r="U30" s="7">
         <v>350</v>
       </c>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -22108,7 +22560,9 @@
       <c r="U31" s="9">
         <v>350</v>
       </c>
-      <c r="V31" s="9"/>
+      <c r="V31" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -22368,7 +22822,9 @@
       <c r="U32" s="7">
         <v>261</v>
       </c>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -22628,7 +23084,9 @@
       <c r="U33" s="9">
         <v>529</v>
       </c>
-      <c r="V33" s="9"/>
+      <c r="V33" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -22888,7 +23346,9 @@
       <c r="U34" s="7">
         <v>70</v>
       </c>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -23148,7 +23608,9 @@
       <c r="U35" s="9">
         <v>964</v>
       </c>
-      <c r="V35" s="9"/>
+      <c r="V35" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
@@ -23408,7 +23870,9 @@
       <c r="U36" s="11">
         <v>8457</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="11">
+        <v>8964</v>
+      </c>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -27603,7 +28067,9 @@
       <c r="U56" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
@@ -27861,7 +28327,9 @@
       <c r="U57" s="7">
         <v>46</v>
       </c>
-      <c r="V57" s="7"/>
+      <c r="V57" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
@@ -28119,7 +28587,9 @@
       <c r="U58" s="9">
         <v>35</v>
       </c>
-      <c r="V58" s="9"/>
+      <c r="V58" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -28377,7 +28847,9 @@
       <c r="U59" s="7">
         <v>197</v>
       </c>
-      <c r="V59" s="7"/>
+      <c r="V59" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
@@ -28635,7 +29107,9 @@
       <c r="U60" s="9">
         <v>1022</v>
       </c>
-      <c r="V60" s="9"/>
+      <c r="V60" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -28893,7 +29367,9 @@
       <c r="U61" s="7">
         <v>1250</v>
       </c>
-      <c r="V61" s="7"/>
+      <c r="V61" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
@@ -29151,7 +29627,9 @@
       <c r="U62" s="9">
         <v>1451</v>
       </c>
-      <c r="V62" s="9"/>
+      <c r="V62" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -29409,7 +29887,9 @@
       <c r="U63" s="7">
         <v>1247</v>
       </c>
-      <c r="V63" s="7"/>
+      <c r="V63" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
@@ -29667,7 +30147,9 @@
       <c r="U64" s="9">
         <v>802</v>
       </c>
-      <c r="V64" s="9"/>
+      <c r="V64" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -29925,7 +30407,9 @@
       <c r="U65" s="7">
         <v>695</v>
       </c>
-      <c r="V65" s="7"/>
+      <c r="V65" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
@@ -30183,7 +30667,9 @@
       <c r="U66" s="9">
         <v>1689</v>
       </c>
-      <c r="V66" s="9"/>
+      <c r="V66" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -30441,7 +30927,9 @@
       <c r="U67" s="7">
         <v>23</v>
       </c>
-      <c r="V67" s="7"/>
+      <c r="V67" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
@@ -30699,7 +31187,9 @@
       <c r="U68" s="15">
         <v>8457</v>
       </c>
-      <c r="V68" s="15"/>
+      <c r="V68" s="15">
+        <v>8964</v>
+      </c>
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
@@ -30959,6 +31449,9 @@
       <c r="U70">
         <v>513</v>
       </c>
+      <c r="V70">
+        <v>525</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B909654-AB5A-4F75-82CF-A42EAD9C32D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E2CDE-1172-4CF1-BC64-34E8CA1266D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="6290" windowWidth="29840" windowHeight="14430" tabRatio="512" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="19530" yWindow="7090" windowWidth="29840" windowHeight="14430" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="302">
   <si>
     <t>borough</t>
   </si>
@@ -907,19 +907,7 @@
     <t>16 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>* 32,4</t>
-  </si>
-  <si>
-    <t>14,8</t>
-  </si>
-  <si>
     <t>17 AVRIL, 17H15</t>
-  </si>
-  <si>
-    <t>41,5</t>
-  </si>
-  <si>
-    <t>0,4</t>
   </si>
   <si>
     <t>18 AVRIL, 17H15</t>
@@ -928,70 +916,70 @@
     <t>0,5</t>
   </si>
   <si>
-    <t>8 457</t>
+    <t>19 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>409,4</t>
+    <t>20 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>2,3</t>
+    <t>452,5</t>
   </si>
   <si>
-    <t>99,0</t>
+    <t>0,6</t>
   </si>
   <si>
-    <t>1 022</t>
+    <t>51,4</t>
   </si>
   <si>
-    <t>12,1</t>
+    <t>40,8</t>
   </si>
   <si>
-    <t>317,3</t>
+    <t>2,4</t>
   </si>
   <si>
-    <t>1 250</t>
+    <t>114,6</t>
   </si>
   <si>
-    <t>380,5</t>
+    <t>12,0</t>
   </si>
   <si>
-    <t>1 451</t>
+    <t>347,4</t>
   </si>
   <si>
-    <t>17,2</t>
+    <t>14,3</t>
   </si>
   <si>
-    <t>521,3</t>
+    <t>405,4</t>
   </si>
   <si>
-    <t>1 247</t>
+    <t>16,8</t>
   </si>
   <si>
-    <t>485,8</t>
+    <t>562,6</t>
   </si>
   <si>
-    <t>9,5</t>
+    <t>14,4</t>
   </si>
   <si>
-    <t>370,3</t>
+    <t>524,0</t>
   </si>
   <si>
-    <t>8,2</t>
+    <t>9,4</t>
   </si>
   <si>
-    <t>480,3</t>
+    <t>406,4</t>
   </si>
   <si>
-    <t>1 689</t>
+    <t> 8,3</t>
   </si>
   <si>
-    <t>20,0</t>
+    <t>537,0</t>
   </si>
   <si>
-    <t>1 671,6</t>
+    <t>21,2</t>
   </si>
   <si>
-    <t>19 AVRIL, 17H15</t>
+    <t>1957,6</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1177,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,20 +1492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1587,8 +1575,11 @@
       <c r="W1" s="1">
         <v>43940</v>
       </c>
+      <c r="X1" s="1">
+        <v>43941</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1658,8 +1649,11 @@
       <c r="W2" t="s">
         <v>102</v>
       </c>
+      <c r="X2">
+        <v>753</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1729,8 +1723,11 @@
       <c r="W3" t="s">
         <v>102</v>
       </c>
+      <c r="X3">
+        <v>154</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1800,8 +1797,11 @@
       <c r="W4" t="s">
         <v>102</v>
       </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1871,8 +1871,11 @@
       <c r="W5" t="s">
         <v>102</v>
       </c>
+      <c r="X5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1942,8 +1945,11 @@
       <c r="W6" t="s">
         <v>102</v>
       </c>
+      <c r="X6">
+        <v>907</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2013,8 +2019,11 @@
       <c r="W7" t="s">
         <v>102</v>
       </c>
+      <c r="X7">
+        <v>316</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2084,8 +2093,11 @@
       <c r="W8" t="s">
         <v>102</v>
       </c>
+      <c r="X8">
+        <v>103</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2155,8 +2167,11 @@
       <c r="W9" t="s">
         <v>102</v>
       </c>
+      <c r="X9">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2226,8 +2241,11 @@
       <c r="W10" t="s">
         <v>102</v>
       </c>
+      <c r="X10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2297,8 +2315,11 @@
       <c r="W11" t="s">
         <v>102</v>
       </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2368,8 +2389,11 @@
       <c r="W12" t="s">
         <v>102</v>
       </c>
+      <c r="X12">
+        <v>114</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2439,8 +2463,11 @@
       <c r="W13" t="s">
         <v>102</v>
       </c>
+      <c r="X13">
+        <v>399</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2510,8 +2537,11 @@
       <c r="W14" t="s">
         <v>102</v>
       </c>
+      <c r="X14">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2581,8 +2611,11 @@
       <c r="W15" t="s">
         <v>102</v>
       </c>
+      <c r="X15">
+        <v>542</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2652,8 +2685,11 @@
       <c r="W16" t="s">
         <v>102</v>
       </c>
+      <c r="X16">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2723,8 +2759,11 @@
       <c r="W17" t="s">
         <v>102</v>
       </c>
+      <c r="X17">
+        <v>722</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2794,8 +2833,11 @@
       <c r="W18" t="s">
         <v>102</v>
       </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2865,8 +2907,11 @@
       <c r="W19" t="s">
         <v>102</v>
       </c>
+      <c r="X19">
+        <v>67</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2936,8 +2981,11 @@
       <c r="W20" t="s">
         <v>102</v>
       </c>
+      <c r="X20">
+        <v>165</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3007,8 +3055,11 @@
       <c r="W21" t="s">
         <v>102</v>
       </c>
+      <c r="X21">
+        <v>117</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3078,8 +3129,11 @@
       <c r="W22" t="s">
         <v>102</v>
       </c>
+      <c r="X22">
+        <v>380</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3149,8 +3203,11 @@
       <c r="W23" t="s">
         <v>102</v>
       </c>
+      <c r="X23">
+        <v>46</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3220,8 +3277,11 @@
       <c r="W24" t="s">
         <v>102</v>
       </c>
+      <c r="X24">
+        <v>529</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3291,8 +3351,11 @@
       <c r="W25" t="s">
         <v>102</v>
       </c>
+      <c r="X25">
+        <v>467</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3362,8 +3425,11 @@
       <c r="W26" t="s">
         <v>102</v>
       </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3433,8 +3499,11 @@
       <c r="W27" t="s">
         <v>102</v>
       </c>
+      <c r="X27">
+        <v>302</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3504,8 +3573,11 @@
       <c r="W28" t="s">
         <v>102</v>
       </c>
+      <c r="X28">
+        <v>353</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3575,8 +3647,11 @@
       <c r="W29" t="s">
         <v>102</v>
       </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3646,8 +3721,11 @@
       <c r="W30" t="s">
         <v>102</v>
       </c>
+      <c r="X30">
+        <v>381</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3717,8 +3795,11 @@
       <c r="W31" t="s">
         <v>102</v>
       </c>
+      <c r="X31">
+        <v>417</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3788,8 +3869,11 @@
       <c r="W32" t="s">
         <v>102</v>
       </c>
+      <c r="X32">
+        <v>274</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3859,8 +3943,11 @@
       <c r="W33" t="s">
         <v>102</v>
       </c>
+      <c r="X33">
+        <v>602</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3930,8 +4017,11 @@
       <c r="W34" t="s">
         <v>102</v>
       </c>
+      <c r="X34">
+        <v>72</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4000,6 +4090,9 @@
       </c>
       <c r="W35" t="s">
         <v>102</v>
+      </c>
+      <c r="X35">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -4010,20 +4103,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W1" sqref="W1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4114,8 +4208,11 @@
       <c r="W1" s="1">
         <v>43940</v>
       </c>
+      <c r="X1" s="1">
+        <v>43941</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4202,11 +4299,15 @@
         <f>cases!V2/(population_2016!$B2/1000)</f>
         <v>4.9387314238891573</v>
       </c>
-      <c r="W2" t="s">
-        <v>102</v>
+      <c r="W2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" s="3">
+        <f>cases!X2/(population_2016!$B2/1000)</f>
+        <v>5.6091474542813513</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4293,11 +4394,15 @@
         <f>cases!V3/(population_2016!$B3/1000)</f>
         <v>3.2246004299467241</v>
       </c>
-      <c r="W3" t="s">
-        <v>102</v>
+      <c r="W3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="3">
+        <f>cases!X3/(population_2016!$B3/1000)</f>
+        <v>3.5984671464622862</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4384,11 +4489,15 @@
         <f>cases!V4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
-      <c r="W4" t="s">
-        <v>102</v>
+      <c r="W4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="3">
+        <f>cases!X4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4475,11 +4584,15 @@
         <f>cases!V5/(population_2016!$B5/1000)</f>
         <v>0.77623680397433237</v>
       </c>
-      <c r="W5" t="s">
-        <v>102</v>
+      <c r="W5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="3">
+        <f>cases!X5/(population_2016!$B5/1000)</f>
+        <v>0.82798592423928785</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4566,11 +4679,15 @@
         <f>cases!V6/(population_2016!$B6/1000)</f>
         <v>5.0384338217631512</v>
       </c>
-      <c r="W6" t="s">
-        <v>102</v>
+      <c r="W6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="3">
+        <f>cases!X6/(population_2016!$B6/1000)</f>
+        <v>5.4467931779966365</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4657,11 +4774,15 @@
         <f>cases!V7/(population_2016!$B7/1000)</f>
         <v>9.2455621301775146</v>
       </c>
-      <c r="W7" t="s">
-        <v>102</v>
+      <c r="W7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="3">
+        <f>cases!X7/(population_2016!$B7/1000)</f>
+        <v>9.7386587771203157</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4748,11 +4869,15 @@
         <f>cases!V8/(population_2016!$B8/1000)</f>
         <v>1.9632303319086279</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
+      <c r="W8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="3">
+        <f>cases!X8/(population_2016!$B8/1000)</f>
+        <v>2.1063825436102985</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4839,11 +4964,15 @@
         <f>cases!V9/(population_2016!$B9/1000)</f>
         <v>2.5816649104320337</v>
       </c>
-      <c r="W9" t="s">
-        <v>102</v>
+      <c r="W9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" s="3">
+        <f>cases!X9/(population_2016!$B9/1000)</f>
+        <v>2.897787144362487</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4930,11 +5059,15 @@
         <f>cases!V10/(population_2016!$B10/1000)</f>
         <v>4.1588986089201203</v>
       </c>
-      <c r="W10" t="s">
-        <v>102</v>
+      <c r="W10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="3">
+        <f>cases!X10/(population_2016!$B10/1000)</f>
+        <v>4.589129499498064</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5021,11 +5154,15 @@
         <f>cases!V11/(population_2016!$B11/1000)</f>
         <v>1.2406332191950771</v>
       </c>
-      <c r="W11" t="s">
-        <v>102</v>
+      <c r="W11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" s="3">
+        <f>cases!X11/(population_2016!$B11/1000)</f>
+        <v>1.2406332191950771</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5112,11 +5249,15 @@
         <f>cases!V12/(population_2016!$B12/1000)</f>
         <v>2.427566364719369</v>
       </c>
-      <c r="W12" t="s">
-        <v>102</v>
+      <c r="W12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" s="3">
+        <f>cases!X12/(population_2016!$B12/1000)</f>
+        <v>2.5624311627593341</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5203,11 +5344,15 @@
         <f>cases!V13/(population_2016!$B13/1000)</f>
         <v>4.9965518587433158</v>
       </c>
-      <c r="W13" t="s">
-        <v>102</v>
+      <c r="W13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X13" s="3">
+        <f>cases!X13/(population_2016!$B13/1000)</f>
+        <v>5.1917296657254761</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5294,11 +5439,15 @@
         <f>cases!V14/(population_2016!$B14/1000)</f>
         <v>1.6835931135610709</v>
       </c>
-      <c r="W14" t="s">
-        <v>102</v>
+      <c r="W14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X14" s="3">
+        <f>cases!X14/(population_2016!$B14/1000)</f>
+        <v>2.0637593004942159</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5385,11 +5534,15 @@
         <f>cases!V15/(population_2016!$B15/1000)</f>
         <v>3.5876021878492033</v>
       </c>
-      <c r="W15" t="s">
-        <v>102</v>
+      <c r="W15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X15" s="3">
+        <f>cases!X15/(population_2016!$B15/1000)</f>
+        <v>3.9845909545374347</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5476,11 +5629,15 @@
         <f>cases!V16/(population_2016!$B16/1000)</f>
         <v>2.0779220779220777</v>
       </c>
-      <c r="W16" t="s">
-        <v>102</v>
+      <c r="W16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X16" s="3">
+        <f>cases!X16/(population_2016!$B16/1000)</f>
+        <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5567,11 +5724,15 @@
         <f>cases!V17/(population_2016!$B17/1000)</f>
         <v>6.849965572096778</v>
       </c>
-      <c r="W17" t="s">
-        <v>102</v>
+      <c r="W17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X17" s="3">
+        <f>cases!X17/(population_2016!$B17/1000)</f>
+        <v>8.5713607331956219</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -5658,11 +5819,15 @@
         <f>cases!V18/(population_2016!$B18/1000)</f>
         <v>1.1881188118811881</v>
       </c>
-      <c r="W18" t="s">
-        <v>102</v>
+      <c r="W18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X18" s="3">
+        <f>cases!X18/(population_2016!$B18/1000)</f>
+        <v>1.3861386138613863</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5749,11 +5914,15 @@
         <f>cases!V19/(population_2016!$B19/1000)</f>
         <v>3.1071217202604062</v>
       </c>
-      <c r="W19" t="s">
-        <v>102</v>
+      <c r="W19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X19" s="3">
+        <f>cases!X19/(population_2016!$B19/1000)</f>
+        <v>3.3043992898007497</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5840,11 +6009,15 @@
         <f>cases!V20/(population_2016!$B20/1000)</f>
         <v>6.7629623444936122</v>
       </c>
-      <c r="W20" t="s">
-        <v>102</v>
+      <c r="W20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X20" s="3">
+        <f>cases!X20/(population_2016!$B20/1000)</f>
+        <v>6.8882023879101606</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5931,11 +6104,15 @@
         <f>cases!V21/(population_2016!$B21/1000)</f>
         <v>1.5873703046307921</v>
       </c>
-      <c r="W21" t="s">
-        <v>102</v>
+      <c r="W21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" s="3">
+        <f>cases!X21/(population_2016!$B21/1000)</f>
+        <v>1.6883847785618427</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6022,11 +6199,15 @@
         <f>cases!V22/(population_2016!$B22/1000)</f>
         <v>3.4903846153846154</v>
       </c>
-      <c r="W22" t="s">
-        <v>102</v>
+      <c r="W22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X22" s="3">
+        <f>cases!X22/(population_2016!$B22/1000)</f>
+        <v>3.6538461538461537</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -6113,11 +6294,15 @@
         <f>cases!V23/(population_2016!$B23/1000)</f>
         <v>1.2746972594008923</v>
       </c>
-      <c r="W23" t="s">
-        <v>102</v>
+      <c r="W23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X23" s="3">
+        <f>cases!X23/(population_2016!$B23/1000)</f>
+        <v>1.4659018483110262</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6204,11 +6389,15 @@
         <f>cases!V24/(population_2016!$B24/1000)</f>
         <v>4.1595233411090193</v>
       </c>
-      <c r="W24" t="s">
-        <v>102</v>
+      <c r="W24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X24" s="3">
+        <f>cases!X24/(population_2016!$B24/1000)</f>
+        <v>4.9558284852402501</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6295,11 +6484,15 @@
         <f>cases!V25/(population_2016!$B25/1000)</f>
         <v>2.9944838455476752</v>
       </c>
-      <c r="W25" t="s">
-        <v>102</v>
+      <c r="W25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X25" s="3">
+        <f>cases!X25/(population_2016!$B25/1000)</f>
+        <v>3.345511856150154</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -6386,11 +6579,15 @@
         <f>cases!V26/(population_2016!$B26/1000)</f>
         <v>1.008471157724889</v>
       </c>
-      <c r="W26" t="s">
-        <v>102</v>
+      <c r="W26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X26" s="3">
+        <f>cases!X26/(population_2016!$B26/1000)</f>
+        <v>1.4118596208148446</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6477,11 +6674,15 @@
         <f>cases!V27/(population_2016!$B27/1000)</f>
         <v>2.7421378556684339</v>
       </c>
-      <c r="W27" t="s">
-        <v>102</v>
+      <c r="W27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X27" s="3">
+        <f>cases!X27/(population_2016!$B27/1000)</f>
+        <v>3.055814141741207</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6568,11 +6769,15 @@
         <f>cases!V28/(population_2016!$B28/1000)</f>
         <v>3.7545495179107333</v>
       </c>
-      <c r="W28" t="s">
-        <v>102</v>
+      <c r="W28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X28" s="3">
+        <f>cases!X28/(population_2016!$B28/1000)</f>
+        <v>4.5080135368111867</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -6659,11 +6864,15 @@
         <f>cases!V29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
-      <c r="W29" t="s">
-        <v>102</v>
+      <c r="W29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X29" s="3">
+        <f>cases!X29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6750,11 +6959,15 @@
         <f>cases!V30/(population_2016!$B30/1000)</f>
         <v>4.4785095520210874</v>
       </c>
-      <c r="W30" t="s">
-        <v>102</v>
+      <c r="W30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X30" s="3">
+        <f>cases!X30/(population_2016!$B30/1000)</f>
+        <v>4.8751775409143843</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6841,11 +7054,15 @@
         <f>cases!V31/(population_2016!$B31/1000)</f>
         <v>5.055684756388219</v>
       </c>
-      <c r="W31" t="s">
-        <v>102</v>
+      <c r="W31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" s="3">
+        <f>cases!X31/(population_2016!$B31/1000)</f>
+        <v>6.0234872668968205</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6932,11 +7149,15 @@
         <f>cases!V32/(population_2016!$B32/1000)</f>
         <v>2.9269933834249184</v>
       </c>
-      <c r="W32" t="s">
-        <v>102</v>
+      <c r="W32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X32" s="3">
+        <f>cases!X32/(population_2016!$B32/1000)</f>
+        <v>3.0727823258943592</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7023,11 +7244,15 @@
         <f>cases!V33/(population_2016!$B33/1000)</f>
         <v>3.6773650879717485</v>
       </c>
-      <c r="W33" t="s">
-        <v>102</v>
+      <c r="W33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X33" s="3">
+        <f>cases!X33/(population_2016!$B33/1000)</f>
+        <v>4.184827567030232</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -7114,8 +7339,12 @@
         <f>cases!V34/(population_2016!$B34/1000)</f>
         <v>3.4462386766443478</v>
       </c>
-      <c r="W34" t="s">
-        <v>102</v>
+      <c r="W34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X34" s="3">
+        <f>cases!X34/(population_2016!$B34/1000)</f>
+        <v>3.5447026388341865</v>
       </c>
     </row>
   </sheetData>
@@ -7125,10 +7354,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR37"/>
+  <dimension ref="A1:AR38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11127,11 +11357,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -11294,11 +11524,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6166</v>
+        <v>6168</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -11461,7 +11691,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6479</v>
+        <v>6481</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -11628,7 +11858,7 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>7029</v>
+        <v>7031</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
@@ -11795,11 +12025,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7448</v>
+        <v>7445</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -11962,11 +12192,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7890</v>
+        <v>7893</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -12129,11 +12359,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8225</v>
+        <v>8232</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -12296,11 +12526,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8444</v>
+        <v>8715</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>219</v>
+        <v>483</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -12463,11 +12693,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>8457</v>
+        <v>8948</v>
       </c>
       <c r="C36" s="17">
         <f>mtl_newcases!B37</f>
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -12630,11 +12860,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>8964</v>
+        <v>9155</v>
       </c>
       <c r="C37" s="17">
         <f>mtl_newcases!B38</f>
-        <v>507</v>
+        <v>207</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -12758,6 +12988,173 @@
       </c>
       <c r="AR37" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A38" s="19">
+        <v>43941</v>
+      </c>
+      <c r="B38" s="17">
+        <f>mtl_newcases!C39</f>
+        <v>9348</v>
+      </c>
+      <c r="C38" s="17">
+        <f>mtl_newcases!B39</f>
+        <v>193</v>
+      </c>
+      <c r="D38">
+        <v>583</v>
+      </c>
+      <c r="E38" cm="1">
+        <f t="array" ref="E38:N38">TRANSPOSE(santemontreal!W$57:W$66)</f>
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>228</v>
+      </c>
+      <c r="H38">
+        <v>1119</v>
+      </c>
+      <c r="I38">
+        <v>1332</v>
+      </c>
+      <c r="J38">
+        <v>1566</v>
+      </c>
+      <c r="K38">
+        <v>1345</v>
+      </c>
+      <c r="L38">
+        <v>880</v>
+      </c>
+      <c r="M38">
+        <v>777</v>
+      </c>
+      <c r="N38">
+        <v>1978</v>
+      </c>
+      <c r="O38" s="18">
+        <f>E38/(age_distribution_2016!$B$2/100000)</f>
+        <v>51.940951339529803</v>
+      </c>
+      <c r="P38" s="18">
+        <f>F38/(age_distribution_2016!$B$3/100000)</f>
+        <v>42.151650141303833</v>
+      </c>
+      <c r="Q38" s="18">
+        <f>G38/(age_distribution_2016!$B$4/100000)</f>
+        <v>121.15737173526051</v>
+      </c>
+      <c r="R38" s="18">
+        <f>H38/(age_distribution_2016!$B$5/100000)</f>
+        <v>381.61821127120817</v>
+      </c>
+      <c r="S38" s="18">
+        <f>I38/(age_distribution_2016!$B$6/100000)</f>
+        <v>444.48152164845249</v>
+      </c>
+      <c r="T38" s="18">
+        <f>J38/(age_distribution_2016!$B$7/100000)</f>
+        <v>615.38461538461536</v>
+      </c>
+      <c r="U38" s="18">
+        <f>K38/(age_distribution_2016!$B$8/100000)</f>
+        <v>519.5557701593433</v>
+      </c>
+      <c r="V38" s="18">
+        <f>L38/(age_distribution_2016!$B$9/100000)</f>
+        <v>429.25782297992731</v>
+      </c>
+      <c r="W38" s="18">
+        <f>M38/(age_distribution_2016!$B$10/100000)</f>
+        <v>599.1671807526219</v>
+      </c>
+      <c r="X38" s="18">
+        <f>N38/(age_distribution_2016!$B$11/100000)</f>
+        <v>2001.9229796062953</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" ref="Y37:Y38" si="293">E38*100/SUM($E38:$N38)</f>
+        <v>0.61119450997212099</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" ref="Z37:Z38" si="294">F38*100/SUM($E38:$N38)</f>
+        <v>0.4717992708556723</v>
+      </c>
+      <c r="AA38" s="3">
+        <f t="shared" ref="AA37:AA38" si="295">G38*100/SUM($E38:$N38)</f>
+        <v>2.444778039888484</v>
+      </c>
+      <c r="AB38" s="3">
+        <f t="shared" ref="AB37:AB38" si="296">H38*100/SUM($E38:$N38)</f>
+        <v>11.998713274715849</v>
+      </c>
+      <c r="AC38" s="3">
+        <f t="shared" ref="AC37:AC38" si="297">I38*100/SUM($E38:$N38)</f>
+        <v>14.282650654085353</v>
+      </c>
+      <c r="AD38" s="3">
+        <f t="shared" ref="AD37:AD38" si="298">J38*100/SUM($E38:$N38)</f>
+        <v>16.791764958181428</v>
+      </c>
+      <c r="AE38" s="3">
+        <f t="shared" ref="AE37:AE38" si="299">K38*100/SUM($E38:$N38)</f>
+        <v>14.422045893201801</v>
+      </c>
+      <c r="AF38" s="3">
+        <f t="shared" ref="AF37:AF38" si="300">L38*100/SUM($E38:$N38)</f>
+        <v>9.4359854171134465</v>
+      </c>
+      <c r="AG38" s="3">
+        <f t="shared" ref="AG37:AG38" si="301">M38*100/SUM($E38:$N38)</f>
+        <v>8.3315462148831223</v>
+      </c>
+      <c r="AH38" s="3">
+        <f t="shared" ref="AH37:AH38" si="302">N38*100/SUM($E38:$N38)</f>
+        <v>21.209521767102725</v>
+      </c>
+      <c r="AI38" s="3">
+        <f t="shared" ref="AI37:AI38" si="303">O38*100/SUM($O38:$X38)</f>
+        <v>0.99759097120159768</v>
+      </c>
+      <c r="AJ38" s="3">
+        <f t="shared" ref="AJ37:AJ38" si="304">P38*100/SUM($O38:$X38)</f>
+        <v>0.80957519101524245</v>
+      </c>
+      <c r="AK38" s="3">
+        <f t="shared" ref="AK37:AK38" si="305">Q38*100/SUM($O38:$X38)</f>
+        <v>2.3269789447546469</v>
+      </c>
+      <c r="AL38" s="3">
+        <f t="shared" ref="AL37:AL38" si="306">R38*100/SUM($O38:$X38)</f>
+        <v>7.3294553178607096</v>
+      </c>
+      <c r="AM38" s="3">
+        <f t="shared" ref="AM37:AM38" si="307">S38*100/SUM($O38:$X38)</f>
+        <v>8.5368238630043098</v>
+      </c>
+      <c r="AN38" s="3">
+        <f t="shared" ref="AN37:AN38" si="308">T38*100/SUM($O38:$X38)</f>
+        <v>11.819231652325325</v>
+      </c>
+      <c r="AO38" s="3">
+        <f t="shared" ref="AO37:AO38" si="309">U38*100/SUM($O38:$X38)</f>
+        <v>9.978718756200303</v>
+      </c>
+      <c r="AP38" s="3">
+        <f t="shared" ref="AP37:AP38" si="310">V38*100/SUM($O38:$X38)</f>
+        <v>8.2444336786055032</v>
+      </c>
+      <c r="AQ38" s="3">
+        <f t="shared" ref="AQ37:AQ38" si="311">W38*100/SUM($O38:$X38)</f>
+        <v>11.507755525152117</v>
+      </c>
+      <c r="AR38" s="3">
+        <f t="shared" ref="AR37:AR38" si="312">X38*100/SUM($O38:$X38)</f>
+        <v>38.449436099880238</v>
       </c>
     </row>
   </sheetData>
@@ -12767,11 +13164,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13911,6 +14308,29 @@
         <v>3847</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B50">
+        <v>20126</v>
+      </c>
+      <c r="C50">
+        <v>1041</v>
+      </c>
+      <c r="D50">
+        <v>1224</v>
+      </c>
+      <c r="E50">
+        <v>201</v>
+      </c>
+      <c r="F50">
+        <v>151394</v>
+      </c>
+      <c r="G50">
+        <v>4048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13918,10 +14338,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14398,11 +14819,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -14412,7 +14833,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -14420,11 +14841,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6166</v>
+        <v>6168</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -14434,7 +14855,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -14446,7 +14867,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6479</v>
+        <v>6481</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -14456,7 +14877,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -14468,7 +14889,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>7029</v>
+        <v>7031</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -14478,7 +14899,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -14486,11 +14907,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7448</v>
+        <v>7445</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -14500,7 +14921,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -14508,11 +14929,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7890</v>
+        <v>7893</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -14522,7 +14943,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -14530,11 +14951,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8225</v>
+        <v>8232</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -14544,7 +14965,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -14552,11 +14973,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>219</v>
+        <v>483</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8444</v>
+        <v>8715</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -14566,7 +14987,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>392</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -14574,11 +14995,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>8457</v>
+        <v>8948</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -14588,7 +15009,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>0</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -14596,11 +15017,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>507</v>
+        <v>207</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38" si="8">C37+B38</f>
-        <v>8964</v>
+        <f t="shared" ref="C38:C39" si="8">C37+B38</f>
+        <v>9155</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -14610,6 +15031,28 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="19">
+        <v>43941</v>
+      </c>
+      <c r="B39">
+        <v>193</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>9348</v>
+      </c>
+      <c r="E39" s="19">
+        <v>43941</v>
+      </c>
+      <c r="F39">
+        <v>9348</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39" si="10">C39-F39</f>
         <v>0</v>
       </c>
     </row>
@@ -14623,9 +15066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V68" sqref="V68"/>
+      <selection pane="topRight" activeCell="W2" sqref="W2:W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14695,15 +15138,17 @@
         <v>276</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="W1" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -14965,7 +15410,9 @@
       <c r="V2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W2" s="7"/>
+      <c r="W2" s="7">
+        <v>753</v>
+      </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -15227,7 +15674,9 @@
       <c r="V3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="9"/>
+      <c r="W3" s="9">
+        <v>154</v>
+      </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
@@ -15489,7 +15938,9 @@
       <c r="V4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>5</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -15751,7 +16202,9 @@
       <c r="V5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W5" s="9"/>
+      <c r="W5" s="9">
+        <v>16</v>
+      </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
@@ -16013,7 +16466,9 @@
       <c r="V6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>907</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -16275,7 +16730,9 @@
       <c r="V7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W7" s="9"/>
+      <c r="W7" s="9">
+        <v>316</v>
+      </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -16537,7 +16994,9 @@
       <c r="V8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>103</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -16799,7 +17258,9 @@
       <c r="V9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W9" s="9"/>
+      <c r="W9" s="9">
+        <v>55</v>
+      </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
@@ -17061,7 +17522,9 @@
       <c r="V10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>32</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -17323,7 +17786,9 @@
       <c r="V11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W11" s="9"/>
+      <c r="W11" s="9">
+        <v>25</v>
+      </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -17585,7 +18050,9 @@
       <c r="V12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7">
+        <v>114</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -17847,7 +18314,9 @@
       <c r="V13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="9">
+        <v>399</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -18109,7 +18578,9 @@
       <c r="V14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7">
+        <v>38</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -18371,7 +18842,9 @@
       <c r="V15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="9">
+        <v>542</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -18633,7 +19106,9 @@
       <c r="V16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W16" s="7"/>
+      <c r="W16" s="7">
+        <v>11</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
@@ -18895,7 +19370,9 @@
       <c r="V17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="9">
+        <v>722</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -19157,7 +19634,9 @@
       <c r="V18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7">
+        <v>7</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -19419,7 +19898,9 @@
       <c r="V19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="9">
+        <v>67</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -19681,7 +20162,9 @@
       <c r="V20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W20" s="7"/>
+      <c r="W20" s="7">
+        <v>165</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -19943,7 +20426,9 @@
       <c r="V21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W21" s="9"/>
+      <c r="W21" s="9">
+        <v>117</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -20205,7 +20690,9 @@
       <c r="V22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W22" s="7"/>
+      <c r="W22" s="7">
+        <v>380</v>
+      </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
@@ -20467,7 +20954,9 @@
       <c r="V23" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W23" s="9"/>
+      <c r="W23" s="9">
+        <v>46</v>
+      </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -20729,7 +21218,9 @@
       <c r="V24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W24" s="7"/>
+      <c r="W24" s="7">
+        <v>529</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -20991,7 +21482,9 @@
       <c r="V25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="9"/>
+      <c r="W25" s="9">
+        <v>467</v>
+      </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -21253,7 +21746,9 @@
       <c r="V26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W26" s="7"/>
+      <c r="W26" s="7">
+        <v>7</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -21515,7 +22010,9 @@
       <c r="V27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W27" s="9"/>
+      <c r="W27" s="9">
+        <v>302</v>
+      </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -21777,7 +22274,9 @@
       <c r="V28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W28" s="7"/>
+      <c r="W28" s="7">
+        <v>353</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -22039,7 +22538,9 @@
       <c r="V29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W29" s="22"/>
+      <c r="W29" s="20">
+        <v>2</v>
+      </c>
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
@@ -22301,7 +22802,9 @@
       <c r="V30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W30" s="7"/>
+      <c r="W30" s="7">
+        <v>381</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -22563,7 +23066,9 @@
       <c r="V31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W31" s="9"/>
+      <c r="W31" s="9">
+        <v>417</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -22825,7 +23330,9 @@
       <c r="V32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W32" s="7"/>
+      <c r="W32" s="7">
+        <v>274</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -23087,7 +23594,9 @@
       <c r="V33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="9">
+        <v>602</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -23349,7 +23858,9 @@
       <c r="V34" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W34" s="7"/>
+      <c r="W34" s="7">
+        <v>72</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -23611,7 +24122,9 @@
       <c r="V35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W35" s="9"/>
+      <c r="W35" s="9">
+        <v>968</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -23873,7 +24386,9 @@
       <c r="V36" s="11">
         <v>8964</v>
       </c>
-      <c r="W36" s="11"/>
+      <c r="W36" s="11">
+        <v>9348</v>
+      </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
@@ -28062,15 +28577,17 @@
         <v>276</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="W56" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
@@ -28330,7 +28847,9 @@
       <c r="V57" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W57" s="7"/>
+      <c r="W57" s="7">
+        <v>57</v>
+      </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
@@ -28590,7 +29109,9 @@
       <c r="V58" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W58" s="9"/>
+      <c r="W58" s="9">
+        <v>44</v>
+      </c>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -28850,7 +29371,9 @@
       <c r="V59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W59" s="7"/>
+      <c r="W59" s="7">
+        <v>228</v>
+      </c>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
@@ -29110,7 +29633,9 @@
       <c r="V60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W60" s="9"/>
+      <c r="W60" s="9">
+        <v>1119</v>
+      </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -29370,7 +29895,9 @@
       <c r="V61" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W61" s="7"/>
+      <c r="W61" s="7">
+        <v>1332</v>
+      </c>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -29630,7 +30157,9 @@
       <c r="V62" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W62" s="9"/>
+      <c r="W62" s="9">
+        <v>1566</v>
+      </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -29890,7 +30419,9 @@
       <c r="V63" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W63" s="7"/>
+      <c r="W63" s="7">
+        <v>1345</v>
+      </c>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
@@ -30150,7 +30681,9 @@
       <c r="V64" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W64" s="9"/>
+      <c r="W64" s="9">
+        <v>880</v>
+      </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -30410,7 +30943,9 @@
       <c r="V65" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W65" s="7"/>
+      <c r="W65" s="7">
+        <v>777</v>
+      </c>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
@@ -30670,7 +31205,9 @@
       <c r="V66" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="W66" s="9"/>
+      <c r="W66" s="9">
+        <v>1978</v>
+      </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -30930,7 +31467,9 @@
       <c r="V67" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W67" s="7"/>
+      <c r="W67" s="7">
+        <v>22</v>
+      </c>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
@@ -31190,7 +31729,9 @@
       <c r="V68" s="15">
         <v>8964</v>
       </c>
-      <c r="W68" s="15"/>
+      <c r="W68" s="15">
+        <v>9348</v>
+      </c>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
@@ -31452,6 +31993,9 @@
       <c r="V70">
         <v>525</v>
       </c>
+      <c r="W70">
+        <v>583</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -31470,7 +32014,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+      <selection activeCell="B15" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31504,13 +32048,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -31518,13 +32062,13 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -31532,7 +32076,7 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
         <v>286</v>
@@ -31545,56 +32089,56 @@
       <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1119</v>
+      </c>
+      <c r="C7" t="s">
         <v>288</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>289</v>
-      </c>
-      <c r="D7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" t="s">
         <v>291</v>
-      </c>
-      <c r="C8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>1566</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
         <v>293</v>
-      </c>
-      <c r="C9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
-        <v>296</v>
+      <c r="B10">
+        <v>1345</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -31602,13 +32146,13 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>802</v>
+        <v>880</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -31616,27 +32160,27 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
-        <v>302</v>
+      <c r="B13">
+        <v>1978</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -31644,7 +32188,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>235</v>
@@ -31657,14 +32201,14 @@
       <c r="A15" t="s">
         <v>98</v>
       </c>
-      <c r="B15" t="s">
-        <v>284</v>
+      <c r="B15">
+        <v>9348</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E2CDE-1172-4CF1-BC64-34E8CA1266D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB9EE9-53EE-46AD-9AD7-9C714543B263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="7090" windowWidth="29840" windowHeight="14430" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18520" yWindow="5270" windowWidth="29840" windowHeight="14430" tabRatio="512" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="308">
   <si>
     <t>borough</t>
   </si>
@@ -922,64 +922,82 @@
     <t>20 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>452,5</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>51,4</t>
-  </si>
-  <si>
-    <t>40,8</t>
-  </si>
-  <si>
     <t>2,4</t>
-  </si>
-  <si>
-    <t>114,6</t>
-  </si>
-  <si>
-    <t>12,0</t>
-  </si>
-  <si>
-    <t>347,4</t>
   </si>
   <si>
     <t>14,3</t>
   </si>
   <si>
-    <t>405,4</t>
-  </si>
-  <si>
-    <t>16,8</t>
-  </si>
-  <si>
-    <t>562,6</t>
-  </si>
-  <si>
-    <t>14,4</t>
-  </si>
-  <si>
-    <t>524,0</t>
-  </si>
-  <si>
     <t>9,4</t>
   </si>
   <si>
-    <t>406,4</t>
+    <t>9 856</t>
   </si>
   <si>
-    <t> 8,3</t>
+    <t>477,1</t>
   </si>
   <si>
-    <t>537,0</t>
+    <t>21 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>21,2</t>
+    <t> 0,6</t>
   </si>
   <si>
-    <t>1957,6</t>
+    <t>45,4</t>
+  </si>
+  <si>
+    <t>118,7</t>
+  </si>
+  <si>
+    <t>1 155</t>
+  </si>
+  <si>
+    <t>11,7</t>
+  </si>
+  <si>
+    <t>358,6</t>
+  </si>
+  <si>
+    <t>1 378</t>
+  </si>
+  <si>
+    <t>14,0</t>
+  </si>
+  <si>
+    <t>419,4</t>
+  </si>
+  <si>
+    <t>1 631</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>586,0</t>
+  </si>
+  <si>
+    <t>1 411</t>
+  </si>
+  <si>
+    <t>549,7</t>
+  </si>
+  <si>
+    <t>429,0</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>575,0</t>
+  </si>
+  <si>
+    <t>2 152</t>
+  </si>
+  <si>
+    <t>21,9</t>
+  </si>
+  <si>
+    <t>2129,8</t>
   </si>
 </sst>
 </file>
@@ -1492,20 +1510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X35"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1578,8 +1596,11 @@
       <c r="X1" s="1">
         <v>43941</v>
       </c>
+      <c r="Y1" s="1">
+        <v>43942</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1652,8 +1673,11 @@
       <c r="X2">
         <v>753</v>
       </c>
+      <c r="Y2">
+        <v>802</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1726,8 +1750,11 @@
       <c r="X3">
         <v>154</v>
       </c>
+      <c r="Y3">
+        <v>173</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1800,8 +1827,11 @@
       <c r="X4">
         <v>5</v>
       </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="X5">
         <v>16</v>
       </c>
+      <c r="Y5">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1948,8 +1981,11 @@
       <c r="X6">
         <v>907</v>
       </c>
+      <c r="Y6">
+        <v>955</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2022,8 +2058,11 @@
       <c r="X7">
         <v>316</v>
       </c>
+      <c r="Y7">
+        <v>321</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2096,8 +2135,11 @@
       <c r="X8">
         <v>103</v>
       </c>
+      <c r="Y8">
+        <v>108</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2170,8 +2212,11 @@
       <c r="X9">
         <v>55</v>
       </c>
+      <c r="Y9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2244,8 +2289,11 @@
       <c r="X10">
         <v>32</v>
       </c>
+      <c r="Y10">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2318,8 +2366,11 @@
       <c r="X11">
         <v>25</v>
       </c>
+      <c r="Y11">
+        <v>26</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2392,8 +2443,11 @@
       <c r="X12">
         <v>114</v>
       </c>
+      <c r="Y12">
+        <v>120</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2466,8 +2520,11 @@
       <c r="X13">
         <v>399</v>
       </c>
+      <c r="Y13">
+        <v>406</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2540,8 +2597,11 @@
       <c r="X14">
         <v>38</v>
       </c>
+      <c r="Y14">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2614,8 +2674,11 @@
       <c r="X15">
         <v>542</v>
       </c>
+      <c r="Y15">
+        <v>569</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2688,8 +2751,11 @@
       <c r="X16">
         <v>11</v>
       </c>
+      <c r="Y16">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2762,8 +2828,11 @@
       <c r="X17">
         <v>722</v>
       </c>
+      <c r="Y17">
+        <v>785</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2836,8 +2905,11 @@
       <c r="X18">
         <v>7</v>
       </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2910,8 +2982,11 @@
       <c r="X19">
         <v>67</v>
       </c>
+      <c r="Y19">
+        <v>76</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2984,8 +3059,11 @@
       <c r="X20">
         <v>165</v>
       </c>
+      <c r="Y20">
+        <v>167</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3058,8 +3136,11 @@
       <c r="X21">
         <v>117</v>
       </c>
+      <c r="Y21">
+        <v>124</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3132,8 +3213,11 @@
       <c r="X22">
         <v>380</v>
       </c>
+      <c r="Y22">
+        <v>386</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3206,8 +3290,11 @@
       <c r="X23">
         <v>46</v>
       </c>
+      <c r="Y23">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3280,8 +3367,11 @@
       <c r="X24">
         <v>529</v>
       </c>
+      <c r="Y24">
+        <v>577</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="X25">
         <v>467</v>
       </c>
+      <c r="Y25">
+        <v>489</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3428,8 +3521,11 @@
       <c r="X26">
         <v>7</v>
       </c>
+      <c r="Y26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3502,8 +3598,11 @@
       <c r="X27">
         <v>302</v>
       </c>
+      <c r="Y27">
+        <v>319</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3576,8 +3675,11 @@
       <c r="X28">
         <v>353</v>
       </c>
+      <c r="Y28">
+        <v>372</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3650,8 +3752,11 @@
       <c r="X29">
         <v>2</v>
       </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3724,8 +3829,11 @@
       <c r="X30">
         <v>381</v>
       </c>
+      <c r="Y30">
+        <v>406</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3798,8 +3906,11 @@
       <c r="X31">
         <v>417</v>
       </c>
+      <c r="Y31">
+        <v>462</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3872,8 +3983,11 @@
       <c r="X32">
         <v>274</v>
       </c>
+      <c r="Y32">
+        <v>287</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3946,8 +4060,11 @@
       <c r="X33">
         <v>602</v>
       </c>
+      <c r="Y33">
+        <v>624</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4020,8 +4137,11 @@
       <c r="X34">
         <v>72</v>
       </c>
+      <c r="Y34">
+        <v>74</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4093,6 +4213,9 @@
       </c>
       <c r="X35">
         <v>968</v>
+      </c>
+      <c r="Y35">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -4103,21 +4226,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:X1"/>
+      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4211,8 +4334,11 @@
       <c r="X1" s="1">
         <v>43941</v>
       </c>
+      <c r="Y1" s="1">
+        <v>43942</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4306,8 +4432,12 @@
         <f>cases!X2/(population_2016!$B2/1000)</f>
         <v>5.6091474542813513</v>
       </c>
+      <c r="Y2" s="3">
+        <f>cases!Y2/(population_2016!$B2/1000)</f>
+        <v>5.9741517374948785</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4401,8 +4531,12 @@
         <f>cases!X3/(population_2016!$B3/1000)</f>
         <v>3.5984671464622862</v>
       </c>
+      <c r="Y3" s="3">
+        <f>cases!Y3/(population_2016!$B3/1000)</f>
+        <v>4.0424338723245166</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4496,8 +4630,12 @@
         <f>cases!X4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
+      <c r="Y4" s="3">
+        <f>cases!Y4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4591,8 +4729,12 @@
         <f>cases!X5/(population_2016!$B5/1000)</f>
         <v>0.82798592423928785</v>
       </c>
+      <c r="Y5" s="3">
+        <f>cases!Y5/(population_2016!$B5/1000)</f>
+        <v>0.87973504450424334</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4686,8 +4828,12 @@
         <f>cases!X6/(population_2016!$B6/1000)</f>
         <v>5.4467931779966365</v>
       </c>
+      <c r="Y6" s="3">
+        <f>cases!Y6/(population_2016!$B6/1000)</f>
+        <v>5.7350468412202735</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4781,8 +4927,12 @@
         <f>cases!X7/(population_2016!$B7/1000)</f>
         <v>9.7386587771203157</v>
       </c>
+      <c r="Y7" s="3">
+        <f>cases!Y7/(population_2016!$B7/1000)</f>
+        <v>9.8927514792899416</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4876,8 +5026,12 @@
         <f>cases!X8/(population_2016!$B8/1000)</f>
         <v>2.1063825436102985</v>
       </c>
+      <c r="Y8" s="3">
+        <f>cases!Y8/(population_2016!$B8/1000)</f>
+        <v>2.2086341233972067</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4971,8 +5125,12 @@
         <f>cases!X9/(population_2016!$B9/1000)</f>
         <v>2.897787144362487</v>
       </c>
+      <c r="Y9" s="3">
+        <f>cases!Y9/(population_2016!$B9/1000)</f>
+        <v>3.2139093782929398</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5066,8 +5224,12 @@
         <f>cases!X10/(population_2016!$B10/1000)</f>
         <v>4.589129499498064</v>
       </c>
+      <c r="Y10" s="3">
+        <f>cases!Y10/(population_2016!$B10/1000)</f>
+        <v>4.7325397963573783</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5161,8 +5323,12 @@
         <f>cases!X11/(population_2016!$B11/1000)</f>
         <v>1.2406332191950771</v>
       </c>
+      <c r="Y11" s="3">
+        <f>cases!Y11/(population_2016!$B11/1000)</f>
+        <v>1.2902585479628803</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5256,8 +5422,12 @@
         <f>cases!X12/(population_2016!$B12/1000)</f>
         <v>2.5624311627593341</v>
       </c>
+      <c r="Y12" s="3">
+        <f>cases!Y12/(population_2016!$B12/1000)</f>
+        <v>2.6972959607992988</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5351,8 +5521,12 @@
         <f>cases!X13/(population_2016!$B13/1000)</f>
         <v>5.1917296657254761</v>
       </c>
+      <c r="Y13" s="3">
+        <f>cases!Y13/(population_2016!$B13/1000)</f>
+        <v>5.2828126423171513</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5446,8 +5620,12 @@
         <f>cases!X14/(population_2016!$B14/1000)</f>
         <v>2.0637593004942159</v>
       </c>
+      <c r="Y14" s="3">
+        <f>cases!Y14/(population_2016!$B14/1000)</f>
+        <v>2.3896160321511974</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5541,8 +5719,12 @@
         <f>cases!X15/(population_2016!$B15/1000)</f>
         <v>3.9845909545374347</v>
       </c>
+      <c r="Y15" s="3">
+        <f>cases!Y15/(population_2016!$B15/1000)</f>
+        <v>4.1830853378815505</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5636,8 +5818,12 @@
         <f>cases!X16/(population_2016!$B16/1000)</f>
         <v>2.8571428571428572</v>
       </c>
+      <c r="Y16" s="3">
+        <f>cases!Y16/(population_2016!$B16/1000)</f>
+        <v>3.116883116883117</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5731,8 +5917,12 @@
         <f>cases!X17/(population_2016!$B17/1000)</f>
         <v>8.5713607331956219</v>
       </c>
+      <c r="Y17" s="3">
+        <f>cases!Y17/(population_2016!$B17/1000)</f>
+        <v>9.3192772514661542</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -5826,8 +6016,12 @@
         <f>cases!X18/(population_2016!$B18/1000)</f>
         <v>1.3861386138613863</v>
       </c>
+      <c r="Y18" s="3">
+        <f>cases!Y18/(population_2016!$B18/1000)</f>
+        <v>1.3861386138613863</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5921,8 +6115,12 @@
         <f>cases!X19/(population_2016!$B19/1000)</f>
         <v>3.3043992898007497</v>
       </c>
+      <c r="Y19" s="3">
+        <f>cases!Y19/(population_2016!$B19/1000)</f>
+        <v>3.7482738212665221</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6016,8 +6214,12 @@
         <f>cases!X20/(population_2016!$B20/1000)</f>
         <v>6.8882023879101606</v>
       </c>
+      <c r="Y20" s="3">
+        <f>cases!Y20/(population_2016!$B20/1000)</f>
+        <v>6.9716957501878598</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6111,8 +6313,12 @@
         <f>cases!X21/(population_2016!$B21/1000)</f>
         <v>1.6883847785618427</v>
       </c>
+      <c r="Y21" s="3">
+        <f>cases!Y21/(population_2016!$B21/1000)</f>
+        <v>1.789399252492893</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6206,8 +6412,12 @@
         <f>cases!X22/(population_2016!$B22/1000)</f>
         <v>3.6538461538461537</v>
       </c>
+      <c r="Y22" s="3">
+        <f>cases!Y22/(population_2016!$B22/1000)</f>
+        <v>3.7115384615384617</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -6301,8 +6511,12 @@
         <f>cases!X23/(population_2016!$B23/1000)</f>
         <v>1.4659018483110262</v>
       </c>
+      <c r="Y23" s="3">
+        <f>cases!Y23/(population_2016!$B23/1000)</f>
+        <v>1.5933715742511154</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6396,8 +6610,12 @@
         <f>cases!X24/(population_2016!$B24/1000)</f>
         <v>4.9558284852402501</v>
       </c>
+      <c r="Y24" s="3">
+        <f>cases!Y24/(population_2016!$B24/1000)</f>
+        <v>5.4055066842790627</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6491,8 +6709,12 @@
         <f>cases!X25/(population_2016!$B25/1000)</f>
         <v>3.345511856150154</v>
       </c>
+      <c r="Y25" s="3">
+        <f>cases!Y25/(population_2016!$B25/1000)</f>
+        <v>3.5031162690737156</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -6586,8 +6808,12 @@
         <f>cases!X26/(population_2016!$B26/1000)</f>
         <v>1.4118596208148446</v>
       </c>
+      <c r="Y26" s="3">
+        <f>cases!Y26/(population_2016!$B26/1000)</f>
+        <v>1.4118596208148446</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6681,8 +6907,12 @@
         <f>cases!X27/(population_2016!$B27/1000)</f>
         <v>3.055814141741207</v>
       </c>
+      <c r="Y27" s="3">
+        <f>cases!Y27/(population_2016!$B27/1000)</f>
+        <v>3.2278301695875662</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6776,8 +7006,12 @@
         <f>cases!X28/(population_2016!$B28/1000)</f>
         <v>4.5080135368111867</v>
       </c>
+      <c r="Y28" s="3">
+        <f>cases!Y28/(population_2016!$B28/1000)</f>
+        <v>4.750654492050316</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -6871,8 +7105,12 @@
         <f>cases!X29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="Y29" s="3">
+        <f>cases!Y29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6966,8 +7204,12 @@
         <f>cases!X30/(population_2016!$B30/1000)</f>
         <v>4.8751775409143843</v>
       </c>
+      <c r="Y30" s="3">
+        <f>cases!Y30/(population_2016!$B30/1000)</f>
+        <v>5.1950710803444613</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7061,8 +7303,12 @@
         <f>cases!X31/(population_2016!$B31/1000)</f>
         <v>6.0234872668968205</v>
       </c>
+      <c r="Y31" s="3">
+        <f>cases!Y31/(population_2016!$B31/1000)</f>
+        <v>6.6735038784324487</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7156,8 +7402,12 @@
         <f>cases!X32/(population_2016!$B32/1000)</f>
         <v>3.0727823258943592</v>
       </c>
+      <c r="Y32" s="3">
+        <f>cases!Y32/(population_2016!$B32/1000)</f>
+        <v>3.2185712683637995</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7251,8 +7501,12 @@
         <f>cases!X33/(population_2016!$B33/1000)</f>
         <v>4.184827567030232</v>
       </c>
+      <c r="Y33" s="3">
+        <f>cases!Y33/(population_2016!$B33/1000)</f>
+        <v>4.3377614648286791</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -7345,6 +7599,10 @@
       <c r="X34" s="3">
         <f>cases!X34/(population_2016!$B34/1000)</f>
         <v>3.5447026388341865</v>
+      </c>
+      <c r="Y34" s="3">
+        <f>cases!Y34/(population_2016!$B34/1000)</f>
+        <v>3.6431666010240251</v>
       </c>
     </row>
   </sheetData>
@@ -7354,11 +7612,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:AR39"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ30" sqref="AQ30"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8191,11 +8449,11 @@
       </c>
       <c r="B7" s="17">
         <f>mtl_newcases!C8</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="17">
         <f>mtl_newcases!B8</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>102</v>
@@ -8327,7 +8585,7 @@
       </c>
       <c r="B8" s="17">
         <f>mtl_newcases!C9</f>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C8" s="17">
         <f>mtl_newcases!B9</f>
@@ -8463,7 +8721,7 @@
       </c>
       <c r="B9" s="17">
         <f>mtl_newcases!C10</f>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C9" s="17">
         <f>mtl_newcases!B10</f>
@@ -8599,7 +8857,7 @@
       </c>
       <c r="B10" s="17">
         <f>mtl_newcases!C11</f>
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C10" s="17">
         <f>mtl_newcases!B11</f>
@@ -8735,7 +8993,7 @@
       </c>
       <c r="B11" s="17">
         <f>mtl_newcases!C12</f>
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C11" s="17">
         <f>mtl_newcases!B12</f>
@@ -8871,7 +9129,7 @@
       </c>
       <c r="B12" s="17">
         <f>mtl_newcases!C13</f>
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C12" s="17">
         <f>mtl_newcases!B13</f>
@@ -9007,7 +9265,7 @@
       </c>
       <c r="B13" s="17">
         <f>mtl_newcases!C14</f>
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C13" s="17">
         <f>mtl_newcases!B14</f>
@@ -9143,7 +9401,7 @@
       </c>
       <c r="B14" s="17">
         <f>mtl_newcases!C15</f>
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C14" s="17">
         <f>mtl_newcases!B15</f>
@@ -9279,11 +9537,11 @@
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>102</v>
@@ -9415,11 +9673,11 @@
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>102</v>
@@ -9551,11 +9809,11 @@
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>102</v>
@@ -9687,11 +9945,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2519</v>
+        <v>2528</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -9854,7 +10112,7 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2828</v>
+        <v>2837</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
@@ -10021,11 +10279,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3238</v>
+        <v>3248</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>102</v>
@@ -10188,7 +10446,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3598</v>
+        <v>3608</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
@@ -10355,7 +10613,7 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3917</v>
+        <v>3927</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
@@ -10522,7 +10780,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4179</v>
+        <v>4189</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -10689,7 +10947,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4612</v>
+        <v>4622</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
@@ -10856,11 +11114,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5038</v>
+        <v>5049</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -11023,11 +11281,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5385</v>
+        <v>5398</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -11190,11 +11448,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5703</v>
+        <v>5717</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -11357,11 +11615,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5961</v>
+        <v>5977</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -11524,7 +11782,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6168</v>
+        <v>6184</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
@@ -11691,11 +11949,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6481</v>
+        <v>6500</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -11858,11 +12116,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>7031</v>
+        <v>7049</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -12025,11 +12283,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7445</v>
+        <v>7480</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -12192,11 +12450,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7893</v>
+        <v>7953</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -12359,11 +12617,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8232</v>
+        <v>8302</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -12526,11 +12784,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8715</v>
+        <v>8823</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -12693,11 +12951,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>8948</v>
+        <v>9066</v>
       </c>
       <c r="C36" s="17">
         <f>mtl_newcases!B37</f>
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -12860,11 +13118,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9155</v>
+        <v>9401</v>
       </c>
       <c r="C37" s="17">
         <f>mtl_newcases!B38</f>
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -12996,11 +13254,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>9348</v>
+        <v>9717</v>
       </c>
       <c r="C38" s="17">
         <f>mtl_newcases!B39</f>
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -13077,84 +13335,251 @@
         <v>2001.9229796062953</v>
       </c>
       <c r="Y38" s="3">
-        <f t="shared" ref="Y37:Y38" si="293">E38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="Y38" si="293">E38*100/SUM($E38:$N38)</f>
         <v>0.61119450997212099</v>
       </c>
       <c r="Z38" s="3">
-        <f t="shared" ref="Z37:Z38" si="294">F38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="Z38" si="294">F38*100/SUM($E38:$N38)</f>
         <v>0.4717992708556723</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" ref="AA37:AA38" si="295">G38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AA38" si="295">G38*100/SUM($E38:$N38)</f>
         <v>2.444778039888484</v>
       </c>
       <c r="AB38" s="3">
-        <f t="shared" ref="AB37:AB38" si="296">H38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AB38" si="296">H38*100/SUM($E38:$N38)</f>
         <v>11.998713274715849</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" ref="AC37:AC38" si="297">I38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AC38" si="297">I38*100/SUM($E38:$N38)</f>
         <v>14.282650654085353</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" ref="AD37:AD38" si="298">J38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AD38" si="298">J38*100/SUM($E38:$N38)</f>
         <v>16.791764958181428</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" ref="AE37:AE38" si="299">K38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AE38" si="299">K38*100/SUM($E38:$N38)</f>
         <v>14.422045893201801</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" ref="AF37:AF38" si="300">L38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AF38" si="300">L38*100/SUM($E38:$N38)</f>
         <v>9.4359854171134465</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" ref="AG37:AG38" si="301">M38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AG38" si="301">M38*100/SUM($E38:$N38)</f>
         <v>8.3315462148831223</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" ref="AH37:AH38" si="302">N38*100/SUM($E38:$N38)</f>
+        <f t="shared" ref="AH38" si="302">N38*100/SUM($E38:$N38)</f>
         <v>21.209521767102725</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" ref="AI37:AI38" si="303">O38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AI38" si="303">O38*100/SUM($O38:$X38)</f>
         <v>0.99759097120159768</v>
       </c>
       <c r="AJ38" s="3">
-        <f t="shared" ref="AJ37:AJ38" si="304">P38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AJ38" si="304">P38*100/SUM($O38:$X38)</f>
         <v>0.80957519101524245</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" ref="AK37:AK38" si="305">Q38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AK38" si="305">Q38*100/SUM($O38:$X38)</f>
         <v>2.3269789447546469</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" ref="AL37:AL38" si="306">R38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AL38" si="306">R38*100/SUM($O38:$X38)</f>
         <v>7.3294553178607096</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" ref="AM37:AM38" si="307">S38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AM38" si="307">S38*100/SUM($O38:$X38)</f>
         <v>8.5368238630043098</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" ref="AN37:AN38" si="308">T38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AN38" si="308">T38*100/SUM($O38:$X38)</f>
         <v>11.819231652325325</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" ref="AO37:AO38" si="309">U38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AO38" si="309">U38*100/SUM($O38:$X38)</f>
         <v>9.978718756200303</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" ref="AP37:AP38" si="310">V38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AP38" si="310">V38*100/SUM($O38:$X38)</f>
         <v>8.2444336786055032</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" ref="AQ37:AQ38" si="311">W38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AQ38" si="311">W38*100/SUM($O38:$X38)</f>
         <v>11.507755525152117</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" ref="AR37:AR38" si="312">X38*100/SUM($O38:$X38)</f>
+        <f t="shared" ref="AR38" si="312">X38*100/SUM($O38:$X38)</f>
         <v>38.449436099880238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A39" s="19">
+        <v>43942</v>
+      </c>
+      <c r="B39" s="17">
+        <f>mtl_newcases!C40</f>
+        <v>9856</v>
+      </c>
+      <c r="C39" s="17">
+        <f>mtl_newcases!B40</f>
+        <v>139</v>
+      </c>
+      <c r="D39">
+        <v>647</v>
+      </c>
+      <c r="E39" cm="1">
+        <f t="array" ref="E39:N39">TRANSPOSE(santemontreal!X$57:X$66)</f>
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>49</v>
+      </c>
+      <c r="G39">
+        <v>236</v>
+      </c>
+      <c r="H39">
+        <v>1155</v>
+      </c>
+      <c r="I39">
+        <v>1378</v>
+      </c>
+      <c r="J39">
+        <v>1631</v>
+      </c>
+      <c r="K39">
+        <v>1411</v>
+      </c>
+      <c r="L39">
+        <v>929</v>
+      </c>
+      <c r="M39">
+        <v>832</v>
+      </c>
+      <c r="N39">
+        <v>2152</v>
+      </c>
+      <c r="O39" s="18">
+        <f>E39/(age_distribution_2016!$B$2/100000)</f>
+        <v>55.585930380900315</v>
+      </c>
+      <c r="P39" s="18">
+        <f>F39/(age_distribution_2016!$B$3/100000)</f>
+        <v>46.941610384633812</v>
+      </c>
+      <c r="Q39" s="18">
+        <f>G39/(age_distribution_2016!$B$4/100000)</f>
+        <v>125.40850758562053</v>
+      </c>
+      <c r="R39" s="18">
+        <f>H39/(age_distribution_2016!$B$5/100000)</f>
+        <v>393.89547275982608</v>
+      </c>
+      <c r="S39" s="18">
+        <f>I39/(age_distribution_2016!$B$6/100000)</f>
+        <v>459.83148410778341</v>
+      </c>
+      <c r="T39" s="18">
+        <f>J39/(age_distribution_2016!$B$7/100000)</f>
+        <v>640.92739954808917</v>
+      </c>
+      <c r="U39" s="18">
+        <f>K39/(age_distribution_2016!$B$8/100000)</f>
+        <v>545.0507001448575</v>
+      </c>
+      <c r="V39" s="18">
+        <f>L39/(age_distribution_2016!$B$9/100000)</f>
+        <v>453.15967903221872</v>
+      </c>
+      <c r="W39" s="18">
+        <f>M39/(age_distribution_2016!$B$10/100000)</f>
+        <v>641.57927205428746</v>
+      </c>
+      <c r="X39" s="18">
+        <f>N39/(age_distribution_2016!$B$11/100000)</f>
+        <v>2178.0274277617532</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" ref="Y39" si="313">E39*100/SUM($E39:$N39)</f>
+        <v>0.62029692902176126</v>
+      </c>
+      <c r="Z39" s="3">
+        <f t="shared" ref="Z39" si="314">F39*100/SUM($E39:$N39)</f>
+        <v>0.49827130364043115</v>
+      </c>
+      <c r="AA39" s="3">
+        <f t="shared" ref="AA39" si="315">G39*100/SUM($E39:$N39)</f>
+        <v>2.3998372991661583</v>
+      </c>
+      <c r="AB39" s="3">
+        <f t="shared" ref="AB39" si="316">H39*100/SUM($E39:$N39)</f>
+        <v>11.74496644295302</v>
+      </c>
+      <c r="AC39" s="3">
+        <f t="shared" ref="AC39" si="317">I39*100/SUM($E39:$N39)</f>
+        <v>14.012609314622738</v>
+      </c>
+      <c r="AD39" s="3">
+        <f t="shared" ref="AD39" si="318">J39*100/SUM($E39:$N39)</f>
+        <v>16.58531624974578</v>
+      </c>
+      <c r="AE39" s="3">
+        <f t="shared" ref="AE39" si="319">K39*100/SUM($E39:$N39)</f>
+        <v>14.348179784421395</v>
+      </c>
+      <c r="AF39" s="3">
+        <f t="shared" ref="AF39" si="320">L39*100/SUM($E39:$N39)</f>
+        <v>9.4468171649379702</v>
+      </c>
+      <c r="AG39" s="3">
+        <f t="shared" ref="AG39" si="321">M39*100/SUM($E39:$N39)</f>
+        <v>8.4604433597722188</v>
+      </c>
+      <c r="AH39" s="3">
+        <f t="shared" ref="AH39" si="322">N39*100/SUM($E39:$N39)</f>
+        <v>21.883262151718526</v>
+      </c>
+      <c r="AI39" s="3">
+        <f t="shared" ref="AI39" si="323">O39*100/SUM($O39:$X39)</f>
+        <v>1.0032823496075638</v>
+      </c>
+      <c r="AJ39" s="3">
+        <f t="shared" ref="AJ39" si="324">P39*100/SUM($O39:$X39)</f>
+        <v>0.84725916861221784</v>
+      </c>
+      <c r="AK39" s="3">
+        <f t="shared" ref="AK39" si="325">Q39*100/SUM($O39:$X39)</f>
+        <v>2.2635249835543267</v>
+      </c>
+      <c r="AL39" s="3">
+        <f t="shared" ref="AL39" si="326">R39*100/SUM($O39:$X39)</f>
+        <v>7.1095036586101594</v>
+      </c>
+      <c r="AM39" s="3">
+        <f t="shared" ref="AM39" si="327">S39*100/SUM($O39:$X39)</f>
+        <v>8.2995968339087067</v>
+      </c>
+      <c r="AN39" s="3">
+        <f t="shared" ref="AN39" si="328">T39*100/SUM($O39:$X39)</f>
+        <v>11.56823575570523</v>
+      </c>
+      <c r="AO39" s="3">
+        <f t="shared" ref="AO39" si="329">U39*100/SUM($O39:$X39)</f>
+        <v>9.8377366961276582</v>
+      </c>
+      <c r="AP39" s="3">
+        <f t="shared" ref="AP39" si="330">V39*100/SUM($O39:$X39)</f>
+        <v>8.179175996720808</v>
+      </c>
+      <c r="AQ39" s="3">
+        <f t="shared" ref="AQ39" si="331">W39*100/SUM($O39:$X39)</f>
+        <v>11.580001542032482</v>
+      </c>
+      <c r="AR39" s="3">
+        <f t="shared" ref="AR39" si="332">X39*100/SUM($O39:$X39)</f>
+        <v>39.31168301512087</v>
       </c>
     </row>
   </sheetData>
@@ -13164,11 +13589,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14331,6 +14756,29 @@
         <v>4048</v>
       </c>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B51">
+        <v>20965</v>
+      </c>
+      <c r="C51">
+        <v>1134</v>
+      </c>
+      <c r="D51">
+        <v>1278</v>
+      </c>
+      <c r="E51">
+        <v>199</v>
+      </c>
+      <c r="F51">
+        <v>155083</v>
+      </c>
+      <c r="G51">
+        <v>4291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14338,11 +14786,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14447,11 +14895,11 @@
         <v>43910</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -14463,7 +14911,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -14475,7 +14923,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -14487,7 +14935,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -14499,7 +14947,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -14511,7 +14959,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -14523,7 +14971,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -14535,7 +14983,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -14543,11 +14991,11 @@
         <v>43918</v>
       </c>
       <c r="B16">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -14555,11 +15003,11 @@
         <v>43919</v>
       </c>
       <c r="B17">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -14569,7 +15017,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -14577,11 +15025,11 @@
         <v>43920</v>
       </c>
       <c r="B18">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -14591,7 +15039,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -14599,11 +15047,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2519</v>
+        <v>2528</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -14613,7 +15061,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -14625,7 +15073,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2828</v>
+        <v>2837</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -14635,7 +15083,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -14643,11 +15091,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>3248</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -14657,7 +15105,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -14669,7 +15117,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3598</v>
+        <v>3608</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -14679,7 +15127,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -14691,7 +15139,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3917</v>
+        <v>3927</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -14701,7 +15149,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -14713,7 +15161,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4179</v>
+        <v>4189</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -14723,7 +15171,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -14735,7 +15183,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4612</v>
+        <v>4622</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -14745,7 +15193,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -14753,11 +15201,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5038</v>
+        <v>5049</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -14767,7 +15215,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -14775,11 +15223,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5385</v>
+        <v>5398</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -14789,7 +15237,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -14797,11 +15245,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5703</v>
+        <v>5717</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -14811,7 +15259,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -14819,11 +15267,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5961</v>
+        <v>5977</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -14833,7 +15281,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -14845,7 +15293,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6168</v>
+        <v>6184</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -14855,7 +15303,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -14863,11 +15311,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6481</v>
+        <v>6500</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -14877,7 +15325,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -14885,11 +15333,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>7031</v>
+        <v>7049</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -14899,7 +15347,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -14907,11 +15355,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7445</v>
+        <v>7480</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -14921,7 +15369,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>615</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -14929,11 +15377,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7893</v>
+        <v>7953</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -14943,7 +15391,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>612</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -14951,11 +15399,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8232</v>
+        <v>8302</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -14965,7 +15413,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>472</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -14973,11 +15421,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8715</v>
+        <v>8823</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -14987,7 +15435,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>663</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -14995,11 +15443,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>8948</v>
+        <v>9066</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -15009,7 +15457,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>491</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -15017,11 +15465,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9155</v>
+        <v>9401</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -15031,7 +15479,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>191</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -15039,11 +15487,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>9348</v>
+        <v>9717</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -15053,6 +15501,28 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="19">
+        <v>43942</v>
+      </c>
+      <c r="B40">
+        <v>139</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="11">C39+B40</f>
+        <v>9856</v>
+      </c>
+      <c r="E40" s="19">
+        <v>43942</v>
+      </c>
+      <c r="F40">
+        <v>9856</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="12">C40-F40</f>
         <v>0</v>
       </c>
     </row>
@@ -15066,9 +15536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W2" sqref="W2:W35"/>
+      <selection pane="topRight" activeCell="X35" sqref="X2:X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15149,7 +15619,9 @@
       <c r="W1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="X1" s="5"/>
+      <c r="X1" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
@@ -15413,7 +15885,9 @@
       <c r="W2" s="7">
         <v>753</v>
       </c>
-      <c r="X2" s="7"/>
+      <c r="X2" s="7">
+        <v>802</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -15677,7 +16151,9 @@
       <c r="W3" s="9">
         <v>154</v>
       </c>
-      <c r="X3" s="9"/>
+      <c r="X3" s="9">
+        <v>173</v>
+      </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -15941,7 +16417,9 @@
       <c r="W4" s="7">
         <v>5</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7">
+        <v>5</v>
+      </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -16205,7 +16683,9 @@
       <c r="W5" s="9">
         <v>16</v>
       </c>
-      <c r="X5" s="9"/>
+      <c r="X5" s="9">
+        <v>17</v>
+      </c>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
@@ -16469,7 +16949,9 @@
       <c r="W6" s="7">
         <v>907</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>955</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -16733,7 +17215,9 @@
       <c r="W7" s="9">
         <v>316</v>
       </c>
-      <c r="X7" s="9"/>
+      <c r="X7" s="9">
+        <v>321</v>
+      </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
@@ -16997,7 +17481,9 @@
       <c r="W8" s="7">
         <v>103</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7">
+        <v>108</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -17261,7 +17747,9 @@
       <c r="W9" s="9">
         <v>55</v>
       </c>
-      <c r="X9" s="9"/>
+      <c r="X9" s="9">
+        <v>61</v>
+      </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -17525,7 +18013,9 @@
       <c r="W10" s="7">
         <v>32</v>
       </c>
-      <c r="X10" s="7"/>
+      <c r="X10" s="7">
+        <v>33</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -17789,7 +18279,9 @@
       <c r="W11" s="9">
         <v>25</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="9">
+        <v>26</v>
+      </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -18053,7 +18545,9 @@
       <c r="W12" s="7">
         <v>114</v>
       </c>
-      <c r="X12" s="7"/>
+      <c r="X12" s="7">
+        <v>120</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -18317,7 +18811,9 @@
       <c r="W13" s="9">
         <v>399</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="9">
+        <v>406</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -18581,7 +19077,9 @@
       <c r="W14" s="7">
         <v>38</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7">
+        <v>44</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -18845,7 +19343,9 @@
       <c r="W15" s="9">
         <v>542</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="9">
+        <v>569</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -19109,7 +19609,9 @@
       <c r="W16" s="7">
         <v>11</v>
       </c>
-      <c r="X16" s="7"/>
+      <c r="X16" s="7">
+        <v>12</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -19373,7 +19875,9 @@
       <c r="W17" s="9">
         <v>722</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="9">
+        <v>785</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -19637,7 +20141,9 @@
       <c r="W18" s="7">
         <v>7</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>7</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -19901,7 +20407,9 @@
       <c r="W19" s="9">
         <v>67</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="9">
+        <v>76</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -20165,7 +20673,9 @@
       <c r="W20" s="7">
         <v>165</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7">
+        <v>167</v>
+      </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -20429,7 +20939,9 @@
       <c r="W21" s="9">
         <v>117</v>
       </c>
-      <c r="X21" s="9"/>
+      <c r="X21" s="9">
+        <v>124</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -20693,7 +21205,9 @@
       <c r="W22" s="7">
         <v>380</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7">
+        <v>386</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -20957,7 +21471,9 @@
       <c r="W23" s="9">
         <v>46</v>
       </c>
-      <c r="X23" s="9"/>
+      <c r="X23" s="9">
+        <v>50</v>
+      </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -21221,7 +21737,9 @@
       <c r="W24" s="7">
         <v>529</v>
       </c>
-      <c r="X24" s="7"/>
+      <c r="X24" s="7">
+        <v>577</v>
+      </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -21485,7 +22003,9 @@
       <c r="W25" s="9">
         <v>467</v>
       </c>
-      <c r="X25" s="9"/>
+      <c r="X25" s="9">
+        <v>489</v>
+      </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -21749,7 +22269,9 @@
       <c r="W26" s="7">
         <v>7</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7">
+        <v>7</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -22013,7 +22535,9 @@
       <c r="W27" s="9">
         <v>302</v>
       </c>
-      <c r="X27" s="9"/>
+      <c r="X27" s="9">
+        <v>319</v>
+      </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -22277,7 +22801,9 @@
       <c r="W28" s="7">
         <v>353</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <v>372</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -22541,7 +23067,9 @@
       <c r="W29" s="20">
         <v>2</v>
       </c>
-      <c r="X29" s="22"/>
+      <c r="X29" s="20">
+        <v>2</v>
+      </c>
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
@@ -22805,7 +23333,9 @@
       <c r="W30" s="7">
         <v>381</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7">
+        <v>406</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -23069,7 +23599,9 @@
       <c r="W31" s="9">
         <v>417</v>
       </c>
-      <c r="X31" s="9"/>
+      <c r="X31" s="9">
+        <v>462</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -23333,7 +23865,9 @@
       <c r="W32" s="7">
         <v>274</v>
       </c>
-      <c r="X32" s="7"/>
+      <c r="X32" s="7">
+        <v>287</v>
+      </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -23597,7 +24131,9 @@
       <c r="W33" s="9">
         <v>602</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="9">
+        <v>624</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -23861,7 +24397,9 @@
       <c r="W34" s="7">
         <v>72</v>
       </c>
-      <c r="X34" s="7"/>
+      <c r="X34" s="7">
+        <v>74</v>
+      </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -24125,7 +24663,9 @@
       <c r="W35" s="9">
         <v>968</v>
       </c>
-      <c r="X35" s="9"/>
+      <c r="X35" s="9">
+        <v>990</v>
+      </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -24389,7 +24929,9 @@
       <c r="W36" s="11">
         <v>9348</v>
       </c>
-      <c r="X36" s="11"/>
+      <c r="X36" s="11">
+        <v>9856</v>
+      </c>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -28588,7 +29130,9 @@
       <c r="W56" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="X56" s="5"/>
+      <c r="X56" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
@@ -28850,7 +29394,9 @@
       <c r="W57" s="7">
         <v>57</v>
       </c>
-      <c r="X57" s="7"/>
+      <c r="X57" s="7">
+        <v>61</v>
+      </c>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
@@ -29112,7 +29658,9 @@
       <c r="W58" s="9">
         <v>44</v>
       </c>
-      <c r="X58" s="9"/>
+      <c r="X58" s="9">
+        <v>49</v>
+      </c>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
@@ -29374,7 +29922,9 @@
       <c r="W59" s="7">
         <v>228</v>
       </c>
-      <c r="X59" s="7"/>
+      <c r="X59" s="7">
+        <v>236</v>
+      </c>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
@@ -29636,7 +30186,9 @@
       <c r="W60" s="9">
         <v>1119</v>
       </c>
-      <c r="X60" s="9"/>
+      <c r="X60" s="9">
+        <v>1155</v>
+      </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
@@ -29898,7 +30450,9 @@
       <c r="W61" s="7">
         <v>1332</v>
       </c>
-      <c r="X61" s="7"/>
+      <c r="X61" s="7">
+        <v>1378</v>
+      </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
@@ -30160,7 +30714,9 @@
       <c r="W62" s="9">
         <v>1566</v>
       </c>
-      <c r="X62" s="9"/>
+      <c r="X62" s="9">
+        <v>1631</v>
+      </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -30422,7 +30978,9 @@
       <c r="W63" s="7">
         <v>1345</v>
       </c>
-      <c r="X63" s="7"/>
+      <c r="X63" s="7">
+        <v>1411</v>
+      </c>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
@@ -30684,7 +31242,9 @@
       <c r="W64" s="9">
         <v>880</v>
       </c>
-      <c r="X64" s="9"/>
+      <c r="X64" s="9">
+        <v>929</v>
+      </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -30946,7 +31506,9 @@
       <c r="W65" s="7">
         <v>777</v>
       </c>
-      <c r="X65" s="7"/>
+      <c r="X65" s="7">
+        <v>832</v>
+      </c>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
@@ -31208,7 +31770,9 @@
       <c r="W66" s="9">
         <v>1978</v>
       </c>
-      <c r="X66" s="9"/>
+      <c r="X66" s="9">
+        <v>2152</v>
+      </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -31470,7 +32034,9 @@
       <c r="W67" s="7">
         <v>22</v>
       </c>
-      <c r="X67" s="7"/>
+      <c r="X67" s="7">
+        <v>22</v>
+      </c>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
@@ -31732,7 +32298,9 @@
       <c r="W68" s="15">
         <v>9348</v>
       </c>
-      <c r="X68" s="15"/>
+      <c r="X68" s="15">
+        <v>9856</v>
+      </c>
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
       <c r="AA68" s="15"/>
@@ -31996,6 +32564,9 @@
       <c r="W70">
         <v>583</v>
       </c>
+      <c r="X70">
+        <v>647</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -32011,208 +32582,211 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B4:B15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B22" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C22" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>87</v>
       </c>
-      <c r="B4">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B25">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" t="s">
         <v>283</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32">
+        <v>929</v>
+      </c>
+      <c r="C32" t="s">
         <v>284</v>
       </c>
+      <c r="D32" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>832</v>
+      </c>
+      <c r="C33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
         <v>285</v>
       </c>
+      <c r="C36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6">
-        <v>228</v>
-      </c>
-      <c r="C6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7">
-        <v>1119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8">
-        <v>1332</v>
-      </c>
-      <c r="C8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1566</v>
-      </c>
-      <c r="C9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10">
-        <v>1345</v>
-      </c>
-      <c r="C10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11">
-        <v>880</v>
-      </c>
-      <c r="C11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12">
-        <v>777</v>
-      </c>
-      <c r="C12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13">
-        <v>1978</v>
-      </c>
-      <c r="C13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15">
-        <v>9348</v>
-      </c>
-      <c r="C15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB9EE9-53EE-46AD-9AD7-9C714543B263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D3715-3705-41FC-A336-740AB0046B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18520" yWindow="5270" windowWidth="29840" windowHeight="14430" tabRatio="512" activeTab="4" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="18580" yWindow="6680" windowWidth="29840" windowHeight="14430" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="309">
   <si>
     <t>borough</t>
   </si>
@@ -925,79 +925,82 @@
     <t>2,4</t>
   </si>
   <si>
-    <t>14,3</t>
-  </si>
-  <si>
     <t>9,4</t>
-  </si>
-  <si>
-    <t>9 856</t>
-  </si>
-  <si>
-    <t>477,1</t>
   </si>
   <si>
     <t>21 AVRIL, 17H15</t>
   </si>
   <si>
-    <t> 0,6</t>
-  </si>
-  <si>
-    <t>45,4</t>
-  </si>
-  <si>
-    <t>118,7</t>
-  </si>
-  <si>
-    <t>1 155</t>
-  </si>
-  <si>
     <t>11,7</t>
   </si>
   <si>
-    <t>358,6</t>
+    <t>0,6</t>
   </si>
   <si>
-    <t>1 378</t>
+    <t>10 375</t>
   </si>
   <si>
-    <t>14,0</t>
+    <t>502,3</t>
   </si>
   <si>
-    <t>419,4</t>
+    <t>22 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>1 631</t>
+    <t>60,4</t>
   </si>
   <si>
-    <t>16,6</t>
+    <t>47,2</t>
   </si>
   <si>
-    <t>586,0</t>
+    <t>127,2</t>
   </si>
   <si>
-    <t>1 411</t>
+    <t>1 211</t>
   </si>
   <si>
-    <t>549,7</t>
+    <t>376,0</t>
   </si>
   <si>
-    <t>429,0</t>
+    <t>1 427</t>
   </si>
   <si>
-    <t>8,5</t>
+    <t>13,8</t>
   </si>
   <si>
-    <t>575,0</t>
+    <t>434,3</t>
   </si>
   <si>
-    <t>2 152</t>
+    <t>1 704</t>
   </si>
   <si>
-    <t>21,9</t>
+    <t>16,5</t>
   </si>
   <si>
-    <t>2129,8</t>
+    <t>612,2</t>
+  </si>
+  <si>
+    <t>1 461</t>
+  </si>
+  <si>
+    <t>569,2</t>
+  </si>
+  <si>
+    <t>447,4</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>615,1</t>
+  </si>
+  <si>
+    <t>2 319</t>
+  </si>
+  <si>
+    <t>22,4</t>
+  </si>
+  <si>
+    <t>2 295,1</t>
   </si>
 </sst>
 </file>
@@ -1510,20 +1513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1599,8 +1602,11 @@
       <c r="Y1" s="1">
         <v>43942</v>
       </c>
+      <c r="Z1" s="1">
+        <v>43943</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1676,8 +1682,11 @@
       <c r="Y2">
         <v>802</v>
       </c>
+      <c r="Z2">
+        <v>835</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1753,8 +1762,11 @@
       <c r="Y3">
         <v>173</v>
       </c>
+      <c r="Z3">
+        <v>188</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1830,8 +1842,11 @@
       <c r="Y4">
         <v>5</v>
       </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1907,8 +1922,11 @@
       <c r="Y5">
         <v>17</v>
       </c>
+      <c r="Z5">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1984,8 +2002,11 @@
       <c r="Y6">
         <v>955</v>
       </c>
+      <c r="Z6">
+        <v>987</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2061,8 +2082,11 @@
       <c r="Y7">
         <v>321</v>
       </c>
+      <c r="Z7">
+        <v>325</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2138,8 +2162,11 @@
       <c r="Y8">
         <v>108</v>
       </c>
+      <c r="Z8">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2215,8 +2242,11 @@
       <c r="Y9">
         <v>61</v>
       </c>
+      <c r="Z9">
+        <v>62</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2292,8 +2322,11 @@
       <c r="Y10">
         <v>33</v>
       </c>
+      <c r="Z10">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2369,8 +2402,11 @@
       <c r="Y11">
         <v>26</v>
       </c>
+      <c r="Z11">
+        <v>26</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2446,8 +2482,11 @@
       <c r="Y12">
         <v>120</v>
       </c>
+      <c r="Z12">
+        <v>126</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2523,8 +2562,11 @@
       <c r="Y13">
         <v>406</v>
       </c>
+      <c r="Z13">
+        <v>425</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2600,8 +2642,11 @@
       <c r="Y14">
         <v>44</v>
       </c>
+      <c r="Z14">
+        <v>45</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2677,8 +2722,11 @@
       <c r="Y15">
         <v>569</v>
       </c>
+      <c r="Z15">
+        <v>618</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2754,8 +2802,11 @@
       <c r="Y16">
         <v>12</v>
       </c>
+      <c r="Z16">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2831,8 +2882,11 @@
       <c r="Y17">
         <v>785</v>
       </c>
+      <c r="Z17">
+        <v>839</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2908,8 +2962,11 @@
       <c r="Y18">
         <v>7</v>
       </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2985,8 +3042,11 @@
       <c r="Y19">
         <v>76</v>
       </c>
+      <c r="Z19">
+        <v>87</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3062,8 +3122,11 @@
       <c r="Y20">
         <v>167</v>
       </c>
+      <c r="Z20">
+        <v>170</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3139,8 +3202,11 @@
       <c r="Y21">
         <v>124</v>
       </c>
+      <c r="Z21">
+        <v>127</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3216,8 +3282,11 @@
       <c r="Y22">
         <v>386</v>
       </c>
+      <c r="Z22">
+        <v>401</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3293,8 +3362,11 @@
       <c r="Y23">
         <v>50</v>
       </c>
+      <c r="Z23">
+        <v>52</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3370,8 +3442,11 @@
       <c r="Y24">
         <v>577</v>
       </c>
+      <c r="Z24">
+        <v>647</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3447,8 +3522,11 @@
       <c r="Y25">
         <v>489</v>
       </c>
+      <c r="Z25">
+        <v>527</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3524,8 +3602,11 @@
       <c r="Y26">
         <v>7</v>
       </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3601,8 +3682,11 @@
       <c r="Y27">
         <v>319</v>
       </c>
+      <c r="Z27">
+        <v>340</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3678,8 +3762,11 @@
       <c r="Y28">
         <v>372</v>
       </c>
+      <c r="Z28">
+        <v>394</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3755,8 +3842,11 @@
       <c r="Y29">
         <v>2</v>
       </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3832,8 +3922,11 @@
       <c r="Y30">
         <v>406</v>
       </c>
+      <c r="Z30">
+        <v>427</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3909,8 +4002,11 @@
       <c r="Y31">
         <v>462</v>
       </c>
+      <c r="Z31">
+        <v>505</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3986,8 +4082,11 @@
       <c r="Y32">
         <v>287</v>
       </c>
+      <c r="Z32">
+        <v>302</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4063,8 +4162,11 @@
       <c r="Y33">
         <v>624</v>
       </c>
+      <c r="Z33">
+        <v>660</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4140,8 +4242,11 @@
       <c r="Y34">
         <v>74</v>
       </c>
+      <c r="Z34">
+        <v>77</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4215,6 +4320,9 @@
         <v>968</v>
       </c>
       <c r="Y35">
+        <v>990</v>
+      </c>
+      <c r="Z35">
         <v>990</v>
       </c>
     </row>
@@ -4226,21 +4334,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
+      <selection pane="topRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4337,8 +4445,11 @@
       <c r="Y1" s="1">
         <v>43942</v>
       </c>
+      <c r="Z1" s="1">
+        <v>43943</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4436,8 +4547,12 @@
         <f>cases!Y2/(population_2016!$B2/1000)</f>
         <v>5.9741517374948785</v>
       </c>
+      <c r="Z2" s="3">
+        <f>cases!Z2/(population_2016!$B2/1000)</f>
+        <v>6.2199709486386832</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4535,8 +4650,12 @@
         <f>cases!Y3/(population_2016!$B3/1000)</f>
         <v>4.0424338723245166</v>
       </c>
+      <c r="Z3" s="3">
+        <f>cases!Z3/(population_2016!$B3/1000)</f>
+        <v>4.3929339190578558</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4634,8 +4753,12 @@
         <f>cases!Y4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
+      <c r="Z4" s="3">
+        <f>cases!Z4/(population_2016!$B4/1000)</f>
+        <v>1.3078733978550876</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4733,8 +4856,12 @@
         <f>cases!Y5/(population_2016!$B5/1000)</f>
         <v>0.87973504450424334</v>
       </c>
+      <c r="Z5" s="3">
+        <f>cases!Z5/(population_2016!$B5/1000)</f>
+        <v>0.87973504450424334</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4832,8 +4959,12 @@
         <f>cases!Y6/(population_2016!$B6/1000)</f>
         <v>5.7350468412202735</v>
       </c>
+      <c r="Z6" s="3">
+        <f>cases!Z6/(population_2016!$B6/1000)</f>
+        <v>5.9272159500360315</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -4931,8 +5062,12 @@
         <f>cases!Y7/(population_2016!$B7/1000)</f>
         <v>9.8927514792899416</v>
       </c>
+      <c r="Z7" s="3">
+        <f>cases!Z7/(population_2016!$B7/1000)</f>
+        <v>10.016025641025641</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5030,8 +5165,12 @@
         <f>cases!Y8/(population_2016!$B8/1000)</f>
         <v>2.2086341233972067</v>
       </c>
+      <c r="Z8" s="3">
+        <f>cases!Z8/(population_2016!$B8/1000)</f>
+        <v>2.2290844393545881</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5129,8 +5268,12 @@
         <f>cases!Y9/(population_2016!$B9/1000)</f>
         <v>3.2139093782929398</v>
       </c>
+      <c r="Z9" s="3">
+        <f>cases!Z9/(population_2016!$B9/1000)</f>
+        <v>3.2665964172813489</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5228,8 +5371,12 @@
         <f>cases!Y10/(population_2016!$B10/1000)</f>
         <v>4.7325397963573783</v>
       </c>
+      <c r="Z10" s="3">
+        <f>cases!Z10/(population_2016!$B10/1000)</f>
+        <v>4.7325397963573783</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5327,8 +5474,12 @@
         <f>cases!Y11/(population_2016!$B11/1000)</f>
         <v>1.2902585479628803</v>
       </c>
+      <c r="Z11" s="3">
+        <f>cases!Z11/(population_2016!$B11/1000)</f>
+        <v>1.2902585479628803</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5426,8 +5577,12 @@
         <f>cases!Y12/(population_2016!$B12/1000)</f>
         <v>2.6972959607992988</v>
       </c>
+      <c r="Z12" s="3">
+        <f>cases!Z12/(population_2016!$B12/1000)</f>
+        <v>2.8321607588392639</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5525,8 +5680,12 @@
         <f>cases!Y13/(population_2016!$B13/1000)</f>
         <v>5.2828126423171513</v>
       </c>
+      <c r="Z13" s="3">
+        <f>cases!Z13/(population_2016!$B13/1000)</f>
+        <v>5.5300378644945551</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5624,8 +5783,12 @@
         <f>cases!Y14/(population_2016!$B14/1000)</f>
         <v>2.3896160321511974</v>
       </c>
+      <c r="Z14" s="3">
+        <f>cases!Z14/(population_2016!$B14/1000)</f>
+        <v>2.4439254874273613</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5723,8 +5886,12 @@
         <f>cases!Y15/(population_2016!$B15/1000)</f>
         <v>4.1830853378815505</v>
       </c>
+      <c r="Z15" s="3">
+        <f>cases!Z15/(population_2016!$B15/1000)</f>
+        <v>4.5433158854319826</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5822,8 +5989,12 @@
         <f>cases!Y16/(population_2016!$B16/1000)</f>
         <v>3.116883116883117</v>
       </c>
+      <c r="Z16" s="3">
+        <f>cases!Z16/(population_2016!$B16/1000)</f>
+        <v>3.3766233766233764</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5921,8 +6092,12 @@
         <f>cases!Y17/(population_2016!$B17/1000)</f>
         <v>9.3192772514661542</v>
       </c>
+      <c r="Z17" s="3">
+        <f>cases!Z17/(population_2016!$B17/1000)</f>
+        <v>9.9603485528408964</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -6020,8 +6195,12 @@
         <f>cases!Y18/(population_2016!$B18/1000)</f>
         <v>1.3861386138613863</v>
       </c>
+      <c r="Z18" s="3">
+        <f>cases!Z18/(population_2016!$B18/1000)</f>
+        <v>1.3861386138613863</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -6119,8 +6298,12 @@
         <f>cases!Y19/(population_2016!$B19/1000)</f>
         <v>3.7482738212665221</v>
       </c>
+      <c r="Z19" s="3">
+        <f>cases!Z19/(population_2016!$B19/1000)</f>
+        <v>4.2907871375024662</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6218,8 +6401,12 @@
         <f>cases!Y20/(population_2016!$B20/1000)</f>
         <v>6.9716957501878598</v>
       </c>
+      <c r="Z20" s="3">
+        <f>cases!Z20/(population_2016!$B20/1000)</f>
+        <v>7.0969357936044082</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6317,8 +6504,12 @@
         <f>cases!Y21/(population_2016!$B21/1000)</f>
         <v>1.789399252492893</v>
       </c>
+      <c r="Z21" s="3">
+        <f>cases!Z21/(population_2016!$B21/1000)</f>
+        <v>1.8326911698919146</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6416,8 +6607,12 @@
         <f>cases!Y22/(population_2016!$B22/1000)</f>
         <v>3.7115384615384617</v>
       </c>
+      <c r="Z22" s="3">
+        <f>cases!Z22/(population_2016!$B22/1000)</f>
+        <v>3.8557692307692308</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -6515,8 +6710,12 @@
         <f>cases!Y23/(population_2016!$B23/1000)</f>
         <v>1.5933715742511154</v>
       </c>
+      <c r="Z23" s="3">
+        <f>cases!Z23/(population_2016!$B23/1000)</f>
+        <v>1.6571064372211601</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6614,8 +6813,12 @@
         <f>cases!Y24/(population_2016!$B24/1000)</f>
         <v>5.4055066842790627</v>
       </c>
+      <c r="Z24" s="3">
+        <f>cases!Z24/(population_2016!$B24/1000)</f>
+        <v>6.0612873912106648</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6713,8 +6916,12 @@
         <f>cases!Y25/(population_2016!$B25/1000)</f>
         <v>3.5031162690737156</v>
       </c>
+      <c r="Z25" s="3">
+        <f>cases!Z25/(population_2016!$B25/1000)</f>
+        <v>3.7753420732144134</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -6812,8 +7019,12 @@
         <f>cases!Y26/(population_2016!$B26/1000)</f>
         <v>1.4118596208148446</v>
       </c>
+      <c r="Z26" s="3">
+        <f>cases!Z26/(population_2016!$B26/1000)</f>
+        <v>1.4118596208148446</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6911,8 +7122,12 @@
         <f>cases!Y27/(population_2016!$B27/1000)</f>
         <v>3.2278301695875662</v>
       </c>
+      <c r="Z27" s="3">
+        <f>cases!Z27/(population_2016!$B27/1000)</f>
+        <v>3.4403205569271864</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -7010,8 +7225,12 @@
         <f>cases!Y28/(population_2016!$B28/1000)</f>
         <v>4.750654492050316</v>
       </c>
+      <c r="Z28" s="3">
+        <f>cases!Z28/(population_2016!$B28/1000)</f>
+        <v>5.0316071770640436</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -7109,8 +7328,12 @@
         <f>cases!Y29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="Z29" s="3">
+        <f>cases!Z29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -7208,8 +7431,12 @@
         <f>cases!Y30/(population_2016!$B30/1000)</f>
         <v>5.1950710803444613</v>
       </c>
+      <c r="Z30" s="3">
+        <f>cases!Z30/(population_2016!$B30/1000)</f>
+        <v>5.4637816534657269</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7307,8 +7534,12 @@
         <f>cases!Y31/(population_2016!$B31/1000)</f>
         <v>6.6735038784324487</v>
       </c>
+      <c r="Z31" s="3">
+        <f>cases!Z31/(population_2016!$B31/1000)</f>
+        <v>7.2946308627887158</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7406,8 +7637,12 @@
         <f>cases!Y32/(population_2016!$B32/1000)</f>
         <v>3.2185712683637995</v>
       </c>
+      <c r="Z32" s="3">
+        <f>cases!Z32/(population_2016!$B32/1000)</f>
+        <v>3.3867892789054612</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7505,8 +7740,12 @@
         <f>cases!Y33/(population_2016!$B33/1000)</f>
         <v>4.3377614648286791</v>
       </c>
+      <c r="Z33" s="3">
+        <f>cases!Z33/(population_2016!$B33/1000)</f>
+        <v>4.5880169339534103</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -7603,6 +7842,10 @@
       <c r="Y34" s="3">
         <f>cases!Y34/(population_2016!$B34/1000)</f>
         <v>3.6431666010240251</v>
+      </c>
+      <c r="Z34" s="3">
+        <f>cases!Z34/(population_2016!$B34/1000)</f>
+        <v>3.7908625443087827</v>
       </c>
     </row>
   </sheetData>
@@ -10613,11 +10856,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -10780,7 +11023,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -10947,7 +11190,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
@@ -11114,11 +11357,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5049</v>
+        <v>5052</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -11281,7 +11524,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5398</v>
+        <v>5401</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
@@ -11448,7 +11691,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5717</v>
+        <v>5720</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
@@ -11615,7 +11858,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5977</v>
+        <v>5980</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
@@ -11782,7 +12025,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6184</v>
+        <v>6187</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
@@ -11949,7 +12192,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6500</v>
+        <v>6503</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -12116,11 +12359,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>7049</v>
+        <v>7051</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -12283,11 +12526,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7480</v>
+        <v>7481</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -12450,11 +12693,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7953</v>
+        <v>7978</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -12617,7 +12860,7 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8302</v>
+        <v>8327</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
@@ -12784,11 +13027,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8823</v>
+        <v>8849</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -12951,11 +13194,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9066</v>
+        <v>9094</v>
       </c>
       <c r="C36" s="17">
         <f>mtl_newcases!B37</f>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -13118,11 +13361,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9401</v>
+        <v>9433</v>
       </c>
       <c r="C37" s="17">
         <f>mtl_newcases!B38</f>
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -13254,11 +13497,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>9717</v>
+        <v>9868</v>
       </c>
       <c r="C38" s="17">
         <f>mtl_newcases!B39</f>
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -13421,11 +13664,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>9856</v>
+        <v>10166</v>
       </c>
       <c r="C39" s="17">
         <f>mtl_newcases!B40</f>
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -13589,11 +13832,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14779,6 +15022,29 @@
         <v>4291</v>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B52">
+        <v>21838</v>
+      </c>
+      <c r="C52">
+        <v>1243</v>
+      </c>
+      <c r="D52">
+        <v>1411</v>
+      </c>
+      <c r="E52">
+        <v>207</v>
+      </c>
+      <c r="F52">
+        <v>158995</v>
+      </c>
+      <c r="G52">
+        <v>4484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14786,11 +15052,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15135,11 +15401,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -15149,7 +15415,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -15161,7 +15427,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -15171,7 +15437,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -15183,7 +15449,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -15193,7 +15459,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -15201,11 +15467,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5049</v>
+        <v>5052</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -15215,7 +15481,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -15227,7 +15493,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5398</v>
+        <v>5401</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -15237,7 +15503,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -15249,7 +15515,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5717</v>
+        <v>5720</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -15259,7 +15525,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -15271,7 +15537,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5977</v>
+        <v>5980</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -15281,7 +15547,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -15293,7 +15559,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6184</v>
+        <v>6187</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -15303,7 +15569,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -15315,7 +15581,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6500</v>
+        <v>6503</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -15325,7 +15591,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -15333,11 +15599,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>7049</v>
+        <v>7051</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -15347,7 +15613,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -15355,11 +15621,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7480</v>
+        <v>7481</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -15369,7 +15635,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -15377,11 +15643,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7953</v>
+        <v>7978</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -15391,7 +15657,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>672</v>
+        <v>697</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -15403,7 +15669,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8302</v>
+        <v>8327</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -15413,7 +15679,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>542</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -15421,11 +15687,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8823</v>
+        <v>8849</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -15435,7 +15701,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>771</v>
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -15443,11 +15709,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9066</v>
+        <v>9094</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -15457,7 +15723,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>609</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -15465,11 +15731,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9401</v>
+        <v>9433</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -15479,7 +15745,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>437</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -15487,11 +15753,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>9717</v>
+        <v>9868</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -15501,7 +15767,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>369</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -15509,11 +15775,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>9856</v>
+        <v>10166</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -15523,6 +15789,28 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="19">
+        <v>43943</v>
+      </c>
+      <c r="B41">
+        <v>209</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="13">C40+B41</f>
+        <v>10375</v>
+      </c>
+      <c r="E41" s="19">
+        <v>43943</v>
+      </c>
+      <c r="F41">
+        <v>10375</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41" si="14">C41-F41</f>
         <v>0</v>
       </c>
     </row>
@@ -15536,9 +15824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X35" sqref="X2:X35"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2:Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15620,9 +15908,11 @@
         <v>281</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y1" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
@@ -15888,7 +16178,9 @@
       <c r="X2" s="7">
         <v>802</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>835</v>
+      </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
@@ -16154,7 +16446,9 @@
       <c r="X3" s="9">
         <v>173</v>
       </c>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="9">
+        <v>188</v>
+      </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
@@ -16420,7 +16714,9 @@
       <c r="X4" s="7">
         <v>5</v>
       </c>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7">
+        <v>5</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
@@ -16686,7 +16982,9 @@
       <c r="X5" s="9">
         <v>17</v>
       </c>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="9">
+        <v>17</v>
+      </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
@@ -16952,7 +17250,9 @@
       <c r="X6" s="7">
         <v>955</v>
       </c>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="7">
+        <v>987</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -17218,7 +17518,9 @@
       <c r="X7" s="9">
         <v>321</v>
       </c>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="9">
+        <v>325</v>
+      </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -17484,7 +17786,9 @@
       <c r="X8" s="7">
         <v>108</v>
       </c>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="7">
+        <v>109</v>
+      </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -17750,7 +18054,9 @@
       <c r="X9" s="9">
         <v>61</v>
       </c>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="9">
+        <v>62</v>
+      </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -18016,7 +18322,9 @@
       <c r="X10" s="7">
         <v>33</v>
       </c>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="7">
+        <v>33</v>
+      </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
@@ -18282,7 +18590,9 @@
       <c r="X11" s="9">
         <v>26</v>
       </c>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="9">
+        <v>26</v>
+      </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -18548,7 +18858,9 @@
       <c r="X12" s="7">
         <v>120</v>
       </c>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="7">
+        <v>126</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
@@ -18814,7 +19126,9 @@
       <c r="X13" s="9">
         <v>406</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="9">
+        <v>425</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -19080,7 +19394,9 @@
       <c r="X14" s="7">
         <v>44</v>
       </c>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7">
+        <v>45</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -19346,7 +19662,9 @@
       <c r="X15" s="9">
         <v>569</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="9">
+        <v>618</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -19612,7 +19930,9 @@
       <c r="X16" s="7">
         <v>12</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7">
+        <v>13</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -19878,7 +20198,9 @@
       <c r="X17" s="9">
         <v>785</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="9">
+        <v>839</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -20144,7 +20466,9 @@
       <c r="X18" s="7">
         <v>7</v>
       </c>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="7">
+        <v>7</v>
+      </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
@@ -20410,7 +20734,9 @@
       <c r="X19" s="9">
         <v>76</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="9">
+        <v>87</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -20676,7 +21002,9 @@
       <c r="X20" s="7">
         <v>167</v>
       </c>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="7">
+        <v>170</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -20942,7 +21270,9 @@
       <c r="X21" s="9">
         <v>124</v>
       </c>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="9">
+        <v>127</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -21208,7 +21538,9 @@
       <c r="X22" s="7">
         <v>386</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="7">
+        <v>401</v>
+      </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
@@ -21474,7 +21806,9 @@
       <c r="X23" s="9">
         <v>50</v>
       </c>
-      <c r="Y23" s="9"/>
+      <c r="Y23" s="9">
+        <v>52</v>
+      </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -21740,7 +22074,9 @@
       <c r="X24" s="7">
         <v>577</v>
       </c>
-      <c r="Y24" s="7"/>
+      <c r="Y24" s="7">
+        <v>647</v>
+      </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
@@ -22006,7 +22342,9 @@
       <c r="X25" s="9">
         <v>489</v>
       </c>
-      <c r="Y25" s="9"/>
+      <c r="Y25" s="9">
+        <v>527</v>
+      </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -22272,7 +22610,9 @@
       <c r="X26" s="7">
         <v>7</v>
       </c>
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="7">
+        <v>7</v>
+      </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
@@ -22538,7 +22878,9 @@
       <c r="X27" s="9">
         <v>319</v>
       </c>
-      <c r="Y27" s="9"/>
+      <c r="Y27" s="9">
+        <v>340</v>
+      </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -22804,7 +23146,9 @@
       <c r="X28" s="7">
         <v>372</v>
       </c>
-      <c r="Y28" s="7"/>
+      <c r="Y28" s="7">
+        <v>394</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -23070,7 +23414,9 @@
       <c r="X29" s="20">
         <v>2</v>
       </c>
-      <c r="Y29" s="22"/>
+      <c r="Y29" s="20">
+        <v>2</v>
+      </c>
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
@@ -23336,7 +23682,9 @@
       <c r="X30" s="7">
         <v>406</v>
       </c>
-      <c r="Y30" s="7"/>
+      <c r="Y30" s="7">
+        <v>427</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -23602,7 +23950,9 @@
       <c r="X31" s="9">
         <v>462</v>
       </c>
-      <c r="Y31" s="9"/>
+      <c r="Y31" s="9">
+        <v>505</v>
+      </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -23868,7 +24218,9 @@
       <c r="X32" s="7">
         <v>287</v>
       </c>
-      <c r="Y32" s="7"/>
+      <c r="Y32" s="7">
+        <v>302</v>
+      </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -24134,7 +24486,9 @@
       <c r="X33" s="9">
         <v>624</v>
       </c>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="9">
+        <v>660</v>
+      </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -24400,7 +24754,9 @@
       <c r="X34" s="7">
         <v>74</v>
       </c>
-      <c r="Y34" s="7"/>
+      <c r="Y34" s="7">
+        <v>77</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
@@ -24666,7 +25022,9 @@
       <c r="X35" s="9">
         <v>990</v>
       </c>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="9">
+        <v>990</v>
+      </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -24932,7 +25290,9 @@
       <c r="X36" s="11">
         <v>9856</v>
       </c>
-      <c r="Y36" s="11"/>
+      <c r="Y36" s="11">
+        <v>10375</v>
+      </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
@@ -29131,9 +29491,11 @@
         <v>281</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y56" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="Y56" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -29397,7 +29759,9 @@
       <c r="X57" s="7">
         <v>61</v>
       </c>
-      <c r="Y57" s="7"/>
+      <c r="Y57" s="7">
+        <v>67</v>
+      </c>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -29661,7 +30025,9 @@
       <c r="X58" s="9">
         <v>49</v>
       </c>
-      <c r="Y58" s="9"/>
+      <c r="Y58" s="9">
+        <v>51</v>
+      </c>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
@@ -29925,7 +30291,9 @@
       <c r="X59" s="7">
         <v>236</v>
       </c>
-      <c r="Y59" s="7"/>
+      <c r="Y59" s="7">
+        <v>253</v>
+      </c>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
@@ -30189,7 +30557,9 @@
       <c r="X60" s="9">
         <v>1155</v>
       </c>
-      <c r="Y60" s="9"/>
+      <c r="Y60" s="9">
+        <v>1211</v>
+      </c>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -30453,7 +30823,9 @@
       <c r="X61" s="7">
         <v>1378</v>
       </c>
-      <c r="Y61" s="7"/>
+      <c r="Y61" s="7">
+        <v>1427</v>
+      </c>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
@@ -30717,7 +31089,9 @@
       <c r="X62" s="9">
         <v>1631</v>
       </c>
-      <c r="Y62" s="9"/>
+      <c r="Y62" s="9">
+        <v>1704</v>
+      </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -30981,7 +31355,9 @@
       <c r="X63" s="7">
         <v>1411</v>
       </c>
-      <c r="Y63" s="7"/>
+      <c r="Y63" s="7">
+        <v>1461</v>
+      </c>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
@@ -31245,7 +31621,9 @@
       <c r="X64" s="9">
         <v>929</v>
       </c>
-      <c r="Y64" s="9"/>
+      <c r="Y64" s="9">
+        <v>969</v>
+      </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -31509,7 +31887,9 @@
       <c r="X65" s="7">
         <v>832</v>
       </c>
-      <c r="Y65" s="7"/>
+      <c r="Y65" s="7">
+        <v>890</v>
+      </c>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
@@ -31773,7 +32153,9 @@
       <c r="X66" s="9">
         <v>2152</v>
       </c>
-      <c r="Y66" s="9"/>
+      <c r="Y66" s="9">
+        <v>2319</v>
+      </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -32037,7 +32419,9 @@
       <c r="X67" s="7">
         <v>22</v>
       </c>
-      <c r="Y67" s="7"/>
+      <c r="Y67" s="7">
+        <v>23</v>
+      </c>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
@@ -32301,7 +32685,9 @@
       <c r="X68" s="15">
         <v>9856</v>
       </c>
-      <c r="Y68" s="15"/>
+      <c r="Y68" s="15">
+        <v>10375</v>
+      </c>
       <c r="Z68" s="15"/>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
@@ -32567,6 +32953,9 @@
       <c r="X70">
         <v>647</v>
       </c>
+      <c r="Y70">
+        <v>741</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -32582,211 +32971,208 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655ECF0F-EC0D-4FC9-B182-78DF99BFDAD7}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" t="s">
-        <v>183</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
-        <v>184</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>185</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>969</v>
+      </c>
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>890</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" t="s">
         <v>288</v>
       </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27">
-        <v>236</v>
-      </c>
-      <c r="C27" t="s">
-        <v>282</v>
-      </c>
-      <c r="D27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>300</v>
-      </c>
-      <c r="C31" t="s">
-        <v>283</v>
-      </c>
-      <c r="D31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32">
-        <v>929</v>
-      </c>
-      <c r="C32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33">
-        <v>832</v>
-      </c>
-      <c r="C33" t="s">
-        <v>303</v>
-      </c>
-      <c r="D33" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C34" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>285</v>
-      </c>
-      <c r="C36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" t="s">
-        <v>286</v>
-      </c>
-    </row>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D3715-3705-41FC-A336-740AB0046B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610BC91-DDCB-44DF-ABA2-1CFDA221C2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="6680" windowWidth="29840" windowHeight="14430" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="19510" yWindow="5220" windowWidth="21890" windowHeight="15390" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="311">
   <si>
     <t>borough</t>
   </si>
@@ -931,76 +931,82 @@
     <t>21 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>11,7</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>10 375</t>
-  </si>
-  <si>
-    <t>502,3</t>
-  </si>
-  <si>
     <t>22 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>60,4</t>
+    <t>23 AVRIL, 17H45</t>
   </si>
   <si>
-    <t>47,2</t>
+    <t> 0,7</t>
   </si>
   <si>
-    <t>127,2</t>
+    <t>527,5</t>
   </si>
   <si>
-    <t>1 211</t>
+    <t>66,7</t>
   </si>
   <si>
-    <t>376,0</t>
+    <t>48,2</t>
   </si>
   <si>
-    <t>1 427</t>
+    <t>132,7</t>
   </si>
   <si>
-    <t>13,8</t>
+    <t>1 262</t>
   </si>
   <si>
-    <t>434,3</t>
+    <t>11,6</t>
   </si>
   <si>
-    <t>1 704</t>
+    <t>391,8</t>
   </si>
   <si>
-    <t>16,5</t>
+    <t>1 472</t>
   </si>
   <si>
-    <t>612,2</t>
+    <t>13,5</t>
   </si>
   <si>
-    <t>1 461</t>
+    <t>448,0</t>
   </si>
   <si>
-    <t>569,2</t>
+    <t>1 766</t>
   </si>
   <si>
-    <t>447,4</t>
+    <t>16,2</t>
   </si>
   <si>
-    <t>8,6</t>
+    <t>634,5</t>
   </si>
   <si>
-    <t>615,1</t>
+    <t>1 535</t>
   </si>
   <si>
-    <t>2 319</t>
+    <t>598,0</t>
   </si>
   <si>
-    <t>22,4</t>
+    <t>1 021</t>
   </si>
   <si>
-    <t>2 295,1</t>
+    <t>471,5</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>657,2</t>
+  </si>
+  <si>
+    <t>2 475</t>
+  </si>
+  <si>
+    <t>22,8</t>
+  </si>
+  <si>
+    <t>2 449,5</t>
+  </si>
+  <si>
+    <t>10 897</t>
   </si>
 </sst>
 </file>
@@ -1513,20 +1519,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView topLeftCell="F1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1605,8 +1611,11 @@
       <c r="Z1" s="1">
         <v>43943</v>
       </c>
+      <c r="AA1" s="1">
+        <v>43944</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1685,8 +1694,11 @@
       <c r="Z2">
         <v>835</v>
       </c>
+      <c r="AA2">
+        <v>879</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1765,8 +1777,11 @@
       <c r="Z3">
         <v>188</v>
       </c>
+      <c r="AA3">
+        <v>214</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1845,8 +1860,11 @@
       <c r="Z4">
         <v>5</v>
       </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1925,8 +1943,11 @@
       <c r="Z5">
         <v>17</v>
       </c>
+      <c r="AA5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2005,8 +2026,11 @@
       <c r="Z6">
         <v>987</v>
       </c>
+      <c r="AA6">
+        <v>1035</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2085,8 +2109,11 @@
       <c r="Z7">
         <v>325</v>
       </c>
+      <c r="AA7">
+        <v>328</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2165,8 +2192,11 @@
       <c r="Z8">
         <v>109</v>
       </c>
+      <c r="AA8">
+        <v>117</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2245,8 +2275,11 @@
       <c r="Z9">
         <v>62</v>
       </c>
+      <c r="AA9">
+        <v>71</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2325,8 +2358,11 @@
       <c r="Z10">
         <v>33</v>
       </c>
+      <c r="AA10">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2405,8 +2441,11 @@
       <c r="Z11">
         <v>26</v>
       </c>
+      <c r="AA11">
+        <v>29</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2485,8 +2524,11 @@
       <c r="Z12">
         <v>126</v>
       </c>
+      <c r="AA12">
+        <v>129</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2565,8 +2607,11 @@
       <c r="Z13">
         <v>425</v>
       </c>
+      <c r="AA13">
+        <v>428</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2645,8 +2690,11 @@
       <c r="Z14">
         <v>45</v>
       </c>
+      <c r="AA14">
+        <v>52</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2725,8 +2773,11 @@
       <c r="Z15">
         <v>618</v>
       </c>
+      <c r="AA15">
+        <v>671</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2805,8 +2856,11 @@
       <c r="Z16">
         <v>13</v>
       </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2885,8 +2939,11 @@
       <c r="Z17">
         <v>839</v>
       </c>
+      <c r="AA17">
+        <v>891</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -2965,8 +3022,11 @@
       <c r="Z18">
         <v>7</v>
       </c>
+      <c r="AA18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3045,8 +3105,11 @@
       <c r="Z19">
         <v>87</v>
       </c>
+      <c r="AA19">
+        <v>93</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3125,8 +3188,11 @@
       <c r="Z20">
         <v>170</v>
       </c>
+      <c r="AA20">
+        <v>170</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3205,8 +3271,11 @@
       <c r="Z21">
         <v>127</v>
       </c>
+      <c r="AA21">
+        <v>138</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3285,8 +3354,11 @@
       <c r="Z22">
         <v>401</v>
       </c>
+      <c r="AA22">
+        <v>416</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3365,8 +3437,11 @@
       <c r="Z23">
         <v>52</v>
       </c>
+      <c r="AA23">
+        <v>59</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3445,8 +3520,11 @@
       <c r="Z24">
         <v>647</v>
       </c>
+      <c r="AA24">
+        <v>708</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3525,8 +3603,11 @@
       <c r="Z25">
         <v>527</v>
       </c>
+      <c r="AA25">
+        <v>552</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3605,8 +3686,11 @@
       <c r="Z26">
         <v>7</v>
       </c>
+      <c r="AA26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3685,8 +3769,11 @@
       <c r="Z27">
         <v>340</v>
       </c>
+      <c r="AA27">
+        <v>354</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3765,8 +3852,11 @@
       <c r="Z28">
         <v>394</v>
       </c>
+      <c r="AA28">
+        <v>418</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3845,8 +3935,11 @@
       <c r="Z29">
         <v>2</v>
       </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3925,8 +4018,11 @@
       <c r="Z30">
         <v>427</v>
       </c>
+      <c r="AA30">
+        <v>448</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4005,8 +4101,11 @@
       <c r="Z31">
         <v>505</v>
       </c>
+      <c r="AA31">
+        <v>518</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4085,8 +4184,11 @@
       <c r="Z32">
         <v>302</v>
       </c>
+      <c r="AA32">
+        <v>321</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4165,8 +4267,11 @@
       <c r="Z33">
         <v>660</v>
       </c>
+      <c r="AA33">
+        <v>701</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4245,8 +4350,11 @@
       <c r="Z34">
         <v>77</v>
       </c>
+      <c r="AA34">
+        <v>84</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4324,6 +4432,9 @@
       </c>
       <c r="Z35">
         <v>990</v>
+      </c>
+      <c r="AA35">
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -4334,21 +4445,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S37" sqref="S37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4448,8 +4559,11 @@
       <c r="Z1" s="1">
         <v>43943</v>
       </c>
+      <c r="AA1" s="1">
+        <v>43944</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4551,8 +4665,12 @@
         <f>cases!Z2/(population_2016!$B2/1000)</f>
         <v>6.2199709486386832</v>
       </c>
+      <c r="AA2" s="3">
+        <f>cases!AA2/(population_2016!$B2/1000)</f>
+        <v>6.5477298968304218</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4654,8 +4772,12 @@
         <f>cases!Z3/(population_2016!$B3/1000)</f>
         <v>4.3929339190578558</v>
       </c>
+      <c r="AA3" s="3">
+        <f>cases!AA3/(population_2016!$B3/1000)</f>
+        <v>5.0004673333956449</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4757,8 +4879,12 @@
         <f>cases!Z4/(population_2016!$B4/1000)</f>
         <v>1.3078733978550876</v>
       </c>
+      <c r="AA4" s="3">
+        <f>cases!AA4/(population_2016!$B4/1000)</f>
+        <v>1.5694480774261053</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4860,8 +4986,12 @@
         <f>cases!Z5/(population_2016!$B5/1000)</f>
         <v>0.87973504450424334</v>
       </c>
+      <c r="AA5" s="3">
+        <f>cases!AA5/(population_2016!$B5/1000)</f>
+        <v>1.0349824052991099</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4963,8 +5093,12 @@
         <f>cases!Z6/(population_2016!$B6/1000)</f>
         <v>5.9272159500360315</v>
       </c>
+      <c r="AA6" s="3">
+        <f>cases!AA6/(population_2016!$B6/1000)</f>
+        <v>6.2154696132596685</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -5066,8 +5200,12 @@
         <f>cases!Z7/(population_2016!$B7/1000)</f>
         <v>10.016025641025641</v>
       </c>
+      <c r="AA7" s="3">
+        <f>cases!AA7/(population_2016!$B7/1000)</f>
+        <v>10.108481262327416</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5169,8 +5307,12 @@
         <f>cases!Z8/(population_2016!$B8/1000)</f>
         <v>2.2290844393545881</v>
       </c>
+      <c r="AA8" s="3">
+        <f>cases!AA8/(population_2016!$B8/1000)</f>
+        <v>2.3926869670136401</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5272,8 +5414,12 @@
         <f>cases!Z9/(population_2016!$B9/1000)</f>
         <v>3.2665964172813489</v>
       </c>
+      <c r="AA9" s="3">
+        <f>cases!AA9/(population_2016!$B9/1000)</f>
+        <v>3.7407797681770285</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5375,8 +5521,12 @@
         <f>cases!Z10/(population_2016!$B10/1000)</f>
         <v>4.7325397963573783</v>
       </c>
+      <c r="AA10" s="3">
+        <f>cases!AA10/(population_2016!$B10/1000)</f>
+        <v>4.7325397963573783</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5478,8 +5628,12 @@
         <f>cases!Z11/(population_2016!$B11/1000)</f>
         <v>1.2902585479628803</v>
       </c>
+      <c r="AA11" s="3">
+        <f>cases!AA11/(population_2016!$B11/1000)</f>
+        <v>1.4391345342662896</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5581,8 +5735,12 @@
         <f>cases!Z12/(population_2016!$B12/1000)</f>
         <v>2.8321607588392639</v>
       </c>
+      <c r="AA12" s="3">
+        <f>cases!AA12/(population_2016!$B12/1000)</f>
+        <v>2.8995931578592464</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5684,8 +5842,12 @@
         <f>cases!Z13/(population_2016!$B13/1000)</f>
         <v>5.5300378644945551</v>
       </c>
+      <c r="AA13" s="3">
+        <f>cases!AA13/(population_2016!$B13/1000)</f>
+        <v>5.5690734258909869</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5787,8 +5949,12 @@
         <f>cases!Z14/(population_2016!$B14/1000)</f>
         <v>2.4439254874273613</v>
       </c>
+      <c r="AA14" s="3">
+        <f>cases!AA14/(population_2016!$B14/1000)</f>
+        <v>2.8240916743605062</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5890,8 +6056,12 @@
         <f>cases!Z15/(population_2016!$B15/1000)</f>
         <v>4.5433158854319826</v>
       </c>
+      <c r="AA15" s="3">
+        <f>cases!AA15/(population_2016!$B15/1000)</f>
+        <v>4.932953008292654</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -5993,8 +6163,12 @@
         <f>cases!Z16/(population_2016!$B16/1000)</f>
         <v>3.3766233766233764</v>
       </c>
+      <c r="AA16" s="3">
+        <f>cases!AA16/(population_2016!$B16/1000)</f>
+        <v>3.6363636363636362</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6096,8 +6270,12 @@
         <f>cases!Z17/(population_2016!$B17/1000)</f>
         <v>9.9603485528408964</v>
       </c>
+      <c r="AA17" s="3">
+        <f>cases!AA17/(population_2016!$B17/1000)</f>
+        <v>10.57767647268324</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -6199,8 +6377,12 @@
         <f>cases!Z18/(population_2016!$B18/1000)</f>
         <v>1.3861386138613863</v>
       </c>
+      <c r="AA18" s="3">
+        <f>cases!AA18/(population_2016!$B18/1000)</f>
+        <v>1.3861386138613863</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -6302,8 +6484,12 @@
         <f>cases!Z19/(population_2016!$B19/1000)</f>
         <v>4.2907871375024662</v>
       </c>
+      <c r="AA19" s="3">
+        <f>cases!AA19/(population_2016!$B19/1000)</f>
+        <v>4.5867034918129805</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6405,8 +6591,12 @@
         <f>cases!Z20/(population_2016!$B20/1000)</f>
         <v>7.0969357936044082</v>
       </c>
+      <c r="AA20" s="3">
+        <f>cases!AA20/(population_2016!$B20/1000)</f>
+        <v>7.0969357936044082</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6508,8 +6698,12 @@
         <f>cases!Z21/(population_2016!$B21/1000)</f>
         <v>1.8326911698919146</v>
       </c>
+      <c r="AA21" s="3">
+        <f>cases!AA21/(population_2016!$B21/1000)</f>
+        <v>1.9914282003549939</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6611,8 +6805,12 @@
         <f>cases!Z22/(population_2016!$B22/1000)</f>
         <v>3.8557692307692308</v>
       </c>
+      <c r="AA22" s="3">
+        <f>cases!AA22/(population_2016!$B22/1000)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -6714,8 +6912,12 @@
         <f>cases!Z23/(population_2016!$B23/1000)</f>
         <v>1.6571064372211601</v>
       </c>
+      <c r="AA23" s="3">
+        <f>cases!AA23/(population_2016!$B23/1000)</f>
+        <v>1.8801784576163161</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6817,8 +7019,12 @@
         <f>cases!Z24/(population_2016!$B24/1000)</f>
         <v>6.0612873912106648</v>
       </c>
+      <c r="AA24" s="3">
+        <f>cases!AA24/(population_2016!$B24/1000)</f>
+        <v>6.6327534358224902</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6920,8 +7126,12 @@
         <f>cases!Z25/(population_2016!$B25/1000)</f>
         <v>3.7753420732144134</v>
       </c>
+      <c r="AA25" s="3">
+        <f>cases!AA25/(population_2016!$B25/1000)</f>
+        <v>3.9544379969911883</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -7023,8 +7233,12 @@
         <f>cases!Z26/(population_2016!$B26/1000)</f>
         <v>1.4118596208148446</v>
       </c>
+      <c r="AA26" s="3">
+        <f>cases!AA26/(population_2016!$B26/1000)</f>
+        <v>1.4118596208148446</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -7126,8 +7340,12 @@
         <f>cases!Z27/(population_2016!$B27/1000)</f>
         <v>3.4403205569271864</v>
       </c>
+      <c r="AA27" s="3">
+        <f>cases!AA27/(population_2016!$B27/1000)</f>
+        <v>3.5819808151535999</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -7229,8 +7447,12 @@
         <f>cases!Z28/(population_2016!$B28/1000)</f>
         <v>5.0316071770640436</v>
       </c>
+      <c r="AA28" s="3">
+        <f>cases!AA28/(population_2016!$B28/1000)</f>
+        <v>5.3381010152608388</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -7332,8 +7554,12 @@
         <f>cases!Z29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AA29" s="3">
+        <f>cases!AA29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -7435,8 +7661,12 @@
         <f>cases!Z30/(population_2016!$B30/1000)</f>
         <v>5.4637816534657269</v>
       </c>
+      <c r="AA30" s="3">
+        <f>cases!AA30/(population_2016!$B30/1000)</f>
+        <v>5.7324922265869924</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7538,8 +7768,12 @@
         <f>cases!Z31/(population_2016!$B31/1000)</f>
         <v>7.2946308627887158</v>
       </c>
+      <c r="AA31" s="3">
+        <f>cases!AA31/(population_2016!$B31/1000)</f>
+        <v>7.4824134394545636</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7641,8 +7875,12 @@
         <f>cases!Z32/(population_2016!$B32/1000)</f>
         <v>3.3867892789054612</v>
       </c>
+      <c r="AA32" s="3">
+        <f>cases!AA32/(population_2016!$B32/1000)</f>
+        <v>3.5998654255915667</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7744,8 +7982,12 @@
         <f>cases!Z33/(population_2016!$B33/1000)</f>
         <v>4.5880169339534103</v>
       </c>
+      <c r="AA33" s="3">
+        <f>cases!AA33/(population_2016!$B33/1000)</f>
+        <v>4.8730301071232436</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -7846,6 +8088,10 @@
       <c r="Z34" s="3">
         <f>cases!Z34/(population_2016!$B34/1000)</f>
         <v>3.7908625443087827</v>
+      </c>
+      <c r="AA34" s="3">
+        <f>cases!AA34/(population_2016!$B34/1000)</f>
+        <v>4.1354864119732175</v>
       </c>
     </row>
   </sheetData>
@@ -7855,11 +8101,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR39"/>
+  <dimension ref="A1:AR41"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B39" sqref="B39"/>
+      <selection pane="topRight" activeCell="Y64" sqref="Y64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11357,11 +11603,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5052</v>
+        <v>5053</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -11524,7 +11770,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
@@ -11691,7 +11937,7 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
@@ -11858,7 +12104,7 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5980</v>
+        <v>5981</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
@@ -12025,7 +12271,7 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6187</v>
+        <v>6188</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
@@ -12192,7 +12438,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6503</v>
+        <v>6504</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -12359,7 +12605,7 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>7051</v>
+        <v>7052</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
@@ -12526,11 +12772,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7481</v>
+        <v>7480</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -12693,11 +12939,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7978</v>
+        <v>7982</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -12860,11 +13106,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8327</v>
+        <v>8334</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -13027,11 +13273,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8849</v>
+        <v>8860</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -13194,7 +13440,7 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9094</v>
+        <v>9105</v>
       </c>
       <c r="C36" s="17">
         <f>mtl_newcases!B37</f>
@@ -13361,11 +13607,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9433</v>
+        <v>9442</v>
       </c>
       <c r="C37" s="17">
         <f>mtl_newcases!B38</f>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -13497,11 +13743,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>9868</v>
+        <v>9876</v>
       </c>
       <c r="C38" s="17">
         <f>mtl_newcases!B39</f>
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -13664,11 +13910,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10166</v>
+        <v>10205</v>
       </c>
       <c r="C39" s="17">
         <f>mtl_newcases!B40</f>
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -13823,6 +14069,340 @@
       <c r="AR39" s="3">
         <f t="shared" ref="AR39" si="332">X39*100/SUM($O39:$X39)</f>
         <v>39.31168301512087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A40" s="19">
+        <v>43943</v>
+      </c>
+      <c r="B40" s="17">
+        <f>mtl_newcases!C41</f>
+        <v>10660</v>
+      </c>
+      <c r="C40" s="17">
+        <f>mtl_newcases!B41</f>
+        <v>455</v>
+      </c>
+      <c r="D40">
+        <v>808</v>
+      </c>
+      <c r="E40" cm="1">
+        <f t="array" ref="E40:N40">TRANSPOSE(santemontreal!Y$57:Y$66)</f>
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <v>253</v>
+      </c>
+      <c r="H40">
+        <v>1211</v>
+      </c>
+      <c r="I40">
+        <v>1427</v>
+      </c>
+      <c r="J40">
+        <v>1704</v>
+      </c>
+      <c r="K40">
+        <v>1461</v>
+      </c>
+      <c r="L40">
+        <v>969</v>
+      </c>
+      <c r="M40">
+        <v>890</v>
+      </c>
+      <c r="N40">
+        <v>2319</v>
+      </c>
+      <c r="O40" s="18">
+        <f>E40/(age_distribution_2016!$B$2/100000)</f>
+        <v>61.053398942956079</v>
+      </c>
+      <c r="P40" s="18">
+        <f>F40/(age_distribution_2016!$B$3/100000)</f>
+        <v>48.857594481965805</v>
+      </c>
+      <c r="Q40" s="18">
+        <f>G40/(age_distribution_2016!$B$4/100000)</f>
+        <v>134.44217126763556</v>
+      </c>
+      <c r="R40" s="18">
+        <f>H40/(age_distribution_2016!$B$5/100000)</f>
+        <v>412.99343507545404</v>
+      </c>
+      <c r="S40" s="18">
+        <f>I40/(age_distribution_2016!$B$6/100000)</f>
+        <v>476.18253107533161</v>
+      </c>
+      <c r="T40" s="18">
+        <f>J40/(age_distribution_2016!$B$7/100000)</f>
+        <v>669.61391099322134</v>
+      </c>
+      <c r="U40" s="18">
+        <f>K40/(age_distribution_2016!$B$8/100000)</f>
+        <v>564.36504104297444</v>
+      </c>
+      <c r="V40" s="18">
+        <f>L40/(age_distribution_2016!$B$9/100000)</f>
+        <v>472.67139825857902</v>
+      </c>
+      <c r="W40" s="18">
+        <f>M40/(age_distribution_2016!$B$10/100000)</f>
+        <v>686.30475015422576</v>
+      </c>
+      <c r="X40" s="18">
+        <f>N40/(age_distribution_2016!$B$11/100000)</f>
+        <v>2347.0472142098074</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" ref="Y40:Y41" si="333">E40*100/SUM($E40:$N40)</f>
+        <v>0.64721792890262753</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" ref="Z40:Z41" si="334">F40*100/SUM($E40:$N40)</f>
+        <v>0.49265842349304484</v>
+      </c>
+      <c r="AA40" s="3">
+        <f t="shared" ref="AA40:AA41" si="335">G40*100/SUM($E40:$N40)</f>
+        <v>2.4439721792890263</v>
+      </c>
+      <c r="AB40" s="3">
+        <f t="shared" ref="AB40:AB41" si="336">H40*100/SUM($E40:$N40)</f>
+        <v>11.698222565687789</v>
+      </c>
+      <c r="AC40" s="3">
+        <f t="shared" ref="AC40:AC41" si="337">I40*100/SUM($E40:$N40)</f>
+        <v>13.784775888717157</v>
+      </c>
+      <c r="AD40" s="3">
+        <f t="shared" ref="AD40:AD41" si="338">J40*100/SUM($E40:$N40)</f>
+        <v>16.460587326120557</v>
+      </c>
+      <c r="AE40" s="3">
+        <f t="shared" ref="AE40:AE41" si="339">K40*100/SUM($E40:$N40)</f>
+        <v>14.113214837712519</v>
+      </c>
+      <c r="AF40" s="3">
+        <f t="shared" ref="AF40:AF41" si="340">L40*100/SUM($E40:$N40)</f>
+        <v>9.3605100463678514</v>
+      </c>
+      <c r="AG40" s="3">
+        <f t="shared" ref="AG40:AG41" si="341">M40*100/SUM($E40:$N40)</f>
+        <v>8.5973724884080376</v>
+      </c>
+      <c r="AH40" s="3">
+        <f t="shared" ref="AH40:AH41" si="342">N40*100/SUM($E40:$N40)</f>
+        <v>22.40146831530139</v>
+      </c>
+      <c r="AI40" s="3">
+        <f t="shared" ref="AI40:AI41" si="343">O40*100/SUM($O40:$X40)</f>
+        <v>1.0394666225837563</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f t="shared" ref="AJ40:AJ41" si="344">P40*100/SUM($O40:$X40)</f>
+        <v>0.83182655843921827</v>
+      </c>
+      <c r="AK40" s="3">
+        <f t="shared" ref="AK40:AK41" si="345">Q40*100/SUM($O40:$X40)</f>
+        <v>2.2889495444957406</v>
+      </c>
+      <c r="AL40" s="3">
+        <f t="shared" ref="AL40:AL41" si="346">R40*100/SUM($O40:$X40)</f>
+        <v>7.0314331149400298</v>
+      </c>
+      <c r="AM40" s="3">
+        <f t="shared" ref="AM40:AM41" si="347">S40*100/SUM($O40:$X40)</f>
+        <v>8.1072611169892355</v>
+      </c>
+      <c r="AN40" s="3">
+        <f t="shared" ref="AN40:AN41" si="348">T40*100/SUM($O40:$X40)</f>
+        <v>11.400533345335202</v>
+      </c>
+      <c r="AO40" s="3">
+        <f t="shared" ref="AO40:AO41" si="349">U40*100/SUM($O40:$X40)</f>
+        <v>9.6086152986404016</v>
+      </c>
+      <c r="AP40" s="3">
+        <f t="shared" ref="AP40:AP41" si="350">V40*100/SUM($O40:$X40)</f>
+        <v>8.0474822114137581</v>
+      </c>
+      <c r="AQ40" s="3">
+        <f t="shared" ref="AQ40:AQ41" si="351">W40*100/SUM($O40:$X40)</f>
+        <v>11.684703768459197</v>
+      </c>
+      <c r="AR40" s="3">
+        <f t="shared" ref="AR40:AR41" si="352">X40*100/SUM($O40:$X40)</f>
+        <v>39.959728418703463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A41" s="19">
+        <v>43944</v>
+      </c>
+      <c r="B41" s="17">
+        <f>mtl_newcases!C42</f>
+        <v>10897</v>
+      </c>
+      <c r="C41" s="17">
+        <f>mtl_newcases!B42</f>
+        <v>237</v>
+      </c>
+      <c r="D41">
+        <v>809</v>
+      </c>
+      <c r="E41" cm="1">
+        <f t="array" ref="E41:N41">TRANSPOSE(santemontreal!Z$57:Z$66)</f>
+        <v>74</v>
+      </c>
+      <c r="F41">
+        <v>52</v>
+      </c>
+      <c r="G41">
+        <v>264</v>
+      </c>
+      <c r="H41">
+        <v>1262</v>
+      </c>
+      <c r="I41">
+        <v>1472</v>
+      </c>
+      <c r="J41">
+        <v>1766</v>
+      </c>
+      <c r="K41">
+        <v>1535</v>
+      </c>
+      <c r="L41">
+        <v>1021</v>
+      </c>
+      <c r="M41">
+        <v>951</v>
+      </c>
+      <c r="N41">
+        <v>2475</v>
+      </c>
+      <c r="O41" s="18">
+        <f>E41/(age_distribution_2016!$B$2/100000)</f>
+        <v>67.432112265354476</v>
+      </c>
+      <c r="P41" s="18">
+        <f>F41/(age_distribution_2016!$B$3/100000)</f>
+        <v>49.815586530631798</v>
+      </c>
+      <c r="Q41" s="18">
+        <f>G41/(age_distribution_2016!$B$4/100000)</f>
+        <v>140.28748306188061</v>
+      </c>
+      <c r="R41" s="18">
+        <f>H41/(age_distribution_2016!$B$5/100000)</f>
+        <v>430.38622218432948</v>
+      </c>
+      <c r="S41" s="18">
+        <f>I41/(age_distribution_2016!$B$6/100000)</f>
+        <v>491.19879869859011</v>
+      </c>
+      <c r="T41" s="18">
+        <f>J41/(age_distribution_2016!$B$7/100000)</f>
+        <v>693.97779742607327</v>
+      </c>
+      <c r="U41" s="18">
+        <f>K41/(age_distribution_2016!$B$8/100000)</f>
+        <v>592.95026557218728</v>
+      </c>
+      <c r="V41" s="18">
+        <f>L41/(age_distribution_2016!$B$9/100000)</f>
+        <v>498.03663325284748</v>
+      </c>
+      <c r="W41" s="18">
+        <f>M41/(age_distribution_2016!$B$10/100000)</f>
+        <v>733.3436150524368</v>
+      </c>
+      <c r="X41" s="18">
+        <f>N41/(age_distribution_2016!$B$11/100000)</f>
+        <v>2504.9339608319419</v>
+      </c>
+      <c r="Y41" s="3">
+        <f t="shared" si="333"/>
+        <v>0.68064753495217067</v>
+      </c>
+      <c r="Z41" s="3">
+        <f t="shared" si="334"/>
+        <v>0.47829286239882268</v>
+      </c>
+      <c r="AA41" s="3">
+        <f t="shared" si="335"/>
+        <v>2.4282560706401766</v>
+      </c>
+      <c r="AB41" s="3">
+        <f t="shared" si="336"/>
+        <v>11.607799852832965</v>
+      </c>
+      <c r="AC41" s="3">
+        <f t="shared" si="337"/>
+        <v>13.539367181751288</v>
+      </c>
+      <c r="AD41" s="3">
+        <f t="shared" si="338"/>
+        <v>16.243561442236938</v>
+      </c>
+      <c r="AE41" s="3">
+        <f t="shared" si="339"/>
+        <v>14.118837380426784</v>
+      </c>
+      <c r="AF41" s="3">
+        <f t="shared" si="340"/>
+        <v>9.3910963944076524</v>
+      </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="341"/>
+        <v>8.7472406181015447</v>
+      </c>
+      <c r="AH41" s="3">
+        <f t="shared" si="342"/>
+        <v>22.764900662251655</v>
+      </c>
+      <c r="AI41" s="3">
+        <f t="shared" si="343"/>
+        <v>1.0872004423878765</v>
+      </c>
+      <c r="AJ41" s="3">
+        <f t="shared" si="344"/>
+        <v>0.8031711582871579</v>
+      </c>
+      <c r="AK41" s="3">
+        <f t="shared" si="345"/>
+        <v>2.2618394785880218</v>
+      </c>
+      <c r="AL41" s="3">
+        <f t="shared" si="346"/>
+        <v>6.9390691680417298</v>
+      </c>
+      <c r="AM41" s="3">
+        <f t="shared" si="347"/>
+        <v>7.9195435721190854</v>
+      </c>
+      <c r="AN41" s="3">
+        <f t="shared" si="348"/>
+        <v>11.188926803893656</v>
+      </c>
+      <c r="AO41" s="3">
+        <f t="shared" si="349"/>
+        <v>9.560071149888989</v>
+      </c>
+      <c r="AP41" s="3">
+        <f t="shared" si="350"/>
+        <v>8.0297892177412997</v>
+      </c>
+      <c r="AQ41" s="3">
+        <f t="shared" si="351"/>
+        <v>11.823617500959838</v>
+      </c>
+      <c r="AR41" s="3">
+        <f t="shared" si="352"/>
+        <v>40.386771508092345</v>
       </c>
     </row>
   </sheetData>
@@ -13832,11 +14412,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15045,6 +15625,29 @@
         <v>4484</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B53">
+        <v>22616</v>
+      </c>
+      <c r="C53">
+        <v>1340</v>
+      </c>
+      <c r="D53">
+        <v>1460</v>
+      </c>
+      <c r="E53">
+        <v>227</v>
+      </c>
+      <c r="F53">
+        <v>163016</v>
+      </c>
+      <c r="G53">
+        <v>4724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15052,11 +15655,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15467,11 +16070,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5052</v>
+        <v>5053</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -15481,7 +16084,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -15493,7 +16096,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -15503,7 +16106,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -15515,7 +16118,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -15525,7 +16128,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -15537,7 +16140,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5980</v>
+        <v>5981</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -15547,7 +16150,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -15559,7 +16162,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6187</v>
+        <v>6188</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -15569,7 +16172,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -15581,7 +16184,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6503</v>
+        <v>6504</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -15591,7 +16194,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -15603,7 +16206,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>7051</v>
+        <v>7052</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -15613,7 +16216,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -15621,11 +16224,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7481</v>
+        <v>7480</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -15635,7 +16238,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -15643,11 +16246,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7978</v>
+        <v>7982</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -15657,7 +16260,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -15665,11 +16268,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8327</v>
+        <v>8334</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -15679,7 +16282,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -15687,11 +16290,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8849</v>
+        <v>8860</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -15701,7 +16304,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -15713,7 +16316,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9094</v>
+        <v>9105</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -15723,7 +16326,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -15731,11 +16334,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9433</v>
+        <v>9442</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -15745,7 +16348,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -15753,11 +16356,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>9868</v>
+        <v>9876</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -15767,7 +16370,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -15775,11 +16378,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10166</v>
+        <v>10205</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -15789,7 +16392,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>310</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -15797,11 +16400,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>209</v>
+        <v>455</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41" si="13">C40+B41</f>
-        <v>10375</v>
+        <f t="shared" ref="C41:C42" si="13">C40+B41</f>
+        <v>10660</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -15811,6 +16414,28 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
+        <v>43944</v>
+      </c>
+      <c r="B42">
+        <v>237</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="13"/>
+        <v>10897</v>
+      </c>
+      <c r="E42" s="19">
+        <v>43944</v>
+      </c>
+      <c r="F42">
+        <v>10897</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42" si="15">C42-F42</f>
         <v>0</v>
       </c>
     </row>
@@ -15824,9 +16449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2:Y35"/>
+      <selection pane="topRight" activeCell="Z35" sqref="Z2:Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15911,9 +16536,11 @@
         <v>284</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z1" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -16181,7 +16808,9 @@
       <c r="Y2" s="7">
         <v>835</v>
       </c>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="7">
+        <v>879</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -16449,7 +17078,9 @@
       <c r="Y3" s="9">
         <v>188</v>
       </c>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="9">
+        <v>214</v>
+      </c>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -16717,7 +17348,9 @@
       <c r="Y4" s="7">
         <v>5</v>
       </c>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="7">
+        <v>6</v>
+      </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -16985,7 +17618,9 @@
       <c r="Y5" s="9">
         <v>17</v>
       </c>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="9">
+        <v>20</v>
+      </c>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -17253,7 +17888,9 @@
       <c r="Y6" s="7">
         <v>987</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7">
+        <v>1035</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -17521,7 +18158,9 @@
       <c r="Y7" s="9">
         <v>325</v>
       </c>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="9">
+        <v>328</v>
+      </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -17789,7 +18428,9 @@
       <c r="Y8" s="7">
         <v>109</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="7">
+        <v>117</v>
+      </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -18057,7 +18698,9 @@
       <c r="Y9" s="9">
         <v>62</v>
       </c>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="9">
+        <v>71</v>
+      </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
@@ -18325,7 +18968,9 @@
       <c r="Y10" s="7">
         <v>33</v>
       </c>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="7">
+        <v>33</v>
+      </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
@@ -18593,7 +19238,9 @@
       <c r="Y11" s="9">
         <v>26</v>
       </c>
-      <c r="Z11" s="9"/>
+      <c r="Z11" s="9">
+        <v>29</v>
+      </c>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
@@ -18861,7 +19508,9 @@
       <c r="Y12" s="7">
         <v>126</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="7">
+        <v>129</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
@@ -19129,7 +19778,9 @@
       <c r="Y13" s="9">
         <v>425</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="9">
+        <v>428</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -19397,7 +20048,9 @@
       <c r="Y14" s="7">
         <v>45</v>
       </c>
-      <c r="Z14" s="7"/>
+      <c r="Z14" s="7">
+        <v>52</v>
+      </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
@@ -19665,7 +20318,9 @@
       <c r="Y15" s="9">
         <v>618</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="9">
+        <v>671</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -19933,7 +20588,9 @@
       <c r="Y16" s="7">
         <v>13</v>
       </c>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7">
+        <v>14</v>
+      </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
@@ -20201,7 +20858,9 @@
       <c r="Y17" s="9">
         <v>839</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="9">
+        <v>891</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -20469,7 +21128,9 @@
       <c r="Y18" s="7">
         <v>7</v>
       </c>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>7</v>
+      </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -20737,7 +21398,9 @@
       <c r="Y19" s="9">
         <v>87</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="9">
+        <v>93</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -21005,7 +21668,9 @@
       <c r="Y20" s="7">
         <v>170</v>
       </c>
-      <c r="Z20" s="7"/>
+      <c r="Z20" s="7">
+        <v>170</v>
+      </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
@@ -21273,7 +21938,9 @@
       <c r="Y21" s="9">
         <v>127</v>
       </c>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="9">
+        <v>138</v>
+      </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -21541,7 +22208,9 @@
       <c r="Y22" s="7">
         <v>401</v>
       </c>
-      <c r="Z22" s="7"/>
+      <c r="Z22" s="7">
+        <v>416</v>
+      </c>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
@@ -21809,7 +22478,9 @@
       <c r="Y23" s="9">
         <v>52</v>
       </c>
-      <c r="Z23" s="9"/>
+      <c r="Z23" s="9">
+        <v>59</v>
+      </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -22077,7 +22748,9 @@
       <c r="Y24" s="7">
         <v>647</v>
       </c>
-      <c r="Z24" s="7"/>
+      <c r="Z24" s="7">
+        <v>708</v>
+      </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
@@ -22345,7 +23018,9 @@
       <c r="Y25" s="9">
         <v>527</v>
       </c>
-      <c r="Z25" s="9"/>
+      <c r="Z25" s="9">
+        <v>552</v>
+      </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -22613,7 +23288,9 @@
       <c r="Y26" s="7">
         <v>7</v>
       </c>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="7">
+        <v>7</v>
+      </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
@@ -22881,7 +23558,9 @@
       <c r="Y27" s="9">
         <v>340</v>
       </c>
-      <c r="Z27" s="9"/>
+      <c r="Z27" s="9">
+        <v>354</v>
+      </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -23149,7 +23828,9 @@
       <c r="Y28" s="7">
         <v>394</v>
       </c>
-      <c r="Z28" s="7"/>
+      <c r="Z28" s="7">
+        <v>418</v>
+      </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
@@ -23417,7 +24098,9 @@
       <c r="Y29" s="20">
         <v>2</v>
       </c>
-      <c r="Z29" s="22"/>
+      <c r="Z29" s="20">
+        <v>2</v>
+      </c>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="22"/>
@@ -23685,7 +24368,9 @@
       <c r="Y30" s="7">
         <v>427</v>
       </c>
-      <c r="Z30" s="7"/>
+      <c r="Z30" s="7">
+        <v>448</v>
+      </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
@@ -23953,7 +24638,9 @@
       <c r="Y31" s="9">
         <v>505</v>
       </c>
-      <c r="Z31" s="9"/>
+      <c r="Z31" s="9">
+        <v>518</v>
+      </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -24221,7 +24908,9 @@
       <c r="Y32" s="7">
         <v>302</v>
       </c>
-      <c r="Z32" s="7"/>
+      <c r="Z32" s="7">
+        <v>321</v>
+      </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
@@ -24489,7 +25178,9 @@
       <c r="Y33" s="9">
         <v>660</v>
       </c>
-      <c r="Z33" s="9"/>
+      <c r="Z33" s="9">
+        <v>701</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
@@ -24757,7 +25448,9 @@
       <c r="Y34" s="7">
         <v>77</v>
       </c>
-      <c r="Z34" s="7"/>
+      <c r="Z34" s="7">
+        <v>84</v>
+      </c>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
@@ -25025,7 +25718,9 @@
       <c r="Y35" s="9">
         <v>990</v>
       </c>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="9">
+        <v>984</v>
+      </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -25293,7 +25988,9 @@
       <c r="Y36" s="11">
         <v>10375</v>
       </c>
-      <c r="Z36" s="11"/>
+      <c r="Z36" s="11">
+        <v>10897</v>
+      </c>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
@@ -29494,9 +30191,11 @@
         <v>284</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z56" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="Z56" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -29762,7 +30461,9 @@
       <c r="Y57" s="7">
         <v>67</v>
       </c>
-      <c r="Z57" s="7"/>
+      <c r="Z57" s="7">
+        <v>74</v>
+      </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
@@ -30028,7 +30729,9 @@
       <c r="Y58" s="9">
         <v>51</v>
       </c>
-      <c r="Z58" s="9"/>
+      <c r="Z58" s="9">
+        <v>52</v>
+      </c>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
@@ -30294,7 +30997,9 @@
       <c r="Y59" s="7">
         <v>253</v>
       </c>
-      <c r="Z59" s="7"/>
+      <c r="Z59" s="7">
+        <v>264</v>
+      </c>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
@@ -30560,7 +31265,9 @@
       <c r="Y60" s="9">
         <v>1211</v>
       </c>
-      <c r="Z60" s="9"/>
+      <c r="Z60" s="9">
+        <v>1262</v>
+      </c>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -30826,7 +31533,9 @@
       <c r="Y61" s="7">
         <v>1427</v>
       </c>
-      <c r="Z61" s="7"/>
+      <c r="Z61" s="7">
+        <v>1472</v>
+      </c>
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
       <c r="AC61" s="7"/>
@@ -31092,7 +31801,9 @@
       <c r="Y62" s="9">
         <v>1704</v>
       </c>
-      <c r="Z62" s="9"/>
+      <c r="Z62" s="9">
+        <v>1766</v>
+      </c>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -31358,7 +32069,9 @@
       <c r="Y63" s="7">
         <v>1461</v>
       </c>
-      <c r="Z63" s="7"/>
+      <c r="Z63" s="7">
+        <v>1535</v>
+      </c>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -31624,7 +32337,9 @@
       <c r="Y64" s="9">
         <v>969</v>
       </c>
-      <c r="Z64" s="9"/>
+      <c r="Z64" s="9">
+        <v>1021</v>
+      </c>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -31890,7 +32605,9 @@
       <c r="Y65" s="7">
         <v>890</v>
       </c>
-      <c r="Z65" s="7"/>
+      <c r="Z65" s="7">
+        <v>951</v>
+      </c>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
@@ -32156,7 +32873,9 @@
       <c r="Y66" s="9">
         <v>2319</v>
       </c>
-      <c r="Z66" s="9"/>
+      <c r="Z66" s="9">
+        <v>2475</v>
+      </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -32422,7 +33141,9 @@
       <c r="Y67" s="7">
         <v>23</v>
       </c>
-      <c r="Z67" s="7"/>
+      <c r="Z67" s="7">
+        <v>25</v>
+      </c>
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
@@ -32688,7 +33409,9 @@
       <c r="Y68" s="15">
         <v>10375</v>
       </c>
-      <c r="Z68" s="15"/>
+      <c r="Z68" s="15">
+        <v>10897</v>
+      </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
       <c r="AC68" s="15"/>
@@ -32956,6 +33679,9 @@
       <c r="Y70">
         <v>741</v>
       </c>
+      <c r="Z70">
+        <v>808</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -33008,13 +33734,13 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -33022,13 +33748,13 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -33036,13 +33762,13 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
         <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -33050,10 +33776,10 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
         <v>293</v>
-      </c>
-      <c r="C7" t="s">
-        <v>285</v>
       </c>
       <c r="D7" t="s">
         <v>294</v>
@@ -33105,14 +33831,14 @@
       <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11">
-        <v>969</v>
+      <c r="B11" t="s">
+        <v>303</v>
       </c>
       <c r="C11" t="s">
         <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -33120,13 +33846,13 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>890</v>
+        <v>951</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -33134,13 +33860,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -33148,7 +33874,7 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>235</v>
@@ -33162,7 +33888,7 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
         <v>235</v>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610BC91-DDCB-44DF-ABA2-1CFDA221C2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274424C9-DCD3-4086-B49D-024B09416CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19510" yWindow="5220" windowWidth="21890" windowHeight="15390" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="16430" yWindow="5820" windowWidth="20630" windowHeight="13370" tabRatio="512" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="300">
   <si>
     <t>borough</t>
   </si>
@@ -625,15 +625,6 @@
     <t>new_cases_mtl</t>
   </si>
   <si>
-    <t>TAUX POUR</t>
-  </si>
-  <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>PERSONNES</t>
-  </si>
-  <si>
     <t>179,7</t>
   </si>
   <si>
@@ -758,12 +749,6 @@
   </si>
   <si>
     <t>139,2</t>
-  </si>
-  <si>
-    <t>TOTAL DE CAS CONFIRMÉS¹</t>
-  </si>
-  <si>
-    <t>RÉPARTITION DES CAS (%)</t>
   </si>
   <si>
     <t>280,4</t>
@@ -913,19 +898,10 @@
     <t>18 AVRIL, 17H15</t>
   </si>
   <si>
-    <t>0,5</t>
-  </si>
-  <si>
     <t>19 AVRIL, 17H15</t>
   </si>
   <si>
     <t>20 AVRIL, 17H15</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>9,4</t>
   </si>
   <si>
     <t>21 AVRIL, 17H15</t>
@@ -937,76 +913,67 @@
     <t>23 AVRIL, 17H45</t>
   </si>
   <si>
-    <t> 0,7</t>
+    <t>540,3</t>
   </si>
   <si>
-    <t>527,5</t>
+    <t>25AVRIL, 05h05</t>
   </si>
   <si>
-    <t>66,7</t>
+    <t> 0,8</t>
   </si>
   <si>
-    <t>48,2</t>
+    <t>83,9</t>
   </si>
   <si>
-    <t>132,7</t>
+    <t>0,7</t>
   </si>
   <si>
-    <t>1 262</t>
+    <t>70,4</t>
   </si>
   <si>
-    <t>11,6</t>
+    <t>3,0</t>
   </si>
   <si>
-    <t>391,8</t>
+    <t>164,9</t>
   </si>
   <si>
-    <t>1 472</t>
+    <t>11,3</t>
   </si>
   <si>
-    <t>13,5</t>
+    <t>390,2</t>
   </si>
   <si>
-    <t>448,0</t>
+    <t>13,3</t>
   </si>
   <si>
-    <t>1 766</t>
+    <t>449,0</t>
   </si>
   <si>
-    <t>16,2</t>
+    <t>15,3</t>
   </si>
   <si>
-    <t>634,5</t>
+    <t>611,8</t>
   </si>
   <si>
-    <t>1 535</t>
+    <t>575,8</t>
   </si>
   <si>
-    <t>598,0</t>
+    <t>9,2</t>
   </si>
   <si>
-    <t>1 021</t>
+    <t>471,9</t>
   </si>
   <si>
-    <t>471,5</t>
+    <t>9,1</t>
   </si>
   <si>
-    <t>8,7</t>
+    <t>700,1</t>
   </si>
   <si>
-    <t>657,2</t>
+    <t>24,0</t>
   </si>
   <si>
-    <t>2 475</t>
-  </si>
-  <si>
-    <t>22,8</t>
-  </si>
-  <si>
-    <t>2 449,5</t>
-  </si>
-  <si>
-    <t>10 897</t>
+    <t>2 639,5</t>
   </si>
 </sst>
 </file>
@@ -1519,20 +1486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="27" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1614,8 +1581,11 @@
       <c r="AA1" s="1">
         <v>43944</v>
       </c>
+      <c r="AB1" s="1">
+        <v>43945</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1697,8 +1667,11 @@
       <c r="AA2">
         <v>879</v>
       </c>
+      <c r="AB2">
+        <v>946</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1780,8 +1753,11 @@
       <c r="AA3">
         <v>214</v>
       </c>
+      <c r="AB3">
+        <v>239</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1863,8 +1839,11 @@
       <c r="AA4">
         <v>6</v>
       </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1946,8 +1925,11 @@
       <c r="AA5">
         <v>20</v>
       </c>
+      <c r="AB5">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2029,8 +2011,11 @@
       <c r="AA6">
         <v>1035</v>
       </c>
+      <c r="AB6">
+        <v>1053</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2112,8 +2097,11 @@
       <c r="AA7">
         <v>328</v>
       </c>
+      <c r="AB7">
+        <v>330</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2195,8 +2183,11 @@
       <c r="AA8">
         <v>117</v>
       </c>
+      <c r="AB8">
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2278,8 +2269,11 @@
       <c r="AA9">
         <v>71</v>
       </c>
+      <c r="AB9">
+        <v>73</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2361,8 +2355,11 @@
       <c r="AA10">
         <v>33</v>
       </c>
+      <c r="AB10">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2444,8 +2441,11 @@
       <c r="AA11">
         <v>29</v>
       </c>
+      <c r="AB11">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2527,8 +2527,11 @@
       <c r="AA12">
         <v>129</v>
       </c>
+      <c r="AB12">
+        <v>146</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2610,8 +2613,11 @@
       <c r="AA13">
         <v>428</v>
       </c>
+      <c r="AB13">
+        <v>469</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2693,8 +2699,11 @@
       <c r="AA14">
         <v>52</v>
       </c>
+      <c r="AB14">
+        <v>49</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2776,8 +2785,11 @@
       <c r="AA15">
         <v>671</v>
       </c>
+      <c r="AB15">
+        <v>761</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2859,8 +2871,11 @@
       <c r="AA16">
         <v>14</v>
       </c>
+      <c r="AB16">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2942,8 +2957,11 @@
       <c r="AA17">
         <v>891</v>
       </c>
+      <c r="AB17">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3025,8 +3043,11 @@
       <c r="AA18">
         <v>7</v>
       </c>
+      <c r="AB18">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3108,8 +3129,11 @@
       <c r="AA19">
         <v>93</v>
       </c>
+      <c r="AB19">
+        <v>91</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3191,8 +3215,11 @@
       <c r="AA20">
         <v>170</v>
       </c>
+      <c r="AB20">
+        <v>182</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3274,8 +3301,11 @@
       <c r="AA21">
         <v>138</v>
       </c>
+      <c r="AB21">
+        <v>147</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3357,8 +3387,11 @@
       <c r="AA22">
         <v>416</v>
       </c>
+      <c r="AB22">
+        <v>435</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3440,8 +3473,11 @@
       <c r="AA23">
         <v>59</v>
       </c>
+      <c r="AB23">
+        <v>63</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3523,8 +3559,11 @@
       <c r="AA24">
         <v>708</v>
       </c>
+      <c r="AB24">
+        <v>775</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3606,8 +3645,11 @@
       <c r="AA25">
         <v>552</v>
       </c>
+      <c r="AB25">
+        <v>574</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3689,8 +3731,11 @@
       <c r="AA26">
         <v>7</v>
       </c>
+      <c r="AB26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3772,8 +3817,11 @@
       <c r="AA27">
         <v>354</v>
       </c>
+      <c r="AB27">
+        <v>398</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3855,8 +3903,11 @@
       <c r="AA28">
         <v>418</v>
       </c>
+      <c r="AB28">
+        <v>438</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -3938,8 +3989,11 @@
       <c r="AA29">
         <v>2</v>
       </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4021,8 +4075,11 @@
       <c r="AA30">
         <v>448</v>
       </c>
+      <c r="AB30">
+        <v>469</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4104,8 +4161,11 @@
       <c r="AA31">
         <v>518</v>
       </c>
+      <c r="AB31">
+        <v>515</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4187,8 +4247,11 @@
       <c r="AA32">
         <v>321</v>
       </c>
+      <c r="AB32">
+        <v>305</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4270,8 +4333,11 @@
       <c r="AA33">
         <v>701</v>
       </c>
+      <c r="AB33">
+        <v>798</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4353,8 +4419,11 @@
       <c r="AA34">
         <v>84</v>
       </c>
+      <c r="AB34">
+        <v>90</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4435,6 +4504,9 @@
       </c>
       <c r="AA35">
         <v>984</v>
+      </c>
+      <c r="AB35">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4445,11 +4517,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA34" sqref="AA34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4457,9 +4529,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4562,8 +4635,11 @@
       <c r="AA1" s="1">
         <v>43944</v>
       </c>
+      <c r="AB1" s="1">
+        <v>43945</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4669,8 +4745,12 @@
         <f>cases!AA2/(population_2016!$B2/1000)</f>
         <v>6.5477298968304218</v>
       </c>
+      <c r="AB2" s="3">
+        <f>cases!AB2/(population_2016!$B2/1000)</f>
+        <v>7.0468173861223882</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4776,8 +4856,12 @@
         <f>cases!AA3/(population_2016!$B3/1000)</f>
         <v>5.0004673333956449</v>
       </c>
+      <c r="AB3" s="3">
+        <f>cases!AB3/(population_2016!$B3/1000)</f>
+        <v>5.5846340779512103</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4883,8 +4967,12 @@
         <f>cases!AA4/(population_2016!$B4/1000)</f>
         <v>1.5694480774261053</v>
       </c>
+      <c r="AB4" s="3">
+        <f>cases!AB4/(population_2016!$B4/1000)</f>
+        <v>1.5694480774261053</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -4990,8 +5078,12 @@
         <f>cases!AA5/(population_2016!$B5/1000)</f>
         <v>1.0349824052991099</v>
       </c>
+      <c r="AB5" s="3">
+        <f>cases!AB5/(population_2016!$B5/1000)</f>
+        <v>1.2419788863589318</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5097,8 +5189,12 @@
         <f>cases!AA6/(population_2016!$B6/1000)</f>
         <v>6.2154696132596685</v>
       </c>
+      <c r="AB6" s="3">
+        <f>cases!AB6/(population_2016!$B6/1000)</f>
+        <v>6.3235647369685317</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -5204,8 +5300,12 @@
         <f>cases!AA7/(population_2016!$B7/1000)</f>
         <v>10.108481262327416</v>
       </c>
+      <c r="AB7" s="3">
+        <f>cases!AB7/(population_2016!$B7/1000)</f>
+        <v>10.170118343195266</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5311,8 +5411,12 @@
         <f>cases!AA8/(population_2016!$B8/1000)</f>
         <v>2.3926869670136401</v>
       </c>
+      <c r="AB8" s="3">
+        <f>cases!AB8/(population_2016!$B8/1000)</f>
+        <v>2.5767398106300741</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5418,8 +5522,12 @@
         <f>cases!AA9/(population_2016!$B9/1000)</f>
         <v>3.7407797681770285</v>
       </c>
+      <c r="AB9" s="3">
+        <f>cases!AB9/(population_2016!$B9/1000)</f>
+        <v>3.8461538461538463</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5525,8 +5633,12 @@
         <f>cases!AA10/(population_2016!$B10/1000)</f>
         <v>4.7325397963573783</v>
       </c>
+      <c r="AB10" s="3">
+        <f>cases!AB10/(population_2016!$B10/1000)</f>
+        <v>5.3061809837946363</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5632,8 +5744,12 @@
         <f>cases!AA11/(population_2016!$B11/1000)</f>
         <v>1.4391345342662896</v>
       </c>
+      <c r="AB11" s="3">
+        <f>cases!AB11/(population_2016!$B11/1000)</f>
+        <v>1.2406332191950771</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5739,8 +5855,12 @@
         <f>cases!AA12/(population_2016!$B12/1000)</f>
         <v>2.8995931578592464</v>
       </c>
+      <c r="AB12" s="3">
+        <f>cases!AB12/(population_2016!$B12/1000)</f>
+        <v>3.2817100856391468</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5846,8 +5966,12 @@
         <f>cases!AA13/(population_2016!$B13/1000)</f>
         <v>5.5690734258909869</v>
       </c>
+      <c r="AB13" s="3">
+        <f>cases!AB13/(population_2016!$B13/1000)</f>
+        <v>6.1025594316422263</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5953,8 +6077,12 @@
         <f>cases!AA14/(population_2016!$B14/1000)</f>
         <v>2.8240916743605062</v>
       </c>
+      <c r="AB14" s="3">
+        <f>cases!AB14/(population_2016!$B14/1000)</f>
+        <v>2.6611633085320152</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6060,8 +6188,12 @@
         <f>cases!AA15/(population_2016!$B15/1000)</f>
         <v>4.932953008292654</v>
       </c>
+      <c r="AB15" s="3">
+        <f>cases!AB15/(population_2016!$B15/1000)</f>
+        <v>5.5946009527730398</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6167,8 +6299,12 @@
         <f>cases!AA16/(population_2016!$B16/1000)</f>
         <v>3.6363636363636362</v>
       </c>
+      <c r="AB16" s="3">
+        <f>cases!AB16/(population_2016!$B16/1000)</f>
+        <v>3.8961038961038961</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6274,8 +6410,12 @@
         <f>cases!AA17/(population_2016!$B17/1000)</f>
         <v>10.57767647268324</v>
       </c>
+      <c r="AB17" s="3">
+        <f>cases!AB17/(population_2016!$B17/1000)</f>
+        <v>11.883562456965121</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -6381,8 +6521,12 @@
         <f>cases!AA18/(population_2016!$B18/1000)</f>
         <v>1.3861386138613863</v>
       </c>
+      <c r="AB18" s="3">
+        <f>cases!AB18/(population_2016!$B18/1000)</f>
+        <v>1.7821782178217822</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -6488,8 +6632,12 @@
         <f>cases!AA19/(population_2016!$B19/1000)</f>
         <v>4.5867034918129805</v>
       </c>
+      <c r="AB19" s="3">
+        <f>cases!AB19/(population_2016!$B19/1000)</f>
+        <v>4.4880647070428097</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6595,8 +6743,12 @@
         <f>cases!AA20/(population_2016!$B20/1000)</f>
         <v>7.0969357936044082</v>
       </c>
+      <c r="AB20" s="3">
+        <f>cases!AB20/(population_2016!$B20/1000)</f>
+        <v>7.5978959672706017</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6702,8 +6854,12 @@
         <f>cases!AA21/(population_2016!$B21/1000)</f>
         <v>1.9914282003549939</v>
       </c>
+      <c r="AB21" s="3">
+        <f>cases!AB21/(population_2016!$B21/1000)</f>
+        <v>2.1213039525520587</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6809,8 +6965,12 @@
         <f>cases!AA22/(population_2016!$B22/1000)</f>
         <v>4</v>
       </c>
+      <c r="AB22" s="3">
+        <f>cases!AB22/(population_2016!$B22/1000)</f>
+        <v>4.1826923076923075</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -6916,8 +7076,12 @@
         <f>cases!AA23/(population_2016!$B23/1000)</f>
         <v>1.8801784576163161</v>
       </c>
+      <c r="AB23" s="3">
+        <f>cases!AB23/(population_2016!$B23/1000)</f>
+        <v>2.0076481835564053</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7023,8 +7187,12 @@
         <f>cases!AA24/(population_2016!$B24/1000)</f>
         <v>6.6327534358224902</v>
       </c>
+      <c r="AB24" s="3">
+        <f>cases!AB24/(population_2016!$B24/1000)</f>
+        <v>7.2604292553141665</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -7130,8 +7298,12 @@
         <f>cases!AA25/(population_2016!$B25/1000)</f>
         <v>3.9544379969911883</v>
       </c>
+      <c r="AB25" s="3">
+        <f>cases!AB25/(population_2016!$B25/1000)</f>
+        <v>4.1120424099147499</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -7237,8 +7409,12 @@
         <f>cases!AA26/(population_2016!$B26/1000)</f>
         <v>1.4118596208148446</v>
       </c>
+      <c r="AB26" s="3">
+        <f>cases!AB26/(population_2016!$B26/1000)</f>
+        <v>1.6135538523598225</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -7344,8 +7520,12 @@
         <f>cases!AA27/(population_2016!$B27/1000)</f>
         <v>3.5819808151535999</v>
       </c>
+      <c r="AB27" s="3">
+        <f>cases!AB27/(population_2016!$B27/1000)</f>
+        <v>4.0271987695794715</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -7451,8 +7631,12 @@
         <f>cases!AA28/(population_2016!$B28/1000)</f>
         <v>5.3381010152608388</v>
       </c>
+      <c r="AB28" s="3">
+        <f>cases!AB28/(population_2016!$B28/1000)</f>
+        <v>5.5935125470915006</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -7558,8 +7742,12 @@
         <f>cases!AA29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AB29" s="3">
+        <f>cases!AB29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -7665,8 +7853,12 @@
         <f>cases!AA30/(population_2016!$B30/1000)</f>
         <v>5.7324922265869924</v>
       </c>
+      <c r="AB30" s="3">
+        <f>cases!AB30/(population_2016!$B30/1000)</f>
+        <v>6.0012027997082571</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7772,8 +7964,12 @@
         <f>cases!AA31/(population_2016!$B31/1000)</f>
         <v>7.4824134394545636</v>
       </c>
+      <c r="AB31" s="3">
+        <f>cases!AB31/(population_2016!$B31/1000)</f>
+        <v>7.4390789986855221</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7879,8 +8075,12 @@
         <f>cases!AA32/(population_2016!$B32/1000)</f>
         <v>3.5998654255915667</v>
       </c>
+      <c r="AB32" s="3">
+        <f>cases!AB32/(population_2016!$B32/1000)</f>
+        <v>3.4204328810137938</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7986,8 +8186,12 @@
         <f>cases!AA33/(population_2016!$B33/1000)</f>
         <v>4.8730301071232436</v>
       </c>
+      <c r="AB33" s="3">
+        <f>cases!AB33/(population_2016!$B33/1000)</f>
+        <v>5.5473295655982149</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -8092,6 +8296,10 @@
       <c r="AA34" s="3">
         <f>cases!AA34/(population_2016!$B34/1000)</f>
         <v>4.1354864119732175</v>
+      </c>
+      <c r="AB34" s="3">
+        <f>cases!AB34/(population_2016!$B34/1000)</f>
+        <v>4.4308782985427335</v>
       </c>
     </row>
   </sheetData>
@@ -8101,11 +8309,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AR41"/>
+  <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y64" sqref="Y64"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8129,7 +8337,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>145</v>
@@ -8192,64 +8400,64 @@
         <v>161</v>
       </c>
       <c r="Y1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="AP1" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ1" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR1" s="17" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8258,11 +8466,11 @@
       </c>
       <c r="B2" s="17">
         <f>mtl_newcases!C3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="17">
         <f>mtl_newcases!B3</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>102</v>
@@ -8394,7 +8602,7 @@
       </c>
       <c r="B3" s="17">
         <f>mtl_newcases!C4</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="17">
         <f>mtl_newcases!B4</f>
@@ -8530,11 +8738,11 @@
       </c>
       <c r="B4" s="17">
         <f>mtl_newcases!C5</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="17">
         <f>mtl_newcases!B5</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>102</v>
@@ -8666,11 +8874,11 @@
       </c>
       <c r="B5" s="17">
         <f>mtl_newcases!C6</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="17">
         <f>mtl_newcases!B6</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>102</v>
@@ -8806,7 +9014,7 @@
       </c>
       <c r="C6" s="17">
         <f>mtl_newcases!B7</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>102</v>
@@ -8938,11 +9146,11 @@
       </c>
       <c r="B7" s="17">
         <f>mtl_newcases!C8</f>
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C7" s="17">
         <f>mtl_newcases!B8</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>102</v>
@@ -9074,11 +9282,11 @@
       </c>
       <c r="B8" s="17">
         <f>mtl_newcases!C9</f>
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C8" s="17">
         <f>mtl_newcases!B9</f>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>102</v>
@@ -9210,11 +9418,11 @@
       </c>
       <c r="B9" s="17">
         <f>mtl_newcases!C10</f>
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C9" s="17">
         <f>mtl_newcases!B10</f>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>102</v>
@@ -9346,11 +9554,11 @@
       </c>
       <c r="B10" s="17">
         <f>mtl_newcases!C11</f>
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C10" s="17">
         <f>mtl_newcases!B11</f>
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>102</v>
@@ -9482,11 +9690,11 @@
       </c>
       <c r="B11" s="17">
         <f>mtl_newcases!C12</f>
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="C11" s="17">
         <f>mtl_newcases!B12</f>
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>102</v>
@@ -9618,11 +9826,11 @@
       </c>
       <c r="B12" s="17">
         <f>mtl_newcases!C13</f>
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="C12" s="17">
         <f>mtl_newcases!B13</f>
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>102</v>
@@ -9754,11 +9962,11 @@
       </c>
       <c r="B13" s="17">
         <f>mtl_newcases!C14</f>
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="C13" s="17">
         <f>mtl_newcases!B14</f>
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>102</v>
@@ -9890,11 +10098,11 @@
       </c>
       <c r="B14" s="17">
         <f>mtl_newcases!C15</f>
-        <v>1301</v>
+        <v>1191</v>
       </c>
       <c r="C14" s="17">
         <f>mtl_newcases!B15</f>
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>102</v>
@@ -10026,11 +10234,11 @@
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1544</v>
+        <v>1387</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>102</v>
@@ -10162,11 +10370,11 @@
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1843</v>
+        <v>1644</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>102</v>
@@ -10298,11 +10506,11 @@
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>2127</v>
+        <v>1916</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>102</v>
@@ -10434,11 +10642,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2528</v>
+        <v>2241</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -10601,11 +10809,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2837</v>
+        <v>2558</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>102</v>
@@ -10768,11 +10976,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>3248</v>
+        <v>2954</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>102</v>
@@ -10935,11 +11143,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3608</v>
+        <v>3300</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -11102,11 +11310,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3928</v>
+        <v>3639</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -11269,11 +11477,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>4190</v>
+        <v>3886</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>102</v>
@@ -11436,11 +11644,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4623</v>
+        <v>4326</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -11603,11 +11811,11 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>5053</v>
+        <v>4728</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -11770,7 +11978,7 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5402</v>
+        <v>5077</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
@@ -11937,11 +12145,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5721</v>
+        <v>5399</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -12104,11 +12312,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5981</v>
+        <v>5676</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -12271,11 +12479,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>6188</v>
+        <v>5891</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -12438,11 +12646,11 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6504</v>
+        <v>6191</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D30">
         <v>162</v>
@@ -12605,11 +12813,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>7052</v>
+        <v>6618</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
-        <v>548</v>
+        <v>427</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -12772,11 +12980,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7480</v>
+        <v>7025</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -12939,11 +13147,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7982</v>
+        <v>7616</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>502</v>
+        <v>591</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -13106,11 +13314,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8334</v>
+        <v>8011</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -13273,11 +13481,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8860</v>
+        <v>8519</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -13440,11 +13648,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>9105</v>
+        <v>8795</v>
       </c>
       <c r="C36" s="17">
         <f>mtl_newcases!B37</f>
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -13607,11 +13815,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9442</v>
+        <v>9153</v>
       </c>
       <c r="C37" s="17">
         <f>mtl_newcases!B38</f>
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -13743,11 +13951,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>9876</v>
+        <v>9558</v>
       </c>
       <c r="C38" s="17">
         <f>mtl_newcases!B39</f>
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -13910,11 +14118,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10205</v>
+        <v>9969</v>
       </c>
       <c r="C39" s="17">
         <f>mtl_newcases!B40</f>
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -14077,14 +14285,14 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>10660</v>
+        <v>10470</v>
       </c>
       <c r="C40" s="17">
         <f>mtl_newcases!B41</f>
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="D40">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" ref="E40:N40">TRANSPOSE(santemontreal!Y$57:Y$66)</f>
@@ -14244,14 +14452,14 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>10897</v>
+        <v>10891</v>
       </c>
       <c r="C41" s="17">
         <f>mtl_newcases!B42</f>
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="D41">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E41" cm="1">
         <f t="array" ref="E41:N41">TRANSPOSE(santemontreal!Z$57:Z$66)</f>
@@ -14403,6 +14611,173 @@
       <c r="AR41" s="3">
         <f t="shared" si="352"/>
         <v>40.386771508092345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
+        <v>43945</v>
+      </c>
+      <c r="B42" s="17">
+        <f>mtl_newcases!C43</f>
+        <v>11161</v>
+      </c>
+      <c r="C42" s="17">
+        <f>mtl_newcases!B43</f>
+        <v>270</v>
+      </c>
+      <c r="D42">
+        <v>895</v>
+      </c>
+      <c r="E42" cm="1">
+        <f t="array" ref="E42:N42">TRANSPOSE(santemontreal!AA$57:AA$66)</f>
+        <v>93</v>
+      </c>
+      <c r="F42">
+        <v>76</v>
+      </c>
+      <c r="G42">
+        <v>328</v>
+      </c>
+      <c r="H42">
+        <v>1257</v>
+      </c>
+      <c r="I42">
+        <v>1475</v>
+      </c>
+      <c r="J42">
+        <v>1703</v>
+      </c>
+      <c r="K42">
+        <v>1478</v>
+      </c>
+      <c r="L42">
+        <v>1022</v>
+      </c>
+      <c r="M42">
+        <v>1013</v>
+      </c>
+      <c r="N42">
+        <v>2667</v>
+      </c>
+      <c r="O42" s="18">
+        <f>E42/(age_distribution_2016!$B$2/100000)</f>
+        <v>84.745762711864415</v>
+      </c>
+      <c r="P42" s="18">
+        <f>F42/(age_distribution_2016!$B$3/100000)</f>
+        <v>72.807395698615707</v>
+      </c>
+      <c r="Q42" s="18">
+        <f>G42/(age_distribution_2016!$B$4/100000)</f>
+        <v>174.29656986476073</v>
+      </c>
+      <c r="R42" s="18">
+        <f>H42/(age_distribution_2016!$B$5/100000)</f>
+        <v>428.68104697757695</v>
+      </c>
+      <c r="S42" s="18">
+        <f>I42/(age_distribution_2016!$B$6/100000)</f>
+        <v>492.19988320680739</v>
+      </c>
+      <c r="T42" s="18">
+        <f>J42/(age_distribution_2016!$B$7/100000)</f>
+        <v>669.22094508301404</v>
+      </c>
+      <c r="U42" s="18">
+        <f>K42/(age_distribution_2016!$B$8/100000)</f>
+        <v>570.93191694833411</v>
+      </c>
+      <c r="V42" s="18">
+        <f>L42/(age_distribution_2016!$B$9/100000)</f>
+        <v>498.52442623350646</v>
+      </c>
+      <c r="W42" s="18">
+        <f>M42/(age_distribution_2016!$B$10/100000)</f>
+        <v>781.15360888340535</v>
+      </c>
+      <c r="X42" s="18">
+        <f>N42/(age_distribution_2016!$B$11/100000)</f>
+        <v>2699.2561105207228</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" ref="Y42" si="353">E42*100/SUM($E42:$N42)</f>
+        <v>0.83693304535637147</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" ref="Z42" si="354">F42*100/SUM($E42:$N42)</f>
+        <v>0.68394528437724977</v>
+      </c>
+      <c r="AA42" s="3">
+        <f t="shared" ref="AA42" si="355">G42*100/SUM($E42:$N42)</f>
+        <v>2.9517638588912889</v>
+      </c>
+      <c r="AB42" s="3">
+        <f t="shared" ref="AB42" si="356">H42*100/SUM($E42:$N42)</f>
+        <v>11.312095032397409</v>
+      </c>
+      <c r="AC42" s="3">
+        <f t="shared" ref="AC42" si="357">I42*100/SUM($E42:$N42)</f>
+        <v>13.273938084953203</v>
+      </c>
+      <c r="AD42" s="3">
+        <f t="shared" ref="AD42" si="358">J42*100/SUM($E42:$N42)</f>
+        <v>15.325773938084954</v>
+      </c>
+      <c r="AE42" s="3">
+        <f t="shared" ref="AE42" si="359">K42*100/SUM($E42:$N42)</f>
+        <v>13.300935925125989</v>
+      </c>
+      <c r="AF42" s="3">
+        <f t="shared" ref="AF42" si="360">L42*100/SUM($E42:$N42)</f>
+        <v>9.1972642188624913</v>
+      </c>
+      <c r="AG42" s="3">
+        <f t="shared" ref="AG42" si="361">M42*100/SUM($E42:$N42)</f>
+        <v>9.1162706983441328</v>
+      </c>
+      <c r="AH42" s="3">
+        <f t="shared" ref="AH42" si="362">N42*100/SUM($E42:$N42)</f>
+        <v>24.001079913606912</v>
+      </c>
+      <c r="AI42" s="3">
+        <f t="shared" ref="AI42" si="363">O42*100/SUM($O42:$X42)</f>
+        <v>1.309458440947683</v>
+      </c>
+      <c r="AJ42" s="3">
+        <f t="shared" ref="AJ42" si="364">P42*100/SUM($O42:$X42)</f>
+        <v>1.1249914545594504</v>
+      </c>
+      <c r="AK42" s="3">
+        <f t="shared" ref="AK42" si="365">Q42*100/SUM($O42:$X42)</f>
+        <v>2.6931625527241341</v>
+      </c>
+      <c r="AL42" s="3">
+        <f t="shared" ref="AL42" si="366">R42*100/SUM($O42:$X42)</f>
+        <v>6.6238121821811253</v>
+      </c>
+      <c r="AM42" s="3">
+        <f t="shared" ref="AM42" si="367">S42*100/SUM($O42:$X42)</f>
+        <v>7.6052804420436884</v>
+      </c>
+      <c r="AN42" s="3">
+        <f t="shared" ref="AN42" si="368">T42*100/SUM($O42:$X42)</f>
+        <v>10.340540781695676</v>
+      </c>
+      <c r="AO42" s="3">
+        <f t="shared" ref="AO42" si="369">U42*100/SUM($O42:$X42)</f>
+        <v>8.8218170906823641</v>
+      </c>
+      <c r="AP42" s="3">
+        <f t="shared" ref="AP42" si="370">V42*100/SUM($O42:$X42)</f>
+        <v>7.7030048118107741</v>
+      </c>
+      <c r="AQ42" s="3">
+        <f t="shared" ref="AQ42" si="371">W42*100/SUM($O42:$X42)</f>
+        <v>12.070080604583618</v>
+      </c>
+      <c r="AR42" s="3">
+        <f t="shared" ref="AR42" si="372">X42*100/SUM($O42:$X42)</f>
+        <v>41.707851638771473</v>
       </c>
     </row>
   </sheetData>
@@ -14412,11 +14787,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15648,6 +16023,29 @@
         <v>4724</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B54">
+        <v>23267</v>
+      </c>
+      <c r="C54">
+        <v>1446</v>
+      </c>
+      <c r="D54">
+        <v>1509</v>
+      </c>
+      <c r="E54">
+        <v>217</v>
+      </c>
+      <c r="F54">
+        <v>167498</v>
+      </c>
+      <c r="G54">
+        <v>5057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15655,11 +16053,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15704,11 +16102,11 @@
         <v>43905</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C27" si="0">C2+B3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -15720,7 +16118,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -15728,11 +16126,11 @@
         <v>43907</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -15740,11 +16138,11 @@
         <v>43908</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -15752,7 +16150,7 @@
         <v>43909</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -15764,11 +16162,11 @@
         <v>43910</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -15776,11 +16174,11 @@
         <v>43911</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -15788,11 +16186,11 @@
         <v>43912</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -15800,11 +16198,11 @@
         <v>43913</v>
       </c>
       <c r="B11">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -15812,11 +16210,11 @@
         <v>43914</v>
       </c>
       <c r="B12">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>634</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -15824,11 +16222,11 @@
         <v>43915</v>
       </c>
       <c r="B13">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>831</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -15836,11 +16234,11 @@
         <v>43916</v>
       </c>
       <c r="B14">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1032</v>
+        <v>947</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -15848,11 +16246,11 @@
         <v>43917</v>
       </c>
       <c r="B15">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1301</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -15860,11 +16258,11 @@
         <v>43918</v>
       </c>
       <c r="B16">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1544</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -15872,11 +16270,11 @@
         <v>43919</v>
       </c>
       <c r="B17">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1843</v>
+        <v>1644</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -15886,7 +16284,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>231</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -15894,11 +16292,11 @@
         <v>43920</v>
       </c>
       <c r="B18">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2127</v>
+        <v>1916</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -15908,7 +16306,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -15916,11 +16314,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2528</v>
+        <v>2241</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -15930,7 +16328,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>431</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -15938,11 +16336,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2837</v>
+        <v>2558</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -15952,7 +16350,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -15960,11 +16358,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3248</v>
+        <v>2954</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -15974,7 +16372,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>411</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -15982,11 +16380,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3608</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -15996,7 +16394,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>347</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -16004,11 +16402,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3928</v>
+        <v>3639</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -16018,7 +16416,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -16026,11 +16424,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4190</v>
+        <v>3886</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -16040,7 +16438,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>213</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -16048,11 +16446,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4623</v>
+        <v>4326</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -16062,7 +16460,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>216</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -16070,11 +16468,11 @@
         <v>43928</v>
       </c>
       <c r="B26">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5053</v>
+        <v>4728</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -16084,7 +16482,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>278</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -16096,7 +16494,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5402</v>
+        <v>5077</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -16106,7 +16504,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>140</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -16114,11 +16512,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5721</v>
+        <v>5399</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -16128,7 +16526,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>104</v>
+        <v>-218</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -16136,11 +16534,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5981</v>
+        <v>5676</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -16150,7 +16548,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -16158,11 +16556,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>6188</v>
+        <v>5891</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -16172,7 +16570,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>-197</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -16180,11 +16578,11 @@
         <v>43933</v>
       </c>
       <c r="B31">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6504</v>
+        <v>6191</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -16194,7 +16592,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>-202</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -16202,11 +16600,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>548</v>
+        <v>427</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>7052</v>
+        <v>6618</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -16216,7 +16614,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>424</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -16224,11 +16622,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7480</v>
+        <v>7025</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -16238,7 +16636,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>650</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -16246,11 +16644,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>502</v>
+        <v>591</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7982</v>
+        <v>7616</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -16260,7 +16658,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>701</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -16268,11 +16666,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8334</v>
+        <v>8011</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -16282,7 +16680,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>574</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -16290,11 +16688,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8860</v>
+        <v>8519</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -16304,7 +16702,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>808</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -16312,11 +16710,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>9105</v>
+        <v>8795</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -16326,7 +16724,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>648</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -16334,11 +16732,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9442</v>
+        <v>9153</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -16348,7 +16746,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>478</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -16356,11 +16754,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>9876</v>
+        <v>9558</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -16370,7 +16768,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>528</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -16378,11 +16776,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10205</v>
+        <v>9969</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -16392,7 +16790,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>349</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -16400,11 +16798,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C42" si="13">C40+B41</f>
-        <v>10660</v>
+        <f t="shared" ref="C41:C43" si="13">C40+B41</f>
+        <v>10470</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -16414,19 +16812,19 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>285</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <v>43944</v>
       </c>
-      <c r="B42">
-        <v>237</v>
+      <c r="B42" s="23">
+        <v>421</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>10897</v>
+        <v>10891</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -16435,7 +16833,29 @@
         <v>10897</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42" si="15">C42-F42</f>
+        <f t="shared" ref="G42:G43" si="15">C42-F42</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="19">
+        <v>43945</v>
+      </c>
+      <c r="B43" s="23">
+        <v>270</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="13"/>
+        <v>11161</v>
+      </c>
+      <c r="E43" s="19">
+        <v>43945</v>
+      </c>
+      <c r="F43">
+        <v>11161</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16449,9 +16869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z35" sqref="Z2:Z35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z70" sqref="Z70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16482,66 +16902,68 @@
         <v>171</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="N1" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
@@ -16811,7 +17233,9 @@
       <c r="Z2" s="7">
         <v>879</v>
       </c>
-      <c r="AA2" s="7"/>
+      <c r="AA2" s="7">
+        <v>946</v>
+      </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
@@ -17081,7 +17505,9 @@
       <c r="Z3" s="9">
         <v>214</v>
       </c>
-      <c r="AA3" s="9"/>
+      <c r="AA3" s="9">
+        <v>239</v>
+      </c>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
@@ -17351,7 +17777,9 @@
       <c r="Z4" s="7">
         <v>6</v>
       </c>
-      <c r="AA4" s="7"/>
+      <c r="AA4" s="7">
+        <v>6</v>
+      </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
@@ -17621,7 +18049,9 @@
       <c r="Z5" s="9">
         <v>20</v>
       </c>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9">
+        <v>24</v>
+      </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -17891,7 +18321,9 @@
       <c r="Z6" s="7">
         <v>1035</v>
       </c>
-      <c r="AA6" s="7"/>
+      <c r="AA6" s="7">
+        <v>1053</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -18161,7 +18593,9 @@
       <c r="Z7" s="9">
         <v>328</v>
       </c>
-      <c r="AA7" s="9"/>
+      <c r="AA7" s="9">
+        <v>330</v>
+      </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -18431,7 +18865,9 @@
       <c r="Z8" s="7">
         <v>117</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="7">
+        <v>126</v>
+      </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -18701,7 +19137,9 @@
       <c r="Z9" s="9">
         <v>71</v>
       </c>
-      <c r="AA9" s="9"/>
+      <c r="AA9" s="9">
+        <v>73</v>
+      </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
@@ -18971,7 +19409,9 @@
       <c r="Z10" s="7">
         <v>33</v>
       </c>
-      <c r="AA10" s="7"/>
+      <c r="AA10" s="7">
+        <v>37</v>
+      </c>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -19241,7 +19681,9 @@
       <c r="Z11" s="9">
         <v>29</v>
       </c>
-      <c r="AA11" s="9"/>
+      <c r="AA11" s="9">
+        <v>25</v>
+      </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -19511,7 +19953,9 @@
       <c r="Z12" s="7">
         <v>129</v>
       </c>
-      <c r="AA12" s="7"/>
+      <c r="AA12" s="7">
+        <v>146</v>
+      </c>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -19781,7 +20225,9 @@
       <c r="Z13" s="9">
         <v>428</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="9">
+        <v>469</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -20051,7 +20497,9 @@
       <c r="Z14" s="7">
         <v>52</v>
       </c>
-      <c r="AA14" s="7"/>
+      <c r="AA14" s="7">
+        <v>49</v>
+      </c>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -20321,7 +20769,9 @@
       <c r="Z15" s="9">
         <v>671</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="9">
+        <v>761</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -20591,7 +21041,9 @@
       <c r="Z16" s="7">
         <v>14</v>
       </c>
-      <c r="AA16" s="7"/>
+      <c r="AA16" s="7">
+        <v>15</v>
+      </c>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -20861,7 +21313,9 @@
       <c r="Z17" s="9">
         <v>891</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="9">
+        <v>1001</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -21131,7 +21585,9 @@
       <c r="Z18" s="7">
         <v>7</v>
       </c>
-      <c r="AA18" s="7"/>
+      <c r="AA18" s="7">
+        <v>9</v>
+      </c>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
@@ -21401,7 +21857,9 @@
       <c r="Z19" s="9">
         <v>93</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="9">
+        <v>91</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -21671,7 +22129,9 @@
       <c r="Z20" s="7">
         <v>170</v>
       </c>
-      <c r="AA20" s="7"/>
+      <c r="AA20" s="7">
+        <v>182</v>
+      </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
@@ -21941,7 +22401,9 @@
       <c r="Z21" s="9">
         <v>138</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="9">
+        <v>147</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -22211,7 +22673,9 @@
       <c r="Z22" s="7">
         <v>416</v>
       </c>
-      <c r="AA22" s="7"/>
+      <c r="AA22" s="7">
+        <v>435</v>
+      </c>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -22481,7 +22945,9 @@
       <c r="Z23" s="9">
         <v>59</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="9">
+        <v>63</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -22751,7 +23217,9 @@
       <c r="Z24" s="7">
         <v>708</v>
       </c>
-      <c r="AA24" s="7"/>
+      <c r="AA24" s="7">
+        <v>775</v>
+      </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
@@ -23021,7 +23489,9 @@
       <c r="Z25" s="9">
         <v>552</v>
       </c>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="9">
+        <v>574</v>
+      </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -23291,7 +23761,9 @@
       <c r="Z26" s="7">
         <v>7</v>
       </c>
-      <c r="AA26" s="7"/>
+      <c r="AA26" s="7">
+        <v>8</v>
+      </c>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
@@ -23561,7 +24033,9 @@
       <c r="Z27" s="9">
         <v>354</v>
       </c>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="9">
+        <v>398</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
@@ -23831,7 +24305,9 @@
       <c r="Z28" s="7">
         <v>418</v>
       </c>
-      <c r="AA28" s="7"/>
+      <c r="AA28" s="7">
+        <v>438</v>
+      </c>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
@@ -24101,7 +24577,9 @@
       <c r="Z29" s="20">
         <v>2</v>
       </c>
-      <c r="AA29" s="22"/>
+      <c r="AA29" s="20">
+        <v>2</v>
+      </c>
       <c r="AB29" s="22"/>
       <c r="AC29" s="22"/>
       <c r="AD29" s="22"/>
@@ -24371,7 +24849,9 @@
       <c r="Z30" s="7">
         <v>448</v>
       </c>
-      <c r="AA30" s="7"/>
+      <c r="AA30" s="7">
+        <v>469</v>
+      </c>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
@@ -24641,7 +25121,9 @@
       <c r="Z31" s="9">
         <v>518</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="9">
+        <v>515</v>
+      </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
@@ -24911,7 +25393,9 @@
       <c r="Z32" s="7">
         <v>321</v>
       </c>
-      <c r="AA32" s="7"/>
+      <c r="AA32" s="7">
+        <v>305</v>
+      </c>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
@@ -25181,7 +25665,9 @@
       <c r="Z33" s="9">
         <v>701</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="9">
+        <v>798</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -25451,7 +25937,9 @@
       <c r="Z34" s="7">
         <v>84</v>
       </c>
-      <c r="AA34" s="7"/>
+      <c r="AA34" s="7">
+        <v>90</v>
+      </c>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
@@ -25721,7 +26209,9 @@
       <c r="Z35" s="9">
         <v>984</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="9">
+        <v>563</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -25991,7 +26481,9 @@
       <c r="Z36" s="11">
         <v>10897</v>
       </c>
-      <c r="AA36" s="11"/>
+      <c r="AA36" s="11">
+        <v>11161</v>
+      </c>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
@@ -26203,31 +26695,31 @@
         <v>171</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L38" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M38" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="N38" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -28186,31 +28678,31 @@
         <v>171</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L47" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M47" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="N47" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -28432,31 +28924,31 @@
         <v>172</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -28678,31 +29170,31 @@
         <v>173</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -28924,31 +29416,31 @@
         <v>174</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L50" s="7">
         <v>167.4</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -29170,31 +29662,31 @@
         <v>175</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -29416,31 +29908,31 @@
         <v>176</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -29658,19 +30150,19 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -29892,29 +30384,29 @@
         <v>170</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -30137,66 +30629,68 @@
         <v>171</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L56" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M56" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="N56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="S56" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="T56" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="P56" s="5" t="s">
+      <c r="U56" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="V56" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="W56" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="S56" s="5" t="s">
+      <c r="X56" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="T56" s="5" t="s">
+      <c r="Y56" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="U56" s="5" t="s">
+      <c r="Z56" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="V56" s="5" t="s">
+      <c r="AA56" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="W56" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="X56" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y56" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z56" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -30464,7 +30958,9 @@
       <c r="Z57" s="7">
         <v>74</v>
       </c>
-      <c r="AA57" s="7"/>
+      <c r="AA57" s="7">
+        <v>93</v>
+      </c>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
@@ -30732,7 +31228,9 @@
       <c r="Z58" s="9">
         <v>52</v>
       </c>
-      <c r="AA58" s="9"/>
+      <c r="AA58" s="9">
+        <v>76</v>
+      </c>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
@@ -31000,7 +31498,9 @@
       <c r="Z59" s="7">
         <v>264</v>
       </c>
-      <c r="AA59" s="7"/>
+      <c r="AA59" s="7">
+        <v>328</v>
+      </c>
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
@@ -31268,7 +31768,9 @@
       <c r="Z60" s="9">
         <v>1262</v>
       </c>
-      <c r="AA60" s="9"/>
+      <c r="AA60" s="9">
+        <v>1257</v>
+      </c>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
@@ -31536,7 +32038,9 @@
       <c r="Z61" s="7">
         <v>1472</v>
       </c>
-      <c r="AA61" s="7"/>
+      <c r="AA61" s="7">
+        <v>1475</v>
+      </c>
       <c r="AB61" s="7"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
@@ -31804,7 +32308,9 @@
       <c r="Z62" s="9">
         <v>1766</v>
       </c>
-      <c r="AA62" s="9"/>
+      <c r="AA62" s="9">
+        <v>1703</v>
+      </c>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -32072,7 +32578,9 @@
       <c r="Z63" s="7">
         <v>1535</v>
       </c>
-      <c r="AA63" s="7"/>
+      <c r="AA63" s="7">
+        <v>1478</v>
+      </c>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
@@ -32340,7 +32848,9 @@
       <c r="Z64" s="9">
         <v>1021</v>
       </c>
-      <c r="AA64" s="9"/>
+      <c r="AA64" s="9">
+        <v>1022</v>
+      </c>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
@@ -32608,7 +33118,9 @@
       <c r="Z65" s="7">
         <v>951</v>
       </c>
-      <c r="AA65" s="7"/>
+      <c r="AA65" s="7">
+        <v>1013</v>
+      </c>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
@@ -32876,7 +33388,9 @@
       <c r="Z66" s="9">
         <v>2475</v>
       </c>
-      <c r="AA66" s="9"/>
+      <c r="AA66" s="9">
+        <v>2667</v>
+      </c>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
@@ -33144,7 +33658,9 @@
       <c r="Z67" s="7">
         <v>25</v>
       </c>
-      <c r="AA67" s="7"/>
+      <c r="AA67" s="7">
+        <v>49</v>
+      </c>
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
@@ -33368,7 +33884,7 @@
         <v>5262</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M68" s="15">
         <v>5861</v>
@@ -33412,7 +33928,9 @@
       <c r="Z68" s="15">
         <v>10897</v>
       </c>
-      <c r="AA68" s="15"/>
+      <c r="AA68" s="15">
+        <v>11161</v>
+      </c>
       <c r="AB68" s="15"/>
       <c r="AC68" s="15"/>
       <c r="AD68" s="15"/>
@@ -33605,7 +34123,7 @@
     </row>
     <row r="70" spans="1:216" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
         <v>102</v>
@@ -33681,6 +34199,9 @@
       </c>
       <c r="Z70">
         <v>808</v>
+      </c>
+      <c r="AA70">
+        <v>895</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
@@ -33700,58 +34221,76 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+      <selection activeCell="B12" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>228</v>
+        <v>87</v>
+      </c>
+      <c r="B1">
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>285</v>
+      </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>1257</v>
       </c>
       <c r="C4" t="s">
         <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>1475</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
         <v>290</v>
@@ -33759,142 +34298,100 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>264</v>
+        <v>1703</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>292</v>
+        <v>93</v>
+      </c>
+      <c r="B7">
+        <v>1478</v>
       </c>
       <c r="C7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" t="s">
         <v>293</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8">
+        <v>1022</v>
+      </c>
+      <c r="C8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
         <v>295</v>
-      </c>
-      <c r="C8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>95</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1013</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>301</v>
+        <v>96</v>
+      </c>
+      <c r="B10">
+        <v>2667</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>303</v>
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>951</v>
+        <v>11161</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764BBB7-9EA3-4F3C-9490-6575AD866462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5802231F-449F-40A1-B2B7-DD7E5B7E96F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21240" yWindow="7380" windowWidth="26390" windowHeight="13370" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="14950" yWindow="5190" windowWidth="24450" windowHeight="15170" tabRatio="512" activeTab="5" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="307">
   <si>
     <t>borough</t>
   </si>
@@ -916,15 +916,6 @@
     <t>25AVRIL, 05h05</t>
   </si>
   <si>
-    <t> 0,8</t>
-  </si>
-  <si>
-    <t>13,3</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
     <t>9,1</t>
   </si>
   <si>
@@ -940,70 +931,70 @@
     <t>25AVRIL, 18h05</t>
   </si>
   <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>562,6</t>
-  </si>
-  <si>
-    <t>TOTAL DE CAS CONFIRMÉS¹</t>
-  </si>
-  <si>
-    <t>RÉPARTITION DES CAS (%)</t>
-  </si>
-  <si>
-    <t>TAUX POUR</t>
-  </si>
-  <si>
-    <t>100 000</t>
-  </si>
-  <si>
-    <t>PERSONNES</t>
-  </si>
-  <si>
-    <t>88,49</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>179,0</t>
-  </si>
-  <si>
-    <t>11,4</t>
-  </si>
-  <si>
-    <t>410,7</t>
-  </si>
-  <si>
     <t>13,2</t>
   </si>
   <si>
-    <t>464,5</t>
-  </si>
-  <si>
-    <t>634,8</t>
-  </si>
-  <si>
-    <t>598,4</t>
-  </si>
-  <si>
-    <t>483,9</t>
-  </si>
-  <si>
-    <t>730,5</t>
-  </si>
-  <si>
     <t>23,8</t>
-  </si>
-  <si>
-    <t>2 727,6</t>
   </si>
   <si>
     <t>active_cases_qc</t>
   </si>
   <si>
     <t>new_negative_tests_qc</t>
+  </si>
+  <si>
+    <t>582,6</t>
+  </si>
+  <si>
+    <t> 0,9</t>
+  </si>
+  <si>
+    <t>99,2</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>95,4</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>199,1</t>
+  </si>
+  <si>
+    <t>11,5</t>
+  </si>
+  <si>
+    <t>426,3</t>
+  </si>
+  <si>
+    <t>479,1</t>
+  </si>
+  <si>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>652,4</t>
+  </si>
+  <si>
+    <t>617,5</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>496,9</t>
+  </si>
+  <si>
+    <t>751,2</t>
+  </si>
+  <si>
+    <t>2 819,6</t>
+  </si>
+  <si>
+    <t>26AVRIL, 18h30</t>
   </si>
 </sst>
 </file>
@@ -1517,20 +1508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC35"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="29" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="30" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1618,8 +1609,11 @@
       <c r="AC1" s="1">
         <v>43946</v>
       </c>
+      <c r="AD1" s="1">
+        <v>43947</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1707,8 +1701,11 @@
       <c r="AC2">
         <v>973</v>
       </c>
+      <c r="AD2">
+        <v>1007</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1796,8 +1793,11 @@
       <c r="AC3">
         <v>256</v>
       </c>
+      <c r="AD3">
+        <v>279</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1885,8 +1885,11 @@
       <c r="AC4">
         <v>6</v>
       </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1974,8 +1977,11 @@
       <c r="AC5">
         <v>24</v>
       </c>
+      <c r="AD5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2063,8 +2069,11 @@
       <c r="AC6">
         <v>1071</v>
       </c>
+      <c r="AD6">
+        <v>1097</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2152,8 +2161,11 @@
       <c r="AC7">
         <v>330</v>
       </c>
+      <c r="AD7">
+        <v>335</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2241,8 +2253,11 @@
       <c r="AC8">
         <v>128</v>
       </c>
+      <c r="AD8">
+        <v>130</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2330,8 +2345,11 @@
       <c r="AC9">
         <v>77</v>
       </c>
+      <c r="AD9">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2419,8 +2437,11 @@
       <c r="AC10">
         <v>38</v>
       </c>
+      <c r="AD10">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2508,8 +2529,11 @@
       <c r="AC11">
         <v>26</v>
       </c>
+      <c r="AD11">
+        <v>27</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2597,8 +2621,11 @@
       <c r="AC12">
         <v>149</v>
       </c>
+      <c r="AD12">
+        <v>155</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2686,8 +2713,11 @@
       <c r="AC13">
         <v>478</v>
       </c>
+      <c r="AD13">
+        <v>485</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2775,8 +2805,11 @@
       <c r="AC14">
         <v>53</v>
       </c>
+      <c r="AD14">
+        <v>54</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2864,8 +2897,11 @@
       <c r="AC15">
         <v>791</v>
       </c>
+      <c r="AD15">
+        <v>830</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2953,8 +2989,11 @@
       <c r="AC16">
         <v>14</v>
       </c>
+      <c r="AD16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3042,8 +3081,11 @@
       <c r="AC17">
         <v>1058</v>
       </c>
+      <c r="AD17">
+        <v>1110</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3131,8 +3173,11 @@
       <c r="AC18">
         <v>9</v>
       </c>
+      <c r="AD18">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3220,8 +3265,11 @@
       <c r="AC19">
         <v>92</v>
       </c>
+      <c r="AD19">
+        <v>96</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3309,8 +3357,11 @@
       <c r="AC20">
         <v>182</v>
       </c>
+      <c r="AD20">
+        <v>183</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3398,8 +3449,11 @@
       <c r="AC21">
         <v>154</v>
       </c>
+      <c r="AD21">
+        <v>155</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3487,8 +3541,11 @@
       <c r="AC22">
         <v>465</v>
       </c>
+      <c r="AD22">
+        <v>488</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3576,8 +3633,11 @@
       <c r="AC23">
         <v>62</v>
       </c>
+      <c r="AD23">
+        <v>63</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3665,8 +3725,11 @@
       <c r="AC24">
         <v>817</v>
       </c>
+      <c r="AD24">
+        <v>869</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3754,8 +3817,11 @@
       <c r="AC25">
         <v>600</v>
       </c>
+      <c r="AD25">
+        <v>629</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3843,8 +3909,11 @@
       <c r="AC26">
         <v>8</v>
       </c>
+      <c r="AD26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3932,8 +4001,11 @@
       <c r="AC27">
         <v>415</v>
       </c>
+      <c r="AD27">
+        <v>433</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4021,8 +4093,11 @@
       <c r="AC28">
         <v>480</v>
       </c>
+      <c r="AD28">
+        <v>509</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4110,8 +4185,11 @@
       <c r="AC29">
         <v>2</v>
       </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4199,8 +4277,11 @@
       <c r="AC30">
         <v>491</v>
       </c>
+      <c r="AD30">
+        <v>500</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4288,8 +4369,11 @@
       <c r="AC31">
         <v>523</v>
       </c>
+      <c r="AD31">
+        <v>535</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4377,8 +4461,11 @@
       <c r="AC32">
         <v>313</v>
       </c>
+      <c r="AD32">
+        <v>322</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4466,8 +4553,11 @@
       <c r="AC33">
         <v>837</v>
       </c>
+      <c r="AD33">
+        <v>871</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4555,8 +4645,11 @@
       <c r="AC34">
         <v>91</v>
       </c>
+      <c r="AD34">
+        <v>91</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4643,6 +4736,9 @@
       </c>
       <c r="AC35">
         <v>609</v>
+      </c>
+      <c r="AD35">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4653,11 +4749,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE39" sqref="AE39"/>
+      <selection pane="topRight" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4665,10 +4761,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4777,8 +4873,11 @@
       <c r="AC1" s="1">
         <v>43946</v>
       </c>
+      <c r="AD1" s="1">
+        <v>43947</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4892,8 +4991,12 @@
         <f>cases!AC2/(population_2016!$B2/1000)</f>
         <v>7.2479421952400456</v>
       </c>
+      <c r="AD2" s="3">
+        <f>cases!AD2/(population_2016!$B2/1000)</f>
+        <v>7.5012104733882081</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5007,8 +5110,12 @@
         <f>cases!AC3/(population_2016!$B3/1000)</f>
         <v>5.9818674642489951</v>
       </c>
+      <c r="AD3" s="3">
+        <f>cases!AD3/(population_2016!$B3/1000)</f>
+        <v>6.5193008692401158</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5122,8 +5229,12 @@
         <f>cases!AC4/(population_2016!$B4/1000)</f>
         <v>1.5694480774261053</v>
       </c>
+      <c r="AD4" s="3">
+        <f>cases!AD4/(population_2016!$B4/1000)</f>
+        <v>1.5694480774261053</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5237,8 +5348,12 @@
         <f>cases!AC5/(population_2016!$B5/1000)</f>
         <v>1.2419788863589318</v>
       </c>
+      <c r="AD5" s="3">
+        <f>cases!AD5/(population_2016!$B5/1000)</f>
+        <v>1.2937280066238872</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5352,8 +5467,12 @@
         <f>cases!AC6/(population_2016!$B6/1000)</f>
         <v>6.4316598606773958</v>
       </c>
+      <c r="AD6" s="3">
+        <f>cases!AD6/(population_2016!$B6/1000)</f>
+        <v>6.5877972615901994</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -5467,8 +5586,12 @@
         <f>cases!AC7/(population_2016!$B7/1000)</f>
         <v>10.170118343195266</v>
       </c>
+      <c r="AD7" s="3">
+        <f>cases!AD7/(population_2016!$B7/1000)</f>
+        <v>10.324211045364891</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5582,8 +5705,12 @@
         <f>cases!AC8/(population_2016!$B8/1000)</f>
         <v>2.6176404425448374</v>
       </c>
+      <c r="AD8" s="3">
+        <f>cases!AD8/(population_2016!$B8/1000)</f>
+        <v>2.6585410744596003</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5697,8 +5824,12 @@
         <f>cases!AC9/(population_2016!$B9/1000)</f>
         <v>4.0569020021074813</v>
       </c>
+      <c r="AD9" s="3">
+        <f>cases!AD9/(population_2016!$B9/1000)</f>
+        <v>4.0569020021074813</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5812,8 +5943,12 @@
         <f>cases!AC10/(population_2016!$B10/1000)</f>
         <v>5.4495912806539515</v>
       </c>
+      <c r="AD10" s="3">
+        <f>cases!AD10/(population_2016!$B10/1000)</f>
+        <v>5.3061809837946363</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -5927,8 +6062,12 @@
         <f>cases!AC11/(population_2016!$B11/1000)</f>
         <v>1.2902585479628803</v>
       </c>
+      <c r="AD11" s="3">
+        <f>cases!AD11/(population_2016!$B11/1000)</f>
+        <v>1.3398838767306833</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6042,8 +6181,12 @@
         <f>cases!AC12/(population_2016!$B12/1000)</f>
         <v>3.3491424846591293</v>
       </c>
+      <c r="AD12" s="3">
+        <f>cases!AD12/(population_2016!$B12/1000)</f>
+        <v>3.4840072826990944</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6157,8 +6300,12 @@
         <f>cases!AC13/(population_2016!$B13/1000)</f>
         <v>6.2196661158315232</v>
       </c>
+      <c r="AD13" s="3">
+        <f>cases!AD13/(population_2016!$B13/1000)</f>
+        <v>6.3107490924231984</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6272,8 +6419,12 @@
         <f>cases!AC14/(population_2016!$B14/1000)</f>
         <v>2.8784011296366696</v>
       </c>
+      <c r="AD14" s="3">
+        <f>cases!AD14/(population_2016!$B14/1000)</f>
+        <v>2.9327105849128334</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6387,8 +6538,12 @@
         <f>cases!AC15/(population_2016!$B15/1000)</f>
         <v>5.8151502675998357</v>
       </c>
+      <c r="AD15" s="3">
+        <f>cases!AD15/(population_2016!$B15/1000)</f>
+        <v>6.1018643768746692</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6502,8 +6657,12 @@
         <f>cases!AC16/(population_2016!$B16/1000)</f>
         <v>3.6363636363636362</v>
       </c>
+      <c r="AD16" s="3">
+        <f>cases!AD16/(population_2016!$B16/1000)</f>
+        <v>3.6363636363636362</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6617,8 +6776,12 @@
         <f>cases!AC17/(population_2016!$B17/1000)</f>
         <v>12.560248830638461</v>
       </c>
+      <c r="AD17" s="3">
+        <f>cases!AD17/(population_2016!$B17/1000)</f>
+        <v>13.177576750480805</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -6732,8 +6895,12 @@
         <f>cases!AC18/(population_2016!$B18/1000)</f>
         <v>1.7821782178217822</v>
       </c>
+      <c r="AD18" s="3">
+        <f>cases!AD18/(population_2016!$B18/1000)</f>
+        <v>1.7821782178217822</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -6847,8 +7014,12 @@
         <f>cases!AC19/(population_2016!$B19/1000)</f>
         <v>4.5373840994278947</v>
       </c>
+      <c r="AD19" s="3">
+        <f>cases!AD19/(population_2016!$B19/1000)</f>
+        <v>4.7346616689682381</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6962,8 +7133,12 @@
         <f>cases!AC20/(population_2016!$B20/1000)</f>
         <v>7.5978959672706017</v>
       </c>
+      <c r="AD20" s="3">
+        <f>cases!AD20/(population_2016!$B20/1000)</f>
+        <v>7.6396426484094508</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -7077,8 +7252,12 @@
         <f>cases!AC21/(population_2016!$B21/1000)</f>
         <v>2.2223184264831088</v>
       </c>
+      <c r="AD21" s="3">
+        <f>cases!AD21/(population_2016!$B21/1000)</f>
+        <v>2.2367490656161162</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7192,8 +7371,12 @@
         <f>cases!AC22/(population_2016!$B22/1000)</f>
         <v>4.4711538461538458</v>
       </c>
+      <c r="AD22" s="3">
+        <f>cases!AD22/(population_2016!$B22/1000)</f>
+        <v>4.6923076923076925</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -7307,8 +7490,12 @@
         <f>cases!AC23/(population_2016!$B23/1000)</f>
         <v>1.975780752071383</v>
       </c>
+      <c r="AD23" s="3">
+        <f>cases!AD23/(population_2016!$B23/1000)</f>
+        <v>2.0076481835564053</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7422,8 +7609,12 @@
         <f>cases!AC24/(population_2016!$B24/1000)</f>
         <v>7.6538976794731273</v>
       </c>
+      <c r="AD24" s="3">
+        <f>cases!AD24/(population_2016!$B24/1000)</f>
+        <v>8.141049061765175</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -7537,8 +7728,12 @@
         <f>cases!AC25/(population_2016!$B25/1000)</f>
         <v>4.2983021706425957</v>
       </c>
+      <c r="AD25" s="3">
+        <f>cases!AD25/(population_2016!$B25/1000)</f>
+        <v>4.5060534422236547</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -7652,8 +7847,12 @@
         <f>cases!AC26/(population_2016!$B26/1000)</f>
         <v>1.6135538523598225</v>
       </c>
+      <c r="AD26" s="3">
+        <f>cases!AD26/(population_2016!$B26/1000)</f>
+        <v>1.6135538523598225</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -7767,8 +7966,12 @@
         <f>cases!AC27/(population_2016!$B27/1000)</f>
         <v>4.1992147974258307</v>
       </c>
+      <c r="AD27" s="3">
+        <f>cases!AD27/(population_2016!$B27/1000)</f>
+        <v>4.3813494151455048</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -7882,8 +8085,12 @@
         <f>cases!AC28/(population_2016!$B28/1000)</f>
         <v>6.1298767639358909</v>
       </c>
+      <c r="AD28" s="3">
+        <f>cases!AD28/(population_2016!$B28/1000)</f>
+        <v>6.5002234850903511</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -7997,8 +8204,12 @@
         <f>cases!AC29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AD29" s="3">
+        <f>cases!AD29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8112,8 +8323,12 @@
         <f>cases!AC30/(population_2016!$B30/1000)</f>
         <v>6.2827091144067255</v>
       </c>
+      <c r="AD30" s="3">
+        <f>cases!AD30/(population_2016!$B30/1000)</f>
+        <v>6.397870788601554</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8227,8 +8442,12 @@
         <f>cases!AC31/(population_2016!$B31/1000)</f>
         <v>7.5546375074029672</v>
       </c>
+      <c r="AD31" s="3">
+        <f>cases!AD31/(population_2016!$B31/1000)</f>
+        <v>7.7279752704791349</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8342,8 +8561,12 @@
         <f>cases!AC32/(population_2016!$B32/1000)</f>
         <v>3.5101491533026801</v>
       </c>
+      <c r="AD32" s="3">
+        <f>cases!AD32/(population_2016!$B32/1000)</f>
+        <v>3.6110799596276775</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8457,8 +8680,12 @@
         <f>cases!AC33/(population_2016!$B33/1000)</f>
         <v>5.818439657150007</v>
       </c>
+      <c r="AD33" s="3">
+        <f>cases!AD33/(population_2016!$B33/1000)</f>
+        <v>6.0547920446566978</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -8570,6 +8797,10 @@
       </c>
       <c r="AC34" s="3">
         <f>cases!AC34/(population_2016!$B34/1000)</f>
+        <v>4.4801102796376524</v>
+      </c>
+      <c r="AD34" s="3">
+        <f>cases!AD34/(population_2016!$B34/1000)</f>
         <v>4.4801102796376524</v>
       </c>
     </row>
@@ -8580,11 +8811,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS43"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M45" sqref="M45"/>
+      <selection pane="topRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8611,7 +8842,7 @@
         <v>232</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>145</v>
@@ -9713,11 +9944,11 @@
       </c>
       <c r="B9" s="17">
         <f>mtl_newcases!C10</f>
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C9" s="17">
         <f>mtl_newcases!B10</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>102</v>
@@ -9852,7 +10083,7 @@
       </c>
       <c r="B10" s="17">
         <f>mtl_newcases!C11</f>
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C10" s="17">
         <f>mtl_newcases!B11</f>
@@ -9991,11 +10222,11 @@
       </c>
       <c r="B11" s="17">
         <f>mtl_newcases!C12</f>
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C11" s="17">
         <f>mtl_newcases!B12</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>102</v>
@@ -10130,11 +10361,11 @@
       </c>
       <c r="B12" s="17">
         <f>mtl_newcases!C13</f>
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C12" s="17">
         <f>mtl_newcases!B13</f>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>102</v>
@@ -10269,7 +10500,7 @@
       </c>
       <c r="B13" s="17">
         <f>mtl_newcases!C14</f>
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="C13" s="17">
         <f>mtl_newcases!B14</f>
@@ -10408,11 +10639,11 @@
       </c>
       <c r="B14" s="17">
         <f>mtl_newcases!C15</f>
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="C14" s="17">
         <f>mtl_newcases!B15</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>102</v>
@@ -10547,7 +10778,7 @@
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
@@ -10686,7 +10917,7 @@
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
@@ -10825,7 +11056,7 @@
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>1916</v>
+        <v>1922</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
@@ -10964,11 +11195,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -11134,7 +11365,7 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2558</v>
+        <v>2565</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
@@ -11304,11 +11535,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2954</v>
+        <v>2963</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>102</v>
@@ -11474,11 +11705,11 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3300</v>
+        <v>3310</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>102</v>
@@ -11644,11 +11875,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3639</v>
+        <v>3651</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -11814,11 +12045,11 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3886</v>
+        <v>3900</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>102</v>
@@ -11984,11 +12215,11 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4326</v>
+        <v>4339</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D24">
         <v>63</v>
@@ -12154,7 +12385,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4728</v>
+        <v>4741</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
@@ -12325,11 +12556,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5077</v>
+        <v>5091</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -12496,11 +12727,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5399</v>
+        <v>5414</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -12667,11 +12898,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5676</v>
+        <v>5694</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -12838,11 +13069,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>5891</v>
+        <v>5912</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -13009,7 +13240,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6191</v>
+        <v>6212</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -13180,11 +13411,11 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6618</v>
+        <v>6640</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D31">
         <v>218</v>
@@ -13351,11 +13582,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7025</v>
+        <v>7045</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -13522,11 +13753,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7616</v>
+        <v>7635</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -13693,11 +13924,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8011</v>
+        <v>8029</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -13864,11 +14095,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8519</v>
+        <v>8536</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -14035,11 +14266,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>8795</v>
+        <v>8823</v>
       </c>
       <c r="C36" s="17">
         <f>mtl_newcases!B37</f>
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -14206,11 +14437,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9153</v>
+        <v>9183</v>
       </c>
       <c r="C37" s="17">
         <f>mtl_newcases!B38</f>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -14346,11 +14577,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>9558</v>
+        <v>9603</v>
       </c>
       <c r="C38" s="17">
         <f>mtl_newcases!B39</f>
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -14517,11 +14748,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>9969</v>
+        <v>10030</v>
       </c>
       <c r="C39" s="17">
         <f>mtl_newcases!B40</f>
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -14688,11 +14919,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>10470</v>
+        <v>10542</v>
       </c>
       <c r="C40" s="17">
         <f>mtl_newcases!B41</f>
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -14859,11 +15090,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>10891</v>
+        <v>11003</v>
       </c>
       <c r="C41" s="17">
         <f>mtl_newcases!B42</f>
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -15030,11 +15261,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>11158</v>
+        <v>11486</v>
       </c>
       <c r="C42" s="17">
         <f>mtl_newcases!B43</f>
-        <v>267</v>
+        <v>483</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -15205,7 +15436,7 @@
       </c>
       <c r="C43" s="17">
         <f>mtl_newcases!B44</f>
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -15364,6 +15595,177 @@
       <c r="AS43" s="3">
         <f t="shared" ref="AS43" si="394">Y43*100/SUM($P43:$Y43)</f>
         <v>41.449989137810761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A44" s="19">
+        <v>43947</v>
+      </c>
+      <c r="B44" s="17">
+        <f>mtl_newcases!C45</f>
+        <v>12034</v>
+      </c>
+      <c r="C44" s="17">
+        <f>mtl_newcases!B45</f>
+        <v>413</v>
+      </c>
+      <c r="D44">
+        <v>983</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44" si="395">D44-D43</f>
+        <v>45</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44:O44">TRANSPOSE(santemontreal!AC$57:AC$66)</f>
+        <v>110</v>
+      </c>
+      <c r="G44">
+        <v>103</v>
+      </c>
+      <c r="H44">
+        <v>396</v>
+      </c>
+      <c r="I44">
+        <v>1373</v>
+      </c>
+      <c r="J44">
+        <v>1574</v>
+      </c>
+      <c r="K44">
+        <v>1816</v>
+      </c>
+      <c r="L44">
+        <v>1585</v>
+      </c>
+      <c r="M44">
+        <v>1076</v>
+      </c>
+      <c r="N44">
+        <v>1087</v>
+      </c>
+      <c r="O44">
+        <v>2849</v>
+      </c>
+      <c r="P44" s="18">
+        <f>F44/(age_distribution_2016!$B$2/100000)</f>
+        <v>100.23692363768909</v>
+      </c>
+      <c r="Q44" s="18">
+        <f>G44/(age_distribution_2016!$B$3/100000)</f>
+        <v>98.673181012597595</v>
+      </c>
+      <c r="R44" s="18">
+        <f>H44/(age_distribution_2016!$B$4/100000)</f>
+        <v>210.43122459282088</v>
+      </c>
+      <c r="S44" s="18">
+        <f>I44/(age_distribution_2016!$B$5/100000)</f>
+        <v>468.24111177423481</v>
+      </c>
+      <c r="T44" s="18">
+        <f>J44/(age_distribution_2016!$B$6/100000)</f>
+        <v>525.23567197797615</v>
+      </c>
+      <c r="U44" s="18">
+        <f>K44/(age_distribution_2016!$B$7/100000)</f>
+        <v>713.62609293643777</v>
+      </c>
+      <c r="V44" s="18">
+        <f>L44/(age_distribution_2016!$B$8/100000)</f>
+        <v>612.26460647030422</v>
+      </c>
+      <c r="W44" s="18">
+        <f>M44/(age_distribution_2016!$B$9/100000)</f>
+        <v>524.86524718909288</v>
+      </c>
+      <c r="X44" s="18">
+        <f>N44/(age_distribution_2016!$B$10/100000)</f>
+        <v>838.21714990746455</v>
+      </c>
+      <c r="Y44" s="18">
+        <f>O44/(age_distribution_2016!$B$11/100000)</f>
+        <v>2883.4573149132129</v>
+      </c>
+      <c r="Z44" s="3">
+        <f t="shared" ref="Z44" si="396">F44*100/SUM($F44:$O44)</f>
+        <v>0.91904085554348736</v>
+      </c>
+      <c r="AA44" s="3">
+        <f t="shared" ref="AA44" si="397">G44*100/SUM($F44:$O44)</f>
+        <v>0.86055643746344723</v>
+      </c>
+      <c r="AB44" s="3">
+        <f t="shared" ref="AB44" si="398">H44*100/SUM($F44:$O44)</f>
+        <v>3.3085470799565546</v>
+      </c>
+      <c r="AC44" s="3">
+        <f t="shared" ref="AC44" si="399">I44*100/SUM($F44:$O44)</f>
+        <v>11.471300860556438</v>
+      </c>
+      <c r="AD44" s="3">
+        <f t="shared" ref="AD44" si="400">J44*100/SUM($F44:$O44)</f>
+        <v>13.150639151140446</v>
+      </c>
+      <c r="AE44" s="3">
+        <f t="shared" ref="AE44" si="401">K44*100/SUM($F44:$O44)</f>
+        <v>15.172529033336119</v>
+      </c>
+      <c r="AF44" s="3">
+        <f t="shared" ref="AF44" si="402">L44*100/SUM($F44:$O44)</f>
+        <v>13.242543236694795</v>
+      </c>
+      <c r="AG44" s="3">
+        <f t="shared" ref="AG44" si="403">M44*100/SUM($F44:$O44)</f>
+        <v>8.9898905505890223</v>
+      </c>
+      <c r="AH44" s="3">
+        <f t="shared" ref="AH44" si="404">N44*100/SUM($F44:$O44)</f>
+        <v>9.0817946361433712</v>
+      </c>
+      <c r="AI44" s="3">
+        <f t="shared" ref="AI44" si="405">O44*100/SUM($F44:$O44)</f>
+        <v>23.803158158576323</v>
+      </c>
+      <c r="AJ44" s="3">
+        <f t="shared" ref="AJ44" si="406">P44*100/SUM($P44:$Y44)</f>
+        <v>1.4370373082318426</v>
+      </c>
+      <c r="AK44" s="3">
+        <f t="shared" ref="AK44" si="407">Q44*100/SUM($P44:$Y44)</f>
+        <v>1.4146188579125638</v>
+      </c>
+      <c r="AL44" s="3">
+        <f t="shared" ref="AL44" si="408">R44*100/SUM($P44:$Y44)</f>
+        <v>3.0168276278093606</v>
+      </c>
+      <c r="AM44" s="3">
+        <f t="shared" ref="AM44" si="409">S44*100/SUM($P44:$Y44)</f>
+        <v>6.7128950335675386</v>
+      </c>
+      <c r="AN44" s="3">
+        <f t="shared" ref="AN44" si="410">T44*100/SUM($P44:$Y44)</f>
+        <v>7.5299922309544556</v>
+      </c>
+      <c r="AO44" s="3">
+        <f t="shared" ref="AO44" si="411">U44*100/SUM($P44:$Y44)</f>
+        <v>10.230833932854205</v>
+      </c>
+      <c r="AP44" s="3">
+        <f t="shared" ref="AP44" si="412">V44*100/SUM($P44:$Y44)</f>
+        <v>8.7776744345024156</v>
+      </c>
+      <c r="AQ44" s="3">
+        <f t="shared" ref="AQ44" si="413">W44*100/SUM($P44:$Y44)</f>
+        <v>7.5246816705122459</v>
+      </c>
+      <c r="AR44" s="3">
+        <f t="shared" ref="AR44" si="414">X44*100/SUM($P44:$Y44)</f>
+        <v>12.017022002497681</v>
+      </c>
+      <c r="AS44" s="3">
+        <f t="shared" ref="AS44" si="415">Y44*100/SUM($P44:$Y44)</f>
+        <v>41.338416901157693</v>
       </c>
     </row>
   </sheetData>
@@ -15373,11 +15775,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15400,16 +15802,16 @@
         <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
         <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G1" t="s">
         <v>166</v>
@@ -15421,7 +15823,7 @@
         <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="K1" t="s">
         <v>165</v>
@@ -15508,7 +15910,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C55" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C56" si="0">B4-B3</f>
         <v>1</v>
       </c>
       <c r="D4">
@@ -15518,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F55" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F56" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -15531,7 +15933,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J55" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J56" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -17474,6 +17876,44 @@
       </c>
       <c r="K55">
         <v>5342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B56">
+        <v>24982</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="D56">
+        <v>17866</v>
+      </c>
+      <c r="E56">
+        <v>1599</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="G56">
+        <v>1541</v>
+      </c>
+      <c r="H56">
+        <v>210</v>
+      </c>
+      <c r="I56">
+        <v>175190</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>3720</v>
+      </c>
+      <c r="K56">
+        <v>5517</v>
       </c>
     </row>
   </sheetData>
@@ -17483,11 +17923,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17616,11 +18056,11 @@
         <v>43912</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -17632,7 +18072,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -17640,11 +18080,11 @@
         <v>43914</v>
       </c>
       <c r="B12">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17652,11 +18092,11 @@
         <v>43915</v>
       </c>
       <c r="B13">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17668,7 +18108,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>947</v>
+        <v>952</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17676,11 +18116,11 @@
         <v>43917</v>
       </c>
       <c r="B15">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1191</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17692,7 +18132,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1387</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17704,7 +18144,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -17714,7 +18154,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17726,7 +18166,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1916</v>
+        <v>1922</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -17736,7 +18176,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-75</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17744,11 +18184,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -17758,7 +18198,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17770,7 +18210,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2558</v>
+        <v>2565</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -17780,7 +18220,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-84</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17788,11 +18228,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2954</v>
+        <v>2963</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -17802,7 +18242,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17810,11 +18250,11 @@
         <v>43924</v>
       </c>
       <c r="B22">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>3310</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -17824,7 +18264,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17832,11 +18272,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3639</v>
+        <v>3651</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -17846,7 +18286,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-74</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17854,11 +18294,11 @@
         <v>43926</v>
       </c>
       <c r="B24">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3886</v>
+        <v>3900</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -17868,7 +18308,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-91</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17876,11 +18316,11 @@
         <v>43927</v>
       </c>
       <c r="B25">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4326</v>
+        <v>4339</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -17890,7 +18330,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-81</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17902,7 +18342,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4728</v>
+        <v>4741</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -17912,7 +18352,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>-47</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17920,11 +18360,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5077</v>
+        <v>5091</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -17934,7 +18374,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-185</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17942,11 +18382,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5399</v>
+        <v>5414</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -17956,7 +18396,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-218</v>
+        <v>-203</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17964,11 +18404,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5676</v>
+        <v>5694</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -17978,7 +18418,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-185</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17986,11 +18426,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>5891</v>
+        <v>5912</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -18000,7 +18440,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>-197</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -18012,7 +18452,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6191</v>
+        <v>6212</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -18022,7 +18462,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>-202</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -18030,11 +18470,11 @@
         <v>43934</v>
       </c>
       <c r="B32">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6618</v>
+        <v>6640</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -18044,7 +18484,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>-10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -18052,11 +18492,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7025</v>
+        <v>7045</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -18066,7 +18506,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -18074,11 +18514,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7616</v>
+        <v>7635</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -18088,7 +18528,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -18096,11 +18536,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8011</v>
+        <v>8029</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -18110,7 +18550,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -18118,11 +18558,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8519</v>
+        <v>8536</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -18132,7 +18572,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18140,11 +18580,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>8795</v>
+        <v>8823</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -18154,7 +18594,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -18162,11 +18602,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9153</v>
+        <v>9183</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -18176,7 +18616,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18184,11 +18624,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>9558</v>
+        <v>9603</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -18198,7 +18638,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -18206,11 +18646,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>9969</v>
+        <v>10030</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -18220,7 +18660,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>113</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18228,11 +18668,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:C44" si="13">C40+B41</f>
-        <v>10470</v>
+        <v>10542</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -18242,7 +18682,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18250,11 +18690,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>10891</v>
+        <v>11003</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -18264,7 +18704,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>-6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -18272,11 +18712,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>267</v>
+        <v>483</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>11158</v>
+        <v>11486</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -18286,7 +18726,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -18294,7 +18734,7 @@
         <v>43946</v>
       </c>
       <c r="B44" s="24">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
@@ -18308,6 +18748,27 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="19">
+        <v>43947</v>
+      </c>
+      <c r="B45" s="24">
+        <v>413</v>
+      </c>
+      <c r="C45">
+        <v>12034</v>
+      </c>
+      <c r="E45" s="19">
+        <v>43947</v>
+      </c>
+      <c r="F45">
+        <v>12034</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45" si="16">C45-F45</f>
         <v>0</v>
       </c>
     </row>
@@ -18321,9 +18782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB35" sqref="AB2:AB35"/>
+      <selection pane="topRight" activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18417,9 +18878,11 @@
         <v>279</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC1" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
@@ -18693,7 +19156,9 @@
       <c r="AB2" s="7">
         <v>973</v>
       </c>
-      <c r="AC2" s="7"/>
+      <c r="AC2" s="7">
+        <v>1007</v>
+      </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
@@ -18967,7 +19432,9 @@
       <c r="AB3" s="9">
         <v>256</v>
       </c>
-      <c r="AC3" s="9"/>
+      <c r="AC3" s="9">
+        <v>279</v>
+      </c>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
@@ -19241,7 +19708,9 @@
       <c r="AB4" s="7">
         <v>6</v>
       </c>
-      <c r="AC4" s="7"/>
+      <c r="AC4" s="7">
+        <v>6</v>
+      </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -19515,7 +19984,9 @@
       <c r="AB5" s="9">
         <v>24</v>
       </c>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="9">
+        <v>25</v>
+      </c>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
@@ -19789,7 +20260,9 @@
       <c r="AB6" s="7">
         <v>1071</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="7">
+        <v>1097</v>
+      </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -20063,7 +20536,9 @@
       <c r="AB7" s="9">
         <v>330</v>
       </c>
-      <c r="AC7" s="9"/>
+      <c r="AC7" s="9">
+        <v>335</v>
+      </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -20337,7 +20812,9 @@
       <c r="AB8" s="7">
         <v>128</v>
       </c>
-      <c r="AC8" s="7"/>
+      <c r="AC8" s="7">
+        <v>130</v>
+      </c>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -20611,7 +21088,9 @@
       <c r="AB9" s="9">
         <v>77</v>
       </c>
-      <c r="AC9" s="9"/>
+      <c r="AC9" s="9">
+        <v>77</v>
+      </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
@@ -20885,7 +21364,9 @@
       <c r="AB10" s="7">
         <v>38</v>
       </c>
-      <c r="AC10" s="7"/>
+      <c r="AC10" s="7">
+        <v>37</v>
+      </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
@@ -21159,7 +21640,9 @@
       <c r="AB11" s="9">
         <v>26</v>
       </c>
-      <c r="AC11" s="9"/>
+      <c r="AC11" s="9">
+        <v>27</v>
+      </c>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
@@ -21433,7 +21916,9 @@
       <c r="AB12" s="7">
         <v>149</v>
       </c>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="7">
+        <v>155</v>
+      </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -21707,7 +22192,9 @@
       <c r="AB13" s="9">
         <v>478</v>
       </c>
-      <c r="AC13" s="9"/>
+      <c r="AC13" s="9">
+        <v>485</v>
+      </c>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
@@ -21981,7 +22468,9 @@
       <c r="AB14" s="7">
         <v>53</v>
       </c>
-      <c r="AC14" s="7"/>
+      <c r="AC14" s="7">
+        <v>54</v>
+      </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -22255,7 +22744,9 @@
       <c r="AB15" s="9">
         <v>791</v>
       </c>
-      <c r="AC15" s="9"/>
+      <c r="AC15" s="9">
+        <v>830</v>
+      </c>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
@@ -22529,7 +23020,9 @@
       <c r="AB16" s="7">
         <v>14</v>
       </c>
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="7">
+        <v>14</v>
+      </c>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
@@ -22803,7 +23296,9 @@
       <c r="AB17" s="9">
         <v>1058</v>
       </c>
-      <c r="AC17" s="9"/>
+      <c r="AC17" s="9">
+        <v>1110</v>
+      </c>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
@@ -23077,7 +23572,9 @@
       <c r="AB18" s="7">
         <v>9</v>
       </c>
-      <c r="AC18" s="7"/>
+      <c r="AC18" s="7">
+        <v>9</v>
+      </c>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
@@ -23351,7 +23848,9 @@
       <c r="AB19" s="9">
         <v>92</v>
       </c>
-      <c r="AC19" s="9"/>
+      <c r="AC19" s="9">
+        <v>96</v>
+      </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
@@ -23625,7 +24124,9 @@
       <c r="AB20" s="7">
         <v>182</v>
       </c>
-      <c r="AC20" s="7"/>
+      <c r="AC20" s="7">
+        <v>183</v>
+      </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
@@ -23899,7 +24400,9 @@
       <c r="AB21" s="9">
         <v>154</v>
       </c>
-      <c r="AC21" s="9"/>
+      <c r="AC21" s="9">
+        <v>155</v>
+      </c>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
@@ -24173,7 +24676,9 @@
       <c r="AB22" s="7">
         <v>465</v>
       </c>
-      <c r="AC22" s="7"/>
+      <c r="AC22" s="7">
+        <v>488</v>
+      </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
@@ -24447,7 +24952,9 @@
       <c r="AB23" s="9">
         <v>62</v>
       </c>
-      <c r="AC23" s="9"/>
+      <c r="AC23" s="9">
+        <v>63</v>
+      </c>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
@@ -24721,7 +25228,9 @@
       <c r="AB24" s="7">
         <v>817</v>
       </c>
-      <c r="AC24" s="7"/>
+      <c r="AC24" s="7">
+        <v>869</v>
+      </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
@@ -24995,7 +25504,9 @@
       <c r="AB25" s="9">
         <v>600</v>
       </c>
-      <c r="AC25" s="9"/>
+      <c r="AC25" s="9">
+        <v>629</v>
+      </c>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
@@ -25269,7 +25780,9 @@
       <c r="AB26" s="7">
         <v>8</v>
       </c>
-      <c r="AC26" s="7"/>
+      <c r="AC26" s="7">
+        <v>8</v>
+      </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
@@ -25543,7 +26056,9 @@
       <c r="AB27" s="9">
         <v>415</v>
       </c>
-      <c r="AC27" s="9"/>
+      <c r="AC27" s="9">
+        <v>433</v>
+      </c>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
@@ -25817,7 +26332,9 @@
       <c r="AB28" s="7">
         <v>480</v>
       </c>
-      <c r="AC28" s="7"/>
+      <c r="AC28" s="7">
+        <v>509</v>
+      </c>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
@@ -26091,7 +26608,9 @@
       <c r="AB29" s="20">
         <v>2</v>
       </c>
-      <c r="AC29" s="22"/>
+      <c r="AC29" s="20">
+        <v>2</v>
+      </c>
       <c r="AD29" s="22"/>
       <c r="AE29" s="22"/>
       <c r="AF29" s="22"/>
@@ -26365,7 +26884,9 @@
       <c r="AB30" s="7">
         <v>491</v>
       </c>
-      <c r="AC30" s="7"/>
+      <c r="AC30" s="7">
+        <v>500</v>
+      </c>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
@@ -26639,7 +27160,9 @@
       <c r="AB31" s="9">
         <v>523</v>
       </c>
-      <c r="AC31" s="9"/>
+      <c r="AC31" s="9">
+        <v>535</v>
+      </c>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
@@ -26913,7 +27436,9 @@
       <c r="AB32" s="7">
         <v>313</v>
       </c>
-      <c r="AC32" s="7"/>
+      <c r="AC32" s="7">
+        <v>322</v>
+      </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
@@ -27187,7 +27712,9 @@
       <c r="AB33" s="9">
         <v>837</v>
       </c>
-      <c r="AC33" s="9"/>
+      <c r="AC33" s="9">
+        <v>871</v>
+      </c>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
@@ -27461,7 +27988,9 @@
       <c r="AB34" s="7">
         <v>91</v>
       </c>
-      <c r="AC34" s="7"/>
+      <c r="AC34" s="7">
+        <v>91</v>
+      </c>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
@@ -27735,7 +28264,9 @@
       <c r="AB35" s="9">
         <v>609</v>
       </c>
-      <c r="AC35" s="9"/>
+      <c r="AC35" s="9">
+        <v>604</v>
+      </c>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
@@ -28009,7 +28540,9 @@
       <c r="AB36" s="11">
         <v>11621</v>
       </c>
-      <c r="AC36" s="11"/>
+      <c r="AC36" s="11">
+        <v>12034</v>
+      </c>
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
@@ -32216,9 +32749,11 @@
         <v>279</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC56" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="AC56" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
@@ -32490,7 +33025,9 @@
       <c r="AB57" s="7">
         <v>98</v>
       </c>
-      <c r="AC57" s="7"/>
+      <c r="AC57" s="7">
+        <v>110</v>
+      </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
@@ -32762,7 +33299,9 @@
       <c r="AB58" s="9">
         <v>91</v>
       </c>
-      <c r="AC58" s="9"/>
+      <c r="AC58" s="9">
+        <v>103</v>
+      </c>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
@@ -33034,7 +33573,9 @@
       <c r="AB59" s="7">
         <v>356</v>
       </c>
-      <c r="AC59" s="7"/>
+      <c r="AC59" s="7">
+        <v>396</v>
+      </c>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
@@ -33306,7 +33847,9 @@
       <c r="AB60" s="9">
         <v>1323</v>
       </c>
-      <c r="AC60" s="9"/>
+      <c r="AC60" s="9">
+        <v>1373</v>
+      </c>
       <c r="AD60" s="9"/>
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
@@ -33578,7 +34121,9 @@
       <c r="AB61" s="7">
         <v>1526</v>
       </c>
-      <c r="AC61" s="7"/>
+      <c r="AC61" s="7">
+        <v>1574</v>
+      </c>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
@@ -33850,7 +34395,9 @@
       <c r="AB62" s="9">
         <v>1767</v>
       </c>
-      <c r="AC62" s="9"/>
+      <c r="AC62" s="9">
+        <v>1816</v>
+      </c>
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
@@ -34122,7 +34669,9 @@
       <c r="AB63" s="7">
         <v>1536</v>
       </c>
-      <c r="AC63" s="7"/>
+      <c r="AC63" s="7">
+        <v>1585</v>
+      </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
@@ -34394,7 +34943,9 @@
       <c r="AB64" s="9">
         <v>1048</v>
       </c>
-      <c r="AC64" s="9"/>
+      <c r="AC64" s="9">
+        <v>1076</v>
+      </c>
       <c r="AD64" s="9"/>
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
@@ -34666,7 +35217,9 @@
       <c r="AB65" s="7">
         <v>1057</v>
       </c>
-      <c r="AC65" s="7"/>
+      <c r="AC65" s="7">
+        <v>1087</v>
+      </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
@@ -34938,7 +35491,9 @@
       <c r="AB66" s="9">
         <v>2756</v>
       </c>
-      <c r="AC66" s="9"/>
+      <c r="AC66" s="9">
+        <v>2849</v>
+      </c>
       <c r="AD66" s="9"/>
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
@@ -35210,7 +35765,9 @@
       <c r="AB67" s="7">
         <v>63</v>
       </c>
-      <c r="AC67" s="7"/>
+      <c r="AC67" s="7">
+        <v>65</v>
+      </c>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
@@ -35482,7 +36039,9 @@
       <c r="AB68" s="15">
         <v>11621</v>
       </c>
-      <c r="AC68" s="15"/>
+      <c r="AC68" s="15">
+        <v>12034</v>
+      </c>
       <c r="AD68" s="15"/>
       <c r="AE68" s="15"/>
       <c r="AF68" s="15"/>
@@ -35756,6 +36315,9 @@
       <c r="AB70">
         <v>938</v>
       </c>
+      <c r="AC70">
+        <v>983</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -35774,200 +36336,176 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+      <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>291</v>
-      </c>
-      <c r="D1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
       <c r="D2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>396</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>1373</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>1574</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>1816</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>1323</v>
+        <v>1585</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>1526</v>
+        <v>1076</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2">
-        <v>1767</v>
+        <v>1087</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10">
-        <v>1536</v>
+        <v>2849</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11">
-        <v>1048</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>1057</v>
+        <v>12034</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13">
-        <v>2756</v>
-      </c>
-      <c r="C13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15">
-        <v>11621</v>
-      </c>
-      <c r="C15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" t="s">
         <v>289</v>
       </c>
     </row>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5802231F-449F-40A1-B2B7-DD7E5B7E96F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07AAD66-A7BF-46C2-A73E-9939961DF74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14950" yWindow="5190" windowWidth="24450" windowHeight="15170" tabRatio="512" activeTab="5" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="15940" yWindow="4800" windowWidth="24450" windowHeight="15170" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="313">
   <si>
     <t>borough</t>
   </si>
@@ -931,70 +931,88 @@
     <t>25AVRIL, 18h05</t>
   </si>
   <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>23,8</t>
-  </si>
-  <si>
     <t>active_cases_qc</t>
   </si>
   <si>
     <t>new_negative_tests_qc</t>
   </si>
   <si>
-    <t>582,6</t>
-  </si>
-  <si>
     <t> 0,9</t>
-  </si>
-  <si>
-    <t>99,2</t>
   </si>
   <si>
     <t>0,9</t>
   </si>
   <si>
-    <t>95,4</t>
-  </si>
-  <si>
     <t>3,3</t>
-  </si>
-  <si>
-    <t>199,1</t>
-  </si>
-  <si>
-    <t>11,5</t>
-  </si>
-  <si>
-    <t>426,3</t>
-  </si>
-  <si>
-    <t>479,1</t>
-  </si>
-  <si>
-    <t>15,2</t>
-  </si>
-  <si>
-    <t>652,4</t>
-  </si>
-  <si>
-    <t>617,5</t>
   </si>
   <si>
     <t>9,0</t>
   </si>
   <si>
-    <t>496,9</t>
+    <t>26AVRIL, 18h30</t>
   </si>
   <si>
-    <t>751,2</t>
+    <t>604,4</t>
   </si>
   <si>
-    <t>2 819,6</t>
+    <t>27AVRIL, 18h30</t>
   </si>
   <si>
-    <t>26AVRIL, 18h30</t>
+    <t>TOTAL DE CAS CONFIRMÉS¹</t>
+  </si>
+  <si>
+    <t>RÉPARTITION DES CAS (%)</t>
+  </si>
+  <si>
+    <t>TAUX POUR</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>PERSONNES</t>
+  </si>
+  <si>
+    <t>102,8</t>
+  </si>
+  <si>
+    <t>101,0</t>
+  </si>
+  <si>
+    <t>204,6</t>
+  </si>
+  <si>
+    <t>11,4</t>
+  </si>
+  <si>
+    <t>438,4</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>495,8</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>675,4</t>
+  </si>
+  <si>
+    <t>634,7</t>
+  </si>
+  <si>
+    <t>513,9</t>
+  </si>
+  <si>
+    <t>780,9</t>
+  </si>
+  <si>
+    <t>24,1</t>
+  </si>
+  <si>
+    <t>2 966,1</t>
   </si>
 </sst>
 </file>
@@ -1508,20 +1526,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="30" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,8 +1630,11 @@
       <c r="AD1" s="1">
         <v>43947</v>
       </c>
+      <c r="AE1" s="1">
+        <v>43948</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1704,8 +1725,11 @@
       <c r="AD2">
         <v>1007</v>
       </c>
+      <c r="AE2">
+        <v>1064</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1796,8 +1820,11 @@
       <c r="AD3">
         <v>279</v>
       </c>
+      <c r="AE3">
+        <v>288</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1888,8 +1915,11 @@
       <c r="AD4">
         <v>6</v>
       </c>
+      <c r="AE4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1980,8 +2010,11 @@
       <c r="AD5">
         <v>25</v>
       </c>
+      <c r="AE5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2072,8 +2105,11 @@
       <c r="AD6">
         <v>1097</v>
       </c>
+      <c r="AE6">
+        <v>1137</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2164,8 +2200,11 @@
       <c r="AD7">
         <v>335</v>
       </c>
+      <c r="AE7">
+        <v>346</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2256,8 +2295,11 @@
       <c r="AD8">
         <v>130</v>
       </c>
+      <c r="AE8">
+        <v>136</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2348,8 +2390,11 @@
       <c r="AD9">
         <v>77</v>
       </c>
+      <c r="AE9">
+        <v>78</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2440,8 +2485,11 @@
       <c r="AD10">
         <v>37</v>
       </c>
+      <c r="AE10">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2532,8 +2580,11 @@
       <c r="AD11">
         <v>27</v>
       </c>
+      <c r="AE11">
+        <v>27</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2624,8 +2675,11 @@
       <c r="AD12">
         <v>155</v>
       </c>
+      <c r="AE12">
+        <v>157</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2716,8 +2770,11 @@
       <c r="AD13">
         <v>485</v>
       </c>
+      <c r="AE13">
+        <v>497</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2808,8 +2865,11 @@
       <c r="AD14">
         <v>54</v>
       </c>
+      <c r="AE14">
+        <v>57</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2900,8 +2960,11 @@
       <c r="AD15">
         <v>830</v>
       </c>
+      <c r="AE15">
+        <v>852</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2992,8 +3055,11 @@
       <c r="AD16">
         <v>14</v>
       </c>
+      <c r="AE16">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3084,8 +3150,11 @@
       <c r="AD17">
         <v>1110</v>
       </c>
+      <c r="AE17">
+        <v>1153</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3176,8 +3245,11 @@
       <c r="AD18">
         <v>9</v>
       </c>
+      <c r="AE18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3268,8 +3340,11 @@
       <c r="AD19">
         <v>96</v>
       </c>
+      <c r="AE19">
+        <v>104</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3360,8 +3435,11 @@
       <c r="AD20">
         <v>183</v>
       </c>
+      <c r="AE20">
+        <v>188</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3452,8 +3530,11 @@
       <c r="AD21">
         <v>155</v>
       </c>
+      <c r="AE21">
+        <v>156</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3544,8 +3625,11 @@
       <c r="AD22">
         <v>488</v>
       </c>
+      <c r="AE22">
+        <v>508</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3636,8 +3720,11 @@
       <c r="AD23">
         <v>63</v>
       </c>
+      <c r="AE23">
+        <v>67</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3728,8 +3815,11 @@
       <c r="AD24">
         <v>869</v>
       </c>
+      <c r="AE24">
+        <v>908</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3820,8 +3910,11 @@
       <c r="AD25">
         <v>629</v>
       </c>
+      <c r="AE25">
+        <v>652</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3912,8 +4005,11 @@
       <c r="AD26">
         <v>8</v>
       </c>
+      <c r="AE26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4004,8 +4100,11 @@
       <c r="AD27">
         <v>433</v>
       </c>
+      <c r="AE27">
+        <v>452</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4096,8 +4195,11 @@
       <c r="AD28">
         <v>509</v>
       </c>
+      <c r="AE28">
+        <v>531</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4188,8 +4290,11 @@
       <c r="AD29">
         <v>2</v>
       </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4280,8 +4385,11 @@
       <c r="AD30">
         <v>500</v>
       </c>
+      <c r="AE30">
+        <v>525</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4372,8 +4480,11 @@
       <c r="AD31">
         <v>535</v>
       </c>
+      <c r="AE31">
+        <v>561</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4464,8 +4575,11 @@
       <c r="AD32">
         <v>322</v>
       </c>
+      <c r="AE32">
+        <v>326</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4556,8 +4670,11 @@
       <c r="AD33">
         <v>871</v>
       </c>
+      <c r="AE33">
+        <v>909</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4648,8 +4765,11 @@
       <c r="AD34">
         <v>91</v>
       </c>
+      <c r="AE34">
+        <v>101</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4739,6 +4859,9 @@
       </c>
       <c r="AD35">
         <v>604</v>
+      </c>
+      <c r="AE35">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4749,11 +4872,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE10" sqref="AE10"/>
+      <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4761,10 +4884,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4876,8 +4999,11 @@
       <c r="AD1" s="1">
         <v>43947</v>
       </c>
+      <c r="AE1" s="1">
+        <v>43948</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4995,8 +5121,12 @@
         <f>cases!AD2/(population_2016!$B2/1000)</f>
         <v>7.5012104733882081</v>
       </c>
+      <c r="AE2" s="3">
+        <f>cases!AE2/(population_2016!$B2/1000)</f>
+        <v>7.9258072926365966</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5114,8 +5244,12 @@
         <f>cases!AD3/(population_2016!$B3/1000)</f>
         <v>6.5193008692401158</v>
       </c>
+      <c r="AE3" s="3">
+        <f>cases!AE3/(population_2016!$B3/1000)</f>
+        <v>6.72960089728012</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5233,8 +5367,12 @@
         <f>cases!AD4/(population_2016!$B4/1000)</f>
         <v>1.5694480774261053</v>
       </c>
+      <c r="AE4" s="3">
+        <f>cases!AE4/(population_2016!$B4/1000)</f>
+        <v>1.5694480774261053</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5352,8 +5490,12 @@
         <f>cases!AD5/(population_2016!$B5/1000)</f>
         <v>1.2937280066238872</v>
       </c>
+      <c r="AE5" s="3">
+        <f>cases!AE5/(population_2016!$B5/1000)</f>
+        <v>1.2937280066238872</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5471,8 +5613,12 @@
         <f>cases!AD6/(population_2016!$B6/1000)</f>
         <v>6.5877972615901994</v>
       </c>
+      <c r="AE6" s="3">
+        <f>cases!AE6/(population_2016!$B6/1000)</f>
+        <v>6.828008647609896</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -5590,8 +5736,12 @@
         <f>cases!AD7/(population_2016!$B7/1000)</f>
         <v>10.324211045364891</v>
       </c>
+      <c r="AE7" s="3">
+        <f>cases!AE7/(population_2016!$B7/1000)</f>
+        <v>10.663214990138068</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5709,8 +5859,12 @@
         <f>cases!AD8/(population_2016!$B8/1000)</f>
         <v>2.6585410744596003</v>
       </c>
+      <c r="AE8" s="3">
+        <f>cases!AE8/(population_2016!$B8/1000)</f>
+        <v>2.7812429702038894</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5828,8 +5982,12 @@
         <f>cases!AD9/(population_2016!$B9/1000)</f>
         <v>4.0569020021074813</v>
       </c>
+      <c r="AE9" s="3">
+        <f>cases!AE9/(population_2016!$B9/1000)</f>
+        <v>4.10958904109589</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -5947,8 +6105,12 @@
         <f>cases!AD10/(population_2016!$B10/1000)</f>
         <v>5.3061809837946363</v>
       </c>
+      <c r="AE10" s="3">
+        <f>cases!AE10/(population_2016!$B10/1000)</f>
+        <v>5.4495912806539515</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -6066,8 +6228,12 @@
         <f>cases!AD11/(population_2016!$B11/1000)</f>
         <v>1.3398838767306833</v>
       </c>
+      <c r="AE11" s="3">
+        <f>cases!AE11/(population_2016!$B11/1000)</f>
+        <v>1.3398838767306833</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6185,8 +6351,12 @@
         <f>cases!AD12/(population_2016!$B12/1000)</f>
         <v>3.4840072826990944</v>
       </c>
+      <c r="AE12" s="3">
+        <f>cases!AE12/(population_2016!$B12/1000)</f>
+        <v>3.5289622153790825</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6304,8 +6474,12 @@
         <f>cases!AD13/(population_2016!$B13/1000)</f>
         <v>6.3107490924231984</v>
       </c>
+      <c r="AE13" s="3">
+        <f>cases!AE13/(population_2016!$B13/1000)</f>
+        <v>6.466891338008927</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6423,8 +6597,12 @@
         <f>cases!AD14/(population_2016!$B14/1000)</f>
         <v>2.9327105849128334</v>
       </c>
+      <c r="AE14" s="3">
+        <f>cases!AE14/(population_2016!$B14/1000)</f>
+        <v>3.095638950741324</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6542,8 +6720,12 @@
         <f>cases!AD15/(population_2016!$B15/1000)</f>
         <v>6.1018643768746692</v>
       </c>
+      <c r="AE15" s="3">
+        <f>cases!AE15/(population_2016!$B15/1000)</f>
+        <v>6.2636005410809856</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6661,8 +6843,12 @@
         <f>cases!AD16/(population_2016!$B16/1000)</f>
         <v>3.6363636363636362</v>
       </c>
+      <c r="AE16" s="3">
+        <f>cases!AE16/(population_2016!$B16/1000)</f>
+        <v>4.1558441558441555</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6780,8 +6966,12 @@
         <f>cases!AD17/(population_2016!$B17/1000)</f>
         <v>13.177576750480805</v>
       </c>
+      <c r="AE17" s="3">
+        <f>cases!AE17/(population_2016!$B17/1000)</f>
+        <v>13.688059453427359</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -6899,8 +7089,12 @@
         <f>cases!AD18/(population_2016!$B18/1000)</f>
         <v>1.7821782178217822</v>
       </c>
+      <c r="AE18" s="3">
+        <f>cases!AE18/(population_2016!$B18/1000)</f>
+        <v>1.9801980198019802</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -7018,8 +7212,12 @@
         <f>cases!AD19/(population_2016!$B19/1000)</f>
         <v>4.7346616689682381</v>
       </c>
+      <c r="AE19" s="3">
+        <f>cases!AE19/(population_2016!$B19/1000)</f>
+        <v>5.1292168080489251</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -7137,8 +7335,12 @@
         <f>cases!AD20/(population_2016!$B20/1000)</f>
         <v>7.6396426484094508</v>
       </c>
+      <c r="AE20" s="3">
+        <f>cases!AE20/(population_2016!$B20/1000)</f>
+        <v>7.8483760541036984</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -7256,8 +7458,12 @@
         <f>cases!AD21/(population_2016!$B21/1000)</f>
         <v>2.2367490656161162</v>
       </c>
+      <c r="AE21" s="3">
+        <f>cases!AE21/(population_2016!$B21/1000)</f>
+        <v>2.2511797047491235</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7375,8 +7581,12 @@
         <f>cases!AD22/(population_2016!$B22/1000)</f>
         <v>4.6923076923076925</v>
       </c>
+      <c r="AE22" s="3">
+        <f>cases!AE22/(population_2016!$B22/1000)</f>
+        <v>4.884615384615385</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -7494,8 +7704,12 @@
         <f>cases!AD23/(population_2016!$B23/1000)</f>
         <v>2.0076481835564053</v>
       </c>
+      <c r="AE23" s="3">
+        <f>cases!AE23/(population_2016!$B23/1000)</f>
+        <v>2.1351179094964947</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7613,8 +7827,12 @@
         <f>cases!AD24/(population_2016!$B24/1000)</f>
         <v>8.141049061765175</v>
       </c>
+      <c r="AE24" s="3">
+        <f>cases!AE24/(population_2016!$B24/1000)</f>
+        <v>8.5064125984842107</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -7732,8 +7950,12 @@
         <f>cases!AD25/(population_2016!$B25/1000)</f>
         <v>4.5060534422236547</v>
       </c>
+      <c r="AE25" s="3">
+        <f>cases!AE25/(population_2016!$B25/1000)</f>
+        <v>4.6708216920982881</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -7851,8 +8073,12 @@
         <f>cases!AD26/(population_2016!$B26/1000)</f>
         <v>1.6135538523598225</v>
       </c>
+      <c r="AE26" s="3">
+        <f>cases!AE26/(population_2016!$B26/1000)</f>
+        <v>1.8152480839048002</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -7970,8 +8196,12 @@
         <f>cases!AD27/(population_2016!$B27/1000)</f>
         <v>4.3813494151455048</v>
       </c>
+      <c r="AE27" s="3">
+        <f>cases!AE27/(population_2016!$B27/1000)</f>
+        <v>4.5736026227384947</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8089,8 +8319,12 @@
         <f>cases!AD28/(population_2016!$B28/1000)</f>
         <v>6.5002234850903511</v>
       </c>
+      <c r="AE28" s="3">
+        <f>cases!AE28/(population_2016!$B28/1000)</f>
+        <v>6.7811761701040796</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -8208,8 +8442,12 @@
         <f>cases!AD29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AE29" s="3">
+        <f>cases!AE29/(population_2016!$B29/1000)</f>
+        <v>2.1715526601520088</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8327,8 +8565,12 @@
         <f>cases!AD30/(population_2016!$B30/1000)</f>
         <v>6.397870788601554</v>
       </c>
+      <c r="AE30" s="3">
+        <f>cases!AE30/(population_2016!$B30/1000)</f>
+        <v>6.717764328031631</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8446,8 +8688,12 @@
         <f>cases!AD31/(population_2016!$B31/1000)</f>
         <v>7.7279752704791349</v>
       </c>
+      <c r="AE31" s="3">
+        <f>cases!AE31/(population_2016!$B31/1000)</f>
+        <v>8.1035404238108306</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8565,8 +8811,12 @@
         <f>cases!AD32/(population_2016!$B32/1000)</f>
         <v>3.6110799596276775</v>
       </c>
+      <c r="AE32" s="3">
+        <f>cases!AE32/(population_2016!$B32/1000)</f>
+        <v>3.6559380957721208</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8684,8 +8934,12 @@
         <f>cases!AD33/(population_2016!$B33/1000)</f>
         <v>6.0547920446566978</v>
       </c>
+      <c r="AE33" s="3">
+        <f>cases!AE33/(population_2016!$B33/1000)</f>
+        <v>6.3189505953994702</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -8802,6 +9056,10 @@
       <c r="AD34" s="3">
         <f>cases!AD34/(population_2016!$B34/1000)</f>
         <v>4.4801102796376524</v>
+      </c>
+      <c r="AE34" s="3">
+        <f>cases!AE34/(population_2016!$B34/1000)</f>
+        <v>4.9724300905868448</v>
       </c>
     </row>
   </sheetData>
@@ -8811,11 +9069,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS44"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D44" sqref="D44"/>
+      <selection pane="topRight" activeCell="AP48" sqref="AP48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10222,11 +10480,11 @@
       </c>
       <c r="B11" s="17">
         <f>mtl_newcases!C12</f>
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C11" s="17">
         <f>mtl_newcases!B12</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>102</v>
@@ -10361,7 +10619,7 @@
       </c>
       <c r="B12" s="17">
         <f>mtl_newcases!C13</f>
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C12" s="17">
         <f>mtl_newcases!B13</f>
@@ -10500,7 +10758,7 @@
       </c>
       <c r="B13" s="17">
         <f>mtl_newcases!C14</f>
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C13" s="17">
         <f>mtl_newcases!B14</f>
@@ -10643,7 +10901,7 @@
       </c>
       <c r="C14" s="17">
         <f>mtl_newcases!B15</f>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>102</v>
@@ -10778,11 +11036,11 @@
       </c>
       <c r="B15" s="17">
         <f>mtl_newcases!C16</f>
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C15" s="17">
         <f>mtl_newcases!B16</f>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>102</v>
@@ -10917,11 +11175,11 @@
       </c>
       <c r="B16" s="17">
         <f>mtl_newcases!C17</f>
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C16" s="17">
         <f>mtl_newcases!B17</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>102</v>
@@ -11056,11 +11314,11 @@
       </c>
       <c r="B17" s="17">
         <f>mtl_newcases!C18</f>
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C17" s="17">
         <f>mtl_newcases!B18</f>
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>102</v>
@@ -11195,11 +11453,11 @@
       </c>
       <c r="B18" s="17">
         <f>mtl_newcases!C19</f>
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="C18" s="17">
         <f>mtl_newcases!B19</f>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>102</v>
@@ -11365,11 +11623,11 @@
       </c>
       <c r="B19" s="17">
         <f>mtl_newcases!C20</f>
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="C19" s="17">
         <f>mtl_newcases!B20</f>
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>102</v>
@@ -11535,11 +11793,11 @@
       </c>
       <c r="B20" s="17">
         <f>mtl_newcases!C21</f>
-        <v>2963</v>
+        <v>2956</v>
       </c>
       <c r="C20" s="17">
         <f>mtl_newcases!B21</f>
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>102</v>
@@ -11705,7 +11963,7 @@
       </c>
       <c r="B21" s="17">
         <f>mtl_newcases!C22</f>
-        <v>3310</v>
+        <v>3303</v>
       </c>
       <c r="C21" s="17">
         <f>mtl_newcases!B22</f>
@@ -11875,11 +12133,11 @@
       </c>
       <c r="B22" s="17">
         <f>mtl_newcases!C23</f>
-        <v>3651</v>
+        <v>3643</v>
       </c>
       <c r="C22" s="17">
         <f>mtl_newcases!B23</f>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>102</v>
@@ -12045,7 +12303,7 @@
       </c>
       <c r="B23" s="17">
         <f>mtl_newcases!C24</f>
-        <v>3900</v>
+        <v>3892</v>
       </c>
       <c r="C23" s="17">
         <f>mtl_newcases!B24</f>
@@ -12215,7 +12473,7 @@
       </c>
       <c r="B24" s="17">
         <f>mtl_newcases!C25</f>
-        <v>4339</v>
+        <v>4331</v>
       </c>
       <c r="C24" s="17">
         <f>mtl_newcases!B25</f>
@@ -12385,7 +12643,7 @@
       </c>
       <c r="B25" s="17">
         <f>mtl_newcases!C26</f>
-        <v>4741</v>
+        <v>4733</v>
       </c>
       <c r="C25" s="17">
         <f>mtl_newcases!B26</f>
@@ -12556,11 +12814,11 @@
       </c>
       <c r="B26" s="17">
         <f>mtl_newcases!C27</f>
-        <v>5091</v>
+        <v>5082</v>
       </c>
       <c r="C26" s="17">
         <f>mtl_newcases!B27</f>
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D26">
         <v>91</v>
@@ -12727,11 +12985,11 @@
       </c>
       <c r="B27" s="17">
         <f>mtl_newcases!C28</f>
-        <v>5414</v>
+        <v>5406</v>
       </c>
       <c r="C27" s="17">
         <f>mtl_newcases!B28</f>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -12898,11 +13156,11 @@
       </c>
       <c r="B28" s="17">
         <f>mtl_newcases!C29</f>
-        <v>5694</v>
+        <v>5685</v>
       </c>
       <c r="C28" s="17">
         <f>mtl_newcases!B29</f>
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28">
         <v>135</v>
@@ -13069,11 +13327,11 @@
       </c>
       <c r="B29" s="17">
         <f>mtl_newcases!C30</f>
-        <v>5912</v>
+        <v>5901</v>
       </c>
       <c r="C29" s="17">
         <f>mtl_newcases!B30</f>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D29">
         <v>147</v>
@@ -13240,7 +13498,7 @@
       </c>
       <c r="B30" s="17">
         <f>mtl_newcases!C31</f>
-        <v>6212</v>
+        <v>6201</v>
       </c>
       <c r="C30" s="17">
         <f>mtl_newcases!B31</f>
@@ -13411,7 +13669,7 @@
       </c>
       <c r="B31" s="17">
         <f>mtl_newcases!C32</f>
-        <v>6640</v>
+        <v>6629</v>
       </c>
       <c r="C31" s="17">
         <f>mtl_newcases!B32</f>
@@ -13582,11 +13840,11 @@
       </c>
       <c r="B32" s="17">
         <f>mtl_newcases!C33</f>
-        <v>7045</v>
+        <v>7031</v>
       </c>
       <c r="C32" s="17">
         <f>mtl_newcases!B33</f>
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D32">
         <v>242</v>
@@ -13753,11 +14011,11 @@
       </c>
       <c r="B33" s="17">
         <f>mtl_newcases!C34</f>
-        <v>7635</v>
+        <v>7626</v>
       </c>
       <c r="C33" s="17">
         <f>mtl_newcases!B34</f>
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D33">
         <v>332</v>
@@ -13924,11 +14182,11 @@
       </c>
       <c r="B34" s="17">
         <f>mtl_newcases!C35</f>
-        <v>8029</v>
+        <v>8018</v>
       </c>
       <c r="C34" s="17">
         <f>mtl_newcases!B35</f>
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D34">
         <v>391</v>
@@ -14095,11 +14353,11 @@
       </c>
       <c r="B35" s="17">
         <f>mtl_newcases!C36</f>
-        <v>8536</v>
+        <v>8558</v>
       </c>
       <c r="C35" s="17">
         <f>mtl_newcases!B36</f>
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="D35">
         <v>454</v>
@@ -14266,11 +14524,11 @@
       </c>
       <c r="B36" s="17">
         <f>mtl_newcases!C37</f>
-        <v>8823</v>
+        <v>8866</v>
       </c>
       <c r="C36" s="17">
         <f>mtl_newcases!B37</f>
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="D36">
         <v>513</v>
@@ -14437,11 +14695,11 @@
       </c>
       <c r="B37" s="17">
         <f>mtl_newcases!C38</f>
-        <v>9183</v>
+        <v>9248</v>
       </c>
       <c r="C37" s="17">
         <f>mtl_newcases!B38</f>
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D37">
         <v>525</v>
@@ -14577,11 +14835,11 @@
       </c>
       <c r="B38" s="17">
         <f>mtl_newcases!C39</f>
-        <v>9603</v>
+        <v>9701</v>
       </c>
       <c r="C38" s="17">
         <f>mtl_newcases!B39</f>
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="D38">
         <v>583</v>
@@ -14748,11 +15006,11 @@
       </c>
       <c r="B39" s="17">
         <f>mtl_newcases!C40</f>
-        <v>10030</v>
+        <v>10120</v>
       </c>
       <c r="C39" s="17">
         <f>mtl_newcases!B40</f>
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D39">
         <v>647</v>
@@ -14919,11 +15177,11 @@
       </c>
       <c r="B40" s="17">
         <f>mtl_newcases!C41</f>
-        <v>10542</v>
+        <v>10637</v>
       </c>
       <c r="C40" s="17">
         <f>mtl_newcases!B41</f>
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D40">
         <v>741</v>
@@ -15090,11 +15348,11 @@
       </c>
       <c r="B41" s="17">
         <f>mtl_newcases!C42</f>
-        <v>11003</v>
+        <v>11140</v>
       </c>
       <c r="C41" s="17">
         <f>mtl_newcases!B42</f>
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="D41">
         <v>808</v>
@@ -15261,11 +15519,11 @@
       </c>
       <c r="B42" s="17">
         <f>mtl_newcases!C43</f>
-        <v>11486</v>
+        <v>11626</v>
       </c>
       <c r="C42" s="17">
         <f>mtl_newcases!B43</f>
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D42">
         <v>895</v>
@@ -15432,11 +15690,11 @@
       </c>
       <c r="B43" s="17">
         <f>mtl_newcases!C44</f>
-        <v>11621</v>
+        <v>11900</v>
       </c>
       <c r="C43" s="17">
         <f>mtl_newcases!B44</f>
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="D43">
         <v>938</v>
@@ -15603,11 +15861,11 @@
       </c>
       <c r="B44" s="17">
         <f>mtl_newcases!C45</f>
-        <v>12034</v>
+        <v>12183</v>
       </c>
       <c r="C44" s="17">
         <f>mtl_newcases!B45</f>
-        <v>413</v>
+        <v>283</v>
       </c>
       <c r="D44">
         <v>983</v>
@@ -15766,6 +16024,177 @@
       <c r="AS44" s="3">
         <f t="shared" ref="AS44" si="415">Y44*100/SUM($P44:$Y44)</f>
         <v>41.338416901157693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A45" s="19">
+        <v>43948</v>
+      </c>
+      <c r="B45" s="17">
+        <f>mtl_newcases!C46</f>
+        <v>12486</v>
+      </c>
+      <c r="C45" s="17">
+        <f>mtl_newcases!B46</f>
+        <v>303</v>
+      </c>
+      <c r="D45">
+        <v>983</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="416">D45-D44</f>
+        <v>0</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45:O45">TRANSPOSE(santemontreal!AD$57:AD$66)</f>
+        <v>114</v>
+      </c>
+      <c r="G45">
+        <v>109</v>
+      </c>
+      <c r="H45">
+        <v>407</v>
+      </c>
+      <c r="I45">
+        <v>1412</v>
+      </c>
+      <c r="J45">
+        <v>1629</v>
+      </c>
+      <c r="K45">
+        <v>1880</v>
+      </c>
+      <c r="L45">
+        <v>1629</v>
+      </c>
+      <c r="M45">
+        <v>1113</v>
+      </c>
+      <c r="N45">
+        <v>1130</v>
+      </c>
+      <c r="O45">
+        <v>2997</v>
+      </c>
+      <c r="P45" s="18">
+        <f>F45/(age_distribution_2016!$B$2/100000)</f>
+        <v>103.88190267905961</v>
+      </c>
+      <c r="Q45" s="18">
+        <f>G45/(age_distribution_2016!$B$3/100000)</f>
+        <v>104.42113330459358</v>
+      </c>
+      <c r="R45" s="18">
+        <f>H45/(age_distribution_2016!$B$4/100000)</f>
+        <v>216.2765363870659</v>
+      </c>
+      <c r="S45" s="18">
+        <f>I45/(age_distribution_2016!$B$5/100000)</f>
+        <v>481.54147838690426</v>
+      </c>
+      <c r="T45" s="18">
+        <f>J45/(age_distribution_2016!$B$6/100000)</f>
+        <v>543.58888796195879</v>
+      </c>
+      <c r="U45" s="18">
+        <f>K45/(age_distribution_2016!$B$7/100000)</f>
+        <v>738.77591118970429</v>
+      </c>
+      <c r="V45" s="18">
+        <f>L45/(age_distribution_2016!$B$8/100000)</f>
+        <v>629.26122646064698</v>
+      </c>
+      <c r="W45" s="18">
+        <f>M45/(age_distribution_2016!$B$9/100000)</f>
+        <v>542.91358747347624</v>
+      </c>
+      <c r="X45" s="18">
+        <f>N45/(age_distribution_2016!$B$10/100000)</f>
+        <v>871.37569401603946</v>
+      </c>
+      <c r="Y45" s="18">
+        <f>O45/(age_distribution_2016!$B$11/100000)</f>
+        <v>3033.247305298315</v>
+      </c>
+      <c r="Z45" s="3">
+        <f t="shared" ref="Z45" si="417">F45*100/SUM($F45:$O45)</f>
+        <v>0.91787439613526567</v>
+      </c>
+      <c r="AA45" s="3">
+        <f t="shared" ref="AA45" si="418">G45*100/SUM($F45:$O45)</f>
+        <v>0.87761674718196458</v>
+      </c>
+      <c r="AB45" s="3">
+        <f t="shared" ref="AB45" si="419">H45*100/SUM($F45:$O45)</f>
+        <v>3.2769726247987117</v>
+      </c>
+      <c r="AC45" s="3">
+        <f t="shared" ref="AC45" si="420">I45*100/SUM($F45:$O45)</f>
+        <v>11.368760064412239</v>
+      </c>
+      <c r="AD45" s="3">
+        <f t="shared" ref="AD45" si="421">J45*100/SUM($F45:$O45)</f>
+        <v>13.115942028985508</v>
+      </c>
+      <c r="AE45" s="3">
+        <f t="shared" ref="AE45" si="422">K45*100/SUM($F45:$O45)</f>
+        <v>15.136876006441224</v>
+      </c>
+      <c r="AF45" s="3">
+        <f t="shared" ref="AF45" si="423">L45*100/SUM($F45:$O45)</f>
+        <v>13.115942028985508</v>
+      </c>
+      <c r="AG45" s="3">
+        <f t="shared" ref="AG45" si="424">M45*100/SUM($F45:$O45)</f>
+        <v>8.9613526570048307</v>
+      </c>
+      <c r="AH45" s="3">
+        <f t="shared" ref="AH45" si="425">N45*100/SUM($F45:$O45)</f>
+        <v>9.0982286634460543</v>
+      </c>
+      <c r="AI45" s="3">
+        <f t="shared" ref="AI45" si="426">O45*100/SUM($F45:$O45)</f>
+        <v>24.130434782608695</v>
+      </c>
+      <c r="AJ45" s="3">
+        <f t="shared" ref="AJ45" si="427">P45*100/SUM($P45:$Y45)</f>
+        <v>1.4298395973972011</v>
+      </c>
+      <c r="AK45" s="3">
+        <f t="shared" ref="AK45" si="428">Q45*100/SUM($P45:$Y45)</f>
+        <v>1.4372616149058695</v>
+      </c>
+      <c r="AL45" s="3">
+        <f t="shared" ref="AL45" si="429">R45*100/SUM($P45:$Y45)</f>
+        <v>2.9768491694798334</v>
+      </c>
+      <c r="AM45" s="3">
+        <f t="shared" ref="AM45" si="430">S45*100/SUM($P45:$Y45)</f>
+        <v>6.6279790399485705</v>
+      </c>
+      <c r="AN45" s="3">
+        <f t="shared" ref="AN45" si="431">T45*100/SUM($P45:$Y45)</f>
+        <v>7.4820050140436605</v>
+      </c>
+      <c r="AO45" s="3">
+        <f t="shared" ref="AO45" si="432">U45*100/SUM($P45:$Y45)</f>
+        <v>10.168576279217222</v>
+      </c>
+      <c r="AP45" s="3">
+        <f t="shared" ref="AP45" si="433">V45*100/SUM($P45:$Y45)</f>
+        <v>8.661206576855756</v>
+      </c>
+      <c r="AQ45" s="3">
+        <f t="shared" ref="AQ45" si="434">W45*100/SUM($P45:$Y45)</f>
+        <v>7.4727101190362291</v>
+      </c>
+      <c r="AR45" s="3">
+        <f t="shared" ref="AR45" si="435">X45*100/SUM($P45:$Y45)</f>
+        <v>11.993691291570398</v>
+      </c>
+      <c r="AS45" s="3">
+        <f t="shared" ref="AS45" si="436">Y45*100/SUM($P45:$Y45)</f>
+        <v>41.749881297545265</v>
       </c>
     </row>
   </sheetData>
@@ -15775,11 +16204,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15805,7 +16234,7 @@
         <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
         <v>164</v>
@@ -15823,7 +16252,7 @@
         <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K1" t="s">
         <v>165</v>
@@ -15910,7 +16339,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C56" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C57" si="0">B4-B3</f>
         <v>1</v>
       </c>
       <c r="D4">
@@ -15920,7 +16349,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F56" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F57" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -15933,7 +16362,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J56" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J57" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -17914,6 +18343,44 @@
       </c>
       <c r="K56">
         <v>5517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B57">
+        <v>25757</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="D57">
+        <v>18234</v>
+      </c>
+      <c r="E57">
+        <v>1682</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="G57">
+        <v>1625</v>
+      </c>
+      <c r="H57">
+        <v>217</v>
+      </c>
+      <c r="I57">
+        <v>178715</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>3525</v>
+      </c>
+      <c r="K57">
+        <v>5841</v>
       </c>
     </row>
   </sheetData>
@@ -17923,11 +18390,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6959A7-678F-4782-AEA8-33A89ACBBFD9}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18080,11 +18547,11 @@
         <v>43914</v>
       </c>
       <c r="B12">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -18096,7 +18563,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -18108,7 +18575,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -18116,7 +18583,7 @@
         <v>43917</v>
       </c>
       <c r="B15">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -18128,11 +18595,11 @@
         <v>43918</v>
       </c>
       <c r="B16">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -18140,11 +18607,11 @@
         <v>43919</v>
       </c>
       <c r="B17">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="E17" s="19">
         <v>43919</v>
@@ -18154,7 +18621,7 @@
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G20" si="1">C17-F17</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -18162,11 +18629,11 @@
         <v>43920</v>
       </c>
       <c r="B18">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E18" s="19">
         <v>43920</v>
@@ -18176,7 +18643,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -18184,11 +18651,11 @@
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="E19" s="19">
         <v>43921</v>
@@ -18198,7 +18665,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -18206,11 +18673,11 @@
         <v>43922</v>
       </c>
       <c r="B20">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="E20" s="19">
         <v>43922</v>
@@ -18220,7 +18687,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-77</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -18228,11 +18695,11 @@
         <v>43923</v>
       </c>
       <c r="B21">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2963</v>
+        <v>2956</v>
       </c>
       <c r="E21" s="19">
         <v>43923</v>
@@ -18242,7 +18709,7 @@
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G26" si="2">C21-F21</f>
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -18254,7 +18721,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3310</v>
+        <v>3303</v>
       </c>
       <c r="E22" s="19">
         <v>43924</v>
@@ -18264,7 +18731,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -18272,11 +18739,11 @@
         <v>43925</v>
       </c>
       <c r="B23">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3651</v>
+        <v>3643</v>
       </c>
       <c r="E23" s="19">
         <v>43925</v>
@@ -18286,7 +18753,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>-62</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -18298,7 +18765,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3900</v>
+        <v>3892</v>
       </c>
       <c r="E24" s="19">
         <v>43926</v>
@@ -18308,7 +18775,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>-77</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -18320,7 +18787,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4339</v>
+        <v>4331</v>
       </c>
       <c r="E25" s="19">
         <v>43927</v>
@@ -18330,7 +18797,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>-68</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -18342,7 +18809,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>4741</v>
+        <v>4733</v>
       </c>
       <c r="E26" s="19">
         <v>43928</v>
@@ -18352,7 +18819,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>-34</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -18360,11 +18827,11 @@
         <v>43929</v>
       </c>
       <c r="B27">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5091</v>
+        <v>5082</v>
       </c>
       <c r="E27" s="19">
         <v>43929</v>
@@ -18374,7 +18841,7 @@
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="3">C27-F27</f>
-        <v>-171</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -18382,11 +18849,11 @@
         <v>43930</v>
       </c>
       <c r="B28">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C37" si="4">C27+B28</f>
-        <v>5414</v>
+        <v>5406</v>
       </c>
       <c r="E28" s="19">
         <v>43930</v>
@@ -18396,7 +18863,7 @@
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G33" si="5">C28-F28</f>
-        <v>-203</v>
+        <v>-211</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -18404,11 +18871,11 @@
         <v>43931</v>
       </c>
       <c r="B29">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>5694</v>
+        <v>5685</v>
       </c>
       <c r="E29" s="19">
         <v>43931</v>
@@ -18418,7 +18885,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-167</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -18426,11 +18893,11 @@
         <v>43932</v>
       </c>
       <c r="B30">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>5912</v>
+        <v>5901</v>
       </c>
       <c r="E30" s="19">
         <v>43932</v>
@@ -18440,7 +18907,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>-176</v>
+        <v>-187</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -18452,7 +18919,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>6212</v>
+        <v>6201</v>
       </c>
       <c r="E31" s="19">
         <v>43933</v>
@@ -18462,7 +18929,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>-181</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -18474,7 +18941,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>6640</v>
+        <v>6629</v>
       </c>
       <c r="E32" s="19">
         <v>43934</v>
@@ -18484,7 +18951,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -18492,11 +18959,11 @@
         <v>43935</v>
       </c>
       <c r="B33">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>7045</v>
+        <v>7031</v>
       </c>
       <c r="E33" s="19">
         <v>43935</v>
@@ -18506,7 +18973,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -18514,11 +18981,11 @@
         <v>43936</v>
       </c>
       <c r="B34">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>7635</v>
+        <v>7626</v>
       </c>
       <c r="E34" s="19">
         <v>43936</v>
@@ -18528,7 +18995,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G36" si="6">C34-F34</f>
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -18536,11 +19003,11 @@
         <v>43937</v>
       </c>
       <c r="B35">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>8029</v>
+        <v>8018</v>
       </c>
       <c r="E35" s="19">
         <v>43937</v>
@@ -18550,7 +19017,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -18558,11 +19025,11 @@
         <v>43938</v>
       </c>
       <c r="B36">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>8536</v>
+        <v>8558</v>
       </c>
       <c r="E36" s="19">
         <v>43938</v>
@@ -18572,7 +19039,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -18580,11 +19047,11 @@
         <v>43939</v>
       </c>
       <c r="B37" s="23">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>8823</v>
+        <v>8866</v>
       </c>
       <c r="E37" s="19">
         <v>43939</v>
@@ -18594,7 +19061,7 @@
       </c>
       <c r="G37">
         <f t="shared" ref="G37" si="7">C37-F37</f>
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -18602,11 +19069,11 @@
         <v>43940</v>
       </c>
       <c r="B38" s="23">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C39" si="8">C37+B38</f>
-        <v>9183</v>
+        <v>9248</v>
       </c>
       <c r="E38" s="19">
         <v>43940</v>
@@ -18616,7 +19083,7 @@
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="9">C38-F38</f>
-        <v>219</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -18624,11 +19091,11 @@
         <v>43941</v>
       </c>
       <c r="B39">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>9603</v>
+        <v>9701</v>
       </c>
       <c r="E39" s="19">
         <v>43941</v>
@@ -18638,7 +19105,7 @@
       </c>
       <c r="G39">
         <f t="shared" ref="G39" si="10">C39-F39</f>
-        <v>255</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -18646,11 +19113,11 @@
         <v>43942</v>
       </c>
       <c r="B40">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40" si="11">C39+B40</f>
-        <v>10030</v>
+        <v>10120</v>
       </c>
       <c r="E40" s="19">
         <v>43942</v>
@@ -18660,7 +19127,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40" si="12">C40-F40</f>
-        <v>174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18668,11 +19135,11 @@
         <v>43943</v>
       </c>
       <c r="B41">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C44" si="13">C40+B41</f>
-        <v>10542</v>
+        <f t="shared" ref="C41:C46" si="13">C40+B41</f>
+        <v>10637</v>
       </c>
       <c r="E41" s="19">
         <v>43943</v>
@@ -18682,7 +19149,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41" si="14">C41-F41</f>
-        <v>167</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18690,11 +19157,11 @@
         <v>43944</v>
       </c>
       <c r="B42" s="23">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="C42">
         <f t="shared" si="13"/>
-        <v>11003</v>
+        <v>11140</v>
       </c>
       <c r="E42" s="19">
         <v>43944</v>
@@ -18704,7 +19171,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G44" si="15">C42-F42</f>
-        <v>106</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -18712,11 +19179,11 @@
         <v>43945</v>
       </c>
       <c r="B43" s="23">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C43">
         <f t="shared" si="13"/>
-        <v>11486</v>
+        <v>11626</v>
       </c>
       <c r="E43" s="19">
         <v>43945</v>
@@ -18726,19 +19193,19 @@
       </c>
       <c r="G43">
         <f t="shared" si="15"/>
-        <v>325</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>43946</v>
       </c>
-      <c r="B44" s="24">
-        <v>135</v>
+      <c r="B44" s="23">
+        <v>274</v>
       </c>
       <c r="C44">
         <f t="shared" si="13"/>
-        <v>11621</v>
+        <v>11900</v>
       </c>
       <c r="E44" s="19">
         <v>43946</v>
@@ -18748,18 +19215,19 @@
       </c>
       <c r="G44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>43947</v>
       </c>
-      <c r="B45" s="24">
-        <v>413</v>
+      <c r="B45" s="23">
+        <v>283</v>
       </c>
       <c r="C45">
-        <v>12034</v>
+        <f t="shared" si="13"/>
+        <v>12183</v>
       </c>
       <c r="E45" s="19">
         <v>43947</v>
@@ -18768,7 +19236,29 @@
         <v>12034</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45" si="16">C45-F45</f>
+        <f>C45-F45</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="19">
+        <v>43948</v>
+      </c>
+      <c r="B46" s="24">
+        <v>303</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="13"/>
+        <v>12486</v>
+      </c>
+      <c r="E46" s="19">
+        <v>43948</v>
+      </c>
+      <c r="F46">
+        <v>12486</v>
+      </c>
+      <c r="G46">
+        <f>C46-F46</f>
         <v>0</v>
       </c>
     </row>
@@ -18782,9 +19272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC56" sqref="AC56"/>
+      <selection pane="topRight" activeCell="AD35" sqref="AD2:AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18881,9 +19371,11 @@
         <v>284</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD1" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -19159,7 +19651,9 @@
       <c r="AC2" s="7">
         <v>1007</v>
       </c>
-      <c r="AD2" s="7"/>
+      <c r="AD2" s="7">
+        <v>1064</v>
+      </c>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
@@ -19435,7 +19929,9 @@
       <c r="AC3" s="9">
         <v>279</v>
       </c>
-      <c r="AD3" s="9"/>
+      <c r="AD3" s="9">
+        <v>288</v>
+      </c>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
@@ -19711,7 +20207,9 @@
       <c r="AC4" s="7">
         <v>6</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7">
+        <v>6</v>
+      </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -19987,7 +20485,9 @@
       <c r="AC5" s="9">
         <v>25</v>
       </c>
-      <c r="AD5" s="9"/>
+      <c r="AD5" s="9">
+        <v>25</v>
+      </c>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -20263,7 +20763,9 @@
       <c r="AC6" s="7">
         <v>1097</v>
       </c>
-      <c r="AD6" s="7"/>
+      <c r="AD6" s="7">
+        <v>1137</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
@@ -20539,7 +21041,9 @@
       <c r="AC7" s="9">
         <v>335</v>
       </c>
-      <c r="AD7" s="9"/>
+      <c r="AD7" s="9">
+        <v>346</v>
+      </c>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
@@ -20815,7 +21319,9 @@
       <c r="AC8" s="7">
         <v>130</v>
       </c>
-      <c r="AD8" s="7"/>
+      <c r="AD8" s="7">
+        <v>136</v>
+      </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -21091,7 +21597,9 @@
       <c r="AC9" s="9">
         <v>77</v>
       </c>
-      <c r="AD9" s="9"/>
+      <c r="AD9" s="9">
+        <v>78</v>
+      </c>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
@@ -21367,7 +21875,9 @@
       <c r="AC10" s="7">
         <v>37</v>
       </c>
-      <c r="AD10" s="7"/>
+      <c r="AD10" s="7">
+        <v>38</v>
+      </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
@@ -21643,7 +22153,9 @@
       <c r="AC11" s="9">
         <v>27</v>
       </c>
-      <c r="AD11" s="9"/>
+      <c r="AD11" s="9">
+        <v>27</v>
+      </c>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
@@ -21919,7 +22431,9 @@
       <c r="AC12" s="7">
         <v>155</v>
       </c>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="7">
+        <v>157</v>
+      </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
@@ -22195,7 +22709,9 @@
       <c r="AC13" s="9">
         <v>485</v>
       </c>
-      <c r="AD13" s="9"/>
+      <c r="AD13" s="9">
+        <v>497</v>
+      </c>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -22471,7 +22987,9 @@
       <c r="AC14" s="7">
         <v>54</v>
       </c>
-      <c r="AD14" s="7"/>
+      <c r="AD14" s="7">
+        <v>57</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
@@ -22747,7 +23265,9 @@
       <c r="AC15" s="9">
         <v>830</v>
       </c>
-      <c r="AD15" s="9"/>
+      <c r="AD15" s="9">
+        <v>852</v>
+      </c>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -23023,7 +23543,9 @@
       <c r="AC16" s="7">
         <v>14</v>
       </c>
-      <c r="AD16" s="7"/>
+      <c r="AD16" s="7">
+        <v>16</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
@@ -23299,7 +23821,9 @@
       <c r="AC17" s="9">
         <v>1110</v>
       </c>
-      <c r="AD17" s="9"/>
+      <c r="AD17" s="9">
+        <v>1153</v>
+      </c>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
@@ -23575,7 +24099,9 @@
       <c r="AC18" s="7">
         <v>9</v>
       </c>
-      <c r="AD18" s="7"/>
+      <c r="AD18" s="7">
+        <v>10</v>
+      </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -23851,7 +24377,9 @@
       <c r="AC19" s="9">
         <v>96</v>
       </c>
-      <c r="AD19" s="9"/>
+      <c r="AD19" s="9">
+        <v>104</v>
+      </c>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
@@ -24127,7 +24655,9 @@
       <c r="AC20" s="7">
         <v>183</v>
       </c>
-      <c r="AD20" s="7"/>
+      <c r="AD20" s="7">
+        <v>188</v>
+      </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -24403,7 +24933,9 @@
       <c r="AC21" s="9">
         <v>155</v>
       </c>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="9">
+        <v>156</v>
+      </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
@@ -24679,7 +25211,9 @@
       <c r="AC22" s="7">
         <v>488</v>
       </c>
-      <c r="AD22" s="7"/>
+      <c r="AD22" s="7">
+        <v>508</v>
+      </c>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
@@ -24955,7 +25489,9 @@
       <c r="AC23" s="9">
         <v>63</v>
       </c>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="9">
+        <v>67</v>
+      </c>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -25231,7 +25767,9 @@
       <c r="AC24" s="7">
         <v>869</v>
       </c>
-      <c r="AD24" s="7"/>
+      <c r="AD24" s="7">
+        <v>908</v>
+      </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
@@ -25507,7 +26045,9 @@
       <c r="AC25" s="9">
         <v>629</v>
       </c>
-      <c r="AD25" s="9"/>
+      <c r="AD25" s="9">
+        <v>652</v>
+      </c>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -25783,7 +26323,9 @@
       <c r="AC26" s="7">
         <v>8</v>
       </c>
-      <c r="AD26" s="7"/>
+      <c r="AD26" s="7">
+        <v>9</v>
+      </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
@@ -26059,7 +26601,9 @@
       <c r="AC27" s="9">
         <v>433</v>
       </c>
-      <c r="AD27" s="9"/>
+      <c r="AD27" s="9">
+        <v>452</v>
+      </c>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -26335,7 +26879,9 @@
       <c r="AC28" s="7">
         <v>509</v>
       </c>
-      <c r="AD28" s="7"/>
+      <c r="AD28" s="7">
+        <v>531</v>
+      </c>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
@@ -26611,7 +27157,9 @@
       <c r="AC29" s="20">
         <v>2</v>
       </c>
-      <c r="AD29" s="22"/>
+      <c r="AD29" s="20">
+        <v>2</v>
+      </c>
       <c r="AE29" s="22"/>
       <c r="AF29" s="22"/>
       <c r="AG29" s="22"/>
@@ -26887,7 +27435,9 @@
       <c r="AC30" s="7">
         <v>500</v>
       </c>
-      <c r="AD30" s="7"/>
+      <c r="AD30" s="7">
+        <v>525</v>
+      </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
@@ -27163,7 +27713,9 @@
       <c r="AC31" s="9">
         <v>535</v>
       </c>
-      <c r="AD31" s="9"/>
+      <c r="AD31" s="9">
+        <v>561</v>
+      </c>
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
@@ -27439,7 +27991,9 @@
       <c r="AC32" s="7">
         <v>322</v>
       </c>
-      <c r="AD32" s="7"/>
+      <c r="AD32" s="7">
+        <v>326</v>
+      </c>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
@@ -27715,7 +28269,9 @@
       <c r="AC33" s="9">
         <v>871</v>
       </c>
-      <c r="AD33" s="9"/>
+      <c r="AD33" s="9">
+        <v>909</v>
+      </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
@@ -27991,7 +28547,9 @@
       <c r="AC34" s="7">
         <v>91</v>
       </c>
-      <c r="AD34" s="7"/>
+      <c r="AD34" s="7">
+        <v>101</v>
+      </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
@@ -28267,7 +28825,9 @@
       <c r="AC35" s="9">
         <v>604</v>
       </c>
-      <c r="AD35" s="9"/>
+      <c r="AD35" s="9">
+        <v>601</v>
+      </c>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
@@ -28543,7 +29103,9 @@
       <c r="AC36" s="11">
         <v>12034</v>
       </c>
-      <c r="AD36" s="11"/>
+      <c r="AD36" s="11">
+        <v>12486</v>
+      </c>
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
@@ -32752,9 +33314,11 @@
         <v>284</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD56" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="AD56" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
@@ -33028,7 +33592,9 @@
       <c r="AC57" s="7">
         <v>110</v>
       </c>
-      <c r="AD57" s="7"/>
+      <c r="AD57" s="7">
+        <v>114</v>
+      </c>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
@@ -33302,7 +33868,9 @@
       <c r="AC58" s="9">
         <v>103</v>
       </c>
-      <c r="AD58" s="9"/>
+      <c r="AD58" s="9">
+        <v>109</v>
+      </c>
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="9"/>
@@ -33576,7 +34144,9 @@
       <c r="AC59" s="7">
         <v>396</v>
       </c>
-      <c r="AD59" s="7"/>
+      <c r="AD59" s="7">
+        <v>407</v>
+      </c>
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
@@ -33850,7 +34420,9 @@
       <c r="AC60" s="9">
         <v>1373</v>
       </c>
-      <c r="AD60" s="9"/>
+      <c r="AD60" s="9">
+        <v>1412</v>
+      </c>
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
       <c r="AG60" s="9"/>
@@ -34124,7 +34696,9 @@
       <c r="AC61" s="7">
         <v>1574</v>
       </c>
-      <c r="AD61" s="7"/>
+      <c r="AD61" s="7">
+        <v>1629</v>
+      </c>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
@@ -34398,7 +34972,9 @@
       <c r="AC62" s="9">
         <v>1816</v>
       </c>
-      <c r="AD62" s="9"/>
+      <c r="AD62" s="9">
+        <v>1880</v>
+      </c>
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
       <c r="AG62" s="9"/>
@@ -34672,7 +35248,9 @@
       <c r="AC63" s="7">
         <v>1585</v>
       </c>
-      <c r="AD63" s="7"/>
+      <c r="AD63" s="7">
+        <v>1629</v>
+      </c>
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
       <c r="AG63" s="7"/>
@@ -34946,7 +35524,9 @@
       <c r="AC64" s="9">
         <v>1076</v>
       </c>
-      <c r="AD64" s="9"/>
+      <c r="AD64" s="9">
+        <v>1113</v>
+      </c>
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="9"/>
@@ -35220,7 +35800,9 @@
       <c r="AC65" s="7">
         <v>1087</v>
       </c>
-      <c r="AD65" s="7"/>
+      <c r="AD65" s="7">
+        <v>1130</v>
+      </c>
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7"/>
@@ -35494,7 +36076,9 @@
       <c r="AC66" s="9">
         <v>2849</v>
       </c>
-      <c r="AD66" s="9"/>
+      <c r="AD66" s="9">
+        <v>2997</v>
+      </c>
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
       <c r="AG66" s="9"/>
@@ -35768,7 +36352,9 @@
       <c r="AC67" s="7">
         <v>65</v>
       </c>
-      <c r="AD67" s="7"/>
+      <c r="AD67" s="7">
+        <v>66</v>
+      </c>
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
       <c r="AG67" s="7"/>
@@ -36042,7 +36628,9 @@
       <c r="AC68" s="15">
         <v>12034</v>
       </c>
-      <c r="AD68" s="15"/>
+      <c r="AD68" s="15">
+        <v>12486</v>
+      </c>
       <c r="AE68" s="15"/>
       <c r="AF68" s="15"/>
       <c r="AG68" s="15"/>
@@ -36318,6 +36906,9 @@
       <c r="AC70">
         <v>983</v>
       </c>
+      <c r="AD70">
+        <v>983</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -36336,177 +36927,201 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B12"/>
+      <selection activeCell="B15" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>292</v>
-      </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3">
-        <v>396</v>
-      </c>
-      <c r="C3" t="s">
-        <v>294</v>
-      </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>1373</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>1574</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>1816</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>1585</v>
+        <v>1412</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>1076</v>
+        <v>1629</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2">
-        <v>1087</v>
+        <v>1880</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>2849</v>
+        <v>1629</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>1113</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>1130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>2997</v>
+      </c>
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>98</v>
       </c>
-      <c r="B12">
-        <v>12034</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15">
+        <v>12486</v>
+      </c>
+      <c r="C15" t="s">
         <v>230</v>
       </c>
-      <c r="D12" t="s">
-        <v>289</v>
+      <c r="D15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07AAD66-A7BF-46C2-A73E-9939961DF74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA69E49F-5F36-41B8-B552-374011A92FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15940" yWindow="4800" windowWidth="24450" windowHeight="15170" tabRatio="512" activeTab="3" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="12630" yWindow="5290" windowWidth="24450" windowHeight="15170" tabRatio="512" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4861,7 +4861,7 @@
         <v>604</v>
       </c>
       <c r="AE35">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +4875,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
@@ -9073,7 +9073,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP48" sqref="AP48"/>
+      <selection pane="topRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16032,18 +16032,18 @@
       </c>
       <c r="B45" s="17">
         <f>mtl_newcases!C46</f>
-        <v>12486</v>
+        <v>12487</v>
       </c>
       <c r="C45" s="17">
         <f>mtl_newcases!B46</f>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D45">
-        <v>983</v>
+        <v>1039</v>
       </c>
       <c r="E45">
         <f t="shared" ref="E45" si="416">D45-D44</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" ref="F45:O45">TRANSPOSE(santemontreal!AD$57:AD$66)</f>
@@ -16206,7 +16206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
@@ -18394,7 +18394,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19245,17 +19245,17 @@
         <v>43948</v>
       </c>
       <c r="B46" s="24">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C46">
         <f t="shared" si="13"/>
-        <v>12486</v>
+        <v>12487</v>
       </c>
       <c r="E46" s="19">
         <v>43948</v>
       </c>
       <c r="F46">
-        <v>12486</v>
+        <v>12487</v>
       </c>
       <c r="G46">
         <f>C46-F46</f>
@@ -19272,9 +19272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD35" sqref="AD2:AD35"/>
+      <selection pane="topRight" activeCell="AD69" sqref="AD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28826,7 +28826,7 @@
         <v>604</v>
       </c>
       <c r="AD35" s="9">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
@@ -29104,7 +29104,7 @@
         <v>12034</v>
       </c>
       <c r="AD36" s="11">
-        <v>12486</v>
+        <v>12487</v>
       </c>
       <c r="AE36" s="11"/>
       <c r="AF36" s="11"/>
@@ -36353,7 +36353,7 @@
         <v>65</v>
       </c>
       <c r="AD67" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
@@ -36629,7 +36629,7 @@
         <v>12034</v>
       </c>
       <c r="AD68" s="15">
-        <v>12486</v>
+        <v>12487</v>
       </c>
       <c r="AE68" s="15"/>
       <c r="AF68" s="15"/>
@@ -36907,7 +36907,7 @@
         <v>983</v>
       </c>
       <c r="AD70">
-        <v>983</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA69E49F-5F36-41B8-B552-374011A92FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AFF836-C6D5-43B8-983F-35888AFFDDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="5290" windowWidth="24450" windowHeight="15170" tabRatio="512" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="12480" yWindow="3070" windowWidth="24450" windowHeight="15170" tabRatio="512" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="314">
   <si>
     <t>borough</t>
   </si>
@@ -1014,6 +1014,9 @@
   <si>
     <t>2 966,1</t>
   </si>
+  <si>
+    <t>28 AVRIL, 18h30</t>
+  </si>
 </sst>
 </file>
 
@@ -1526,20 +1529,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36"/>
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1633,8 +1636,11 @@
       <c r="AE1" s="1">
         <v>43948</v>
       </c>
+      <c r="AF1" s="1">
+        <v>43949</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1728,8 +1734,11 @@
       <c r="AE2">
         <v>1064</v>
       </c>
+      <c r="AF2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1823,8 +1832,11 @@
       <c r="AE3">
         <v>288</v>
       </c>
+      <c r="AF3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1918,8 +1930,11 @@
       <c r="AE4">
         <v>6</v>
       </c>
+      <c r="AF4" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2013,8 +2028,11 @@
       <c r="AE5">
         <v>25</v>
       </c>
+      <c r="AF5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2108,8 +2126,11 @@
       <c r="AE6">
         <v>1137</v>
       </c>
+      <c r="AF6" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2203,8 +2224,11 @@
       <c r="AE7">
         <v>346</v>
       </c>
+      <c r="AF7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2298,8 +2322,11 @@
       <c r="AE8">
         <v>136</v>
       </c>
+      <c r="AF8" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2393,8 +2420,11 @@
       <c r="AE9">
         <v>78</v>
       </c>
+      <c r="AF9" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2488,8 +2518,11 @@
       <c r="AE10">
         <v>38</v>
       </c>
+      <c r="AF10" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2583,8 +2616,11 @@
       <c r="AE11">
         <v>27</v>
       </c>
+      <c r="AF11" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2678,8 +2714,11 @@
       <c r="AE12">
         <v>157</v>
       </c>
+      <c r="AF12" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2773,8 +2812,11 @@
       <c r="AE13">
         <v>497</v>
       </c>
+      <c r="AF13" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2868,8 +2910,11 @@
       <c r="AE14">
         <v>57</v>
       </c>
+      <c r="AF14" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2963,8 +3008,11 @@
       <c r="AE15">
         <v>852</v>
       </c>
+      <c r="AF15" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3058,8 +3106,11 @@
       <c r="AE16">
         <v>16</v>
       </c>
+      <c r="AF16" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3153,8 +3204,11 @@
       <c r="AE17">
         <v>1153</v>
       </c>
+      <c r="AF17" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3248,8 +3302,11 @@
       <c r="AE18">
         <v>10</v>
       </c>
+      <c r="AF18" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3343,8 +3400,11 @@
       <c r="AE19">
         <v>104</v>
       </c>
+      <c r="AF19" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3438,8 +3498,11 @@
       <c r="AE20">
         <v>188</v>
       </c>
+      <c r="AF20" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3533,8 +3596,11 @@
       <c r="AE21">
         <v>156</v>
       </c>
+      <c r="AF21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3628,8 +3694,11 @@
       <c r="AE22">
         <v>508</v>
       </c>
+      <c r="AF22" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3723,8 +3792,11 @@
       <c r="AE23">
         <v>67</v>
       </c>
+      <c r="AF23" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3818,8 +3890,11 @@
       <c r="AE24">
         <v>908</v>
       </c>
+      <c r="AF24" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3913,8 +3988,11 @@
       <c r="AE25">
         <v>652</v>
       </c>
+      <c r="AF25" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4008,8 +4086,11 @@
       <c r="AE26">
         <v>9</v>
       </c>
+      <c r="AF26" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4103,8 +4184,11 @@
       <c r="AE27">
         <v>452</v>
       </c>
+      <c r="AF27" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4198,8 +4282,11 @@
       <c r="AE28">
         <v>531</v>
       </c>
+      <c r="AF28" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4293,8 +4380,11 @@
       <c r="AE29">
         <v>2</v>
       </c>
+      <c r="AF29" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4388,8 +4478,11 @@
       <c r="AE30">
         <v>525</v>
       </c>
+      <c r="AF30" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4483,8 +4576,11 @@
       <c r="AE31">
         <v>561</v>
       </c>
+      <c r="AF31" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4578,8 +4674,11 @@
       <c r="AE32">
         <v>326</v>
       </c>
+      <c r="AF32" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4673,8 +4772,11 @@
       <c r="AE33">
         <v>909</v>
       </c>
+      <c r="AF33" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4768,8 +4870,11 @@
       <c r="AE34">
         <v>101</v>
       </c>
+      <c r="AF34" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4862,6 +4967,9 @@
       </c>
       <c r="AE35">
         <v>602</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4872,11 +4980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF2" sqref="AF2:AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4884,10 +4992,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5002,8 +5110,11 @@
       <c r="AE1" s="1">
         <v>43948</v>
       </c>
+      <c r="AF1" s="1">
+        <v>43949</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5125,8 +5236,11 @@
         <f>cases!AE2/(population_2016!$B2/1000)</f>
         <v>7.9258072926365966</v>
       </c>
+      <c r="AF2" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5248,8 +5362,11 @@
         <f>cases!AE3/(population_2016!$B3/1000)</f>
         <v>6.72960089728012</v>
       </c>
+      <c r="AF3" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5371,8 +5488,11 @@
         <f>cases!AE4/(population_2016!$B4/1000)</f>
         <v>1.5694480774261053</v>
       </c>
+      <c r="AF4" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5494,8 +5614,11 @@
         <f>cases!AE5/(population_2016!$B5/1000)</f>
         <v>1.2937280066238872</v>
       </c>
+      <c r="AF5" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5617,8 +5740,11 @@
         <f>cases!AE6/(population_2016!$B6/1000)</f>
         <v>6.828008647609896</v>
       </c>
+      <c r="AF6" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -5740,8 +5866,11 @@
         <f>cases!AE7/(population_2016!$B7/1000)</f>
         <v>10.663214990138068</v>
       </c>
+      <c r="AF7" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5863,8 +5992,11 @@
         <f>cases!AE8/(population_2016!$B8/1000)</f>
         <v>2.7812429702038894</v>
       </c>
+      <c r="AF8" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5986,8 +6118,11 @@
         <f>cases!AE9/(population_2016!$B9/1000)</f>
         <v>4.10958904109589</v>
       </c>
+      <c r="AF9" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -6109,8 +6244,11 @@
         <f>cases!AE10/(population_2016!$B10/1000)</f>
         <v>5.4495912806539515</v>
       </c>
+      <c r="AF10" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -6232,8 +6370,11 @@
         <f>cases!AE11/(population_2016!$B11/1000)</f>
         <v>1.3398838767306833</v>
       </c>
+      <c r="AF11" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6355,8 +6496,11 @@
         <f>cases!AE12/(population_2016!$B12/1000)</f>
         <v>3.5289622153790825</v>
       </c>
+      <c r="AF12" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6478,8 +6622,11 @@
         <f>cases!AE13/(population_2016!$B13/1000)</f>
         <v>6.466891338008927</v>
       </c>
+      <c r="AF13" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6601,8 +6748,11 @@
         <f>cases!AE14/(population_2016!$B14/1000)</f>
         <v>3.095638950741324</v>
       </c>
+      <c r="AF14" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6724,8 +6874,11 @@
         <f>cases!AE15/(population_2016!$B15/1000)</f>
         <v>6.2636005410809856</v>
       </c>
+      <c r="AF15" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -6847,8 +7000,11 @@
         <f>cases!AE16/(population_2016!$B16/1000)</f>
         <v>4.1558441558441555</v>
       </c>
+      <c r="AF16" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6970,8 +7126,11 @@
         <f>cases!AE17/(population_2016!$B17/1000)</f>
         <v>13.688059453427359</v>
       </c>
+      <c r="AF17" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -7093,8 +7252,11 @@
         <f>cases!AE18/(population_2016!$B18/1000)</f>
         <v>1.9801980198019802</v>
       </c>
+      <c r="AF18" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -7216,8 +7378,11 @@
         <f>cases!AE19/(population_2016!$B19/1000)</f>
         <v>5.1292168080489251</v>
       </c>
+      <c r="AF19" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -7339,8 +7504,11 @@
         <f>cases!AE20/(population_2016!$B20/1000)</f>
         <v>7.8483760541036984</v>
       </c>
+      <c r="AF20" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -7462,8 +7630,11 @@
         <f>cases!AE21/(population_2016!$B21/1000)</f>
         <v>2.2511797047491235</v>
       </c>
+      <c r="AF21" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7585,8 +7756,11 @@
         <f>cases!AE22/(population_2016!$B22/1000)</f>
         <v>4.884615384615385</v>
       </c>
+      <c r="AF22" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -7708,8 +7882,11 @@
         <f>cases!AE23/(population_2016!$B23/1000)</f>
         <v>2.1351179094964947</v>
       </c>
+      <c r="AF23" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7831,8 +8008,11 @@
         <f>cases!AE24/(population_2016!$B24/1000)</f>
         <v>8.5064125984842107</v>
       </c>
+      <c r="AF24" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -7954,8 +8134,11 @@
         <f>cases!AE25/(population_2016!$B25/1000)</f>
         <v>4.6708216920982881</v>
       </c>
+      <c r="AF25" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -8077,8 +8260,11 @@
         <f>cases!AE26/(population_2016!$B26/1000)</f>
         <v>1.8152480839048002</v>
       </c>
+      <c r="AF26" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8200,8 +8386,11 @@
         <f>cases!AE27/(population_2016!$B27/1000)</f>
         <v>4.5736026227384947</v>
       </c>
+      <c r="AF27" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8323,8 +8512,11 @@
         <f>cases!AE28/(population_2016!$B28/1000)</f>
         <v>6.7811761701040796</v>
       </c>
+      <c r="AF28" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -8446,8 +8638,11 @@
         <f>cases!AE29/(population_2016!$B29/1000)</f>
         <v>2.1715526601520088</v>
       </c>
+      <c r="AF29" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8569,8 +8764,11 @@
         <f>cases!AE30/(population_2016!$B30/1000)</f>
         <v>6.717764328031631</v>
       </c>
+      <c r="AF30" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8692,8 +8890,11 @@
         <f>cases!AE31/(population_2016!$B31/1000)</f>
         <v>8.1035404238108306</v>
       </c>
+      <c r="AF31" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8815,8 +9016,11 @@
         <f>cases!AE32/(population_2016!$B32/1000)</f>
         <v>3.6559380957721208</v>
       </c>
+      <c r="AF32" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8938,8 +9142,11 @@
         <f>cases!AE33/(population_2016!$B33/1000)</f>
         <v>6.3189505953994702</v>
       </c>
+      <c r="AF33" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -9060,6 +9267,9 @@
       <c r="AE34" s="3">
         <f>cases!AE34/(population_2016!$B34/1000)</f>
         <v>4.9724300905868448</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9069,11 +9279,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS45"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D45" sqref="D45"/>
+      <selection pane="topRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16197,6 +16407,143 @@
         <v>41.749881297545265</v>
       </c>
     </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A46" s="19">
+        <v>43949</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" t="s">
+        <v>102</v>
+      </c>
+      <c r="N46" t="s">
+        <v>102</v>
+      </c>
+      <c r="O46" t="s">
+        <v>102</v>
+      </c>
+      <c r="P46" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>102</v>
+      </c>
+      <c r="R46" t="s">
+        <v>102</v>
+      </c>
+      <c r="S46" t="s">
+        <v>102</v>
+      </c>
+      <c r="T46" t="s">
+        <v>102</v>
+      </c>
+      <c r="U46" t="s">
+        <v>102</v>
+      </c>
+      <c r="V46" t="s">
+        <v>102</v>
+      </c>
+      <c r="W46" t="s">
+        <v>102</v>
+      </c>
+      <c r="X46" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16204,11 +16551,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16339,7 +16686,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C57" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C58" si="0">B4-B3</f>
         <v>1</v>
       </c>
       <c r="D4">
@@ -16349,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F57" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F58" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -16362,7 +16709,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J57" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J58" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -18381,6 +18728,44 @@
       </c>
       <c r="K57">
         <v>5841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B58">
+        <v>26594</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>837</v>
+      </c>
+      <c r="D58">
+        <v>18785</v>
+      </c>
+      <c r="E58">
+        <v>1761</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="G58">
+        <v>1648</v>
+      </c>
+      <c r="H58">
+        <v>222</v>
+      </c>
+      <c r="I58">
+        <v>182385</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>3670</v>
+      </c>
+      <c r="K58">
+        <v>6048</v>
       </c>
     </row>
   </sheetData>
@@ -19272,9 +19657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD69" sqref="AD69"/>
+      <selection pane="topRight" activeCell="AE71" sqref="AE71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19376,7 +19761,9 @@
       <c r="AD1" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AE1" s="5"/>
+      <c r="AE1" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
@@ -19654,7 +20041,9 @@
       <c r="AD2" s="7">
         <v>1064</v>
       </c>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
@@ -19932,7 +20321,9 @@
       <c r="AD3" s="9">
         <v>288</v>
       </c>
-      <c r="AE3" s="9"/>
+      <c r="AE3" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -20210,7 +20601,9 @@
       <c r="AD4" s="7">
         <v>6</v>
       </c>
-      <c r="AE4" s="7"/>
+      <c r="AE4" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -20488,7 +20881,9 @@
       <c r="AD5" s="9">
         <v>25</v>
       </c>
-      <c r="AE5" s="9"/>
+      <c r="AE5" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -20766,7 +21161,9 @@
       <c r="AD6" s="7">
         <v>1137</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
@@ -21044,7 +21441,9 @@
       <c r="AD7" s="9">
         <v>346</v>
       </c>
-      <c r="AE7" s="9"/>
+      <c r="AE7" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
@@ -21322,7 +21721,9 @@
       <c r="AD8" s="7">
         <v>136</v>
       </c>
-      <c r="AE8" s="7"/>
+      <c r="AE8" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
@@ -21600,7 +22001,9 @@
       <c r="AD9" s="9">
         <v>78</v>
       </c>
-      <c r="AE9" s="9"/>
+      <c r="AE9" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
@@ -21878,7 +22281,9 @@
       <c r="AD10" s="7">
         <v>38</v>
       </c>
-      <c r="AE10" s="7"/>
+      <c r="AE10" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
@@ -22156,7 +22561,9 @@
       <c r="AD11" s="9">
         <v>27</v>
       </c>
-      <c r="AE11" s="9"/>
+      <c r="AE11" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
@@ -22434,7 +22841,9 @@
       <c r="AD12" s="7">
         <v>157</v>
       </c>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
@@ -22712,7 +23121,9 @@
       <c r="AD13" s="9">
         <v>497</v>
       </c>
-      <c r="AE13" s="9"/>
+      <c r="AE13" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
@@ -22990,7 +23401,9 @@
       <c r="AD14" s="7">
         <v>57</v>
       </c>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
@@ -23268,7 +23681,9 @@
       <c r="AD15" s="9">
         <v>852</v>
       </c>
-      <c r="AE15" s="9"/>
+      <c r="AE15" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
@@ -23546,7 +23961,9 @@
       <c r="AD16" s="7">
         <v>16</v>
       </c>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
@@ -23824,7 +24241,9 @@
       <c r="AD17" s="9">
         <v>1153</v>
       </c>
-      <c r="AE17" s="9"/>
+      <c r="AE17" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
@@ -24102,7 +24521,9 @@
       <c r="AD18" s="7">
         <v>10</v>
       </c>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
@@ -24380,7 +24801,9 @@
       <c r="AD19" s="9">
         <v>104</v>
       </c>
-      <c r="AE19" s="9"/>
+      <c r="AE19" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
@@ -24658,7 +25081,9 @@
       <c r="AD20" s="7">
         <v>188</v>
       </c>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
@@ -24936,7 +25361,9 @@
       <c r="AD21" s="9">
         <v>156</v>
       </c>
-      <c r="AE21" s="9"/>
+      <c r="AE21" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
@@ -25214,7 +25641,9 @@
       <c r="AD22" s="7">
         <v>508</v>
       </c>
-      <c r="AE22" s="7"/>
+      <c r="AE22" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
@@ -25492,7 +25921,9 @@
       <c r="AD23" s="9">
         <v>67</v>
       </c>
-      <c r="AE23" s="9"/>
+      <c r="AE23" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -25770,7 +26201,9 @@
       <c r="AD24" s="7">
         <v>908</v>
       </c>
-      <c r="AE24" s="7"/>
+      <c r="AE24" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
@@ -26048,7 +26481,9 @@
       <c r="AD25" s="9">
         <v>652</v>
       </c>
-      <c r="AE25" s="9"/>
+      <c r="AE25" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
@@ -26326,7 +26761,9 @@
       <c r="AD26" s="7">
         <v>9</v>
       </c>
-      <c r="AE26" s="7"/>
+      <c r="AE26" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
@@ -26604,7 +27041,9 @@
       <c r="AD27" s="9">
         <v>452</v>
       </c>
-      <c r="AE27" s="9"/>
+      <c r="AE27" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
@@ -26882,7 +27321,9 @@
       <c r="AD28" s="7">
         <v>531</v>
       </c>
-      <c r="AE28" s="7"/>
+      <c r="AE28" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
@@ -27160,7 +27601,9 @@
       <c r="AD29" s="20">
         <v>2</v>
       </c>
-      <c r="AE29" s="22"/>
+      <c r="AE29" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF29" s="22"/>
       <c r="AG29" s="22"/>
       <c r="AH29" s="22"/>
@@ -27438,7 +27881,9 @@
       <c r="AD30" s="7">
         <v>525</v>
       </c>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
@@ -27716,7 +28161,9 @@
       <c r="AD31" s="9">
         <v>561</v>
       </c>
-      <c r="AE31" s="9"/>
+      <c r="AE31" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
@@ -27994,7 +28441,9 @@
       <c r="AD32" s="7">
         <v>326</v>
       </c>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
@@ -28272,7 +28721,9 @@
       <c r="AD33" s="9">
         <v>909</v>
       </c>
-      <c r="AE33" s="9"/>
+      <c r="AE33" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
@@ -28550,7 +29001,9 @@
       <c r="AD34" s="7">
         <v>101</v>
       </c>
-      <c r="AE34" s="7"/>
+      <c r="AE34" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -28828,7 +29281,9 @@
       <c r="AD35" s="9">
         <v>602</v>
       </c>
-      <c r="AE35" s="9"/>
+      <c r="AE35" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9"/>
@@ -29106,7 +29561,9 @@
       <c r="AD36" s="11">
         <v>12487</v>
       </c>
-      <c r="AE36" s="11"/>
+      <c r="AE36" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
@@ -33319,7 +33776,9 @@
       <c r="AD56" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AE56" s="5"/>
+      <c r="AE56" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
@@ -33595,7 +34054,9 @@
       <c r="AD57" s="7">
         <v>114</v>
       </c>
-      <c r="AE57" s="7"/>
+      <c r="AE57" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
@@ -33871,7 +34332,9 @@
       <c r="AD58" s="9">
         <v>109</v>
       </c>
-      <c r="AE58" s="9"/>
+      <c r="AE58" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF58" s="9"/>
       <c r="AG58" s="9"/>
       <c r="AH58" s="9"/>
@@ -34147,7 +34610,9 @@
       <c r="AD59" s="7">
         <v>407</v>
       </c>
-      <c r="AE59" s="7"/>
+      <c r="AE59" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
@@ -34423,7 +34888,9 @@
       <c r="AD60" s="9">
         <v>1412</v>
       </c>
-      <c r="AE60" s="9"/>
+      <c r="AE60" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF60" s="9"/>
       <c r="AG60" s="9"/>
       <c r="AH60" s="9"/>
@@ -34699,7 +35166,9 @@
       <c r="AD61" s="7">
         <v>1629</v>
       </c>
-      <c r="AE61" s="7"/>
+      <c r="AE61" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
@@ -34975,7 +35444,9 @@
       <c r="AD62" s="9">
         <v>1880</v>
       </c>
-      <c r="AE62" s="9"/>
+      <c r="AE62" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF62" s="9"/>
       <c r="AG62" s="9"/>
       <c r="AH62" s="9"/>
@@ -35251,7 +35722,9 @@
       <c r="AD63" s="7">
         <v>1629</v>
       </c>
-      <c r="AE63" s="7"/>
+      <c r="AE63" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF63" s="7"/>
       <c r="AG63" s="7"/>
       <c r="AH63" s="7"/>
@@ -35527,7 +36000,9 @@
       <c r="AD64" s="9">
         <v>1113</v>
       </c>
-      <c r="AE64" s="9"/>
+      <c r="AE64" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF64" s="9"/>
       <c r="AG64" s="9"/>
       <c r="AH64" s="9"/>
@@ -35803,7 +36278,9 @@
       <c r="AD65" s="7">
         <v>1130</v>
       </c>
-      <c r="AE65" s="7"/>
+      <c r="AE65" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
@@ -36079,7 +36556,9 @@
       <c r="AD66" s="9">
         <v>2997</v>
       </c>
-      <c r="AE66" s="9"/>
+      <c r="AE66" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AF66" s="9"/>
       <c r="AG66" s="9"/>
       <c r="AH66" s="9"/>
@@ -36355,7 +36834,9 @@
       <c r="AD67" s="7">
         <v>67</v>
       </c>
-      <c r="AE67" s="7"/>
+      <c r="AE67" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AF67" s="7"/>
       <c r="AG67" s="7"/>
       <c r="AH67" s="7"/>
@@ -36631,7 +37112,9 @@
       <c r="AD68" s="15">
         <v>12487</v>
       </c>
-      <c r="AE68" s="15"/>
+      <c r="AE68" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="AF68" s="15"/>
       <c r="AG68" s="15"/>
       <c r="AH68" s="15"/>
@@ -36909,6 +37392,9 @@
       <c r="AD70">
         <v>1039</v>
       </c>
+      <c r="AE70" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AFF836-C6D5-43B8-983F-35888AFFDDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA899EB7-270A-4053-B52A-FA981E04D674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="3070" windowWidth="24450" windowHeight="15170" tabRatio="512" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="6840" yWindow="3690" windowWidth="31460" windowHeight="15170" tabRatio="512" activeTab="5" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="315">
   <si>
     <t>borough</t>
   </si>
@@ -1017,6 +1017,9 @@
   <si>
     <t>28 AVRIL, 18h30</t>
   </si>
+  <si>
+    <t>29 AVRIL, 18h30</t>
+  </si>
 </sst>
 </file>
 
@@ -1529,20 +1532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="32" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="33" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +1642,11 @@
       <c r="AF1" s="1">
         <v>43949</v>
       </c>
+      <c r="AG1" s="1">
+        <v>43950</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1737,8 +1743,11 @@
       <c r="AF2" t="s">
         <v>102</v>
       </c>
+      <c r="AG2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1835,8 +1844,11 @@
       <c r="AF3" t="s">
         <v>102</v>
       </c>
+      <c r="AG3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1933,8 +1945,11 @@
       <c r="AF4" t="s">
         <v>102</v>
       </c>
+      <c r="AG4" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2031,8 +2046,11 @@
       <c r="AF5" t="s">
         <v>102</v>
       </c>
+      <c r="AG5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2129,8 +2147,11 @@
       <c r="AF6" t="s">
         <v>102</v>
       </c>
+      <c r="AG6" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2227,8 +2248,11 @@
       <c r="AF7" t="s">
         <v>102</v>
       </c>
+      <c r="AG7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2325,8 +2349,11 @@
       <c r="AF8" t="s">
         <v>102</v>
       </c>
+      <c r="AG8" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2423,8 +2450,11 @@
       <c r="AF9" t="s">
         <v>102</v>
       </c>
+      <c r="AG9" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2521,8 +2551,11 @@
       <c r="AF10" t="s">
         <v>102</v>
       </c>
+      <c r="AG10" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2619,8 +2652,11 @@
       <c r="AF11" t="s">
         <v>102</v>
       </c>
+      <c r="AG11" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2717,8 +2753,11 @@
       <c r="AF12" t="s">
         <v>102</v>
       </c>
+      <c r="AG12" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2815,8 +2854,11 @@
       <c r="AF13" t="s">
         <v>102</v>
       </c>
+      <c r="AG13" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2913,8 +2955,11 @@
       <c r="AF14" t="s">
         <v>102</v>
       </c>
+      <c r="AG14" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3011,8 +3056,11 @@
       <c r="AF15" t="s">
         <v>102</v>
       </c>
+      <c r="AG15" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -3109,8 +3157,11 @@
       <c r="AF16" t="s">
         <v>102</v>
       </c>
+      <c r="AG16" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3207,8 +3258,11 @@
       <c r="AF17" t="s">
         <v>102</v>
       </c>
+      <c r="AG17" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -3305,8 +3359,11 @@
       <c r="AF18" t="s">
         <v>102</v>
       </c>
+      <c r="AG18" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3403,8 +3460,11 @@
       <c r="AF19" t="s">
         <v>102</v>
       </c>
+      <c r="AG19" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3501,8 +3561,11 @@
       <c r="AF20" t="s">
         <v>102</v>
       </c>
+      <c r="AG20" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3599,8 +3662,11 @@
       <c r="AF21" t="s">
         <v>102</v>
       </c>
+      <c r="AG21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3697,8 +3763,11 @@
       <c r="AF22" t="s">
         <v>102</v>
       </c>
+      <c r="AG22" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -3795,8 +3864,11 @@
       <c r="AF23" t="s">
         <v>102</v>
       </c>
+      <c r="AG23" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3893,8 +3965,11 @@
       <c r="AF24" t="s">
         <v>102</v>
       </c>
+      <c r="AG24" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3991,8 +4066,11 @@
       <c r="AF25" t="s">
         <v>102</v>
       </c>
+      <c r="AG25" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4089,8 +4167,11 @@
       <c r="AF26" t="s">
         <v>102</v>
       </c>
+      <c r="AG26" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4187,8 +4268,11 @@
       <c r="AF27" t="s">
         <v>102</v>
       </c>
+      <c r="AG27" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4285,8 +4369,11 @@
       <c r="AF28" t="s">
         <v>102</v>
       </c>
+      <c r="AG28" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4383,8 +4470,11 @@
       <c r="AF29" t="s">
         <v>102</v>
       </c>
+      <c r="AG29" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4481,8 +4571,11 @@
       <c r="AF30" t="s">
         <v>102</v>
       </c>
+      <c r="AG30" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4579,8 +4672,11 @@
       <c r="AF31" t="s">
         <v>102</v>
       </c>
+      <c r="AG31" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4677,8 +4773,11 @@
       <c r="AF32" t="s">
         <v>102</v>
       </c>
+      <c r="AG32" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4775,8 +4874,11 @@
       <c r="AF33" t="s">
         <v>102</v>
       </c>
+      <c r="AG33" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -4873,8 +4975,11 @@
       <c r="AF34" t="s">
         <v>102</v>
       </c>
+      <c r="AG34" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4969,6 +5074,9 @@
         <v>602</v>
       </c>
       <c r="AF35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG35" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4980,11 +5088,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2135A11-D06E-4452-A066-9CB8F334EEDF}">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF2" sqref="AF2:AF34"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4992,10 +5100,10 @@
     <col min="1" max="1" width="40.08984375" customWidth="1"/>
     <col min="2" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5113,8 +5221,11 @@
       <c r="AF1" s="1">
         <v>43949</v>
       </c>
+      <c r="AG1" s="1">
+        <v>43950</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5239,8 +5350,11 @@
       <c r="AF2" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG2" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5365,8 +5479,11 @@
       <c r="AF3" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG3" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -5491,8 +5608,11 @@
       <c r="AF4" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG4" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5617,8 +5737,11 @@
       <c r="AF5" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG5" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5743,8 +5866,11 @@
       <c r="AF6" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG6" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -5869,8 +5995,11 @@
       <c r="AF7" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG7" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5995,8 +6124,11 @@
       <c r="AF8" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG8" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -6121,8 +6253,11 @@
       <c r="AF9" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG9" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -6247,8 +6382,11 @@
       <c r="AF10" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG10" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -6373,8 +6511,11 @@
       <c r="AF11" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG11" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6499,8 +6640,11 @@
       <c r="AF12" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG12" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6625,8 +6769,11 @@
       <c r="AF13" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG13" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6751,8 +6898,11 @@
       <c r="AF14" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG14" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6877,8 +7027,11 @@
       <c r="AF15" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG15" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -7003,8 +7156,11 @@
       <c r="AF16" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG16" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7129,8 +7285,11 @@
       <c r="AF17" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG17" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -7255,8 +7414,11 @@
       <c r="AF18" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG18" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -7381,8 +7543,11 @@
       <c r="AF19" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG19" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -7507,8 +7672,11 @@
       <c r="AF20" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG20" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -7633,8 +7801,11 @@
       <c r="AF21" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG21" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7759,8 +7930,11 @@
       <c r="AF22" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG22" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -7885,8 +8059,11 @@
       <c r="AF23" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG23" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -8011,8 +8188,11 @@
       <c r="AF24" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG24" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -8137,8 +8317,11 @@
       <c r="AF25" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG25" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -8263,8 +8446,11 @@
       <c r="AF26" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG26" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8389,8 +8575,11 @@
       <c r="AF27" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG27" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -8515,8 +8704,11 @@
       <c r="AF28" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG28" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -8641,8 +8833,11 @@
       <c r="AF29" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG29" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8767,8 +8962,11 @@
       <c r="AF30" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG30" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8893,8 +9091,11 @@
       <c r="AF31" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG31" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9019,8 +9220,11 @@
       <c r="AF32" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG32" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9145,8 +9349,11 @@
       <c r="AF33" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AG33" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -9269,6 +9476,9 @@
         <v>4.9724300905868448</v>
       </c>
       <c r="AF34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG34" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9279,11 +9489,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F50" sqref="F50"/>
+      <selection pane="topRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9581,7 +9791,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="17">
-        <f>mtl_newcases!B4</f>
+        <f t="shared" ref="C3:C43" si="0">B3-B2</f>
         <v>5</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -9720,7 +9930,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="17">
-        <f>mtl_newcases!B5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -9859,7 +10069,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="17">
-        <f>mtl_newcases!B6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -9998,7 +10208,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="17">
-        <f>mtl_newcases!B7</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -10137,7 +10347,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="17">
-        <f>mtl_newcases!B8</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -10276,7 +10486,7 @@
         <v>213</v>
       </c>
       <c r="C8" s="17">
-        <f>mtl_newcases!B9</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -10415,7 +10625,7 @@
         <v>306</v>
       </c>
       <c r="C9" s="17">
-        <f>mtl_newcases!B10</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -10554,7 +10764,7 @@
         <v>439</v>
       </c>
       <c r="C10" s="17">
-        <f>mtl_newcases!B11</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -10693,7 +10903,7 @@
         <v>584</v>
       </c>
       <c r="C11" s="17">
-        <f>mtl_newcases!B12</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -10832,7 +11042,7 @@
         <v>767</v>
       </c>
       <c r="C12" s="17">
-        <f>mtl_newcases!B13</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -10971,7 +11181,7 @@
         <v>953</v>
       </c>
       <c r="C13" s="17">
-        <f>mtl_newcases!B14</f>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -11110,7 +11320,7 @@
         <v>1197</v>
       </c>
       <c r="C14" s="17">
-        <f>mtl_newcases!B15</f>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -11249,7 +11459,7 @@
         <v>1394</v>
       </c>
       <c r="C15" s="17">
-        <f>mtl_newcases!B16</f>
+        <f t="shared" si="0"/>
         <v>197</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -11388,7 +11598,7 @@
         <v>1652</v>
       </c>
       <c r="C16" s="17">
-        <f>mtl_newcases!B17</f>
+        <f t="shared" si="0"/>
         <v>258</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -11527,7 +11737,7 @@
         <v>1921</v>
       </c>
       <c r="C17" s="17">
-        <f>mtl_newcases!B18</f>
+        <f t="shared" si="0"/>
         <v>269</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -11666,7 +11876,7 @@
         <v>2246</v>
       </c>
       <c r="C18" s="17">
-        <f>mtl_newcases!B19</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -11751,39 +11961,39 @@
         <v>0.76518412242945955</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" ref="AA18:AI18" si="0">G18*100/SUM($F18:$O18)</f>
+        <f t="shared" ref="AA18:AI18" si="1">G18*100/SUM($F18:$O18)</f>
         <v>0.86083213773314204</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1606886657101869</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.173122907699664</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.886178861788618</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.073170731707318</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.355810616929698</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.338593974175035</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6953610712577714</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.691056910569106</v>
       </c>
       <c r="AJ18" s="3">
@@ -11791,39 +12001,39 @@
         <v>1.5201713841005755</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" ref="AK18:AS18" si="1">Q18*100/SUM($P18:$Y18)</f>
+        <f t="shared" ref="AK18:AS18" si="2">Q18*100/SUM($P18:$Y18)</f>
         <v>1.7979265091018517</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8202745533431699</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.512015287461615</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.012436238530851</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.627180456272072</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.774426323126368</v>
       </c>
       <c r="AQ18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.12178080544647</v>
       </c>
       <c r="AR18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.256219673796846</v>
       </c>
       <c r="AS18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.557568768820188</v>
       </c>
     </row>
@@ -11836,7 +12046,7 @@
         <v>2560</v>
       </c>
       <c r="C19" s="17">
-        <f>mtl_newcases!B20</f>
+        <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -11917,83 +12127,83 @@
         <v>199.38262233692626</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" ref="Z19:Z22" si="2">F19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="Z19:Z22" si="3">F19*100/SUM($F19:$O19)</f>
         <v>0.60721062618595822</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" ref="AA19:AA22" si="3">G19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AA19:AA22" si="4">G19*100/SUM($F19:$O19)</f>
         <v>0.75901328273244784</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" ref="AB19:AB22" si="4">H19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AB19:AB22" si="5">H19*100/SUM($F19:$O19)</f>
         <v>4.2504743833017073</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19:AC22" si="5">I19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AC19:AC22" si="6">I19*100/SUM($F19:$O19)</f>
         <v>17.533206831119546</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" ref="AD19:AD22" si="6">J19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AD19:AD22" si="7">J19*100/SUM($F19:$O19)</f>
         <v>17.647058823529413</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" ref="AE19:AE22" si="7">K19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AE19:AE22" si="8">K19*100/SUM($F19:$O19)</f>
         <v>17.30550284629981</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" ref="AF19:AF22" si="8">L19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AF19:AF22" si="9">L19*100/SUM($F19:$O19)</f>
         <v>15.863377609108159</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" ref="AG19:AG22" si="9">M19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AG19:AG22" si="10">M19*100/SUM($F19:$O19)</f>
         <v>11.764705882352942</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" ref="AH19:AH22" si="10">N19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AH19:AH22" si="11">N19*100/SUM($F19:$O19)</f>
         <v>6.7931688804554078</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" ref="AI19:AI22" si="11">O19*100/SUM($F19:$O19)</f>
+        <f t="shared" ref="AI19:AI22" si="12">O19*100/SUM($F19:$O19)</f>
         <v>7.4762808349146113</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" ref="AJ19:AJ22" si="12">P19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AJ19:AJ22" si="13">P19*100/SUM($P19:$Y19)</f>
         <v>1.1802992798513701</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" ref="AK19:AK22" si="13">Q19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AK19:AK22" si="14">Q19*100/SUM($P19:$Y19)</f>
         <v>1.5510614907660267</v>
       </c>
       <c r="AL19" s="3">
-        <f t="shared" ref="AL19:AL22" si="14">R19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AL19:AL22" si="15">R19*100/SUM($P19:$Y19)</f>
         <v>4.8180370422521746</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" ref="AM19:AM22" si="15">S19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AM19:AM22" si="16">S19*100/SUM($P19:$Y19)</f>
         <v>12.754930482682003</v>
       </c>
       <c r="AN19" s="3">
-        <f t="shared" ref="AN19:AN22" si="16">T19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AN19:AN22" si="17">T19*100/SUM($P19:$Y19)</f>
         <v>12.56144364341861</v>
       </c>
       <c r="AO19" s="3">
-        <f t="shared" ref="AO19:AO22" si="17">U19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AO19:AO22" si="18">U19*100/SUM($P19:$Y19)</f>
         <v>14.506306020907145</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AP22" si="18">V19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AP19:AP22" si="19">V19*100/SUM($P19:$Y19)</f>
         <v>13.071435529172318</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" ref="AQ19:AQ22" si="19">W19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AQ19:AQ22" si="20">W19*100/SUM($P19:$Y19)</f>
         <v>12.241492073661524</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" ref="AR19:AR22" si="20">X19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AR19:AR22" si="21">X19*100/SUM($P19:$Y19)</f>
         <v>11.174218119500496</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" ref="AS19:AS21" si="21">Y19*100/SUM($P19:$Y19)</f>
+        <f t="shared" ref="AS19:AS21" si="22">Y19*100/SUM($P19:$Y19)</f>
         <v>16.140776317788319</v>
       </c>
     </row>
@@ -12006,7 +12216,7 @@
         <v>2956</v>
       </c>
       <c r="C20" s="17">
-        <f>mtl_newcases!B21</f>
+        <f t="shared" si="0"/>
         <v>396</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -12087,83 +12297,83 @@
         <v>234.80593087394362</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63604240282685509</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70671378091872794</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0989399293286217</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.17314487632509</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.491166077738516</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.526501766784452</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.795053003533569</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.342756183745584</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.031802120141343</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1978798586572434</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.223558718028539</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.429253178313741</v>
       </c>
       <c r="AL20" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5982253607143129</v>
       </c>
       <c r="AM20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.36381621739006</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.321737472937102</v>
       </c>
       <c r="AO20" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.539645571680282</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.880558006599919</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11.680403492321608</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.44714914043711</v>
       </c>
       <c r="AS20" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17.51565284157731</v>
       </c>
     </row>
@@ -12176,7 +12386,7 @@
         <v>3303</v>
       </c>
       <c r="C21" s="17">
-        <f>mtl_newcases!B22</f>
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -12257,83 +12467,83 @@
         <v>298.56788624057486</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73778051029818625</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70703965570242855</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9348293882569934</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.569320627113434</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.399323701198892</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.214878573624347</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.739317553027973</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.12818936366431</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5007685213648942</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.0685521057485392</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3967620430405514</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4072325732764974</v>
       </c>
       <c r="AL21" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.3441129130949543</v>
       </c>
       <c r="AM21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.739886790457071</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.062631364179373</v>
       </c>
       <c r="AO21" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.054617889417962</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.631530870895588</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11.277692680337832</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12.016914279764904</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19.068618595535266</v>
       </c>
     </row>
@@ -12346,7 +12556,7 @@
         <v>3643</v>
       </c>
       <c r="C22" s="17">
-        <f>mtl_newcases!B23</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -12427,83 +12637,83 @@
         <v>365.36612519609332</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67476383265856954</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.72874493927125505</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8866396761133601</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.221322537112012</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.219973009446694</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.705802968960864</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.546558704453441</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.796221322537113</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.47638326585695</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.7435897435897427</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2674487700457593</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4390670524194793</v>
       </c>
       <c r="AL22" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.2572862312244464</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.403255062551663</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.844739838803529</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.342143972379681</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.379061854917969</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10.855526686652253</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.883985923157184</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" ref="AS22:AS27" si="22">Y22*100/SUM($P22:$Y22)</f>
+        <f t="shared" ref="AS22:AS27" si="23">Y22*100/SUM($P22:$Y22)</f>
         <v>20.327484607848024</v>
       </c>
     </row>
@@ -12516,7 +12726,7 @@
         <v>3892</v>
       </c>
       <c r="C23" s="17">
-        <f>mtl_newcases!B24</f>
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -12597,83 +12807,83 @@
         <v>448.35787662567685</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" ref="Z23" si="23">F23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="Z23" si="24">F23*100/SUM($F23:$O23)</f>
         <v>0.68078668683812404</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" ref="AA23" si="24">G23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AA23" si="25">G23*100/SUM($F23:$O23)</f>
         <v>0.73121533030761476</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" ref="AB23" si="25">H23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AB23" si="26">H23*100/SUM($F23:$O23)</f>
         <v>3.7317196167423097</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" ref="AC23" si="26">I23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AC23" si="27">I23*100/SUM($F23:$O23)</f>
         <v>15.683308119011599</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" ref="AD23" si="27">J23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AD23" si="28">J23*100/SUM($F23:$O23)</f>
         <v>16.817952597075138</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" ref="AE23" si="28">K23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AE23" si="29">K23*100/SUM($F23:$O23)</f>
         <v>17.423096318709028</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" ref="AF23" si="29">L23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AF23" si="30">L23*100/SUM($F23:$O23)</f>
         <v>15.305093292990419</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23" si="30">M23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AG23" si="31">M23*100/SUM($F23:$O23)</f>
         <v>10.91780131114473</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" ref="AH23" si="31">N23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AH23" si="32">N23*100/SUM($F23:$O23)</f>
         <v>7.5390821986888552</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" ref="AI23" si="32">O23*100/SUM($F23:$O23)</f>
+        <f t="shared" ref="AI23" si="33">O23*100/SUM($F23:$O23)</f>
         <v>11.169944528492184</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" ref="AJ23" si="33">P23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AJ23" si="34">P23*100/SUM($P23:$Y23)</f>
         <v>1.2540800743119853</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" ref="AK23" si="34">Q23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AK23" si="35">Q23*100/SUM($P23:$Y23)</f>
         <v>1.4160753454696453</v>
       </c>
       <c r="AL23" s="3">
-        <f t="shared" ref="AL23" si="35">R23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AL23" si="36">R23*100/SUM($P23:$Y23)</f>
         <v>4.0086964479476155</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" ref="AM23" si="36">S23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AM23" si="37">S23*100/SUM($P23:$Y23)</f>
         <v>10.812244276428896</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" ref="AN23" si="37">T23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AN23" si="38">T23*100/SUM($P23:$Y23)</f>
         <v>11.344928918153082</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" ref="AO23" si="38">U23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AO23" si="39">U23*100/SUM($P23:$Y23)</f>
         <v>13.840742330404732</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" ref="AP23" si="39">V23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AP23" si="40">V23*100/SUM($P23:$Y23)</f>
         <v>11.951572172252922</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" ref="AQ23" si="40">W23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AQ23" si="41">W23*100/SUM($P23:$Y23)</f>
         <v>10.765889107440707</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" ref="AR23" si="41">X23*100/SUM($P23:$Y23)</f>
+        <f t="shared" ref="AR23" si="42">X23*100/SUM($P23:$Y23)</f>
         <v>11.752348075931689</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22.853423251658725</v>
       </c>
     </row>
@@ -12686,7 +12896,7 @@
         <v>4331</v>
       </c>
       <c r="C24" s="17">
-        <f>mtl_newcases!B25</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="D24">
@@ -12767,83 +12977,83 @@
         <v>555.63989676635799</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" ref="Z24" si="42">F24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="Z24" si="43">F24*100/SUM($F24:$O24)</f>
         <v>0.68243858052775253</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" ref="AA24" si="43">G24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AA24" si="44">G24*100/SUM($F24:$O24)</f>
         <v>0.70518653321201097</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" ref="AB24" si="44">H24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AB24" si="45">H24*100/SUM($F24:$O24)</f>
         <v>3.5031847133757963</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" ref="AC24" si="45">I24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AC24" si="46">I24*100/SUM($F24:$O24)</f>
         <v>15.059144676979072</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" ref="AD24" si="46">J24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AD24" si="47">J24*100/SUM($F24:$O24)</f>
         <v>16.674249317561419</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" ref="AE24" si="47">K24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AE24" si="48">K24*100/SUM($F24:$O24)</f>
         <v>17.356687898089174</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" ref="AF24" si="48">L24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AF24" si="49">L24*100/SUM($F24:$O24)</f>
         <v>15.127388535031848</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24" si="49">M24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AG24" si="50">M24*100/SUM($F24:$O24)</f>
         <v>10.668789808917197</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24" si="50">N24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AH24" si="51">N24*100/SUM($F24:$O24)</f>
         <v>7.7343039126478619</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" ref="AI24" si="51">O24*100/SUM($F24:$O24)</f>
+        <f t="shared" ref="AI24" si="52">O24*100/SUM($F24:$O24)</f>
         <v>12.48862602365787</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" ref="AJ24" si="52">P24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AJ24" si="53">P24*100/SUM($P24:$Y24)</f>
         <v>1.2355607964005868</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" ref="AK24" si="53">Q24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AK24" si="54">Q24*100/SUM($P24:$Y24)</f>
         <v>1.3422438395385712</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" ref="AL24" si="54">R24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AL24" si="55">R24*100/SUM($P24:$Y24)</f>
         <v>3.6986525735735332</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" ref="AM24" si="55">S24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AM24" si="56">S24*100/SUM($P24:$Y24)</f>
         <v>10.203867618110584</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" ref="AN24" si="56">T24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AN24" si="57">T24*100/SUM($P24:$Y24)</f>
         <v>11.055064524034513</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" ref="AO24" si="57">U24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AO24" si="58">U24*100/SUM($P24:$Y24)</f>
         <v>13.55149583667175</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" ref="AP24" si="58">V24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AP24" si="59">V24*100/SUM($P24:$Y24)</f>
         <v>11.610190734911347</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" ref="AQ24" si="59">W24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AQ24" si="60">W24*100/SUM($P24:$Y24)</f>
         <v>10.339896946057117</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" ref="AR24" si="60">X24*100/SUM($P24:$Y24)</f>
+        <f t="shared" ref="AR24" si="61">X24*100/SUM($P24:$Y24)</f>
         <v>11.849874103171945</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>25.113153027530057</v>
       </c>
     </row>
@@ -12856,7 +13066,7 @@
         <v>4733</v>
       </c>
       <c r="C25" s="17">
-        <f>mtl_newcases!B26</f>
+        <f t="shared" si="0"/>
         <v>402</v>
       </c>
       <c r="D25">
@@ -12938,83 +13148,83 @@
         <v>653.81306614037749</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" ref="Z25" si="61">F25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="Z25" si="62">F25*100/SUM($F25:$O25)</f>
         <v>0.71368597816960533</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" ref="AA25" si="62">G25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AA25" si="63">G25*100/SUM($F25:$O25)</f>
         <v>0.69269521410579349</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" ref="AB25" si="63">H25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AB25" si="64">H25*100/SUM($F25:$O25)</f>
         <v>3.4634760705289671</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" ref="AC25" si="64">I25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AC25" si="65">I25*100/SUM($F25:$O25)</f>
         <v>14.609571788413099</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" ref="AD25" si="65">J25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AD25" si="66">J25*100/SUM($F25:$O25)</f>
         <v>16.204869857262803</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" ref="AE25" si="66">K25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AE25" si="67">K25*100/SUM($F25:$O25)</f>
         <v>17.569269521410579</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" ref="AF25" si="67">L25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AF25" si="68">L25*100/SUM($F25:$O25)</f>
         <v>14.861460957178842</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" ref="AG25" si="68">M25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AG25" si="69">M25*100/SUM($F25:$O25)</f>
         <v>10.600335852225021</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" ref="AH25" si="69">N25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AH25" si="70">N25*100/SUM($F25:$O25)</f>
         <v>7.7246011754827872</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" ref="AI25" si="70">O25*100/SUM($F25:$O25)</f>
+        <f t="shared" ref="AI25" si="71">O25*100/SUM($F25:$O25)</f>
         <v>13.560033585222502</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" ref="AJ25" si="71">P25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AJ25" si="72">P25*100/SUM($P25:$Y25)</f>
         <v>1.2741662743359223</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" ref="AK25" si="72">Q25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AK25" si="73">Q25*100/SUM($P25:$Y25)</f>
         <v>1.3001336199435898</v>
       </c>
       <c r="AL25" s="3">
-        <f t="shared" ref="AL25" si="73">R25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AL25" si="74">R25*100/SUM($P25:$Y25)</f>
         <v>3.605878468470165</v>
       </c>
       <c r="AM25" s="3">
-        <f t="shared" ref="AM25" si="74">S25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AM25" si="75">S25*100/SUM($P25:$Y25)</f>
         <v>9.7615860972205031</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ref="AN25" si="75">T25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AN25" si="76">T25*100/SUM($P25:$Y25)</f>
         <v>10.594462566017281</v>
       </c>
       <c r="AO25" s="3">
-        <f t="shared" ref="AO25" si="76">U25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AO25" si="77">U25*100/SUM($P25:$Y25)</f>
         <v>13.526719348773122</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" ref="AP25" si="77">V25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AP25" si="78">V25*100/SUM($P25:$Y25)</f>
         <v>11.247481570994617</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" ref="AQ25" si="78">W25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AQ25" si="79">W25*100/SUM($P25:$Y25)</f>
         <v>10.130691002879436</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" ref="AR25" si="79">X25*100/SUM($P25:$Y25)</f>
+        <f t="shared" ref="AR25" si="80">X25*100/SUM($P25:$Y25)</f>
         <v>11.670432774791719</v>
       </c>
       <c r="AS25" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26.888448276573634</v>
       </c>
     </row>
@@ -13027,14 +13237,14 @@
         <v>5082</v>
       </c>
       <c r="C26" s="17">
-        <f>mtl_newcases!B27</f>
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
       <c r="D26">
         <v>91</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:E42" si="80">D26-D25</f>
+        <f t="shared" ref="E26:E42" si="81">D26-D25</f>
         <v>17</v>
       </c>
       <c r="F26" cm="1">
@@ -13109,83 +13319,83 @@
         <v>767.16765345883312</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" ref="Z26" si="81">F26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="Z26" si="82">F26*100/SUM($F26:$O26)</f>
         <v>0.68597560975609762</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" ref="AA26" si="82">G26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AA26" si="83">G26*100/SUM($F26:$O26)</f>
         <v>0.62881097560975607</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" ref="AB26" si="83">H26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AB26" si="84">H26*100/SUM($F26:$O26)</f>
         <v>3.2583841463414633</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" ref="AC26" si="84">I26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AC26" si="85">I26*100/SUM($F26:$O26)</f>
         <v>14.310213414634147</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" ref="AD26" si="85">J26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AD26" si="86">J26*100/SUM($F26:$O26)</f>
         <v>16.120426829268293</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" ref="AE26" si="86">K26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AE26" si="87">K26*100/SUM($F26:$O26)</f>
         <v>17.301829268292682</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" ref="AF26" si="87">L26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AF26" si="88">L26*100/SUM($F26:$O26)</f>
         <v>14.691310975609756</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" ref="AG26" si="88">M26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AG26" si="89">M26*100/SUM($F26:$O26)</f>
         <v>10.499237804878049</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" ref="AH26" si="89">N26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AH26" si="90">N26*100/SUM($F26:$O26)</f>
         <v>8.0602134146341466</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" ref="AI26" si="90">O26*100/SUM($F26:$O26)</f>
+        <f t="shared" ref="AI26" si="91">O26*100/SUM($F26:$O26)</f>
         <v>14.44359756097561</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" ref="AJ26" si="91">P26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AJ26" si="92">P26*100/SUM($P26:$Y26)</f>
         <v>1.2102957070485933</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" ref="AK26" si="92">Q26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AK26" si="93">Q26*100/SUM($P26:$Y26)</f>
         <v>1.1663524131872707</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" ref="AL26" si="93">R26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AL26" si="94">R26*100/SUM($P26:$Y26)</f>
         <v>3.3524711944877916</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" ref="AM26" si="94">S26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AM26" si="95">S26*100/SUM($P26:$Y26)</f>
         <v>9.4491531928956718</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" ref="AN26" si="95">T26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AN26" si="96">T26*100/SUM($P26:$Y26)</f>
         <v>10.415348280472333</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" ref="AO26" si="96">U26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AO26" si="97">U26*100/SUM($P26:$Y26)</f>
         <v>13.164206111656185</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" ref="AP26" si="97">V26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AP26" si="98">V26*100/SUM($P26:$Y26)</f>
         <v>10.987988951913326</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" ref="AQ26" si="98">W26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AQ26" si="99">W26*100/SUM($P26:$Y26)</f>
         <v>9.9161044637425455</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" ref="AR26" si="99">X26*100/SUM($P26:$Y26)</f>
+        <f t="shared" ref="AR26" si="100">X26*100/SUM($P26:$Y26)</f>
         <v>12.034313294072128</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28.303766390524146</v>
       </c>
     </row>
@@ -13198,14 +13408,14 @@
         <v>5406</v>
       </c>
       <c r="C27" s="17">
-        <f>mtl_newcases!B28</f>
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
       <c r="E27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9</v>
       </c>
       <c r="F27" cm="1">
@@ -13280,83 +13490,83 @@
         <v>872.42548454025609</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" ref="Z27:Z32" si="100">F27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="Z27:Z32" si="101">F27*100/SUM($F27:$O27)</f>
         <v>0.66059632208534191</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" ref="AA27" si="101">G27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AA27" si="102">G27*100/SUM($F27:$O27)</f>
         <v>0.60703445813247636</v>
       </c>
       <c r="AB27" s="3">
-        <f t="shared" ref="AB27" si="102">H27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AB27" si="103">H27*100/SUM($F27:$O27)</f>
         <v>3.1601499732190681</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27" si="103">I27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AC27" si="104">I27*100/SUM($F27:$O27)</f>
         <v>13.979646491697912</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" ref="AD27" si="104">J27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AD27" si="105">J27*100/SUM($F27:$O27)</f>
         <v>15.83645777539725</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" ref="AE27" si="105">K27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AE27" si="106">K27*100/SUM($F27:$O27)</f>
         <v>17.24692019282271</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" ref="AF27" si="106">L27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AF27" si="107">L27*100/SUM($F27:$O27)</f>
         <v>14.783074450990895</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" ref="AG27" si="107">M27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AG27" si="108">M27*100/SUM($F27:$O27)</f>
         <v>10.373147652204963</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" ref="AH27" si="108">N27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AH27" si="109">N27*100/SUM($F27:$O27)</f>
         <v>7.9628637743260136</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" ref="AI27" si="109">O27*100/SUM($F27:$O27)</f>
+        <f t="shared" ref="AI27" si="110">O27*100/SUM($F27:$O27)</f>
         <v>15.39010890912337</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" ref="AJ27" si="110">P27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AJ27" si="111">P27*100/SUM($P27:$Y27)</f>
         <v>1.1536444121732559</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" ref="AK27" si="111">Q27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AK27" si="112">Q27*100/SUM($P27:$Y27)</f>
         <v>1.1144895999410616</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" ref="AL27" si="112">R27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AL27" si="113">R27*100/SUM($P27:$Y27)</f>
         <v>3.2182772974502631</v>
       </c>
       <c r="AM27" s="3">
-        <f t="shared" ref="AM27" si="113">S27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AM27" si="114">S27*100/SUM($P27:$Y27)</f>
         <v>9.136838862422529</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" ref="AN27" si="114">T27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AN27" si="115">T27*100/SUM($P27:$Y27)</f>
         <v>10.12764114470038</v>
       </c>
       <c r="AO27" s="3">
-        <f t="shared" ref="AO27" si="115">U27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AO27" si="116">U27*100/SUM($P27:$Y27)</f>
         <v>12.98874534024409</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" ref="AP27" si="116">V27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AP27" si="117">V27*100/SUM($P27:$Y27)</f>
         <v>10.943983347038248</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27" si="117">W27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AQ27" si="118">W27*100/SUM($P27:$Y27)</f>
         <v>9.697211716931081</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" ref="AR27" si="118">X27*100/SUM($P27:$Y27)</f>
+        <f t="shared" ref="AR27" si="119">X27*100/SUM($P27:$Y27)</f>
         <v>11.767848144952298</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.8513201341468</v>
       </c>
     </row>
@@ -13369,14 +13579,14 @@
         <v>5685</v>
       </c>
       <c r="C28" s="17">
-        <f>mtl_newcases!B29</f>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="D28">
         <v>135</v>
       </c>
       <c r="E28">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>35</v>
       </c>
       <c r="F28" cm="1">
@@ -13451,83 +13661,83 @@
         <v>923.03021102170942</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.66757959602875727</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" ref="AA28" si="119">G28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AA28" si="120">G28*100/SUM($F28:$O28)</f>
         <v>0.58199246833276275</v>
       </c>
       <c r="AB28" s="3">
-        <f t="shared" ref="AB28" si="120">H28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AB28" si="121">H28*100/SUM($F28:$O28)</f>
         <v>3.0811365970558029</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" ref="AC28" si="121">I28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AC28" si="122">I28*100/SUM($F28:$O28)</f>
         <v>13.762410133515919</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" ref="AD28" si="122">J28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AD28" si="123">J28*100/SUM($F28:$O28)</f>
         <v>15.816501198219788</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" ref="AE28" si="123">K28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AE28" si="124">K28*100/SUM($F28:$O28)</f>
         <v>17.237247517973298</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28" si="124">L28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AF28" si="125">L28*100/SUM($F28:$O28)</f>
         <v>14.960629921259843</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" ref="AG28" si="125">M28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AG28" si="126">M28*100/SUM($F28:$O28)</f>
         <v>10.287572749058542</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" ref="AH28" si="126">N28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AH28" si="127">N28*100/SUM($F28:$O28)</f>
         <v>7.9938377268058884</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" ref="AI28" si="127">O28*100/SUM($F28:$O28)</f>
+        <f t="shared" ref="AI28" si="128">O28*100/SUM($F28:$O28)</f>
         <v>15.6110920917494</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" ref="AJ28" si="128">P28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AJ28" si="129">P28*100/SUM($P28:$Y28)</f>
         <v>1.1629373960894367</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" ref="AK28" si="129">Q28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AK28" si="130">Q28*100/SUM($P28:$Y28)</f>
         <v>1.0658534775217143</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" ref="AL28" si="130">R28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AL28" si="131">R28*100/SUM($P28:$Y28)</f>
         <v>3.1299989130218773</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" ref="AM28" si="131">S28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AM28" si="132">S28*100/SUM($P28:$Y28)</f>
         <v>8.9724642953250857</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" ref="AN28" si="132">T28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AN28" si="133">T28*100/SUM($P28:$Y28)</f>
         <v>10.089697416516936</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" ref="AO28" si="133">U28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AO28" si="134">U28*100/SUM($P28:$Y28)</f>
         <v>12.949143167636008</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" ref="AP28" si="134">V28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AP28" si="135">V28*100/SUM($P28:$Y28)</f>
         <v>11.047856020616926</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" ref="AQ28" si="135">W28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AQ28" si="136">W28*100/SUM($P28:$Y28)</f>
         <v>9.5932707905135146</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" ref="AR28" si="136">X28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AR28" si="137">X28*100/SUM($P28:$Y28)</f>
         <v>11.784212455606934</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" ref="AS28" si="137">Y28*100/SUM($P28:$Y28)</f>
+        <f t="shared" ref="AS28" si="138">Y28*100/SUM($P28:$Y28)</f>
         <v>30.204566067151575</v>
       </c>
     </row>
@@ -13540,14 +13750,14 @@
         <v>5901</v>
       </c>
       <c r="C29" s="17">
-        <f>mtl_newcases!B30</f>
+        <f t="shared" si="0"/>
         <v>216</v>
       </c>
       <c r="D29">
         <v>147</v>
       </c>
       <c r="E29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>12</v>
       </c>
       <c r="F29" cm="1">
@@ -13622,83 +13832,83 @@
         <v>1012.0945296290673</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.69204152249134943</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" ref="AA29" si="138">G29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AA29" si="139">G29*100/SUM($F29:$O29)</f>
         <v>0.56022408963585435</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" ref="AB29" si="139">H29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AB29" si="140">H29*100/SUM($F29:$O29)</f>
         <v>2.9823694183555776</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" ref="AC29" si="140">I29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AC29" si="141">I29*100/SUM($F29:$O29)</f>
         <v>13.544241225902125</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" ref="AD29" si="141">J29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AD29" si="142">J29*100/SUM($F29:$O29)</f>
         <v>15.439116823199868</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" ref="AE29" si="142">K29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AE29" si="143">K29*100/SUM($F29:$O29)</f>
         <v>17.383423957818422</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" ref="AF29" si="143">L29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AF29" si="144">L29*100/SUM($F29:$O29)</f>
         <v>14.697643763387708</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" ref="AG29" si="144">M29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AG29" si="145">M29*100/SUM($F29:$O29)</f>
         <v>10.100510792552315</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" ref="AH29" si="145">N29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AH29" si="146">N29*100/SUM($F29:$O29)</f>
         <v>8.1232492997198875</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" ref="AI29" si="146">O29*100/SUM($F29:$O29)</f>
+        <f t="shared" ref="AI29" si="147">O29*100/SUM($F29:$O29)</f>
         <v>16.477179106936891</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" ref="AJ29" si="147">P29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AJ29" si="148">P29*100/SUM($P29:$Y29)</f>
         <v>1.1921143001120531</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" ref="AK29" si="148">Q29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AK29" si="149">Q29*100/SUM($P29:$Y29)</f>
         <v>1.0145521711078922</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" ref="AL29" si="149">R29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AL29" si="150">R29*100/SUM($P29:$Y29)</f>
         <v>2.9958987693553456</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" ref="AM29" si="150">S29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AM29" si="151">S29*100/SUM($P29:$Y29)</f>
         <v>8.7318121829013062</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" ref="AN29" si="151">T29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AN29" si="152">T29*100/SUM($P29:$Y29)</f>
         <v>9.7391855483723244</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" ref="AO29" si="152">U29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AO29" si="153">U29*100/SUM($P29:$Y29)</f>
         <v>12.913408799206865</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" ref="AP29" si="153">V29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AP29" si="154">V29*100/SUM($P29:$Y29)</f>
         <v>10.732683081880172</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" ref="AQ29" si="154">W29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AQ29" si="155">W29*100/SUM($P29:$Y29)</f>
         <v>9.3138573948142813</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" ref="AR29" si="155">X29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AR29" si="156">X29*100/SUM($P29:$Y29)</f>
         <v>11.841520755135035</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" ref="AS29" si="156">Y29*100/SUM($P29:$Y29)</f>
+        <f t="shared" ref="AS29" si="157">Y29*100/SUM($P29:$Y29)</f>
         <v>31.524966997114731</v>
       </c>
     </row>
@@ -13711,14 +13921,14 @@
         <v>6201</v>
       </c>
       <c r="C30" s="17">
-        <f>mtl_newcases!B31</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D30">
         <v>162</v>
       </c>
       <c r="E30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>15</v>
       </c>
       <c r="F30" cm="1">
@@ -13793,83 +14003,83 @@
         <v>1076.8685795253277</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.69225928256765257</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" ref="AA30" si="157">G30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AA30" si="158">G30*100/SUM($F30:$O30)</f>
         <v>0.53492762743864064</v>
       </c>
       <c r="AB30" s="3">
-        <f t="shared" ref="AB30" si="158">H30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AB30" si="159">H30*100/SUM($F30:$O30)</f>
         <v>2.8634361233480177</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" ref="AC30" si="159">I30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AC30" si="160">I30*100/SUM($F30:$O30)</f>
         <v>13.278791692888609</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" ref="AD30" si="160">J30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AD30" si="161">J30*100/SUM($F30:$O30)</f>
         <v>15.560100692259283</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" ref="AE30" si="161">K30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AE30" si="162">K30*100/SUM($F30:$O30)</f>
         <v>17.495280050346128</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" ref="AF30" si="162">L30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AF30" si="163">L30*100/SUM($F30:$O30)</f>
         <v>14.757709251101321</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" ref="AG30" si="163">M30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AG30" si="164">M30*100/SUM($F30:$O30)</f>
         <v>9.9276274386406538</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" ref="AH30" si="164">N30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AH30" si="165">N30*100/SUM($F30:$O30)</f>
         <v>8.1497797356828201</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" ref="AI30" si="165">O30*100/SUM($F30:$O30)</f>
+        <f t="shared" ref="AI30" si="166">O30*100/SUM($F30:$O30)</f>
         <v>16.740088105726873</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" ref="AJ30" si="166">P30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AJ30" si="167">P30*100/SUM($P30:$Y30)</f>
         <v>1.1895215818412368</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" ref="AK30" si="167">Q30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AK30" si="168">Q30*100/SUM($P30:$Y30)</f>
         <v>0.96632992055257616</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" ref="AL30" si="168">R30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AL30" si="169">R30*100/SUM($P30:$Y30)</f>
         <v>2.8692671750971401</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" ref="AM30" si="169">S30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AM30" si="170">S30*100/SUM($P30:$Y30)</f>
         <v>8.5393744364954909</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" ref="AN30" si="170">T30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AN30" si="171">T30*100/SUM($P30:$Y30)</f>
         <v>9.7910751275209886</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" ref="AO30" si="171">U30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AO30" si="172">U30*100/SUM($P30:$Y30)</f>
         <v>12.964156633628784</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" ref="AP30" si="172">V30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AP30" si="173">V30*100/SUM($P30:$Y30)</f>
         <v>10.749724445019917</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" ref="AQ30" si="173">W30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AQ30" si="174">W30*100/SUM($P30:$Y30)</f>
         <v>9.1316553348902101</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" ref="AR30" si="174">X30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AR30" si="175">X30*100/SUM($P30:$Y30)</f>
         <v>11.850627938469396</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" ref="AS30" si="175">Y30*100/SUM($P30:$Y30)</f>
+        <f t="shared" ref="AS30" si="176">Y30*100/SUM($P30:$Y30)</f>
         <v>31.948267406484259</v>
       </c>
     </row>
@@ -13882,14 +14092,14 @@
         <v>6629</v>
       </c>
       <c r="C31" s="17">
-        <f>mtl_newcases!B32</f>
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
       <c r="D31">
         <v>218</v>
       </c>
       <c r="E31">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>56</v>
       </c>
       <c r="F31" cm="1">
@@ -13964,83 +14174,83 @@
         <v>1150.7514801882496</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.65250379362670718</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" ref="AA31" si="176">G31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AA31" si="177">G31*100/SUM($F31:$O31)</f>
         <v>0.53110773899848251</v>
       </c>
       <c r="AB31" s="3">
-        <f t="shared" ref="AB31" si="177">H31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AB31" si="178">H31*100/SUM($F31:$O31)</f>
         <v>2.7769347496206374</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" ref="AC31" si="178">I31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AC31" si="179">I31*100/SUM($F31:$O31)</f>
         <v>13.201820940819424</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" ref="AD31" si="179">J31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AD31" si="180">J31*100/SUM($F31:$O31)</f>
         <v>15.43247344461305</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" ref="AE31" si="180">K31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AE31" si="181">K31*100/SUM($F31:$O31)</f>
         <v>17.496206373292868</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" ref="AF31" si="181">L31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AF31" si="182">L31*100/SUM($F31:$O31)</f>
         <v>14.673748103186647</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" ref="AG31" si="182">M31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AG31" si="183">M31*100/SUM($F31:$O31)</f>
         <v>9.8937784522003032</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" ref="AH31" si="183">N31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AH31" si="184">N31*100/SUM($F31:$O31)</f>
         <v>8.0880121396054623</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" ref="AI31" si="184">O31*100/SUM($F31:$O31)</f>
+        <f t="shared" ref="AI31" si="185">O31*100/SUM($F31:$O31)</f>
         <v>17.253414264036419</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31" si="185">P31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AJ31" si="186">P31*100/SUM($P31:$Y31)</f>
         <v>1.1155580860940868</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" ref="AK31" si="186">Q31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AK31" si="187">Q31*100/SUM($P31:$Y31)</f>
         <v>0.95459386214021635</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" ref="AL31" si="187">R31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AL31" si="188">R31*100/SUM($P31:$Y31)</f>
         <v>2.7685653243669308</v>
       </c>
       <c r="AM31" s="3">
-        <f t="shared" ref="AM31" si="188">S31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AM31" si="189">S31*100/SUM($P31:$Y31)</f>
         <v>8.447086597134879</v>
       </c>
       <c r="AN31" s="3">
-        <f t="shared" ref="AN31" si="189">T31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AN31" si="190">T31*100/SUM($P31:$Y31)</f>
         <v>9.6618241251449142</v>
       </c>
       <c r="AO31" s="3">
-        <f t="shared" ref="AO31" si="190">U31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AO31" si="191">U31*100/SUM($P31:$Y31)</f>
         <v>12.899499887480493</v>
       </c>
       <c r="AP31" s="3">
-        <f t="shared" ref="AP31" si="191">V31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AP31" si="192">V31*100/SUM($P31:$Y31)</f>
         <v>10.634695294157163</v>
       </c>
       <c r="AQ31" s="3">
-        <f t="shared" ref="AQ31" si="192">W31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AQ31" si="193">W31*100/SUM($P31:$Y31)</f>
         <v>9.0546534064016839</v>
       </c>
       <c r="AR31" s="3">
-        <f t="shared" ref="AR31" si="193">X31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AR31" si="194">X31*100/SUM($P31:$Y31)</f>
         <v>11.701536617528189</v>
       </c>
       <c r="AS31" s="3">
-        <f t="shared" ref="AS31" si="194">Y31*100/SUM($P31:$Y31)</f>
+        <f t="shared" ref="AS31" si="195">Y31*100/SUM($P31:$Y31)</f>
         <v>32.761986799551451</v>
       </c>
     </row>
@@ -14053,14 +14263,14 @@
         <v>7031</v>
       </c>
       <c r="C32" s="17">
-        <f>mtl_newcases!B33</f>
+        <f t="shared" si="0"/>
         <v>402</v>
       </c>
       <c r="D32">
         <v>242</v>
       </c>
       <c r="E32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>24</v>
       </c>
       <c r="F32" cm="1">
@@ -14135,83 +14345,83 @@
         <v>1212.4892464956226</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.63123899001761596</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" ref="AA32" si="195">G32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AA32" si="196">G32*100/SUM($F32:$O32)</f>
         <v>0.52847915443335292</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" ref="AB32" si="196">H32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AB32" si="197">H32*100/SUM($F32:$O32)</f>
         <v>2.7157956547269526</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" ref="AC32" si="197">I32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AC32" si="198">I32*100/SUM($F32:$O32)</f>
         <v>12.962419260129185</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" ref="AD32" si="198">J32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AD32" si="199">J32*100/SUM($F32:$O32)</f>
         <v>15.443335290663535</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" ref="AE32" si="199">K32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AE32" si="200">K32*100/SUM($F32:$O32)</f>
         <v>17.586611861421023</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" ref="AF32" si="200">L32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AF32" si="201">L32*100/SUM($F32:$O32)</f>
         <v>14.812096300645919</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" ref="AG32" si="201">M32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AG32" si="202">M32*100/SUM($F32:$O32)</f>
         <v>9.7768643570170291</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" ref="AH32" si="202">N32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AH32" si="203">N32*100/SUM($F32:$O32)</f>
         <v>7.9565472695243686</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" ref="AI32" si="203">O32*100/SUM($F32:$O32)</f>
+        <f t="shared" ref="AI32" si="204">O32*100/SUM($F32:$O32)</f>
         <v>17.586611861421023</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="204">P32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AJ32" si="205">P32*100/SUM($P32:$Y32)</f>
         <v>1.0764682474599534</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="205">Q32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AK32" si="206">Q32*100/SUM($P32:$Y32)</f>
         <v>0.94746271732109555</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="206">R32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AL32" si="207">R32*100/SUM($P32:$Y32)</f>
         <v>2.7007504012450916</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="207">S32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AM32" si="208">S32*100/SUM($P32:$Y32)</f>
         <v>8.2728934876609479</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="208">T32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AN32" si="209">T32*100/SUM($P32:$Y32)</f>
         <v>9.6441276499945143</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="209">U32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AO32" si="210">U32*100/SUM($P32:$Y32)</f>
         <v>12.933302016742525</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" ref="AP32" si="210">V32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AP32" si="211">V32*100/SUM($P32:$Y32)</f>
         <v>10.707763700766201</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" ref="AQ32" si="211">W32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AQ32" si="212">W32*100/SUM($P32:$Y32)</f>
         <v>8.9249851044116344</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" ref="AR32" si="212">X32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AR32" si="213">X32*100/SUM($P32:$Y32)</f>
         <v>11.482170962535752</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" ref="AS32" si="213">Y32*100/SUM($P32:$Y32)</f>
+        <f t="shared" ref="AS32" si="214">Y32*100/SUM($P32:$Y32)</f>
         <v>33.310075711862289</v>
       </c>
     </row>
@@ -14224,14 +14434,14 @@
         <v>7626</v>
       </c>
       <c r="C33" s="17">
-        <f>mtl_newcases!B34</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="D33">
         <v>332</v>
       </c>
       <c r="E33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>90</v>
       </c>
       <c r="F33" cm="1">
@@ -14306,83 +14516,83 @@
         <v>1317.7470775770457</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" ref="Z33" si="214">F33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="Z33" si="215">F33*100/SUM($F33:$O33)</f>
         <v>0.59220493045035116</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" ref="AA33" si="215">G33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AA33" si="216">G33*100/SUM($F33:$O33)</f>
         <v>0.49579947665610796</v>
       </c>
       <c r="AB33" s="3">
-        <f t="shared" ref="AB33" si="216">H33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AB33" si="217">H33*100/SUM($F33:$O33)</f>
         <v>2.6167194601294588</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" ref="AC33" si="217">I33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AC33" si="218">I33*100/SUM($F33:$O33)</f>
         <v>12.574025616306294</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" ref="AD33" si="218">J33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AD33" si="219">J33*100/SUM($F33:$O33)</f>
         <v>15.507505853188267</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" ref="AE33" si="219">K33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AE33" si="220">K33*100/SUM($F33:$O33)</f>
         <v>17.655970252031402</v>
       </c>
       <c r="AF33" s="3">
-        <f t="shared" ref="AF33" si="220">L33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AF33" si="221">L33*100/SUM($F33:$O33)</f>
         <v>14.984161961162375</v>
       </c>
       <c r="AG33" s="3">
-        <f t="shared" ref="AG33" si="221">M33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AG33" si="222">M33*100/SUM($F33:$O33)</f>
         <v>9.6680897947941062</v>
       </c>
       <c r="AH33" s="3">
-        <f t="shared" ref="AH33" si="222">N33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AH33" si="223">N33*100/SUM($F33:$O33)</f>
         <v>7.9741082495524029</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" ref="AI33" si="223">O33*100/SUM($F33:$O33)</f>
+        <f t="shared" ref="AI33" si="224">O33*100/SUM($F33:$O33)</f>
         <v>17.931414405729239</v>
       </c>
       <c r="AJ33" s="3">
-        <f t="shared" ref="AJ33" si="224">P33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AJ33" si="225">P33*100/SUM($P33:$Y33)</f>
         <v>1.0066507009087609</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" ref="AK33" si="225">Q33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AK33" si="226">Q33*100/SUM($P33:$Y33)</f>
         <v>0.88601220772346267</v>
       </c>
       <c r="AL33" s="3">
-        <f t="shared" ref="AL33" si="226">R33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AL33" si="227">R33*100/SUM($P33:$Y33)</f>
         <v>2.5938442693228283</v>
       </c>
       <c r="AM33" s="3">
-        <f t="shared" ref="AM33" si="227">S33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AM33" si="228">S33*100/SUM($P33:$Y33)</f>
         <v>7.9991728828671622</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" ref="AN33" si="228">T33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AN33" si="229">T33*100/SUM($P33:$Y33)</f>
         <v>9.653019356656614</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" ref="AO33" si="229">U33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AO33" si="230">U33*100/SUM($P33:$Y33)</f>
         <v>12.942500865258527</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" ref="AP33" si="230">V33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AP33" si="231">V33*100/SUM($P33:$Y33)</f>
         <v>10.79727304274869</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" ref="AQ33" si="231">W33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AQ33" si="232">W33*100/SUM($P33:$Y33)</f>
         <v>8.7972707685796223</v>
       </c>
       <c r="AR33" s="3">
-        <f t="shared" ref="AR33" si="232">X33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AR33" si="233">X33*100/SUM($P33:$Y33)</f>
         <v>11.470460730593405</v>
       </c>
       <c r="AS33" s="3">
-        <f t="shared" ref="AS33" si="233">Y33*100/SUM($P33:$Y33)</f>
+        <f t="shared" ref="AS33" si="234">Y33*100/SUM($P33:$Y33)</f>
         <v>33.853795175340927</v>
       </c>
     </row>
@@ -14395,14 +14605,14 @@
         <v>8018</v>
       </c>
       <c r="C34" s="17">
-        <f>mtl_newcases!B35</f>
+        <f t="shared" si="0"/>
         <v>392</v>
       </c>
       <c r="D34">
         <v>391</v>
       </c>
       <c r="E34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>59</v>
       </c>
       <c r="F34" cm="1">
@@ -14477,83 +14687,83 @@
         <v>1480.6942968473256</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" ref="Z34" si="234">F34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="Z34" si="235">F34*100/SUM($F34:$O34)</f>
         <v>0.5684754521963824</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" ref="AA34" si="235">G34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AA34" si="236">G34*100/SUM($F34:$O34)</f>
         <v>0.45219638242894056</v>
       </c>
       <c r="AB34" s="3">
-        <f t="shared" ref="AB34" si="236">H34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AB34" si="237">H34*100/SUM($F34:$O34)</f>
         <v>2.4935400516795867</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" ref="AC34" si="237">I34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AC34" si="238">I34*100/SUM($F34:$O34)</f>
         <v>12.390180878552972</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" ref="AD34" si="238">J34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AD34" si="239">J34*100/SUM($F34:$O34)</f>
         <v>15.193798449612403</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" ref="AE34" si="239">K34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AE34" si="240">K34*100/SUM($F34:$O34)</f>
         <v>17.493540051679588</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" ref="AF34" si="240">L34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AF34" si="241">L34*100/SUM($F34:$O34)</f>
         <v>14.793281653746771</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" ref="AG34" si="241">M34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AG34" si="242">M34*100/SUM($F34:$O34)</f>
         <v>9.5994832041343674</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" ref="AH34" si="242">N34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AH34" si="243">N34*100/SUM($F34:$O34)</f>
         <v>8.1136950904392773</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" ref="AI34" si="243">O34*100/SUM($F34:$O34)</f>
+        <f t="shared" ref="AI34" si="244">O34*100/SUM($F34:$O34)</f>
         <v>18.901808785529717</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" ref="AJ34" si="244">P34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AJ34" si="245">P34*100/SUM($P34:$Y34)</f>
         <v>0.95522219693191313</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" ref="AK34" si="245">Q34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AK34" si="246">Q34*100/SUM($P34:$Y34)</f>
         <v>0.79881577730076725</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" ref="AL34" si="246">R34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AL34" si="247">R34*100/SUM($P34:$Y34)</f>
         <v>2.4433686134561095</v>
       </c>
       <c r="AM34" s="3">
-        <f t="shared" ref="AM34" si="247">S34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AM34" si="248">S34*100/SUM($P34:$Y34)</f>
         <v>7.7917372210112088</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="248">T34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AN34" si="249">T34*100/SUM($P34:$Y34)</f>
         <v>9.3491793879868617</v>
       </c>
       <c r="AO34" s="3">
-        <f t="shared" ref="AO34" si="249">U34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AO34" si="250">U34*100/SUM($P34:$Y34)</f>
         <v>12.676233385029002</v>
       </c>
       <c r="AP34" s="3">
-        <f t="shared" ref="AP34" si="250">V34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AP34" si="251">V34*100/SUM($P34:$Y34)</f>
         <v>10.537365879948011</v>
       </c>
       <c r="AQ34" s="3">
-        <f t="shared" ref="AQ34" si="251">W34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AQ34" si="252">W34*100/SUM($P34:$Y34)</f>
         <v>8.6345765769839264</v>
       </c>
       <c r="AR34" s="3">
-        <f t="shared" ref="AR34" si="252">X34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AR34" si="253">X34*100/SUM($P34:$Y34)</f>
         <v>11.537277193466</v>
       </c>
       <c r="AS34" s="3">
-        <f t="shared" ref="AS34" si="253">Y34*100/SUM($P34:$Y34)</f>
+        <f t="shared" ref="AS34" si="254">Y34*100/SUM($P34:$Y34)</f>
         <v>35.276223767886201</v>
       </c>
     </row>
@@ -14566,14 +14776,14 @@
         <v>8558</v>
       </c>
       <c r="C35" s="17">
-        <f>mtl_newcases!B36</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="D35">
         <v>454</v>
       </c>
       <c r="E35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>63</v>
       </c>
       <c r="F35" cm="1">
@@ -14648,83 +14858,83 @@
         <v>1570.7707099843126</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" ref="Z35" si="254">F35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="Z35" si="255">F35*100/SUM($F35:$O35)</f>
         <v>0.57270916334661359</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" ref="AA35" si="255">G35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AA35" si="256">G35*100/SUM($F35:$O35)</f>
         <v>0.43575697211155379</v>
       </c>
       <c r="AB35" s="3">
-        <f t="shared" ref="AB35" si="256">H35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AB35" si="257">H35*100/SUM($F35:$O35)</f>
         <v>2.4153386454183265</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" ref="AC35" si="257">I35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AC35" si="258">I35*100/SUM($F35:$O35)</f>
         <v>12.263446215139442</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" ref="AD35" si="258">J35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AD35" si="259">J35*100/SUM($F35:$O35)</f>
         <v>15.164342629482071</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" ref="AE35" si="259">K35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AE35" si="260">K35*100/SUM($F35:$O35)</f>
         <v>17.442729083665338</v>
       </c>
       <c r="AF35" s="3">
-        <f t="shared" ref="AF35" si="260">L35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AF35" si="261">L35*100/SUM($F35:$O35)</f>
         <v>14.790836653386455</v>
       </c>
       <c r="AG35" s="3">
-        <f t="shared" ref="AG35" si="261">M35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AG35" si="262">M35*100/SUM($F35:$O35)</f>
         <v>9.5493027888446207</v>
       </c>
       <c r="AH35" s="3">
-        <f t="shared" ref="AH35" si="262">N35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AH35" si="263">N35*100/SUM($F35:$O35)</f>
         <v>8.0428286852589643</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" ref="AI35" si="263">O35*100/SUM($F35:$O35)</f>
+        <f t="shared" ref="AI35" si="264">O35*100/SUM($F35:$O35)</f>
         <v>19.322709163346612</v>
       </c>
       <c r="AJ35" s="3">
-        <f t="shared" ref="AJ35" si="264">P35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AJ35" si="265">P35*100/SUM($P35:$Y35)</f>
         <v>0.95845753512887644</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" ref="AK35" si="265">Q35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AK35" si="266">Q35*100/SUM($P35:$Y35)</f>
         <v>0.76667261177299373</v>
       </c>
       <c r="AL35" s="3">
-        <f t="shared" ref="AL35" si="266">R35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AL35" si="267">R35*100/SUM($P35:$Y35)</f>
         <v>2.3572015975928311</v>
       </c>
       <c r="AM35" s="3">
-        <f t="shared" ref="AM35" si="267">S35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AM35" si="268">S35*100/SUM($P35:$Y35)</f>
         <v>7.6809552655786106</v>
       </c>
       <c r="AN35" s="3">
-        <f t="shared" ref="AN35" si="268">T35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AN35" si="269">T35*100/SUM($P35:$Y35)</f>
         <v>9.2934458869820737</v>
       </c>
       <c r="AO35" s="3">
-        <f t="shared" ref="AO35" si="269">U35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AO35" si="270">U35*100/SUM($P35:$Y35)</f>
         <v>12.588471832200575</v>
       </c>
       <c r="AP35" s="3">
-        <f t="shared" ref="AP35" si="270">V35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AP35" si="271">V35*100/SUM($P35:$Y35)</f>
         <v>10.493160819363965</v>
       </c>
       <c r="AQ35" s="3">
-        <f t="shared" ref="AQ35" si="271">W35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AQ35" si="272">W35*100/SUM($P35:$Y35)</f>
         <v>8.5548206816978887</v>
       </c>
       <c r="AR35" s="3">
-        <f t="shared" ref="AR35" si="272">X35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AR35" si="273">X35*100/SUM($P35:$Y35)</f>
         <v>11.390414183182969</v>
       </c>
       <c r="AS35" s="3">
-        <f t="shared" ref="AS35" si="273">Y35*100/SUM($P35:$Y35)</f>
+        <f t="shared" ref="AS35" si="274">Y35*100/SUM($P35:$Y35)</f>
         <v>35.916399586499224</v>
       </c>
     </row>
@@ -14737,14 +14947,14 @@
         <v>8866</v>
       </c>
       <c r="C36" s="17">
-        <f>mtl_newcases!B37</f>
+        <f t="shared" si="0"/>
         <v>308</v>
       </c>
       <c r="D36">
         <v>513</v>
       </c>
       <c r="E36">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>59</v>
       </c>
       <c r="F36" cm="1">
@@ -14819,83 +15029,83 @@
         <v>1709.4276605434948</v>
       </c>
       <c r="Z36" s="3">
-        <f t="shared" ref="Z36" si="274">F36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="Z36" si="275">F36*100/SUM($F36:$O36)</f>
         <v>0.54541142992648806</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" ref="AA36" si="275">G36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AA36" si="276">G36*100/SUM($F36:$O36)</f>
         <v>0.4149869575527626</v>
       </c>
       <c r="AB36" s="3">
-        <f t="shared" ref="AB36" si="276">H36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AB36" si="277">H36*100/SUM($F36:$O36)</f>
         <v>2.3357837325112638</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" ref="AC36" si="277">I36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AC36" si="278">I36*100/SUM($F36:$O36)</f>
         <v>12.117619160540668</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" ref="AD36" si="278">J36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AD36" si="279">J36*100/SUM($F36:$O36)</f>
         <v>14.820962769741522</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" ref="AE36" si="279">K36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AE36" si="280">K36*100/SUM($F36:$O36)</f>
         <v>17.20417358311596</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" ref="AF36" si="280">L36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AF36" si="281">L36*100/SUM($F36:$O36)</f>
         <v>14.785392459094142</v>
       </c>
       <c r="AG36" s="3">
-        <f t="shared" ref="AG36" si="281">M36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AG36" si="282">M36*100/SUM($F36:$O36)</f>
         <v>9.5091297130661605</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" ref="AH36" si="282">N36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AH36" si="283">N36*100/SUM($F36:$O36)</f>
         <v>8.2404552999762863</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" ref="AI36" si="283">O36*100/SUM($F36:$O36)</f>
+        <f t="shared" ref="AI36" si="284">O36*100/SUM($F36:$O36)</f>
         <v>20.026084894474746</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36" si="284">P36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AJ36" si="285">P36*100/SUM($P36:$Y36)</f>
         <v>0.90450950817297315</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" ref="AK36" si="285">Q36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AK36" si="286">Q36*100/SUM($P36:$Y36)</f>
         <v>0.72351944826771564</v>
       </c>
       <c r="AL36" s="3">
-        <f t="shared" ref="AL36" si="286">R36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AL36" si="287">R36*100/SUM($P36:$Y36)</f>
         <v>2.2589232918462181</v>
       </c>
       <c r="AM36" s="3">
-        <f t="shared" ref="AM36" si="287">S36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AM36" si="288">S36*100/SUM($P36:$Y36)</f>
         <v>7.5209060146195723</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ref="AN36" si="288">T36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AN36" si="289">T36*100/SUM($P36:$Y36)</f>
         <v>9.0007719800528534</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" ref="AO36" si="289">U36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AO36" si="290">U36*100/SUM($P36:$Y36)</f>
         <v>12.303893125440261</v>
       </c>
       <c r="AP36" s="3">
-        <f t="shared" ref="AP36" si="290">V36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AP36" si="291">V36*100/SUM($P36:$Y36)</f>
         <v>10.394332430319054</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" ref="AQ36" si="291">W36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AQ36" si="292">W36*100/SUM($P36:$Y36)</f>
         <v>8.4417050791312036</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" ref="AR36" si="292">X36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AR36" si="293">X36*100/SUM($P36:$Y36)</f>
         <v>11.564638547008176</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" ref="AS36" si="293">Y36*100/SUM($P36:$Y36)</f>
+        <f t="shared" ref="AS36" si="294">Y36*100/SUM($P36:$Y36)</f>
         <v>36.88680057514199</v>
       </c>
     </row>
@@ -14908,14 +15118,14 @@
         <v>9248</v>
       </c>
       <c r="C37" s="17">
-        <f>mtl_newcases!B38</f>
+        <f t="shared" si="0"/>
         <v>382</v>
       </c>
       <c r="D37">
         <v>525</v>
       </c>
       <c r="E37">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>12</v>
       </c>
       <c r="F37" t="s">
@@ -15048,14 +15258,14 @@
         <v>9701</v>
       </c>
       <c r="C38" s="17">
-        <f>mtl_newcases!B39</f>
+        <f t="shared" si="0"/>
         <v>453</v>
       </c>
       <c r="D38">
         <v>583</v>
       </c>
       <c r="E38">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>58</v>
       </c>
       <c r="F38" cm="1">
@@ -15130,83 +15340,83 @@
         <v>2001.9229796062953</v>
       </c>
       <c r="Z38" s="3">
-        <f t="shared" ref="Z38" si="294">F38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="Z38" si="295">F38*100/SUM($F38:$O38)</f>
         <v>0.61119450997212099</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" ref="AA38" si="295">G38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AA38" si="296">G38*100/SUM($F38:$O38)</f>
         <v>0.4717992708556723</v>
       </c>
       <c r="AB38" s="3">
-        <f t="shared" ref="AB38" si="296">H38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AB38" si="297">H38*100/SUM($F38:$O38)</f>
         <v>2.444778039888484</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" ref="AC38" si="297">I38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AC38" si="298">I38*100/SUM($F38:$O38)</f>
         <v>11.998713274715849</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" ref="AD38" si="298">J38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AD38" si="299">J38*100/SUM($F38:$O38)</f>
         <v>14.282650654085353</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" ref="AE38" si="299">K38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AE38" si="300">K38*100/SUM($F38:$O38)</f>
         <v>16.791764958181428</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" ref="AF38" si="300">L38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AF38" si="301">L38*100/SUM($F38:$O38)</f>
         <v>14.422045893201801</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" ref="AG38" si="301">M38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AG38" si="302">M38*100/SUM($F38:$O38)</f>
         <v>9.4359854171134465</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" ref="AH38" si="302">N38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AH38" si="303">N38*100/SUM($F38:$O38)</f>
         <v>8.3315462148831223</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" ref="AI38" si="303">O38*100/SUM($F38:$O38)</f>
+        <f t="shared" ref="AI38" si="304">O38*100/SUM($F38:$O38)</f>
         <v>21.209521767102725</v>
       </c>
       <c r="AJ38" s="3">
-        <f t="shared" ref="AJ38" si="304">P38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AJ38" si="305">P38*100/SUM($P38:$Y38)</f>
         <v>0.99759097120159768</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" ref="AK38" si="305">Q38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AK38" si="306">Q38*100/SUM($P38:$Y38)</f>
         <v>0.80957519101524245</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" ref="AL38" si="306">R38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AL38" si="307">R38*100/SUM($P38:$Y38)</f>
         <v>2.3269789447546469</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" ref="AM38" si="307">S38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AM38" si="308">S38*100/SUM($P38:$Y38)</f>
         <v>7.3294553178607096</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" ref="AN38" si="308">T38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AN38" si="309">T38*100/SUM($P38:$Y38)</f>
         <v>8.5368238630043098</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" ref="AO38" si="309">U38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AO38" si="310">U38*100/SUM($P38:$Y38)</f>
         <v>11.819231652325325</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" ref="AP38" si="310">V38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AP38" si="311">V38*100/SUM($P38:$Y38)</f>
         <v>9.978718756200303</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" ref="AQ38" si="311">W38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AQ38" si="312">W38*100/SUM($P38:$Y38)</f>
         <v>8.2444336786055032</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" ref="AR38" si="312">X38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AR38" si="313">X38*100/SUM($P38:$Y38)</f>
         <v>11.507755525152117</v>
       </c>
       <c r="AS38" s="3">
-        <f t="shared" ref="AS38" si="313">Y38*100/SUM($P38:$Y38)</f>
+        <f t="shared" ref="AS38" si="314">Y38*100/SUM($P38:$Y38)</f>
         <v>38.449436099880238</v>
       </c>
     </row>
@@ -15219,14 +15429,14 @@
         <v>10120</v>
       </c>
       <c r="C39" s="17">
-        <f>mtl_newcases!B40</f>
+        <f t="shared" si="0"/>
         <v>419</v>
       </c>
       <c r="D39">
         <v>647</v>
       </c>
       <c r="E39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>64</v>
       </c>
       <c r="F39" cm="1">
@@ -15301,83 +15511,83 @@
         <v>2178.0274277617532</v>
       </c>
       <c r="Z39" s="3">
-        <f t="shared" ref="Z39" si="314">F39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="Z39" si="315">F39*100/SUM($F39:$O39)</f>
         <v>0.62029692902176126</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" ref="AA39" si="315">G39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AA39" si="316">G39*100/SUM($F39:$O39)</f>
         <v>0.49827130364043115</v>
       </c>
       <c r="AB39" s="3">
-        <f t="shared" ref="AB39" si="316">H39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AB39" si="317">H39*100/SUM($F39:$O39)</f>
         <v>2.3998372991661583</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" ref="AC39" si="317">I39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AC39" si="318">I39*100/SUM($F39:$O39)</f>
         <v>11.74496644295302</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" ref="AD39" si="318">J39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AD39" si="319">J39*100/SUM($F39:$O39)</f>
         <v>14.012609314622738</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" ref="AE39" si="319">K39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AE39" si="320">K39*100/SUM($F39:$O39)</f>
         <v>16.58531624974578</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" ref="AF39" si="320">L39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AF39" si="321">L39*100/SUM($F39:$O39)</f>
         <v>14.348179784421395</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" ref="AG39" si="321">M39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AG39" si="322">M39*100/SUM($F39:$O39)</f>
         <v>9.4468171649379702</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" ref="AH39" si="322">N39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AH39" si="323">N39*100/SUM($F39:$O39)</f>
         <v>8.4604433597722188</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" ref="AI39" si="323">O39*100/SUM($F39:$O39)</f>
+        <f t="shared" ref="AI39" si="324">O39*100/SUM($F39:$O39)</f>
         <v>21.883262151718526</v>
       </c>
       <c r="AJ39" s="3">
-        <f t="shared" ref="AJ39" si="324">P39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AJ39" si="325">P39*100/SUM($P39:$Y39)</f>
         <v>1.0032823496075638</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" ref="AK39" si="325">Q39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AK39" si="326">Q39*100/SUM($P39:$Y39)</f>
         <v>0.84725916861221784</v>
       </c>
       <c r="AL39" s="3">
-        <f t="shared" ref="AL39" si="326">R39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AL39" si="327">R39*100/SUM($P39:$Y39)</f>
         <v>2.2635249835543267</v>
       </c>
       <c r="AM39" s="3">
-        <f t="shared" ref="AM39" si="327">S39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AM39" si="328">S39*100/SUM($P39:$Y39)</f>
         <v>7.1095036586101594</v>
       </c>
       <c r="AN39" s="3">
-        <f t="shared" ref="AN39" si="328">T39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AN39" si="329">T39*100/SUM($P39:$Y39)</f>
         <v>8.2995968339087067</v>
       </c>
       <c r="AO39" s="3">
-        <f t="shared" ref="AO39" si="329">U39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AO39" si="330">U39*100/SUM($P39:$Y39)</f>
         <v>11.56823575570523</v>
       </c>
       <c r="AP39" s="3">
-        <f t="shared" ref="AP39" si="330">V39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AP39" si="331">V39*100/SUM($P39:$Y39)</f>
         <v>9.8377366961276582</v>
       </c>
       <c r="AQ39" s="3">
-        <f t="shared" ref="AQ39" si="331">W39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AQ39" si="332">W39*100/SUM($P39:$Y39)</f>
         <v>8.179175996720808</v>
       </c>
       <c r="AR39" s="3">
-        <f t="shared" ref="AR39" si="332">X39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AR39" si="333">X39*100/SUM($P39:$Y39)</f>
         <v>11.580001542032482</v>
       </c>
       <c r="AS39" s="3">
-        <f t="shared" ref="AS39" si="333">Y39*100/SUM($P39:$Y39)</f>
+        <f t="shared" ref="AS39" si="334">Y39*100/SUM($P39:$Y39)</f>
         <v>39.31168301512087</v>
       </c>
     </row>
@@ -15390,14 +15600,14 @@
         <v>10637</v>
       </c>
       <c r="C40" s="17">
-        <f>mtl_newcases!B41</f>
+        <f t="shared" si="0"/>
         <v>517</v>
       </c>
       <c r="D40">
         <v>741</v>
       </c>
       <c r="E40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>94</v>
       </c>
       <c r="F40" cm="1">
@@ -15472,83 +15682,83 @@
         <v>2347.0472142098074</v>
       </c>
       <c r="Z40" s="3">
-        <f t="shared" ref="Z40:Z41" si="334">F40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="Z40:Z41" si="335">F40*100/SUM($F40:$O40)</f>
         <v>0.64721792890262753</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" ref="AA40:AA41" si="335">G40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AA40:AA41" si="336">G40*100/SUM($F40:$O40)</f>
         <v>0.49265842349304484</v>
       </c>
       <c r="AB40" s="3">
-        <f t="shared" ref="AB40:AB41" si="336">H40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AB40:AB41" si="337">H40*100/SUM($F40:$O40)</f>
         <v>2.4439721792890263</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" ref="AC40:AC41" si="337">I40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AC40:AC41" si="338">I40*100/SUM($F40:$O40)</f>
         <v>11.698222565687789</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" ref="AD40:AD41" si="338">J40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AD40:AD41" si="339">J40*100/SUM($F40:$O40)</f>
         <v>13.784775888717157</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" ref="AE40:AE41" si="339">K40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AE40:AE41" si="340">K40*100/SUM($F40:$O40)</f>
         <v>16.460587326120557</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" ref="AF40:AF41" si="340">L40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AF40:AF41" si="341">L40*100/SUM($F40:$O40)</f>
         <v>14.113214837712519</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" ref="AG40:AG41" si="341">M40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AG40:AG41" si="342">M40*100/SUM($F40:$O40)</f>
         <v>9.3605100463678514</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" ref="AH40:AH41" si="342">N40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AH40:AH41" si="343">N40*100/SUM($F40:$O40)</f>
         <v>8.5973724884080376</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" ref="AI40:AI41" si="343">O40*100/SUM($F40:$O40)</f>
+        <f t="shared" ref="AI40:AI41" si="344">O40*100/SUM($F40:$O40)</f>
         <v>22.40146831530139</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" ref="AJ40:AJ41" si="344">P40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AJ40:AJ41" si="345">P40*100/SUM($P40:$Y40)</f>
         <v>1.0394666225837563</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" ref="AK40:AK41" si="345">Q40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AK40:AK41" si="346">Q40*100/SUM($P40:$Y40)</f>
         <v>0.83182655843921827</v>
       </c>
       <c r="AL40" s="3">
-        <f t="shared" ref="AL40:AL41" si="346">R40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AL40:AL41" si="347">R40*100/SUM($P40:$Y40)</f>
         <v>2.2889495444957406</v>
       </c>
       <c r="AM40" s="3">
-        <f t="shared" ref="AM40:AM41" si="347">S40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AM40:AM41" si="348">S40*100/SUM($P40:$Y40)</f>
         <v>7.0314331149400298</v>
       </c>
       <c r="AN40" s="3">
-        <f t="shared" ref="AN40:AN41" si="348">T40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AN40:AN41" si="349">T40*100/SUM($P40:$Y40)</f>
         <v>8.1072611169892355</v>
       </c>
       <c r="AO40" s="3">
-        <f t="shared" ref="AO40:AO41" si="349">U40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AO40:AO41" si="350">U40*100/SUM($P40:$Y40)</f>
         <v>11.400533345335202</v>
       </c>
       <c r="AP40" s="3">
-        <f t="shared" ref="AP40:AP41" si="350">V40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AP40:AP41" si="351">V40*100/SUM($P40:$Y40)</f>
         <v>9.6086152986404016</v>
       </c>
       <c r="AQ40" s="3">
-        <f t="shared" ref="AQ40:AQ41" si="351">W40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AQ40:AQ41" si="352">W40*100/SUM($P40:$Y40)</f>
         <v>8.0474822114137581</v>
       </c>
       <c r="AR40" s="3">
-        <f t="shared" ref="AR40:AR41" si="352">X40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AR40:AR41" si="353">X40*100/SUM($P40:$Y40)</f>
         <v>11.684703768459197</v>
       </c>
       <c r="AS40" s="3">
-        <f t="shared" ref="AS40:AS41" si="353">Y40*100/SUM($P40:$Y40)</f>
+        <f t="shared" ref="AS40:AS41" si="354">Y40*100/SUM($P40:$Y40)</f>
         <v>39.959728418703463</v>
       </c>
     </row>
@@ -15561,14 +15771,14 @@
         <v>11140</v>
       </c>
       <c r="C41" s="17">
-        <f>mtl_newcases!B42</f>
+        <f t="shared" si="0"/>
         <v>503</v>
       </c>
       <c r="D41">
         <v>808</v>
       </c>
       <c r="E41">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>67</v>
       </c>
       <c r="F41" cm="1">
@@ -15643,83 +15853,83 @@
         <v>2504.9339608319419</v>
       </c>
       <c r="Z41" s="3">
-        <f t="shared" si="334"/>
+        <f t="shared" si="335"/>
         <v>0.68064753495217067</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="336"/>
         <v>0.47829286239882268</v>
       </c>
       <c r="AB41" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="337"/>
         <v>2.4282560706401766</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v>11.607799852832965</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v>13.539367181751288</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="339"/>
+        <f t="shared" si="340"/>
         <v>16.243561442236938</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v>14.118837380426784</v>
       </c>
       <c r="AG41" s="3">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>9.3910963944076524</v>
       </c>
       <c r="AH41" s="3">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>8.7472406181015447</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>22.764900662251655</v>
       </c>
       <c r="AJ41" s="3">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>1.0872004423878765</v>
       </c>
       <c r="AK41" s="3">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.8031711582871579</v>
       </c>
       <c r="AL41" s="3">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>2.2618394785880218</v>
       </c>
       <c r="AM41" s="3">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>6.9390691680417298</v>
       </c>
       <c r="AN41" s="3">
-        <f t="shared" si="348"/>
+        <f t="shared" si="349"/>
         <v>7.9195435721190854</v>
       </c>
       <c r="AO41" s="3">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>11.188926803893656</v>
       </c>
       <c r="AP41" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>9.560071149888989</v>
       </c>
       <c r="AQ41" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>8.0297892177412997</v>
       </c>
       <c r="AR41" s="3">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>11.823617500959838</v>
       </c>
       <c r="AS41" s="3">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>40.386771508092345</v>
       </c>
     </row>
@@ -15732,14 +15942,14 @@
         <v>11626</v>
       </c>
       <c r="C42" s="17">
-        <f>mtl_newcases!B43</f>
+        <f t="shared" si="0"/>
         <v>486</v>
       </c>
       <c r="D42">
         <v>895</v>
       </c>
       <c r="E42">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>87</v>
       </c>
       <c r="F42" cm="1">
@@ -15814,83 +16024,83 @@
         <v>2699.2561105207228</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" ref="Z42" si="354">F42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="Z42" si="355">F42*100/SUM($F42:$O42)</f>
         <v>0.83693304535637147</v>
       </c>
       <c r="AA42" s="3">
-        <f t="shared" ref="AA42" si="355">G42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AA42" si="356">G42*100/SUM($F42:$O42)</f>
         <v>0.68394528437724977</v>
       </c>
       <c r="AB42" s="3">
-        <f t="shared" ref="AB42" si="356">H42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AB42" si="357">H42*100/SUM($F42:$O42)</f>
         <v>2.9517638588912889</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" ref="AC42" si="357">I42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AC42" si="358">I42*100/SUM($F42:$O42)</f>
         <v>11.312095032397409</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" ref="AD42" si="358">J42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AD42" si="359">J42*100/SUM($F42:$O42)</f>
         <v>13.273938084953203</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" ref="AE42" si="359">K42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AE42" si="360">K42*100/SUM($F42:$O42)</f>
         <v>15.325773938084954</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" ref="AF42" si="360">L42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AF42" si="361">L42*100/SUM($F42:$O42)</f>
         <v>13.300935925125989</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" ref="AG42" si="361">M42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AG42" si="362">M42*100/SUM($F42:$O42)</f>
         <v>9.1972642188624913</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" ref="AH42" si="362">N42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AH42" si="363">N42*100/SUM($F42:$O42)</f>
         <v>9.1162706983441328</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" ref="AI42" si="363">O42*100/SUM($F42:$O42)</f>
+        <f t="shared" ref="AI42" si="364">O42*100/SUM($F42:$O42)</f>
         <v>24.001079913606912</v>
       </c>
       <c r="AJ42" s="3">
-        <f t="shared" ref="AJ42" si="364">P42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AJ42" si="365">P42*100/SUM($P42:$Y42)</f>
         <v>1.309458440947683</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" ref="AK42" si="365">Q42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AK42" si="366">Q42*100/SUM($P42:$Y42)</f>
         <v>1.1249914545594504</v>
       </c>
       <c r="AL42" s="3">
-        <f t="shared" ref="AL42" si="366">R42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AL42" si="367">R42*100/SUM($P42:$Y42)</f>
         <v>2.6931625527241341</v>
       </c>
       <c r="AM42" s="3">
-        <f t="shared" ref="AM42" si="367">S42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AM42" si="368">S42*100/SUM($P42:$Y42)</f>
         <v>6.6238121821811253</v>
       </c>
       <c r="AN42" s="3">
-        <f t="shared" ref="AN42" si="368">T42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AN42" si="369">T42*100/SUM($P42:$Y42)</f>
         <v>7.6052804420436884</v>
       </c>
       <c r="AO42" s="3">
-        <f t="shared" ref="AO42" si="369">U42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AO42" si="370">U42*100/SUM($P42:$Y42)</f>
         <v>10.340540781695676</v>
       </c>
       <c r="AP42" s="3">
-        <f t="shared" ref="AP42" si="370">V42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AP42" si="371">V42*100/SUM($P42:$Y42)</f>
         <v>8.8218170906823641</v>
       </c>
       <c r="AQ42" s="3">
-        <f t="shared" ref="AQ42" si="371">W42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AQ42" si="372">W42*100/SUM($P42:$Y42)</f>
         <v>7.7030048118107741</v>
       </c>
       <c r="AR42" s="3">
-        <f t="shared" ref="AR42" si="372">X42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AR42" si="373">X42*100/SUM($P42:$Y42)</f>
         <v>12.070080604583618</v>
       </c>
       <c r="AS42" s="3">
-        <f t="shared" ref="AS42" si="373">Y42*100/SUM($P42:$Y42)</f>
+        <f t="shared" ref="AS42" si="374">Y42*100/SUM($P42:$Y42)</f>
         <v>41.707851638771473</v>
       </c>
     </row>
@@ -15903,14 +16113,14 @@
         <v>11900</v>
       </c>
       <c r="C43" s="17">
-        <f>mtl_newcases!B44</f>
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
       <c r="D43">
         <v>938</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43" si="374">D43-D42</f>
+        <f t="shared" ref="E43" si="375">D43-D42</f>
         <v>43</v>
       </c>
       <c r="F43" cm="1">
@@ -15985,83 +16195,83 @@
         <v>2789.3325236577098</v>
       </c>
       <c r="Z43" s="3">
-        <f t="shared" ref="Z43" si="375">F43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="Z43" si="376">F43*100/SUM($F43:$O43)</f>
         <v>0.84789756013151063</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" ref="AA43" si="376">G43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AA43" si="377">G43*100/SUM($F43:$O43)</f>
         <v>0.7873334486935456</v>
       </c>
       <c r="AB43" s="3">
-        <f t="shared" ref="AB43" si="377">H43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AB43" si="378">H43*100/SUM($F43:$O43)</f>
         <v>3.0801176674165078</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" ref="AC43" si="378">I43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AC43" si="379">I43*100/SUM($F43:$O43)</f>
         <v>11.446617061775394</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" ref="AD43" si="379">J43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AD43" si="380">J43*100/SUM($F43:$O43)</f>
         <v>13.202976293476381</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" ref="AE43" si="380">K43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AE43" si="381">K43*100/SUM($F43:$O43)</f>
         <v>15.28811213012632</v>
       </c>
       <c r="AF43" s="3">
-        <f t="shared" ref="AF43" si="381">L43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AF43" si="382">L43*100/SUM($F43:$O43)</f>
         <v>13.289496452673474</v>
       </c>
       <c r="AG43" s="3">
-        <f t="shared" ref="AG43" si="382">M43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AG43" si="383">M43*100/SUM($F43:$O43)</f>
         <v>9.067312683855338</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" ref="AH43" si="383">N43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AH43" si="384">N43*100/SUM($F43:$O43)</f>
         <v>9.1451808271327213</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" ref="AI43" si="384">O43*100/SUM($F43:$O43)</f>
+        <f t="shared" ref="AI43" si="385">O43*100/SUM($F43:$O43)</f>
         <v>23.84495587471881</v>
       </c>
       <c r="AJ43" s="3">
-        <f t="shared" ref="AJ43" si="385">P43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AJ43" si="386">P43*100/SUM($P43:$Y43)</f>
         <v>1.3270437782436821</v>
       </c>
       <c r="AK43" s="3">
-        <f t="shared" ref="AK43" si="386">Q43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AK43" si="387">Q43*100/SUM($P43:$Y43)</f>
         <v>1.2954701995483768</v>
       </c>
       <c r="AL43" s="3">
-        <f t="shared" ref="AL43" si="387">R43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AL43" si="388">R43*100/SUM($P43:$Y43)</f>
         <v>2.8111830457711968</v>
       </c>
       <c r="AM43" s="3">
-        <f t="shared" ref="AM43" si="388">S43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AM43" si="389">S43*100/SUM($P43:$Y43)</f>
         <v>6.7047560304552247</v>
       </c>
       <c r="AN43" s="3">
-        <f t="shared" ref="AN43" si="389">T43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AN43" si="390">T43*100/SUM($P43:$Y43)</f>
         <v>7.5670769431008953</v>
       </c>
       <c r="AO43" s="3">
-        <f t="shared" ref="AO43" si="390">U43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AO43" si="391">U43*100/SUM($P43:$Y43)</f>
         <v>10.318475962901765</v>
       </c>
       <c r="AP43" s="3">
-        <f t="shared" ref="AP43" si="391">V43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AP43" si="392">V43*100/SUM($P43:$Y43)</f>
         <v>8.8170891935779085</v>
       </c>
       <c r="AQ43" s="3">
-        <f t="shared" ref="AQ43" si="392">W43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AQ43" si="393">W43*100/SUM($P43:$Y43)</f>
         <v>7.5966297420936906</v>
       </c>
       <c r="AR43" s="3">
-        <f t="shared" ref="AR43" si="393">X43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AR43" si="394">X43*100/SUM($P43:$Y43)</f>
         <v>12.112285966496495</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" ref="AS43" si="394">Y43*100/SUM($P43:$Y43)</f>
+        <f t="shared" ref="AS43" si="395">Y43*100/SUM($P43:$Y43)</f>
         <v>41.449989137810761</v>
       </c>
     </row>
@@ -16074,14 +16284,14 @@
         <v>12183</v>
       </c>
       <c r="C44" s="17">
-        <f>mtl_newcases!B45</f>
+        <f>B44-B43</f>
         <v>283</v>
       </c>
       <c r="D44">
         <v>983</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44" si="395">D44-D43</f>
+        <f t="shared" ref="E44" si="396">D44-D43</f>
         <v>45</v>
       </c>
       <c r="F44" cm="1">
@@ -16156,83 +16366,83 @@
         <v>2883.4573149132129</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" ref="Z44" si="396">F44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="Z44" si="397">F44*100/SUM($F44:$O44)</f>
         <v>0.91904085554348736</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" ref="AA44" si="397">G44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AA44" si="398">G44*100/SUM($F44:$O44)</f>
         <v>0.86055643746344723</v>
       </c>
       <c r="AB44" s="3">
-        <f t="shared" ref="AB44" si="398">H44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AB44" si="399">H44*100/SUM($F44:$O44)</f>
         <v>3.3085470799565546</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" ref="AC44" si="399">I44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AC44" si="400">I44*100/SUM($F44:$O44)</f>
         <v>11.471300860556438</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" ref="AD44" si="400">J44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AD44" si="401">J44*100/SUM($F44:$O44)</f>
         <v>13.150639151140446</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" ref="AE44" si="401">K44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AE44" si="402">K44*100/SUM($F44:$O44)</f>
         <v>15.172529033336119</v>
       </c>
       <c r="AF44" s="3">
-        <f t="shared" ref="AF44" si="402">L44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AF44" si="403">L44*100/SUM($F44:$O44)</f>
         <v>13.242543236694795</v>
       </c>
       <c r="AG44" s="3">
-        <f t="shared" ref="AG44" si="403">M44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AG44" si="404">M44*100/SUM($F44:$O44)</f>
         <v>8.9898905505890223</v>
       </c>
       <c r="AH44" s="3">
-        <f t="shared" ref="AH44" si="404">N44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AH44" si="405">N44*100/SUM($F44:$O44)</f>
         <v>9.0817946361433712</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" ref="AI44" si="405">O44*100/SUM($F44:$O44)</f>
+        <f t="shared" ref="AI44" si="406">O44*100/SUM($F44:$O44)</f>
         <v>23.803158158576323</v>
       </c>
       <c r="AJ44" s="3">
-        <f t="shared" ref="AJ44" si="406">P44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AJ44" si="407">P44*100/SUM($P44:$Y44)</f>
         <v>1.4370373082318426</v>
       </c>
       <c r="AK44" s="3">
-        <f t="shared" ref="AK44" si="407">Q44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AK44" si="408">Q44*100/SUM($P44:$Y44)</f>
         <v>1.4146188579125638</v>
       </c>
       <c r="AL44" s="3">
-        <f t="shared" ref="AL44" si="408">R44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AL44" si="409">R44*100/SUM($P44:$Y44)</f>
         <v>3.0168276278093606</v>
       </c>
       <c r="AM44" s="3">
-        <f t="shared" ref="AM44" si="409">S44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AM44" si="410">S44*100/SUM($P44:$Y44)</f>
         <v>6.7128950335675386</v>
       </c>
       <c r="AN44" s="3">
-        <f t="shared" ref="AN44" si="410">T44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AN44" si="411">T44*100/SUM($P44:$Y44)</f>
         <v>7.5299922309544556</v>
       </c>
       <c r="AO44" s="3">
-        <f t="shared" ref="AO44" si="411">U44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AO44" si="412">U44*100/SUM($P44:$Y44)</f>
         <v>10.230833932854205</v>
       </c>
       <c r="AP44" s="3">
-        <f t="shared" ref="AP44" si="412">V44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AP44" si="413">V44*100/SUM($P44:$Y44)</f>
         <v>8.7776744345024156</v>
       </c>
       <c r="AQ44" s="3">
-        <f t="shared" ref="AQ44" si="413">W44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AQ44" si="414">W44*100/SUM($P44:$Y44)</f>
         <v>7.5246816705122459</v>
       </c>
       <c r="AR44" s="3">
-        <f t="shared" ref="AR44" si="414">X44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AR44" si="415">X44*100/SUM($P44:$Y44)</f>
         <v>12.017022002497681</v>
       </c>
       <c r="AS44" s="3">
-        <f t="shared" ref="AS44" si="415">Y44*100/SUM($P44:$Y44)</f>
+        <f t="shared" ref="AS44" si="416">Y44*100/SUM($P44:$Y44)</f>
         <v>41.338416901157693</v>
       </c>
     </row>
@@ -16245,14 +16455,14 @@
         <v>12487</v>
       </c>
       <c r="C45" s="17">
-        <f>mtl_newcases!B46</f>
+        <f>B45-B44</f>
         <v>304</v>
       </c>
       <c r="D45">
         <v>1039</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" si="416">D45-D44</f>
+        <f t="shared" ref="E45:E47" si="417">D45-D44</f>
         <v>56</v>
       </c>
       <c r="F45" cm="1">
@@ -16327,83 +16537,83 @@
         <v>3033.247305298315</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" ref="Z45" si="417">F45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="Z45" si="418">F45*100/SUM($F45:$O45)</f>
         <v>0.91787439613526567</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" ref="AA45" si="418">G45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AA45" si="419">G45*100/SUM($F45:$O45)</f>
         <v>0.87761674718196458</v>
       </c>
       <c r="AB45" s="3">
-        <f t="shared" ref="AB45" si="419">H45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AB45" si="420">H45*100/SUM($F45:$O45)</f>
         <v>3.2769726247987117</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" ref="AC45" si="420">I45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AC45" si="421">I45*100/SUM($F45:$O45)</f>
         <v>11.368760064412239</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" ref="AD45" si="421">J45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AD45" si="422">J45*100/SUM($F45:$O45)</f>
         <v>13.115942028985508</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" ref="AE45" si="422">K45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AE45" si="423">K45*100/SUM($F45:$O45)</f>
         <v>15.136876006441224</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" ref="AF45" si="423">L45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AF45" si="424">L45*100/SUM($F45:$O45)</f>
         <v>13.115942028985508</v>
       </c>
       <c r="AG45" s="3">
-        <f t="shared" ref="AG45" si="424">M45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AG45" si="425">M45*100/SUM($F45:$O45)</f>
         <v>8.9613526570048307</v>
       </c>
       <c r="AH45" s="3">
-        <f t="shared" ref="AH45" si="425">N45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AH45" si="426">N45*100/SUM($F45:$O45)</f>
         <v>9.0982286634460543</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" ref="AI45" si="426">O45*100/SUM($F45:$O45)</f>
+        <f t="shared" ref="AI45" si="427">O45*100/SUM($F45:$O45)</f>
         <v>24.130434782608695</v>
       </c>
       <c r="AJ45" s="3">
-        <f t="shared" ref="AJ45" si="427">P45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AJ45" si="428">P45*100/SUM($P45:$Y45)</f>
         <v>1.4298395973972011</v>
       </c>
       <c r="AK45" s="3">
-        <f t="shared" ref="AK45" si="428">Q45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AK45" si="429">Q45*100/SUM($P45:$Y45)</f>
         <v>1.4372616149058695</v>
       </c>
       <c r="AL45" s="3">
-        <f t="shared" ref="AL45" si="429">R45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AL45" si="430">R45*100/SUM($P45:$Y45)</f>
         <v>2.9768491694798334</v>
       </c>
       <c r="AM45" s="3">
-        <f t="shared" ref="AM45" si="430">S45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AM45" si="431">S45*100/SUM($P45:$Y45)</f>
         <v>6.6279790399485705</v>
       </c>
       <c r="AN45" s="3">
-        <f t="shared" ref="AN45" si="431">T45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AN45" si="432">T45*100/SUM($P45:$Y45)</f>
         <v>7.4820050140436605</v>
       </c>
       <c r="AO45" s="3">
-        <f t="shared" ref="AO45" si="432">U45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AO45" si="433">U45*100/SUM($P45:$Y45)</f>
         <v>10.168576279217222</v>
       </c>
       <c r="AP45" s="3">
-        <f t="shared" ref="AP45" si="433">V45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AP45" si="434">V45*100/SUM($P45:$Y45)</f>
         <v>8.661206576855756</v>
       </c>
       <c r="AQ45" s="3">
-        <f t="shared" ref="AQ45" si="434">W45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AQ45" si="435">W45*100/SUM($P45:$Y45)</f>
         <v>7.4727101190362291</v>
       </c>
       <c r="AR45" s="3">
-        <f t="shared" ref="AR45" si="435">X45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AR45" si="436">X45*100/SUM($P45:$Y45)</f>
         <v>11.993691291570398</v>
       </c>
       <c r="AS45" s="3">
-        <f t="shared" ref="AS45" si="436">Y45*100/SUM($P45:$Y45)</f>
+        <f t="shared" ref="AS45" si="437">Y45*100/SUM($P45:$Y45)</f>
         <v>41.749881297545265</v>
       </c>
     </row>
@@ -16411,11 +16621,12 @@
       <c r="A46" s="19">
         <v>43949</v>
       </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
+      <c r="B46">
+        <v>12811</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" ref="C46:C47" si="438">B46-B45</f>
+        <v>324</v>
       </c>
       <c r="D46" t="s">
         <v>102</v>
@@ -16541,6 +16752,144 @@
         <v>102</v>
       </c>
       <c r="AS46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A47" s="19">
+        <v>43950</v>
+      </c>
+      <c r="B47">
+        <v>13324</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="438"/>
+        <v>513</v>
+      </c>
+      <c r="D47">
+        <v>1146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N47" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" t="s">
+        <v>102</v>
+      </c>
+      <c r="T47" t="s">
+        <v>102</v>
+      </c>
+      <c r="U47" t="s">
+        <v>102</v>
+      </c>
+      <c r="V47" t="s">
+        <v>102</v>
+      </c>
+      <c r="W47" t="s">
+        <v>102</v>
+      </c>
+      <c r="X47" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS47" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16551,11 +16900,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06CD11-991A-4E1F-B148-C34F5A6BF33A}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16696,7 +17045,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F58" si="1">E4-E3</f>
+        <f t="shared" ref="F4:F59" si="1">E4-E3</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -16709,7 +17058,7 @@
         <v>260</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J58" si="2">I4-I3</f>
+        <f t="shared" ref="J4:J59" si="2">I4-I3</f>
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -18738,7 +19087,7 @@
         <v>26594</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f>B58-B57</f>
         <v>837</v>
       </c>
       <c r="D58">
@@ -18766,6 +19115,44 @@
       </c>
       <c r="K58">
         <v>6048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B59">
+        <v>27538</v>
+      </c>
+      <c r="C59">
+        <f>B59-B58</f>
+        <v>944</v>
+      </c>
+      <c r="D59">
+        <v>19380</v>
+      </c>
+      <c r="E59">
+        <v>1859</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="G59">
+        <v>1684</v>
+      </c>
+      <c r="H59">
+        <v>214</v>
+      </c>
+      <c r="I59">
+        <v>186509</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>4124</v>
+      </c>
+      <c r="K59">
+        <v>6299</v>
       </c>
     </row>
   </sheetData>
@@ -18778,7 +19165,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -19657,9 +20044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE71" sqref="AE71"/>
+      <selection pane="topRight" activeCell="AF56" sqref="AF56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19764,7 +20151,9 @@
       <c r="AE1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AF1" s="5"/>
+      <c r="AF1" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
@@ -20044,7 +20433,9 @@
       <c r="AE2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF2" s="7"/>
+      <c r="AF2" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
@@ -20324,7 +20715,9 @@
       <c r="AE3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" s="9"/>
+      <c r="AF3" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
@@ -20604,7 +20997,9 @@
       <c r="AE4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
@@ -20884,7 +21279,9 @@
       <c r="AE5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF5" s="9"/>
+      <c r="AF5" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
@@ -21164,7 +21561,9 @@
       <c r="AE6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF6" s="7"/>
+      <c r="AF6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
@@ -21444,7 +21843,9 @@
       <c r="AE7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF7" s="9"/>
+      <c r="AF7" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
@@ -21724,7 +22125,9 @@
       <c r="AE8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
@@ -22004,7 +22407,9 @@
       <c r="AE9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF9" s="9"/>
+      <c r="AF9" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
@@ -22284,7 +22689,9 @@
       <c r="AE10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF10" s="7"/>
+      <c r="AF10" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
@@ -22564,7 +22971,9 @@
       <c r="AE11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF11" s="9"/>
+      <c r="AF11" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
@@ -22844,7 +23253,9 @@
       <c r="AE12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF12" s="7"/>
+      <c r="AF12" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
@@ -23124,7 +23535,9 @@
       <c r="AE13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF13" s="9"/>
+      <c r="AF13" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
@@ -23404,7 +23817,9 @@
       <c r="AE14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" s="7"/>
+      <c r="AF14" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
@@ -23684,7 +24099,9 @@
       <c r="AE15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF15" s="9"/>
+      <c r="AF15" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
@@ -23964,7 +24381,9 @@
       <c r="AE16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF16" s="7"/>
+      <c r="AF16" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
@@ -24244,7 +24663,9 @@
       <c r="AE17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF17" s="9"/>
+      <c r="AF17" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
@@ -24524,7 +24945,9 @@
       <c r="AE18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF18" s="7"/>
+      <c r="AF18" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
@@ -24804,7 +25227,9 @@
       <c r="AE19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF19" s="9"/>
+      <c r="AF19" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
@@ -25084,7 +25509,9 @@
       <c r="AE20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" s="7"/>
+      <c r="AF20" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
@@ -25364,7 +25791,9 @@
       <c r="AE21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF21" s="9"/>
+      <c r="AF21" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
@@ -25644,7 +26073,9 @@
       <c r="AE22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF22" s="7"/>
+      <c r="AF22" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
@@ -25924,7 +26355,9 @@
       <c r="AE23" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF23" s="9"/>
+      <c r="AF23" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -26204,7 +26637,9 @@
       <c r="AE24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF24" s="7"/>
+      <c r="AF24" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
@@ -26484,7 +26919,9 @@
       <c r="AE25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF25" s="9"/>
+      <c r="AF25" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
@@ -26764,7 +27201,9 @@
       <c r="AE26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF26" s="7"/>
+      <c r="AF26" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
@@ -27044,7 +27483,9 @@
       <c r="AE27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF27" s="9"/>
+      <c r="AF27" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
@@ -27324,7 +27765,9 @@
       <c r="AE28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF28" s="7"/>
+      <c r="AF28" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
@@ -27604,7 +28047,9 @@
       <c r="AE29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF29" s="22"/>
+      <c r="AF29" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG29" s="22"/>
       <c r="AH29" s="22"/>
       <c r="AI29" s="22"/>
@@ -27884,7 +28329,9 @@
       <c r="AE30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF30" s="7"/>
+      <c r="AF30" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
@@ -28164,7 +28611,9 @@
       <c r="AE31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF31" s="9"/>
+      <c r="AF31" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
@@ -28444,7 +28893,9 @@
       <c r="AE32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF32" s="7"/>
+      <c r="AF32" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
@@ -28724,7 +29175,9 @@
       <c r="AE33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF33" s="9"/>
+      <c r="AF33" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
@@ -29004,7 +29457,9 @@
       <c r="AE34" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF34" s="7"/>
+      <c r="AF34" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
@@ -29284,7 +29739,9 @@
       <c r="AE35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF35" s="9"/>
+      <c r="AF35" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9"/>
       <c r="AI35" s="9"/>
@@ -29564,7 +30021,9 @@
       <c r="AE36" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AF36" s="11"/>
+      <c r="AF36" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
@@ -33779,7 +34238,9 @@
       <c r="AE56" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AF56" s="5"/>
+      <c r="AF56" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
@@ -34057,7 +34518,9 @@
       <c r="AE57" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF57" s="7"/>
+      <c r="AF57" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
@@ -34335,7 +34798,9 @@
       <c r="AE58" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF58" s="9"/>
+      <c r="AF58" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG58" s="9"/>
       <c r="AH58" s="9"/>
       <c r="AI58" s="9"/>
@@ -34613,7 +35078,9 @@
       <c r="AE59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF59" s="7"/>
+      <c r="AF59" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
@@ -34891,7 +35358,9 @@
       <c r="AE60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF60" s="9"/>
+      <c r="AF60" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG60" s="9"/>
       <c r="AH60" s="9"/>
       <c r="AI60" s="9"/>
@@ -35169,7 +35638,9 @@
       <c r="AE61" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF61" s="7"/>
+      <c r="AF61" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
@@ -35447,7 +35918,9 @@
       <c r="AE62" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF62" s="9"/>
+      <c r="AF62" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG62" s="9"/>
       <c r="AH62" s="9"/>
       <c r="AI62" s="9"/>
@@ -35725,7 +36198,9 @@
       <c r="AE63" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF63" s="7"/>
+      <c r="AF63" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG63" s="7"/>
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
@@ -36003,7 +36478,9 @@
       <c r="AE64" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF64" s="9"/>
+      <c r="AF64" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG64" s="9"/>
       <c r="AH64" s="9"/>
       <c r="AI64" s="9"/>
@@ -36281,7 +36758,9 @@
       <c r="AE65" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF65" s="7"/>
+      <c r="AF65" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
       <c r="AI65" s="7"/>
@@ -36559,7 +37038,9 @@
       <c r="AE66" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AF66" s="9"/>
+      <c r="AF66" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="AG66" s="9"/>
       <c r="AH66" s="9"/>
       <c r="AI66" s="9"/>
@@ -36837,7 +37318,9 @@
       <c r="AE67" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AF67" s="7"/>
+      <c r="AF67" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="AG67" s="7"/>
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
@@ -37115,7 +37598,9 @@
       <c r="AE68" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AF68" s="15"/>
+      <c r="AF68" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="AG68" s="15"/>
       <c r="AH68" s="15"/>
       <c r="AI68" s="15"/>
@@ -37395,6 +37880,9 @@
       <c r="AE70" t="s">
         <v>102</v>
       </c>
+      <c r="AF70" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA899EB7-270A-4053-B52A-FA981E04D674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C131ACF-13B7-4FDC-9D72-6E08D234C4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="3690" windowWidth="31460" windowHeight="15170" tabRatio="512" activeTab="5" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="6840" yWindow="3690" windowWidth="31460" windowHeight="15170" tabRatio="512" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="315">
   <si>
     <t>borough</t>
   </si>
@@ -9491,9 +9491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9609F4-1A5A-459D-8297-63DB4B7007A3}">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D46" sqref="D46"/>
+      <selection pane="topRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16628,11 +16628,12 @@
         <f t="shared" ref="C46:C47" si="438">B46-B45</f>
         <v>324</v>
       </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
+      <c r="D46">
+        <v>1078</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="417"/>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
         <v>102</v>
@@ -16769,8 +16770,9 @@
       <c r="D47">
         <v>1146</v>
       </c>
-      <c r="E47" t="s">
-        <v>102</v>
+      <c r="E47">
+        <f t="shared" si="417"/>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
         <v>102</v>
@@ -17035,7 +17037,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C58" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C57" si="0">B4-B3</f>
         <v>1</v>
       </c>
       <c r="D4">
@@ -20044,7 +20046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261AEA-18EA-4FE9-ACAC-1FB61BEBD535}">
   <dimension ref="A1:HH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AF56" sqref="AF56"/>
     </sheetView>

--- a/data/covid19_MTL.xlsx
+++ b/data/covid19_MTL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\code\github\covid19mtl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C131ACF-13B7-4FDC-9D72-6E08D234C4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFAF5D-0BFE-4048-9D61-3806EEEF8888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="3690" windowWidth="31460" windowHeight="15170" tabRatio="512" activeTab="2" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
+    <workbookView xWindow="8140" yWindow="4270" windowWidth="23520" windowHeight="15660" tabRatio="512" activeTab="5" xr2:uid="{7101190B-3975-43F4-9365-3E35FA155D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="316">
   <si>
     <t>borough</t>
   </si>
@@ -1020,6 +1020,9 @@
   <si>
     <t>29 AVRIL, 18h30</t>
   </si>
+  <si>
+    <t>30 AVRIL, 18h30</t>
+  </si>
 </sst>
 </file>
 
@@ -1532,20 +1535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5D96B4-0147-4A32-9FAF-C932A9839F40}">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AG35"/>
+      <selection activeCell="AG1" sqref="AG1:AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.453125" customWidth="1"/>
     <col min="2" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="33" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="34" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1645,8 +1648,11 @@
       <c r="AG1" s="1">
         <v>43950</v>
       </c>
+      <c r="AH1" s="1">
+        <v>43951</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1746,8 +1752,11 @@
       <c r="AG2" t="s">
         <v>102</v>
       </c>
+      <c r="AH2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1847,8 +1856,11 @@
       <c r="AG3" t="s">
         <v>102</v>
       </c>
+      <c r="AH3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1948,8 +1960,11 @@
       <c r="AG4" t="s">
         <v>102</v>
       </c>
+      <c r="AH4" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2049,8 +2064,11 @@
       <c r="AG5" t="s">
         <v>102</v>
       </c>
+      <c r="AH5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t